--- a/Offline/BusinessManagement/Marketing/AI marketing/AI Workshop Schools-Colleges.xlsx
+++ b/Offline/BusinessManagement/Marketing/AI marketing/AI Workshop Schools-Colleges.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Marketing\AI marketing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379FDAA1-2C28-4C45-AD1B-889DBA706CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E64999FB-DFD9-45FB-93F1-E97E226A5A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="506" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -123,7 +123,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="376">
   <si>
     <t>CBSE</t>
   </si>
@@ -1580,7 +1580,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1640,32 +1640,16 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1695,6 +1679,26 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1980,7 +1984,7 @@
   <dimension ref="B1:R30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D2" sqref="D2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1991,7 +1995,7 @@
     <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="9" max="9" width="5.33203125" customWidth="1"/>
     <col min="10" max="10" width="5.77734375" customWidth="1"/>
     <col min="12" max="12" width="22" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4.21875" bestFit="1" customWidth="1"/>
@@ -2002,47 +2006,41 @@
   <sheetData>
     <row r="1" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:18" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="B2" s="29"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="40" t="s">
+      <c r="B2" s="27"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="49" t="s">
         <v>293</v>
       </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="31"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="40" t="s">
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="29"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="49" t="s">
         <v>375</v>
       </c>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="31"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="29"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B3" s="32"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="34"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="34"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="31"/>
+      <c r="K3" s="30"/>
+      <c r="R3" s="31"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B4" s="32"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="16" t="s">
         <v>245</v>
       </c>
@@ -2050,16 +2048,16 @@
         <f>MAX('School-Details'!A:A)</f>
         <v>121</v>
       </c>
-      <c r="E4" s="33"/>
+      <c r="E4" s="52"/>
       <c r="F4" s="21" t="s">
         <v>265</v>
       </c>
       <c r="G4" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="H4" s="33"/>
-      <c r="I4" s="34"/>
-      <c r="K4" s="32"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="31"/>
+      <c r="K4" s="30"/>
       <c r="L4" s="16" t="s">
         <v>367</v>
       </c>
@@ -2067,18 +2065,16 @@
         <f>COUNTIF('College-Details'!J:J,L4)</f>
         <v>0</v>
       </c>
-      <c r="N4" s="33"/>
       <c r="O4" s="21" t="s">
         <v>265</v>
       </c>
       <c r="P4" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="34"/>
+      <c r="R4" s="31"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B5" s="32"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="16" t="s">
         <v>246</v>
       </c>
@@ -2086,7 +2082,7 @@
         <f>ROUND(SUM('School-Details'!K:K)/D4,2)</f>
         <v>0.01</v>
       </c>
-      <c r="E5" s="33"/>
+      <c r="E5" s="52"/>
       <c r="F5" s="14" t="s">
         <v>210</v>
       </c>
@@ -2094,9 +2090,9 @@
         <f>COUNTIF('School-Details'!M:M,F5)</f>
         <v>0</v>
       </c>
-      <c r="H5" s="33"/>
-      <c r="I5" s="34"/>
-      <c r="K5" s="32"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="31"/>
+      <c r="K5" s="30"/>
       <c r="L5" s="16" t="s">
         <v>368</v>
       </c>
@@ -2104,7 +2100,6 @@
         <f>COUNTIF('College-Details'!J:J,L5)</f>
         <v>0</v>
       </c>
-      <c r="N5" s="33"/>
       <c r="O5" s="14" t="s">
         <v>210</v>
       </c>
@@ -2112,14 +2107,13 @@
         <f>COUNTIF('College-Details'!L:L,O5)</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="34"/>
+      <c r="R5" s="31"/>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B6" s="32"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
       <c r="F6" s="14" t="s">
         <v>267</v>
       </c>
@@ -2127,9 +2121,9 @@
         <f>COUNTIF('School-Details'!M:M,F6)</f>
         <v>1</v>
       </c>
-      <c r="H6" s="33"/>
-      <c r="I6" s="34"/>
-      <c r="K6" s="32"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="31"/>
+      <c r="K6" s="30"/>
       <c r="L6" s="16" t="s">
         <v>369</v>
       </c>
@@ -2137,7 +2131,6 @@
         <f>MAX('College-Details'!A:A)</f>
         <v>34</v>
       </c>
-      <c r="N6" s="33"/>
       <c r="O6" s="14" t="s">
         <v>267</v>
       </c>
@@ -2145,18 +2138,17 @@
         <f>COUNTIF('College-Details'!L:L,O6)</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="34"/>
+      <c r="R6" s="31"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B7" s="32"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="21" t="s">
         <v>247</v>
       </c>
       <c r="D7" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="E7" s="33"/>
+      <c r="E7" s="52"/>
       <c r="F7" s="14" t="s">
         <v>268</v>
       </c>
@@ -2164,9 +2156,9 @@
         <f>COUNTIF('School-Details'!M:M,F7)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="33"/>
-      <c r="I7" s="34"/>
-      <c r="K7" s="32"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="31"/>
+      <c r="K7" s="30"/>
       <c r="L7" s="16" t="s">
         <v>370</v>
       </c>
@@ -2174,7 +2166,6 @@
         <f>SUM('College-Details'!I:I)/M6</f>
         <v>0</v>
       </c>
-      <c r="N7" s="33"/>
       <c r="O7" s="14" t="s">
         <v>268</v>
       </c>
@@ -2182,11 +2173,10 @@
         <f>COUNTIF('College-Details'!L:L,O7)</f>
         <v>0</v>
       </c>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="34"/>
+      <c r="R7" s="31"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B8" s="32"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="14" t="s">
         <v>251</v>
       </c>
@@ -2194,7 +2184,7 @@
         <f>COUNTIF('School-Details'!U:U,C8)</f>
         <v>13</v>
       </c>
-      <c r="E8" s="33"/>
+      <c r="E8" s="52"/>
       <c r="F8" s="14" t="s">
         <v>283</v>
       </c>
@@ -2202,12 +2192,9 @@
         <f>COUNTIF('School-Details'!M:M,F8)</f>
         <v>0</v>
       </c>
-      <c r="H8" s="33"/>
-      <c r="I8" s="34"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="31"/>
+      <c r="K8" s="30"/>
       <c r="O8" s="14" t="s">
         <v>283</v>
       </c>
@@ -2215,11 +2202,10 @@
         <f>COUNTIF('College-Details'!L:L,O8)</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="34"/>
+      <c r="R8" s="31"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B9" s="32"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="14" t="s">
         <v>253</v>
       </c>
@@ -2227,19 +2213,18 @@
         <f>COUNTIF('School-Details'!U:U,C9)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="34"/>
-      <c r="K9" s="32"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="31"/>
+      <c r="K9" s="30"/>
       <c r="L9" s="21" t="s">
         <v>247</v>
       </c>
       <c r="M9" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="N9" s="33"/>
       <c r="O9" s="16" t="s">
         <v>244</v>
       </c>
@@ -2247,11 +2232,10 @@
         <f>SUM(P5:P8)</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="34"/>
+      <c r="R9" s="31"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B10" s="32"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="14" t="s">
         <v>255</v>
       </c>
@@ -2259,14 +2243,14 @@
         <f>COUNTIF('School-Details'!U:U,C10)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="33"/>
+      <c r="E10" s="52"/>
       <c r="F10" s="14"/>
-      <c r="G10" s="27" t="s">
+      <c r="G10" s="54" t="s">
         <v>210</v>
       </c>
-      <c r="H10" s="28"/>
-      <c r="I10" s="34"/>
-      <c r="K10" s="32"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="31"/>
+      <c r="K10" s="30"/>
       <c r="L10" s="14" t="s">
         <v>251</v>
       </c>
@@ -2274,14 +2258,10 @@
         <f>COUNTIF('College-Details'!T:T,L10)</f>
         <v>0</v>
       </c>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="34"/>
+      <c r="R10" s="31"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B11" s="32"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="14" t="s">
         <v>257</v>
       </c>
@@ -2289,7 +2269,7 @@
         <f>COUNTIF('School-Details'!U:U,C11)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="33"/>
+      <c r="E11" s="52"/>
       <c r="F11" s="21" t="s">
         <v>269</v>
       </c>
@@ -2299,8 +2279,8 @@
       <c r="H11" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="I11" s="34"/>
-      <c r="K11" s="32"/>
+      <c r="I11" s="31"/>
+      <c r="K11" s="30"/>
       <c r="L11" s="14" t="s">
         <v>253</v>
       </c>
@@ -2308,16 +2288,15 @@
         <f>COUNTIF('College-Details'!T:T,L11)</f>
         <v>0</v>
       </c>
-      <c r="N11" s="33"/>
       <c r="O11" s="14"/>
-      <c r="P11" s="27" t="s">
+      <c r="P11" s="47" t="s">
         <v>210</v>
       </c>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="34"/>
+      <c r="Q11" s="48"/>
+      <c r="R11" s="31"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B12" s="32"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="14" t="s">
         <v>259</v>
       </c>
@@ -2325,7 +2304,7 @@
         <f>COUNTIF('School-Details'!U:U,C12)</f>
         <v>0</v>
       </c>
-      <c r="E12" s="33"/>
+      <c r="E12" s="52"/>
       <c r="F12" s="22">
         <v>45292</v>
       </c>
@@ -2335,8 +2314,8 @@
       <c r="H12" s="14">
         <v>0</v>
       </c>
-      <c r="I12" s="34"/>
-      <c r="K12" s="32"/>
+      <c r="I12" s="31"/>
+      <c r="K12" s="30"/>
       <c r="L12" s="14" t="s">
         <v>255</v>
       </c>
@@ -2344,7 +2323,6 @@
         <f>COUNTIF('College-Details'!T:T,L12)</f>
         <v>0</v>
       </c>
-      <c r="N12" s="33"/>
       <c r="O12" s="21" t="s">
         <v>269</v>
       </c>
@@ -2354,10 +2332,10 @@
       <c r="Q12" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="R12" s="34"/>
+      <c r="R12" s="31"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B13" s="32"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="14" t="s">
         <v>261</v>
       </c>
@@ -2365,7 +2343,7 @@
         <f>COUNTIF('School-Details'!U:U,C13)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="33"/>
+      <c r="E13" s="52"/>
       <c r="F13" s="22">
         <v>45323</v>
       </c>
@@ -2375,8 +2353,8 @@
       <c r="H13" s="14">
         <v>0</v>
       </c>
-      <c r="I13" s="34"/>
-      <c r="K13" s="32"/>
+      <c r="I13" s="31"/>
+      <c r="K13" s="30"/>
       <c r="L13" s="14" t="s">
         <v>257</v>
       </c>
@@ -2384,7 +2362,6 @@
         <f>COUNTIF('College-Details'!T:T,L13)</f>
         <v>0</v>
       </c>
-      <c r="N13" s="33"/>
       <c r="O13" s="22">
         <v>45292</v>
       </c>
@@ -2394,10 +2371,10 @@
       <c r="Q13" s="14">
         <v>0</v>
       </c>
-      <c r="R13" s="34"/>
+      <c r="R13" s="31"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B14" s="32"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="14" t="s">
         <v>263</v>
       </c>
@@ -2405,7 +2382,7 @@
         <f>COUNTIF('School-Details'!U:U,C14)</f>
         <v>108</v>
       </c>
-      <c r="E14" s="33"/>
+      <c r="E14" s="52"/>
       <c r="F14" s="22">
         <v>45352</v>
       </c>
@@ -2415,8 +2392,8 @@
       <c r="H14" s="14">
         <v>0</v>
       </c>
-      <c r="I14" s="34"/>
-      <c r="K14" s="32"/>
+      <c r="I14" s="31"/>
+      <c r="K14" s="30"/>
       <c r="L14" s="14" t="s">
         <v>259</v>
       </c>
@@ -2424,7 +2401,6 @@
         <f>COUNTIF('College-Details'!T:T,L14)</f>
         <v>0</v>
       </c>
-      <c r="N14" s="33"/>
       <c r="O14" s="22">
         <v>45323</v>
       </c>
@@ -2434,10 +2410,10 @@
       <c r="Q14" s="14">
         <v>0</v>
       </c>
-      <c r="R14" s="34"/>
+      <c r="R14" s="31"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B15" s="32"/>
+      <c r="B15" s="30"/>
       <c r="C15" s="14" t="s">
         <v>279</v>
       </c>
@@ -2445,7 +2421,7 @@
         <f>COUNTIF('School-Details'!U:U,C15)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="33"/>
+      <c r="E15" s="52"/>
       <c r="F15" s="22">
         <v>45383</v>
       </c>
@@ -2455,8 +2431,8 @@
       <c r="H15" s="14">
         <v>0</v>
       </c>
-      <c r="I15" s="34"/>
-      <c r="K15" s="32"/>
+      <c r="I15" s="31"/>
+      <c r="K15" s="30"/>
       <c r="L15" s="14" t="s">
         <v>261</v>
       </c>
@@ -2464,7 +2440,6 @@
         <f>COUNTIF('College-Details'!T:T,L15)</f>
         <v>0</v>
       </c>
-      <c r="N15" s="33"/>
       <c r="O15" s="22">
         <v>45352</v>
       </c>
@@ -2474,13 +2449,18 @@
       <c r="Q15" s="14">
         <v>0</v>
       </c>
-      <c r="R15" s="34"/>
+      <c r="R15" s="31"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B16" s="32"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="53" t="s">
+        <v>244</v>
+      </c>
+      <c r="D16" s="16">
+        <f>SUM(D8:D15)</f>
+        <v>121</v>
+      </c>
+      <c r="E16" s="52"/>
       <c r="F16" s="22">
         <v>45413</v>
       </c>
@@ -2490,8 +2470,8 @@
       <c r="H16" s="14">
         <v>0</v>
       </c>
-      <c r="I16" s="34"/>
-      <c r="K16" s="32"/>
+      <c r="I16" s="31"/>
+      <c r="K16" s="30"/>
       <c r="L16" s="14" t="s">
         <v>263</v>
       </c>
@@ -2499,7 +2479,6 @@
         <f>COUNTIF('College-Details'!T:T,L16)</f>
         <v>34</v>
       </c>
-      <c r="N16" s="33"/>
       <c r="O16" s="22">
         <v>45383</v>
       </c>
@@ -2509,17 +2488,13 @@
       <c r="Q16" s="14">
         <v>0</v>
       </c>
-      <c r="R16" s="34"/>
+      <c r="R16" s="31"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B17" s="35"/>
-      <c r="C17" s="21" t="s">
-        <v>274</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="E17" s="33"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
       <c r="F17" s="22">
         <v>45444</v>
       </c>
@@ -2529,8 +2504,8 @@
       <c r="H17" s="14">
         <v>0</v>
       </c>
-      <c r="I17" s="34"/>
-      <c r="K17" s="32"/>
+      <c r="I17" s="31"/>
+      <c r="K17" s="30"/>
       <c r="L17" s="14" t="s">
         <v>279</v>
       </c>
@@ -2538,7 +2513,6 @@
         <f>COUNTIF('College-Details'!T:T,L17)</f>
         <v>0</v>
       </c>
-      <c r="N17" s="33"/>
       <c r="O17" s="22">
         <v>45413</v>
       </c>
@@ -2548,20 +2522,17 @@
       <c r="Q17" s="14">
         <v>0</v>
       </c>
-      <c r="R17" s="34"/>
+      <c r="R17" s="31"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B18" s="36" t="s">
-        <v>272</v>
-      </c>
-      <c r="C18" s="14">
-        <v>5</v>
-      </c>
-      <c r="D18" s="14">
-        <f>COUNTIF('School-Details'!T:T,C18)</f>
-        <v>10</v>
-      </c>
-      <c r="E18" s="33"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="E18" s="52"/>
       <c r="F18" s="22">
         <v>45474</v>
       </c>
@@ -2571,8 +2542,8 @@
       <c r="H18" s="14">
         <v>0</v>
       </c>
-      <c r="I18" s="34"/>
-      <c r="K18" s="32"/>
+      <c r="I18" s="31"/>
+      <c r="K18" s="30"/>
       <c r="L18" s="16" t="s">
         <v>244</v>
       </c>
@@ -2580,7 +2551,6 @@
         <f>SUM(M10:M17)</f>
         <v>34</v>
       </c>
-      <c r="N18" s="33"/>
       <c r="O18" s="22">
         <v>45444</v>
       </c>
@@ -2590,18 +2560,20 @@
       <c r="Q18" s="14">
         <v>0</v>
       </c>
-      <c r="R18" s="34"/>
+      <c r="R18" s="31"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B19" s="36"/>
+      <c r="B19" s="33" t="s">
+        <v>272</v>
+      </c>
       <c r="C19" s="14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" s="14">
         <f>COUNTIF('School-Details'!T:T,C19)</f>
-        <v>51</v>
-      </c>
-      <c r="E19" s="33"/>
+        <v>10</v>
+      </c>
+      <c r="E19" s="52"/>
       <c r="F19" s="22">
         <v>45505</v>
       </c>
@@ -2611,11 +2583,8 @@
       <c r="H19" s="14">
         <v>0</v>
       </c>
-      <c r="I19" s="34"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="33"/>
+      <c r="I19" s="31"/>
+      <c r="K19" s="30"/>
       <c r="O19" s="22">
         <v>45474</v>
       </c>
@@ -2625,18 +2594,18 @@
       <c r="Q19" s="14">
         <v>0</v>
       </c>
-      <c r="R19" s="34"/>
+      <c r="R19" s="31"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B20" s="36"/>
-      <c r="C20" s="14" t="s">
-        <v>275</v>
+      <c r="B20" s="33"/>
+      <c r="C20" s="14">
+        <v>4</v>
       </c>
       <c r="D20" s="14">
-        <f>SUM(D18:D19)</f>
-        <v>61</v>
-      </c>
-      <c r="E20" s="33"/>
+        <f>COUNTIF('School-Details'!T:T,C20)</f>
+        <v>51</v>
+      </c>
+      <c r="E20" s="52"/>
       <c r="F20" s="22">
         <v>45536</v>
       </c>
@@ -2646,15 +2615,14 @@
       <c r="H20" s="14">
         <v>0</v>
       </c>
-      <c r="I20" s="34"/>
-      <c r="K20" s="35"/>
+      <c r="I20" s="31"/>
+      <c r="K20" s="32"/>
       <c r="L20" s="21" t="s">
         <v>371</v>
       </c>
       <c r="M20" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="N20" s="33"/>
       <c r="O20" s="22">
         <v>45505</v>
       </c>
@@ -2664,20 +2632,18 @@
       <c r="Q20" s="14">
         <v>0</v>
       </c>
-      <c r="R20" s="34"/>
+      <c r="R20" s="31"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B21" s="36" t="s">
-        <v>278</v>
-      </c>
-      <c r="C21" s="14">
-        <v>3</v>
+      <c r="B21" s="33"/>
+      <c r="C21" s="14" t="s">
+        <v>275</v>
       </c>
       <c r="D21" s="14">
-        <f>COUNTIF('School-Details'!T:T,C21)</f>
-        <v>50</v>
-      </c>
-      <c r="E21" s="33"/>
+        <f>SUM(D19:D20)</f>
+        <v>61</v>
+      </c>
+      <c r="E21" s="52"/>
       <c r="F21" s="22">
         <v>45566</v>
       </c>
@@ -2687,8 +2653,8 @@
       <c r="H21" s="14">
         <v>0</v>
       </c>
-      <c r="I21" s="34"/>
-      <c r="K21" s="36" t="s">
+      <c r="I21" s="31"/>
+      <c r="K21" s="33" t="s">
         <v>272</v>
       </c>
       <c r="L21" s="14">
@@ -2698,7 +2664,6 @@
         <f>COUNTIF('College-Details'!S:S,L21)</f>
         <v>0</v>
       </c>
-      <c r="N21" s="33"/>
       <c r="O21" s="22">
         <v>45536</v>
       </c>
@@ -2708,18 +2673,20 @@
       <c r="Q21" s="14">
         <v>0</v>
       </c>
-      <c r="R21" s="34"/>
+      <c r="R21" s="31"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B22" s="36"/>
-      <c r="C22" s="14" t="s">
-        <v>277</v>
+      <c r="B22" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="C22" s="14">
+        <v>3</v>
       </c>
       <c r="D22" s="14">
-        <f>SUM(D21)</f>
+        <f>COUNTIF('School-Details'!T:T,C22)</f>
         <v>50</v>
       </c>
-      <c r="E22" s="33"/>
+      <c r="E22" s="52"/>
       <c r="F22" s="22">
         <v>45597</v>
       </c>
@@ -2729,8 +2696,8 @@
       <c r="H22" s="14">
         <v>0</v>
       </c>
-      <c r="I22" s="34"/>
-      <c r="K22" s="36"/>
+      <c r="I22" s="31"/>
+      <c r="K22" s="33"/>
       <c r="L22" s="14">
         <v>4</v>
       </c>
@@ -2738,7 +2705,6 @@
         <f>COUNTIF('College-Details'!S:S,L22)</f>
         <v>0</v>
       </c>
-      <c r="N22" s="33"/>
       <c r="O22" s="22">
         <v>45566</v>
       </c>
@@ -2748,20 +2714,18 @@
       <c r="Q22" s="14">
         <v>0</v>
       </c>
-      <c r="R22" s="34"/>
+      <c r="R22" s="31"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B23" s="36" t="s">
-        <v>273</v>
-      </c>
-      <c r="C23" s="14">
-        <v>2</v>
+      <c r="B23" s="33"/>
+      <c r="C23" s="14" t="s">
+        <v>277</v>
       </c>
       <c r="D23" s="14">
-        <f>COUNTIF('School-Details'!T:T,C23)</f>
-        <v>10</v>
-      </c>
-      <c r="E23" s="33"/>
+        <f>SUM(D22)</f>
+        <v>50</v>
+      </c>
+      <c r="E23" s="52"/>
       <c r="F23" s="22">
         <v>45627</v>
       </c>
@@ -2771,8 +2735,8 @@
       <c r="H23" s="14">
         <v>0</v>
       </c>
-      <c r="I23" s="34"/>
-      <c r="K23" s="36"/>
+      <c r="I23" s="31"/>
+      <c r="K23" s="33"/>
       <c r="L23" s="14" t="s">
         <v>372</v>
       </c>
@@ -2780,7 +2744,6 @@
         <f>SUM(M21:M22)</f>
         <v>0</v>
       </c>
-      <c r="N23" s="33"/>
       <c r="O23" s="22">
         <v>45597</v>
       </c>
@@ -2790,18 +2753,20 @@
       <c r="Q23" s="14">
         <v>0</v>
       </c>
-      <c r="R23" s="34"/>
+      <c r="R23" s="31"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B24" s="36"/>
+      <c r="B24" s="33" t="s">
+        <v>273</v>
+      </c>
       <c r="C24" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24" s="14">
         <f>COUNTIF('School-Details'!T:T,C24)</f>
-        <v>0</v>
-      </c>
-      <c r="E24" s="33"/>
+        <v>10</v>
+      </c>
+      <c r="E24" s="52"/>
       <c r="F24" s="16" t="s">
         <v>244</v>
       </c>
@@ -2813,8 +2778,8 @@
         <f>SUM(H12:H23)</f>
         <v>0</v>
       </c>
-      <c r="I24" s="34"/>
-      <c r="K24" s="36" t="s">
+      <c r="I24" s="31"/>
+      <c r="K24" s="33" t="s">
         <v>278</v>
       </c>
       <c r="L24" s="14">
@@ -2824,7 +2789,6 @@
         <f>COUNTIF('College-Details'!S:S,L24)</f>
         <v>0</v>
       </c>
-      <c r="N24" s="33"/>
       <c r="O24" s="22">
         <v>45627</v>
       </c>
@@ -2834,23 +2798,23 @@
       <c r="Q24" s="14">
         <v>0</v>
       </c>
-      <c r="R24" s="34"/>
+      <c r="R24" s="31"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B25" s="36"/>
-      <c r="C25" s="14" t="s">
-        <v>276</v>
+      <c r="B25" s="33"/>
+      <c r="C25" s="14">
+        <v>1</v>
       </c>
       <c r="D25" s="14">
-        <f>SUM(D23:D24)</f>
-        <v>10</v>
-      </c>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="34"/>
-      <c r="K25" s="36"/>
+        <f>COUNTIF('School-Details'!T:T,C25)</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="31"/>
+      <c r="K25" s="33"/>
       <c r="L25" s="14" t="s">
         <v>373</v>
       </c>
@@ -2858,7 +2822,6 @@
         <f>SUM(M24)</f>
         <v>0</v>
       </c>
-      <c r="N25" s="33"/>
       <c r="O25" s="16" t="s">
         <v>244</v>
       </c>
@@ -2870,23 +2833,23 @@
         <f>SUM(Q13:Q24)</f>
         <v>0</v>
       </c>
-      <c r="R25" s="34"/>
+      <c r="R25" s="31"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B26" s="36"/>
-      <c r="C26" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="D26" s="16">
-        <f>D20+D22+D25</f>
-        <v>121</v>
-      </c>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="34"/>
-      <c r="K26" s="36" t="s">
+      <c r="B26" s="33"/>
+      <c r="C26" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D26" s="14">
+        <f>SUM(D24:D25)</f>
+        <v>10</v>
+      </c>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="31"/>
+      <c r="K26" s="33" t="s">
         <v>273</v>
       </c>
       <c r="L26" s="14">
@@ -2896,22 +2859,23 @@
         <f>COUNTIF('College-Details'!S:S,L26)</f>
         <v>0</v>
       </c>
-      <c r="N26" s="33"/>
-      <c r="O26" s="33"/>
-      <c r="P26" s="33"/>
-      <c r="Q26" s="33"/>
-      <c r="R26" s="34"/>
-    </row>
-    <row r="27" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="37"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="39"/>
-      <c r="K27" s="36"/>
+      <c r="R26" s="31"/>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B27" s="33"/>
+      <c r="C27" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="D27" s="16">
+        <f>D21+D23+D26</f>
+        <v>121</v>
+      </c>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="31"/>
+      <c r="K27" s="33"/>
       <c r="L27" s="14">
         <v>1</v>
       </c>
@@ -2919,14 +2883,18 @@
         <f>COUNTIF('College-Details'!S:S,L27)</f>
         <v>0</v>
       </c>
-      <c r="N27" s="33"/>
-      <c r="O27" s="33"/>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="33"/>
-      <c r="R27" s="34"/>
-    </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="K28" s="36"/>
+      <c r="R27" s="31"/>
+    </row>
+    <row r="28" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="34"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="36"/>
+      <c r="K28" s="33"/>
       <c r="L28" s="14" t="s">
         <v>374</v>
       </c>
@@ -2934,14 +2902,10 @@
         <f>SUM(M26:M27)</f>
         <v>0</v>
       </c>
-      <c r="N28" s="33"/>
-      <c r="O28" s="33"/>
-      <c r="P28" s="33"/>
-      <c r="Q28" s="33"/>
-      <c r="R28" s="34"/>
+      <c r="R28" s="31"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="K29" s="36"/>
+      <c r="K29" s="33"/>
       <c r="L29" s="16" t="s">
         <v>244</v>
       </c>
@@ -2949,21 +2913,17 @@
         <f>M23+M25+M28</f>
         <v>0</v>
       </c>
-      <c r="N29" s="33"/>
-      <c r="O29" s="33"/>
-      <c r="P29" s="33"/>
-      <c r="Q29" s="33"/>
-      <c r="R29" s="34"/>
+      <c r="R29" s="31"/>
     </row>
     <row r="30" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K30" s="37"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="38"/>
-      <c r="N30" s="38"/>
-      <c r="O30" s="38"/>
-      <c r="P30" s="38"/>
-      <c r="Q30" s="38"/>
-      <c r="R30" s="39"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="35"/>
+      <c r="N30" s="35"/>
+      <c r="O30" s="35"/>
+      <c r="P30" s="35"/>
+      <c r="Q30" s="35"/>
+      <c r="R30" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2973,6 +2933,7 @@
     <mergeCell ref="M2:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8088,13 +8049,13 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" style="44" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" style="38" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="45" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" style="46" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="16" style="46" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="16" style="40" customWidth="1"/>
     <col min="8" max="10" width="11" style="1" customWidth="1"/>
-    <col min="11" max="11" width="19.6640625" style="46" customWidth="1"/>
+    <col min="11" max="11" width="19.6640625" style="40" customWidth="1"/>
     <col min="12" max="12" width="13.33203125" style="1" customWidth="1"/>
     <col min="13" max="13" width="18.44140625" style="1" customWidth="1"/>
     <col min="14" max="14" width="9.109375" style="1"/>
@@ -8113,7 +8074,7 @@
       <c r="C1" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="37" t="s">
         <v>6</v>
       </c>
       <c r="E1" s="18" t="s">
@@ -8166,17 +8127,17 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="44">
+      <c r="A2" s="38">
         <v>1</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="38" t="s">
         <v>297</v>
       </c>
       <c r="C2" s="10"/>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="39" t="s">
         <v>298</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="40" t="s">
         <v>299</v>
       </c>
       <c r="H2" s="10"/>
@@ -8213,13 +8174,13 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="38" t="s">
         <v>300</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="39" t="s">
         <v>301</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="40" t="s">
         <v>302</v>
       </c>
       <c r="M3" s="10">
@@ -8252,13 +8213,13 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="38" t="s">
         <v>303</v>
       </c>
-      <c r="D4" s="45" t="s">
+      <c r="D4" s="39" t="s">
         <v>304</v>
       </c>
-      <c r="E4" s="46" t="s">
+      <c r="E4" s="40" t="s">
         <v>305</v>
       </c>
       <c r="M4" s="10">
@@ -8291,13 +8252,13 @@
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="38" t="s">
         <v>306</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="39" t="s">
         <v>307</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="40" t="s">
         <v>302</v>
       </c>
       <c r="M5" s="10">
@@ -8330,13 +8291,13 @@
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="38" t="s">
         <v>308</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="41" t="s">
         <v>309</v>
       </c>
-      <c r="E6" s="46" t="s">
+      <c r="E6" s="40" t="s">
         <v>310</v>
       </c>
       <c r="M6" s="10">
@@ -8369,13 +8330,13 @@
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="38" t="s">
         <v>311</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="D7" s="42" t="s">
         <v>312</v>
       </c>
-      <c r="E7" s="46" t="s">
+      <c r="E7" s="40" t="s">
         <v>313</v>
       </c>
       <c r="M7" s="10">
@@ -8408,13 +8369,13 @@
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="38" t="s">
         <v>314</v>
       </c>
-      <c r="D8" s="48" t="s">
+      <c r="D8" s="42" t="s">
         <v>315</v>
       </c>
-      <c r="K8" s="46" t="s">
+      <c r="K8" s="40" t="s">
         <v>316</v>
       </c>
       <c r="M8" s="10">
@@ -8447,10 +8408,10 @@
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="38" t="s">
         <v>317</v>
       </c>
-      <c r="D9" s="45">
+      <c r="D9" s="39">
         <v>9903250730</v>
       </c>
       <c r="M9" s="10">
@@ -8483,10 +8444,10 @@
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="38" t="s">
         <v>318</v>
       </c>
-      <c r="D10" s="45" t="s">
+      <c r="D10" s="39" t="s">
         <v>319</v>
       </c>
       <c r="M10" s="10">
@@ -8519,11 +8480,11 @@
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="38" t="s">
         <v>320</v>
       </c>
-      <c r="C11" s="49"/>
-      <c r="D11" s="45" t="s">
+      <c r="C11" s="43"/>
+      <c r="D11" s="39" t="s">
         <v>321</v>
       </c>
       <c r="M11" s="10">
@@ -8556,10 +8517,10 @@
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="38" t="s">
         <v>322</v>
       </c>
-      <c r="D12" s="45">
+      <c r="D12" s="39">
         <v>9635253261</v>
       </c>
       <c r="M12" s="10">
@@ -8592,10 +8553,10 @@
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="38" t="s">
         <v>323</v>
       </c>
-      <c r="D13" s="45">
+      <c r="D13" s="39">
         <v>8017700500</v>
       </c>
       <c r="M13" s="10">
@@ -8628,10 +8589,10 @@
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="38" t="s">
         <v>324</v>
       </c>
-      <c r="D14" s="45">
+      <c r="D14" s="39">
         <v>8420123333</v>
       </c>
       <c r="M14" s="10">
@@ -8664,10 +8625,10 @@
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="38" t="s">
         <v>325</v>
       </c>
-      <c r="D15" s="45" t="s">
+      <c r="D15" s="39" t="s">
         <v>326</v>
       </c>
       <c r="M15" s="10">
@@ -8696,14 +8657,14 @@
         <v>263</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="38" t="s">
         <v>327</v>
       </c>
-      <c r="D16" s="45" t="s">
+      <c r="D16" s="39" t="s">
         <v>328</v>
       </c>
       <c r="M16" s="10">
@@ -8732,14 +8693,14 @@
         <v>263</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="38" t="s">
         <v>329</v>
       </c>
-      <c r="D17" s="45" t="s">
+      <c r="D17" s="39" t="s">
         <v>330</v>
       </c>
       <c r="M17" s="10">
@@ -8768,14 +8729,14 @@
         <v>263</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="38" t="s">
         <v>331</v>
       </c>
-      <c r="D18" s="45" t="s">
+      <c r="D18" s="39" t="s">
         <v>332</v>
       </c>
       <c r="M18" s="10">
@@ -8804,14 +8765,14 @@
         <v>263</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="D19" s="45" t="s">
+      <c r="D19" s="39" t="s">
         <v>334</v>
       </c>
       <c r="M19" s="10">
@@ -8840,15 +8801,15 @@
         <v>263</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="38" t="s">
         <v>335</v>
       </c>
       <c r="C20" s="5"/>
-      <c r="D20" s="50" t="s">
+      <c r="D20" s="44" t="s">
         <v>336</v>
       </c>
       <c r="M20" s="10">
@@ -8877,15 +8838,15 @@
         <v>263</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="45" t="s">
         <v>337</v>
       </c>
       <c r="C21" s="3"/>
-      <c r="D21" s="45" t="s">
+      <c r="D21" s="39" t="s">
         <v>338</v>
       </c>
       <c r="M21" s="10">
@@ -8914,14 +8875,14 @@
         <v>263</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="52" t="s">
+      <c r="B22" s="46" t="s">
         <v>339</v>
       </c>
-      <c r="D22" s="45" t="s">
+      <c r="D22" s="39" t="s">
         <v>340</v>
       </c>
       <c r="M22" s="10">
@@ -8950,15 +8911,15 @@
         <v>263</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="44" t="s">
+      <c r="B23" s="38" t="s">
         <v>341</v>
       </c>
       <c r="C23" s="4"/>
-      <c r="D23" s="45" t="s">
+      <c r="D23" s="39" t="s">
         <v>342</v>
       </c>
       <c r="M23" s="10">
@@ -8987,15 +8948,15 @@
         <v>263</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="44" t="s">
+      <c r="B24" s="38" t="s">
         <v>343</v>
       </c>
       <c r="C24" s="6"/>
-      <c r="D24" s="45" t="s">
+      <c r="D24" s="39" t="s">
         <v>344</v>
       </c>
       <c r="M24" s="10">
@@ -9024,15 +8985,15 @@
         <v>263</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="44" t="s">
+      <c r="B25" s="38" t="s">
         <v>345</v>
       </c>
       <c r="C25" s="6"/>
-      <c r="D25" s="45" t="s">
+      <c r="D25" s="39" t="s">
         <v>346</v>
       </c>
       <c r="M25" s="10">
@@ -9061,15 +9022,15 @@
         <v>263</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="44" t="s">
+      <c r="B26" s="38" t="s">
         <v>347</v>
       </c>
       <c r="C26" s="6"/>
-      <c r="D26" s="45" t="s">
+      <c r="D26" s="39" t="s">
         <v>348</v>
       </c>
       <c r="M26" s="10">
@@ -9098,14 +9059,14 @@
         <v>263</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="44" t="s">
+      <c r="B27" s="38" t="s">
         <v>349</v>
       </c>
-      <c r="D27" s="45" t="s">
+      <c r="D27" s="39" t="s">
         <v>350</v>
       </c>
       <c r="M27" s="10">
@@ -9134,14 +9095,14 @@
         <v>263</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="44" t="s">
+      <c r="B28" s="38" t="s">
         <v>351</v>
       </c>
-      <c r="D28" s="45" t="s">
+      <c r="D28" s="39" t="s">
         <v>352</v>
       </c>
       <c r="M28" s="10">
@@ -9170,15 +9131,15 @@
         <v>263</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="44" t="s">
+      <c r="B29" s="38" t="s">
         <v>353</v>
       </c>
       <c r="C29" s="3"/>
-      <c r="D29" s="45" t="s">
+      <c r="D29" s="39" t="s">
         <v>354</v>
       </c>
       <c r="M29" s="10">
@@ -9207,15 +9168,15 @@
         <v>263</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" s="44" t="s">
+      <c r="B30" s="38" t="s">
         <v>355</v>
       </c>
       <c r="C30" s="3"/>
-      <c r="D30" s="45" t="s">
+      <c r="D30" s="39" t="s">
         <v>356</v>
       </c>
       <c r="M30" s="10">
@@ -9244,15 +9205,15 @@
         <v>263</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="44" t="s">
+      <c r="B31" s="38" t="s">
         <v>357</v>
       </c>
       <c r="C31" s="3"/>
-      <c r="D31" s="45" t="s">
+      <c r="D31" s="39" t="s">
         <v>358</v>
       </c>
       <c r="M31" s="10">
@@ -9281,14 +9242,14 @@
         <v>263</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" s="44" t="s">
+      <c r="B32" s="38" t="s">
         <v>359</v>
       </c>
-      <c r="D32" s="45" t="s">
+      <c r="D32" s="39" t="s">
         <v>360</v>
       </c>
       <c r="M32" s="10">
@@ -9317,14 +9278,14 @@
         <v>263</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33" s="44" t="s">
+      <c r="B33" s="38" t="s">
         <v>361</v>
       </c>
-      <c r="D33" s="45" t="s">
+      <c r="D33" s="39" t="s">
         <v>362</v>
       </c>
       <c r="M33" s="10">
@@ -9353,14 +9314,14 @@
         <v>263</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>33</v>
       </c>
-      <c r="B34" s="44" t="s">
+      <c r="B34" s="38" t="s">
         <v>363</v>
       </c>
-      <c r="D34" s="45" t="s">
+      <c r="D34" s="39" t="s">
         <v>364</v>
       </c>
       <c r="M34" s="10">
@@ -9389,14 +9350,14 @@
         <v>263</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B35" s="44" t="s">
+      <c r="B35" s="38" t="s">
         <v>365</v>
       </c>
-      <c r="D35" s="50" t="s">
+      <c r="D35" s="44" t="s">
         <v>366</v>
       </c>
       <c r="M35" s="10">

--- a/Offline/BusinessManagement/Marketing/AI marketing/AI Workshop Schools-Colleges.xlsx
+++ b/Offline/BusinessManagement/Marketing/AI marketing/AI Workshop Schools-Colleges.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Marketing\AI marketing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E64999FB-DFD9-45FB-93F1-E97E226A5A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="506" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="506" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="8" r:id="rId1"/>
@@ -21,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'School-Details'!$A$1:$U$122</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,13 +39,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>del</author>
     <author>User</author>
   </authors>
   <commentList>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -70,7 +69,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L28" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="L28" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -89,12 +88,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>del</author>
   </authors>
   <commentList>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{718653C2-E151-4747-8044-25F1A40347F6}">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -123,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="437">
   <si>
     <t>CBSE</t>
   </si>
@@ -1226,9 +1225,6 @@
     <t>03324411710</t>
   </si>
   <si>
-    <t>Sonarpur</t>
-  </si>
-  <si>
     <t>03324340126??</t>
   </si>
   <si>
@@ -1257,13 +1253,205 @@
   </si>
   <si>
     <t>College Dashboard</t>
+  </si>
+  <si>
+    <t>Sonarpur??</t>
+  </si>
+  <si>
+    <t>RCC Institute of Information Technology</t>
+  </si>
+  <si>
+    <t>principal@rcciit.org.in</t>
+  </si>
+  <si>
+    <t>62908 21297</t>
+  </si>
+  <si>
+    <t>Beleghata</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 033-25260336 033-25260337</t>
+  </si>
+  <si>
+    <t>director@camelliait.ac.in</t>
+  </si>
+  <si>
+    <t>Camellia Institute of Technology</t>
+  </si>
+  <si>
+    <t>Madhyamgram</t>
+  </si>
+  <si>
+    <t>94331 24138</t>
+  </si>
+  <si>
+    <t>The Mallabhum Institute of Technology</t>
+  </si>
+  <si>
+    <t>Dr. Sudhir Chandra Sur</t>
+  </si>
+  <si>
+    <t>Rashbehari Ave</t>
+  </si>
+  <si>
+    <t>6291977707  8902496652</t>
+  </si>
+  <si>
+    <t>Dum Dum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.P. Poddar Institute Of Management And Technology </t>
+  </si>
+  <si>
+    <t>Park Street</t>
+  </si>
+  <si>
+    <t>033 2265 7150</t>
+  </si>
+  <si>
+    <t>The Institution of Engineers</t>
+  </si>
+  <si>
+    <t>033 2223 3140</t>
+  </si>
+  <si>
+    <t>Bhowanipore</t>
+  </si>
+  <si>
+    <t>St. Thomas' College of Engineering and Technology</t>
+  </si>
+  <si>
+    <t>033 2448 1081</t>
+  </si>
+  <si>
+    <t>Diamond Harbour</t>
+  </si>
+  <si>
+    <t>principal.gcect@gcect.ac.in</t>
+  </si>
+  <si>
+    <t>Govt. College Of Engineering &amp; Ceramic Technology</t>
+  </si>
+  <si>
+    <t>2370 1263        2363 3674       2363 3675</t>
+  </si>
+  <si>
+    <t>Phool Bagan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7605050242  7605050243</t>
+  </si>
+  <si>
+    <t>Seacom Engineering College</t>
+  </si>
+  <si>
+    <t>Howrah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JIS College of Engineering </t>
+  </si>
+  <si>
+    <t>Kalyani</t>
+  </si>
+  <si>
+    <t>033 2580 8640</t>
+  </si>
+  <si>
+    <t>MCKV Institute of Engineering</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 033 2654 9315</t>
+  </si>
+  <si>
+    <t>Liluah</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Meghnad Saha Institute Of Technology
+</t>
+  </si>
+  <si>
+    <t>70445 98807</t>
+  </si>
+  <si>
+    <t>Anandapur</t>
+  </si>
+  <si>
+    <t>Kalyani Government Engineering College</t>
+  </si>
+  <si>
+    <t>033 2582 1309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Government College of Engineering &amp; Leather Technology
+</t>
+  </si>
+  <si>
+    <t>+91 33 23356977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">principal@gcelt.gov.in
+</t>
+  </si>
+  <si>
+    <t>Ideal Institute Of Engineering</t>
+  </si>
+  <si>
+    <t>033 2502 5629</t>
+  </si>
+  <si>
+    <t>Sector 3</t>
+  </si>
+  <si>
+    <t>University of Engineering &amp; Management, Kolkata</t>
+  </si>
+  <si>
+    <t>New Town</t>
+  </si>
+  <si>
+    <t>8274088608  8010700500  03323572059  03323572995</t>
+  </si>
+  <si>
+    <t>8981510888 9007720041 9831071659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+IEM PUBLIC SCHOOL</t>
+  </si>
+  <si>
+    <t>IEM PUBLIC SCHOOL</t>
+  </si>
+  <si>
+    <t>+9147059775
++9147059774
+  9831071659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Abacus Institute of Engineering and Management </t>
+  </si>
+  <si>
+    <t>9432011486   9073683913</t>
+  </si>
+  <si>
+    <t>Hooghly</t>
+  </si>
+  <si>
+    <t>Techno International Newtown</t>
+  </si>
+  <si>
+    <t>+91-33-23242050/2091</t>
+  </si>
+  <si>
+    <t>Heritage Institute of Technology</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 033 6627 0502</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1366,6 +1554,13 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1580,7 +1775,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1668,9 +1863,6 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1680,10 +1872,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1695,10 +1886,32 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1980,11 +2193,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2019,7 +2232,7 @@
       <c r="K2" s="27"/>
       <c r="L2" s="28"/>
       <c r="M2" s="49" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N2" s="50"/>
       <c r="O2" s="50"/>
@@ -2029,12 +2242,12 @@
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B3" s="30"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
       <c r="I3" s="31"/>
       <c r="K3" s="30"/>
       <c r="R3" s="31"/>
@@ -2046,20 +2259,20 @@
       </c>
       <c r="D4" s="16">
         <f>MAX('School-Details'!A:A)</f>
-        <v>121</v>
-      </c>
-      <c r="E4" s="52"/>
+        <v>235</v>
+      </c>
+      <c r="E4" s="46"/>
       <c r="F4" s="21" t="s">
         <v>265</v>
       </c>
       <c r="G4" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="H4" s="52"/>
+      <c r="H4" s="46"/>
       <c r="I4" s="31"/>
       <c r="K4" s="30"/>
       <c r="L4" s="16" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M4" s="14">
         <f>COUNTIF('College-Details'!J:J,L4)</f>
@@ -2080,9 +2293,9 @@
       </c>
       <c r="D5" s="16">
         <f>ROUND(SUM('School-Details'!K:K)/D4,2)</f>
-        <v>0.01</v>
-      </c>
-      <c r="E5" s="52"/>
+        <v>0</v>
+      </c>
+      <c r="E5" s="46"/>
       <c r="F5" s="14" t="s">
         <v>210</v>
       </c>
@@ -2090,11 +2303,11 @@
         <f>COUNTIF('School-Details'!M:M,F5)</f>
         <v>0</v>
       </c>
-      <c r="H5" s="52"/>
+      <c r="H5" s="46"/>
       <c r="I5" s="31"/>
       <c r="K5" s="30"/>
       <c r="L5" s="16" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="M5" s="14">
         <f>COUNTIF('College-Details'!J:J,L5)</f>
@@ -2111,9 +2324,9 @@
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B6" s="30"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
       <c r="F6" s="14" t="s">
         <v>267</v>
       </c>
@@ -2121,15 +2334,15 @@
         <f>COUNTIF('School-Details'!M:M,F6)</f>
         <v>1</v>
       </c>
-      <c r="H6" s="52"/>
+      <c r="H6" s="46"/>
       <c r="I6" s="31"/>
       <c r="K6" s="30"/>
       <c r="L6" s="16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="M6" s="16">
         <f>MAX('College-Details'!A:A)</f>
-        <v>34</v>
+        <v>174</v>
       </c>
       <c r="O6" s="14" t="s">
         <v>267</v>
@@ -2148,7 +2361,7 @@
       <c r="D7" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="E7" s="52"/>
+      <c r="E7" s="46"/>
       <c r="F7" s="14" t="s">
         <v>268</v>
       </c>
@@ -2156,11 +2369,11 @@
         <f>COUNTIF('School-Details'!M:M,F7)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="52"/>
+      <c r="H7" s="46"/>
       <c r="I7" s="31"/>
       <c r="K7" s="30"/>
       <c r="L7" s="16" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="M7" s="16">
         <f>SUM('College-Details'!I:I)/M6</f>
@@ -2184,7 +2397,7 @@
         <f>COUNTIF('School-Details'!U:U,C8)</f>
         <v>13</v>
       </c>
-      <c r="E8" s="52"/>
+      <c r="E8" s="46"/>
       <c r="F8" s="14" t="s">
         <v>283</v>
       </c>
@@ -2192,7 +2405,7 @@
         <f>COUNTIF('School-Details'!M:M,F8)</f>
         <v>0</v>
       </c>
-      <c r="H8" s="52"/>
+      <c r="H8" s="46"/>
       <c r="I8" s="31"/>
       <c r="K8" s="30"/>
       <c r="O8" s="14" t="s">
@@ -2213,10 +2426,10 @@
         <f>COUNTIF('School-Details'!U:U,C9)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
       <c r="I9" s="31"/>
       <c r="K9" s="30"/>
       <c r="L9" s="21" t="s">
@@ -2243,12 +2456,12 @@
         <f>COUNTIF('School-Details'!U:U,C10)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="52"/>
+      <c r="E10" s="46"/>
       <c r="F10" s="14"/>
-      <c r="G10" s="54" t="s">
+      <c r="G10" s="48" t="s">
         <v>210</v>
       </c>
-      <c r="H10" s="54"/>
+      <c r="H10" s="48"/>
       <c r="I10" s="31"/>
       <c r="K10" s="30"/>
       <c r="L10" s="14" t="s">
@@ -2269,7 +2482,7 @@
         <f>COUNTIF('School-Details'!U:U,C11)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="52"/>
+      <c r="E11" s="46"/>
       <c r="F11" s="21" t="s">
         <v>269</v>
       </c>
@@ -2289,10 +2502,10 @@
         <v>0</v>
       </c>
       <c r="O11" s="14"/>
-      <c r="P11" s="47" t="s">
+      <c r="P11" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="Q11" s="48"/>
+      <c r="Q11" s="53"/>
       <c r="R11" s="31"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.3">
@@ -2304,7 +2517,7 @@
         <f>COUNTIF('School-Details'!U:U,C12)</f>
         <v>0</v>
       </c>
-      <c r="E12" s="52"/>
+      <c r="E12" s="46"/>
       <c r="F12" s="22">
         <v>45292</v>
       </c>
@@ -2343,7 +2556,7 @@
         <f>COUNTIF('School-Details'!U:U,C13)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="52"/>
+      <c r="E13" s="46"/>
       <c r="F13" s="22">
         <v>45323</v>
       </c>
@@ -2382,7 +2595,7 @@
         <f>COUNTIF('School-Details'!U:U,C14)</f>
         <v>108</v>
       </c>
-      <c r="E14" s="52"/>
+      <c r="E14" s="46"/>
       <c r="F14" s="22">
         <v>45352</v>
       </c>
@@ -2421,7 +2634,7 @@
         <f>COUNTIF('School-Details'!U:U,C15)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="52"/>
+      <c r="E15" s="46"/>
       <c r="F15" s="22">
         <v>45383</v>
       </c>
@@ -2453,14 +2666,14 @@
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B16" s="30"/>
-      <c r="C16" s="53" t="s">
+      <c r="C16" s="47" t="s">
         <v>244</v>
       </c>
       <c r="D16" s="16">
         <f>SUM(D8:D15)</f>
         <v>121</v>
       </c>
-      <c r="E16" s="52"/>
+      <c r="E16" s="46"/>
       <c r="F16" s="22">
         <v>45413</v>
       </c>
@@ -2492,9 +2705,9 @@
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B17" s="30"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
       <c r="F17" s="22">
         <v>45444</v>
       </c>
@@ -2532,7 +2745,7 @@
       <c r="D18" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="E18" s="52"/>
+      <c r="E18" s="46"/>
       <c r="F18" s="22">
         <v>45474</v>
       </c>
@@ -2573,7 +2786,7 @@
         <f>COUNTIF('School-Details'!T:T,C19)</f>
         <v>10</v>
       </c>
-      <c r="E19" s="52"/>
+      <c r="E19" s="46"/>
       <c r="F19" s="22">
         <v>45505</v>
       </c>
@@ -2605,7 +2818,7 @@
         <f>COUNTIF('School-Details'!T:T,C20)</f>
         <v>51</v>
       </c>
-      <c r="E20" s="52"/>
+      <c r="E20" s="46"/>
       <c r="F20" s="22">
         <v>45536</v>
       </c>
@@ -2618,7 +2831,7 @@
       <c r="I20" s="31"/>
       <c r="K20" s="32"/>
       <c r="L20" s="21" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="M20" s="21" t="s">
         <v>264</v>
@@ -2643,7 +2856,7 @@
         <f>SUM(D19:D20)</f>
         <v>61</v>
       </c>
-      <c r="E21" s="52"/>
+      <c r="E21" s="46"/>
       <c r="F21" s="22">
         <v>45566</v>
       </c>
@@ -2686,7 +2899,7 @@
         <f>COUNTIF('School-Details'!T:T,C22)</f>
         <v>50</v>
       </c>
-      <c r="E22" s="52"/>
+      <c r="E22" s="46"/>
       <c r="F22" s="22">
         <v>45597</v>
       </c>
@@ -2725,7 +2938,7 @@
         <f>SUM(D22)</f>
         <v>50</v>
       </c>
-      <c r="E23" s="52"/>
+      <c r="E23" s="46"/>
       <c r="F23" s="22">
         <v>45627</v>
       </c>
@@ -2738,7 +2951,7 @@
       <c r="I23" s="31"/>
       <c r="K23" s="33"/>
       <c r="L23" s="14" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M23" s="14">
         <f>SUM(M21:M22)</f>
@@ -2766,7 +2979,7 @@
         <f>COUNTIF('School-Details'!T:T,C24)</f>
         <v>10</v>
       </c>
-      <c r="E24" s="52"/>
+      <c r="E24" s="46"/>
       <c r="F24" s="16" t="s">
         <v>244</v>
       </c>
@@ -2809,14 +3022,14 @@
         <f>COUNTIF('School-Details'!T:T,C25)</f>
         <v>0</v>
       </c>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
       <c r="I25" s="31"/>
       <c r="K25" s="33"/>
       <c r="L25" s="14" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M25" s="14">
         <f>SUM(M24)</f>
@@ -2844,10 +3057,10 @@
         <f>SUM(D24:D25)</f>
         <v>10</v>
       </c>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="52"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
       <c r="I26" s="31"/>
       <c r="K26" s="33" t="s">
         <v>273</v>
@@ -2870,10 +3083,10 @@
         <f>D21+D23+D26</f>
         <v>121</v>
       </c>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="52"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
       <c r="I27" s="31"/>
       <c r="K27" s="33"/>
       <c r="L27" s="14">
@@ -2896,7 +3109,7 @@
       <c r="I28" s="36"/>
       <c r="K28" s="33"/>
       <c r="L28" s="14" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M28" s="14">
         <f>SUM(M26:M27)</f>
@@ -2938,14 +3151,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:U122"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="I74" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D117" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U2" sqref="U2"/>
+      <selection pane="bottomRight" activeCell="H114" sqref="H114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2956,7 +3169,7 @@
     <col min="4" max="4" width="21.44140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="18.21875" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="40" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="16" style="1" customWidth="1"/>
     <col min="10" max="11" width="11" style="1" customWidth="1"/>
     <col min="12" max="12" width="19.6640625" style="1" customWidth="1"/>
@@ -3129,7 +3342,7 @@
       <c r="F4" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="40" t="s">
         <v>36</v>
       </c>
       <c r="N4" s="10">
@@ -4326,7 +4539,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -4366,7 +4579,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -4500,7 +4713,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -4661,7 +4874,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="42" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -4705,7 +4918,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -4749,7 +4962,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -4789,7 +5002,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -4910,7 +5123,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="48" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -5085,7 +5298,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="52" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -5129,7 +5342,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="53" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -7968,69 +8181,663 @@
         <v>263</v>
       </c>
     </row>
+    <row r="123" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A123" s="2">
+        <v>122</v>
+      </c>
+      <c r="B123" s="17" t="s">
+        <v>427</v>
+      </c>
+      <c r="C123" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F123" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="G123" s="40" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="124" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A124" s="2">
+        <v>123</v>
+      </c>
+      <c r="B124" s="17" t="s">
+        <v>428</v>
+      </c>
+      <c r="C124" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F124" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="G124" s="40" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A125" s="2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A126" s="2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A127" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A128" s="2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" s="2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" s="2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" s="2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" s="2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" s="2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" s="2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" s="2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" s="2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" s="2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142" s="2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143" s="2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144" s="2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145" s="2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146" s="2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147" s="2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148" s="2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149" s="2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150" s="2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A152" s="2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153" s="2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A154" s="2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155" s="2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156" s="2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A157" s="2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A158" s="2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A159" s="2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A160" s="2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161" s="2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162" s="2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163" s="2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A164" s="2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A165" s="2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A166" s="2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A167" s="2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A168" s="2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A169" s="2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A170" s="2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A171" s="2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A172" s="2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A173" s="2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A174" s="2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A175" s="2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A176" s="2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A177" s="2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A178" s="2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A179" s="2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A180" s="2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A181" s="2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A182" s="2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A183" s="2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A184" s="2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A185" s="2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A186" s="2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A187" s="2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A188" s="2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A189" s="2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A190" s="2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A191" s="2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A192" s="2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A193" s="2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A194" s="2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A195" s="2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A196" s="2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A197" s="2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A198" s="2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A199" s="2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A200" s="2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A201" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A202" s="2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A203" s="2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A204" s="2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A205" s="2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A206" s="2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A207" s="2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A208" s="2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A209" s="2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A210" s="2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A211" s="2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A212" s="2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A213" s="2">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A214" s="2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A215" s="2">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A216" s="2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A217" s="2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A218" s="2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A219" s="2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A220" s="2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A221" s="2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A222" s="2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A223" s="2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A224" s="2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A225" s="2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A226" s="2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A227" s="2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A228" s="2">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A229" s="2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A230" s="2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A231" s="2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A232" s="2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A233" s="2">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A234" s="2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A235" s="2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A236" s="2">
+        <v>235</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:U122" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:U122"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U1:U1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U1:U1048576">
       <formula1>"Initial,Potential,Customer,Support,Upsells,Reject,Not-Contacted,Ex-Customer"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">
       <formula1>"Rahul Dutta,Sayan Basak,Anirban Chakraborty,Debashish Nath"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D31" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="D32" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="F7" r:id="rId3" display="https://www.google.com/search?q=panchasayar+siksha+niketan&amp;sca_esv=593615924&amp;rlz=1C1CHBF_enAU1047AU1047&amp;sxsrf=AM9HkKnlKkWvrpmDIvMzNnJR8ZC_8s6gNQ%3A1703524925488&amp;ei=PbqJZaauHY2KnesPo--TuAo&amp;gs_ssp=eJzj4tFP1zc0MqnMzTa1TDNgtFI1qDBONDAyNzRPNU1LM0xOTkuyAgqZpJmZmJgnGZgZGSWnpSV5SRUk5iVnJBYnViYWKRRnZhdnJCrkZWanliTmAQC7Qxln&amp;oq=panchasayar+s&amp;gs_lp=Egxnd3Mtd2l6LXNlcnAiDXBhbmNoYXNheWFyIHMqAggAMhQQLhivARjHARimAxioAxiABBiOBTIFEAAYgAQyBRAAGIAEMgsQLhiABBioAxidAzIFEAAYgAQyBRAAGIAEMgUQABiABDIFEAAYgAQyCBAAGIAEGMsBMggQABiABBjLATIjEC4YrwEYxwEYpgMYqAMYgAQYjgUYlwUY3AQY3gQY4ATYAQNIuzhQmhhYmCVwAXgBkAEAmAGvAqAB1gSqAQUyLTEuMbgBAcgBAPgBAcICChAAGEcY1gQYsAPCAg0QABiABBiKBRhDGLADwgIcEC4YgAQYigUYQxjHARivARjIAxiwAxiOBdgBAcICGRAuGIAEGIoFGEMYxwEYrwEYyAMYsAPYAQHCAg4QABjkAhjWBBiwA9gBAsICEBAuGEMYnQMYqAMYgAQYigXCAhAQLhiABBiKBRhDGKgDGJ0DwgIWEC4YQxivARjHARimAxioAxiABBiKBcICChAAGIAEGBQYhwLCAh8QLhhDGJ0DGKgDGIAEGIoFGJcFGNwEGN4EGOAE2AED4gMEGAAgQYgGAZAGDroGBggBEAEYCLoGBggCEAEYCboGBggDEAEYFA&amp;sclient=gws-wiz-serp" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="F8" r:id="rId4" display="https://www.google.com/search?q=miranda+high+school&amp;sca_esv=593615924&amp;rlz=1C1CHBF_enAU1047AU1047&amp;sxsrf=AM9HkKmR8dFtasrVNGZkMFIxGz5Wq06ZjA%3A1703525037148&amp;ei=rbqJZczSCOCWjuMPsMy_8AM&amp;oq=miranda+high+&amp;gs_lp=Egxnd3Mtd2l6LXNlcnAiDW1pcmFuZGEgaGlnaCAqAggAMg0QABiABBgUGIcCGMkDMgUQABiABDILEAAYgAQYigUYkgMyBRAAGIAEMgUQABiABDIKEAAYgAQYFBiHAjIFEAAYgAQyBRAAGIAEMgUQABiABDIFEAAYgARI7RNQ6AZY6AZwAXgAkAEAmAH0BqABuAyqAQM2LTK4AQHIAQD4AQHCAgoQABhHGNYEGLAD4gMEGAAgQYgGAZAGCA&amp;sclient=gws-wiz-serp&amp;lqi=ChNtaXJhbmRhIGhpZ2ggc2Nob29sSN-07OW4roCACForEAAQARACGAAYARgCIhNtaXJhbmRhIGhpZ2ggc2Nob29sKggIAhAAEAEQApIBBnNjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOUGNqUnVSbVZuRUFFqgE7EAEyHhABIhpTQ3iPFiqMHHb-9vGb0lli1Rpc5Z8xE87GgDIXEAIiE21pcmFuZGEgaGlnaCBzY2hvb2w" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="D22" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="D25" r:id="rId6" display="mailto:official@younghorizonsschool.com" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="D26" r:id="rId7" display="mailto:iwanttojoin@siskol.edu.in" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="D27" r:id="rId8" display="mailto:lcgvm2012@gmail.com" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="D30" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="D33" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="D35" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="D37" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="D41" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="D42" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="D43" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="D47" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="D48" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="D49" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
-    <hyperlink ref="D51" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
-    <hyperlink ref="D52" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
-    <hyperlink ref="D53" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink ref="D54" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
-    <hyperlink ref="D55" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
-    <hyperlink ref="D56" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
-    <hyperlink ref="D57" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
-    <hyperlink ref="D58" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
-    <hyperlink ref="D59" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
-    <hyperlink ref="D60" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
-    <hyperlink ref="D61" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
-    <hyperlink ref="D62" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
-    <hyperlink ref="D63" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
-    <hyperlink ref="D64" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
-    <hyperlink ref="D65" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
-    <hyperlink ref="D66" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
-    <hyperlink ref="D67" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
-    <hyperlink ref="D68" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
-    <hyperlink ref="D69" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
-    <hyperlink ref="D70" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
-    <hyperlink ref="D71" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
-    <hyperlink ref="D72" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
-    <hyperlink ref="D73" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
-    <hyperlink ref="D75" r:id="rId42" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
-    <hyperlink ref="D78" r:id="rId43" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
-    <hyperlink ref="D79" r:id="rId44" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
-    <hyperlink ref="D80" r:id="rId45" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
-    <hyperlink ref="D81" r:id="rId46" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
-    <hyperlink ref="D85" r:id="rId47" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
-    <hyperlink ref="D88" r:id="rId48" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
-    <hyperlink ref="D89" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
-    <hyperlink ref="D91" r:id="rId50" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
-    <hyperlink ref="D2" r:id="rId51" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
-    <hyperlink ref="D28" r:id="rId52" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
+    <hyperlink ref="D31" r:id="rId1"/>
+    <hyperlink ref="D32" r:id="rId2"/>
+    <hyperlink ref="F7" r:id="rId3" display="https://www.google.com/search?q=panchasayar+siksha+niketan&amp;sca_esv=593615924&amp;rlz=1C1CHBF_enAU1047AU1047&amp;sxsrf=AM9HkKnlKkWvrpmDIvMzNnJR8ZC_8s6gNQ%3A1703524925488&amp;ei=PbqJZaauHY2KnesPo--TuAo&amp;gs_ssp=eJzj4tFP1zc0MqnMzTa1TDNgtFI1qDBONDAyNzRPNU1LM0xOTkuyAgqZpJmZmJgnGZgZGSWnpSV5SRUk5iVnJBYnViYWKRRnZhdnJCrkZWanliTmAQC7Qxln&amp;oq=panchasayar+s&amp;gs_lp=Egxnd3Mtd2l6LXNlcnAiDXBhbmNoYXNheWFyIHMqAggAMhQQLhivARjHARimAxioAxiABBiOBTIFEAAYgAQyBRAAGIAEMgsQLhiABBioAxidAzIFEAAYgAQyBRAAGIAEMgUQABiABDIFEAAYgAQyCBAAGIAEGMsBMggQABiABBjLATIjEC4YrwEYxwEYpgMYqAMYgAQYjgUYlwUY3AQY3gQY4ATYAQNIuzhQmhhYmCVwAXgBkAEAmAGvAqAB1gSqAQUyLTEuMbgBAcgBAPgBAcICChAAGEcY1gQYsAPCAg0QABiABBiKBRhDGLADwgIcEC4YgAQYigUYQxjHARivARjIAxiwAxiOBdgBAcICGRAuGIAEGIoFGEMYxwEYrwEYyAMYsAPYAQHCAg4QABjkAhjWBBiwA9gBAsICEBAuGEMYnQMYqAMYgAQYigXCAhAQLhiABBiKBRhDGKgDGJ0DwgIWEC4YQxivARjHARimAxioAxiABBiKBcICChAAGIAEGBQYhwLCAh8QLhhDGJ0DGKgDGIAEGIoFGJcFGNwEGN4EGOAE2AED4gMEGAAgQYgGAZAGDroGBggBEAEYCLoGBggCEAEYCboGBggDEAEYFA&amp;sclient=gws-wiz-serp"/>
+    <hyperlink ref="F8" r:id="rId4" display="https://www.google.com/search?q=miranda+high+school&amp;sca_esv=593615924&amp;rlz=1C1CHBF_enAU1047AU1047&amp;sxsrf=AM9HkKmR8dFtasrVNGZkMFIxGz5Wq06ZjA%3A1703525037148&amp;ei=rbqJZczSCOCWjuMPsMy_8AM&amp;oq=miranda+high+&amp;gs_lp=Egxnd3Mtd2l6LXNlcnAiDW1pcmFuZGEgaGlnaCAqAggAMg0QABiABBgUGIcCGMkDMgUQABiABDILEAAYgAQYigUYkgMyBRAAGIAEMgUQABiABDIKEAAYgAQYFBiHAjIFEAAYgAQyBRAAGIAEMgUQABiABDIFEAAYgARI7RNQ6AZY6AZwAXgAkAEAmAH0BqABuAyqAQM2LTK4AQHIAQD4AQHCAgoQABhHGNYEGLAD4gMEGAAgQYgGAZAGCA&amp;sclient=gws-wiz-serp&amp;lqi=ChNtaXJhbmRhIGhpZ2ggc2Nob29sSN-07OW4roCACForEAAQARACGAAYARgCIhNtaXJhbmRhIGhpZ2ggc2Nob29sKggIAhAAEAEQApIBBnNjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOUGNqUnVSbVZuRUFFqgE7EAEyHhABIhpTQ3iPFiqMHHb-9vGb0lli1Rpc5Z8xE87GgDIXEAIiE21pcmFuZGEgaGlnaCBzY2hvb2w"/>
+    <hyperlink ref="D22" r:id="rId5"/>
+    <hyperlink ref="D25" r:id="rId6" display="mailto:official@younghorizonsschool.com"/>
+    <hyperlink ref="D26" r:id="rId7" display="mailto:iwanttojoin@siskol.edu.in"/>
+    <hyperlink ref="D27" r:id="rId8" display="mailto:lcgvm2012@gmail.com"/>
+    <hyperlink ref="D30" r:id="rId9"/>
+    <hyperlink ref="D33" r:id="rId10"/>
+    <hyperlink ref="D35" r:id="rId11"/>
+    <hyperlink ref="D37" r:id="rId12"/>
+    <hyperlink ref="D41" r:id="rId13"/>
+    <hyperlink ref="D42" r:id="rId14"/>
+    <hyperlink ref="D43" r:id="rId15"/>
+    <hyperlink ref="D47" r:id="rId16"/>
+    <hyperlink ref="D48" r:id="rId17"/>
+    <hyperlink ref="D49" r:id="rId18"/>
+    <hyperlink ref="D51" r:id="rId19"/>
+    <hyperlink ref="D52" r:id="rId20"/>
+    <hyperlink ref="D53" r:id="rId21"/>
+    <hyperlink ref="D54" r:id="rId22"/>
+    <hyperlink ref="D55" r:id="rId23"/>
+    <hyperlink ref="D56" r:id="rId24"/>
+    <hyperlink ref="D57" r:id="rId25"/>
+    <hyperlink ref="D58" r:id="rId26"/>
+    <hyperlink ref="D59" r:id="rId27"/>
+    <hyperlink ref="D60" r:id="rId28"/>
+    <hyperlink ref="D61" r:id="rId29"/>
+    <hyperlink ref="D62" r:id="rId30"/>
+    <hyperlink ref="D63" r:id="rId31"/>
+    <hyperlink ref="D64" r:id="rId32"/>
+    <hyperlink ref="D65" r:id="rId33"/>
+    <hyperlink ref="D66" r:id="rId34"/>
+    <hyperlink ref="D67" r:id="rId35"/>
+    <hyperlink ref="D68" r:id="rId36"/>
+    <hyperlink ref="D69" r:id="rId37"/>
+    <hyperlink ref="D70" r:id="rId38"/>
+    <hyperlink ref="D71" r:id="rId39"/>
+    <hyperlink ref="D72" r:id="rId40"/>
+    <hyperlink ref="D73" r:id="rId41"/>
+    <hyperlink ref="D75" r:id="rId42"/>
+    <hyperlink ref="D78" r:id="rId43"/>
+    <hyperlink ref="D79" r:id="rId44"/>
+    <hyperlink ref="D80" r:id="rId45"/>
+    <hyperlink ref="D81" r:id="rId46"/>
+    <hyperlink ref="D85" r:id="rId47"/>
+    <hyperlink ref="D88" r:id="rId48"/>
+    <hyperlink ref="D89" r:id="rId49"/>
+    <hyperlink ref="D91" r:id="rId50"/>
+    <hyperlink ref="D2" r:id="rId51"/>
+    <hyperlink ref="D28" r:id="rId52"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId53"/>
@@ -8039,18 +8846,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0FBAB02-8AAE-432A-AC7E-01E47CBEE6FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T179"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.6640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="32.5546875" style="40" customWidth="1"/>
     <col min="4" max="4" width="15.5546875" style="39" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="40" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="16" style="40" customWidth="1"/>
@@ -8133,7 +8940,6 @@
       <c r="B2" s="38" t="s">
         <v>297</v>
       </c>
-      <c r="C2" s="10"/>
       <c r="D2" s="39" t="s">
         <v>298</v>
       </c>
@@ -8483,7 +9289,7 @@
       <c r="B11" s="38" t="s">
         <v>320</v>
       </c>
-      <c r="C11" s="43"/>
+      <c r="C11" s="58"/>
       <c r="D11" s="39" t="s">
         <v>321</v>
       </c>
@@ -8808,8 +9614,8 @@
       <c r="B20" s="38" t="s">
         <v>335</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="44" t="s">
+      <c r="C20" s="59"/>
+      <c r="D20" s="43" t="s">
         <v>336</v>
       </c>
       <c r="M20" s="10">
@@ -8842,10 +9648,10 @@
       <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="44" t="s">
         <v>337</v>
       </c>
-      <c r="C21" s="3"/>
+      <c r="C21" s="54"/>
       <c r="D21" s="39" t="s">
         <v>338</v>
       </c>
@@ -8879,7 +9685,7 @@
       <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="45" t="s">
         <v>339</v>
       </c>
       <c r="D22" s="39" t="s">
@@ -8918,7 +9724,7 @@
       <c r="B23" s="38" t="s">
         <v>341</v>
       </c>
-      <c r="C23" s="4"/>
+      <c r="C23" s="60"/>
       <c r="D23" s="39" t="s">
         <v>342</v>
       </c>
@@ -8955,7 +9761,7 @@
       <c r="B24" s="38" t="s">
         <v>343</v>
       </c>
-      <c r="C24" s="6"/>
+      <c r="C24" s="57"/>
       <c r="D24" s="39" t="s">
         <v>344</v>
       </c>
@@ -8992,7 +9798,7 @@
       <c r="B25" s="38" t="s">
         <v>345</v>
       </c>
-      <c r="C25" s="6"/>
+      <c r="C25" s="57"/>
       <c r="D25" s="39" t="s">
         <v>346</v>
       </c>
@@ -9029,7 +9835,7 @@
       <c r="B26" s="38" t="s">
         <v>347</v>
       </c>
-      <c r="C26" s="6"/>
+      <c r="C26" s="57"/>
       <c r="D26" s="39" t="s">
         <v>348</v>
       </c>
@@ -9138,7 +9944,7 @@
       <c r="B29" s="38" t="s">
         <v>353</v>
       </c>
-      <c r="C29" s="3"/>
+      <c r="C29" s="54"/>
       <c r="D29" s="39" t="s">
         <v>354</v>
       </c>
@@ -9175,7 +9981,7 @@
       <c r="B30" s="38" t="s">
         <v>355</v>
       </c>
-      <c r="C30" s="3"/>
+      <c r="C30" s="54"/>
       <c r="D30" s="39" t="s">
         <v>356</v>
       </c>
@@ -9212,7 +10018,7 @@
       <c r="B31" s="38" t="s">
         <v>357</v>
       </c>
-      <c r="C31" s="3"/>
+      <c r="C31" s="54"/>
       <c r="D31" s="39" t="s">
         <v>358</v>
       </c>
@@ -9354,11 +10160,11 @@
       <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B35" s="38" t="s">
+      <c r="B35" s="44" t="s">
+        <v>375</v>
+      </c>
+      <c r="D35" s="43" t="s">
         <v>365</v>
-      </c>
-      <c r="D35" s="44" t="s">
-        <v>366</v>
       </c>
       <c r="M35" s="10">
         <v>0</v>
@@ -9386,7 +10192,22 @@
         <v>263</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+      <c r="B36" s="38" t="s">
+        <v>376</v>
+      </c>
+      <c r="C36" s="54" t="s">
+        <v>377</v>
+      </c>
+      <c r="D36" s="39" t="s">
+        <v>378</v>
+      </c>
+      <c r="E36" s="40" t="s">
+        <v>379</v>
+      </c>
       <c r="M36" s="10"/>
       <c r="N36" s="10"/>
       <c r="O36" s="10"/>
@@ -9395,7 +10216,22 @@
       <c r="R36" s="10"/>
       <c r="S36" s="10"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>36</v>
+      </c>
+      <c r="B37" s="38" t="s">
+        <v>382</v>
+      </c>
+      <c r="C37" s="54" t="s">
+        <v>381</v>
+      </c>
+      <c r="D37" s="39" t="s">
+        <v>380</v>
+      </c>
+      <c r="E37" s="40" t="s">
+        <v>383</v>
+      </c>
       <c r="M37" s="10"/>
       <c r="N37" s="10"/>
       <c r="O37" s="10"/>
@@ -9404,7 +10240,19 @@
       <c r="R37" s="10"/>
       <c r="S37" s="10"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>37</v>
+      </c>
+      <c r="B38" s="38" t="s">
+        <v>385</v>
+      </c>
+      <c r="D38" s="39" t="s">
+        <v>384</v>
+      </c>
+      <c r="E38" s="40" t="s">
+        <v>387</v>
+      </c>
       <c r="M38" s="10"/>
       <c r="N38" s="10"/>
       <c r="O38" s="10"/>
@@ -9413,7 +10261,19 @@
       <c r="R38" s="10"/>
       <c r="S38" s="10"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>38</v>
+      </c>
+      <c r="B39" s="38" t="s">
+        <v>386</v>
+      </c>
+      <c r="D39" s="39" t="s">
+        <v>388</v>
+      </c>
+      <c r="E39" s="40" t="s">
+        <v>389</v>
+      </c>
       <c r="M39" s="10"/>
       <c r="N39" s="10"/>
       <c r="O39" s="10"/>
@@ -9422,7 +10282,19 @@
       <c r="R39" s="10"/>
       <c r="S39" s="10"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>39</v>
+      </c>
+      <c r="B40" s="38" t="s">
+        <v>390</v>
+      </c>
+      <c r="D40" s="39" t="s">
+        <v>392</v>
+      </c>
+      <c r="E40" s="40" t="s">
+        <v>391</v>
+      </c>
       <c r="M40" s="10"/>
       <c r="N40" s="10"/>
       <c r="O40" s="10"/>
@@ -9432,6 +10304,18 @@
       <c r="S40" s="10"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>40</v>
+      </c>
+      <c r="B41" s="38" t="s">
+        <v>393</v>
+      </c>
+      <c r="D41" s="55" t="s">
+        <v>394</v>
+      </c>
+      <c r="E41" s="40" t="s">
+        <v>395</v>
+      </c>
       <c r="M41" s="10"/>
       <c r="N41" s="10"/>
       <c r="O41" s="10"/>
@@ -9440,7 +10324,19 @@
       <c r="R41" s="10"/>
       <c r="S41" s="10"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>41</v>
+      </c>
+      <c r="B42" s="38" t="s">
+        <v>396</v>
+      </c>
+      <c r="D42" s="39" t="s">
+        <v>397</v>
+      </c>
+      <c r="E42" s="40" t="s">
+        <v>398</v>
+      </c>
       <c r="M42" s="10"/>
       <c r="N42" s="10"/>
       <c r="O42" s="10"/>
@@ -9449,7 +10345,22 @@
       <c r="R42" s="10"/>
       <c r="S42" s="10"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>42</v>
+      </c>
+      <c r="B43" s="38" t="s">
+        <v>400</v>
+      </c>
+      <c r="C43" s="56" t="s">
+        <v>399</v>
+      </c>
+      <c r="D43" s="39" t="s">
+        <v>401</v>
+      </c>
+      <c r="E43" s="40" t="s">
+        <v>402</v>
+      </c>
       <c r="M43" s="10"/>
       <c r="N43" s="10"/>
       <c r="O43" s="10"/>
@@ -9458,7 +10369,19 @@
       <c r="R43" s="10"/>
       <c r="S43" s="10"/>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>43</v>
+      </c>
+      <c r="B44" s="38" t="s">
+        <v>404</v>
+      </c>
+      <c r="D44" s="39" t="s">
+        <v>403</v>
+      </c>
+      <c r="E44" s="40" t="s">
+        <v>405</v>
+      </c>
       <c r="M44" s="10"/>
       <c r="N44" s="10"/>
       <c r="O44" s="10"/>
@@ -9468,6 +10391,18 @@
       <c r="S44" s="10"/>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>44</v>
+      </c>
+      <c r="B45" s="38" t="s">
+        <v>406</v>
+      </c>
+      <c r="D45" s="39" t="s">
+        <v>408</v>
+      </c>
+      <c r="E45" s="40" t="s">
+        <v>407</v>
+      </c>
       <c r="M45" s="10"/>
       <c r="N45" s="10"/>
       <c r="O45" s="10"/>
@@ -9476,7 +10411,19 @@
       <c r="R45" s="10"/>
       <c r="S45" s="10"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>45</v>
+      </c>
+      <c r="B46" s="38" t="s">
+        <v>409</v>
+      </c>
+      <c r="D46" s="39" t="s">
+        <v>410</v>
+      </c>
+      <c r="E46" s="40" t="s">
+        <v>411</v>
+      </c>
       <c r="M46" s="10"/>
       <c r="N46" s="10"/>
       <c r="O46" s="10"/>
@@ -9485,7 +10432,19 @@
       <c r="R46" s="10"/>
       <c r="S46" s="10"/>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>46</v>
+      </c>
+      <c r="B47" s="38" t="s">
+        <v>412</v>
+      </c>
+      <c r="D47" s="55" t="s">
+        <v>413</v>
+      </c>
+      <c r="E47" s="40" t="s">
+        <v>414</v>
+      </c>
       <c r="M47" s="10"/>
       <c r="N47" s="10"/>
       <c r="O47" s="10"/>
@@ -9494,7 +10453,19 @@
       <c r="R47" s="10"/>
       <c r="S47" s="10"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>47</v>
+      </c>
+      <c r="B48" s="38" t="s">
+        <v>415</v>
+      </c>
+      <c r="D48" s="39" t="s">
+        <v>416</v>
+      </c>
+      <c r="E48" s="40" t="s">
+        <v>407</v>
+      </c>
       <c r="M48" s="10"/>
       <c r="N48" s="10"/>
       <c r="O48" s="10"/>
@@ -9503,7 +10474,22 @@
       <c r="R48" s="10"/>
       <c r="S48" s="10"/>
     </row>
-    <row r="49" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>48</v>
+      </c>
+      <c r="B49" s="38" t="s">
+        <v>417</v>
+      </c>
+      <c r="C49" s="56" t="s">
+        <v>419</v>
+      </c>
+      <c r="D49" s="39" t="s">
+        <v>418</v>
+      </c>
+      <c r="E49" s="40" t="s">
+        <v>422</v>
+      </c>
       <c r="M49" s="10"/>
       <c r="N49" s="10"/>
       <c r="O49" s="10"/>
@@ -9512,7 +10498,19 @@
       <c r="R49" s="10"/>
       <c r="S49" s="10"/>
     </row>
-    <row r="50" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>49</v>
+      </c>
+      <c r="B50" s="38" t="s">
+        <v>420</v>
+      </c>
+      <c r="D50" s="39" t="s">
+        <v>421</v>
+      </c>
+      <c r="E50" s="40" t="s">
+        <v>407</v>
+      </c>
       <c r="M50" s="10"/>
       <c r="N50" s="10"/>
       <c r="O50" s="10"/>
@@ -9521,7 +10519,19 @@
       <c r="R50" s="10"/>
       <c r="S50" s="10"/>
     </row>
-    <row r="51" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>50</v>
+      </c>
+      <c r="B51" s="38" t="s">
+        <v>423</v>
+      </c>
+      <c r="D51" s="39" t="s">
+        <v>425</v>
+      </c>
+      <c r="E51" s="40" t="s">
+        <v>424</v>
+      </c>
       <c r="M51" s="10"/>
       <c r="N51" s="10"/>
       <c r="O51" s="10"/>
@@ -9530,7 +10540,19 @@
       <c r="R51" s="10"/>
       <c r="S51" s="10"/>
     </row>
-    <row r="52" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>51</v>
+      </c>
+      <c r="B52" s="38" t="s">
+        <v>430</v>
+      </c>
+      <c r="D52" s="39" t="s">
+        <v>431</v>
+      </c>
+      <c r="E52" s="40" t="s">
+        <v>432</v>
+      </c>
       <c r="M52" s="10"/>
       <c r="N52" s="10"/>
       <c r="O52" s="10"/>
@@ -9539,7 +10561,19 @@
       <c r="R52" s="10"/>
       <c r="S52" s="10"/>
     </row>
-    <row r="53" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>52</v>
+      </c>
+      <c r="B53" s="38" t="s">
+        <v>433</v>
+      </c>
+      <c r="D53" s="39" t="s">
+        <v>434</v>
+      </c>
+      <c r="E53" s="40" t="s">
+        <v>424</v>
+      </c>
       <c r="M53" s="10"/>
       <c r="N53" s="10"/>
       <c r="O53" s="10"/>
@@ -9548,7 +10582,19 @@
       <c r="R53" s="10"/>
       <c r="S53" s="10"/>
     </row>
-    <row r="54" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>53</v>
+      </c>
+      <c r="B54" s="38" t="s">
+        <v>435</v>
+      </c>
+      <c r="D54" s="39" t="s">
+        <v>436</v>
+      </c>
+      <c r="E54" s="40" t="s">
+        <v>414</v>
+      </c>
       <c r="M54" s="10"/>
       <c r="N54" s="10"/>
       <c r="O54" s="10"/>
@@ -9557,7 +10603,10 @@
       <c r="R54" s="10"/>
       <c r="S54" s="10"/>
     </row>
-    <row r="55" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>54</v>
+      </c>
       <c r="M55" s="10"/>
       <c r="N55" s="10"/>
       <c r="O55" s="10"/>
@@ -9566,7 +10615,10 @@
       <c r="R55" s="10"/>
       <c r="S55" s="10"/>
     </row>
-    <row r="56" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <v>55</v>
+      </c>
       <c r="M56" s="10"/>
       <c r="N56" s="10"/>
       <c r="O56" s="10"/>
@@ -9575,7 +10627,10 @@
       <c r="R56" s="10"/>
       <c r="S56" s="10"/>
     </row>
-    <row r="57" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
+        <v>56</v>
+      </c>
       <c r="M57" s="10"/>
       <c r="N57" s="10"/>
       <c r="O57" s="10"/>
@@ -9584,7 +10639,10 @@
       <c r="R57" s="10"/>
       <c r="S57" s="10"/>
     </row>
-    <row r="58" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
+        <v>57</v>
+      </c>
       <c r="M58" s="10"/>
       <c r="N58" s="10"/>
       <c r="O58" s="10"/>
@@ -9593,7 +10651,10 @@
       <c r="R58" s="10"/>
       <c r="S58" s="10"/>
     </row>
-    <row r="59" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
+        <v>58</v>
+      </c>
       <c r="M59" s="10"/>
       <c r="N59" s="10"/>
       <c r="O59" s="10"/>
@@ -9602,7 +10663,10 @@
       <c r="R59" s="10"/>
       <c r="S59" s="10"/>
     </row>
-    <row r="60" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
+        <v>59</v>
+      </c>
       <c r="M60" s="10"/>
       <c r="N60" s="10"/>
       <c r="O60" s="10"/>
@@ -9611,7 +10675,10 @@
       <c r="R60" s="10"/>
       <c r="S60" s="10"/>
     </row>
-    <row r="61" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
+        <v>60</v>
+      </c>
       <c r="M61" s="10"/>
       <c r="N61" s="10"/>
       <c r="O61" s="10"/>
@@ -9620,7 +10687,10 @@
       <c r="R61" s="10"/>
       <c r="S61" s="10"/>
     </row>
-    <row r="62" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
+        <v>61</v>
+      </c>
       <c r="M62" s="10"/>
       <c r="N62" s="10"/>
       <c r="O62" s="10"/>
@@ -9629,7 +10699,10 @@
       <c r="R62" s="10"/>
       <c r="S62" s="10"/>
     </row>
-    <row r="63" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
+        <v>62</v>
+      </c>
       <c r="M63" s="10"/>
       <c r="N63" s="10"/>
       <c r="O63" s="10"/>
@@ -9638,7 +10711,10 @@
       <c r="R63" s="10"/>
       <c r="S63" s="10"/>
     </row>
-    <row r="64" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
+        <v>63</v>
+      </c>
       <c r="M64" s="10"/>
       <c r="N64" s="10"/>
       <c r="O64" s="10"/>
@@ -9647,7 +10723,10 @@
       <c r="R64" s="10"/>
       <c r="S64" s="10"/>
     </row>
-    <row r="65" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
+        <v>64</v>
+      </c>
       <c r="M65" s="10"/>
       <c r="N65" s="10"/>
       <c r="O65" s="10"/>
@@ -9656,7 +10735,10 @@
       <c r="R65" s="10"/>
       <c r="S65" s="10"/>
     </row>
-    <row r="66" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A66" s="2">
+        <v>65</v>
+      </c>
       <c r="M66" s="10"/>
       <c r="N66" s="10"/>
       <c r="O66" s="10"/>
@@ -9665,7 +10747,10 @@
       <c r="R66" s="10"/>
       <c r="S66" s="10"/>
     </row>
-    <row r="67" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A67" s="2">
+        <v>66</v>
+      </c>
       <c r="M67" s="10"/>
       <c r="N67" s="10"/>
       <c r="O67" s="10"/>
@@ -9674,7 +10759,10 @@
       <c r="R67" s="10"/>
       <c r="S67" s="10"/>
     </row>
-    <row r="68" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A68" s="2">
+        <v>67</v>
+      </c>
       <c r="M68" s="10"/>
       <c r="N68" s="10"/>
       <c r="O68" s="10"/>
@@ -9683,7 +10771,10 @@
       <c r="R68" s="10"/>
       <c r="S68" s="10"/>
     </row>
-    <row r="69" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A69" s="2">
+        <v>68</v>
+      </c>
       <c r="M69" s="10"/>
       <c r="N69" s="10"/>
       <c r="O69" s="10"/>
@@ -9692,7 +10783,10 @@
       <c r="R69" s="10"/>
       <c r="S69" s="10"/>
     </row>
-    <row r="70" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A70" s="2">
+        <v>69</v>
+      </c>
       <c r="M70" s="10"/>
       <c r="N70" s="10"/>
       <c r="O70" s="10"/>
@@ -9701,7 +10795,10 @@
       <c r="R70" s="10"/>
       <c r="S70" s="10"/>
     </row>
-    <row r="71" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A71" s="2">
+        <v>70</v>
+      </c>
       <c r="M71" s="10"/>
       <c r="N71" s="10"/>
       <c r="O71" s="10"/>
@@ -9710,7 +10807,10 @@
       <c r="R71" s="10"/>
       <c r="S71" s="10"/>
     </row>
-    <row r="72" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A72" s="2">
+        <v>71</v>
+      </c>
       <c r="M72" s="10"/>
       <c r="N72" s="10"/>
       <c r="O72" s="10"/>
@@ -9719,7 +10819,10 @@
       <c r="R72" s="10"/>
       <c r="S72" s="10"/>
     </row>
-    <row r="73" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A73" s="2">
+        <v>72</v>
+      </c>
       <c r="M73" s="10"/>
       <c r="N73" s="10"/>
       <c r="O73" s="10"/>
@@ -9728,7 +10831,10 @@
       <c r="R73" s="10"/>
       <c r="S73" s="10"/>
     </row>
-    <row r="74" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A74" s="2">
+        <v>73</v>
+      </c>
       <c r="M74" s="10"/>
       <c r="N74" s="10"/>
       <c r="O74" s="10"/>
@@ -9737,7 +10843,10 @@
       <c r="R74" s="10"/>
       <c r="S74" s="10"/>
     </row>
-    <row r="75" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A75" s="2">
+        <v>74</v>
+      </c>
       <c r="M75" s="10"/>
       <c r="N75" s="10"/>
       <c r="O75" s="10"/>
@@ -9746,7 +10855,10 @@
       <c r="R75" s="10"/>
       <c r="S75" s="10"/>
     </row>
-    <row r="76" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A76" s="2">
+        <v>75</v>
+      </c>
       <c r="M76" s="10"/>
       <c r="N76" s="10"/>
       <c r="O76" s="10"/>
@@ -9755,7 +10867,10 @@
       <c r="R76" s="10"/>
       <c r="S76" s="10"/>
     </row>
-    <row r="77" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A77" s="2">
+        <v>76</v>
+      </c>
       <c r="M77" s="10"/>
       <c r="N77" s="10"/>
       <c r="O77" s="10"/>
@@ -9764,7 +10879,10 @@
       <c r="R77" s="10"/>
       <c r="S77" s="10"/>
     </row>
-    <row r="78" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A78" s="2">
+        <v>77</v>
+      </c>
       <c r="M78" s="10"/>
       <c r="N78" s="10"/>
       <c r="O78" s="10"/>
@@ -9773,7 +10891,10 @@
       <c r="R78" s="10"/>
       <c r="S78" s="10"/>
     </row>
-    <row r="79" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A79" s="2">
+        <v>78</v>
+      </c>
       <c r="M79" s="10"/>
       <c r="N79" s="10"/>
       <c r="O79" s="10"/>
@@ -9782,7 +10903,10 @@
       <c r="R79" s="10"/>
       <c r="S79" s="10"/>
     </row>
-    <row r="80" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A80" s="2">
+        <v>79</v>
+      </c>
       <c r="M80" s="10"/>
       <c r="N80" s="10"/>
       <c r="O80" s="10"/>
@@ -9791,7 +10915,10 @@
       <c r="R80" s="10"/>
       <c r="S80" s="10"/>
     </row>
-    <row r="81" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A81" s="2">
+        <v>80</v>
+      </c>
       <c r="M81" s="10"/>
       <c r="N81" s="10"/>
       <c r="O81" s="10"/>
@@ -9800,7 +10927,10 @@
       <c r="R81" s="10"/>
       <c r="S81" s="10"/>
     </row>
-    <row r="82" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A82" s="2">
+        <v>81</v>
+      </c>
       <c r="M82" s="10"/>
       <c r="N82" s="10"/>
       <c r="O82" s="10"/>
@@ -9809,7 +10939,10 @@
       <c r="R82" s="10"/>
       <c r="S82" s="10"/>
     </row>
-    <row r="83" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A83" s="2">
+        <v>82</v>
+      </c>
       <c r="M83" s="10"/>
       <c r="N83" s="10"/>
       <c r="O83" s="10"/>
@@ -9818,7 +10951,10 @@
       <c r="R83" s="10"/>
       <c r="S83" s="10"/>
     </row>
-    <row r="84" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A84" s="2">
+        <v>83</v>
+      </c>
       <c r="M84" s="10"/>
       <c r="N84" s="10"/>
       <c r="O84" s="10"/>
@@ -9827,7 +10963,10 @@
       <c r="R84" s="10"/>
       <c r="S84" s="10"/>
     </row>
-    <row r="85" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A85" s="2">
+        <v>84</v>
+      </c>
       <c r="M85" s="10"/>
       <c r="N85" s="10"/>
       <c r="O85" s="10"/>
@@ -9836,7 +10975,10 @@
       <c r="R85" s="10"/>
       <c r="S85" s="10"/>
     </row>
-    <row r="86" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A86" s="2">
+        <v>85</v>
+      </c>
       <c r="M86" s="10"/>
       <c r="N86" s="10"/>
       <c r="O86" s="10"/>
@@ -9845,7 +10987,10 @@
       <c r="R86" s="10"/>
       <c r="S86" s="10"/>
     </row>
-    <row r="87" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A87" s="2">
+        <v>86</v>
+      </c>
       <c r="M87" s="10"/>
       <c r="N87" s="10"/>
       <c r="O87" s="10"/>
@@ -9854,7 +10999,10 @@
       <c r="R87" s="10"/>
       <c r="S87" s="10"/>
     </row>
-    <row r="88" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A88" s="2">
+        <v>87</v>
+      </c>
       <c r="M88" s="10"/>
       <c r="N88" s="10"/>
       <c r="O88" s="10"/>
@@ -9863,7 +11011,10 @@
       <c r="R88" s="10"/>
       <c r="S88" s="10"/>
     </row>
-    <row r="89" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A89" s="2">
+        <v>88</v>
+      </c>
       <c r="M89" s="10"/>
       <c r="N89" s="10"/>
       <c r="O89" s="10"/>
@@ -9872,7 +11023,10 @@
       <c r="R89" s="10"/>
       <c r="S89" s="10"/>
     </row>
-    <row r="90" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A90" s="2">
+        <v>89</v>
+      </c>
       <c r="M90" s="10"/>
       <c r="N90" s="10"/>
       <c r="O90" s="10"/>
@@ -9881,7 +11035,10 @@
       <c r="R90" s="10"/>
       <c r="S90" s="10"/>
     </row>
-    <row r="91" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A91" s="2">
+        <v>90</v>
+      </c>
       <c r="M91" s="10"/>
       <c r="N91" s="10"/>
       <c r="O91" s="10"/>
@@ -9890,7 +11047,10 @@
       <c r="R91" s="10"/>
       <c r="S91" s="10"/>
     </row>
-    <row r="92" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A92" s="2">
+        <v>91</v>
+      </c>
       <c r="M92" s="10"/>
       <c r="N92" s="10"/>
       <c r="O92" s="10"/>
@@ -9899,7 +11059,10 @@
       <c r="R92" s="10"/>
       <c r="S92" s="10"/>
     </row>
-    <row r="93" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A93" s="2">
+        <v>92</v>
+      </c>
       <c r="M93" s="10"/>
       <c r="N93" s="10"/>
       <c r="O93" s="10"/>
@@ -9908,7 +11071,10 @@
       <c r="R93" s="10"/>
       <c r="S93" s="10"/>
     </row>
-    <row r="94" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A94" s="2">
+        <v>93</v>
+      </c>
       <c r="M94" s="10"/>
       <c r="N94" s="10"/>
       <c r="O94" s="10"/>
@@ -9917,7 +11083,10 @@
       <c r="R94" s="10"/>
       <c r="S94" s="10"/>
     </row>
-    <row r="95" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A95" s="2">
+        <v>94</v>
+      </c>
       <c r="M95" s="10"/>
       <c r="N95" s="10"/>
       <c r="O95" s="10"/>
@@ -9926,7 +11095,10 @@
       <c r="R95" s="10"/>
       <c r="S95" s="10"/>
     </row>
-    <row r="96" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A96" s="2">
+        <v>95</v>
+      </c>
       <c r="M96" s="10"/>
       <c r="N96" s="10"/>
       <c r="O96" s="10"/>
@@ -9935,7 +11107,10 @@
       <c r="R96" s="10"/>
       <c r="S96" s="10"/>
     </row>
-    <row r="97" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A97" s="2">
+        <v>96</v>
+      </c>
       <c r="M97" s="10"/>
       <c r="N97" s="10"/>
       <c r="O97" s="10"/>
@@ -9944,7 +11119,10 @@
       <c r="R97" s="10"/>
       <c r="S97" s="10"/>
     </row>
-    <row r="98" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A98" s="2">
+        <v>97</v>
+      </c>
       <c r="M98" s="10"/>
       <c r="N98" s="10"/>
       <c r="O98" s="10"/>
@@ -9953,7 +11131,10 @@
       <c r="R98" s="10"/>
       <c r="S98" s="10"/>
     </row>
-    <row r="99" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A99" s="2">
+        <v>98</v>
+      </c>
       <c r="M99" s="10"/>
       <c r="N99" s="10"/>
       <c r="O99" s="10"/>
@@ -9962,7 +11143,10 @@
       <c r="R99" s="10"/>
       <c r="S99" s="10"/>
     </row>
-    <row r="100" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A100" s="2">
+        <v>99</v>
+      </c>
       <c r="M100" s="10"/>
       <c r="N100" s="10"/>
       <c r="O100" s="10"/>
@@ -9971,7 +11155,10 @@
       <c r="R100" s="10"/>
       <c r="S100" s="10"/>
     </row>
-    <row r="101" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A101" s="2">
+        <v>100</v>
+      </c>
       <c r="M101" s="10"/>
       <c r="N101" s="10"/>
       <c r="O101" s="10"/>
@@ -9980,7 +11167,10 @@
       <c r="R101" s="10"/>
       <c r="S101" s="10"/>
     </row>
-    <row r="102" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A102" s="2">
+        <v>101</v>
+      </c>
       <c r="M102" s="10"/>
       <c r="N102" s="10"/>
       <c r="O102" s="10"/>
@@ -9989,7 +11179,10 @@
       <c r="R102" s="10"/>
       <c r="S102" s="10"/>
     </row>
-    <row r="103" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A103" s="2">
+        <v>102</v>
+      </c>
       <c r="M103" s="10"/>
       <c r="N103" s="10"/>
       <c r="O103" s="10"/>
@@ -9998,7 +11191,10 @@
       <c r="R103" s="10"/>
       <c r="S103" s="10"/>
     </row>
-    <row r="104" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A104" s="2">
+        <v>103</v>
+      </c>
       <c r="M104" s="10"/>
       <c r="N104" s="10"/>
       <c r="O104" s="10"/>
@@ -10007,7 +11203,10 @@
       <c r="R104" s="10"/>
       <c r="S104" s="10"/>
     </row>
-    <row r="105" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A105" s="2">
+        <v>104</v>
+      </c>
       <c r="M105" s="10"/>
       <c r="N105" s="10"/>
       <c r="O105" s="10"/>
@@ -10016,7 +11215,10 @@
       <c r="R105" s="10"/>
       <c r="S105" s="10"/>
     </row>
-    <row r="106" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A106" s="2">
+        <v>105</v>
+      </c>
       <c r="M106" s="10"/>
       <c r="N106" s="10"/>
       <c r="O106" s="10"/>
@@ -10025,7 +11227,10 @@
       <c r="R106" s="10"/>
       <c r="S106" s="10"/>
     </row>
-    <row r="107" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A107" s="2">
+        <v>106</v>
+      </c>
       <c r="M107" s="10"/>
       <c r="N107" s="10"/>
       <c r="O107" s="10"/>
@@ -10034,7 +11239,10 @@
       <c r="R107" s="10"/>
       <c r="S107" s="10"/>
     </row>
-    <row r="108" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A108" s="2">
+        <v>107</v>
+      </c>
       <c r="M108" s="10"/>
       <c r="N108" s="10"/>
       <c r="O108" s="10"/>
@@ -10043,7 +11251,10 @@
       <c r="R108" s="10"/>
       <c r="S108" s="10"/>
     </row>
-    <row r="109" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A109" s="2">
+        <v>108</v>
+      </c>
       <c r="M109" s="10"/>
       <c r="N109" s="10"/>
       <c r="O109" s="10"/>
@@ -10052,7 +11263,10 @@
       <c r="R109" s="10"/>
       <c r="S109" s="10"/>
     </row>
-    <row r="110" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A110" s="2">
+        <v>109</v>
+      </c>
       <c r="M110" s="10"/>
       <c r="N110" s="10"/>
       <c r="O110" s="10"/>
@@ -10061,7 +11275,10 @@
       <c r="R110" s="10"/>
       <c r="S110" s="10"/>
     </row>
-    <row r="111" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A111" s="2">
+        <v>110</v>
+      </c>
       <c r="M111" s="10"/>
       <c r="N111" s="10"/>
       <c r="O111" s="10"/>
@@ -10070,7 +11287,10 @@
       <c r="R111" s="10"/>
       <c r="S111" s="10"/>
     </row>
-    <row r="112" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A112" s="2">
+        <v>111</v>
+      </c>
       <c r="M112" s="10"/>
       <c r="N112" s="10"/>
       <c r="O112" s="10"/>
@@ -10079,7 +11299,10 @@
       <c r="R112" s="10"/>
       <c r="S112" s="10"/>
     </row>
-    <row r="113" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A113" s="2">
+        <v>112</v>
+      </c>
       <c r="M113" s="10"/>
       <c r="N113" s="10"/>
       <c r="O113" s="10"/>
@@ -10088,7 +11311,10 @@
       <c r="R113" s="10"/>
       <c r="S113" s="10"/>
     </row>
-    <row r="114" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A114" s="2">
+        <v>113</v>
+      </c>
       <c r="M114" s="10"/>
       <c r="N114" s="10"/>
       <c r="O114" s="10"/>
@@ -10097,7 +11323,10 @@
       <c r="R114" s="10"/>
       <c r="S114" s="10"/>
     </row>
-    <row r="115" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A115" s="2">
+        <v>114</v>
+      </c>
       <c r="M115" s="10"/>
       <c r="N115" s="10"/>
       <c r="O115" s="10"/>
@@ -10106,7 +11335,10 @@
       <c r="R115" s="10"/>
       <c r="S115" s="10"/>
     </row>
-    <row r="116" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A116" s="2">
+        <v>115</v>
+      </c>
       <c r="M116" s="10"/>
       <c r="N116" s="10"/>
       <c r="O116" s="10"/>
@@ -10115,7 +11347,10 @@
       <c r="R116" s="10"/>
       <c r="S116" s="10"/>
     </row>
-    <row r="117" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A117" s="2">
+        <v>116</v>
+      </c>
       <c r="M117" s="10"/>
       <c r="N117" s="10"/>
       <c r="O117" s="10"/>
@@ -10124,7 +11359,10 @@
       <c r="R117" s="10"/>
       <c r="S117" s="10"/>
     </row>
-    <row r="118" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A118" s="2">
+        <v>117</v>
+      </c>
       <c r="M118" s="10"/>
       <c r="N118" s="10"/>
       <c r="O118" s="10"/>
@@ -10133,7 +11371,10 @@
       <c r="R118" s="10"/>
       <c r="S118" s="10"/>
     </row>
-    <row r="119" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A119" s="2">
+        <v>118</v>
+      </c>
       <c r="M119" s="10"/>
       <c r="N119" s="10"/>
       <c r="O119" s="10"/>
@@ -10142,7 +11383,10 @@
       <c r="R119" s="10"/>
       <c r="S119" s="10"/>
     </row>
-    <row r="120" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A120" s="2">
+        <v>119</v>
+      </c>
       <c r="M120" s="10"/>
       <c r="N120" s="10"/>
       <c r="O120" s="10"/>
@@ -10151,7 +11395,10 @@
       <c r="R120" s="10"/>
       <c r="S120" s="10"/>
     </row>
-    <row r="121" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A121" s="2">
+        <v>120</v>
+      </c>
       <c r="M121" s="10"/>
       <c r="N121" s="10"/>
       <c r="O121" s="10"/>
@@ -10160,7 +11407,10 @@
       <c r="R121" s="10"/>
       <c r="S121" s="10"/>
     </row>
-    <row r="122" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A122" s="2">
+        <v>121</v>
+      </c>
       <c r="M122" s="10"/>
       <c r="N122" s="10"/>
       <c r="O122" s="10"/>
@@ -10169,7 +11419,10 @@
       <c r="R122" s="10"/>
       <c r="S122" s="10"/>
     </row>
-    <row r="123" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A123" s="2">
+        <v>122</v>
+      </c>
       <c r="M123" s="10"/>
       <c r="N123" s="10"/>
       <c r="O123" s="10"/>
@@ -10178,7 +11431,10 @@
       <c r="R123" s="10"/>
       <c r="S123" s="10"/>
     </row>
-    <row r="124" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A124" s="2">
+        <v>123</v>
+      </c>
       <c r="M124" s="10"/>
       <c r="N124" s="10"/>
       <c r="O124" s="10"/>
@@ -10187,7 +11443,10 @@
       <c r="R124" s="10"/>
       <c r="S124" s="10"/>
     </row>
-    <row r="125" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A125" s="2">
+        <v>124</v>
+      </c>
       <c r="M125" s="10"/>
       <c r="N125" s="10"/>
       <c r="O125" s="10"/>
@@ -10196,7 +11455,10 @@
       <c r="R125" s="10"/>
       <c r="S125" s="10"/>
     </row>
-    <row r="126" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A126" s="2">
+        <v>125</v>
+      </c>
       <c r="M126" s="10"/>
       <c r="N126" s="10"/>
       <c r="O126" s="10"/>
@@ -10205,7 +11467,10 @@
       <c r="R126" s="10"/>
       <c r="S126" s="10"/>
     </row>
-    <row r="127" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A127" s="2">
+        <v>126</v>
+      </c>
       <c r="M127" s="10"/>
       <c r="N127" s="10"/>
       <c r="O127" s="10"/>
@@ -10214,7 +11479,10 @@
       <c r="R127" s="10"/>
       <c r="S127" s="10"/>
     </row>
-    <row r="128" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A128" s="2">
+        <v>127</v>
+      </c>
       <c r="M128" s="10"/>
       <c r="N128" s="10"/>
       <c r="O128" s="10"/>
@@ -10223,7 +11491,10 @@
       <c r="R128" s="10"/>
       <c r="S128" s="10"/>
     </row>
-    <row r="129" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A129" s="2">
+        <v>128</v>
+      </c>
       <c r="M129" s="10"/>
       <c r="N129" s="10"/>
       <c r="O129" s="10"/>
@@ -10232,7 +11503,10 @@
       <c r="R129" s="10"/>
       <c r="S129" s="10"/>
     </row>
-    <row r="130" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A130" s="2">
+        <v>129</v>
+      </c>
       <c r="M130" s="10"/>
       <c r="N130" s="10"/>
       <c r="O130" s="10"/>
@@ -10241,7 +11515,10 @@
       <c r="R130" s="10"/>
       <c r="S130" s="10"/>
     </row>
-    <row r="131" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A131" s="2">
+        <v>130</v>
+      </c>
       <c r="M131" s="10"/>
       <c r="N131" s="10"/>
       <c r="O131" s="10"/>
@@ -10250,7 +11527,10 @@
       <c r="R131" s="10"/>
       <c r="S131" s="10"/>
     </row>
-    <row r="132" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A132" s="2">
+        <v>131</v>
+      </c>
       <c r="M132" s="10"/>
       <c r="N132" s="10"/>
       <c r="O132" s="10"/>
@@ -10259,7 +11539,10 @@
       <c r="R132" s="10"/>
       <c r="S132" s="10"/>
     </row>
-    <row r="133" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A133" s="2">
+        <v>132</v>
+      </c>
       <c r="M133" s="10"/>
       <c r="N133" s="10"/>
       <c r="O133" s="10"/>
@@ -10268,7 +11551,10 @@
       <c r="R133" s="10"/>
       <c r="S133" s="10"/>
     </row>
-    <row r="134" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A134" s="2">
+        <v>133</v>
+      </c>
       <c r="M134" s="10"/>
       <c r="N134" s="10"/>
       <c r="O134" s="10"/>
@@ -10277,7 +11563,10 @@
       <c r="R134" s="10"/>
       <c r="S134" s="10"/>
     </row>
-    <row r="135" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A135" s="2">
+        <v>134</v>
+      </c>
       <c r="M135" s="10"/>
       <c r="N135" s="10"/>
       <c r="O135" s="10"/>
@@ -10286,7 +11575,10 @@
       <c r="R135" s="10"/>
       <c r="S135" s="10"/>
     </row>
-    <row r="136" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A136" s="2">
+        <v>135</v>
+      </c>
       <c r="M136" s="10"/>
       <c r="N136" s="10"/>
       <c r="O136" s="10"/>
@@ -10295,7 +11587,10 @@
       <c r="R136" s="10"/>
       <c r="S136" s="10"/>
     </row>
-    <row r="137" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A137" s="2">
+        <v>136</v>
+      </c>
       <c r="M137" s="10"/>
       <c r="N137" s="10"/>
       <c r="O137" s="10"/>
@@ -10304,7 +11599,10 @@
       <c r="R137" s="10"/>
       <c r="S137" s="10"/>
     </row>
-    <row r="138" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A138" s="2">
+        <v>137</v>
+      </c>
       <c r="M138" s="10"/>
       <c r="N138" s="10"/>
       <c r="O138" s="10"/>
@@ -10313,7 +11611,10 @@
       <c r="R138" s="10"/>
       <c r="S138" s="10"/>
     </row>
-    <row r="139" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A139" s="2">
+        <v>138</v>
+      </c>
       <c r="M139" s="10"/>
       <c r="N139" s="10"/>
       <c r="O139" s="10"/>
@@ -10322,7 +11623,10 @@
       <c r="R139" s="10"/>
       <c r="S139" s="10"/>
     </row>
-    <row r="140" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A140" s="2">
+        <v>139</v>
+      </c>
       <c r="M140" s="10"/>
       <c r="N140" s="10"/>
       <c r="O140" s="10"/>
@@ -10331,7 +11635,10 @@
       <c r="R140" s="10"/>
       <c r="S140" s="10"/>
     </row>
-    <row r="141" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A141" s="2">
+        <v>140</v>
+      </c>
       <c r="M141" s="10"/>
       <c r="N141" s="10"/>
       <c r="O141" s="10"/>
@@ -10340,7 +11647,10 @@
       <c r="R141" s="10"/>
       <c r="S141" s="10"/>
     </row>
-    <row r="142" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A142" s="2">
+        <v>141</v>
+      </c>
       <c r="M142" s="10"/>
       <c r="N142" s="10"/>
       <c r="O142" s="10"/>
@@ -10349,7 +11659,10 @@
       <c r="R142" s="10"/>
       <c r="S142" s="10"/>
     </row>
-    <row r="143" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A143" s="2">
+        <v>142</v>
+      </c>
       <c r="M143" s="10"/>
       <c r="N143" s="10"/>
       <c r="O143" s="10"/>
@@ -10358,7 +11671,10 @@
       <c r="R143" s="10"/>
       <c r="S143" s="10"/>
     </row>
-    <row r="144" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A144" s="2">
+        <v>143</v>
+      </c>
       <c r="M144" s="10"/>
       <c r="N144" s="10"/>
       <c r="O144" s="10"/>
@@ -10367,7 +11683,10 @@
       <c r="R144" s="10"/>
       <c r="S144" s="10"/>
     </row>
-    <row r="145" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A145" s="2">
+        <v>144</v>
+      </c>
       <c r="M145" s="10"/>
       <c r="N145" s="10"/>
       <c r="O145" s="10"/>
@@ -10376,7 +11695,10 @@
       <c r="R145" s="10"/>
       <c r="S145" s="10"/>
     </row>
-    <row r="146" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A146" s="2">
+        <v>145</v>
+      </c>
       <c r="M146" s="10"/>
       <c r="N146" s="10"/>
       <c r="O146" s="10"/>
@@ -10385,7 +11707,10 @@
       <c r="R146" s="10"/>
       <c r="S146" s="10"/>
     </row>
-    <row r="147" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A147" s="2">
+        <v>146</v>
+      </c>
       <c r="M147" s="10"/>
       <c r="N147" s="10"/>
       <c r="O147" s="10"/>
@@ -10394,7 +11719,10 @@
       <c r="R147" s="10"/>
       <c r="S147" s="10"/>
     </row>
-    <row r="148" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A148" s="2">
+        <v>147</v>
+      </c>
       <c r="M148" s="10"/>
       <c r="N148" s="10"/>
       <c r="O148" s="10"/>
@@ -10403,7 +11731,10 @@
       <c r="R148" s="10"/>
       <c r="S148" s="10"/>
     </row>
-    <row r="149" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A149" s="2">
+        <v>148</v>
+      </c>
       <c r="M149" s="10"/>
       <c r="N149" s="10"/>
       <c r="O149" s="10"/>
@@ -10412,7 +11743,10 @@
       <c r="R149" s="10"/>
       <c r="S149" s="10"/>
     </row>
-    <row r="150" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A150" s="2">
+        <v>149</v>
+      </c>
       <c r="M150" s="10"/>
       <c r="N150" s="10"/>
       <c r="O150" s="10"/>
@@ -10421,7 +11755,10 @@
       <c r="R150" s="10"/>
       <c r="S150" s="10"/>
     </row>
-    <row r="151" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A151" s="2">
+        <v>150</v>
+      </c>
       <c r="M151" s="10"/>
       <c r="N151" s="10"/>
       <c r="O151" s="10"/>
@@ -10430,7 +11767,10 @@
       <c r="R151" s="10"/>
       <c r="S151" s="10"/>
     </row>
-    <row r="152" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A152" s="2">
+        <v>151</v>
+      </c>
       <c r="M152" s="10"/>
       <c r="N152" s="10"/>
       <c r="O152" s="10"/>
@@ -10439,7 +11779,10 @@
       <c r="R152" s="10"/>
       <c r="S152" s="10"/>
     </row>
-    <row r="153" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A153" s="2">
+        <v>152</v>
+      </c>
       <c r="M153" s="10"/>
       <c r="N153" s="10"/>
       <c r="O153" s="10"/>
@@ -10448,7 +11791,10 @@
       <c r="R153" s="10"/>
       <c r="S153" s="10"/>
     </row>
-    <row r="154" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A154" s="2">
+        <v>153</v>
+      </c>
       <c r="M154" s="10"/>
       <c r="N154" s="10"/>
       <c r="O154" s="10"/>
@@ -10457,7 +11803,10 @@
       <c r="R154" s="10"/>
       <c r="S154" s="10"/>
     </row>
-    <row r="155" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A155" s="2">
+        <v>154</v>
+      </c>
       <c r="M155" s="10"/>
       <c r="N155" s="10"/>
       <c r="O155" s="10"/>
@@ -10466,7 +11815,10 @@
       <c r="R155" s="10"/>
       <c r="S155" s="10"/>
     </row>
-    <row r="156" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A156" s="2">
+        <v>155</v>
+      </c>
       <c r="M156" s="10"/>
       <c r="N156" s="10"/>
       <c r="O156" s="10"/>
@@ -10475,7 +11827,10 @@
       <c r="R156" s="10"/>
       <c r="S156" s="10"/>
     </row>
-    <row r="157" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A157" s="2">
+        <v>156</v>
+      </c>
       <c r="M157" s="10"/>
       <c r="N157" s="10"/>
       <c r="O157" s="10"/>
@@ -10484,7 +11839,10 @@
       <c r="R157" s="10"/>
       <c r="S157" s="10"/>
     </row>
-    <row r="158" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A158" s="2">
+        <v>157</v>
+      </c>
       <c r="M158" s="10"/>
       <c r="N158" s="10"/>
       <c r="O158" s="10"/>
@@ -10493,7 +11851,10 @@
       <c r="R158" s="10"/>
       <c r="S158" s="10"/>
     </row>
-    <row r="159" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A159" s="2">
+        <v>158</v>
+      </c>
       <c r="M159" s="10"/>
       <c r="N159" s="10"/>
       <c r="O159" s="10"/>
@@ -10502,7 +11863,10 @@
       <c r="R159" s="10"/>
       <c r="S159" s="10"/>
     </row>
-    <row r="160" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A160" s="2">
+        <v>159</v>
+      </c>
       <c r="M160" s="10"/>
       <c r="N160" s="10"/>
       <c r="O160" s="10"/>
@@ -10511,7 +11875,10 @@
       <c r="R160" s="10"/>
       <c r="S160" s="10"/>
     </row>
-    <row r="161" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A161" s="2">
+        <v>160</v>
+      </c>
       <c r="M161" s="10"/>
       <c r="N161" s="10"/>
       <c r="O161" s="10"/>
@@ -10520,7 +11887,10 @@
       <c r="R161" s="10"/>
       <c r="S161" s="10"/>
     </row>
-    <row r="162" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A162" s="2">
+        <v>161</v>
+      </c>
       <c r="M162" s="10"/>
       <c r="N162" s="10"/>
       <c r="O162" s="10"/>
@@ -10529,7 +11899,10 @@
       <c r="R162" s="10"/>
       <c r="S162" s="10"/>
     </row>
-    <row r="163" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A163" s="2">
+        <v>162</v>
+      </c>
       <c r="M163" s="10"/>
       <c r="N163" s="10"/>
       <c r="O163" s="10"/>
@@ -10538,7 +11911,10 @@
       <c r="R163" s="10"/>
       <c r="S163" s="10"/>
     </row>
-    <row r="164" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A164" s="2">
+        <v>163</v>
+      </c>
       <c r="M164" s="10"/>
       <c r="N164" s="10"/>
       <c r="O164" s="10"/>
@@ -10547,7 +11923,10 @@
       <c r="R164" s="10"/>
       <c r="S164" s="10"/>
     </row>
-    <row r="165" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A165" s="2">
+        <v>164</v>
+      </c>
       <c r="M165" s="10"/>
       <c r="N165" s="10"/>
       <c r="O165" s="10"/>
@@ -10556,7 +11935,10 @@
       <c r="R165" s="10"/>
       <c r="S165" s="10"/>
     </row>
-    <row r="166" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A166" s="2">
+        <v>165</v>
+      </c>
       <c r="M166" s="10"/>
       <c r="N166" s="10"/>
       <c r="O166" s="10"/>
@@ -10565,7 +11947,10 @@
       <c r="R166" s="10"/>
       <c r="S166" s="10"/>
     </row>
-    <row r="167" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A167" s="2">
+        <v>166</v>
+      </c>
       <c r="M167" s="10"/>
       <c r="N167" s="10"/>
       <c r="O167" s="10"/>
@@ -10574,7 +11959,10 @@
       <c r="R167" s="10"/>
       <c r="S167" s="10"/>
     </row>
-    <row r="168" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A168" s="2">
+        <v>167</v>
+      </c>
       <c r="M168" s="10"/>
       <c r="N168" s="10"/>
       <c r="O168" s="10"/>
@@ -10583,7 +11971,10 @@
       <c r="R168" s="10"/>
       <c r="S168" s="10"/>
     </row>
-    <row r="169" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A169" s="2">
+        <v>168</v>
+      </c>
       <c r="M169" s="10"/>
       <c r="N169" s="10"/>
       <c r="O169" s="10"/>
@@ -10592,7 +11983,10 @@
       <c r="R169" s="10"/>
       <c r="S169" s="10"/>
     </row>
-    <row r="170" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A170" s="2">
+        <v>169</v>
+      </c>
       <c r="M170" s="10"/>
       <c r="N170" s="10"/>
       <c r="O170" s="10"/>
@@ -10601,7 +11995,10 @@
       <c r="R170" s="10"/>
       <c r="S170" s="10"/>
     </row>
-    <row r="171" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A171" s="2">
+        <v>170</v>
+      </c>
       <c r="M171" s="10"/>
       <c r="N171" s="10"/>
       <c r="O171" s="10"/>
@@ -10610,7 +12007,10 @@
       <c r="R171" s="10"/>
       <c r="S171" s="10"/>
     </row>
-    <row r="172" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A172" s="2">
+        <v>171</v>
+      </c>
       <c r="M172" s="10"/>
       <c r="N172" s="10"/>
       <c r="O172" s="10"/>
@@ -10619,7 +12019,10 @@
       <c r="R172" s="10"/>
       <c r="S172" s="10"/>
     </row>
-    <row r="173" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A173" s="2">
+        <v>172</v>
+      </c>
       <c r="M173" s="10"/>
       <c r="N173" s="10"/>
       <c r="O173" s="10"/>
@@ -10628,7 +12031,10 @@
       <c r="R173" s="10"/>
       <c r="S173" s="10"/>
     </row>
-    <row r="174" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A174" s="2">
+        <v>173</v>
+      </c>
       <c r="M174" s="10"/>
       <c r="N174" s="10"/>
       <c r="O174" s="10"/>
@@ -10637,7 +12043,10 @@
       <c r="R174" s="10"/>
       <c r="S174" s="10"/>
     </row>
-    <row r="175" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A175" s="2">
+        <v>174</v>
+      </c>
       <c r="M175" s="10"/>
       <c r="N175" s="10"/>
       <c r="O175" s="10"/>
@@ -10646,7 +12055,7 @@
       <c r="R175" s="10"/>
       <c r="S175" s="10"/>
     </row>
-    <row r="176" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:19" x14ac:dyDescent="0.3">
       <c r="M176" s="10"/>
       <c r="N176" s="10"/>
       <c r="O176" s="10"/>
@@ -10684,23 +12093,32 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1:T1048576" xr:uid="{74667904-206E-4978-AC28-465E7C34F0E9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1:T1048576">
       <formula1>"Initial,Potential,Customer,Support,Upsells,Reject,Not-Contacted,Ex-Customer"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576" xr:uid="{32E8EDA7-6530-4ACC-A309-51E6999C5003}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576">
       <formula1>"Rahul Dutta,Sayan Basak,Anirban Chakraborty,Debashish Nath"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576" xr:uid="{644B1179-B5B9-4AC2-995C-6C1EE82AD9D6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576">
       <formula1>"Technical,Non-Technical"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="C36" r:id="rId1"/>
+    <hyperlink ref="C37" r:id="rId2"/>
+    <hyperlink ref="D41" r:id="rId3" display="https://www.google.com/search?sca_esv=597127733&amp;rlz=1C1CHBF_enAU1047AU1047&amp;tbs=lf:1,lf_ui:2&amp;tbm=lcl&amp;sxsrf=ACQVn0-yjBygfThguW8-plBveMrMzDiPGw:1704870884151&amp;q=engineering+colleges+in+south+calcutta&amp;rflfq=1&amp;num=10&amp;sa=X&amp;ved=2ahUKEwjQ47_7otKDAxUve2wGHY_pCzEQjGp6BAgXEAE&amp;biw=1536&amp;bih=730&amp;dpr=1.25"/>
+    <hyperlink ref="C43" r:id="rId4"/>
+    <hyperlink ref="D47" r:id="rId5" display="https://www.google.com/search?q=engineering+colleges+kolkata&amp;sca_esv=597127733&amp;rlz=1C1CHBF_enAU1047AU1047&amp;biw=1536&amp;bih=730&amp;tbm=lcl&amp;sxsrf=ACQVn09cs4SfDApVNizAZQHyNbKrHkG1kw%3A1704870889163&amp;ei=6UOeZYunCcqWseMP2bOt0A4&amp;ved=0ahUKEwjLv_H9otKDAxVKS2wGHdlZC-oQ4dUDCAk&amp;uact=5&amp;oq=engineering+colleges+kolkata&amp;gs_lp=Eg1nd3Mtd2l6LWxvY2FsIhxlbmdpbmVlcmluZyBjb2xsZWdlcyBrb2xrYXRhMgUQABiABDIGEAAYFhgeMgYQABgWGB4yCBAAGBYYHhgPMgYQABgWGB4yBhAAGBYYHjIGEAAYFhgeMgYQABgWGB4yBhAAGBYYHjIGEAAYFhgeSPErUNUEWOgmcAF4AJABAZgBqwGgAb0XqgEEMC4yM7gBA8gBAPgBAcICCxAAGIAEGIoFGIYDwgIEECMYJ8ICCxAAGIAEGIoFGJECwgIKEAAYgAQYFBiHAsICDhAAGIAEGIoFGJECGMkDiAYB&amp;sclient=gws-wiz-local"/>
+    <hyperlink ref="C49" r:id="rId6"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <legacyDrawing r:id="rId8"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Offline/BusinessManagement/Marketing/AI marketing/AI Workshop Schools-Colleges.xlsx
+++ b/Offline/BusinessManagement/Marketing/AI marketing/AI Workshop Schools-Colleges.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Marketing\AI marketing\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F35F05D-1F79-4CDF-B824-891651159FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="506" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="506" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="8" r:id="rId1"/>
@@ -20,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'School-Details'!$A$1:$U$122</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,13 +40,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>del</author>
     <author>User</author>
   </authors>
   <commentList>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -69,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L28" authorId="1" shapeId="0">
+    <comment ref="L28" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -88,12 +89,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>del</author>
   </authors>
   <commentList>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -122,7 +123,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="437">
   <si>
     <t>CBSE</t>
   </si>
@@ -1450,7 +1451,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1775,7 +1776,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1872,26 +1873,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1912,6 +1893,24 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2193,11 +2192,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:R30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2221,33 +2220,27 @@
     <row r="2" spans="2:18" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.7">
       <c r="B2" s="27"/>
       <c r="C2" s="28"/>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="54" t="s">
         <v>293</v>
       </c>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="51"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="56"/>
       <c r="I2" s="29"/>
       <c r="K2" s="27"/>
       <c r="L2" s="28"/>
-      <c r="M2" s="49" t="s">
+      <c r="M2" s="54" t="s">
         <v>374</v>
       </c>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="51"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="56"/>
       <c r="R2" s="29"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B3" s="30"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
       <c r="I3" s="31"/>
       <c r="K3" s="30"/>
       <c r="R3" s="31"/>
@@ -2261,14 +2254,12 @@
         <f>MAX('School-Details'!A:A)</f>
         <v>235</v>
       </c>
-      <c r="E4" s="46"/>
       <c r="F4" s="21" t="s">
         <v>265</v>
       </c>
       <c r="G4" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="H4" s="46"/>
       <c r="I4" s="31"/>
       <c r="K4" s="30"/>
       <c r="L4" s="16" t="s">
@@ -2295,7 +2286,6 @@
         <f>ROUND(SUM('School-Details'!K:K)/D4,2)</f>
         <v>0</v>
       </c>
-      <c r="E5" s="46"/>
       <c r="F5" s="14" t="s">
         <v>210</v>
       </c>
@@ -2303,7 +2293,6 @@
         <f>COUNTIF('School-Details'!M:M,F5)</f>
         <v>0</v>
       </c>
-      <c r="H5" s="46"/>
       <c r="I5" s="31"/>
       <c r="K5" s="30"/>
       <c r="L5" s="16" t="s">
@@ -2324,9 +2313,6 @@
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B6" s="30"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
       <c r="F6" s="14" t="s">
         <v>267</v>
       </c>
@@ -2334,7 +2320,6 @@
         <f>COUNTIF('School-Details'!M:M,F6)</f>
         <v>1</v>
       </c>
-      <c r="H6" s="46"/>
       <c r="I6" s="31"/>
       <c r="K6" s="30"/>
       <c r="L6" s="16" t="s">
@@ -2342,7 +2327,7 @@
       </c>
       <c r="M6" s="16">
         <f>MAX('College-Details'!A:A)</f>
-        <v>174</v>
+        <v>53</v>
       </c>
       <c r="O6" s="14" t="s">
         <v>267</v>
@@ -2361,7 +2346,6 @@
       <c r="D7" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="E7" s="46"/>
       <c r="F7" s="14" t="s">
         <v>268</v>
       </c>
@@ -2369,7 +2353,6 @@
         <f>COUNTIF('School-Details'!M:M,F7)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="46"/>
       <c r="I7" s="31"/>
       <c r="K7" s="30"/>
       <c r="L7" s="16" t="s">
@@ -2397,7 +2380,6 @@
         <f>COUNTIF('School-Details'!U:U,C8)</f>
         <v>13</v>
       </c>
-      <c r="E8" s="46"/>
       <c r="F8" s="14" t="s">
         <v>283</v>
       </c>
@@ -2405,7 +2387,6 @@
         <f>COUNTIF('School-Details'!M:M,F8)</f>
         <v>0</v>
       </c>
-      <c r="H8" s="46"/>
       <c r="I8" s="31"/>
       <c r="K8" s="30"/>
       <c r="O8" s="14" t="s">
@@ -2426,10 +2407,6 @@
         <f>COUNTIF('School-Details'!U:U,C9)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
       <c r="I9" s="31"/>
       <c r="K9" s="30"/>
       <c r="L9" s="21" t="s">
@@ -2456,12 +2433,11 @@
         <f>COUNTIF('School-Details'!U:U,C10)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="46"/>
       <c r="F10" s="14"/>
-      <c r="G10" s="48" t="s">
+      <c r="G10" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="H10" s="48"/>
+      <c r="H10" s="53"/>
       <c r="I10" s="31"/>
       <c r="K10" s="30"/>
       <c r="L10" s="14" t="s">
@@ -2482,7 +2458,6 @@
         <f>COUNTIF('School-Details'!U:U,C11)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="46"/>
       <c r="F11" s="21" t="s">
         <v>269</v>
       </c>
@@ -2502,10 +2477,10 @@
         <v>0</v>
       </c>
       <c r="O11" s="14"/>
-      <c r="P11" s="52" t="s">
+      <c r="P11" s="57" t="s">
         <v>210</v>
       </c>
-      <c r="Q11" s="53"/>
+      <c r="Q11" s="58"/>
       <c r="R11" s="31"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.3">
@@ -2517,7 +2492,6 @@
         <f>COUNTIF('School-Details'!U:U,C12)</f>
         <v>0</v>
       </c>
-      <c r="E12" s="46"/>
       <c r="F12" s="22">
         <v>45292</v>
       </c>
@@ -2556,7 +2530,6 @@
         <f>COUNTIF('School-Details'!U:U,C13)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="46"/>
       <c r="F13" s="22">
         <v>45323</v>
       </c>
@@ -2595,7 +2568,6 @@
         <f>COUNTIF('School-Details'!U:U,C14)</f>
         <v>108</v>
       </c>
-      <c r="E14" s="46"/>
       <c r="F14" s="22">
         <v>45352</v>
       </c>
@@ -2634,7 +2606,6 @@
         <f>COUNTIF('School-Details'!U:U,C15)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="46"/>
       <c r="F15" s="22">
         <v>45383</v>
       </c>
@@ -2666,14 +2637,13 @@
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B16" s="30"/>
-      <c r="C16" s="47" t="s">
+      <c r="C16" s="16" t="s">
         <v>244</v>
       </c>
       <c r="D16" s="16">
         <f>SUM(D8:D15)</f>
         <v>121</v>
       </c>
-      <c r="E16" s="46"/>
       <c r="F16" s="22">
         <v>45413</v>
       </c>
@@ -2690,7 +2660,7 @@
       </c>
       <c r="M16" s="14">
         <f>COUNTIF('College-Details'!T:T,L16)</f>
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="O16" s="22">
         <v>45383</v>
@@ -2705,9 +2675,6 @@
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B17" s="30"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
       <c r="F17" s="22">
         <v>45444</v>
       </c>
@@ -2745,7 +2712,6 @@
       <c r="D18" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="E18" s="46"/>
       <c r="F18" s="22">
         <v>45474</v>
       </c>
@@ -2762,7 +2728,7 @@
       </c>
       <c r="M18" s="16">
         <f>SUM(M10:M17)</f>
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="O18" s="22">
         <v>45444</v>
@@ -2786,7 +2752,6 @@
         <f>COUNTIF('School-Details'!T:T,C19)</f>
         <v>10</v>
       </c>
-      <c r="E19" s="46"/>
       <c r="F19" s="22">
         <v>45505</v>
       </c>
@@ -2818,7 +2783,6 @@
         <f>COUNTIF('School-Details'!T:T,C20)</f>
         <v>51</v>
       </c>
-      <c r="E20" s="46"/>
       <c r="F20" s="22">
         <v>45536</v>
       </c>
@@ -2856,7 +2820,6 @@
         <f>SUM(D19:D20)</f>
         <v>61</v>
       </c>
-      <c r="E21" s="46"/>
       <c r="F21" s="22">
         <v>45566</v>
       </c>
@@ -2899,7 +2862,6 @@
         <f>COUNTIF('School-Details'!T:T,C22)</f>
         <v>50</v>
       </c>
-      <c r="E22" s="46"/>
       <c r="F22" s="22">
         <v>45597</v>
       </c>
@@ -2938,7 +2900,6 @@
         <f>SUM(D22)</f>
         <v>50</v>
       </c>
-      <c r="E23" s="46"/>
       <c r="F23" s="22">
         <v>45627</v>
       </c>
@@ -2979,7 +2940,6 @@
         <f>COUNTIF('School-Details'!T:T,C24)</f>
         <v>10</v>
       </c>
-      <c r="E24" s="46"/>
       <c r="F24" s="16" t="s">
         <v>244</v>
       </c>
@@ -3022,10 +2982,6 @@
         <f>COUNTIF('School-Details'!T:T,C25)</f>
         <v>0</v>
       </c>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46"/>
       <c r="I25" s="31"/>
       <c r="K25" s="33"/>
       <c r="L25" s="14" t="s">
@@ -3057,10 +3013,6 @@
         <f>SUM(D24:D25)</f>
         <v>10</v>
       </c>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
       <c r="I26" s="31"/>
       <c r="K26" s="33" t="s">
         <v>273</v>
@@ -3083,10 +3035,6 @@
         <f>D21+D23+D26</f>
         <v>121</v>
       </c>
-      <c r="E27" s="46"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="46"/>
       <c r="I27" s="31"/>
       <c r="K27" s="33"/>
       <c r="L27" s="14">
@@ -3151,7 +3099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8776,68 +8724,68 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U122"/>
+  <autoFilter ref="A1:U122" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U1:U1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U1:U1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Initial,Potential,Customer,Support,Upsells,Reject,Not-Contacted,Ex-Customer"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Rahul Dutta,Sayan Basak,Anirban Chakraborty,Debashish Nath"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D31" r:id="rId1"/>
-    <hyperlink ref="D32" r:id="rId2"/>
-    <hyperlink ref="F7" r:id="rId3" display="https://www.google.com/search?q=panchasayar+siksha+niketan&amp;sca_esv=593615924&amp;rlz=1C1CHBF_enAU1047AU1047&amp;sxsrf=AM9HkKnlKkWvrpmDIvMzNnJR8ZC_8s6gNQ%3A1703524925488&amp;ei=PbqJZaauHY2KnesPo--TuAo&amp;gs_ssp=eJzj4tFP1zc0MqnMzTa1TDNgtFI1qDBONDAyNzRPNU1LM0xOTkuyAgqZpJmZmJgnGZgZGSWnpSV5SRUk5iVnJBYnViYWKRRnZhdnJCrkZWanliTmAQC7Qxln&amp;oq=panchasayar+s&amp;gs_lp=Egxnd3Mtd2l6LXNlcnAiDXBhbmNoYXNheWFyIHMqAggAMhQQLhivARjHARimAxioAxiABBiOBTIFEAAYgAQyBRAAGIAEMgsQLhiABBioAxidAzIFEAAYgAQyBRAAGIAEMgUQABiABDIFEAAYgAQyCBAAGIAEGMsBMggQABiABBjLATIjEC4YrwEYxwEYpgMYqAMYgAQYjgUYlwUY3AQY3gQY4ATYAQNIuzhQmhhYmCVwAXgBkAEAmAGvAqAB1gSqAQUyLTEuMbgBAcgBAPgBAcICChAAGEcY1gQYsAPCAg0QABiABBiKBRhDGLADwgIcEC4YgAQYigUYQxjHARivARjIAxiwAxiOBdgBAcICGRAuGIAEGIoFGEMYxwEYrwEYyAMYsAPYAQHCAg4QABjkAhjWBBiwA9gBAsICEBAuGEMYnQMYqAMYgAQYigXCAhAQLhiABBiKBRhDGKgDGJ0DwgIWEC4YQxivARjHARimAxioAxiABBiKBcICChAAGIAEGBQYhwLCAh8QLhhDGJ0DGKgDGIAEGIoFGJcFGNwEGN4EGOAE2AED4gMEGAAgQYgGAZAGDroGBggBEAEYCLoGBggCEAEYCboGBggDEAEYFA&amp;sclient=gws-wiz-serp"/>
-    <hyperlink ref="F8" r:id="rId4" display="https://www.google.com/search?q=miranda+high+school&amp;sca_esv=593615924&amp;rlz=1C1CHBF_enAU1047AU1047&amp;sxsrf=AM9HkKmR8dFtasrVNGZkMFIxGz5Wq06ZjA%3A1703525037148&amp;ei=rbqJZczSCOCWjuMPsMy_8AM&amp;oq=miranda+high+&amp;gs_lp=Egxnd3Mtd2l6LXNlcnAiDW1pcmFuZGEgaGlnaCAqAggAMg0QABiABBgUGIcCGMkDMgUQABiABDILEAAYgAQYigUYkgMyBRAAGIAEMgUQABiABDIKEAAYgAQYFBiHAjIFEAAYgAQyBRAAGIAEMgUQABiABDIFEAAYgARI7RNQ6AZY6AZwAXgAkAEAmAH0BqABuAyqAQM2LTK4AQHIAQD4AQHCAgoQABhHGNYEGLAD4gMEGAAgQYgGAZAGCA&amp;sclient=gws-wiz-serp&amp;lqi=ChNtaXJhbmRhIGhpZ2ggc2Nob29sSN-07OW4roCACForEAAQARACGAAYARgCIhNtaXJhbmRhIGhpZ2ggc2Nob29sKggIAhAAEAEQApIBBnNjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOUGNqUnVSbVZuRUFFqgE7EAEyHhABIhpTQ3iPFiqMHHb-9vGb0lli1Rpc5Z8xE87GgDIXEAIiE21pcmFuZGEgaGlnaCBzY2hvb2w"/>
-    <hyperlink ref="D22" r:id="rId5"/>
-    <hyperlink ref="D25" r:id="rId6" display="mailto:official@younghorizonsschool.com"/>
-    <hyperlink ref="D26" r:id="rId7" display="mailto:iwanttojoin@siskol.edu.in"/>
-    <hyperlink ref="D27" r:id="rId8" display="mailto:lcgvm2012@gmail.com"/>
-    <hyperlink ref="D30" r:id="rId9"/>
-    <hyperlink ref="D33" r:id="rId10"/>
-    <hyperlink ref="D35" r:id="rId11"/>
-    <hyperlink ref="D37" r:id="rId12"/>
-    <hyperlink ref="D41" r:id="rId13"/>
-    <hyperlink ref="D42" r:id="rId14"/>
-    <hyperlink ref="D43" r:id="rId15"/>
-    <hyperlink ref="D47" r:id="rId16"/>
-    <hyperlink ref="D48" r:id="rId17"/>
-    <hyperlink ref="D49" r:id="rId18"/>
-    <hyperlink ref="D51" r:id="rId19"/>
-    <hyperlink ref="D52" r:id="rId20"/>
-    <hyperlink ref="D53" r:id="rId21"/>
-    <hyperlink ref="D54" r:id="rId22"/>
-    <hyperlink ref="D55" r:id="rId23"/>
-    <hyperlink ref="D56" r:id="rId24"/>
-    <hyperlink ref="D57" r:id="rId25"/>
-    <hyperlink ref="D58" r:id="rId26"/>
-    <hyperlink ref="D59" r:id="rId27"/>
-    <hyperlink ref="D60" r:id="rId28"/>
-    <hyperlink ref="D61" r:id="rId29"/>
-    <hyperlink ref="D62" r:id="rId30"/>
-    <hyperlink ref="D63" r:id="rId31"/>
-    <hyperlink ref="D64" r:id="rId32"/>
-    <hyperlink ref="D65" r:id="rId33"/>
-    <hyperlink ref="D66" r:id="rId34"/>
-    <hyperlink ref="D67" r:id="rId35"/>
-    <hyperlink ref="D68" r:id="rId36"/>
-    <hyperlink ref="D69" r:id="rId37"/>
-    <hyperlink ref="D70" r:id="rId38"/>
-    <hyperlink ref="D71" r:id="rId39"/>
-    <hyperlink ref="D72" r:id="rId40"/>
-    <hyperlink ref="D73" r:id="rId41"/>
-    <hyperlink ref="D75" r:id="rId42"/>
-    <hyperlink ref="D78" r:id="rId43"/>
-    <hyperlink ref="D79" r:id="rId44"/>
-    <hyperlink ref="D80" r:id="rId45"/>
-    <hyperlink ref="D81" r:id="rId46"/>
-    <hyperlink ref="D85" r:id="rId47"/>
-    <hyperlink ref="D88" r:id="rId48"/>
-    <hyperlink ref="D89" r:id="rId49"/>
-    <hyperlink ref="D91" r:id="rId50"/>
-    <hyperlink ref="D2" r:id="rId51"/>
-    <hyperlink ref="D28" r:id="rId52"/>
+    <hyperlink ref="D31" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="D32" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="F7" r:id="rId3" display="https://www.google.com/search?q=panchasayar+siksha+niketan&amp;sca_esv=593615924&amp;rlz=1C1CHBF_enAU1047AU1047&amp;sxsrf=AM9HkKnlKkWvrpmDIvMzNnJR8ZC_8s6gNQ%3A1703524925488&amp;ei=PbqJZaauHY2KnesPo--TuAo&amp;gs_ssp=eJzj4tFP1zc0MqnMzTa1TDNgtFI1qDBONDAyNzRPNU1LM0xOTkuyAgqZpJmZmJgnGZgZGSWnpSV5SRUk5iVnJBYnViYWKRRnZhdnJCrkZWanliTmAQC7Qxln&amp;oq=panchasayar+s&amp;gs_lp=Egxnd3Mtd2l6LXNlcnAiDXBhbmNoYXNheWFyIHMqAggAMhQQLhivARjHARimAxioAxiABBiOBTIFEAAYgAQyBRAAGIAEMgsQLhiABBioAxidAzIFEAAYgAQyBRAAGIAEMgUQABiABDIFEAAYgAQyCBAAGIAEGMsBMggQABiABBjLATIjEC4YrwEYxwEYpgMYqAMYgAQYjgUYlwUY3AQY3gQY4ATYAQNIuzhQmhhYmCVwAXgBkAEAmAGvAqAB1gSqAQUyLTEuMbgBAcgBAPgBAcICChAAGEcY1gQYsAPCAg0QABiABBiKBRhDGLADwgIcEC4YgAQYigUYQxjHARivARjIAxiwAxiOBdgBAcICGRAuGIAEGIoFGEMYxwEYrwEYyAMYsAPYAQHCAg4QABjkAhjWBBiwA9gBAsICEBAuGEMYnQMYqAMYgAQYigXCAhAQLhiABBiKBRhDGKgDGJ0DwgIWEC4YQxivARjHARimAxioAxiABBiKBcICChAAGIAEGBQYhwLCAh8QLhhDGJ0DGKgDGIAEGIoFGJcFGNwEGN4EGOAE2AED4gMEGAAgQYgGAZAGDroGBggBEAEYCLoGBggCEAEYCboGBggDEAEYFA&amp;sclient=gws-wiz-serp" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="F8" r:id="rId4" display="https://www.google.com/search?q=miranda+high+school&amp;sca_esv=593615924&amp;rlz=1C1CHBF_enAU1047AU1047&amp;sxsrf=AM9HkKmR8dFtasrVNGZkMFIxGz5Wq06ZjA%3A1703525037148&amp;ei=rbqJZczSCOCWjuMPsMy_8AM&amp;oq=miranda+high+&amp;gs_lp=Egxnd3Mtd2l6LXNlcnAiDW1pcmFuZGEgaGlnaCAqAggAMg0QABiABBgUGIcCGMkDMgUQABiABDILEAAYgAQYigUYkgMyBRAAGIAEMgUQABiABDIKEAAYgAQYFBiHAjIFEAAYgAQyBRAAGIAEMgUQABiABDIFEAAYgARI7RNQ6AZY6AZwAXgAkAEAmAH0BqABuAyqAQM2LTK4AQHIAQD4AQHCAgoQABhHGNYEGLAD4gMEGAAgQYgGAZAGCA&amp;sclient=gws-wiz-serp&amp;lqi=ChNtaXJhbmRhIGhpZ2ggc2Nob29sSN-07OW4roCACForEAAQARACGAAYARgCIhNtaXJhbmRhIGhpZ2ggc2Nob29sKggIAhAAEAEQApIBBnNjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOUGNqUnVSbVZuRUFFqgE7EAEyHhABIhpTQ3iPFiqMHHb-9vGb0lli1Rpc5Z8xE87GgDIXEAIiE21pcmFuZGEgaGlnaCBzY2hvb2w" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="D22" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="D25" r:id="rId6" display="mailto:official@younghorizonsschool.com" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="D26" r:id="rId7" display="mailto:iwanttojoin@siskol.edu.in" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="D27" r:id="rId8" display="mailto:lcgvm2012@gmail.com" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="D30" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="D33" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="D35" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="D37" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="D41" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="D42" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="D43" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="D47" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="D48" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="D49" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="D51" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="D52" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="D53" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="D54" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="D55" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="D56" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="D57" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="D58" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="D59" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="D60" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="D61" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="D62" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="D63" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="D64" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="D65" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="D66" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="D67" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="D68" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="D69" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="D70" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
+    <hyperlink ref="D71" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
+    <hyperlink ref="D72" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
+    <hyperlink ref="D73" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
+    <hyperlink ref="D75" r:id="rId42" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
+    <hyperlink ref="D78" r:id="rId43" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
+    <hyperlink ref="D79" r:id="rId44" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
+    <hyperlink ref="D80" r:id="rId45" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
+    <hyperlink ref="D81" r:id="rId46" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
+    <hyperlink ref="D85" r:id="rId47" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
+    <hyperlink ref="D88" r:id="rId48" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
+    <hyperlink ref="D89" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
+    <hyperlink ref="D91" r:id="rId50" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
+    <hyperlink ref="D2" r:id="rId51" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
+    <hyperlink ref="D28" r:id="rId52" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId53"/>
@@ -8846,11 +8794,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="R56" sqref="R56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9289,7 +9237,7 @@
       <c r="B11" s="38" t="s">
         <v>320</v>
       </c>
-      <c r="C11" s="58"/>
+      <c r="C11" s="50"/>
       <c r="D11" s="39" t="s">
         <v>321</v>
       </c>
@@ -9614,7 +9562,7 @@
       <c r="B20" s="38" t="s">
         <v>335</v>
       </c>
-      <c r="C20" s="59"/>
+      <c r="C20" s="51"/>
       <c r="D20" s="43" t="s">
         <v>336</v>
       </c>
@@ -9651,7 +9599,7 @@
       <c r="B21" s="44" t="s">
         <v>337</v>
       </c>
-      <c r="C21" s="54"/>
+      <c r="C21" s="46"/>
       <c r="D21" s="39" t="s">
         <v>338</v>
       </c>
@@ -9724,7 +9672,7 @@
       <c r="B23" s="38" t="s">
         <v>341</v>
       </c>
-      <c r="C23" s="60"/>
+      <c r="C23" s="52"/>
       <c r="D23" s="39" t="s">
         <v>342</v>
       </c>
@@ -9761,7 +9709,7 @@
       <c r="B24" s="38" t="s">
         <v>343</v>
       </c>
-      <c r="C24" s="57"/>
+      <c r="C24" s="49"/>
       <c r="D24" s="39" t="s">
         <v>344</v>
       </c>
@@ -9798,7 +9746,7 @@
       <c r="B25" s="38" t="s">
         <v>345</v>
       </c>
-      <c r="C25" s="57"/>
+      <c r="C25" s="49"/>
       <c r="D25" s="39" t="s">
         <v>346</v>
       </c>
@@ -9835,7 +9783,7 @@
       <c r="B26" s="38" t="s">
         <v>347</v>
       </c>
-      <c r="C26" s="57"/>
+      <c r="C26" s="49"/>
       <c r="D26" s="39" t="s">
         <v>348</v>
       </c>
@@ -9944,7 +9892,7 @@
       <c r="B29" s="38" t="s">
         <v>353</v>
       </c>
-      <c r="C29" s="54"/>
+      <c r="C29" s="46"/>
       <c r="D29" s="39" t="s">
         <v>354</v>
       </c>
@@ -9981,7 +9929,7 @@
       <c r="B30" s="38" t="s">
         <v>355</v>
       </c>
-      <c r="C30" s="54"/>
+      <c r="C30" s="46"/>
       <c r="D30" s="39" t="s">
         <v>356</v>
       </c>
@@ -10018,7 +9966,7 @@
       <c r="B31" s="38" t="s">
         <v>357</v>
       </c>
-      <c r="C31" s="54"/>
+      <c r="C31" s="46"/>
       <c r="D31" s="39" t="s">
         <v>358</v>
       </c>
@@ -10199,7 +10147,7 @@
       <c r="B36" s="38" t="s">
         <v>376</v>
       </c>
-      <c r="C36" s="54" t="s">
+      <c r="C36" s="46" t="s">
         <v>377</v>
       </c>
       <c r="D36" s="39" t="s">
@@ -10208,13 +10156,31 @@
       <c r="E36" s="40" t="s">
         <v>379</v>
       </c>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="10"/>
-      <c r="P36" s="10"/>
-      <c r="Q36" s="10"/>
-      <c r="R36" s="10"/>
-      <c r="S36" s="10"/>
+      <c r="M36" s="10">
+        <v>0</v>
+      </c>
+      <c r="N36" s="10">
+        <v>0</v>
+      </c>
+      <c r="O36" s="10">
+        <v>0</v>
+      </c>
+      <c r="P36" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="10">
+        <v>0</v>
+      </c>
+      <c r="R36" s="10">
+        <v>0</v>
+      </c>
+      <c r="S36" s="10">
+        <f t="shared" ref="S36:S54" si="1">ROUND(R36/5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T36" s="10" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="37" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
@@ -10223,7 +10189,7 @@
       <c r="B37" s="38" t="s">
         <v>382</v>
       </c>
-      <c r="C37" s="54" t="s">
+      <c r="C37" s="46" t="s">
         <v>381</v>
       </c>
       <c r="D37" s="39" t="s">
@@ -10232,13 +10198,31 @@
       <c r="E37" s="40" t="s">
         <v>383</v>
       </c>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
-      <c r="O37" s="10"/>
-      <c r="P37" s="10"/>
-      <c r="Q37" s="10"/>
-      <c r="R37" s="10"/>
-      <c r="S37" s="10"/>
+      <c r="M37" s="10">
+        <v>0</v>
+      </c>
+      <c r="N37" s="10">
+        <v>0</v>
+      </c>
+      <c r="O37" s="10">
+        <v>0</v>
+      </c>
+      <c r="P37" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="10">
+        <v>0</v>
+      </c>
+      <c r="R37" s="10">
+        <v>0</v>
+      </c>
+      <c r="S37" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T37" s="10" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="38" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
@@ -10253,13 +10237,31 @@
       <c r="E38" s="40" t="s">
         <v>387</v>
       </c>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="10"/>
-      <c r="Q38" s="10"/>
-      <c r="R38" s="10"/>
-      <c r="S38" s="10"/>
+      <c r="M38" s="10">
+        <v>0</v>
+      </c>
+      <c r="N38" s="10">
+        <v>0</v>
+      </c>
+      <c r="O38" s="10">
+        <v>0</v>
+      </c>
+      <c r="P38" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="10">
+        <v>0</v>
+      </c>
+      <c r="R38" s="10">
+        <v>0</v>
+      </c>
+      <c r="S38" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T38" s="10" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="39" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
@@ -10274,13 +10276,31 @@
       <c r="E39" s="40" t="s">
         <v>389</v>
       </c>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="10"/>
-      <c r="R39" s="10"/>
-      <c r="S39" s="10"/>
+      <c r="M39" s="10">
+        <v>0</v>
+      </c>
+      <c r="N39" s="10">
+        <v>0</v>
+      </c>
+      <c r="O39" s="10">
+        <v>0</v>
+      </c>
+      <c r="P39" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="10">
+        <v>0</v>
+      </c>
+      <c r="R39" s="10">
+        <v>0</v>
+      </c>
+      <c r="S39" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T39" s="10" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="40" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
@@ -10295,13 +10315,31 @@
       <c r="E40" s="40" t="s">
         <v>391</v>
       </c>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="10"/>
-      <c r="Q40" s="10"/>
-      <c r="R40" s="10"/>
-      <c r="S40" s="10"/>
+      <c r="M40" s="10">
+        <v>0</v>
+      </c>
+      <c r="N40" s="10">
+        <v>0</v>
+      </c>
+      <c r="O40" s="10">
+        <v>0</v>
+      </c>
+      <c r="P40" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="10">
+        <v>0</v>
+      </c>
+      <c r="R40" s="10">
+        <v>0</v>
+      </c>
+      <c r="S40" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T40" s="10" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
@@ -10310,19 +10348,37 @@
       <c r="B41" s="38" t="s">
         <v>393</v>
       </c>
-      <c r="D41" s="55" t="s">
+      <c r="D41" s="47" t="s">
         <v>394</v>
       </c>
       <c r="E41" s="40" t="s">
         <v>395</v>
       </c>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
-      <c r="P41" s="10"/>
-      <c r="Q41" s="10"/>
-      <c r="R41" s="10"/>
-      <c r="S41" s="10"/>
+      <c r="M41" s="10">
+        <v>0</v>
+      </c>
+      <c r="N41" s="10">
+        <v>0</v>
+      </c>
+      <c r="O41" s="10">
+        <v>0</v>
+      </c>
+      <c r="P41" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="10">
+        <v>0</v>
+      </c>
+      <c r="R41" s="10">
+        <v>0</v>
+      </c>
+      <c r="S41" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T41" s="10" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="42" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
@@ -10337,13 +10393,31 @@
       <c r="E42" s="40" t="s">
         <v>398</v>
       </c>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
-      <c r="O42" s="10"/>
-      <c r="P42" s="10"/>
-      <c r="Q42" s="10"/>
-      <c r="R42" s="10"/>
-      <c r="S42" s="10"/>
+      <c r="M42" s="10">
+        <v>0</v>
+      </c>
+      <c r="N42" s="10">
+        <v>0</v>
+      </c>
+      <c r="O42" s="10">
+        <v>0</v>
+      </c>
+      <c r="P42" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="10">
+        <v>0</v>
+      </c>
+      <c r="R42" s="10">
+        <v>0</v>
+      </c>
+      <c r="S42" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T42" s="10" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="43" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
@@ -10352,7 +10426,7 @@
       <c r="B43" s="38" t="s">
         <v>400</v>
       </c>
-      <c r="C43" s="56" t="s">
+      <c r="C43" s="48" t="s">
         <v>399</v>
       </c>
       <c r="D43" s="39" t="s">
@@ -10361,13 +10435,31 @@
       <c r="E43" s="40" t="s">
         <v>402</v>
       </c>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="10"/>
-      <c r="P43" s="10"/>
-      <c r="Q43" s="10"/>
-      <c r="R43" s="10"/>
-      <c r="S43" s="10"/>
+      <c r="M43" s="10">
+        <v>0</v>
+      </c>
+      <c r="N43" s="10">
+        <v>0</v>
+      </c>
+      <c r="O43" s="10">
+        <v>0</v>
+      </c>
+      <c r="P43" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="10">
+        <v>0</v>
+      </c>
+      <c r="R43" s="10">
+        <v>0</v>
+      </c>
+      <c r="S43" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T43" s="10" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="44" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
@@ -10382,13 +10474,31 @@
       <c r="E44" s="40" t="s">
         <v>405</v>
       </c>
-      <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
-      <c r="O44" s="10"/>
-      <c r="P44" s="10"/>
-      <c r="Q44" s="10"/>
-      <c r="R44" s="10"/>
-      <c r="S44" s="10"/>
+      <c r="M44" s="10">
+        <v>0</v>
+      </c>
+      <c r="N44" s="10">
+        <v>0</v>
+      </c>
+      <c r="O44" s="10">
+        <v>0</v>
+      </c>
+      <c r="P44" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="10">
+        <v>0</v>
+      </c>
+      <c r="R44" s="10">
+        <v>0</v>
+      </c>
+      <c r="S44" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T44" s="10" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
@@ -10403,13 +10513,31 @@
       <c r="E45" s="40" t="s">
         <v>407</v>
       </c>
-      <c r="M45" s="10"/>
-      <c r="N45" s="10"/>
-      <c r="O45" s="10"/>
-      <c r="P45" s="10"/>
-      <c r="Q45" s="10"/>
-      <c r="R45" s="10"/>
-      <c r="S45" s="10"/>
+      <c r="M45" s="10">
+        <v>0</v>
+      </c>
+      <c r="N45" s="10">
+        <v>0</v>
+      </c>
+      <c r="O45" s="10">
+        <v>0</v>
+      </c>
+      <c r="P45" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="10">
+        <v>0</v>
+      </c>
+      <c r="R45" s="10">
+        <v>0</v>
+      </c>
+      <c r="S45" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T45" s="10" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="46" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
@@ -10424,13 +10552,31 @@
       <c r="E46" s="40" t="s">
         <v>411</v>
       </c>
-      <c r="M46" s="10"/>
-      <c r="N46" s="10"/>
-      <c r="O46" s="10"/>
-      <c r="P46" s="10"/>
-      <c r="Q46" s="10"/>
-      <c r="R46" s="10"/>
-      <c r="S46" s="10"/>
+      <c r="M46" s="10">
+        <v>0</v>
+      </c>
+      <c r="N46" s="10">
+        <v>0</v>
+      </c>
+      <c r="O46" s="10">
+        <v>0</v>
+      </c>
+      <c r="P46" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="10">
+        <v>0</v>
+      </c>
+      <c r="R46" s="10">
+        <v>0</v>
+      </c>
+      <c r="S46" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T46" s="10" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="47" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
@@ -10439,19 +10585,37 @@
       <c r="B47" s="38" t="s">
         <v>412</v>
       </c>
-      <c r="D47" s="55" t="s">
+      <c r="D47" s="47" t="s">
         <v>413</v>
       </c>
       <c r="E47" s="40" t="s">
         <v>414</v>
       </c>
-      <c r="M47" s="10"/>
-      <c r="N47" s="10"/>
-      <c r="O47" s="10"/>
-      <c r="P47" s="10"/>
-      <c r="Q47" s="10"/>
-      <c r="R47" s="10"/>
-      <c r="S47" s="10"/>
+      <c r="M47" s="10">
+        <v>0</v>
+      </c>
+      <c r="N47" s="10">
+        <v>0</v>
+      </c>
+      <c r="O47" s="10">
+        <v>0</v>
+      </c>
+      <c r="P47" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="10">
+        <v>0</v>
+      </c>
+      <c r="R47" s="10">
+        <v>0</v>
+      </c>
+      <c r="S47" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T47" s="10" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="48" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
@@ -10466,22 +10630,40 @@
       <c r="E48" s="40" t="s">
         <v>407</v>
       </c>
-      <c r="M48" s="10"/>
-      <c r="N48" s="10"/>
-      <c r="O48" s="10"/>
-      <c r="P48" s="10"/>
-      <c r="Q48" s="10"/>
-      <c r="R48" s="10"/>
-      <c r="S48" s="10"/>
-    </row>
-    <row r="49" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="M48" s="10">
+        <v>0</v>
+      </c>
+      <c r="N48" s="10">
+        <v>0</v>
+      </c>
+      <c r="O48" s="10">
+        <v>0</v>
+      </c>
+      <c r="P48" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="10">
+        <v>0</v>
+      </c>
+      <c r="R48" s="10">
+        <v>0</v>
+      </c>
+      <c r="S48" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T48" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>48</v>
       </c>
       <c r="B49" s="38" t="s">
         <v>417</v>
       </c>
-      <c r="C49" s="56" t="s">
+      <c r="C49" s="48" t="s">
         <v>419</v>
       </c>
       <c r="D49" s="39" t="s">
@@ -10490,15 +10672,33 @@
       <c r="E49" s="40" t="s">
         <v>422</v>
       </c>
-      <c r="M49" s="10"/>
-      <c r="N49" s="10"/>
-      <c r="O49" s="10"/>
-      <c r="P49" s="10"/>
-      <c r="Q49" s="10"/>
-      <c r="R49" s="10"/>
-      <c r="S49" s="10"/>
-    </row>
-    <row r="50" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M49" s="10">
+        <v>0</v>
+      </c>
+      <c r="N49" s="10">
+        <v>0</v>
+      </c>
+      <c r="O49" s="10">
+        <v>0</v>
+      </c>
+      <c r="P49" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="10">
+        <v>0</v>
+      </c>
+      <c r="R49" s="10">
+        <v>0</v>
+      </c>
+      <c r="S49" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T49" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -10511,15 +10711,33 @@
       <c r="E50" s="40" t="s">
         <v>407</v>
       </c>
-      <c r="M50" s="10"/>
-      <c r="N50" s="10"/>
-      <c r="O50" s="10"/>
-      <c r="P50" s="10"/>
-      <c r="Q50" s="10"/>
-      <c r="R50" s="10"/>
-      <c r="S50" s="10"/>
-    </row>
-    <row r="51" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="M50" s="10">
+        <v>0</v>
+      </c>
+      <c r="N50" s="10">
+        <v>0</v>
+      </c>
+      <c r="O50" s="10">
+        <v>0</v>
+      </c>
+      <c r="P50" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="10">
+        <v>0</v>
+      </c>
+      <c r="R50" s="10">
+        <v>0</v>
+      </c>
+      <c r="S50" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T50" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -10532,15 +10750,33 @@
       <c r="E51" s="40" t="s">
         <v>424</v>
       </c>
-      <c r="M51" s="10"/>
-      <c r="N51" s="10"/>
-      <c r="O51" s="10"/>
-      <c r="P51" s="10"/>
-      <c r="Q51" s="10"/>
-      <c r="R51" s="10"/>
-      <c r="S51" s="10"/>
-    </row>
-    <row r="52" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="M51" s="10">
+        <v>0</v>
+      </c>
+      <c r="N51" s="10">
+        <v>0</v>
+      </c>
+      <c r="O51" s="10">
+        <v>0</v>
+      </c>
+      <c r="P51" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="10">
+        <v>0</v>
+      </c>
+      <c r="R51" s="10">
+        <v>0</v>
+      </c>
+      <c r="S51" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T51" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -10553,15 +10789,33 @@
       <c r="E52" s="40" t="s">
         <v>432</v>
       </c>
-      <c r="M52" s="10"/>
-      <c r="N52" s="10"/>
-      <c r="O52" s="10"/>
-      <c r="P52" s="10"/>
-      <c r="Q52" s="10"/>
-      <c r="R52" s="10"/>
-      <c r="S52" s="10"/>
-    </row>
-    <row r="53" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M52" s="10">
+        <v>0</v>
+      </c>
+      <c r="N52" s="10">
+        <v>0</v>
+      </c>
+      <c r="O52" s="10">
+        <v>0</v>
+      </c>
+      <c r="P52" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="10">
+        <v>0</v>
+      </c>
+      <c r="R52" s="10">
+        <v>0</v>
+      </c>
+      <c r="S52" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T52" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -10574,15 +10828,33 @@
       <c r="E53" s="40" t="s">
         <v>424</v>
       </c>
-      <c r="M53" s="10"/>
-      <c r="N53" s="10"/>
-      <c r="O53" s="10"/>
-      <c r="P53" s="10"/>
-      <c r="Q53" s="10"/>
-      <c r="R53" s="10"/>
-      <c r="S53" s="10"/>
-    </row>
-    <row r="54" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M53" s="10">
+        <v>0</v>
+      </c>
+      <c r="N53" s="10">
+        <v>0</v>
+      </c>
+      <c r="O53" s="10">
+        <v>0</v>
+      </c>
+      <c r="P53" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="10">
+        <v>0</v>
+      </c>
+      <c r="R53" s="10">
+        <v>0</v>
+      </c>
+      <c r="S53" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T53" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -10595,18 +10867,33 @@
       <c r="E54" s="40" t="s">
         <v>414</v>
       </c>
-      <c r="M54" s="10"/>
-      <c r="N54" s="10"/>
-      <c r="O54" s="10"/>
-      <c r="P54" s="10"/>
-      <c r="Q54" s="10"/>
-      <c r="R54" s="10"/>
-      <c r="S54" s="10"/>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A55" s="2">
-        <v>54</v>
-      </c>
+      <c r="M54" s="10">
+        <v>0</v>
+      </c>
+      <c r="N54" s="10">
+        <v>0</v>
+      </c>
+      <c r="O54" s="10">
+        <v>0</v>
+      </c>
+      <c r="P54" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="10">
+        <v>0</v>
+      </c>
+      <c r="R54" s="10">
+        <v>0</v>
+      </c>
+      <c r="S54" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T54" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="M55" s="10"/>
       <c r="N55" s="10"/>
       <c r="O55" s="10"/>
@@ -10615,10 +10902,7 @@
       <c r="R55" s="10"/>
       <c r="S55" s="10"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A56" s="2">
-        <v>55</v>
-      </c>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="M56" s="10"/>
       <c r="N56" s="10"/>
       <c r="O56" s="10"/>
@@ -10627,10 +10911,7 @@
       <c r="R56" s="10"/>
       <c r="S56" s="10"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A57" s="2">
-        <v>56</v>
-      </c>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
       <c r="M57" s="10"/>
       <c r="N57" s="10"/>
       <c r="O57" s="10"/>
@@ -10639,10 +10920,7 @@
       <c r="R57" s="10"/>
       <c r="S57" s="10"/>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A58" s="2">
-        <v>57</v>
-      </c>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
       <c r="M58" s="10"/>
       <c r="N58" s="10"/>
       <c r="O58" s="10"/>
@@ -10651,10 +10929,7 @@
       <c r="R58" s="10"/>
       <c r="S58" s="10"/>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A59" s="2">
-        <v>58</v>
-      </c>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
       <c r="M59" s="10"/>
       <c r="N59" s="10"/>
       <c r="O59" s="10"/>
@@ -10663,10 +10938,7 @@
       <c r="R59" s="10"/>
       <c r="S59" s="10"/>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A60" s="2">
-        <v>59</v>
-      </c>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
       <c r="M60" s="10"/>
       <c r="N60" s="10"/>
       <c r="O60" s="10"/>
@@ -10675,10 +10947,7 @@
       <c r="R60" s="10"/>
       <c r="S60" s="10"/>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A61" s="2">
-        <v>60</v>
-      </c>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
       <c r="M61" s="10"/>
       <c r="N61" s="10"/>
       <c r="O61" s="10"/>
@@ -10687,10 +10956,7 @@
       <c r="R61" s="10"/>
       <c r="S61" s="10"/>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A62" s="2">
-        <v>61</v>
-      </c>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
       <c r="M62" s="10"/>
       <c r="N62" s="10"/>
       <c r="O62" s="10"/>
@@ -10699,10 +10965,7 @@
       <c r="R62" s="10"/>
       <c r="S62" s="10"/>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A63" s="2">
-        <v>62</v>
-      </c>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
       <c r="M63" s="10"/>
       <c r="N63" s="10"/>
       <c r="O63" s="10"/>
@@ -10711,10 +10974,7 @@
       <c r="R63" s="10"/>
       <c r="S63" s="10"/>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A64" s="2">
-        <v>63</v>
-      </c>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
       <c r="M64" s="10"/>
       <c r="N64" s="10"/>
       <c r="O64" s="10"/>
@@ -10723,10 +10983,7 @@
       <c r="R64" s="10"/>
       <c r="S64" s="10"/>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A65" s="2">
-        <v>64</v>
-      </c>
+    <row r="65" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M65" s="10"/>
       <c r="N65" s="10"/>
       <c r="O65" s="10"/>
@@ -10735,10 +10992,7 @@
       <c r="R65" s="10"/>
       <c r="S65" s="10"/>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A66" s="2">
-        <v>65</v>
-      </c>
+    <row r="66" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M66" s="10"/>
       <c r="N66" s="10"/>
       <c r="O66" s="10"/>
@@ -10747,10 +11001,7 @@
       <c r="R66" s="10"/>
       <c r="S66" s="10"/>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A67" s="2">
-        <v>66</v>
-      </c>
+    <row r="67" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M67" s="10"/>
       <c r="N67" s="10"/>
       <c r="O67" s="10"/>
@@ -10759,10 +11010,7 @@
       <c r="R67" s="10"/>
       <c r="S67" s="10"/>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A68" s="2">
-        <v>67</v>
-      </c>
+    <row r="68" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M68" s="10"/>
       <c r="N68" s="10"/>
       <c r="O68" s="10"/>
@@ -10771,10 +11019,7 @@
       <c r="R68" s="10"/>
       <c r="S68" s="10"/>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A69" s="2">
-        <v>68</v>
-      </c>
+    <row r="69" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M69" s="10"/>
       <c r="N69" s="10"/>
       <c r="O69" s="10"/>
@@ -10783,10 +11028,7 @@
       <c r="R69" s="10"/>
       <c r="S69" s="10"/>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A70" s="2">
-        <v>69</v>
-      </c>
+    <row r="70" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M70" s="10"/>
       <c r="N70" s="10"/>
       <c r="O70" s="10"/>
@@ -10795,10 +11037,7 @@
       <c r="R70" s="10"/>
       <c r="S70" s="10"/>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A71" s="2">
-        <v>70</v>
-      </c>
+    <row r="71" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M71" s="10"/>
       <c r="N71" s="10"/>
       <c r="O71" s="10"/>
@@ -10807,10 +11046,7 @@
       <c r="R71" s="10"/>
       <c r="S71" s="10"/>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A72" s="2">
-        <v>71</v>
-      </c>
+    <row r="72" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M72" s="10"/>
       <c r="N72" s="10"/>
       <c r="O72" s="10"/>
@@ -10819,10 +11055,7 @@
       <c r="R72" s="10"/>
       <c r="S72" s="10"/>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A73" s="2">
-        <v>72</v>
-      </c>
+    <row r="73" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M73" s="10"/>
       <c r="N73" s="10"/>
       <c r="O73" s="10"/>
@@ -10831,10 +11064,7 @@
       <c r="R73" s="10"/>
       <c r="S73" s="10"/>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A74" s="2">
-        <v>73</v>
-      </c>
+    <row r="74" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M74" s="10"/>
       <c r="N74" s="10"/>
       <c r="O74" s="10"/>
@@ -10843,10 +11073,7 @@
       <c r="R74" s="10"/>
       <c r="S74" s="10"/>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A75" s="2">
-        <v>74</v>
-      </c>
+    <row r="75" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M75" s="10"/>
       <c r="N75" s="10"/>
       <c r="O75" s="10"/>
@@ -10855,10 +11082,7 @@
       <c r="R75" s="10"/>
       <c r="S75" s="10"/>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A76" s="2">
-        <v>75</v>
-      </c>
+    <row r="76" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M76" s="10"/>
       <c r="N76" s="10"/>
       <c r="O76" s="10"/>
@@ -10867,10 +11091,7 @@
       <c r="R76" s="10"/>
       <c r="S76" s="10"/>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A77" s="2">
-        <v>76</v>
-      </c>
+    <row r="77" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M77" s="10"/>
       <c r="N77" s="10"/>
       <c r="O77" s="10"/>
@@ -10879,10 +11100,7 @@
       <c r="R77" s="10"/>
       <c r="S77" s="10"/>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A78" s="2">
-        <v>77</v>
-      </c>
+    <row r="78" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M78" s="10"/>
       <c r="N78" s="10"/>
       <c r="O78" s="10"/>
@@ -10891,10 +11109,7 @@
       <c r="R78" s="10"/>
       <c r="S78" s="10"/>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A79" s="2">
-        <v>78</v>
-      </c>
+    <row r="79" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M79" s="10"/>
       <c r="N79" s="10"/>
       <c r="O79" s="10"/>
@@ -10903,10 +11118,7 @@
       <c r="R79" s="10"/>
       <c r="S79" s="10"/>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A80" s="2">
-        <v>79</v>
-      </c>
+    <row r="80" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M80" s="10"/>
       <c r="N80" s="10"/>
       <c r="O80" s="10"/>
@@ -10915,10 +11127,7 @@
       <c r="R80" s="10"/>
       <c r="S80" s="10"/>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A81" s="2">
-        <v>80</v>
-      </c>
+    <row r="81" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M81" s="10"/>
       <c r="N81" s="10"/>
       <c r="O81" s="10"/>
@@ -10927,10 +11136,7 @@
       <c r="R81" s="10"/>
       <c r="S81" s="10"/>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A82" s="2">
-        <v>81</v>
-      </c>
+    <row r="82" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M82" s="10"/>
       <c r="N82" s="10"/>
       <c r="O82" s="10"/>
@@ -10939,10 +11145,7 @@
       <c r="R82" s="10"/>
       <c r="S82" s="10"/>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A83" s="2">
-        <v>82</v>
-      </c>
+    <row r="83" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M83" s="10"/>
       <c r="N83" s="10"/>
       <c r="O83" s="10"/>
@@ -10951,10 +11154,7 @@
       <c r="R83" s="10"/>
       <c r="S83" s="10"/>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A84" s="2">
-        <v>83</v>
-      </c>
+    <row r="84" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M84" s="10"/>
       <c r="N84" s="10"/>
       <c r="O84" s="10"/>
@@ -10963,10 +11163,7 @@
       <c r="R84" s="10"/>
       <c r="S84" s="10"/>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A85" s="2">
-        <v>84</v>
-      </c>
+    <row r="85" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M85" s="10"/>
       <c r="N85" s="10"/>
       <c r="O85" s="10"/>
@@ -10975,10 +11172,7 @@
       <c r="R85" s="10"/>
       <c r="S85" s="10"/>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A86" s="2">
-        <v>85</v>
-      </c>
+    <row r="86" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M86" s="10"/>
       <c r="N86" s="10"/>
       <c r="O86" s="10"/>
@@ -10987,10 +11181,7 @@
       <c r="R86" s="10"/>
       <c r="S86" s="10"/>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A87" s="2">
-        <v>86</v>
-      </c>
+    <row r="87" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M87" s="10"/>
       <c r="N87" s="10"/>
       <c r="O87" s="10"/>
@@ -10999,10 +11190,7 @@
       <c r="R87" s="10"/>
       <c r="S87" s="10"/>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A88" s="2">
-        <v>87</v>
-      </c>
+    <row r="88" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M88" s="10"/>
       <c r="N88" s="10"/>
       <c r="O88" s="10"/>
@@ -11011,10 +11199,7 @@
       <c r="R88" s="10"/>
       <c r="S88" s="10"/>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A89" s="2">
-        <v>88</v>
-      </c>
+    <row r="89" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M89" s="10"/>
       <c r="N89" s="10"/>
       <c r="O89" s="10"/>
@@ -11023,10 +11208,7 @@
       <c r="R89" s="10"/>
       <c r="S89" s="10"/>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A90" s="2">
-        <v>89</v>
-      </c>
+    <row r="90" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M90" s="10"/>
       <c r="N90" s="10"/>
       <c r="O90" s="10"/>
@@ -11035,10 +11217,7 @@
       <c r="R90" s="10"/>
       <c r="S90" s="10"/>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A91" s="2">
-        <v>90</v>
-      </c>
+    <row r="91" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M91" s="10"/>
       <c r="N91" s="10"/>
       <c r="O91" s="10"/>
@@ -11047,10 +11226,7 @@
       <c r="R91" s="10"/>
       <c r="S91" s="10"/>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A92" s="2">
-        <v>91</v>
-      </c>
+    <row r="92" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M92" s="10"/>
       <c r="N92" s="10"/>
       <c r="O92" s="10"/>
@@ -11059,10 +11235,7 @@
       <c r="R92" s="10"/>
       <c r="S92" s="10"/>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A93" s="2">
-        <v>92</v>
-      </c>
+    <row r="93" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M93" s="10"/>
       <c r="N93" s="10"/>
       <c r="O93" s="10"/>
@@ -11071,10 +11244,7 @@
       <c r="R93" s="10"/>
       <c r="S93" s="10"/>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A94" s="2">
-        <v>93</v>
-      </c>
+    <row r="94" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M94" s="10"/>
       <c r="N94" s="10"/>
       <c r="O94" s="10"/>
@@ -11083,10 +11253,7 @@
       <c r="R94" s="10"/>
       <c r="S94" s="10"/>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A95" s="2">
-        <v>94</v>
-      </c>
+    <row r="95" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M95" s="10"/>
       <c r="N95" s="10"/>
       <c r="O95" s="10"/>
@@ -11095,10 +11262,7 @@
       <c r="R95" s="10"/>
       <c r="S95" s="10"/>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A96" s="2">
-        <v>95</v>
-      </c>
+    <row r="96" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M96" s="10"/>
       <c r="N96" s="10"/>
       <c r="O96" s="10"/>
@@ -11107,10 +11271,7 @@
       <c r="R96" s="10"/>
       <c r="S96" s="10"/>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A97" s="2">
-        <v>96</v>
-      </c>
+    <row r="97" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M97" s="10"/>
       <c r="N97" s="10"/>
       <c r="O97" s="10"/>
@@ -11119,10 +11280,7 @@
       <c r="R97" s="10"/>
       <c r="S97" s="10"/>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A98" s="2">
-        <v>97</v>
-      </c>
+    <row r="98" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M98" s="10"/>
       <c r="N98" s="10"/>
       <c r="O98" s="10"/>
@@ -11131,10 +11289,7 @@
       <c r="R98" s="10"/>
       <c r="S98" s="10"/>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A99" s="2">
-        <v>98</v>
-      </c>
+    <row r="99" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M99" s="10"/>
       <c r="N99" s="10"/>
       <c r="O99" s="10"/>
@@ -11143,10 +11298,7 @@
       <c r="R99" s="10"/>
       <c r="S99" s="10"/>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A100" s="2">
-        <v>99</v>
-      </c>
+    <row r="100" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M100" s="10"/>
       <c r="N100" s="10"/>
       <c r="O100" s="10"/>
@@ -11155,10 +11307,7 @@
       <c r="R100" s="10"/>
       <c r="S100" s="10"/>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A101" s="2">
-        <v>100</v>
-      </c>
+    <row r="101" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M101" s="10"/>
       <c r="N101" s="10"/>
       <c r="O101" s="10"/>
@@ -11167,10 +11316,7 @@
       <c r="R101" s="10"/>
       <c r="S101" s="10"/>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A102" s="2">
-        <v>101</v>
-      </c>
+    <row r="102" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M102" s="10"/>
       <c r="N102" s="10"/>
       <c r="O102" s="10"/>
@@ -11179,10 +11325,7 @@
       <c r="R102" s="10"/>
       <c r="S102" s="10"/>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A103" s="2">
-        <v>102</v>
-      </c>
+    <row r="103" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M103" s="10"/>
       <c r="N103" s="10"/>
       <c r="O103" s="10"/>
@@ -11191,10 +11334,7 @@
       <c r="R103" s="10"/>
       <c r="S103" s="10"/>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A104" s="2">
-        <v>103</v>
-      </c>
+    <row r="104" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M104" s="10"/>
       <c r="N104" s="10"/>
       <c r="O104" s="10"/>
@@ -11203,10 +11343,7 @@
       <c r="R104" s="10"/>
       <c r="S104" s="10"/>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A105" s="2">
-        <v>104</v>
-      </c>
+    <row r="105" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M105" s="10"/>
       <c r="N105" s="10"/>
       <c r="O105" s="10"/>
@@ -11215,10 +11352,7 @@
       <c r="R105" s="10"/>
       <c r="S105" s="10"/>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A106" s="2">
-        <v>105</v>
-      </c>
+    <row r="106" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M106" s="10"/>
       <c r="N106" s="10"/>
       <c r="O106" s="10"/>
@@ -11227,10 +11361,7 @@
       <c r="R106" s="10"/>
       <c r="S106" s="10"/>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A107" s="2">
-        <v>106</v>
-      </c>
+    <row r="107" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M107" s="10"/>
       <c r="N107" s="10"/>
       <c r="O107" s="10"/>
@@ -11239,10 +11370,7 @@
       <c r="R107" s="10"/>
       <c r="S107" s="10"/>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A108" s="2">
-        <v>107</v>
-      </c>
+    <row r="108" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M108" s="10"/>
       <c r="N108" s="10"/>
       <c r="O108" s="10"/>
@@ -11251,10 +11379,7 @@
       <c r="R108" s="10"/>
       <c r="S108" s="10"/>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A109" s="2">
-        <v>108</v>
-      </c>
+    <row r="109" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M109" s="10"/>
       <c r="N109" s="10"/>
       <c r="O109" s="10"/>
@@ -11263,10 +11388,7 @@
       <c r="R109" s="10"/>
       <c r="S109" s="10"/>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A110" s="2">
-        <v>109</v>
-      </c>
+    <row r="110" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M110" s="10"/>
       <c r="N110" s="10"/>
       <c r="O110" s="10"/>
@@ -11275,10 +11397,7 @@
       <c r="R110" s="10"/>
       <c r="S110" s="10"/>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A111" s="2">
-        <v>110</v>
-      </c>
+    <row r="111" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M111" s="10"/>
       <c r="N111" s="10"/>
       <c r="O111" s="10"/>
@@ -11287,10 +11406,7 @@
       <c r="R111" s="10"/>
       <c r="S111" s="10"/>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A112" s="2">
-        <v>111</v>
-      </c>
+    <row r="112" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M112" s="10"/>
       <c r="N112" s="10"/>
       <c r="O112" s="10"/>
@@ -11299,10 +11415,7 @@
       <c r="R112" s="10"/>
       <c r="S112" s="10"/>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A113" s="2">
-        <v>112</v>
-      </c>
+    <row r="113" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M113" s="10"/>
       <c r="N113" s="10"/>
       <c r="O113" s="10"/>
@@ -11311,10 +11424,7 @@
       <c r="R113" s="10"/>
       <c r="S113" s="10"/>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A114" s="2">
-        <v>113</v>
-      </c>
+    <row r="114" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M114" s="10"/>
       <c r="N114" s="10"/>
       <c r="O114" s="10"/>
@@ -11323,10 +11433,7 @@
       <c r="R114" s="10"/>
       <c r="S114" s="10"/>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A115" s="2">
-        <v>114</v>
-      </c>
+    <row r="115" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M115" s="10"/>
       <c r="N115" s="10"/>
       <c r="O115" s="10"/>
@@ -11335,10 +11442,7 @@
       <c r="R115" s="10"/>
       <c r="S115" s="10"/>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A116" s="2">
-        <v>115</v>
-      </c>
+    <row r="116" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M116" s="10"/>
       <c r="N116" s="10"/>
       <c r="O116" s="10"/>
@@ -11347,10 +11451,7 @@
       <c r="R116" s="10"/>
       <c r="S116" s="10"/>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A117" s="2">
-        <v>116</v>
-      </c>
+    <row r="117" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M117" s="10"/>
       <c r="N117" s="10"/>
       <c r="O117" s="10"/>
@@ -11359,10 +11460,7 @@
       <c r="R117" s="10"/>
       <c r="S117" s="10"/>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A118" s="2">
-        <v>117</v>
-      </c>
+    <row r="118" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M118" s="10"/>
       <c r="N118" s="10"/>
       <c r="O118" s="10"/>
@@ -11371,10 +11469,7 @@
       <c r="R118" s="10"/>
       <c r="S118" s="10"/>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A119" s="2">
-        <v>118</v>
-      </c>
+    <row r="119" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M119" s="10"/>
       <c r="N119" s="10"/>
       <c r="O119" s="10"/>
@@ -11383,10 +11478,7 @@
       <c r="R119" s="10"/>
       <c r="S119" s="10"/>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A120" s="2">
-        <v>119</v>
-      </c>
+    <row r="120" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M120" s="10"/>
       <c r="N120" s="10"/>
       <c r="O120" s="10"/>
@@ -11395,10 +11487,7 @@
       <c r="R120" s="10"/>
       <c r="S120" s="10"/>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A121" s="2">
-        <v>120</v>
-      </c>
+    <row r="121" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M121" s="10"/>
       <c r="N121" s="10"/>
       <c r="O121" s="10"/>
@@ -11407,10 +11496,7 @@
       <c r="R121" s="10"/>
       <c r="S121" s="10"/>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A122" s="2">
-        <v>121</v>
-      </c>
+    <row r="122" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M122" s="10"/>
       <c r="N122" s="10"/>
       <c r="O122" s="10"/>
@@ -11419,10 +11505,7 @@
       <c r="R122" s="10"/>
       <c r="S122" s="10"/>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A123" s="2">
-        <v>122</v>
-      </c>
+    <row r="123" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M123" s="10"/>
       <c r="N123" s="10"/>
       <c r="O123" s="10"/>
@@ -11431,10 +11514,7 @@
       <c r="R123" s="10"/>
       <c r="S123" s="10"/>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A124" s="2">
-        <v>123</v>
-      </c>
+    <row r="124" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M124" s="10"/>
       <c r="N124" s="10"/>
       <c r="O124" s="10"/>
@@ -11443,10 +11523,7 @@
       <c r="R124" s="10"/>
       <c r="S124" s="10"/>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A125" s="2">
-        <v>124</v>
-      </c>
+    <row r="125" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M125" s="10"/>
       <c r="N125" s="10"/>
       <c r="O125" s="10"/>
@@ -11455,10 +11532,7 @@
       <c r="R125" s="10"/>
       <c r="S125" s="10"/>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A126" s="2">
-        <v>125</v>
-      </c>
+    <row r="126" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M126" s="10"/>
       <c r="N126" s="10"/>
       <c r="O126" s="10"/>
@@ -11467,10 +11541,7 @@
       <c r="R126" s="10"/>
       <c r="S126" s="10"/>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A127" s="2">
-        <v>126</v>
-      </c>
+    <row r="127" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M127" s="10"/>
       <c r="N127" s="10"/>
       <c r="O127" s="10"/>
@@ -11479,10 +11550,7 @@
       <c r="R127" s="10"/>
       <c r="S127" s="10"/>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A128" s="2">
-        <v>127</v>
-      </c>
+    <row r="128" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M128" s="10"/>
       <c r="N128" s="10"/>
       <c r="O128" s="10"/>
@@ -11491,10 +11559,7 @@
       <c r="R128" s="10"/>
       <c r="S128" s="10"/>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A129" s="2">
-        <v>128</v>
-      </c>
+    <row r="129" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M129" s="10"/>
       <c r="N129" s="10"/>
       <c r="O129" s="10"/>
@@ -11503,10 +11568,7 @@
       <c r="R129" s="10"/>
       <c r="S129" s="10"/>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A130" s="2">
-        <v>129</v>
-      </c>
+    <row r="130" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M130" s="10"/>
       <c r="N130" s="10"/>
       <c r="O130" s="10"/>
@@ -11515,10 +11577,7 @@
       <c r="R130" s="10"/>
       <c r="S130" s="10"/>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A131" s="2">
-        <v>130</v>
-      </c>
+    <row r="131" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M131" s="10"/>
       <c r="N131" s="10"/>
       <c r="O131" s="10"/>
@@ -11527,10 +11586,7 @@
       <c r="R131" s="10"/>
       <c r="S131" s="10"/>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A132" s="2">
-        <v>131</v>
-      </c>
+    <row r="132" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M132" s="10"/>
       <c r="N132" s="10"/>
       <c r="O132" s="10"/>
@@ -11539,10 +11595,7 @@
       <c r="R132" s="10"/>
       <c r="S132" s="10"/>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A133" s="2">
-        <v>132</v>
-      </c>
+    <row r="133" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M133" s="10"/>
       <c r="N133" s="10"/>
       <c r="O133" s="10"/>
@@ -11551,10 +11604,7 @@
       <c r="R133" s="10"/>
       <c r="S133" s="10"/>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A134" s="2">
-        <v>133</v>
-      </c>
+    <row r="134" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M134" s="10"/>
       <c r="N134" s="10"/>
       <c r="O134" s="10"/>
@@ -11563,10 +11613,7 @@
       <c r="R134" s="10"/>
       <c r="S134" s="10"/>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A135" s="2">
-        <v>134</v>
-      </c>
+    <row r="135" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M135" s="10"/>
       <c r="N135" s="10"/>
       <c r="O135" s="10"/>
@@ -11575,10 +11622,7 @@
       <c r="R135" s="10"/>
       <c r="S135" s="10"/>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A136" s="2">
-        <v>135</v>
-      </c>
+    <row r="136" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M136" s="10"/>
       <c r="N136" s="10"/>
       <c r="O136" s="10"/>
@@ -11587,10 +11631,7 @@
       <c r="R136" s="10"/>
       <c r="S136" s="10"/>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A137" s="2">
-        <v>136</v>
-      </c>
+    <row r="137" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M137" s="10"/>
       <c r="N137" s="10"/>
       <c r="O137" s="10"/>
@@ -11599,10 +11640,7 @@
       <c r="R137" s="10"/>
       <c r="S137" s="10"/>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A138" s="2">
-        <v>137</v>
-      </c>
+    <row r="138" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M138" s="10"/>
       <c r="N138" s="10"/>
       <c r="O138" s="10"/>
@@ -11611,10 +11649,7 @@
       <c r="R138" s="10"/>
       <c r="S138" s="10"/>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A139" s="2">
-        <v>138</v>
-      </c>
+    <row r="139" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M139" s="10"/>
       <c r="N139" s="10"/>
       <c r="O139" s="10"/>
@@ -11623,10 +11658,7 @@
       <c r="R139" s="10"/>
       <c r="S139" s="10"/>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A140" s="2">
-        <v>139</v>
-      </c>
+    <row r="140" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M140" s="10"/>
       <c r="N140" s="10"/>
       <c r="O140" s="10"/>
@@ -11635,10 +11667,7 @@
       <c r="R140" s="10"/>
       <c r="S140" s="10"/>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A141" s="2">
-        <v>140</v>
-      </c>
+    <row r="141" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M141" s="10"/>
       <c r="N141" s="10"/>
       <c r="O141" s="10"/>
@@ -11647,10 +11676,7 @@
       <c r="R141" s="10"/>
       <c r="S141" s="10"/>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A142" s="2">
-        <v>141</v>
-      </c>
+    <row r="142" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M142" s="10"/>
       <c r="N142" s="10"/>
       <c r="O142" s="10"/>
@@ -11659,10 +11685,7 @@
       <c r="R142" s="10"/>
       <c r="S142" s="10"/>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A143" s="2">
-        <v>142</v>
-      </c>
+    <row r="143" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M143" s="10"/>
       <c r="N143" s="10"/>
       <c r="O143" s="10"/>
@@ -11671,10 +11694,7 @@
       <c r="R143" s="10"/>
       <c r="S143" s="10"/>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A144" s="2">
-        <v>143</v>
-      </c>
+    <row r="144" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M144" s="10"/>
       <c r="N144" s="10"/>
       <c r="O144" s="10"/>
@@ -11683,10 +11703,7 @@
       <c r="R144" s="10"/>
       <c r="S144" s="10"/>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A145" s="2">
-        <v>144</v>
-      </c>
+    <row r="145" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M145" s="10"/>
       <c r="N145" s="10"/>
       <c r="O145" s="10"/>
@@ -11695,10 +11712,7 @@
       <c r="R145" s="10"/>
       <c r="S145" s="10"/>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A146" s="2">
-        <v>145</v>
-      </c>
+    <row r="146" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M146" s="10"/>
       <c r="N146" s="10"/>
       <c r="O146" s="10"/>
@@ -11707,10 +11721,7 @@
       <c r="R146" s="10"/>
       <c r="S146" s="10"/>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A147" s="2">
-        <v>146</v>
-      </c>
+    <row r="147" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M147" s="10"/>
       <c r="N147" s="10"/>
       <c r="O147" s="10"/>
@@ -11719,10 +11730,7 @@
       <c r="R147" s="10"/>
       <c r="S147" s="10"/>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A148" s="2">
-        <v>147</v>
-      </c>
+    <row r="148" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M148" s="10"/>
       <c r="N148" s="10"/>
       <c r="O148" s="10"/>
@@ -11731,10 +11739,7 @@
       <c r="R148" s="10"/>
       <c r="S148" s="10"/>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A149" s="2">
-        <v>148</v>
-      </c>
+    <row r="149" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M149" s="10"/>
       <c r="N149" s="10"/>
       <c r="O149" s="10"/>
@@ -11743,10 +11748,7 @@
       <c r="R149" s="10"/>
       <c r="S149" s="10"/>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A150" s="2">
-        <v>149</v>
-      </c>
+    <row r="150" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M150" s="10"/>
       <c r="N150" s="10"/>
       <c r="O150" s="10"/>
@@ -11755,10 +11757,7 @@
       <c r="R150" s="10"/>
       <c r="S150" s="10"/>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A151" s="2">
-        <v>150</v>
-      </c>
+    <row r="151" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M151" s="10"/>
       <c r="N151" s="10"/>
       <c r="O151" s="10"/>
@@ -11767,10 +11766,7 @@
       <c r="R151" s="10"/>
       <c r="S151" s="10"/>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A152" s="2">
-        <v>151</v>
-      </c>
+    <row r="152" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M152" s="10"/>
       <c r="N152" s="10"/>
       <c r="O152" s="10"/>
@@ -11779,10 +11775,7 @@
       <c r="R152" s="10"/>
       <c r="S152" s="10"/>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A153" s="2">
-        <v>152</v>
-      </c>
+    <row r="153" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M153" s="10"/>
       <c r="N153" s="10"/>
       <c r="O153" s="10"/>
@@ -11791,10 +11784,7 @@
       <c r="R153" s="10"/>
       <c r="S153" s="10"/>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A154" s="2">
-        <v>153</v>
-      </c>
+    <row r="154" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M154" s="10"/>
       <c r="N154" s="10"/>
       <c r="O154" s="10"/>
@@ -11803,10 +11793,7 @@
       <c r="R154" s="10"/>
       <c r="S154" s="10"/>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A155" s="2">
-        <v>154</v>
-      </c>
+    <row r="155" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M155" s="10"/>
       <c r="N155" s="10"/>
       <c r="O155" s="10"/>
@@ -11815,10 +11802,7 @@
       <c r="R155" s="10"/>
       <c r="S155" s="10"/>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A156" s="2">
-        <v>155</v>
-      </c>
+    <row r="156" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M156" s="10"/>
       <c r="N156" s="10"/>
       <c r="O156" s="10"/>
@@ -11827,10 +11811,7 @@
       <c r="R156" s="10"/>
       <c r="S156" s="10"/>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A157" s="2">
-        <v>156</v>
-      </c>
+    <row r="157" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M157" s="10"/>
       <c r="N157" s="10"/>
       <c r="O157" s="10"/>
@@ -11839,10 +11820,7 @@
       <c r="R157" s="10"/>
       <c r="S157" s="10"/>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A158" s="2">
-        <v>157</v>
-      </c>
+    <row r="158" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M158" s="10"/>
       <c r="N158" s="10"/>
       <c r="O158" s="10"/>
@@ -11851,10 +11829,7 @@
       <c r="R158" s="10"/>
       <c r="S158" s="10"/>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A159" s="2">
-        <v>158</v>
-      </c>
+    <row r="159" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M159" s="10"/>
       <c r="N159" s="10"/>
       <c r="O159" s="10"/>
@@ -11863,10 +11838,7 @@
       <c r="R159" s="10"/>
       <c r="S159" s="10"/>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A160" s="2">
-        <v>159</v>
-      </c>
+    <row r="160" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M160" s="10"/>
       <c r="N160" s="10"/>
       <c r="O160" s="10"/>
@@ -11875,10 +11847,7 @@
       <c r="R160" s="10"/>
       <c r="S160" s="10"/>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A161" s="2">
-        <v>160</v>
-      </c>
+    <row r="161" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M161" s="10"/>
       <c r="N161" s="10"/>
       <c r="O161" s="10"/>
@@ -11887,10 +11856,7 @@
       <c r="R161" s="10"/>
       <c r="S161" s="10"/>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A162" s="2">
-        <v>161</v>
-      </c>
+    <row r="162" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M162" s="10"/>
       <c r="N162" s="10"/>
       <c r="O162" s="10"/>
@@ -11899,10 +11865,7 @@
       <c r="R162" s="10"/>
       <c r="S162" s="10"/>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A163" s="2">
-        <v>162</v>
-      </c>
+    <row r="163" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M163" s="10"/>
       <c r="N163" s="10"/>
       <c r="O163" s="10"/>
@@ -11911,10 +11874,7 @@
       <c r="R163" s="10"/>
       <c r="S163" s="10"/>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A164" s="2">
-        <v>163</v>
-      </c>
+    <row r="164" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M164" s="10"/>
       <c r="N164" s="10"/>
       <c r="O164" s="10"/>
@@ -11923,10 +11883,7 @@
       <c r="R164" s="10"/>
       <c r="S164" s="10"/>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A165" s="2">
-        <v>164</v>
-      </c>
+    <row r="165" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M165" s="10"/>
       <c r="N165" s="10"/>
       <c r="O165" s="10"/>
@@ -11935,10 +11892,7 @@
       <c r="R165" s="10"/>
       <c r="S165" s="10"/>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A166" s="2">
-        <v>165</v>
-      </c>
+    <row r="166" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M166" s="10"/>
       <c r="N166" s="10"/>
       <c r="O166" s="10"/>
@@ -11947,10 +11901,7 @@
       <c r="R166" s="10"/>
       <c r="S166" s="10"/>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A167" s="2">
-        <v>166</v>
-      </c>
+    <row r="167" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M167" s="10"/>
       <c r="N167" s="10"/>
       <c r="O167" s="10"/>
@@ -11959,10 +11910,7 @@
       <c r="R167" s="10"/>
       <c r="S167" s="10"/>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A168" s="2">
-        <v>167</v>
-      </c>
+    <row r="168" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M168" s="10"/>
       <c r="N168" s="10"/>
       <c r="O168" s="10"/>
@@ -11971,10 +11919,7 @@
       <c r="R168" s="10"/>
       <c r="S168" s="10"/>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A169" s="2">
-        <v>168</v>
-      </c>
+    <row r="169" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M169" s="10"/>
       <c r="N169" s="10"/>
       <c r="O169" s="10"/>
@@ -11983,10 +11928,7 @@
       <c r="R169" s="10"/>
       <c r="S169" s="10"/>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A170" s="2">
-        <v>169</v>
-      </c>
+    <row r="170" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M170" s="10"/>
       <c r="N170" s="10"/>
       <c r="O170" s="10"/>
@@ -11995,10 +11937,7 @@
       <c r="R170" s="10"/>
       <c r="S170" s="10"/>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A171" s="2">
-        <v>170</v>
-      </c>
+    <row r="171" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M171" s="10"/>
       <c r="N171" s="10"/>
       <c r="O171" s="10"/>
@@ -12007,10 +11946,7 @@
       <c r="R171" s="10"/>
       <c r="S171" s="10"/>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A172" s="2">
-        <v>171</v>
-      </c>
+    <row r="172" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M172" s="10"/>
       <c r="N172" s="10"/>
       <c r="O172" s="10"/>
@@ -12019,10 +11955,7 @@
       <c r="R172" s="10"/>
       <c r="S172" s="10"/>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A173" s="2">
-        <v>172</v>
-      </c>
+    <row r="173" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M173" s="10"/>
       <c r="N173" s="10"/>
       <c r="O173" s="10"/>
@@ -12031,10 +11964,7 @@
       <c r="R173" s="10"/>
       <c r="S173" s="10"/>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A174" s="2">
-        <v>173</v>
-      </c>
+    <row r="174" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M174" s="10"/>
       <c r="N174" s="10"/>
       <c r="O174" s="10"/>
@@ -12043,10 +11973,7 @@
       <c r="R174" s="10"/>
       <c r="S174" s="10"/>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A175" s="2">
-        <v>174</v>
-      </c>
+    <row r="175" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M175" s="10"/>
       <c r="N175" s="10"/>
       <c r="O175" s="10"/>
@@ -12055,7 +11982,7 @@
       <c r="R175" s="10"/>
       <c r="S175" s="10"/>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="176" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M176" s="10"/>
       <c r="N176" s="10"/>
       <c r="O176" s="10"/>
@@ -12093,23 +12020,23 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1:T1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1:T1048576" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Initial,Potential,Customer,Support,Upsells,Reject,Not-Contacted,Ex-Customer"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"Rahul Dutta,Sayan Basak,Anirban Chakraborty,Debashish Nath"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>"Technical,Non-Technical"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C36" r:id="rId1"/>
-    <hyperlink ref="C37" r:id="rId2"/>
-    <hyperlink ref="D41" r:id="rId3" display="https://www.google.com/search?sca_esv=597127733&amp;rlz=1C1CHBF_enAU1047AU1047&amp;tbs=lf:1,lf_ui:2&amp;tbm=lcl&amp;sxsrf=ACQVn0-yjBygfThguW8-plBveMrMzDiPGw:1704870884151&amp;q=engineering+colleges+in+south+calcutta&amp;rflfq=1&amp;num=10&amp;sa=X&amp;ved=2ahUKEwjQ47_7otKDAxUve2wGHY_pCzEQjGp6BAgXEAE&amp;biw=1536&amp;bih=730&amp;dpr=1.25"/>
-    <hyperlink ref="C43" r:id="rId4"/>
-    <hyperlink ref="D47" r:id="rId5" display="https://www.google.com/search?q=engineering+colleges+kolkata&amp;sca_esv=597127733&amp;rlz=1C1CHBF_enAU1047AU1047&amp;biw=1536&amp;bih=730&amp;tbm=lcl&amp;sxsrf=ACQVn09cs4SfDApVNizAZQHyNbKrHkG1kw%3A1704870889163&amp;ei=6UOeZYunCcqWseMP2bOt0A4&amp;ved=0ahUKEwjLv_H9otKDAxVKS2wGHdlZC-oQ4dUDCAk&amp;uact=5&amp;oq=engineering+colleges+kolkata&amp;gs_lp=Eg1nd3Mtd2l6LWxvY2FsIhxlbmdpbmVlcmluZyBjb2xsZWdlcyBrb2xrYXRhMgUQABiABDIGEAAYFhgeMgYQABgWGB4yCBAAGBYYHhgPMgYQABgWGB4yBhAAGBYYHjIGEAAYFhgeMgYQABgWGB4yBhAAGBYYHjIGEAAYFhgeSPErUNUEWOgmcAF4AJABAZgBqwGgAb0XqgEEMC4yM7gBA8gBAPgBAcICCxAAGIAEGIoFGIYDwgIEECMYJ8ICCxAAGIAEGIoFGJECwgIKEAAYgAQYFBiHAsICDhAAGIAEGIoFGJECGMkDiAYB&amp;sclient=gws-wiz-local"/>
-    <hyperlink ref="C49" r:id="rId6"/>
+    <hyperlink ref="C36" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="C37" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="D41" r:id="rId3" display="https://www.google.com/search?sca_esv=597127733&amp;rlz=1C1CHBF_enAU1047AU1047&amp;tbs=lf:1,lf_ui:2&amp;tbm=lcl&amp;sxsrf=ACQVn0-yjBygfThguW8-plBveMrMzDiPGw:1704870884151&amp;q=engineering+colleges+in+south+calcutta&amp;rflfq=1&amp;num=10&amp;sa=X&amp;ved=2ahUKEwjQ47_7otKDAxUve2wGHY_pCzEQjGp6BAgXEAE&amp;biw=1536&amp;bih=730&amp;dpr=1.25" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="C43" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="D47" r:id="rId5" display="https://www.google.com/search?q=engineering+colleges+kolkata&amp;sca_esv=597127733&amp;rlz=1C1CHBF_enAU1047AU1047&amp;biw=1536&amp;bih=730&amp;tbm=lcl&amp;sxsrf=ACQVn09cs4SfDApVNizAZQHyNbKrHkG1kw%3A1704870889163&amp;ei=6UOeZYunCcqWseMP2bOt0A4&amp;ved=0ahUKEwjLv_H9otKDAxVKS2wGHdlZC-oQ4dUDCAk&amp;uact=5&amp;oq=engineering+colleges+kolkata&amp;gs_lp=Eg1nd3Mtd2l6LWxvY2FsIhxlbmdpbmVlcmluZyBjb2xsZWdlcyBrb2xrYXRhMgUQABiABDIGEAAYFhgeMgYQABgWGB4yCBAAGBYYHhgPMgYQABgWGB4yBhAAGBYYHjIGEAAYFhgeMgYQABgWGB4yBhAAGBYYHjIGEAAYFhgeSPErUNUEWOgmcAF4AJABAZgBqwGgAb0XqgEEMC4yM7gBA8gBAPgBAcICCxAAGIAEGIoFGIYDwgIEECMYJ8ICCxAAGIAEGIoFGJECwgIKEAAYgAQYFBiHAsICDhAAGIAEGIoFGJECGMkDiAYB&amp;sclient=gws-wiz-local" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="C49" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
@@ -12118,7 +12045,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Offline/BusinessManagement/Marketing/AI marketing/AI Workshop Schools-Colleges.xlsx
+++ b/Offline/BusinessManagement/Marketing/AI marketing/AI Workshop Schools-Colleges.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Marketing\AI marketing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F35F05D-1F79-4CDF-B824-891651159FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="506" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="506" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="8" r:id="rId1"/>
@@ -21,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'School-Details'!$A$1:$U$122</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,13 +39,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>del</author>
     <author>User</author>
   </authors>
   <commentList>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -70,7 +69,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L28" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="L28" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -89,12 +88,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>del</author>
   </authors>
   <commentList>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -123,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="437">
   <si>
     <t>CBSE</t>
   </si>
@@ -1415,13 +1414,6 @@
     <t>8981510888 9007720041 9831071659</t>
   </si>
   <si>
-    <t xml:space="preserve">
-IEM PUBLIC SCHOOL</t>
-  </si>
-  <si>
-    <t>IEM PUBLIC SCHOOL</t>
-  </si>
-  <si>
     <t>+9147059775
 +9147059774
   9831071659</t>
@@ -1446,12 +1438,19 @@
   </si>
   <si>
     <t xml:space="preserve"> 033 6627 0502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+IEM PUBLIC SCHOOL, Salt Lake</t>
+  </si>
+  <si>
+    <t>IEM PUBLIC SCHOOL, new town</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2192,10 +2191,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
@@ -2252,7 +2251,7 @@
       </c>
       <c r="D4" s="16">
         <f>MAX('School-Details'!A:A)</f>
-        <v>235</v>
+        <v>123</v>
       </c>
       <c r="F4" s="21" t="s">
         <v>265</v>
@@ -2284,7 +2283,7 @@
       </c>
       <c r="D5" s="16">
         <f>ROUND(SUM('School-Details'!K:K)/D4,2)</f>
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>210</v>
@@ -2566,7 +2565,7 @@
       </c>
       <c r="D14" s="14">
         <f>COUNTIF('School-Details'!U:U,C14)</f>
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F14" s="22">
         <v>45352</v>
@@ -2642,7 +2641,7 @@
       </c>
       <c r="D16" s="16">
         <f>SUM(D8:D15)</f>
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F16" s="22">
         <v>45413</v>
@@ -2781,7 +2780,7 @@
       </c>
       <c r="D20" s="14">
         <f>COUNTIF('School-Details'!T:T,C20)</f>
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F20" s="22">
         <v>45536</v>
@@ -2818,7 +2817,7 @@
       </c>
       <c r="D21" s="14">
         <f>SUM(D19:D20)</f>
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F21" s="22">
         <v>45566</v>
@@ -3033,7 +3032,7 @@
       </c>
       <c r="D27" s="16">
         <f>D21+D23+D26</f>
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I27" s="31"/>
       <c r="K27" s="33"/>
@@ -3099,14 +3098,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:U236"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U124"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D117" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="F23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H114" sqref="H114"/>
+      <selection pane="bottomRight" activeCell="W128" sqref="W128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5939,7 +5938,7 @@
         <v>4</v>
       </c>
       <c r="S67" s="10">
-        <f t="shared" ref="S67:S122" si="2">SUM(N67:R67)</f>
+        <f t="shared" ref="S67:S124" si="2">SUM(N67:R67)</f>
         <v>22</v>
       </c>
       <c r="T67" s="10">
@@ -5987,7 +5986,7 @@
         <v>20</v>
       </c>
       <c r="T68" s="10">
-        <f t="shared" ref="T68:T122" si="3">ROUND(S68/5,0)</f>
+        <f t="shared" ref="T68:T124" si="3">ROUND(S68/5,0)</f>
         <v>4</v>
       </c>
       <c r="U68" s="10" t="s">
@@ -8134,7 +8133,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="17" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="C123" s="40" t="s">
         <v>25</v>
@@ -8144,6 +8143,32 @@
       </c>
       <c r="G123" s="40" t="s">
         <v>310</v>
+      </c>
+      <c r="N123" s="1">
+        <v>2</v>
+      </c>
+      <c r="O123" s="1">
+        <v>5</v>
+      </c>
+      <c r="P123" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q123" s="1">
+        <v>4</v>
+      </c>
+      <c r="R123" s="1">
+        <v>4</v>
+      </c>
+      <c r="S123" s="10">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="T123" s="10">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="U123" s="10" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="124" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
@@ -8151,641 +8176,107 @@
         <v>123</v>
       </c>
       <c r="B124" s="17" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="C124" s="40" t="s">
         <v>25</v>
       </c>
       <c r="F124" s="7" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="G124" s="40" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A125" s="2">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A126" s="2">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A127" s="2">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A128" s="2">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A129" s="2">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A130" s="2">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A131" s="2">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A132" s="2">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A133" s="2">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A134" s="2">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A135" s="2">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A136" s="2">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A137" s="2">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A138" s="2">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A139" s="2">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A140" s="2">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A141" s="2">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A142" s="2">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A143" s="2">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A144" s="2">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A145" s="2">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A146" s="2">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A147" s="2">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A148" s="2">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A149" s="2">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A150" s="2">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A151" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A152" s="2">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A153" s="2">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A154" s="2">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A155" s="2">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A156" s="2">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A157" s="2">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A158" s="2">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A159" s="2">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A160" s="2">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A161" s="2">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A162" s="2">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A163" s="2">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A164" s="2">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A165" s="2">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A166" s="2">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A167" s="2">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A168" s="2">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A169" s="2">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A170" s="2">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A171" s="2">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A172" s="2">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A173" s="2">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A174" s="2">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A175" s="2">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A176" s="2">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A177" s="2">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A178" s="2">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A179" s="2">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A180" s="2">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A181" s="2">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A182" s="2">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A183" s="2">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A184" s="2">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A185" s="2">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A186" s="2">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A187" s="2">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A188" s="2">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A189" s="2">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A190" s="2">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A191" s="2">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A192" s="2">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A193" s="2">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A194" s="2">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A195" s="2">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A196" s="2">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A197" s="2">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A198" s="2">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A199" s="2">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A200" s="2">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A201" s="2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A202" s="2">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A203" s="2">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A204" s="2">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A205" s="2">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A206" s="2">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A207" s="2">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A208" s="2">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A209" s="2">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A210" s="2">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A211" s="2">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A212" s="2">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A213" s="2">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A214" s="2">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A215" s="2">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A216" s="2">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A217" s="2">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A218" s="2">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A219" s="2">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A220" s="2">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A221" s="2">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A222" s="2">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A223" s="2">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A224" s="2">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A225" s="2">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A226" s="2">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A227" s="2">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A228" s="2">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A229" s="2">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A230" s="2">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A231" s="2">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A232" s="2">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A233" s="2">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A234" s="2">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A235" s="2">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A236" s="2">
-        <v>235</v>
+      <c r="N124" s="1">
+        <v>2</v>
+      </c>
+      <c r="O124" s="1">
+        <v>5</v>
+      </c>
+      <c r="P124" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q124" s="1">
+        <v>4</v>
+      </c>
+      <c r="R124" s="1">
+        <v>4</v>
+      </c>
+      <c r="S124" s="10">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="T124" s="10">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="U124" s="10" t="s">
+        <v>263</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U122" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:U122"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U1:U1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U1:U1048576">
       <formula1>"Initial,Potential,Customer,Support,Upsells,Reject,Not-Contacted,Ex-Customer"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">
       <formula1>"Rahul Dutta,Sayan Basak,Anirban Chakraborty,Debashish Nath"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D31" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="D32" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="F7" r:id="rId3" display="https://www.google.com/search?q=panchasayar+siksha+niketan&amp;sca_esv=593615924&amp;rlz=1C1CHBF_enAU1047AU1047&amp;sxsrf=AM9HkKnlKkWvrpmDIvMzNnJR8ZC_8s6gNQ%3A1703524925488&amp;ei=PbqJZaauHY2KnesPo--TuAo&amp;gs_ssp=eJzj4tFP1zc0MqnMzTa1TDNgtFI1qDBONDAyNzRPNU1LM0xOTkuyAgqZpJmZmJgnGZgZGSWnpSV5SRUk5iVnJBYnViYWKRRnZhdnJCrkZWanliTmAQC7Qxln&amp;oq=panchasayar+s&amp;gs_lp=Egxnd3Mtd2l6LXNlcnAiDXBhbmNoYXNheWFyIHMqAggAMhQQLhivARjHARimAxioAxiABBiOBTIFEAAYgAQyBRAAGIAEMgsQLhiABBioAxidAzIFEAAYgAQyBRAAGIAEMgUQABiABDIFEAAYgAQyCBAAGIAEGMsBMggQABiABBjLATIjEC4YrwEYxwEYpgMYqAMYgAQYjgUYlwUY3AQY3gQY4ATYAQNIuzhQmhhYmCVwAXgBkAEAmAGvAqAB1gSqAQUyLTEuMbgBAcgBAPgBAcICChAAGEcY1gQYsAPCAg0QABiABBiKBRhDGLADwgIcEC4YgAQYigUYQxjHARivARjIAxiwAxiOBdgBAcICGRAuGIAEGIoFGEMYxwEYrwEYyAMYsAPYAQHCAg4QABjkAhjWBBiwA9gBAsICEBAuGEMYnQMYqAMYgAQYigXCAhAQLhiABBiKBRhDGKgDGJ0DwgIWEC4YQxivARjHARimAxioAxiABBiKBcICChAAGIAEGBQYhwLCAh8QLhhDGJ0DGKgDGIAEGIoFGJcFGNwEGN4EGOAE2AED4gMEGAAgQYgGAZAGDroGBggBEAEYCLoGBggCEAEYCboGBggDEAEYFA&amp;sclient=gws-wiz-serp" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="F8" r:id="rId4" display="https://www.google.com/search?q=miranda+high+school&amp;sca_esv=593615924&amp;rlz=1C1CHBF_enAU1047AU1047&amp;sxsrf=AM9HkKmR8dFtasrVNGZkMFIxGz5Wq06ZjA%3A1703525037148&amp;ei=rbqJZczSCOCWjuMPsMy_8AM&amp;oq=miranda+high+&amp;gs_lp=Egxnd3Mtd2l6LXNlcnAiDW1pcmFuZGEgaGlnaCAqAggAMg0QABiABBgUGIcCGMkDMgUQABiABDILEAAYgAQYigUYkgMyBRAAGIAEMgUQABiABDIKEAAYgAQYFBiHAjIFEAAYgAQyBRAAGIAEMgUQABiABDIFEAAYgARI7RNQ6AZY6AZwAXgAkAEAmAH0BqABuAyqAQM2LTK4AQHIAQD4AQHCAgoQABhHGNYEGLAD4gMEGAAgQYgGAZAGCA&amp;sclient=gws-wiz-serp&amp;lqi=ChNtaXJhbmRhIGhpZ2ggc2Nob29sSN-07OW4roCACForEAAQARACGAAYARgCIhNtaXJhbmRhIGhpZ2ggc2Nob29sKggIAhAAEAEQApIBBnNjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOUGNqUnVSbVZuRUFFqgE7EAEyHhABIhpTQ3iPFiqMHHb-9vGb0lli1Rpc5Z8xE87GgDIXEAIiE21pcmFuZGEgaGlnaCBzY2hvb2w" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="D22" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="D25" r:id="rId6" display="mailto:official@younghorizonsschool.com" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="D26" r:id="rId7" display="mailto:iwanttojoin@siskol.edu.in" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="D27" r:id="rId8" display="mailto:lcgvm2012@gmail.com" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="D30" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="D33" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="D35" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="D37" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="D41" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="D42" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="D43" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="D47" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="D48" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="D49" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
-    <hyperlink ref="D51" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
-    <hyperlink ref="D52" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
-    <hyperlink ref="D53" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink ref="D54" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
-    <hyperlink ref="D55" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
-    <hyperlink ref="D56" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
-    <hyperlink ref="D57" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
-    <hyperlink ref="D58" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
-    <hyperlink ref="D59" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
-    <hyperlink ref="D60" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
-    <hyperlink ref="D61" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
-    <hyperlink ref="D62" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
-    <hyperlink ref="D63" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
-    <hyperlink ref="D64" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
-    <hyperlink ref="D65" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
-    <hyperlink ref="D66" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
-    <hyperlink ref="D67" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
-    <hyperlink ref="D68" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
-    <hyperlink ref="D69" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
-    <hyperlink ref="D70" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
-    <hyperlink ref="D71" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
-    <hyperlink ref="D72" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
-    <hyperlink ref="D73" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
-    <hyperlink ref="D75" r:id="rId42" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
-    <hyperlink ref="D78" r:id="rId43" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
-    <hyperlink ref="D79" r:id="rId44" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
-    <hyperlink ref="D80" r:id="rId45" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
-    <hyperlink ref="D81" r:id="rId46" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
-    <hyperlink ref="D85" r:id="rId47" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
-    <hyperlink ref="D88" r:id="rId48" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
-    <hyperlink ref="D89" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
-    <hyperlink ref="D91" r:id="rId50" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
-    <hyperlink ref="D2" r:id="rId51" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
-    <hyperlink ref="D28" r:id="rId52" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
+    <hyperlink ref="D31" r:id="rId1"/>
+    <hyperlink ref="D32" r:id="rId2"/>
+    <hyperlink ref="F7" r:id="rId3" display="https://www.google.com/search?q=panchasayar+siksha+niketan&amp;sca_esv=593615924&amp;rlz=1C1CHBF_enAU1047AU1047&amp;sxsrf=AM9HkKnlKkWvrpmDIvMzNnJR8ZC_8s6gNQ%3A1703524925488&amp;ei=PbqJZaauHY2KnesPo--TuAo&amp;gs_ssp=eJzj4tFP1zc0MqnMzTa1TDNgtFI1qDBONDAyNzRPNU1LM0xOTkuyAgqZpJmZmJgnGZgZGSWnpSV5SRUk5iVnJBYnViYWKRRnZhdnJCrkZWanliTmAQC7Qxln&amp;oq=panchasayar+s&amp;gs_lp=Egxnd3Mtd2l6LXNlcnAiDXBhbmNoYXNheWFyIHMqAggAMhQQLhivARjHARimAxioAxiABBiOBTIFEAAYgAQyBRAAGIAEMgsQLhiABBioAxidAzIFEAAYgAQyBRAAGIAEMgUQABiABDIFEAAYgAQyCBAAGIAEGMsBMggQABiABBjLATIjEC4YrwEYxwEYpgMYqAMYgAQYjgUYlwUY3AQY3gQY4ATYAQNIuzhQmhhYmCVwAXgBkAEAmAGvAqAB1gSqAQUyLTEuMbgBAcgBAPgBAcICChAAGEcY1gQYsAPCAg0QABiABBiKBRhDGLADwgIcEC4YgAQYigUYQxjHARivARjIAxiwAxiOBdgBAcICGRAuGIAEGIoFGEMYxwEYrwEYyAMYsAPYAQHCAg4QABjkAhjWBBiwA9gBAsICEBAuGEMYnQMYqAMYgAQYigXCAhAQLhiABBiKBRhDGKgDGJ0DwgIWEC4YQxivARjHARimAxioAxiABBiKBcICChAAGIAEGBQYhwLCAh8QLhhDGJ0DGKgDGIAEGIoFGJcFGNwEGN4EGOAE2AED4gMEGAAgQYgGAZAGDroGBggBEAEYCLoGBggCEAEYCboGBggDEAEYFA&amp;sclient=gws-wiz-serp"/>
+    <hyperlink ref="F8" r:id="rId4" display="https://www.google.com/search?q=miranda+high+school&amp;sca_esv=593615924&amp;rlz=1C1CHBF_enAU1047AU1047&amp;sxsrf=AM9HkKmR8dFtasrVNGZkMFIxGz5Wq06ZjA%3A1703525037148&amp;ei=rbqJZczSCOCWjuMPsMy_8AM&amp;oq=miranda+high+&amp;gs_lp=Egxnd3Mtd2l6LXNlcnAiDW1pcmFuZGEgaGlnaCAqAggAMg0QABiABBgUGIcCGMkDMgUQABiABDILEAAYgAQYigUYkgMyBRAAGIAEMgUQABiABDIKEAAYgAQYFBiHAjIFEAAYgAQyBRAAGIAEMgUQABiABDIFEAAYgARI7RNQ6AZY6AZwAXgAkAEAmAH0BqABuAyqAQM2LTK4AQHIAQD4AQHCAgoQABhHGNYEGLAD4gMEGAAgQYgGAZAGCA&amp;sclient=gws-wiz-serp&amp;lqi=ChNtaXJhbmRhIGhpZ2ggc2Nob29sSN-07OW4roCACForEAAQARACGAAYARgCIhNtaXJhbmRhIGhpZ2ggc2Nob29sKggIAhAAEAEQApIBBnNjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOUGNqUnVSbVZuRUFFqgE7EAEyHhABIhpTQ3iPFiqMHHb-9vGb0lli1Rpc5Z8xE87GgDIXEAIiE21pcmFuZGEgaGlnaCBzY2hvb2w"/>
+    <hyperlink ref="D22" r:id="rId5"/>
+    <hyperlink ref="D25" r:id="rId6" display="mailto:official@younghorizonsschool.com"/>
+    <hyperlink ref="D26" r:id="rId7" display="mailto:iwanttojoin@siskol.edu.in"/>
+    <hyperlink ref="D27" r:id="rId8" display="mailto:lcgvm2012@gmail.com"/>
+    <hyperlink ref="D30" r:id="rId9"/>
+    <hyperlink ref="D33" r:id="rId10"/>
+    <hyperlink ref="D35" r:id="rId11"/>
+    <hyperlink ref="D37" r:id="rId12"/>
+    <hyperlink ref="D41" r:id="rId13"/>
+    <hyperlink ref="D42" r:id="rId14"/>
+    <hyperlink ref="D43" r:id="rId15"/>
+    <hyperlink ref="D47" r:id="rId16"/>
+    <hyperlink ref="D48" r:id="rId17"/>
+    <hyperlink ref="D49" r:id="rId18"/>
+    <hyperlink ref="D51" r:id="rId19"/>
+    <hyperlink ref="D52" r:id="rId20"/>
+    <hyperlink ref="D53" r:id="rId21"/>
+    <hyperlink ref="D54" r:id="rId22"/>
+    <hyperlink ref="D55" r:id="rId23"/>
+    <hyperlink ref="D56" r:id="rId24"/>
+    <hyperlink ref="D57" r:id="rId25"/>
+    <hyperlink ref="D58" r:id="rId26"/>
+    <hyperlink ref="D59" r:id="rId27"/>
+    <hyperlink ref="D60" r:id="rId28"/>
+    <hyperlink ref="D61" r:id="rId29"/>
+    <hyperlink ref="D62" r:id="rId30"/>
+    <hyperlink ref="D63" r:id="rId31"/>
+    <hyperlink ref="D64" r:id="rId32"/>
+    <hyperlink ref="D65" r:id="rId33"/>
+    <hyperlink ref="D66" r:id="rId34"/>
+    <hyperlink ref="D67" r:id="rId35"/>
+    <hyperlink ref="D68" r:id="rId36"/>
+    <hyperlink ref="D69" r:id="rId37"/>
+    <hyperlink ref="D70" r:id="rId38"/>
+    <hyperlink ref="D71" r:id="rId39"/>
+    <hyperlink ref="D72" r:id="rId40"/>
+    <hyperlink ref="D73" r:id="rId41"/>
+    <hyperlink ref="D75" r:id="rId42"/>
+    <hyperlink ref="D78" r:id="rId43"/>
+    <hyperlink ref="D79" r:id="rId44"/>
+    <hyperlink ref="D80" r:id="rId45"/>
+    <hyperlink ref="D81" r:id="rId46"/>
+    <hyperlink ref="D85" r:id="rId47"/>
+    <hyperlink ref="D88" r:id="rId48"/>
+    <hyperlink ref="D89" r:id="rId49"/>
+    <hyperlink ref="D91" r:id="rId50"/>
+    <hyperlink ref="D2" r:id="rId51"/>
+    <hyperlink ref="D28" r:id="rId52"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId53"/>
@@ -8794,10 +8285,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D49" workbookViewId="0">
       <selection activeCell="R56" sqref="R56"/>
     </sheetView>
   </sheetViews>
@@ -10781,13 +10272,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="38" t="s">
+        <v>428</v>
+      </c>
+      <c r="D52" s="39" t="s">
+        <v>429</v>
+      </c>
+      <c r="E52" s="40" t="s">
         <v>430</v>
-      </c>
-      <c r="D52" s="39" t="s">
-        <v>431</v>
-      </c>
-      <c r="E52" s="40" t="s">
-        <v>432</v>
       </c>
       <c r="M52" s="10">
         <v>0</v>
@@ -10820,10 +10311,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="38" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D53" s="39" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E53" s="40" t="s">
         <v>424</v>
@@ -10859,10 +10350,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="38" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D54" s="39" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E54" s="40" t="s">
         <v>414</v>
@@ -12020,23 +11511,23 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1:T1048576" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1:T1048576">
       <formula1>"Initial,Potential,Customer,Support,Upsells,Reject,Not-Contacted,Ex-Customer"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576">
       <formula1>"Rahul Dutta,Sayan Basak,Anirban Chakraborty,Debashish Nath"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576" xr:uid="{00000000-0002-0000-0200-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576">
       <formula1>"Technical,Non-Technical"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C36" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="C37" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="D41" r:id="rId3" display="https://www.google.com/search?sca_esv=597127733&amp;rlz=1C1CHBF_enAU1047AU1047&amp;tbs=lf:1,lf_ui:2&amp;tbm=lcl&amp;sxsrf=ACQVn0-yjBygfThguW8-plBveMrMzDiPGw:1704870884151&amp;q=engineering+colleges+in+south+calcutta&amp;rflfq=1&amp;num=10&amp;sa=X&amp;ved=2ahUKEwjQ47_7otKDAxUve2wGHY_pCzEQjGp6BAgXEAE&amp;biw=1536&amp;bih=730&amp;dpr=1.25" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="C43" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="D47" r:id="rId5" display="https://www.google.com/search?q=engineering+colleges+kolkata&amp;sca_esv=597127733&amp;rlz=1C1CHBF_enAU1047AU1047&amp;biw=1536&amp;bih=730&amp;tbm=lcl&amp;sxsrf=ACQVn09cs4SfDApVNizAZQHyNbKrHkG1kw%3A1704870889163&amp;ei=6UOeZYunCcqWseMP2bOt0A4&amp;ved=0ahUKEwjLv_H9otKDAxVKS2wGHdlZC-oQ4dUDCAk&amp;uact=5&amp;oq=engineering+colleges+kolkata&amp;gs_lp=Eg1nd3Mtd2l6LWxvY2FsIhxlbmdpbmVlcmluZyBjb2xsZWdlcyBrb2xrYXRhMgUQABiABDIGEAAYFhgeMgYQABgWGB4yCBAAGBYYHhgPMgYQABgWGB4yBhAAGBYYHjIGEAAYFhgeMgYQABgWGB4yBhAAGBYYHjIGEAAYFhgeSPErUNUEWOgmcAF4AJABAZgBqwGgAb0XqgEEMC4yM7gBA8gBAPgBAcICCxAAGIAEGIoFGIYDwgIEECMYJ8ICCxAAGIAEGIoFGJECwgIKEAAYgAQYFBiHAsICDhAAGIAEGIoFGJECGMkDiAYB&amp;sclient=gws-wiz-local" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="C49" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="C36" r:id="rId1"/>
+    <hyperlink ref="C37" r:id="rId2"/>
+    <hyperlink ref="D41" r:id="rId3" display="https://www.google.com/search?sca_esv=597127733&amp;rlz=1C1CHBF_enAU1047AU1047&amp;tbs=lf:1,lf_ui:2&amp;tbm=lcl&amp;sxsrf=ACQVn0-yjBygfThguW8-plBveMrMzDiPGw:1704870884151&amp;q=engineering+colleges+in+south+calcutta&amp;rflfq=1&amp;num=10&amp;sa=X&amp;ved=2ahUKEwjQ47_7otKDAxUve2wGHY_pCzEQjGp6BAgXEAE&amp;biw=1536&amp;bih=730&amp;dpr=1.25"/>
+    <hyperlink ref="C43" r:id="rId4"/>
+    <hyperlink ref="D47" r:id="rId5" display="https://www.google.com/search?q=engineering+colleges+kolkata&amp;sca_esv=597127733&amp;rlz=1C1CHBF_enAU1047AU1047&amp;biw=1536&amp;bih=730&amp;tbm=lcl&amp;sxsrf=ACQVn09cs4SfDApVNizAZQHyNbKrHkG1kw%3A1704870889163&amp;ei=6UOeZYunCcqWseMP2bOt0A4&amp;ved=0ahUKEwjLv_H9otKDAxVKS2wGHdlZC-oQ4dUDCAk&amp;uact=5&amp;oq=engineering+colleges+kolkata&amp;gs_lp=Eg1nd3Mtd2l6LWxvY2FsIhxlbmdpbmVlcmluZyBjb2xsZWdlcyBrb2xrYXRhMgUQABiABDIGEAAYFhgeMgYQABgWGB4yCBAAGBYYHhgPMgYQABgWGB4yBhAAGBYYHjIGEAAYFhgeMgYQABgWGB4yBhAAGBYYHjIGEAAYFhgeSPErUNUEWOgmcAF4AJABAZgBqwGgAb0XqgEEMC4yM7gBA8gBAPgBAcICCxAAGIAEGIoFGIYDwgIEECMYJ8ICCxAAGIAEGIoFGJECwgIKEAAYgAQYFBiHAsICDhAAGIAEGIoFGJECGMkDiAYB&amp;sclient=gws-wiz-local"/>
+    <hyperlink ref="C49" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
@@ -12045,7 +11536,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Offline/BusinessManagement/Marketing/AI marketing/AI Workshop Schools-Colleges.xlsx
+++ b/Offline/BusinessManagement/Marketing/AI marketing/AI Workshop Schools-Colleges.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Marketing\AI marketing\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02AF92B-0BDE-40DF-B3F0-A7769EFBDDD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="506" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="506" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="8" r:id="rId1"/>
@@ -20,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'School-Details'!$A$1:$U$122</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,13 +40,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>del</author>
     <author>User</author>
   </authors>
   <commentList>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -69,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L28" authorId="1" shapeId="0">
+    <comment ref="L28" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -88,12 +89,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>del</author>
   </authors>
   <commentList>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -122,7 +123,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="440">
   <si>
     <t>CBSE</t>
   </si>
@@ -1445,12 +1446,21 @@
   </si>
   <si>
     <t>IEM PUBLIC SCHOOL, new town</t>
+  </si>
+  <si>
+    <t>Start Calling Date</t>
+  </si>
+  <si>
+    <t>Call Per Day</t>
+  </si>
+  <si>
+    <t>Today's Date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1589,7 +1599,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1770,12 +1780,87 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1909,6 +1994,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2191,11 +2290,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:R30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:R31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2215,121 +2314,104 @@
     <col min="17" max="17" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:18" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="B2" s="27"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="54" t="s">
+    <row r="2" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:18" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.7">
+      <c r="B3" s="27"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="64" t="s">
         <v>293</v>
       </c>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="29"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="54" t="s">
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="29"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="54" t="s">
         <v>374</v>
       </c>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="29"/>
-    </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B3" s="30"/>
-      <c r="I3" s="31"/>
-      <c r="K3" s="30"/>
-      <c r="R3" s="31"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="29"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B4" s="30"/>
-      <c r="C4" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="D4" s="16">
-        <f>MAX('School-Details'!A:A)</f>
-        <v>123</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>266</v>
-      </c>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
       <c r="I4" s="31"/>
       <c r="K4" s="30"/>
-      <c r="L4" s="16" t="s">
-        <v>366</v>
-      </c>
-      <c r="M4" s="14">
-        <f>COUNTIF('College-Details'!J:J,L4)</f>
-        <v>0</v>
-      </c>
-      <c r="O4" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="P4" s="21" t="s">
-        <v>266</v>
-      </c>
       <c r="R4" s="31"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B5" s="30"/>
       <c r="C5" s="16" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D5" s="16">
-        <f>ROUND(SUM('School-Details'!K:K)/D4,2)</f>
-        <v>0.01</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="G5" s="14">
-        <f>COUNTIF('School-Details'!M:M,F5)</f>
-        <v>0</v>
-      </c>
+        <f>MAX('School-Details'!A:A)</f>
+        <v>123</v>
+      </c>
+      <c r="E5" s="59"/>
+      <c r="F5" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="H5" s="59"/>
       <c r="I5" s="31"/>
       <c r="K5" s="30"/>
       <c r="L5" s="16" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M5" s="14">
         <f>COUNTIF('College-Details'!J:J,L5)</f>
         <v>0</v>
       </c>
-      <c r="O5" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="P5" s="14">
-        <f>COUNTIF('College-Details'!L:L,O5)</f>
-        <v>0</v>
+      <c r="O5" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="P5" s="21" t="s">
+        <v>266</v>
       </c>
       <c r="R5" s="31"/>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B6" s="30"/>
+      <c r="C6" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="D6" s="16">
+        <f>ROUND(SUM('School-Details'!K:K)/D5,2)</f>
+        <v>0.01</v>
+      </c>
+      <c r="E6" s="59"/>
       <c r="F6" s="14" t="s">
-        <v>267</v>
+        <v>210</v>
       </c>
       <c r="G6" s="14">
         <f>COUNTIF('School-Details'!M:M,F6)</f>
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" s="59"/>
       <c r="I6" s="31"/>
       <c r="K6" s="30"/>
       <c r="L6" s="16" t="s">
-        <v>368</v>
-      </c>
-      <c r="M6" s="16">
-        <f>MAX('College-Details'!A:A)</f>
-        <v>53</v>
+        <v>367</v>
+      </c>
+      <c r="M6" s="14">
+        <f>COUNTIF('College-Details'!J:J,L6)</f>
+        <v>0</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>267</v>
+        <v>210</v>
       </c>
       <c r="P6" s="14">
         <f>COUNTIF('College-Details'!L:L,O6)</f>
@@ -2339,30 +2421,32 @@
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B7" s="30"/>
-      <c r="C7" s="21" t="s">
-        <v>247</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>264</v>
-      </c>
+      <c r="C7" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="D7" s="60">
+        <v>45299</v>
+      </c>
+      <c r="E7" s="59"/>
       <c r="F7" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G7" s="14">
         <f>COUNTIF('School-Details'!M:M,F7)</f>
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H7" s="59"/>
       <c r="I7" s="31"/>
       <c r="K7" s="30"/>
       <c r="L7" s="16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="M7" s="16">
-        <f>SUM('College-Details'!I:I)/M6</f>
-        <v>0</v>
+        <f>MAX('College-Details'!A:A)</f>
+        <v>53</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="P7" s="14">
         <f>COUNTIF('College-Details'!L:L,O7)</f>
@@ -2372,24 +2456,33 @@
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B8" s="30"/>
-      <c r="C8" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="D8" s="14">
-        <f>COUNTIF('School-Details'!U:U,C8)</f>
-        <v>13</v>
-      </c>
+      <c r="C8" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="D8" s="60">
+        <f ca="1">TODAY()</f>
+        <v>45301</v>
+      </c>
+      <c r="E8" s="59"/>
       <c r="F8" s="14" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="G8" s="14">
         <f>COUNTIF('School-Details'!M:M,F8)</f>
         <v>0</v>
       </c>
+      <c r="H8" s="59"/>
       <c r="I8" s="31"/>
       <c r="K8" s="30"/>
+      <c r="L8" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="M8" s="16">
+        <f>SUM('College-Details'!I:I)/M7</f>
+        <v>0</v>
+      </c>
       <c r="O8" s="14" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="P8" s="14">
         <f>COUNTIF('College-Details'!L:L,O8)</f>
@@ -2399,138 +2492,130 @@
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B9" s="30"/>
-      <c r="C9" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="D9" s="14">
-        <f>COUNTIF('School-Details'!U:U,C9)</f>
-        <v>0</v>
-      </c>
+      <c r="C9" s="16" t="s">
+        <v>438</v>
+      </c>
+      <c r="D9" s="61">
+        <f ca="1">ROUND(D12/(D8-D7+1),0)</f>
+        <v>4</v>
+      </c>
+      <c r="E9" s="59"/>
+      <c r="F9" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="G9" s="14">
+        <f>COUNTIF('School-Details'!M:M,F9)</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="59"/>
       <c r="I9" s="31"/>
       <c r="K9" s="30"/>
-      <c r="L9" s="21" t="s">
-        <v>247</v>
-      </c>
-      <c r="M9" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="O9" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="P9" s="16">
-        <f>SUM(P5:P8)</f>
+      <c r="O9" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="P9" s="14">
+        <f>COUNTIF('College-Details'!L:L,O9)</f>
         <v>0</v>
       </c>
       <c r="R9" s="31"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B10" s="30"/>
-      <c r="C10" s="14" t="s">
-        <v>255</v>
-      </c>
-      <c r="D10" s="14">
-        <f>COUNTIF('School-Details'!U:U,C10)</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="53" t="s">
-        <v>210</v>
-      </c>
-      <c r="H10" s="53"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
       <c r="I10" s="31"/>
       <c r="K10" s="30"/>
-      <c r="L10" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="M10" s="14">
-        <f>COUNTIF('College-Details'!T:T,L10)</f>
+      <c r="L10" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="M10" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="O10" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="P10" s="16">
+        <f>SUM(P6:P9)</f>
         <v>0</v>
       </c>
       <c r="R10" s="31"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B11" s="30"/>
-      <c r="C11" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="D11" s="14">
-        <f>COUNTIF('School-Details'!U:U,C11)</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>269</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>270</v>
-      </c>
-      <c r="H11" s="21" t="s">
-        <v>271</v>
-      </c>
+      <c r="C11" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="E11" s="59"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="53" t="s">
+        <v>210</v>
+      </c>
+      <c r="H11" s="53"/>
       <c r="I11" s="31"/>
       <c r="K11" s="30"/>
       <c r="L11" s="14" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="M11" s="14">
         <f>COUNTIF('College-Details'!T:T,L11)</f>
         <v>0</v>
       </c>
-      <c r="O11" s="14"/>
-      <c r="P11" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q11" s="58"/>
       <c r="R11" s="31"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B12" s="30"/>
       <c r="C12" s="14" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="D12" s="14">
         <f>COUNTIF('School-Details'!U:U,C12)</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="22">
-        <v>45292</v>
-      </c>
-      <c r="G12" s="14">
-        <v>0</v>
-      </c>
-      <c r="H12" s="14">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="E12" s="59"/>
+      <c r="F12" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>271</v>
       </c>
       <c r="I12" s="31"/>
       <c r="K12" s="30"/>
       <c r="L12" s="14" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="M12" s="14">
         <f>COUNTIF('College-Details'!T:T,L12)</f>
         <v>0</v>
       </c>
-      <c r="O12" s="21" t="s">
-        <v>269</v>
-      </c>
-      <c r="P12" s="21" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q12" s="21" t="s">
-        <v>271</v>
-      </c>
+      <c r="O12" s="14"/>
+      <c r="P12" s="57" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q12" s="58"/>
       <c r="R12" s="31"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B13" s="30"/>
       <c r="C13" s="14" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="D13" s="14">
         <f>COUNTIF('School-Details'!U:U,C13)</f>
         <v>0</v>
       </c>
+      <c r="E13" s="59"/>
       <c r="F13" s="22">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="G13" s="14">
         <v>0</v>
@@ -2541,34 +2626,35 @@
       <c r="I13" s="31"/>
       <c r="K13" s="30"/>
       <c r="L13" s="14" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="M13" s="14">
         <f>COUNTIF('College-Details'!T:T,L13)</f>
         <v>0</v>
       </c>
-      <c r="O13" s="22">
-        <v>45292</v>
-      </c>
-      <c r="P13" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="14">
-        <v>0</v>
+      <c r="O13" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="P13" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q13" s="21" t="s">
+        <v>271</v>
       </c>
       <c r="R13" s="31"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B14" s="30"/>
       <c r="C14" s="14" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="D14" s="14">
         <f>COUNTIF('School-Details'!U:U,C14)</f>
-        <v>110</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E14" s="59"/>
       <c r="F14" s="22">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="G14" s="14">
         <v>0</v>
@@ -2579,14 +2665,14 @@
       <c r="I14" s="31"/>
       <c r="K14" s="30"/>
       <c r="L14" s="14" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="M14" s="14">
         <f>COUNTIF('College-Details'!T:T,L14)</f>
         <v>0</v>
       </c>
       <c r="O14" s="22">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="P14" s="14">
         <v>0</v>
@@ -2599,14 +2685,15 @@
     <row r="15" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B15" s="30"/>
       <c r="C15" s="14" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="D15" s="14">
         <f>COUNTIF('School-Details'!U:U,C15)</f>
         <v>0</v>
       </c>
+      <c r="E15" s="59"/>
       <c r="F15" s="22">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="G15" s="14">
         <v>0</v>
@@ -2617,14 +2704,14 @@
       <c r="I15" s="31"/>
       <c r="K15" s="30"/>
       <c r="L15" s="14" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="M15" s="14">
         <f>COUNTIF('College-Details'!T:T,L15)</f>
         <v>0</v>
       </c>
       <c r="O15" s="22">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="P15" s="14">
         <v>0</v>
@@ -2636,15 +2723,16 @@
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B16" s="30"/>
-      <c r="C16" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="D16" s="16">
-        <f>SUM(D8:D15)</f>
-        <v>123</v>
-      </c>
+      <c r="C16" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="D16" s="14">
+        <f>COUNTIF('School-Details'!U:U,C16)</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="59"/>
       <c r="F16" s="22">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="G16" s="14">
         <v>0</v>
@@ -2655,14 +2743,14 @@
       <c r="I16" s="31"/>
       <c r="K16" s="30"/>
       <c r="L16" s="14" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M16" s="14">
         <f>COUNTIF('College-Details'!T:T,L16)</f>
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="O16" s="22">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="P16" s="14">
         <v>0</v>
@@ -2674,8 +2762,16 @@
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B17" s="30"/>
+      <c r="C17" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="D17" s="14">
+        <f>COUNTIF('School-Details'!U:U,C17)</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="59"/>
       <c r="F17" s="22">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="G17" s="14">
         <v>0</v>
@@ -2686,14 +2782,14 @@
       <c r="I17" s="31"/>
       <c r="K17" s="30"/>
       <c r="L17" s="14" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="M17" s="14">
         <f>COUNTIF('College-Details'!T:T,L17)</f>
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="O17" s="22">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="P17" s="14">
         <v>0</v>
@@ -2704,15 +2800,17 @@
       <c r="R17" s="31"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B18" s="32"/>
-      <c r="C18" s="21" t="s">
-        <v>274</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>264</v>
-      </c>
+      <c r="B18" s="30"/>
+      <c r="C18" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="D18" s="14">
+        <f>COUNTIF('School-Details'!U:U,C18)</f>
+        <v>110</v>
+      </c>
+      <c r="E18" s="59"/>
       <c r="F18" s="22">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="G18" s="14">
         <v>0</v>
@@ -2722,15 +2820,15 @@
       </c>
       <c r="I18" s="31"/>
       <c r="K18" s="30"/>
-      <c r="L18" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="M18" s="16">
-        <f>SUM(M10:M17)</f>
-        <v>53</v>
+      <c r="L18" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="M18" s="14">
+        <f>COUNTIF('College-Details'!T:T,L18)</f>
+        <v>0</v>
       </c>
       <c r="O18" s="22">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="P18" s="14">
         <v>0</v>
@@ -2741,18 +2839,17 @@
       <c r="R18" s="31"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B19" s="33" t="s">
-        <v>272</v>
-      </c>
-      <c r="C19" s="14">
-        <v>5</v>
+      <c r="B19" s="30"/>
+      <c r="C19" s="14" t="s">
+        <v>279</v>
       </c>
       <c r="D19" s="14">
-        <f>COUNTIF('School-Details'!T:T,C19)</f>
-        <v>10</v>
-      </c>
+        <f>COUNTIF('School-Details'!U:U,C19)</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="59"/>
       <c r="F19" s="22">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="G19" s="14">
         <v>0</v>
@@ -2762,125 +2859,120 @@
       </c>
       <c r="I19" s="31"/>
       <c r="K19" s="30"/>
+      <c r="L19" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="M19" s="16">
+        <f>SUM(M11:M18)</f>
+        <v>53</v>
+      </c>
       <c r="O19" s="22">
+        <v>45444</v>
+      </c>
+      <c r="P19" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="14">
+        <v>0</v>
+      </c>
+      <c r="R19" s="31"/>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B20" s="30"/>
+      <c r="C20" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="D20" s="16">
+        <f>SUM(D12:D19)</f>
+        <v>123</v>
+      </c>
+      <c r="E20" s="59"/>
+      <c r="F20" s="22">
+        <v>45505</v>
+      </c>
+      <c r="G20" s="14">
+        <v>0</v>
+      </c>
+      <c r="H20" s="14">
+        <v>0</v>
+      </c>
+      <c r="I20" s="31"/>
+      <c r="K20" s="30"/>
+      <c r="O20" s="22">
         <v>45474</v>
       </c>
-      <c r="P19" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="14">
-        <v>0</v>
-      </c>
-      <c r="R19" s="31"/>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B20" s="33"/>
-      <c r="C20" s="14">
-        <v>4</v>
-      </c>
-      <c r="D20" s="14">
-        <f>COUNTIF('School-Details'!T:T,C20)</f>
-        <v>53</v>
-      </c>
-      <c r="F20" s="22">
+      <c r="P20" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="14">
+        <v>0</v>
+      </c>
+      <c r="R20" s="31"/>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B21" s="30"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="22">
         <v>45536</v>
       </c>
-      <c r="G20" s="14">
-        <v>0</v>
-      </c>
-      <c r="H20" s="14">
-        <v>0</v>
-      </c>
-      <c r="I20" s="31"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="21" t="s">
+      <c r="G21" s="14">
+        <v>0</v>
+      </c>
+      <c r="H21" s="14">
+        <v>0</v>
+      </c>
+      <c r="I21" s="31"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="21" t="s">
         <v>370</v>
       </c>
-      <c r="M20" s="21" t="s">
+      <c r="M21" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="O20" s="22">
+      <c r="O21" s="22">
         <v>45505</v>
       </c>
-      <c r="P20" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="14">
-        <v>0</v>
-      </c>
-      <c r="R20" s="31"/>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B21" s="33"/>
-      <c r="C21" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="D21" s="14">
-        <f>SUM(D19:D20)</f>
-        <v>63</v>
-      </c>
-      <c r="F21" s="22">
+      <c r="P21" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="14">
+        <v>0</v>
+      </c>
+      <c r="R21" s="31"/>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B22" s="32"/>
+      <c r="C22" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="E22" s="59"/>
+      <c r="F22" s="22">
         <v>45566</v>
       </c>
-      <c r="G21" s="14">
-        <v>0</v>
-      </c>
-      <c r="H21" s="14">
-        <v>0</v>
-      </c>
-      <c r="I21" s="31"/>
-      <c r="K21" s="33" t="s">
+      <c r="G22" s="14">
+        <v>0</v>
+      </c>
+      <c r="H22" s="14">
+        <v>0</v>
+      </c>
+      <c r="I22" s="31"/>
+      <c r="K22" s="33" t="s">
         <v>272</v>
       </c>
-      <c r="L21" s="14">
-        <v>5</v>
-      </c>
-      <c r="M21" s="14">
-        <f>COUNTIF('College-Details'!S:S,L21)</f>
-        <v>0</v>
-      </c>
-      <c r="O21" s="22">
-        <v>45536</v>
-      </c>
-      <c r="P21" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="14">
-        <v>0</v>
-      </c>
-      <c r="R21" s="31"/>
-    </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B22" s="33" t="s">
-        <v>278</v>
-      </c>
-      <c r="C22" s="14">
-        <v>3</v>
-      </c>
-      <c r="D22" s="14">
-        <f>COUNTIF('School-Details'!T:T,C22)</f>
-        <v>50</v>
-      </c>
-      <c r="F22" s="22">
-        <v>45597</v>
-      </c>
-      <c r="G22" s="14">
-        <v>0</v>
-      </c>
-      <c r="H22" s="14">
-        <v>0</v>
-      </c>
-      <c r="I22" s="31"/>
-      <c r="K22" s="33"/>
       <c r="L22" s="14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M22" s="14">
         <f>COUNTIF('College-Details'!S:S,L22)</f>
         <v>0</v>
       </c>
       <c r="O22" s="22">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="P22" s="14">
         <v>0</v>
@@ -2891,16 +2983,19 @@
       <c r="R22" s="31"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B23" s="33"/>
-      <c r="C23" s="14" t="s">
-        <v>277</v>
+      <c r="B23" s="33" t="s">
+        <v>272</v>
+      </c>
+      <c r="C23" s="14">
+        <v>5</v>
       </c>
       <c r="D23" s="14">
-        <f>SUM(D22)</f>
-        <v>50</v>
-      </c>
+        <f>COUNTIF('School-Details'!T:T,C23)</f>
+        <v>10</v>
+      </c>
+      <c r="E23" s="59"/>
       <c r="F23" s="22">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="G23" s="14">
         <v>0</v>
@@ -2910,15 +3005,15 @@
       </c>
       <c r="I23" s="31"/>
       <c r="K23" s="33"/>
-      <c r="L23" s="14" t="s">
-        <v>371</v>
+      <c r="L23" s="14">
+        <v>4</v>
       </c>
       <c r="M23" s="14">
-        <f>SUM(M21:M22)</f>
+        <f>COUNTIF('College-Details'!S:S,L23)</f>
         <v>0</v>
       </c>
       <c r="O23" s="22">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="P23" s="14">
         <v>0</v>
@@ -2929,40 +3024,35 @@
       <c r="R23" s="31"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B24" s="33" t="s">
-        <v>273</v>
-      </c>
+      <c r="B24" s="33"/>
       <c r="C24" s="14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" s="14">
         <f>COUNTIF('School-Details'!T:T,C24)</f>
-        <v>10</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="G24" s="16">
-        <f>SUM(G12:G23)</f>
-        <v>0</v>
-      </c>
-      <c r="H24" s="16">
-        <f>SUM(H12:H23)</f>
+        <v>53</v>
+      </c>
+      <c r="E24" s="59"/>
+      <c r="F24" s="22">
+        <v>45627</v>
+      </c>
+      <c r="G24" s="14">
+        <v>0</v>
+      </c>
+      <c r="H24" s="14">
         <v>0</v>
       </c>
       <c r="I24" s="31"/>
-      <c r="K24" s="33" t="s">
-        <v>278</v>
-      </c>
-      <c r="L24" s="14">
-        <v>3</v>
+      <c r="K24" s="33"/>
+      <c r="L24" s="14" t="s">
+        <v>371</v>
       </c>
       <c r="M24" s="14">
-        <f>COUNTIF('College-Details'!S:S,L24)</f>
+        <f>SUM(M22:M23)</f>
         <v>0</v>
       </c>
       <c r="O24" s="22">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="P24" s="14">
         <v>0</v>
@@ -2974,70 +3064,103 @@
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B25" s="33"/>
-      <c r="C25" s="14">
-        <v>1</v>
+      <c r="C25" s="14" t="s">
+        <v>275</v>
       </c>
       <c r="D25" s="14">
-        <f>COUNTIF('School-Details'!T:T,C25)</f>
+        <f>SUM(D23:D24)</f>
+        <v>63</v>
+      </c>
+      <c r="E25" s="59"/>
+      <c r="F25" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="G25" s="16">
+        <f>SUM(G13:G24)</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="16">
+        <f>SUM(H13:H24)</f>
         <v>0</v>
       </c>
       <c r="I25" s="31"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="14" t="s">
+      <c r="K25" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="L25" s="14">
+        <v>3</v>
+      </c>
+      <c r="M25" s="14">
+        <f>COUNTIF('College-Details'!S:S,L25)</f>
+        <v>0</v>
+      </c>
+      <c r="O25" s="22">
+        <v>45627</v>
+      </c>
+      <c r="P25" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="14">
+        <v>0</v>
+      </c>
+      <c r="R25" s="31"/>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B26" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="C26" s="14">
+        <v>3</v>
+      </c>
+      <c r="D26" s="14">
+        <f>COUNTIF('School-Details'!T:T,C26)</f>
+        <v>50</v>
+      </c>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="31"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="14" t="s">
         <v>372</v>
       </c>
-      <c r="M25" s="14">
-        <f>SUM(M24)</f>
-        <v>0</v>
-      </c>
-      <c r="O25" s="16" t="s">
+      <c r="M26" s="14">
+        <f>SUM(M25)</f>
+        <v>0</v>
+      </c>
+      <c r="O26" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="P25" s="16">
-        <f>SUM(P13:P24)</f>
-        <v>0</v>
-      </c>
-      <c r="Q25" s="16">
-        <f>SUM(Q13:Q24)</f>
-        <v>0</v>
-      </c>
-      <c r="R25" s="31"/>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B26" s="33"/>
-      <c r="C26" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="D26" s="14">
-        <f>SUM(D24:D25)</f>
-        <v>10</v>
-      </c>
-      <c r="I26" s="31"/>
-      <c r="K26" s="33" t="s">
-        <v>273</v>
-      </c>
-      <c r="L26" s="14">
-        <v>2</v>
-      </c>
-      <c r="M26" s="14">
-        <f>COUNTIF('College-Details'!S:S,L26)</f>
+      <c r="P26" s="16">
+        <f>SUM(P14:P25)</f>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="16">
+        <f>SUM(Q14:Q25)</f>
         <v>0</v>
       </c>
       <c r="R26" s="31"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B27" s="33"/>
-      <c r="C27" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="D27" s="16">
-        <f>D21+D23+D26</f>
-        <v>123</v>
-      </c>
+      <c r="C27" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="D27" s="14">
+        <f>SUM(D26)</f>
+        <v>50</v>
+      </c>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
       <c r="I27" s="31"/>
-      <c r="K27" s="33"/>
+      <c r="K27" s="33" t="s">
+        <v>273</v>
+      </c>
       <c r="L27" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M27" s="14">
         <f>COUNTIF('College-Details'!S:S,L27)</f>
@@ -3045,52 +3168,109 @@
       </c>
       <c r="R27" s="31"/>
     </row>
-    <row r="28" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="34"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="36"/>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B28" s="33" t="s">
+        <v>273</v>
+      </c>
+      <c r="C28" s="14">
+        <v>2</v>
+      </c>
+      <c r="D28" s="14">
+        <f>COUNTIF('School-Details'!T:T,C28)</f>
+        <v>10</v>
+      </c>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="31"/>
       <c r="K28" s="33"/>
-      <c r="L28" s="14" t="s">
+      <c r="L28" s="14">
+        <v>1</v>
+      </c>
+      <c r="M28" s="14">
+        <f>COUNTIF('College-Details'!S:S,L28)</f>
+        <v>0</v>
+      </c>
+      <c r="R28" s="31"/>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B29" s="33"/>
+      <c r="C29" s="14">
+        <v>1</v>
+      </c>
+      <c r="D29" s="14">
+        <f>COUNTIF('School-Details'!T:T,C29)</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="31"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="14" t="s">
         <v>373</v>
       </c>
-      <c r="M28" s="14">
-        <f>SUM(M26:M27)</f>
-        <v>0</v>
-      </c>
-      <c r="R28" s="31"/>
-    </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="K29" s="33"/>
-      <c r="L29" s="16" t="s">
+      <c r="M29" s="14">
+        <f>SUM(M27:M28)</f>
+        <v>0</v>
+      </c>
+      <c r="R29" s="31"/>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B30" s="33"/>
+      <c r="C30" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D30" s="14">
+        <f>SUM(D28:D29)</f>
+        <v>10</v>
+      </c>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="31"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="M29" s="16">
-        <f>M23+M25+M28</f>
-        <v>0</v>
-      </c>
-      <c r="R29" s="31"/>
-    </row>
-    <row r="30" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K30" s="34"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="35"/>
-      <c r="O30" s="35"/>
-      <c r="P30" s="35"/>
-      <c r="Q30" s="35"/>
-      <c r="R30" s="36"/>
+      <c r="M30" s="16">
+        <f>M24+M26+M29</f>
+        <v>0</v>
+      </c>
+      <c r="R30" s="31"/>
+    </row>
+    <row r="31" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="62"/>
+      <c r="C31" s="63" t="s">
+        <v>244</v>
+      </c>
+      <c r="D31" s="63">
+        <f>D25+D27+D30</f>
+        <v>123</v>
+      </c>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="36"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="35"/>
+      <c r="O31" s="35"/>
+      <c r="P31" s="35"/>
+      <c r="Q31" s="35"/>
+      <c r="R31" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="M3:Q3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3098,11 +3278,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="F23" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="F47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="W128" sqref="W128"/>
@@ -8215,68 +8395,68 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U122"/>
+  <autoFilter ref="A1:U122" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U1:U1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U1:U1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Initial,Potential,Customer,Support,Upsells,Reject,Not-Contacted,Ex-Customer"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Rahul Dutta,Sayan Basak,Anirban Chakraborty,Debashish Nath"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D31" r:id="rId1"/>
-    <hyperlink ref="D32" r:id="rId2"/>
-    <hyperlink ref="F7" r:id="rId3" display="https://www.google.com/search?q=panchasayar+siksha+niketan&amp;sca_esv=593615924&amp;rlz=1C1CHBF_enAU1047AU1047&amp;sxsrf=AM9HkKnlKkWvrpmDIvMzNnJR8ZC_8s6gNQ%3A1703524925488&amp;ei=PbqJZaauHY2KnesPo--TuAo&amp;gs_ssp=eJzj4tFP1zc0MqnMzTa1TDNgtFI1qDBONDAyNzRPNU1LM0xOTkuyAgqZpJmZmJgnGZgZGSWnpSV5SRUk5iVnJBYnViYWKRRnZhdnJCrkZWanliTmAQC7Qxln&amp;oq=panchasayar+s&amp;gs_lp=Egxnd3Mtd2l6LXNlcnAiDXBhbmNoYXNheWFyIHMqAggAMhQQLhivARjHARimAxioAxiABBiOBTIFEAAYgAQyBRAAGIAEMgsQLhiABBioAxidAzIFEAAYgAQyBRAAGIAEMgUQABiABDIFEAAYgAQyCBAAGIAEGMsBMggQABiABBjLATIjEC4YrwEYxwEYpgMYqAMYgAQYjgUYlwUY3AQY3gQY4ATYAQNIuzhQmhhYmCVwAXgBkAEAmAGvAqAB1gSqAQUyLTEuMbgBAcgBAPgBAcICChAAGEcY1gQYsAPCAg0QABiABBiKBRhDGLADwgIcEC4YgAQYigUYQxjHARivARjIAxiwAxiOBdgBAcICGRAuGIAEGIoFGEMYxwEYrwEYyAMYsAPYAQHCAg4QABjkAhjWBBiwA9gBAsICEBAuGEMYnQMYqAMYgAQYigXCAhAQLhiABBiKBRhDGKgDGJ0DwgIWEC4YQxivARjHARimAxioAxiABBiKBcICChAAGIAEGBQYhwLCAh8QLhhDGJ0DGKgDGIAEGIoFGJcFGNwEGN4EGOAE2AED4gMEGAAgQYgGAZAGDroGBggBEAEYCLoGBggCEAEYCboGBggDEAEYFA&amp;sclient=gws-wiz-serp"/>
-    <hyperlink ref="F8" r:id="rId4" display="https://www.google.com/search?q=miranda+high+school&amp;sca_esv=593615924&amp;rlz=1C1CHBF_enAU1047AU1047&amp;sxsrf=AM9HkKmR8dFtasrVNGZkMFIxGz5Wq06ZjA%3A1703525037148&amp;ei=rbqJZczSCOCWjuMPsMy_8AM&amp;oq=miranda+high+&amp;gs_lp=Egxnd3Mtd2l6LXNlcnAiDW1pcmFuZGEgaGlnaCAqAggAMg0QABiABBgUGIcCGMkDMgUQABiABDILEAAYgAQYigUYkgMyBRAAGIAEMgUQABiABDIKEAAYgAQYFBiHAjIFEAAYgAQyBRAAGIAEMgUQABiABDIFEAAYgARI7RNQ6AZY6AZwAXgAkAEAmAH0BqABuAyqAQM2LTK4AQHIAQD4AQHCAgoQABhHGNYEGLAD4gMEGAAgQYgGAZAGCA&amp;sclient=gws-wiz-serp&amp;lqi=ChNtaXJhbmRhIGhpZ2ggc2Nob29sSN-07OW4roCACForEAAQARACGAAYARgCIhNtaXJhbmRhIGhpZ2ggc2Nob29sKggIAhAAEAEQApIBBnNjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOUGNqUnVSbVZuRUFFqgE7EAEyHhABIhpTQ3iPFiqMHHb-9vGb0lli1Rpc5Z8xE87GgDIXEAIiE21pcmFuZGEgaGlnaCBzY2hvb2w"/>
-    <hyperlink ref="D22" r:id="rId5"/>
-    <hyperlink ref="D25" r:id="rId6" display="mailto:official@younghorizonsschool.com"/>
-    <hyperlink ref="D26" r:id="rId7" display="mailto:iwanttojoin@siskol.edu.in"/>
-    <hyperlink ref="D27" r:id="rId8" display="mailto:lcgvm2012@gmail.com"/>
-    <hyperlink ref="D30" r:id="rId9"/>
-    <hyperlink ref="D33" r:id="rId10"/>
-    <hyperlink ref="D35" r:id="rId11"/>
-    <hyperlink ref="D37" r:id="rId12"/>
-    <hyperlink ref="D41" r:id="rId13"/>
-    <hyperlink ref="D42" r:id="rId14"/>
-    <hyperlink ref="D43" r:id="rId15"/>
-    <hyperlink ref="D47" r:id="rId16"/>
-    <hyperlink ref="D48" r:id="rId17"/>
-    <hyperlink ref="D49" r:id="rId18"/>
-    <hyperlink ref="D51" r:id="rId19"/>
-    <hyperlink ref="D52" r:id="rId20"/>
-    <hyperlink ref="D53" r:id="rId21"/>
-    <hyperlink ref="D54" r:id="rId22"/>
-    <hyperlink ref="D55" r:id="rId23"/>
-    <hyperlink ref="D56" r:id="rId24"/>
-    <hyperlink ref="D57" r:id="rId25"/>
-    <hyperlink ref="D58" r:id="rId26"/>
-    <hyperlink ref="D59" r:id="rId27"/>
-    <hyperlink ref="D60" r:id="rId28"/>
-    <hyperlink ref="D61" r:id="rId29"/>
-    <hyperlink ref="D62" r:id="rId30"/>
-    <hyperlink ref="D63" r:id="rId31"/>
-    <hyperlink ref="D64" r:id="rId32"/>
-    <hyperlink ref="D65" r:id="rId33"/>
-    <hyperlink ref="D66" r:id="rId34"/>
-    <hyperlink ref="D67" r:id="rId35"/>
-    <hyperlink ref="D68" r:id="rId36"/>
-    <hyperlink ref="D69" r:id="rId37"/>
-    <hyperlink ref="D70" r:id="rId38"/>
-    <hyperlink ref="D71" r:id="rId39"/>
-    <hyperlink ref="D72" r:id="rId40"/>
-    <hyperlink ref="D73" r:id="rId41"/>
-    <hyperlink ref="D75" r:id="rId42"/>
-    <hyperlink ref="D78" r:id="rId43"/>
-    <hyperlink ref="D79" r:id="rId44"/>
-    <hyperlink ref="D80" r:id="rId45"/>
-    <hyperlink ref="D81" r:id="rId46"/>
-    <hyperlink ref="D85" r:id="rId47"/>
-    <hyperlink ref="D88" r:id="rId48"/>
-    <hyperlink ref="D89" r:id="rId49"/>
-    <hyperlink ref="D91" r:id="rId50"/>
-    <hyperlink ref="D2" r:id="rId51"/>
-    <hyperlink ref="D28" r:id="rId52"/>
+    <hyperlink ref="D31" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="D32" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="F7" r:id="rId3" display="https://www.google.com/search?q=panchasayar+siksha+niketan&amp;sca_esv=593615924&amp;rlz=1C1CHBF_enAU1047AU1047&amp;sxsrf=AM9HkKnlKkWvrpmDIvMzNnJR8ZC_8s6gNQ%3A1703524925488&amp;ei=PbqJZaauHY2KnesPo--TuAo&amp;gs_ssp=eJzj4tFP1zc0MqnMzTa1TDNgtFI1qDBONDAyNzRPNU1LM0xOTkuyAgqZpJmZmJgnGZgZGSWnpSV5SRUk5iVnJBYnViYWKRRnZhdnJCrkZWanliTmAQC7Qxln&amp;oq=panchasayar+s&amp;gs_lp=Egxnd3Mtd2l6LXNlcnAiDXBhbmNoYXNheWFyIHMqAggAMhQQLhivARjHARimAxioAxiABBiOBTIFEAAYgAQyBRAAGIAEMgsQLhiABBioAxidAzIFEAAYgAQyBRAAGIAEMgUQABiABDIFEAAYgAQyCBAAGIAEGMsBMggQABiABBjLATIjEC4YrwEYxwEYpgMYqAMYgAQYjgUYlwUY3AQY3gQY4ATYAQNIuzhQmhhYmCVwAXgBkAEAmAGvAqAB1gSqAQUyLTEuMbgBAcgBAPgBAcICChAAGEcY1gQYsAPCAg0QABiABBiKBRhDGLADwgIcEC4YgAQYigUYQxjHARivARjIAxiwAxiOBdgBAcICGRAuGIAEGIoFGEMYxwEYrwEYyAMYsAPYAQHCAg4QABjkAhjWBBiwA9gBAsICEBAuGEMYnQMYqAMYgAQYigXCAhAQLhiABBiKBRhDGKgDGJ0DwgIWEC4YQxivARjHARimAxioAxiABBiKBcICChAAGIAEGBQYhwLCAh8QLhhDGJ0DGKgDGIAEGIoFGJcFGNwEGN4EGOAE2AED4gMEGAAgQYgGAZAGDroGBggBEAEYCLoGBggCEAEYCboGBggDEAEYFA&amp;sclient=gws-wiz-serp" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="F8" r:id="rId4" display="https://www.google.com/search?q=miranda+high+school&amp;sca_esv=593615924&amp;rlz=1C1CHBF_enAU1047AU1047&amp;sxsrf=AM9HkKmR8dFtasrVNGZkMFIxGz5Wq06ZjA%3A1703525037148&amp;ei=rbqJZczSCOCWjuMPsMy_8AM&amp;oq=miranda+high+&amp;gs_lp=Egxnd3Mtd2l6LXNlcnAiDW1pcmFuZGEgaGlnaCAqAggAMg0QABiABBgUGIcCGMkDMgUQABiABDILEAAYgAQYigUYkgMyBRAAGIAEMgUQABiABDIKEAAYgAQYFBiHAjIFEAAYgAQyBRAAGIAEMgUQABiABDIFEAAYgARI7RNQ6AZY6AZwAXgAkAEAmAH0BqABuAyqAQM2LTK4AQHIAQD4AQHCAgoQABhHGNYEGLAD4gMEGAAgQYgGAZAGCA&amp;sclient=gws-wiz-serp&amp;lqi=ChNtaXJhbmRhIGhpZ2ggc2Nob29sSN-07OW4roCACForEAAQARACGAAYARgCIhNtaXJhbmRhIGhpZ2ggc2Nob29sKggIAhAAEAEQApIBBnNjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOUGNqUnVSbVZuRUFFqgE7EAEyHhABIhpTQ3iPFiqMHHb-9vGb0lli1Rpc5Z8xE87GgDIXEAIiE21pcmFuZGEgaGlnaCBzY2hvb2w" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="D22" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="D25" r:id="rId6" display="mailto:official@younghorizonsschool.com" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="D26" r:id="rId7" display="mailto:iwanttojoin@siskol.edu.in" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="D27" r:id="rId8" display="mailto:lcgvm2012@gmail.com" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="D30" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="D33" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="D35" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="D37" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="D41" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="D42" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="D43" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="D47" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="D48" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="D49" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="D51" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="D52" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="D53" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="D54" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="D55" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="D56" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="D57" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="D58" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="D59" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="D60" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="D61" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="D62" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="D63" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="D64" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="D65" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="D66" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="D67" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="D68" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="D69" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="D70" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
+    <hyperlink ref="D71" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
+    <hyperlink ref="D72" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
+    <hyperlink ref="D73" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
+    <hyperlink ref="D75" r:id="rId42" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
+    <hyperlink ref="D78" r:id="rId43" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
+    <hyperlink ref="D79" r:id="rId44" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
+    <hyperlink ref="D80" r:id="rId45" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
+    <hyperlink ref="D81" r:id="rId46" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
+    <hyperlink ref="D85" r:id="rId47" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
+    <hyperlink ref="D88" r:id="rId48" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
+    <hyperlink ref="D89" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
+    <hyperlink ref="D91" r:id="rId50" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
+    <hyperlink ref="D2" r:id="rId51" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
+    <hyperlink ref="D28" r:id="rId52" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId53"/>
@@ -8285,7 +8465,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T179"/>
   <sheetViews>
     <sheetView topLeftCell="D49" workbookViewId="0">
@@ -11511,23 +11691,23 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1:T1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1:T1048576" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Initial,Potential,Customer,Support,Upsells,Reject,Not-Contacted,Ex-Customer"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"Rahul Dutta,Sayan Basak,Anirban Chakraborty,Debashish Nath"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>"Technical,Non-Technical"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C36" r:id="rId1"/>
-    <hyperlink ref="C37" r:id="rId2"/>
-    <hyperlink ref="D41" r:id="rId3" display="https://www.google.com/search?sca_esv=597127733&amp;rlz=1C1CHBF_enAU1047AU1047&amp;tbs=lf:1,lf_ui:2&amp;tbm=lcl&amp;sxsrf=ACQVn0-yjBygfThguW8-plBveMrMzDiPGw:1704870884151&amp;q=engineering+colleges+in+south+calcutta&amp;rflfq=1&amp;num=10&amp;sa=X&amp;ved=2ahUKEwjQ47_7otKDAxUve2wGHY_pCzEQjGp6BAgXEAE&amp;biw=1536&amp;bih=730&amp;dpr=1.25"/>
-    <hyperlink ref="C43" r:id="rId4"/>
-    <hyperlink ref="D47" r:id="rId5" display="https://www.google.com/search?q=engineering+colleges+kolkata&amp;sca_esv=597127733&amp;rlz=1C1CHBF_enAU1047AU1047&amp;biw=1536&amp;bih=730&amp;tbm=lcl&amp;sxsrf=ACQVn09cs4SfDApVNizAZQHyNbKrHkG1kw%3A1704870889163&amp;ei=6UOeZYunCcqWseMP2bOt0A4&amp;ved=0ahUKEwjLv_H9otKDAxVKS2wGHdlZC-oQ4dUDCAk&amp;uact=5&amp;oq=engineering+colleges+kolkata&amp;gs_lp=Eg1nd3Mtd2l6LWxvY2FsIhxlbmdpbmVlcmluZyBjb2xsZWdlcyBrb2xrYXRhMgUQABiABDIGEAAYFhgeMgYQABgWGB4yCBAAGBYYHhgPMgYQABgWGB4yBhAAGBYYHjIGEAAYFhgeMgYQABgWGB4yBhAAGBYYHjIGEAAYFhgeSPErUNUEWOgmcAF4AJABAZgBqwGgAb0XqgEEMC4yM7gBA8gBAPgBAcICCxAAGIAEGIoFGIYDwgIEECMYJ8ICCxAAGIAEGIoFGJECwgIKEAAYgAQYFBiHAsICDhAAGIAEGIoFGJECGMkDiAYB&amp;sclient=gws-wiz-local"/>
-    <hyperlink ref="C49" r:id="rId6"/>
+    <hyperlink ref="C36" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="C37" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="D41" r:id="rId3" display="https://www.google.com/search?sca_esv=597127733&amp;rlz=1C1CHBF_enAU1047AU1047&amp;tbs=lf:1,lf_ui:2&amp;tbm=lcl&amp;sxsrf=ACQVn0-yjBygfThguW8-plBveMrMzDiPGw:1704870884151&amp;q=engineering+colleges+in+south+calcutta&amp;rflfq=1&amp;num=10&amp;sa=X&amp;ved=2ahUKEwjQ47_7otKDAxUve2wGHY_pCzEQjGp6BAgXEAE&amp;biw=1536&amp;bih=730&amp;dpr=1.25" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="C43" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="D47" r:id="rId5" display="https://www.google.com/search?q=engineering+colleges+kolkata&amp;sca_esv=597127733&amp;rlz=1C1CHBF_enAU1047AU1047&amp;biw=1536&amp;bih=730&amp;tbm=lcl&amp;sxsrf=ACQVn09cs4SfDApVNizAZQHyNbKrHkG1kw%3A1704870889163&amp;ei=6UOeZYunCcqWseMP2bOt0A4&amp;ved=0ahUKEwjLv_H9otKDAxVKS2wGHdlZC-oQ4dUDCAk&amp;uact=5&amp;oq=engineering+colleges+kolkata&amp;gs_lp=Eg1nd3Mtd2l6LWxvY2FsIhxlbmdpbmVlcmluZyBjb2xsZWdlcyBrb2xrYXRhMgUQABiABDIGEAAYFhgeMgYQABgWGB4yCBAAGBYYHhgPMgYQABgWGB4yBhAAGBYYHjIGEAAYFhgeMgYQABgWGB4yBhAAGBYYHjIGEAAYFhgeSPErUNUEWOgmcAF4AJABAZgBqwGgAb0XqgEEMC4yM7gBA8gBAPgBAcICCxAAGIAEGIoFGIYDwgIEECMYJ8ICCxAAGIAEGIoFGJECwgIKEAAYgAQYFBiHAsICDhAAGIAEGIoFGJECGMkDiAYB&amp;sclient=gws-wiz-local" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="C49" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
@@ -11536,7 +11716,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Offline/BusinessManagement/Marketing/AI marketing/AI Workshop Schools-Colleges.xlsx
+++ b/Offline/BusinessManagement/Marketing/AI marketing/AI Workshop Schools-Colleges.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Marketing\AI marketing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02AF92B-0BDE-40DF-B3F0-A7769EFBDDD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14036C25-A8DE-44D0-B206-D38F233B8F19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="506" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -123,7 +123,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="440">
   <si>
     <t>CBSE</t>
   </si>
@@ -1599,7 +1599,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1611,32 +1611,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -1747,43 +1721,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -1855,12 +1792,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1920,16 +1894,16 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1978,6 +1952,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1990,24 +1968,14 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2291,10 +2259,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:R31"/>
+  <dimension ref="B1:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2305,280 +2273,308 @@
     <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.33203125" customWidth="1"/>
-    <col min="10" max="10" width="5.77734375" customWidth="1"/>
+    <col min="9" max="9" width="2.6640625" customWidth="1"/>
+    <col min="10" max="10" width="4.109375" customWidth="1"/>
     <col min="12" max="12" width="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:18" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="B3" s="27"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="64" t="s">
+    <row r="1" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:18" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.7">
+      <c r="B2" s="27"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="58" t="s">
         <v>293</v>
       </c>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="29"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="54" t="s">
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="29"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="62" t="s">
         <v>374</v>
       </c>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="29"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="29"/>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B3" s="30"/>
+      <c r="I3" s="31"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="31"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B4" s="30"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
+      <c r="C4" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="D4" s="16">
+        <f>MAX('School-Details'!A:A)</f>
+        <v>123</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>266</v>
+      </c>
       <c r="I4" s="31"/>
       <c r="K4" s="30"/>
+      <c r="L4" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="M4" s="16">
+        <f>COUNTIF('College-Details'!J:J,L4)</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="61"/>
+      <c r="O4" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="P4" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q4" s="61"/>
       <c r="R4" s="31"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B5" s="30"/>
       <c r="C5" s="16" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D5" s="16">
-        <f>MAX('School-Details'!A:A)</f>
-        <v>123</v>
-      </c>
-      <c r="E5" s="59"/>
-      <c r="F5" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="H5" s="59"/>
+        <f>ROUND(SUM('School-Details'!K:K)/D4,2)</f>
+        <v>0.01</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="G5" s="14">
+        <f>COUNTIF('School-Details'!M:M,F5)</f>
+        <v>0</v>
+      </c>
       <c r="I5" s="31"/>
       <c r="K5" s="30"/>
       <c r="L5" s="16" t="s">
-        <v>366</v>
-      </c>
-      <c r="M5" s="14">
+        <v>367</v>
+      </c>
+      <c r="M5" s="16">
         <f>COUNTIF('College-Details'!J:J,L5)</f>
         <v>0</v>
       </c>
-      <c r="O5" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="P5" s="21" t="s">
-        <v>266</v>
-      </c>
+      <c r="N5" s="61"/>
+      <c r="O5" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="P5" s="14">
+        <f>COUNTIF('College-Details'!L:L,O5)</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="61"/>
       <c r="R5" s="31"/>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B6" s="30"/>
       <c r="C6" s="16" t="s">
-        <v>246</v>
-      </c>
-      <c r="D6" s="16">
-        <f>ROUND(SUM('School-Details'!K:K)/D5,2)</f>
-        <v>0.01</v>
-      </c>
-      <c r="E6" s="59"/>
+        <v>437</v>
+      </c>
+      <c r="D6" s="53">
+        <v>45299</v>
+      </c>
       <c r="F6" s="14" t="s">
-        <v>210</v>
+        <v>267</v>
       </c>
       <c r="G6" s="14">
         <f>COUNTIF('School-Details'!M:M,F6)</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="59"/>
+        <v>1</v>
+      </c>
       <c r="I6" s="31"/>
       <c r="K6" s="30"/>
       <c r="L6" s="16" t="s">
-        <v>367</v>
-      </c>
-      <c r="M6" s="14">
-        <f>COUNTIF('College-Details'!J:J,L6)</f>
-        <v>0</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="M6" s="16">
+        <f>MAX('College-Details'!A:A)</f>
+        <v>53</v>
+      </c>
+      <c r="N6" s="61"/>
       <c r="O6" s="14" t="s">
-        <v>210</v>
+        <v>267</v>
       </c>
       <c r="P6" s="14">
         <f>COUNTIF('College-Details'!L:L,O6)</f>
         <v>0</v>
       </c>
+      <c r="Q6" s="61"/>
       <c r="R6" s="31"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B7" s="30"/>
       <c r="C7" s="16" t="s">
-        <v>437</v>
-      </c>
-      <c r="D7" s="60">
-        <v>45299</v>
-      </c>
-      <c r="E7" s="59"/>
+        <v>439</v>
+      </c>
+      <c r="D7" s="53">
+        <f ca="1">TODAY()</f>
+        <v>45301</v>
+      </c>
       <c r="F7" s="14" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G7" s="14">
         <f>COUNTIF('School-Details'!M:M,F7)</f>
-        <v>1</v>
-      </c>
-      <c r="H7" s="59"/>
+        <v>0</v>
+      </c>
       <c r="I7" s="31"/>
       <c r="K7" s="30"/>
       <c r="L7" s="16" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M7" s="16">
-        <f>MAX('College-Details'!A:A)</f>
-        <v>53</v>
-      </c>
+        <f>SUM('College-Details'!I:I)/M6</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="61"/>
       <c r="O7" s="14" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="P7" s="14">
         <f>COUNTIF('College-Details'!L:L,O7)</f>
         <v>0</v>
       </c>
+      <c r="Q7" s="61"/>
       <c r="R7" s="31"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B8" s="30"/>
       <c r="C8" s="16" t="s">
-        <v>439</v>
-      </c>
-      <c r="D8" s="60">
-        <f ca="1">TODAY()</f>
-        <v>45301</v>
-      </c>
-      <c r="E8" s="59"/>
+        <v>438</v>
+      </c>
+      <c r="D8" s="54">
+        <f ca="1">ROUND(D11/(D7-D6+1),0)</f>
+        <v>4</v>
+      </c>
       <c r="F8" s="14" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="G8" s="14">
         <f>COUNTIF('School-Details'!M:M,F8)</f>
         <v>0</v>
       </c>
-      <c r="H8" s="59"/>
       <c r="I8" s="31"/>
       <c r="K8" s="30"/>
       <c r="L8" s="16" t="s">
-        <v>369</v>
-      </c>
-      <c r="M8" s="16">
-        <f>SUM('College-Details'!I:I)/M7</f>
-        <v>0</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="M8" s="53"/>
+      <c r="N8" s="61"/>
       <c r="O8" s="14" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="P8" s="14">
         <f>COUNTIF('College-Details'!L:L,O8)</f>
         <v>0</v>
       </c>
+      <c r="Q8" s="61"/>
       <c r="R8" s="31"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B9" s="30"/>
-      <c r="C9" s="16" t="s">
-        <v>438</v>
-      </c>
-      <c r="D9" s="61">
-        <f ca="1">ROUND(D12/(D8-D7+1),0)</f>
-        <v>4</v>
-      </c>
-      <c r="E9" s="59"/>
-      <c r="F9" s="14" t="s">
-        <v>283</v>
-      </c>
-      <c r="G9" s="14">
-        <f>COUNTIF('School-Details'!M:M,F9)</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="59"/>
+      <c r="F9" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="G9" s="16">
+        <f>SUM(G5:G8)</f>
+        <v>1</v>
+      </c>
       <c r="I9" s="31"/>
       <c r="K9" s="30"/>
-      <c r="O9" s="14" t="s">
-        <v>283</v>
-      </c>
-      <c r="P9" s="14">
-        <f>COUNTIF('College-Details'!L:L,O9)</f>
-        <v>0</v>
-      </c>
+      <c r="L9" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="M9" s="53"/>
+      <c r="N9" s="61"/>
+      <c r="O9" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="P9" s="16">
+        <f>SUM(P5:P8)</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="61"/>
       <c r="R9" s="31"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B10" s="30"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
+      <c r="C10" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>264</v>
+      </c>
       <c r="I10" s="31"/>
       <c r="K10" s="30"/>
-      <c r="L10" s="21" t="s">
-        <v>247</v>
-      </c>
-      <c r="M10" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="O10" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="P10" s="16">
-        <f>SUM(P6:P9)</f>
-        <v>0</v>
-      </c>
+      <c r="L10" s="16" t="s">
+        <v>438</v>
+      </c>
+      <c r="M10" s="54">
+        <f>ROUND(M14/(M9-M8+1),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="61"/>
+      <c r="O10" s="61"/>
+      <c r="P10" s="61"/>
+      <c r="Q10" s="61"/>
       <c r="R10" s="31"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B11" s="30"/>
-      <c r="C11" s="21" t="s">
-        <v>247</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="E11" s="59"/>
+      <c r="C11" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="D11" s="14">
+        <f>COUNTIF('School-Details'!U:U,C11)</f>
+        <v>13</v>
+      </c>
       <c r="F11" s="14"/>
-      <c r="G11" s="53" t="s">
+      <c r="G11" s="57" t="s">
         <v>210</v>
       </c>
-      <c r="H11" s="53"/>
+      <c r="H11" s="57"/>
       <c r="I11" s="31"/>
       <c r="K11" s="30"/>
-      <c r="L11" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="M11" s="14">
-        <f>COUNTIF('College-Details'!T:T,L11)</f>
-        <v>0</v>
-      </c>
+      <c r="L11" s="61"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="61"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="57" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q11" s="57"/>
       <c r="R11" s="31"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B12" s="30"/>
       <c r="C12" s="14" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D12" s="14">
         <f>COUNTIF('School-Details'!U:U,C12)</f>
-        <v>13</v>
-      </c>
-      <c r="E12" s="59"/>
+        <v>0</v>
+      </c>
       <c r="F12" s="21" t="s">
         <v>269</v>
       </c>
@@ -2590,30 +2586,33 @@
       </c>
       <c r="I12" s="31"/>
       <c r="K12" s="30"/>
-      <c r="L12" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="M12" s="14">
-        <f>COUNTIF('College-Details'!T:T,L12)</f>
-        <v>0</v>
-      </c>
-      <c r="O12" s="14"/>
-      <c r="P12" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q12" s="58"/>
+      <c r="L12" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="M12" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="N12" s="61"/>
+      <c r="O12" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="P12" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q12" s="21" t="s">
+        <v>271</v>
+      </c>
       <c r="R12" s="31"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B13" s="30"/>
       <c r="C13" s="14" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D13" s="14">
         <f>COUNTIF('School-Details'!U:U,C13)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="59"/>
       <c r="F13" s="22">
         <v>45292</v>
       </c>
@@ -2626,33 +2625,33 @@
       <c r="I13" s="31"/>
       <c r="K13" s="30"/>
       <c r="L13" s="14" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="M13" s="14">
         <f>COUNTIF('College-Details'!T:T,L13)</f>
         <v>0</v>
       </c>
-      <c r="O13" s="21" t="s">
-        <v>269</v>
-      </c>
-      <c r="P13" s="21" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q13" s="21" t="s">
-        <v>271</v>
+      <c r="N13" s="61"/>
+      <c r="O13" s="22">
+        <v>45292</v>
+      </c>
+      <c r="P13" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="14">
+        <v>0</v>
       </c>
       <c r="R13" s="31"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B14" s="30"/>
       <c r="C14" s="14" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D14" s="14">
         <f>COUNTIF('School-Details'!U:U,C14)</f>
         <v>0</v>
       </c>
-      <c r="E14" s="59"/>
       <c r="F14" s="22">
         <v>45323</v>
       </c>
@@ -2665,14 +2664,15 @@
       <c r="I14" s="31"/>
       <c r="K14" s="30"/>
       <c r="L14" s="14" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="M14" s="14">
         <f>COUNTIF('College-Details'!T:T,L14)</f>
         <v>0</v>
       </c>
+      <c r="N14" s="61"/>
       <c r="O14" s="22">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="P14" s="14">
         <v>0</v>
@@ -2685,13 +2685,12 @@
     <row r="15" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B15" s="30"/>
       <c r="C15" s="14" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D15" s="14">
         <f>COUNTIF('School-Details'!U:U,C15)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="59"/>
       <c r="F15" s="22">
         <v>45352</v>
       </c>
@@ -2704,14 +2703,15 @@
       <c r="I15" s="31"/>
       <c r="K15" s="30"/>
       <c r="L15" s="14" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="M15" s="14">
         <f>COUNTIF('College-Details'!T:T,L15)</f>
         <v>0</v>
       </c>
+      <c r="N15" s="61"/>
       <c r="O15" s="22">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="P15" s="14">
         <v>0</v>
@@ -2724,13 +2724,12 @@
     <row r="16" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B16" s="30"/>
       <c r="C16" s="14" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D16" s="14">
         <f>COUNTIF('School-Details'!U:U,C16)</f>
         <v>0</v>
       </c>
-      <c r="E16" s="59"/>
       <c r="F16" s="22">
         <v>45383</v>
       </c>
@@ -2743,14 +2742,15 @@
       <c r="I16" s="31"/>
       <c r="K16" s="30"/>
       <c r="L16" s="14" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="M16" s="14">
         <f>COUNTIF('College-Details'!T:T,L16)</f>
         <v>0</v>
       </c>
+      <c r="N16" s="61"/>
       <c r="O16" s="22">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="P16" s="14">
         <v>0</v>
@@ -2763,13 +2763,12 @@
     <row r="17" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B17" s="30"/>
       <c r="C17" s="14" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D17" s="14">
         <f>COUNTIF('School-Details'!U:U,C17)</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="59"/>
+        <v>110</v>
+      </c>
       <c r="F17" s="22">
         <v>45413</v>
       </c>
@@ -2782,14 +2781,15 @@
       <c r="I17" s="31"/>
       <c r="K17" s="30"/>
       <c r="L17" s="14" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="M17" s="14">
         <f>COUNTIF('College-Details'!T:T,L17)</f>
-        <v>53</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N17" s="61"/>
       <c r="O17" s="22">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="P17" s="14">
         <v>0</v>
@@ -2802,13 +2802,12 @@
     <row r="18" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B18" s="30"/>
       <c r="C18" s="14" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="D18" s="14">
         <f>COUNTIF('School-Details'!U:U,C18)</f>
-        <v>110</v>
-      </c>
-      <c r="E18" s="59"/>
+        <v>0</v>
+      </c>
       <c r="F18" s="22">
         <v>45444</v>
       </c>
@@ -2821,14 +2820,15 @@
       <c r="I18" s="31"/>
       <c r="K18" s="30"/>
       <c r="L18" s="14" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="M18" s="14">
         <f>COUNTIF('College-Details'!T:T,L18)</f>
         <v>0</v>
       </c>
+      <c r="N18" s="61"/>
       <c r="O18" s="22">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="P18" s="14">
         <v>0</v>
@@ -2840,14 +2840,13 @@
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B19" s="30"/>
-      <c r="C19" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="D19" s="14">
-        <f>COUNTIF('School-Details'!U:U,C19)</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="59"/>
+      <c r="C19" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="D19" s="16">
+        <f>SUM(D11:D18)</f>
+        <v>123</v>
+      </c>
       <c r="F19" s="22">
         <v>45474</v>
       </c>
@@ -2859,15 +2858,16 @@
       </c>
       <c r="I19" s="31"/>
       <c r="K19" s="30"/>
-      <c r="L19" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="M19" s="16">
-        <f>SUM(M11:M18)</f>
+      <c r="L19" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="M19" s="14">
+        <f>COUNTIF('College-Details'!T:T,L19)</f>
         <v>53</v>
       </c>
+      <c r="N19" s="61"/>
       <c r="O19" s="22">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="P19" s="14">
         <v>0</v>
@@ -2879,14 +2879,6 @@
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B20" s="30"/>
-      <c r="C20" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="D20" s="16">
-        <f>SUM(D12:D19)</f>
-        <v>123</v>
-      </c>
-      <c r="E20" s="59"/>
       <c r="F20" s="22">
         <v>45505</v>
       </c>
@@ -2898,8 +2890,16 @@
       </c>
       <c r="I20" s="31"/>
       <c r="K20" s="30"/>
+      <c r="L20" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="M20" s="14">
+        <f>COUNTIF('College-Details'!T:T,L20)</f>
+        <v>0</v>
+      </c>
+      <c r="N20" s="61"/>
       <c r="O20" s="22">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="P20" s="14">
         <v>0</v>
@@ -2910,10 +2910,13 @@
       <c r="R20" s="31"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B21" s="30"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>264</v>
+      </c>
       <c r="F21" s="22">
         <v>45536</v>
       </c>
@@ -2924,15 +2927,17 @@
         <v>0</v>
       </c>
       <c r="I21" s="31"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="21" t="s">
-        <v>370</v>
-      </c>
-      <c r="M21" s="21" t="s">
-        <v>264</v>
-      </c>
+      <c r="K21" s="30"/>
+      <c r="L21" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="M21" s="16">
+        <f>SUM(M13:M20)</f>
+        <v>53</v>
+      </c>
+      <c r="N21" s="61"/>
       <c r="O21" s="22">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="P21" s="14">
         <v>0</v>
@@ -2943,14 +2948,16 @@
       <c r="R21" s="31"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B22" s="32"/>
-      <c r="C22" s="21" t="s">
-        <v>274</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="E22" s="59"/>
+      <c r="B22" s="33" t="s">
+        <v>272</v>
+      </c>
+      <c r="C22" s="14">
+        <v>5</v>
+      </c>
+      <c r="D22" s="14">
+        <f>COUNTIF('School-Details'!T:T,C22)</f>
+        <v>10</v>
+      </c>
       <c r="F22" s="22">
         <v>45566</v>
       </c>
@@ -2961,18 +2968,12 @@
         <v>0</v>
       </c>
       <c r="I22" s="31"/>
-      <c r="K22" s="33" t="s">
-        <v>272</v>
-      </c>
-      <c r="L22" s="14">
-        <v>5</v>
-      </c>
-      <c r="M22" s="14">
-        <f>COUNTIF('College-Details'!S:S,L22)</f>
-        <v>0</v>
-      </c>
+      <c r="K22" s="30"/>
+      <c r="L22" s="61"/>
+      <c r="M22" s="61"/>
+      <c r="N22" s="61"/>
       <c r="O22" s="22">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="P22" s="14">
         <v>0</v>
@@ -2983,17 +2984,14 @@
       <c r="R22" s="31"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B23" s="33" t="s">
-        <v>272</v>
-      </c>
+      <c r="B23" s="33"/>
       <c r="C23" s="14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" s="14">
         <f>COUNTIF('School-Details'!T:T,C23)</f>
-        <v>10</v>
-      </c>
-      <c r="E23" s="59"/>
+        <v>53</v>
+      </c>
       <c r="F23" s="22">
         <v>45597</v>
       </c>
@@ -3004,16 +3002,16 @@
         <v>0</v>
       </c>
       <c r="I23" s="31"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="14">
-        <v>4</v>
-      </c>
-      <c r="M23" s="14">
-        <f>COUNTIF('College-Details'!S:S,L23)</f>
-        <v>0</v>
-      </c>
+      <c r="K23" s="32"/>
+      <c r="L23" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="M23" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="N23" s="61"/>
       <c r="O23" s="22">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="P23" s="14">
         <v>0</v>
@@ -3025,14 +3023,13 @@
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B24" s="33"/>
-      <c r="C24" s="14">
-        <v>4</v>
+      <c r="C24" s="14" t="s">
+        <v>275</v>
       </c>
       <c r="D24" s="14">
-        <f>COUNTIF('School-Details'!T:T,C24)</f>
-        <v>53</v>
-      </c>
-      <c r="E24" s="59"/>
+        <f>SUM(D22:D23)</f>
+        <v>63</v>
+      </c>
       <c r="F24" s="22">
         <v>45627</v>
       </c>
@@ -3043,16 +3040,19 @@
         <v>0</v>
       </c>
       <c r="I24" s="31"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="14" t="s">
-        <v>371</v>
+      <c r="K24" s="33" t="s">
+        <v>272</v>
+      </c>
+      <c r="L24" s="14">
+        <v>5</v>
       </c>
       <c r="M24" s="14">
-        <f>SUM(M22:M23)</f>
-        <v>0</v>
-      </c>
+        <f>COUNTIF('College-Details'!S:S,L24)</f>
+        <v>0</v>
+      </c>
+      <c r="N24" s="61"/>
       <c r="O24" s="22">
-        <v>45597</v>
+        <v>45627</v>
       </c>
       <c r="P24" s="14">
         <v>0</v>
@@ -3063,15 +3063,16 @@
       <c r="R24" s="31"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B25" s="33"/>
-      <c r="C25" s="14" t="s">
-        <v>275</v>
+      <c r="B25" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="C25" s="14">
+        <v>3</v>
       </c>
       <c r="D25" s="14">
-        <f>SUM(D23:D24)</f>
-        <v>63</v>
-      </c>
-      <c r="E25" s="59"/>
+        <f>COUNTIF('School-Details'!T:T,C25)</f>
+        <v>50</v>
+      </c>
       <c r="F25" s="16" t="s">
         <v>244</v>
       </c>
@@ -3084,193 +3085,204 @@
         <v>0</v>
       </c>
       <c r="I25" s="31"/>
-      <c r="K25" s="33" t="s">
-        <v>278</v>
-      </c>
+      <c r="K25" s="33"/>
       <c r="L25" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M25" s="14">
         <f>COUNTIF('College-Details'!S:S,L25)</f>
         <v>0</v>
       </c>
-      <c r="O25" s="22">
-        <v>45627</v>
-      </c>
-      <c r="P25" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="14">
+      <c r="N25" s="61"/>
+      <c r="O25" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="P25" s="16">
+        <f>SUM(P13:P24)</f>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="16">
+        <f>SUM(Q13:Q24)</f>
         <v>0</v>
       </c>
       <c r="R25" s="31"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B26" s="33" t="s">
-        <v>278</v>
-      </c>
-      <c r="C26" s="14">
-        <v>3</v>
+      <c r="B26" s="33"/>
+      <c r="C26" s="14" t="s">
+        <v>277</v>
       </c>
       <c r="D26" s="14">
-        <f>COUNTIF('School-Details'!T:T,C26)</f>
+        <f>SUM(D25)</f>
         <v>50</v>
       </c>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="59"/>
       <c r="I26" s="31"/>
       <c r="K26" s="33"/>
       <c r="L26" s="14" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M26" s="14">
-        <f>SUM(M25)</f>
-        <v>0</v>
-      </c>
-      <c r="O26" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="P26" s="16">
-        <f>SUM(P14:P25)</f>
-        <v>0</v>
-      </c>
-      <c r="Q26" s="16">
-        <f>SUM(Q14:Q25)</f>
-        <v>0</v>
-      </c>
+        <f>SUM(M24:M25)</f>
+        <v>0</v>
+      </c>
+      <c r="N26" s="61"/>
+      <c r="O26" s="61"/>
+      <c r="P26" s="61"/>
+      <c r="Q26" s="61"/>
       <c r="R26" s="31"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B27" s="33"/>
-      <c r="C27" s="14" t="s">
-        <v>277</v>
+      <c r="B27" s="33" t="s">
+        <v>273</v>
+      </c>
+      <c r="C27" s="14">
+        <v>2</v>
       </c>
       <c r="D27" s="14">
-        <f>SUM(D26)</f>
-        <v>50</v>
-      </c>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
+        <f>COUNTIF('School-Details'!T:T,C27)</f>
+        <v>10</v>
+      </c>
       <c r="I27" s="31"/>
       <c r="K27" s="33" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="L27" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M27" s="14">
         <f>COUNTIF('College-Details'!S:S,L27)</f>
         <v>0</v>
       </c>
+      <c r="N27" s="61"/>
+      <c r="O27" s="61"/>
+      <c r="P27" s="61"/>
+      <c r="Q27" s="61"/>
       <c r="R27" s="31"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B28" s="33" t="s">
-        <v>273</v>
-      </c>
+      <c r="B28" s="33"/>
       <c r="C28" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D28" s="14">
         <f>COUNTIF('School-Details'!T:T,C28)</f>
-        <v>10</v>
-      </c>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="59"/>
+        <v>0</v>
+      </c>
       <c r="I28" s="31"/>
       <c r="K28" s="33"/>
-      <c r="L28" s="14">
-        <v>1</v>
+      <c r="L28" s="14" t="s">
+        <v>372</v>
       </c>
       <c r="M28" s="14">
-        <f>COUNTIF('College-Details'!S:S,L28)</f>
-        <v>0</v>
-      </c>
+        <f>SUM(M27)</f>
+        <v>0</v>
+      </c>
+      <c r="N28" s="61"/>
+      <c r="O28" s="61"/>
+      <c r="P28" s="61"/>
+      <c r="Q28" s="61"/>
       <c r="R28" s="31"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B29" s="33"/>
-      <c r="C29" s="14">
+      <c r="C29" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D29" s="14">
+        <f>SUM(D27:D28)</f>
+        <v>10</v>
+      </c>
+      <c r="I29" s="31"/>
+      <c r="K29" s="33" t="s">
+        <v>273</v>
+      </c>
+      <c r="L29" s="14">
+        <v>2</v>
+      </c>
+      <c r="M29" s="14">
+        <f>COUNTIF('College-Details'!S:S,L29)</f>
+        <v>0</v>
+      </c>
+      <c r="N29" s="61"/>
+      <c r="O29" s="61"/>
+      <c r="P29" s="61"/>
+      <c r="Q29" s="61"/>
+      <c r="R29" s="31"/>
+    </row>
+    <row r="30" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="55"/>
+      <c r="C30" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="D30" s="56">
+        <f>D24+D26+D29</f>
+        <v>123</v>
+      </c>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="36"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="14">
         <v>1</v>
       </c>
-      <c r="D29" s="14">
-        <f>COUNTIF('School-Details'!T:T,C29)</f>
-        <v>0</v>
-      </c>
-      <c r="E29" s="59"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="31"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="14" t="s">
+      <c r="M30" s="14">
+        <f>COUNTIF('College-Details'!S:S,L30)</f>
+        <v>0</v>
+      </c>
+      <c r="N30" s="61"/>
+      <c r="O30" s="61"/>
+      <c r="P30" s="61"/>
+      <c r="Q30" s="61"/>
+      <c r="R30" s="31"/>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="K31" s="33"/>
+      <c r="L31" s="14" t="s">
         <v>373</v>
       </c>
-      <c r="M29" s="14">
-        <f>SUM(M27:M28)</f>
-        <v>0</v>
-      </c>
-      <c r="R29" s="31"/>
-    </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B30" s="33"/>
-      <c r="C30" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="D30" s="14">
-        <f>SUM(D28:D29)</f>
-        <v>10</v>
-      </c>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="59"/>
-      <c r="I30" s="31"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="16" t="s">
+      <c r="M31" s="14">
+        <f>SUM(M29:M30)</f>
+        <v>0</v>
+      </c>
+      <c r="N31" s="61"/>
+      <c r="O31" s="61"/>
+      <c r="P31" s="61"/>
+      <c r="Q31" s="61"/>
+      <c r="R31" s="31"/>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="K32" s="33"/>
+      <c r="L32" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="M30" s="16">
-        <f>M24+M26+M29</f>
-        <v>0</v>
-      </c>
-      <c r="R30" s="31"/>
-    </row>
-    <row r="31" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="62"/>
-      <c r="C31" s="63" t="s">
-        <v>244</v>
-      </c>
-      <c r="D31" s="63">
-        <f>D25+D27+D30</f>
-        <v>123</v>
-      </c>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="36"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="35"/>
-      <c r="N31" s="35"/>
-      <c r="O31" s="35"/>
-      <c r="P31" s="35"/>
-      <c r="Q31" s="35"/>
-      <c r="R31" s="36"/>
+      <c r="M32" s="16">
+        <f>M26+M28+M31</f>
+        <v>0</v>
+      </c>
+      <c r="N32" s="61"/>
+      <c r="O32" s="61"/>
+      <c r="P32" s="61"/>
+      <c r="Q32" s="61"/>
+      <c r="R32" s="31"/>
+    </row>
+    <row r="33" spans="11:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K33" s="34"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="35"/>
+      <c r="N33" s="35"/>
+      <c r="O33" s="35"/>
+      <c r="P33" s="35"/>
+      <c r="Q33" s="35"/>
+      <c r="R33" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="G11:H11"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="M2:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Offline/BusinessManagement/Marketing/AI marketing/AI Workshop Schools-Colleges.xlsx
+++ b/Offline/BusinessManagement/Marketing/AI marketing/AI Workshop Schools-Colleges.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Marketing\AI marketing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14036C25-A8DE-44D0-B206-D38F233B8F19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="506" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="506" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="8" r:id="rId1"/>
     <sheet name="School-Details" sheetId="7" r:id="rId2"/>
-    <sheet name="College-Details" sheetId="10" r:id="rId3"/>
-    <sheet name="Notes" sheetId="9" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId3"/>
+    <sheet name="College-Details" sheetId="10" r:id="rId4"/>
+    <sheet name="Notes" sheetId="9" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'School-Details'!$A$1:$U$122</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'School-Details'!$A$1:$U$124</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,13 +40,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>del</author>
     <author>User</author>
   </authors>
   <commentList>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -70,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L28" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="L28" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -89,12 +89,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>del</author>
   </authors>
   <commentList>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -123,7 +123,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="440">
   <si>
     <t>CBSE</t>
   </si>
@@ -1460,7 +1460,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1956,6 +1956,7 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1968,7 +1969,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2258,10 +2258,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -2286,13 +2286,13 @@
     <row r="2" spans="2:18" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.7">
       <c r="B2" s="27"/>
       <c r="C2" s="28"/>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="59" t="s">
         <v>293</v>
       </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="61"/>
       <c r="I2" s="29"/>
       <c r="K2" s="27"/>
       <c r="L2" s="28"/>
@@ -2309,12 +2309,12 @@
       <c r="B3" s="30"/>
       <c r="I3" s="31"/>
       <c r="K3" s="30"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
       <c r="R3" s="31"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.3">
@@ -2341,14 +2341,14 @@
         <f>COUNTIF('College-Details'!J:J,L4)</f>
         <v>0</v>
       </c>
-      <c r="N4" s="61"/>
+      <c r="N4" s="57"/>
       <c r="O4" s="21" t="s">
         <v>265</v>
       </c>
       <c r="P4" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="Q4" s="61"/>
+      <c r="Q4" s="57"/>
       <c r="R4" s="31"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.3">
@@ -2376,7 +2376,7 @@
         <f>COUNTIF('College-Details'!J:J,L5)</f>
         <v>0</v>
       </c>
-      <c r="N5" s="61"/>
+      <c r="N5" s="57"/>
       <c r="O5" s="14" t="s">
         <v>210</v>
       </c>
@@ -2384,7 +2384,7 @@
         <f>COUNTIF('College-Details'!L:L,O5)</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="61"/>
+      <c r="Q5" s="57"/>
       <c r="R5" s="31"/>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.3">
@@ -2411,7 +2411,7 @@
         <f>MAX('College-Details'!A:A)</f>
         <v>53</v>
       </c>
-      <c r="N6" s="61"/>
+      <c r="N6" s="57"/>
       <c r="O6" s="14" t="s">
         <v>267</v>
       </c>
@@ -2419,7 +2419,7 @@
         <f>COUNTIF('College-Details'!L:L,O6)</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="61"/>
+      <c r="Q6" s="57"/>
       <c r="R6" s="31"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.3">
@@ -2429,7 +2429,7 @@
       </c>
       <c r="D7" s="53">
         <f ca="1">TODAY()</f>
-        <v>45301</v>
+        <v>45302</v>
       </c>
       <c r="F7" s="14" t="s">
         <v>268</v>
@@ -2447,7 +2447,7 @@
         <f>SUM('College-Details'!I:I)/M6</f>
         <v>0</v>
       </c>
-      <c r="N7" s="61"/>
+      <c r="N7" s="57"/>
       <c r="O7" s="14" t="s">
         <v>268</v>
       </c>
@@ -2455,7 +2455,7 @@
         <f>COUNTIF('College-Details'!L:L,O7)</f>
         <v>0</v>
       </c>
-      <c r="Q7" s="61"/>
+      <c r="Q7" s="57"/>
       <c r="R7" s="31"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.3">
@@ -2465,7 +2465,7 @@
       </c>
       <c r="D8" s="54">
         <f ca="1">ROUND(D11/(D7-D6+1),0)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F8" s="14" t="s">
         <v>283</v>
@@ -2480,7 +2480,7 @@
         <v>437</v>
       </c>
       <c r="M8" s="53"/>
-      <c r="N8" s="61"/>
+      <c r="N8" s="57"/>
       <c r="O8" s="14" t="s">
         <v>283</v>
       </c>
@@ -2488,7 +2488,7 @@
         <f>COUNTIF('College-Details'!L:L,O8)</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="61"/>
+      <c r="Q8" s="57"/>
       <c r="R8" s="31"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.3">
@@ -2506,7 +2506,7 @@
         <v>439</v>
       </c>
       <c r="M9" s="53"/>
-      <c r="N9" s="61"/>
+      <c r="N9" s="57"/>
       <c r="O9" s="16" t="s">
         <v>244</v>
       </c>
@@ -2514,7 +2514,7 @@
         <f>SUM(P5:P8)</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="61"/>
+      <c r="Q9" s="57"/>
       <c r="R9" s="31"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.3">
@@ -2534,10 +2534,10 @@
         <f>ROUND(M14/(M9-M8+1),0)</f>
         <v>0</v>
       </c>
-      <c r="N10" s="61"/>
-      <c r="O10" s="61"/>
-      <c r="P10" s="61"/>
-      <c r="Q10" s="61"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="57"/>
       <c r="R10" s="31"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.3">
@@ -2550,20 +2550,20 @@
         <v>13</v>
       </c>
       <c r="F11" s="14"/>
-      <c r="G11" s="57" t="s">
+      <c r="G11" s="58" t="s">
         <v>210</v>
       </c>
-      <c r="H11" s="57"/>
+      <c r="H11" s="58"/>
       <c r="I11" s="31"/>
       <c r="K11" s="30"/>
-      <c r="L11" s="61"/>
-      <c r="M11" s="61"/>
-      <c r="N11" s="61"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="57"/>
       <c r="O11" s="14"/>
-      <c r="P11" s="57" t="s">
+      <c r="P11" s="58" t="s">
         <v>210</v>
       </c>
-      <c r="Q11" s="57"/>
+      <c r="Q11" s="58"/>
       <c r="R11" s="31"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.3">
@@ -2592,7 +2592,7 @@
       <c r="M12" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="N12" s="61"/>
+      <c r="N12" s="57"/>
       <c r="O12" s="21" t="s">
         <v>269</v>
       </c>
@@ -2631,7 +2631,7 @@
         <f>COUNTIF('College-Details'!T:T,L13)</f>
         <v>0</v>
       </c>
-      <c r="N13" s="61"/>
+      <c r="N13" s="57"/>
       <c r="O13" s="22">
         <v>45292</v>
       </c>
@@ -2670,7 +2670,7 @@
         <f>COUNTIF('College-Details'!T:T,L14)</f>
         <v>0</v>
       </c>
-      <c r="N14" s="61"/>
+      <c r="N14" s="57"/>
       <c r="O14" s="22">
         <v>45323</v>
       </c>
@@ -2709,7 +2709,7 @@
         <f>COUNTIF('College-Details'!T:T,L15)</f>
         <v>0</v>
       </c>
-      <c r="N15" s="61"/>
+      <c r="N15" s="57"/>
       <c r="O15" s="22">
         <v>45352</v>
       </c>
@@ -2748,7 +2748,7 @@
         <f>COUNTIF('College-Details'!T:T,L16)</f>
         <v>0</v>
       </c>
-      <c r="N16" s="61"/>
+      <c r="N16" s="57"/>
       <c r="O16" s="22">
         <v>45383</v>
       </c>
@@ -2787,7 +2787,7 @@
         <f>COUNTIF('College-Details'!T:T,L17)</f>
         <v>0</v>
       </c>
-      <c r="N17" s="61"/>
+      <c r="N17" s="57"/>
       <c r="O17" s="22">
         <v>45413</v>
       </c>
@@ -2826,7 +2826,7 @@
         <f>COUNTIF('College-Details'!T:T,L18)</f>
         <v>0</v>
       </c>
-      <c r="N18" s="61"/>
+      <c r="N18" s="57"/>
       <c r="O18" s="22">
         <v>45444</v>
       </c>
@@ -2865,7 +2865,7 @@
         <f>COUNTIF('College-Details'!T:T,L19)</f>
         <v>53</v>
       </c>
-      <c r="N19" s="61"/>
+      <c r="N19" s="57"/>
       <c r="O19" s="22">
         <v>45474</v>
       </c>
@@ -2897,7 +2897,7 @@
         <f>COUNTIF('College-Details'!T:T,L20)</f>
         <v>0</v>
       </c>
-      <c r="N20" s="61"/>
+      <c r="N20" s="57"/>
       <c r="O20" s="22">
         <v>45505</v>
       </c>
@@ -2935,7 +2935,7 @@
         <f>SUM(M13:M20)</f>
         <v>53</v>
       </c>
-      <c r="N21" s="61"/>
+      <c r="N21" s="57"/>
       <c r="O21" s="22">
         <v>45536</v>
       </c>
@@ -2969,9 +2969,9 @@
       </c>
       <c r="I22" s="31"/>
       <c r="K22" s="30"/>
-      <c r="L22" s="61"/>
-      <c r="M22" s="61"/>
-      <c r="N22" s="61"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="57"/>
+      <c r="N22" s="57"/>
       <c r="O22" s="22">
         <v>45566</v>
       </c>
@@ -3009,7 +3009,7 @@
       <c r="M23" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="N23" s="61"/>
+      <c r="N23" s="57"/>
       <c r="O23" s="22">
         <v>45597</v>
       </c>
@@ -3050,7 +3050,7 @@
         <f>COUNTIF('College-Details'!S:S,L24)</f>
         <v>0</v>
       </c>
-      <c r="N24" s="61"/>
+      <c r="N24" s="57"/>
       <c r="O24" s="22">
         <v>45627</v>
       </c>
@@ -3093,7 +3093,7 @@
         <f>COUNTIF('College-Details'!S:S,L25)</f>
         <v>0</v>
       </c>
-      <c r="N25" s="61"/>
+      <c r="N25" s="57"/>
       <c r="O25" s="16" t="s">
         <v>244</v>
       </c>
@@ -3125,10 +3125,10 @@
         <f>SUM(M24:M25)</f>
         <v>0</v>
       </c>
-      <c r="N26" s="61"/>
-      <c r="O26" s="61"/>
-      <c r="P26" s="61"/>
-      <c r="Q26" s="61"/>
+      <c r="N26" s="57"/>
+      <c r="O26" s="57"/>
+      <c r="P26" s="57"/>
+      <c r="Q26" s="57"/>
       <c r="R26" s="31"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.3">
@@ -3153,10 +3153,10 @@
         <f>COUNTIF('College-Details'!S:S,L27)</f>
         <v>0</v>
       </c>
-      <c r="N27" s="61"/>
-      <c r="O27" s="61"/>
-      <c r="P27" s="61"/>
-      <c r="Q27" s="61"/>
+      <c r="N27" s="57"/>
+      <c r="O27" s="57"/>
+      <c r="P27" s="57"/>
+      <c r="Q27" s="57"/>
       <c r="R27" s="31"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.3">
@@ -3177,10 +3177,10 @@
         <f>SUM(M27)</f>
         <v>0</v>
       </c>
-      <c r="N28" s="61"/>
-      <c r="O28" s="61"/>
-      <c r="P28" s="61"/>
-      <c r="Q28" s="61"/>
+      <c r="N28" s="57"/>
+      <c r="O28" s="57"/>
+      <c r="P28" s="57"/>
+      <c r="Q28" s="57"/>
       <c r="R28" s="31"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.3">
@@ -3203,10 +3203,10 @@
         <f>COUNTIF('College-Details'!S:S,L29)</f>
         <v>0</v>
       </c>
-      <c r="N29" s="61"/>
-      <c r="O29" s="61"/>
-      <c r="P29" s="61"/>
-      <c r="Q29" s="61"/>
+      <c r="N29" s="57"/>
+      <c r="O29" s="57"/>
+      <c r="P29" s="57"/>
+      <c r="Q29" s="57"/>
       <c r="R29" s="31"/>
     </row>
     <row r="30" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3231,10 +3231,10 @@
         <f>COUNTIF('College-Details'!S:S,L30)</f>
         <v>0</v>
       </c>
-      <c r="N30" s="61"/>
-      <c r="O30" s="61"/>
-      <c r="P30" s="61"/>
-      <c r="Q30" s="61"/>
+      <c r="N30" s="57"/>
+      <c r="O30" s="57"/>
+      <c r="P30" s="57"/>
+      <c r="Q30" s="57"/>
       <c r="R30" s="31"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.3">
@@ -3246,10 +3246,10 @@
         <f>SUM(M29:M30)</f>
         <v>0</v>
       </c>
-      <c r="N31" s="61"/>
-      <c r="O31" s="61"/>
-      <c r="P31" s="61"/>
-      <c r="Q31" s="61"/>
+      <c r="N31" s="57"/>
+      <c r="O31" s="57"/>
+      <c r="P31" s="57"/>
+      <c r="Q31" s="57"/>
       <c r="R31" s="31"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.3">
@@ -3261,10 +3261,10 @@
         <f>M26+M28+M31</f>
         <v>0</v>
       </c>
-      <c r="N32" s="61"/>
-      <c r="O32" s="61"/>
-      <c r="P32" s="61"/>
-      <c r="Q32" s="61"/>
+      <c r="N32" s="57"/>
+      <c r="O32" s="57"/>
+      <c r="P32" s="57"/>
+      <c r="Q32" s="57"/>
       <c r="R32" s="31"/>
     </row>
     <row r="33" spans="11:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3290,14 +3290,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:U124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="F47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D110" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W128" sqref="W128"/>
+      <selection pane="bottomRight" sqref="A1:F124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3385,7 +3386,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -3468,7 +3469,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -3847,7 +3848,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="72" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -3887,7 +3888,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -3964,7 +3965,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -4004,7 +4005,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -4044,7 +4045,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -4162,7 +4163,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -4206,7 +4207,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -4416,7 +4417,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -4546,7 +4547,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -4590,7 +4591,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -4718,7 +4719,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -8407,68 +8408,74 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U122" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:U124">
+    <filterColumn colId="20">
+      <filters>
+        <filter val="Not-Contacted"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U1:U1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U1:U1048576">
       <formula1>"Initial,Potential,Customer,Support,Upsells,Reject,Not-Contacted,Ex-Customer"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">
       <formula1>"Rahul Dutta,Sayan Basak,Anirban Chakraborty,Debashish Nath"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D31" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="D32" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="F7" r:id="rId3" display="https://www.google.com/search?q=panchasayar+siksha+niketan&amp;sca_esv=593615924&amp;rlz=1C1CHBF_enAU1047AU1047&amp;sxsrf=AM9HkKnlKkWvrpmDIvMzNnJR8ZC_8s6gNQ%3A1703524925488&amp;ei=PbqJZaauHY2KnesPo--TuAo&amp;gs_ssp=eJzj4tFP1zc0MqnMzTa1TDNgtFI1qDBONDAyNzRPNU1LM0xOTkuyAgqZpJmZmJgnGZgZGSWnpSV5SRUk5iVnJBYnViYWKRRnZhdnJCrkZWanliTmAQC7Qxln&amp;oq=panchasayar+s&amp;gs_lp=Egxnd3Mtd2l6LXNlcnAiDXBhbmNoYXNheWFyIHMqAggAMhQQLhivARjHARimAxioAxiABBiOBTIFEAAYgAQyBRAAGIAEMgsQLhiABBioAxidAzIFEAAYgAQyBRAAGIAEMgUQABiABDIFEAAYgAQyCBAAGIAEGMsBMggQABiABBjLATIjEC4YrwEYxwEYpgMYqAMYgAQYjgUYlwUY3AQY3gQY4ATYAQNIuzhQmhhYmCVwAXgBkAEAmAGvAqAB1gSqAQUyLTEuMbgBAcgBAPgBAcICChAAGEcY1gQYsAPCAg0QABiABBiKBRhDGLADwgIcEC4YgAQYigUYQxjHARivARjIAxiwAxiOBdgBAcICGRAuGIAEGIoFGEMYxwEYrwEYyAMYsAPYAQHCAg4QABjkAhjWBBiwA9gBAsICEBAuGEMYnQMYqAMYgAQYigXCAhAQLhiABBiKBRhDGKgDGJ0DwgIWEC4YQxivARjHARimAxioAxiABBiKBcICChAAGIAEGBQYhwLCAh8QLhhDGJ0DGKgDGIAEGIoFGJcFGNwEGN4EGOAE2AED4gMEGAAgQYgGAZAGDroGBggBEAEYCLoGBggCEAEYCboGBggDEAEYFA&amp;sclient=gws-wiz-serp" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="F8" r:id="rId4" display="https://www.google.com/search?q=miranda+high+school&amp;sca_esv=593615924&amp;rlz=1C1CHBF_enAU1047AU1047&amp;sxsrf=AM9HkKmR8dFtasrVNGZkMFIxGz5Wq06ZjA%3A1703525037148&amp;ei=rbqJZczSCOCWjuMPsMy_8AM&amp;oq=miranda+high+&amp;gs_lp=Egxnd3Mtd2l6LXNlcnAiDW1pcmFuZGEgaGlnaCAqAggAMg0QABiABBgUGIcCGMkDMgUQABiABDILEAAYgAQYigUYkgMyBRAAGIAEMgUQABiABDIKEAAYgAQYFBiHAjIFEAAYgAQyBRAAGIAEMgUQABiABDIFEAAYgARI7RNQ6AZY6AZwAXgAkAEAmAH0BqABuAyqAQM2LTK4AQHIAQD4AQHCAgoQABhHGNYEGLAD4gMEGAAgQYgGAZAGCA&amp;sclient=gws-wiz-serp&amp;lqi=ChNtaXJhbmRhIGhpZ2ggc2Nob29sSN-07OW4roCACForEAAQARACGAAYARgCIhNtaXJhbmRhIGhpZ2ggc2Nob29sKggIAhAAEAEQApIBBnNjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOUGNqUnVSbVZuRUFFqgE7EAEyHhABIhpTQ3iPFiqMHHb-9vGb0lli1Rpc5Z8xE87GgDIXEAIiE21pcmFuZGEgaGlnaCBzY2hvb2w" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="D22" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="D25" r:id="rId6" display="mailto:official@younghorizonsschool.com" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="D26" r:id="rId7" display="mailto:iwanttojoin@siskol.edu.in" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="D27" r:id="rId8" display="mailto:lcgvm2012@gmail.com" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="D30" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="D33" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="D35" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="D37" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="D41" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="D42" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="D43" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="D47" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="D48" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="D49" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
-    <hyperlink ref="D51" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
-    <hyperlink ref="D52" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
-    <hyperlink ref="D53" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink ref="D54" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
-    <hyperlink ref="D55" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
-    <hyperlink ref="D56" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
-    <hyperlink ref="D57" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
-    <hyperlink ref="D58" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
-    <hyperlink ref="D59" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
-    <hyperlink ref="D60" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
-    <hyperlink ref="D61" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
-    <hyperlink ref="D62" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
-    <hyperlink ref="D63" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
-    <hyperlink ref="D64" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
-    <hyperlink ref="D65" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
-    <hyperlink ref="D66" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
-    <hyperlink ref="D67" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
-    <hyperlink ref="D68" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
-    <hyperlink ref="D69" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
-    <hyperlink ref="D70" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
-    <hyperlink ref="D71" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
-    <hyperlink ref="D72" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
-    <hyperlink ref="D73" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
-    <hyperlink ref="D75" r:id="rId42" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
-    <hyperlink ref="D78" r:id="rId43" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
-    <hyperlink ref="D79" r:id="rId44" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
-    <hyperlink ref="D80" r:id="rId45" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
-    <hyperlink ref="D81" r:id="rId46" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
-    <hyperlink ref="D85" r:id="rId47" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
-    <hyperlink ref="D88" r:id="rId48" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
-    <hyperlink ref="D89" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
-    <hyperlink ref="D91" r:id="rId50" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
-    <hyperlink ref="D2" r:id="rId51" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
-    <hyperlink ref="D28" r:id="rId52" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
+    <hyperlink ref="D31" r:id="rId1"/>
+    <hyperlink ref="D32" r:id="rId2"/>
+    <hyperlink ref="F7" r:id="rId3" display="https://www.google.com/search?q=panchasayar+siksha+niketan&amp;sca_esv=593615924&amp;rlz=1C1CHBF_enAU1047AU1047&amp;sxsrf=AM9HkKnlKkWvrpmDIvMzNnJR8ZC_8s6gNQ%3A1703524925488&amp;ei=PbqJZaauHY2KnesPo--TuAo&amp;gs_ssp=eJzj4tFP1zc0MqnMzTa1TDNgtFI1qDBONDAyNzRPNU1LM0xOTkuyAgqZpJmZmJgnGZgZGSWnpSV5SRUk5iVnJBYnViYWKRRnZhdnJCrkZWanliTmAQC7Qxln&amp;oq=panchasayar+s&amp;gs_lp=Egxnd3Mtd2l6LXNlcnAiDXBhbmNoYXNheWFyIHMqAggAMhQQLhivARjHARimAxioAxiABBiOBTIFEAAYgAQyBRAAGIAEMgsQLhiABBioAxidAzIFEAAYgAQyBRAAGIAEMgUQABiABDIFEAAYgAQyCBAAGIAEGMsBMggQABiABBjLATIjEC4YrwEYxwEYpgMYqAMYgAQYjgUYlwUY3AQY3gQY4ATYAQNIuzhQmhhYmCVwAXgBkAEAmAGvAqAB1gSqAQUyLTEuMbgBAcgBAPgBAcICChAAGEcY1gQYsAPCAg0QABiABBiKBRhDGLADwgIcEC4YgAQYigUYQxjHARivARjIAxiwAxiOBdgBAcICGRAuGIAEGIoFGEMYxwEYrwEYyAMYsAPYAQHCAg4QABjkAhjWBBiwA9gBAsICEBAuGEMYnQMYqAMYgAQYigXCAhAQLhiABBiKBRhDGKgDGJ0DwgIWEC4YQxivARjHARimAxioAxiABBiKBcICChAAGIAEGBQYhwLCAh8QLhhDGJ0DGKgDGIAEGIoFGJcFGNwEGN4EGOAE2AED4gMEGAAgQYgGAZAGDroGBggBEAEYCLoGBggCEAEYCboGBggDEAEYFA&amp;sclient=gws-wiz-serp"/>
+    <hyperlink ref="F8" r:id="rId4" display="https://www.google.com/search?q=miranda+high+school&amp;sca_esv=593615924&amp;rlz=1C1CHBF_enAU1047AU1047&amp;sxsrf=AM9HkKmR8dFtasrVNGZkMFIxGz5Wq06ZjA%3A1703525037148&amp;ei=rbqJZczSCOCWjuMPsMy_8AM&amp;oq=miranda+high+&amp;gs_lp=Egxnd3Mtd2l6LXNlcnAiDW1pcmFuZGEgaGlnaCAqAggAMg0QABiABBgUGIcCGMkDMgUQABiABDILEAAYgAQYigUYkgMyBRAAGIAEMgUQABiABDIKEAAYgAQYFBiHAjIFEAAYgAQyBRAAGIAEMgUQABiABDIFEAAYgARI7RNQ6AZY6AZwAXgAkAEAmAH0BqABuAyqAQM2LTK4AQHIAQD4AQHCAgoQABhHGNYEGLAD4gMEGAAgQYgGAZAGCA&amp;sclient=gws-wiz-serp&amp;lqi=ChNtaXJhbmRhIGhpZ2ggc2Nob29sSN-07OW4roCACForEAAQARACGAAYARgCIhNtaXJhbmRhIGhpZ2ggc2Nob29sKggIAhAAEAEQApIBBnNjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOUGNqUnVSbVZuRUFFqgE7EAEyHhABIhpTQ3iPFiqMHHb-9vGb0lli1Rpc5Z8xE87GgDIXEAIiE21pcmFuZGEgaGlnaCBzY2hvb2w"/>
+    <hyperlink ref="D22" r:id="rId5"/>
+    <hyperlink ref="D25" r:id="rId6" display="mailto:official@younghorizonsschool.com"/>
+    <hyperlink ref="D26" r:id="rId7" display="mailto:iwanttojoin@siskol.edu.in"/>
+    <hyperlink ref="D27" r:id="rId8" display="mailto:lcgvm2012@gmail.com"/>
+    <hyperlink ref="D30" r:id="rId9"/>
+    <hyperlink ref="D33" r:id="rId10"/>
+    <hyperlink ref="D35" r:id="rId11"/>
+    <hyperlink ref="D37" r:id="rId12"/>
+    <hyperlink ref="D41" r:id="rId13"/>
+    <hyperlink ref="D42" r:id="rId14"/>
+    <hyperlink ref="D43" r:id="rId15"/>
+    <hyperlink ref="D47" r:id="rId16"/>
+    <hyperlink ref="D48" r:id="rId17"/>
+    <hyperlink ref="D49" r:id="rId18"/>
+    <hyperlink ref="D51" r:id="rId19"/>
+    <hyperlink ref="D52" r:id="rId20"/>
+    <hyperlink ref="D53" r:id="rId21"/>
+    <hyperlink ref="D54" r:id="rId22"/>
+    <hyperlink ref="D55" r:id="rId23"/>
+    <hyperlink ref="D56" r:id="rId24"/>
+    <hyperlink ref="D57" r:id="rId25"/>
+    <hyperlink ref="D58" r:id="rId26"/>
+    <hyperlink ref="D59" r:id="rId27"/>
+    <hyperlink ref="D60" r:id="rId28"/>
+    <hyperlink ref="D61" r:id="rId29"/>
+    <hyperlink ref="D62" r:id="rId30"/>
+    <hyperlink ref="D63" r:id="rId31"/>
+    <hyperlink ref="D64" r:id="rId32"/>
+    <hyperlink ref="D65" r:id="rId33"/>
+    <hyperlink ref="D66" r:id="rId34"/>
+    <hyperlink ref="D67" r:id="rId35"/>
+    <hyperlink ref="D68" r:id="rId36"/>
+    <hyperlink ref="D69" r:id="rId37"/>
+    <hyperlink ref="D70" r:id="rId38"/>
+    <hyperlink ref="D71" r:id="rId39"/>
+    <hyperlink ref="D72" r:id="rId40"/>
+    <hyperlink ref="D73" r:id="rId41"/>
+    <hyperlink ref="D75" r:id="rId42"/>
+    <hyperlink ref="D78" r:id="rId43"/>
+    <hyperlink ref="D79" r:id="rId44"/>
+    <hyperlink ref="D80" r:id="rId45"/>
+    <hyperlink ref="D81" r:id="rId46"/>
+    <hyperlink ref="D85" r:id="rId47"/>
+    <hyperlink ref="D88" r:id="rId48"/>
+    <hyperlink ref="D89" r:id="rId49"/>
+    <hyperlink ref="D91" r:id="rId50"/>
+    <hyperlink ref="D2" r:id="rId51"/>
+    <hyperlink ref="D28" r:id="rId52"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId53"/>
@@ -8477,7 +8484,1249 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C111"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="20.5546875" customWidth="1"/>
+    <col min="3" max="3" width="27.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>4</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>5</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>6</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>7</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>8</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>9</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="7">
+        <v>9051770999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>10</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="7">
+        <v>9903606575</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>11</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>12</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>15</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>19</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>20</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>23</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="7">
+        <v>8961111167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>24</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>25</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>26</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="7">
+        <v>7044096127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>28</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="7">
+        <v>9831274629</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>29</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="7">
+        <v>8777257554</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>32</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="7">
+        <v>3322651531</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>33</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="7">
+        <v>3324753015</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>35</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="7">
+        <v>3324753765</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>36</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="7">
+        <v>3324286903</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>37</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="8">
+        <v>8902488077</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>38</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="9">
+        <v>9163741069</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>39</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="9">
+        <v>3324411691</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>40</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="7">
+        <v>3324413804</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>41</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="7">
+        <v>9830688888</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>42</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="7">
+        <v>9073985531</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>43</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="7">
+        <v>3324712220</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>44</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="7">
+        <v>3324131158</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>45</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" s="7">
+        <v>9836242629</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>46</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>47</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" s="7">
+        <v>9051973905</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>48</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" s="7">
+        <v>9674850783</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>49</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" s="7">
+        <v>9674111783</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>50</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" s="7">
+        <v>33218260082</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>51</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39" s="7">
+        <v>3322879202</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>52</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C40" s="7">
+        <v>3322841546</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>53</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C41" s="7">
+        <v>3322484593</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>54</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="C42" s="7">
+        <v>3322297741</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>55</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C43" s="7">
+        <v>3324793241</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>56</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C44" s="7">
+        <v>3324344455</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>57</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C45" s="7">
+        <v>3340083093</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>58</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="C46" s="7">
+        <v>3324618002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>59</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>60</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="C48" s="7">
+        <v>3324569090</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>61</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="C49" s="7">
+        <v>3322233062</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>62</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>63</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="C51" s="7">
+        <v>3324793600</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>64</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="C52" s="7">
+        <v>3324866629</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>65</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C53" s="7">
+        <v>3322848038</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>66</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C54" s="7">
+        <v>905188888</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>67</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="C55" s="7">
+        <v>7596949952</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <v>68</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="C56" s="7">
+        <v>7478196910</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
+        <v>69</v>
+      </c>
+      <c r="B57" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="C57" s="7">
+        <v>7044447761</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
+        <v>70</v>
+      </c>
+      <c r="B58" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="C58" s="7">
+        <v>7059600647</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
+        <v>71</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="C59" s="7">
+        <v>3340072444</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
+        <v>72</v>
+      </c>
+      <c r="B60" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="C60" s="7">
+        <v>9903102957</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
+        <v>73</v>
+      </c>
+      <c r="B61" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="C61" s="7">
+        <v>7605080650</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
+        <v>74</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="C62" s="7">
+        <v>3324752135</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
+        <v>75</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="C63" s="7">
+        <v>9674645471</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
+        <v>76</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="C64" s="7">
+        <v>9073681886</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
+        <v>77</v>
+      </c>
+      <c r="B65" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="C65" s="7">
+        <v>3324316997</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="2">
+        <v>78</v>
+      </c>
+      <c r="B66" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="C66" s="7">
+        <v>3322291779</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A67" s="2">
+        <v>79</v>
+      </c>
+      <c r="B67" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="C67" s="7">
+        <v>3323215151</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A68" s="2">
+        <v>80</v>
+      </c>
+      <c r="B68" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="C68" s="7">
+        <v>3323342404</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A69" s="2">
+        <v>81</v>
+      </c>
+      <c r="B69" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A70" s="2">
+        <v>82</v>
+      </c>
+      <c r="B70" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A71" s="2">
+        <v>83</v>
+      </c>
+      <c r="B71" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="C71" s="7">
+        <v>9606279184</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A72" s="2">
+        <v>84</v>
+      </c>
+      <c r="B72" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="C72" s="7">
+        <v>8777867589</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A73" s="2">
+        <v>85</v>
+      </c>
+      <c r="B73" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C73" s="7">
+        <v>8017672075</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A74" s="2">
+        <v>86</v>
+      </c>
+      <c r="B74" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="C74" s="7">
+        <v>3324492810</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A75" s="2">
+        <v>87</v>
+      </c>
+      <c r="B75" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="C75" s="7">
+        <v>3324967196</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A76" s="2">
+        <v>88</v>
+      </c>
+      <c r="B76" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="C76" s="7">
+        <v>9830701347</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A77" s="2">
+        <v>89</v>
+      </c>
+      <c r="B77" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="C77" s="7">
+        <v>3324961723</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A78" s="2">
+        <v>90</v>
+      </c>
+      <c r="B78" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="C78" s="7">
+        <v>9007792852</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A79" s="2">
+        <v>91</v>
+      </c>
+      <c r="B79" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="C79" s="7">
+        <v>8902765583</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A80" s="2">
+        <v>92</v>
+      </c>
+      <c r="B80" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="C80" s="7">
+        <v>9331866252</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A81" s="2">
+        <v>93</v>
+      </c>
+      <c r="B81" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="C81" s="7">
+        <v>9903540099</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A82" s="2">
+        <v>94</v>
+      </c>
+      <c r="B82" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="C82" s="7">
+        <v>8336998663</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A83" s="2">
+        <v>95</v>
+      </c>
+      <c r="B83" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="C83" s="7">
+        <v>9339527506</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A84" s="2">
+        <v>96</v>
+      </c>
+      <c r="B84" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C84" s="7">
+        <v>9903312630</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="2">
+        <v>97</v>
+      </c>
+      <c r="B85" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="C85" s="7">
+        <v>9836747400</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A86" s="2">
+        <v>98</v>
+      </c>
+      <c r="B86" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="C86" s="7">
+        <v>8100188019</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A87" s="2">
+        <v>99</v>
+      </c>
+      <c r="B87" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A88" s="2">
+        <v>100</v>
+      </c>
+      <c r="B88" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A89" s="2">
+        <v>101</v>
+      </c>
+      <c r="B89" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A90" s="2">
+        <v>102</v>
+      </c>
+      <c r="B90" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A91" s="2">
+        <v>103</v>
+      </c>
+      <c r="B91" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A92" s="2">
+        <v>104</v>
+      </c>
+      <c r="B92" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A93" s="2">
+        <v>105</v>
+      </c>
+      <c r="B93" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A94" s="2">
+        <v>106</v>
+      </c>
+      <c r="B94" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A95" s="2">
+        <v>107</v>
+      </c>
+      <c r="B95" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A96" s="2">
+        <v>108</v>
+      </c>
+      <c r="B96" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A97" s="2">
+        <v>109</v>
+      </c>
+      <c r="B97" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A98" s="2">
+        <v>110</v>
+      </c>
+      <c r="B98" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A99" s="2">
+        <v>111</v>
+      </c>
+      <c r="B99" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A100" s="2">
+        <v>112</v>
+      </c>
+      <c r="B100" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A101" s="2">
+        <v>113</v>
+      </c>
+      <c r="B101" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A102" s="2">
+        <v>114</v>
+      </c>
+      <c r="B102" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A103" s="2">
+        <v>115</v>
+      </c>
+      <c r="B103" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A104" s="2">
+        <v>116</v>
+      </c>
+      <c r="B104" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A105" s="2">
+        <v>117</v>
+      </c>
+      <c r="B105" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A106" s="2">
+        <v>118</v>
+      </c>
+      <c r="B106" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A107" s="2">
+        <v>119</v>
+      </c>
+      <c r="B107" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A108" s="2">
+        <v>120</v>
+      </c>
+      <c r="B108" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A109" s="2">
+        <v>121</v>
+      </c>
+      <c r="B109" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A110" s="2">
+        <v>122</v>
+      </c>
+      <c r="B110" s="17" t="s">
+        <v>435</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A111" s="2">
+        <v>123</v>
+      </c>
+      <c r="B111" s="17" t="s">
+        <v>436</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>427</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1" display="https://www.google.com/search?q=panchasayar+siksha+niketan&amp;sca_esv=593615924&amp;rlz=1C1CHBF_enAU1047AU1047&amp;sxsrf=AM9HkKnlKkWvrpmDIvMzNnJR8ZC_8s6gNQ%3A1703524925488&amp;ei=PbqJZaauHY2KnesPo--TuAo&amp;gs_ssp=eJzj4tFP1zc0MqnMzTa1TDNgtFI1qDBONDAyNzRPNU1LM0xOTkuyAgqZpJmZmJgnGZgZGSWnpSV5SRUk5iVnJBYnViYWKRRnZhdnJCrkZWanliTmAQC7Qxln&amp;oq=panchasayar+s&amp;gs_lp=Egxnd3Mtd2l6LXNlcnAiDXBhbmNoYXNheWFyIHMqAggAMhQQLhivARjHARimAxioAxiABBiOBTIFEAAYgAQyBRAAGIAEMgsQLhiABBioAxidAzIFEAAYgAQyBRAAGIAEMgUQABiABDIFEAAYgAQyCBAAGIAEGMsBMggQABiABBjLATIjEC4YrwEYxwEYpgMYqAMYgAQYjgUYlwUY3AQY3gQY4ATYAQNIuzhQmhhYmCVwAXgBkAEAmAGvAqAB1gSqAQUyLTEuMbgBAcgBAPgBAcICChAAGEcY1gQYsAPCAg0QABiABBiKBRhDGLADwgIcEC4YgAQYigUYQxjHARivARjIAxiwAxiOBdgBAcICGRAuGIAEGIoFGEMYxwEYrwEYyAMYsAPYAQHCAg4QABjkAhjWBBiwA9gBAsICEBAuGEMYnQMYqAMYgAQYigXCAhAQLhiABBiKBRhDGKgDGJ0DwgIWEC4YQxivARjHARimAxioAxiABBiKBcICChAAGIAEGBQYhwLCAh8QLhhDGJ0DGKgDGIAEGIoFGJcFGNwEGN4EGOAE2AED4gMEGAAgQYgGAZAGDroGBggBEAEYCLoGBggCEAEYCboGBggDEAEYFA&amp;sclient=gws-wiz-serp"/>
+    <hyperlink ref="C6" r:id="rId2" display="https://www.google.com/search?q=miranda+high+school&amp;sca_esv=593615924&amp;rlz=1C1CHBF_enAU1047AU1047&amp;sxsrf=AM9HkKmR8dFtasrVNGZkMFIxGz5Wq06ZjA%3A1703525037148&amp;ei=rbqJZczSCOCWjuMPsMy_8AM&amp;oq=miranda+high+&amp;gs_lp=Egxnd3Mtd2l6LXNlcnAiDW1pcmFuZGEgaGlnaCAqAggAMg0QABiABBgUGIcCGMkDMgUQABiABDILEAAYgAQYigUYkgMyBRAAGIAEMgUQABiABDIKEAAYgAQYFBiHAjIFEAAYgAQyBRAAGIAEMgUQABiABDIFEAAYgARI7RNQ6AZY6AZwAXgAkAEAmAH0BqABuAyqAQM2LTK4AQHIAQD4AQHCAgoQABhHGNYEGLAD4gMEGAAgQYgGAZAGCA&amp;sclient=gws-wiz-serp&amp;lqi=ChNtaXJhbmRhIGhpZ2ggc2Nob29sSN-07OW4roCACForEAAQARACGAAYARgCIhNtaXJhbmRhIGhpZ2ggc2Nob29sKggIAhAAEAEQApIBBnNjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOUGNqUnVSbVZuRUFFqgE7EAEyHhABIhpTQ3iPFiqMHHb-9vGb0lli1Rpc5Z8xE87GgDIXEAIiE21pcmFuZGEgaGlnaCBzY2hvb2w"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T179"/>
   <sheetViews>
     <sheetView topLeftCell="D49" workbookViewId="0">
@@ -11703,23 +12952,23 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1:T1048576" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1:T1048576">
       <formula1>"Initial,Potential,Customer,Support,Upsells,Reject,Not-Contacted,Ex-Customer"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576">
       <formula1>"Rahul Dutta,Sayan Basak,Anirban Chakraborty,Debashish Nath"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576" xr:uid="{00000000-0002-0000-0200-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576">
       <formula1>"Technical,Non-Technical"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C36" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="C37" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="D41" r:id="rId3" display="https://www.google.com/search?sca_esv=597127733&amp;rlz=1C1CHBF_enAU1047AU1047&amp;tbs=lf:1,lf_ui:2&amp;tbm=lcl&amp;sxsrf=ACQVn0-yjBygfThguW8-plBveMrMzDiPGw:1704870884151&amp;q=engineering+colleges+in+south+calcutta&amp;rflfq=1&amp;num=10&amp;sa=X&amp;ved=2ahUKEwjQ47_7otKDAxUve2wGHY_pCzEQjGp6BAgXEAE&amp;biw=1536&amp;bih=730&amp;dpr=1.25" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="C43" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="D47" r:id="rId5" display="https://www.google.com/search?q=engineering+colleges+kolkata&amp;sca_esv=597127733&amp;rlz=1C1CHBF_enAU1047AU1047&amp;biw=1536&amp;bih=730&amp;tbm=lcl&amp;sxsrf=ACQVn09cs4SfDApVNizAZQHyNbKrHkG1kw%3A1704870889163&amp;ei=6UOeZYunCcqWseMP2bOt0A4&amp;ved=0ahUKEwjLv_H9otKDAxVKS2wGHdlZC-oQ4dUDCAk&amp;uact=5&amp;oq=engineering+colleges+kolkata&amp;gs_lp=Eg1nd3Mtd2l6LWxvY2FsIhxlbmdpbmVlcmluZyBjb2xsZWdlcyBrb2xrYXRhMgUQABiABDIGEAAYFhgeMgYQABgWGB4yCBAAGBYYHhgPMgYQABgWGB4yBhAAGBYYHjIGEAAYFhgeMgYQABgWGB4yBhAAGBYYHjIGEAAYFhgeSPErUNUEWOgmcAF4AJABAZgBqwGgAb0XqgEEMC4yM7gBA8gBAPgBAcICCxAAGIAEGIoFGIYDwgIEECMYJ8ICCxAAGIAEGIoFGJECwgIKEAAYgAQYFBiHAsICDhAAGIAEGIoFGJECGMkDiAYB&amp;sclient=gws-wiz-local" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="C49" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="C36" r:id="rId1"/>
+    <hyperlink ref="C37" r:id="rId2"/>
+    <hyperlink ref="D41" r:id="rId3" display="https://www.google.com/search?sca_esv=597127733&amp;rlz=1C1CHBF_enAU1047AU1047&amp;tbs=lf:1,lf_ui:2&amp;tbm=lcl&amp;sxsrf=ACQVn0-yjBygfThguW8-plBveMrMzDiPGw:1704870884151&amp;q=engineering+colleges+in+south+calcutta&amp;rflfq=1&amp;num=10&amp;sa=X&amp;ved=2ahUKEwjQ47_7otKDAxUve2wGHY_pCzEQjGp6BAgXEAE&amp;biw=1536&amp;bih=730&amp;dpr=1.25"/>
+    <hyperlink ref="C43" r:id="rId4"/>
+    <hyperlink ref="D47" r:id="rId5" display="https://www.google.com/search?q=engineering+colleges+kolkata&amp;sca_esv=597127733&amp;rlz=1C1CHBF_enAU1047AU1047&amp;biw=1536&amp;bih=730&amp;tbm=lcl&amp;sxsrf=ACQVn09cs4SfDApVNizAZQHyNbKrHkG1kw%3A1704870889163&amp;ei=6UOeZYunCcqWseMP2bOt0A4&amp;ved=0ahUKEwjLv_H9otKDAxVKS2wGHdlZC-oQ4dUDCAk&amp;uact=5&amp;oq=engineering+colleges+kolkata&amp;gs_lp=Eg1nd3Mtd2l6LWxvY2FsIhxlbmdpbmVlcmluZyBjb2xsZWdlcyBrb2xrYXRhMgUQABiABDIGEAAYFhgeMgYQABgWGB4yCBAAGBYYHhgPMgYQABgWGB4yBhAAGBYYHjIGEAAYFhgeMgYQABgWGB4yBhAAGBYYHjIGEAAYFhgeSPErUNUEWOgmcAF4AJABAZgBqwGgAb0XqgEEMC4yM7gBA8gBAPgBAcICCxAAGIAEGIoFGIYDwgIEECMYJ8ICCxAAGIAEGIoFGJECwgIKEAAYgAQYFBiHAsICDhAAGIAEGIoFGJECGMkDiAYB&amp;sclient=gws-wiz-local"/>
+    <hyperlink ref="C49" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
@@ -11727,8 +12976,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Offline/BusinessManagement/Marketing/AI marketing/AI Workshop Schools-Colleges.xlsx
+++ b/Offline/BusinessManagement/Marketing/AI marketing/AI Workshop Schools-Colleges.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Marketing\AI marketing\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC592C92-F0F2-4034-88DE-AFAFD16052A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="506" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="506" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="8" r:id="rId1"/>
     <sheet name="School-Details" sheetId="7" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="11" r:id="rId3"/>
+    <sheet name="Rahul-Calls" sheetId="11" r:id="rId3"/>
     <sheet name="College-Details" sheetId="10" r:id="rId4"/>
     <sheet name="Notes" sheetId="9" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'School-Details'!$A$1:$U$124</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,13 +41,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>del</author>
     <author>User</author>
   </authors>
   <commentList>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -70,7 +71,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L28" authorId="1" shapeId="0">
+    <comment ref="L28" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -89,12 +90,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>del</author>
   </authors>
   <commentList>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -1460,7 +1461,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1834,7 +1835,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1956,7 +1957,6 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1977,6 +1977,15 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2258,11 +2267,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:R33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2286,35 +2295,29 @@
     <row r="2" spans="2:18" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.7">
       <c r="B2" s="27"/>
       <c r="C2" s="28"/>
-      <c r="D2" s="59" t="s">
+      <c r="D2" s="58" t="s">
         <v>293</v>
       </c>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="61"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="60"/>
       <c r="I2" s="29"/>
       <c r="K2" s="27"/>
       <c r="L2" s="28"/>
-      <c r="M2" s="62" t="s">
+      <c r="M2" s="61" t="s">
         <v>374</v>
       </c>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="64"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="63"/>
       <c r="R2" s="29"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B3" s="30"/>
       <c r="I3" s="31"/>
       <c r="K3" s="30"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="57"/>
       <c r="R3" s="31"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.3">
@@ -2341,14 +2344,12 @@
         <f>COUNTIF('College-Details'!J:J,L4)</f>
         <v>0</v>
       </c>
-      <c r="N4" s="57"/>
       <c r="O4" s="21" t="s">
         <v>265</v>
       </c>
       <c r="P4" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="Q4" s="57"/>
       <c r="R4" s="31"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.3">
@@ -2376,7 +2377,6 @@
         <f>COUNTIF('College-Details'!J:J,L5)</f>
         <v>0</v>
       </c>
-      <c r="N5" s="57"/>
       <c r="O5" s="14" t="s">
         <v>210</v>
       </c>
@@ -2384,7 +2384,6 @@
         <f>COUNTIF('College-Details'!L:L,O5)</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="57"/>
       <c r="R5" s="31"/>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.3">
@@ -2411,7 +2410,6 @@
         <f>MAX('College-Details'!A:A)</f>
         <v>53</v>
       </c>
-      <c r="N6" s="57"/>
       <c r="O6" s="14" t="s">
         <v>267</v>
       </c>
@@ -2419,7 +2417,6 @@
         <f>COUNTIF('College-Details'!L:L,O6)</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="57"/>
       <c r="R6" s="31"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.3">
@@ -2447,7 +2444,6 @@
         <f>SUM('College-Details'!I:I)/M6</f>
         <v>0</v>
       </c>
-      <c r="N7" s="57"/>
       <c r="O7" s="14" t="s">
         <v>268</v>
       </c>
@@ -2455,7 +2451,6 @@
         <f>COUNTIF('College-Details'!L:L,O7)</f>
         <v>0</v>
       </c>
-      <c r="Q7" s="57"/>
       <c r="R7" s="31"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.3">
@@ -2480,7 +2475,6 @@
         <v>437</v>
       </c>
       <c r="M8" s="53"/>
-      <c r="N8" s="57"/>
       <c r="O8" s="14" t="s">
         <v>283</v>
       </c>
@@ -2488,7 +2482,6 @@
         <f>COUNTIF('College-Details'!L:L,O8)</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="57"/>
       <c r="R8" s="31"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.3">
@@ -2505,8 +2498,10 @@
       <c r="L9" s="16" t="s">
         <v>439</v>
       </c>
-      <c r="M9" s="53"/>
-      <c r="N9" s="57"/>
+      <c r="M9" s="53">
+        <f ca="1">TODAY()</f>
+        <v>45302</v>
+      </c>
       <c r="O9" s="16" t="s">
         <v>244</v>
       </c>
@@ -2514,7 +2509,6 @@
         <f>SUM(P5:P8)</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="57"/>
       <c r="R9" s="31"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.3">
@@ -2531,13 +2525,9 @@
         <v>438</v>
       </c>
       <c r="M10" s="54">
-        <f>ROUND(M14/(M9-M8+1),0)</f>
-        <v>0</v>
-      </c>
-      <c r="N10" s="57"/>
-      <c r="O10" s="57"/>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="57"/>
+        <f ca="1">ROUND(M14/(M9-M8+1),0)</f>
+        <v>0</v>
+      </c>
       <c r="R10" s="31"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.3">
@@ -2550,20 +2540,17 @@
         <v>13</v>
       </c>
       <c r="F11" s="14"/>
-      <c r="G11" s="58" t="s">
+      <c r="G11" s="57" t="s">
         <v>210</v>
       </c>
-      <c r="H11" s="58"/>
+      <c r="H11" s="57"/>
       <c r="I11" s="31"/>
       <c r="K11" s="30"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="57"/>
       <c r="O11" s="14"/>
-      <c r="P11" s="58" t="s">
+      <c r="P11" s="57" t="s">
         <v>210</v>
       </c>
-      <c r="Q11" s="58"/>
+      <c r="Q11" s="57"/>
       <c r="R11" s="31"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.3">
@@ -2592,7 +2579,6 @@
       <c r="M12" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="N12" s="57"/>
       <c r="O12" s="21" t="s">
         <v>269</v>
       </c>
@@ -2631,7 +2617,6 @@
         <f>COUNTIF('College-Details'!T:T,L13)</f>
         <v>0</v>
       </c>
-      <c r="N13" s="57"/>
       <c r="O13" s="22">
         <v>45292</v>
       </c>
@@ -2670,7 +2655,6 @@
         <f>COUNTIF('College-Details'!T:T,L14)</f>
         <v>0</v>
       </c>
-      <c r="N14" s="57"/>
       <c r="O14" s="22">
         <v>45323</v>
       </c>
@@ -2709,7 +2693,6 @@
         <f>COUNTIF('College-Details'!T:T,L15)</f>
         <v>0</v>
       </c>
-      <c r="N15" s="57"/>
       <c r="O15" s="22">
         <v>45352</v>
       </c>
@@ -2748,7 +2731,6 @@
         <f>COUNTIF('College-Details'!T:T,L16)</f>
         <v>0</v>
       </c>
-      <c r="N16" s="57"/>
       <c r="O16" s="22">
         <v>45383</v>
       </c>
@@ -2787,7 +2769,6 @@
         <f>COUNTIF('College-Details'!T:T,L17)</f>
         <v>0</v>
       </c>
-      <c r="N17" s="57"/>
       <c r="O17" s="22">
         <v>45413</v>
       </c>
@@ -2826,7 +2807,6 @@
         <f>COUNTIF('College-Details'!T:T,L18)</f>
         <v>0</v>
       </c>
-      <c r="N18" s="57"/>
       <c r="O18" s="22">
         <v>45444</v>
       </c>
@@ -2865,7 +2845,6 @@
         <f>COUNTIF('College-Details'!T:T,L19)</f>
         <v>53</v>
       </c>
-      <c r="N19" s="57"/>
       <c r="O19" s="22">
         <v>45474</v>
       </c>
@@ -2897,7 +2876,6 @@
         <f>COUNTIF('College-Details'!T:T,L20)</f>
         <v>0</v>
       </c>
-      <c r="N20" s="57"/>
       <c r="O20" s="22">
         <v>45505</v>
       </c>
@@ -2935,7 +2913,6 @@
         <f>SUM(M13:M20)</f>
         <v>53</v>
       </c>
-      <c r="N21" s="57"/>
       <c r="O21" s="22">
         <v>45536</v>
       </c>
@@ -2969,9 +2946,6 @@
       </c>
       <c r="I22" s="31"/>
       <c r="K22" s="30"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="57"/>
-      <c r="N22" s="57"/>
       <c r="O22" s="22">
         <v>45566</v>
       </c>
@@ -3009,7 +2983,6 @@
       <c r="M23" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="N23" s="57"/>
       <c r="O23" s="22">
         <v>45597</v>
       </c>
@@ -3050,7 +3023,6 @@
         <f>COUNTIF('College-Details'!S:S,L24)</f>
         <v>0</v>
       </c>
-      <c r="N24" s="57"/>
       <c r="O24" s="22">
         <v>45627</v>
       </c>
@@ -3093,7 +3065,6 @@
         <f>COUNTIF('College-Details'!S:S,L25)</f>
         <v>0</v>
       </c>
-      <c r="N25" s="57"/>
       <c r="O25" s="16" t="s">
         <v>244</v>
       </c>
@@ -3125,10 +3096,6 @@
         <f>SUM(M24:M25)</f>
         <v>0</v>
       </c>
-      <c r="N26" s="57"/>
-      <c r="O26" s="57"/>
-      <c r="P26" s="57"/>
-      <c r="Q26" s="57"/>
       <c r="R26" s="31"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.3">
@@ -3153,10 +3120,6 @@
         <f>COUNTIF('College-Details'!S:S,L27)</f>
         <v>0</v>
       </c>
-      <c r="N27" s="57"/>
-      <c r="O27" s="57"/>
-      <c r="P27" s="57"/>
-      <c r="Q27" s="57"/>
       <c r="R27" s="31"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.3">
@@ -3177,10 +3140,6 @@
         <f>SUM(M27)</f>
         <v>0</v>
       </c>
-      <c r="N28" s="57"/>
-      <c r="O28" s="57"/>
-      <c r="P28" s="57"/>
-      <c r="Q28" s="57"/>
       <c r="R28" s="31"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.3">
@@ -3203,10 +3162,6 @@
         <f>COUNTIF('College-Details'!S:S,L29)</f>
         <v>0</v>
       </c>
-      <c r="N29" s="57"/>
-      <c r="O29" s="57"/>
-      <c r="P29" s="57"/>
-      <c r="Q29" s="57"/>
       <c r="R29" s="31"/>
     </row>
     <row r="30" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3231,10 +3186,6 @@
         <f>COUNTIF('College-Details'!S:S,L30)</f>
         <v>0</v>
       </c>
-      <c r="N30" s="57"/>
-      <c r="O30" s="57"/>
-      <c r="P30" s="57"/>
-      <c r="Q30" s="57"/>
       <c r="R30" s="31"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.3">
@@ -3246,10 +3197,6 @@
         <f>SUM(M29:M30)</f>
         <v>0</v>
       </c>
-      <c r="N31" s="57"/>
-      <c r="O31" s="57"/>
-      <c r="P31" s="57"/>
-      <c r="Q31" s="57"/>
       <c r="R31" s="31"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.3">
@@ -3261,10 +3208,6 @@
         <f>M26+M28+M31</f>
         <v>0</v>
       </c>
-      <c r="N32" s="57"/>
-      <c r="O32" s="57"/>
-      <c r="P32" s="57"/>
-      <c r="Q32" s="57"/>
       <c r="R32" s="31"/>
     </row>
     <row r="33" spans="11:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3290,7 +3233,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:U124"/>
   <sheetViews>
@@ -8408,7 +8351,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U124">
+  <autoFilter ref="A1:U124" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <filterColumn colId="20">
       <filters>
         <filter val="Not-Contacted"/>
@@ -8416,66 +8359,66 @@
     </filterColumn>
   </autoFilter>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U1:U1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U1:U1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Initial,Potential,Customer,Support,Upsells,Reject,Not-Contacted,Ex-Customer"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Rahul Dutta,Sayan Basak,Anirban Chakraborty,Debashish Nath"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D31" r:id="rId1"/>
-    <hyperlink ref="D32" r:id="rId2"/>
-    <hyperlink ref="F7" r:id="rId3" display="https://www.google.com/search?q=panchasayar+siksha+niketan&amp;sca_esv=593615924&amp;rlz=1C1CHBF_enAU1047AU1047&amp;sxsrf=AM9HkKnlKkWvrpmDIvMzNnJR8ZC_8s6gNQ%3A1703524925488&amp;ei=PbqJZaauHY2KnesPo--TuAo&amp;gs_ssp=eJzj4tFP1zc0MqnMzTa1TDNgtFI1qDBONDAyNzRPNU1LM0xOTkuyAgqZpJmZmJgnGZgZGSWnpSV5SRUk5iVnJBYnViYWKRRnZhdnJCrkZWanliTmAQC7Qxln&amp;oq=panchasayar+s&amp;gs_lp=Egxnd3Mtd2l6LXNlcnAiDXBhbmNoYXNheWFyIHMqAggAMhQQLhivARjHARimAxioAxiABBiOBTIFEAAYgAQyBRAAGIAEMgsQLhiABBioAxidAzIFEAAYgAQyBRAAGIAEMgUQABiABDIFEAAYgAQyCBAAGIAEGMsBMggQABiABBjLATIjEC4YrwEYxwEYpgMYqAMYgAQYjgUYlwUY3AQY3gQY4ATYAQNIuzhQmhhYmCVwAXgBkAEAmAGvAqAB1gSqAQUyLTEuMbgBAcgBAPgBAcICChAAGEcY1gQYsAPCAg0QABiABBiKBRhDGLADwgIcEC4YgAQYigUYQxjHARivARjIAxiwAxiOBdgBAcICGRAuGIAEGIoFGEMYxwEYrwEYyAMYsAPYAQHCAg4QABjkAhjWBBiwA9gBAsICEBAuGEMYnQMYqAMYgAQYigXCAhAQLhiABBiKBRhDGKgDGJ0DwgIWEC4YQxivARjHARimAxioAxiABBiKBcICChAAGIAEGBQYhwLCAh8QLhhDGJ0DGKgDGIAEGIoFGJcFGNwEGN4EGOAE2AED4gMEGAAgQYgGAZAGDroGBggBEAEYCLoGBggCEAEYCboGBggDEAEYFA&amp;sclient=gws-wiz-serp"/>
-    <hyperlink ref="F8" r:id="rId4" display="https://www.google.com/search?q=miranda+high+school&amp;sca_esv=593615924&amp;rlz=1C1CHBF_enAU1047AU1047&amp;sxsrf=AM9HkKmR8dFtasrVNGZkMFIxGz5Wq06ZjA%3A1703525037148&amp;ei=rbqJZczSCOCWjuMPsMy_8AM&amp;oq=miranda+high+&amp;gs_lp=Egxnd3Mtd2l6LXNlcnAiDW1pcmFuZGEgaGlnaCAqAggAMg0QABiABBgUGIcCGMkDMgUQABiABDILEAAYgAQYigUYkgMyBRAAGIAEMgUQABiABDIKEAAYgAQYFBiHAjIFEAAYgAQyBRAAGIAEMgUQABiABDIFEAAYgARI7RNQ6AZY6AZwAXgAkAEAmAH0BqABuAyqAQM2LTK4AQHIAQD4AQHCAgoQABhHGNYEGLAD4gMEGAAgQYgGAZAGCA&amp;sclient=gws-wiz-serp&amp;lqi=ChNtaXJhbmRhIGhpZ2ggc2Nob29sSN-07OW4roCACForEAAQARACGAAYARgCIhNtaXJhbmRhIGhpZ2ggc2Nob29sKggIAhAAEAEQApIBBnNjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOUGNqUnVSbVZuRUFFqgE7EAEyHhABIhpTQ3iPFiqMHHb-9vGb0lli1Rpc5Z8xE87GgDIXEAIiE21pcmFuZGEgaGlnaCBzY2hvb2w"/>
-    <hyperlink ref="D22" r:id="rId5"/>
-    <hyperlink ref="D25" r:id="rId6" display="mailto:official@younghorizonsschool.com"/>
-    <hyperlink ref="D26" r:id="rId7" display="mailto:iwanttojoin@siskol.edu.in"/>
-    <hyperlink ref="D27" r:id="rId8" display="mailto:lcgvm2012@gmail.com"/>
-    <hyperlink ref="D30" r:id="rId9"/>
-    <hyperlink ref="D33" r:id="rId10"/>
-    <hyperlink ref="D35" r:id="rId11"/>
-    <hyperlink ref="D37" r:id="rId12"/>
-    <hyperlink ref="D41" r:id="rId13"/>
-    <hyperlink ref="D42" r:id="rId14"/>
-    <hyperlink ref="D43" r:id="rId15"/>
-    <hyperlink ref="D47" r:id="rId16"/>
-    <hyperlink ref="D48" r:id="rId17"/>
-    <hyperlink ref="D49" r:id="rId18"/>
-    <hyperlink ref="D51" r:id="rId19"/>
-    <hyperlink ref="D52" r:id="rId20"/>
-    <hyperlink ref="D53" r:id="rId21"/>
-    <hyperlink ref="D54" r:id="rId22"/>
-    <hyperlink ref="D55" r:id="rId23"/>
-    <hyperlink ref="D56" r:id="rId24"/>
-    <hyperlink ref="D57" r:id="rId25"/>
-    <hyperlink ref="D58" r:id="rId26"/>
-    <hyperlink ref="D59" r:id="rId27"/>
-    <hyperlink ref="D60" r:id="rId28"/>
-    <hyperlink ref="D61" r:id="rId29"/>
-    <hyperlink ref="D62" r:id="rId30"/>
-    <hyperlink ref="D63" r:id="rId31"/>
-    <hyperlink ref="D64" r:id="rId32"/>
-    <hyperlink ref="D65" r:id="rId33"/>
-    <hyperlink ref="D66" r:id="rId34"/>
-    <hyperlink ref="D67" r:id="rId35"/>
-    <hyperlink ref="D68" r:id="rId36"/>
-    <hyperlink ref="D69" r:id="rId37"/>
-    <hyperlink ref="D70" r:id="rId38"/>
-    <hyperlink ref="D71" r:id="rId39"/>
-    <hyperlink ref="D72" r:id="rId40"/>
-    <hyperlink ref="D73" r:id="rId41"/>
-    <hyperlink ref="D75" r:id="rId42"/>
-    <hyperlink ref="D78" r:id="rId43"/>
-    <hyperlink ref="D79" r:id="rId44"/>
-    <hyperlink ref="D80" r:id="rId45"/>
-    <hyperlink ref="D81" r:id="rId46"/>
-    <hyperlink ref="D85" r:id="rId47"/>
-    <hyperlink ref="D88" r:id="rId48"/>
-    <hyperlink ref="D89" r:id="rId49"/>
-    <hyperlink ref="D91" r:id="rId50"/>
-    <hyperlink ref="D2" r:id="rId51"/>
-    <hyperlink ref="D28" r:id="rId52"/>
+    <hyperlink ref="D31" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="D32" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="F7" r:id="rId3" display="https://www.google.com/search?q=panchasayar+siksha+niketan&amp;sca_esv=593615924&amp;rlz=1C1CHBF_enAU1047AU1047&amp;sxsrf=AM9HkKnlKkWvrpmDIvMzNnJR8ZC_8s6gNQ%3A1703524925488&amp;ei=PbqJZaauHY2KnesPo--TuAo&amp;gs_ssp=eJzj4tFP1zc0MqnMzTa1TDNgtFI1qDBONDAyNzRPNU1LM0xOTkuyAgqZpJmZmJgnGZgZGSWnpSV5SRUk5iVnJBYnViYWKRRnZhdnJCrkZWanliTmAQC7Qxln&amp;oq=panchasayar+s&amp;gs_lp=Egxnd3Mtd2l6LXNlcnAiDXBhbmNoYXNheWFyIHMqAggAMhQQLhivARjHARimAxioAxiABBiOBTIFEAAYgAQyBRAAGIAEMgsQLhiABBioAxidAzIFEAAYgAQyBRAAGIAEMgUQABiABDIFEAAYgAQyCBAAGIAEGMsBMggQABiABBjLATIjEC4YrwEYxwEYpgMYqAMYgAQYjgUYlwUY3AQY3gQY4ATYAQNIuzhQmhhYmCVwAXgBkAEAmAGvAqAB1gSqAQUyLTEuMbgBAcgBAPgBAcICChAAGEcY1gQYsAPCAg0QABiABBiKBRhDGLADwgIcEC4YgAQYigUYQxjHARivARjIAxiwAxiOBdgBAcICGRAuGIAEGIoFGEMYxwEYrwEYyAMYsAPYAQHCAg4QABjkAhjWBBiwA9gBAsICEBAuGEMYnQMYqAMYgAQYigXCAhAQLhiABBiKBRhDGKgDGJ0DwgIWEC4YQxivARjHARimAxioAxiABBiKBcICChAAGIAEGBQYhwLCAh8QLhhDGJ0DGKgDGIAEGIoFGJcFGNwEGN4EGOAE2AED4gMEGAAgQYgGAZAGDroGBggBEAEYCLoGBggCEAEYCboGBggDEAEYFA&amp;sclient=gws-wiz-serp" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="F8" r:id="rId4" display="https://www.google.com/search?q=miranda+high+school&amp;sca_esv=593615924&amp;rlz=1C1CHBF_enAU1047AU1047&amp;sxsrf=AM9HkKmR8dFtasrVNGZkMFIxGz5Wq06ZjA%3A1703525037148&amp;ei=rbqJZczSCOCWjuMPsMy_8AM&amp;oq=miranda+high+&amp;gs_lp=Egxnd3Mtd2l6LXNlcnAiDW1pcmFuZGEgaGlnaCAqAggAMg0QABiABBgUGIcCGMkDMgUQABiABDILEAAYgAQYigUYkgMyBRAAGIAEMgUQABiABDIKEAAYgAQYFBiHAjIFEAAYgAQyBRAAGIAEMgUQABiABDIFEAAYgARI7RNQ6AZY6AZwAXgAkAEAmAH0BqABuAyqAQM2LTK4AQHIAQD4AQHCAgoQABhHGNYEGLAD4gMEGAAgQYgGAZAGCA&amp;sclient=gws-wiz-serp&amp;lqi=ChNtaXJhbmRhIGhpZ2ggc2Nob29sSN-07OW4roCACForEAAQARACGAAYARgCIhNtaXJhbmRhIGhpZ2ggc2Nob29sKggIAhAAEAEQApIBBnNjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOUGNqUnVSbVZuRUFFqgE7EAEyHhABIhpTQ3iPFiqMHHb-9vGb0lli1Rpc5Z8xE87GgDIXEAIiE21pcmFuZGEgaGlnaCBzY2hvb2w" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="D22" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="D25" r:id="rId6" display="mailto:official@younghorizonsschool.com" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="D26" r:id="rId7" display="mailto:iwanttojoin@siskol.edu.in" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="D27" r:id="rId8" display="mailto:lcgvm2012@gmail.com" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="D30" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="D33" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="D35" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="D37" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="D41" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="D42" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="D43" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="D47" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="D48" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="D49" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="D51" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="D52" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="D53" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="D54" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="D55" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="D56" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="D57" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="D58" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="D59" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="D60" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="D61" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="D62" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="D63" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="D64" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="D65" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="D66" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="D67" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="D68" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="D69" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="D70" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
+    <hyperlink ref="D71" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
+    <hyperlink ref="D72" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
+    <hyperlink ref="D73" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
+    <hyperlink ref="D75" r:id="rId42" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
+    <hyperlink ref="D78" r:id="rId43" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
+    <hyperlink ref="D79" r:id="rId44" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
+    <hyperlink ref="D80" r:id="rId45" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
+    <hyperlink ref="D81" r:id="rId46" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
+    <hyperlink ref="D85" r:id="rId47" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
+    <hyperlink ref="D88" r:id="rId48" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
+    <hyperlink ref="D89" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
+    <hyperlink ref="D91" r:id="rId50" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
+    <hyperlink ref="D2" r:id="rId51" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
+    <hyperlink ref="D28" r:id="rId52" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId53"/>
@@ -8484,18 +8427,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="B111" sqref="B111"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.5546875" customWidth="1"/>
-    <col min="3" max="3" width="27.88671875" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.44140625" customWidth="1"/>
+    <col min="3" max="3" width="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>1</v>
       </c>
@@ -8506,42 +8452,42 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>2</v>
+    <row r="2" spans="1:3" s="65" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="38">
+        <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="64" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>4</v>
+    <row r="3" spans="1:3" s="65" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="38">
+        <v>2</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="64" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>5</v>
+    <row r="4" spans="1:3" s="65" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="38">
+        <v>3</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="66" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>6</v>
+    <row r="5" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="38">
+        <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>13</v>
@@ -8550,9 +8496,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>7</v>
+    <row r="6" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="38">
+        <v>5</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>14</v>
@@ -8561,9 +8507,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>8</v>
+    <row r="7" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="38">
+        <v>6</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>15</v>
@@ -8572,9 +8518,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>9</v>
+    <row r="8" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="38">
+        <v>7</v>
       </c>
       <c r="B8" s="17" t="s">
         <v>16</v>
@@ -8583,9 +8529,9 @@
         <v>9051770999</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>10</v>
+    <row r="9" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="38">
+        <v>8</v>
       </c>
       <c r="B9" s="17" t="s">
         <v>17</v>
@@ -8594,9 +8540,9 @@
         <v>9903606575</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>11</v>
+    <row r="10" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="38">
+        <v>9</v>
       </c>
       <c r="B10" s="17" t="s">
         <v>18</v>
@@ -8605,9 +8551,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>12</v>
+    <row r="11" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="38">
+        <v>10</v>
       </c>
       <c r="B11" s="17" t="s">
         <v>19</v>
@@ -8616,9 +8562,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>15</v>
+    <row r="12" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="38">
+        <v>11</v>
       </c>
       <c r="B12" s="17" t="s">
         <v>20</v>
@@ -8627,9 +8573,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>19</v>
+    <row r="13" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="38">
+        <v>12</v>
       </c>
       <c r="B13" s="17" t="s">
         <v>24</v>
@@ -8638,9 +8584,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>20</v>
+    <row r="14" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="38">
+        <v>13</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>26</v>
@@ -8649,9 +8595,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>23</v>
+    <row r="15" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="38">
+        <v>14</v>
       </c>
       <c r="B15" s="17" t="s">
         <v>29</v>
@@ -8660,9 +8606,9 @@
         <v>8961111167</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <v>24</v>
+    <row r="16" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="38">
+        <v>15</v>
       </c>
       <c r="B16" s="17" t="s">
         <v>30</v>
@@ -8671,9 +8617,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <v>25</v>
+    <row r="17" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="38">
+        <v>16</v>
       </c>
       <c r="B17" s="17" t="s">
         <v>31</v>
@@ -8682,9 +8628,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>26</v>
+    <row r="18" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="38">
+        <v>17</v>
       </c>
       <c r="B18" s="17" t="s">
         <v>32</v>
@@ -8693,9 +8639,9 @@
         <v>7044096127</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>28</v>
+    <row r="19" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="38">
+        <v>18</v>
       </c>
       <c r="B19" s="17" t="s">
         <v>72</v>
@@ -8704,9 +8650,9 @@
         <v>9831274629</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
-        <v>29</v>
+    <row r="20" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="38">
+        <v>19</v>
       </c>
       <c r="B20" s="17" t="s">
         <v>34</v>
@@ -8715,9 +8661,9 @@
         <v>8777257554</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>32</v>
+    <row r="21" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="38">
+        <v>20</v>
       </c>
       <c r="B21" s="17" t="s">
         <v>76</v>
@@ -8726,9 +8672,9 @@
         <v>3322651531</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
-        <v>33</v>
+    <row r="22" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="38">
+        <v>21</v>
       </c>
       <c r="B22" s="17" t="s">
         <v>79</v>
@@ -8737,9 +8683,9 @@
         <v>3324753015</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
-        <v>35</v>
+    <row r="23" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="38">
+        <v>22</v>
       </c>
       <c r="B23" s="17" t="s">
         <v>82</v>
@@ -8748,9 +8694,9 @@
         <v>3324753765</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
-        <v>36</v>
+    <row r="24" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="38">
+        <v>23</v>
       </c>
       <c r="B24" s="17" t="s">
         <v>85</v>
@@ -8759,9 +8705,9 @@
         <v>3324286903</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
-        <v>37</v>
+    <row r="25" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="38">
+        <v>24</v>
       </c>
       <c r="B25" s="17" t="s">
         <v>87</v>
@@ -8770,9 +8716,9 @@
         <v>8902488077</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
-        <v>38</v>
+    <row r="26" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="38">
+        <v>25</v>
       </c>
       <c r="B26" s="17" t="s">
         <v>88</v>
@@ -8781,9 +8727,9 @@
         <v>9163741069</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
-        <v>39</v>
+    <row r="27" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="38">
+        <v>26</v>
       </c>
       <c r="B27" s="17" t="s">
         <v>89</v>
@@ -8792,9 +8738,9 @@
         <v>3324411691</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
-        <v>40</v>
+    <row r="28" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="38">
+        <v>27</v>
       </c>
       <c r="B28" s="17" t="s">
         <v>90</v>
@@ -8803,9 +8749,9 @@
         <v>3324413804</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
-        <v>41</v>
+    <row r="29" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="38">
+        <v>28</v>
       </c>
       <c r="B29" s="17" t="s">
         <v>92</v>
@@ -8814,9 +8760,9 @@
         <v>9830688888</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
-        <v>42</v>
+    <row r="30" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="38">
+        <v>29</v>
       </c>
       <c r="B30" s="17" t="s">
         <v>94</v>
@@ -8825,9 +8771,9 @@
         <v>9073985531</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
-        <v>43</v>
+    <row r="31" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="38">
+        <v>30</v>
       </c>
       <c r="B31" s="17" t="s">
         <v>96</v>
@@ -8836,9 +8782,9 @@
         <v>3324712220</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
-        <v>44</v>
+    <row r="32" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="38">
+        <v>31</v>
       </c>
       <c r="B32" s="17" t="s">
         <v>97</v>
@@ -8847,9 +8793,9 @@
         <v>3324131158</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
-        <v>45</v>
+    <row r="33" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="38">
+        <v>32</v>
       </c>
       <c r="B33" s="17" t="s">
         <v>98</v>
@@ -8858,9 +8804,9 @@
         <v>9836242629</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
-        <v>46</v>
+    <row r="34" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="38">
+        <v>33</v>
       </c>
       <c r="B34" s="17" t="s">
         <v>99</v>
@@ -8869,9 +8815,9 @@
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
-        <v>47</v>
+    <row r="35" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="38">
+        <v>34</v>
       </c>
       <c r="B35" s="17" t="s">
         <v>102</v>
@@ -8880,9 +8826,9 @@
         <v>9051973905</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
-        <v>48</v>
+    <row r="36" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="38">
+        <v>35</v>
       </c>
       <c r="B36" s="17" t="s">
         <v>104</v>
@@ -8891,9 +8837,9 @@
         <v>9674850783</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
-        <v>49</v>
+    <row r="37" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="38">
+        <v>36</v>
       </c>
       <c r="B37" s="17" t="s">
         <v>106</v>
@@ -8902,9 +8848,9 @@
         <v>9674111783</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
-        <v>50</v>
+    <row r="38" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="38">
+        <v>37</v>
       </c>
       <c r="B38" s="17" t="s">
         <v>108</v>
@@ -8913,9 +8859,9 @@
         <v>33218260082</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
-        <v>51</v>
+    <row r="39" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="38">
+        <v>38</v>
       </c>
       <c r="B39" s="17" t="s">
         <v>110</v>
@@ -8924,9 +8870,9 @@
         <v>3322879202</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
-        <v>52</v>
+    <row r="40" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="38">
+        <v>39</v>
       </c>
       <c r="B40" s="17" t="s">
         <v>112</v>
@@ -8935,9 +8881,9 @@
         <v>3322841546</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
-        <v>53</v>
+    <row r="41" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="38">
+        <v>40</v>
       </c>
       <c r="B41" s="17" t="s">
         <v>114</v>
@@ -8946,9 +8892,9 @@
         <v>3322484593</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
-        <v>54</v>
+    <row r="42" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="38">
+        <v>41</v>
       </c>
       <c r="B42" s="17" t="s">
         <v>116</v>
@@ -8957,9 +8903,9 @@
         <v>3322297741</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
-        <v>55</v>
+    <row r="43" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="38">
+        <v>42</v>
       </c>
       <c r="B43" s="17" t="s">
         <v>118</v>
@@ -8968,9 +8914,9 @@
         <v>3324793241</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="2">
-        <v>56</v>
+    <row r="44" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="38">
+        <v>43</v>
       </c>
       <c r="B44" s="17" t="s">
         <v>120</v>
@@ -8979,9 +8925,9 @@
         <v>3324344455</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="2">
-        <v>57</v>
+    <row r="45" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="38">
+        <v>44</v>
       </c>
       <c r="B45" s="17" t="s">
         <v>120</v>
@@ -8990,9 +8936,9 @@
         <v>3340083093</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="2">
-        <v>58</v>
+    <row r="46" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="38">
+        <v>45</v>
       </c>
       <c r="B46" s="17" t="s">
         <v>122</v>
@@ -9001,9 +8947,9 @@
         <v>3324618002</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="2">
-        <v>59</v>
+    <row r="47" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="38">
+        <v>46</v>
       </c>
       <c r="B47" s="17" t="s">
         <v>124</v>
@@ -9012,9 +8958,9 @@
         <v>126</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A48" s="2">
-        <v>60</v>
+    <row r="48" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="38">
+        <v>47</v>
       </c>
       <c r="B48" s="17" t="s">
         <v>127</v>
@@ -9023,9 +8969,9 @@
         <v>3324569090</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A49" s="2">
-        <v>61</v>
+    <row r="49" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="38">
+        <v>48</v>
       </c>
       <c r="B49" s="17" t="s">
         <v>129</v>
@@ -9034,9 +8980,9 @@
         <v>3322233062</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A50" s="2">
-        <v>62</v>
+    <row r="50" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="38">
+        <v>49</v>
       </c>
       <c r="B50" s="17" t="s">
         <v>131</v>
@@ -9045,9 +8991,9 @@
         <v>133</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A51" s="2">
-        <v>63</v>
+    <row r="51" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="38">
+        <v>50</v>
       </c>
       <c r="B51" s="17" t="s">
         <v>134</v>
@@ -9056,9 +9002,9 @@
         <v>3324793600</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A52" s="2">
-        <v>64</v>
+    <row r="52" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="38">
+        <v>51</v>
       </c>
       <c r="B52" s="17" t="s">
         <v>136</v>
@@ -9067,9 +9013,9 @@
         <v>3324866629</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A53" s="2">
-        <v>65</v>
+    <row r="53" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="38">
+        <v>52</v>
       </c>
       <c r="B53" s="17" t="s">
         <v>138</v>
@@ -9078,9 +9024,9 @@
         <v>3322848038</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A54" s="2">
-        <v>66</v>
+    <row r="54" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="38">
+        <v>53</v>
       </c>
       <c r="B54" s="17" t="s">
         <v>140</v>
@@ -9089,9 +9035,9 @@
         <v>905188888</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A55" s="2">
-        <v>67</v>
+    <row r="55" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="38">
+        <v>54</v>
       </c>
       <c r="B55" s="17" t="s">
         <v>142</v>
@@ -9100,9 +9046,9 @@
         <v>7596949952</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A56" s="2">
-        <v>68</v>
+    <row r="56" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="38">
+        <v>55</v>
       </c>
       <c r="B56" s="17" t="s">
         <v>144</v>
@@ -9111,9 +9057,9 @@
         <v>7478196910</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A57" s="2">
-        <v>69</v>
+    <row r="57" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="38">
+        <v>56</v>
       </c>
       <c r="B57" s="17" t="s">
         <v>146</v>
@@ -9122,9 +9068,9 @@
         <v>7044447761</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="2">
-        <v>70</v>
+    <row r="58" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="38">
+        <v>57</v>
       </c>
       <c r="B58" s="17" t="s">
         <v>148</v>
@@ -9133,9 +9079,9 @@
         <v>7059600647</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="2">
-        <v>71</v>
+    <row r="59" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="38">
+        <v>58</v>
       </c>
       <c r="B59" s="17" t="s">
         <v>150</v>
@@ -9144,9 +9090,9 @@
         <v>3340072444</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="2">
-        <v>72</v>
+    <row r="60" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="38">
+        <v>59</v>
       </c>
       <c r="B60" s="17" t="s">
         <v>152</v>
@@ -9155,9 +9101,9 @@
         <v>9903102957</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A61" s="2">
-        <v>73</v>
+    <row r="61" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="38">
+        <v>60</v>
       </c>
       <c r="B61" s="17" t="s">
         <v>154</v>
@@ -9166,9 +9112,9 @@
         <v>7605080650</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A62" s="2">
-        <v>74</v>
+    <row r="62" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="38">
+        <v>61</v>
       </c>
       <c r="B62" s="17" t="s">
         <v>155</v>
@@ -9177,9 +9123,9 @@
         <v>3324752135</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A63" s="2">
-        <v>75</v>
+    <row r="63" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="38">
+        <v>62</v>
       </c>
       <c r="B63" s="17" t="s">
         <v>157</v>
@@ -9188,9 +9134,9 @@
         <v>9674645471</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A64" s="2">
-        <v>76</v>
+    <row r="64" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="38">
+        <v>63</v>
       </c>
       <c r="B64" s="17" t="s">
         <v>158</v>
@@ -9199,9 +9145,9 @@
         <v>9073681886</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="2">
-        <v>77</v>
+    <row r="65" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="38">
+        <v>64</v>
       </c>
       <c r="B65" s="17" t="s">
         <v>159</v>
@@ -9210,9 +9156,9 @@
         <v>3324316997</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="2">
-        <v>78</v>
+    <row r="66" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="38">
+        <v>65</v>
       </c>
       <c r="B66" s="17" t="s">
         <v>161</v>
@@ -9221,9 +9167,9 @@
         <v>3322291779</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A67" s="2">
-        <v>79</v>
+    <row r="67" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="38">
+        <v>66</v>
       </c>
       <c r="B67" s="17" t="s">
         <v>163</v>
@@ -9232,9 +9178,9 @@
         <v>3323215151</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A68" s="2">
-        <v>80</v>
+    <row r="68" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="38">
+        <v>67</v>
       </c>
       <c r="B68" s="17" t="s">
         <v>165</v>
@@ -9243,9 +9189,9 @@
         <v>3323342404</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A69" s="2">
-        <v>81</v>
+    <row r="69" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="38">
+        <v>68</v>
       </c>
       <c r="B69" s="17" t="s">
         <v>167</v>
@@ -9254,9 +9200,9 @@
         <v>168</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A70" s="2">
-        <v>82</v>
+    <row r="70" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="38">
+        <v>69</v>
       </c>
       <c r="B70" s="17" t="s">
         <v>169</v>
@@ -9265,9 +9211,9 @@
         <v>170</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A71" s="2">
-        <v>83</v>
+    <row r="71" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="38">
+        <v>70</v>
       </c>
       <c r="B71" s="17" t="s">
         <v>171</v>
@@ -9276,9 +9222,9 @@
         <v>9606279184</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A72" s="2">
-        <v>84</v>
+    <row r="72" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="38">
+        <v>71</v>
       </c>
       <c r="B72" s="17" t="s">
         <v>172</v>
@@ -9287,9 +9233,9 @@
         <v>8777867589</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A73" s="2">
-        <v>85</v>
+    <row r="73" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="38">
+        <v>72</v>
       </c>
       <c r="B73" s="17" t="s">
         <v>174</v>
@@ -9298,9 +9244,9 @@
         <v>8017672075</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A74" s="2">
-        <v>86</v>
+    <row r="74" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="38">
+        <v>73</v>
       </c>
       <c r="B74" s="17" t="s">
         <v>175</v>
@@ -9309,9 +9255,9 @@
         <v>3324492810</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A75" s="2">
-        <v>87</v>
+    <row r="75" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="38">
+        <v>74</v>
       </c>
       <c r="B75" s="17" t="s">
         <v>176</v>
@@ -9320,9 +9266,9 @@
         <v>3324967196</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A76" s="2">
-        <v>88</v>
+    <row r="76" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="38">
+        <v>75</v>
       </c>
       <c r="B76" s="17" t="s">
         <v>178</v>
@@ -9331,9 +9277,9 @@
         <v>9830701347</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A77" s="2">
-        <v>89</v>
+    <row r="77" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="38">
+        <v>76</v>
       </c>
       <c r="B77" s="17" t="s">
         <v>180</v>
@@ -9342,9 +9288,9 @@
         <v>3324961723</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A78" s="2">
-        <v>90</v>
+    <row r="78" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="38">
+        <v>77</v>
       </c>
       <c r="B78" s="17" t="s">
         <v>181</v>
@@ -9353,9 +9299,9 @@
         <v>9007792852</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A79" s="2">
-        <v>91</v>
+    <row r="79" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="38">
+        <v>78</v>
       </c>
       <c r="B79" s="17" t="s">
         <v>183</v>
@@ -9364,9 +9310,9 @@
         <v>8902765583</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A80" s="2">
-        <v>92</v>
+    <row r="80" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="38">
+        <v>79</v>
       </c>
       <c r="B80" s="17" t="s">
         <v>184</v>
@@ -9375,9 +9321,9 @@
         <v>9331866252</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A81" s="2">
-        <v>93</v>
+    <row r="81" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="38">
+        <v>80</v>
       </c>
       <c r="B81" s="17" t="s">
         <v>185</v>
@@ -9386,9 +9332,9 @@
         <v>9903540099</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A82" s="2">
-        <v>94</v>
+    <row r="82" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="38">
+        <v>81</v>
       </c>
       <c r="B82" s="17" t="s">
         <v>186</v>
@@ -9397,9 +9343,9 @@
         <v>8336998663</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A83" s="2">
-        <v>95</v>
+    <row r="83" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="38">
+        <v>82</v>
       </c>
       <c r="B83" s="17" t="s">
         <v>187</v>
@@ -9408,9 +9354,9 @@
         <v>9339527506</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A84" s="2">
-        <v>96</v>
+    <row r="84" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="38">
+        <v>83</v>
       </c>
       <c r="B84" s="17" t="s">
         <v>188</v>
@@ -9419,9 +9365,9 @@
         <v>9903312630</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="2">
-        <v>97</v>
+    <row r="85" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="38">
+        <v>84</v>
       </c>
       <c r="B85" s="17" t="s">
         <v>189</v>
@@ -9430,9 +9376,9 @@
         <v>9836747400</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A86" s="2">
-        <v>98</v>
+    <row r="86" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="38">
+        <v>85</v>
       </c>
       <c r="B86" s="17" t="s">
         <v>190</v>
@@ -9441,9 +9387,9 @@
         <v>8100188019</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A87" s="2">
-        <v>99</v>
+    <row r="87" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="38">
+        <v>86</v>
       </c>
       <c r="B87" s="17" t="s">
         <v>191</v>
@@ -9452,9 +9398,9 @@
         <v>196</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A88" s="2">
-        <v>100</v>
+    <row r="88" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="38">
+        <v>87</v>
       </c>
       <c r="B88" s="17" t="s">
         <v>198</v>
@@ -9463,9 +9409,9 @@
         <v>197</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A89" s="2">
-        <v>101</v>
+    <row r="89" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="38">
+        <v>88</v>
       </c>
       <c r="B89" s="17" t="s">
         <v>199</v>
@@ -9474,9 +9420,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A90" s="2">
-        <v>102</v>
+    <row r="90" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="38">
+        <v>89</v>
       </c>
       <c r="B90" s="17" t="s">
         <v>23</v>
@@ -9485,9 +9431,9 @@
         <v>201</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A91" s="2">
-        <v>103</v>
+    <row r="91" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="38">
+        <v>90</v>
       </c>
       <c r="B91" s="17" t="s">
         <v>192</v>
@@ -9496,9 +9442,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A92" s="2">
-        <v>104</v>
+    <row r="92" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="38">
+        <v>91</v>
       </c>
       <c r="B92" s="17" t="s">
         <v>193</v>
@@ -9507,9 +9453,9 @@
         <v>203</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A93" s="2">
-        <v>105</v>
+    <row r="93" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="38">
+        <v>92</v>
       </c>
       <c r="B93" s="17" t="s">
         <v>194</v>
@@ -9518,9 +9464,9 @@
         <v>204</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A94" s="2">
-        <v>106</v>
+    <row r="94" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="38">
+        <v>93</v>
       </c>
       <c r="B94" s="17" t="s">
         <v>195</v>
@@ -9529,9 +9475,9 @@
         <v>205</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A95" s="2">
-        <v>107</v>
+    <row r="95" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="38">
+        <v>94</v>
       </c>
       <c r="B95" s="17" t="s">
         <v>206</v>
@@ -9540,9 +9486,9 @@
         <v>207</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A96" s="2">
-        <v>108</v>
+    <row r="96" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="38">
+        <v>95</v>
       </c>
       <c r="B96" s="17" t="s">
         <v>208</v>
@@ -9551,9 +9497,9 @@
         <v>209</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A97" s="2">
-        <v>109</v>
+    <row r="97" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="38">
+        <v>96</v>
       </c>
       <c r="B97" s="17" t="s">
         <v>211</v>
@@ -9562,9 +9508,9 @@
         <v>212</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A98" s="2">
-        <v>110</v>
+    <row r="98" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="38">
+        <v>97</v>
       </c>
       <c r="B98" s="17" t="s">
         <v>213</v>
@@ -9573,9 +9519,9 @@
         <v>214</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A99" s="2">
-        <v>111</v>
+    <row r="99" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="38">
+        <v>98</v>
       </c>
       <c r="B99" s="17" t="s">
         <v>215</v>
@@ -9584,9 +9530,9 @@
         <v>216</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A100" s="2">
-        <v>112</v>
+    <row r="100" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="38">
+        <v>99</v>
       </c>
       <c r="B100" s="17" t="s">
         <v>217</v>
@@ -9595,9 +9541,9 @@
         <v>218</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A101" s="2">
-        <v>113</v>
+    <row r="101" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="38">
+        <v>100</v>
       </c>
       <c r="B101" s="17" t="s">
         <v>219</v>
@@ -9606,9 +9552,9 @@
         <v>220</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A102" s="2">
-        <v>114</v>
+    <row r="102" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="38">
+        <v>101</v>
       </c>
       <c r="B102" s="17" t="s">
         <v>221</v>
@@ -9617,9 +9563,9 @@
         <v>222</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A103" s="2">
-        <v>115</v>
+    <row r="103" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="38">
+        <v>102</v>
       </c>
       <c r="B103" s="17" t="s">
         <v>223</v>
@@ -9628,9 +9574,9 @@
         <v>224</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A104" s="2">
-        <v>116</v>
+    <row r="104" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="38">
+        <v>103</v>
       </c>
       <c r="B104" s="17" t="s">
         <v>225</v>
@@ -9639,9 +9585,9 @@
         <v>226</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A105" s="2">
-        <v>117</v>
+    <row r="105" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="38">
+        <v>104</v>
       </c>
       <c r="B105" s="17" t="s">
         <v>227</v>
@@ -9650,9 +9596,9 @@
         <v>228</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A106" s="2">
-        <v>118</v>
+    <row r="106" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="38">
+        <v>105</v>
       </c>
       <c r="B106" s="17" t="s">
         <v>230</v>
@@ -9661,9 +9607,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A107" s="2">
-        <v>119</v>
+    <row r="107" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="38">
+        <v>106</v>
       </c>
       <c r="B107" s="17" t="s">
         <v>231</v>
@@ -9672,9 +9618,9 @@
         <v>232</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A108" s="2">
-        <v>120</v>
+    <row r="108" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="38">
+        <v>107</v>
       </c>
       <c r="B108" s="17" t="s">
         <v>233</v>
@@ -9683,9 +9629,9 @@
         <v>234</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A109" s="2">
-        <v>121</v>
+    <row r="109" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="38">
+        <v>108</v>
       </c>
       <c r="B109" s="17" t="s">
         <v>235</v>
@@ -9694,9 +9640,9 @@
         <v>236</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A110" s="2">
-        <v>122</v>
+    <row r="110" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="38">
+        <v>109</v>
       </c>
       <c r="B110" s="17" t="s">
         <v>435</v>
@@ -9705,9 +9651,9 @@
         <v>426</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A111" s="2">
-        <v>123</v>
+    <row r="111" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="38">
+        <v>110</v>
       </c>
       <c r="B111" s="17" t="s">
         <v>436</v>
@@ -9718,15 +9664,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" display="https://www.google.com/search?q=panchasayar+siksha+niketan&amp;sca_esv=593615924&amp;rlz=1C1CHBF_enAU1047AU1047&amp;sxsrf=AM9HkKnlKkWvrpmDIvMzNnJR8ZC_8s6gNQ%3A1703524925488&amp;ei=PbqJZaauHY2KnesPo--TuAo&amp;gs_ssp=eJzj4tFP1zc0MqnMzTa1TDNgtFI1qDBONDAyNzRPNU1LM0xOTkuyAgqZpJmZmJgnGZgZGSWnpSV5SRUk5iVnJBYnViYWKRRnZhdnJCrkZWanliTmAQC7Qxln&amp;oq=panchasayar+s&amp;gs_lp=Egxnd3Mtd2l6LXNlcnAiDXBhbmNoYXNheWFyIHMqAggAMhQQLhivARjHARimAxioAxiABBiOBTIFEAAYgAQyBRAAGIAEMgsQLhiABBioAxidAzIFEAAYgAQyBRAAGIAEMgUQABiABDIFEAAYgAQyCBAAGIAEGMsBMggQABiABBjLATIjEC4YrwEYxwEYpgMYqAMYgAQYjgUYlwUY3AQY3gQY4ATYAQNIuzhQmhhYmCVwAXgBkAEAmAGvAqAB1gSqAQUyLTEuMbgBAcgBAPgBAcICChAAGEcY1gQYsAPCAg0QABiABBiKBRhDGLADwgIcEC4YgAQYigUYQxjHARivARjIAxiwAxiOBdgBAcICGRAuGIAEGIoFGEMYxwEYrwEYyAMYsAPYAQHCAg4QABjkAhjWBBiwA9gBAsICEBAuGEMYnQMYqAMYgAQYigXCAhAQLhiABBiKBRhDGKgDGJ0DwgIWEC4YQxivARjHARimAxioAxiABBiKBcICChAAGIAEGBQYhwLCAh8QLhhDGJ0DGKgDGIAEGIoFGJcFGNwEGN4EGOAE2AED4gMEGAAgQYgGAZAGDroGBggBEAEYCLoGBggCEAEYCboGBggDEAEYFA&amp;sclient=gws-wiz-serp"/>
-    <hyperlink ref="C6" r:id="rId2" display="https://www.google.com/search?q=miranda+high+school&amp;sca_esv=593615924&amp;rlz=1C1CHBF_enAU1047AU1047&amp;sxsrf=AM9HkKmR8dFtasrVNGZkMFIxGz5Wq06ZjA%3A1703525037148&amp;ei=rbqJZczSCOCWjuMPsMy_8AM&amp;oq=miranda+high+&amp;gs_lp=Egxnd3Mtd2l6LXNlcnAiDW1pcmFuZGEgaGlnaCAqAggAMg0QABiABBgUGIcCGMkDMgUQABiABDILEAAYgAQYigUYkgMyBRAAGIAEMgUQABiABDIKEAAYgAQYFBiHAjIFEAAYgAQyBRAAGIAEMgUQABiABDIFEAAYgARI7RNQ6AZY6AZwAXgAkAEAmAH0BqABuAyqAQM2LTK4AQHIAQD4AQHCAgoQABhHGNYEGLAD4gMEGAAgQYgGAZAGCA&amp;sclient=gws-wiz-serp&amp;lqi=ChNtaXJhbmRhIGhpZ2ggc2Nob29sSN-07OW4roCACForEAAQARACGAAYARgCIhNtaXJhbmRhIGhpZ2ggc2Nob29sKggIAhAAEAEQApIBBnNjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOUGNqUnVSbVZuRUFFqgE7EAEyHhABIhpTQ3iPFiqMHHb-9vGb0lli1Rpc5Z8xE87GgDIXEAIiE21pcmFuZGEgaGlnaCBzY2hvb2w"/>
+    <hyperlink ref="C5" r:id="rId1" display="https://www.google.com/search?q=panchasayar+siksha+niketan&amp;sca_esv=593615924&amp;rlz=1C1CHBF_enAU1047AU1047&amp;sxsrf=AM9HkKnlKkWvrpmDIvMzNnJR8ZC_8s6gNQ%3A1703524925488&amp;ei=PbqJZaauHY2KnesPo--TuAo&amp;gs_ssp=eJzj4tFP1zc0MqnMzTa1TDNgtFI1qDBONDAyNzRPNU1LM0xOTkuyAgqZpJmZmJgnGZgZGSWnpSV5SRUk5iVnJBYnViYWKRRnZhdnJCrkZWanliTmAQC7Qxln&amp;oq=panchasayar+s&amp;gs_lp=Egxnd3Mtd2l6LXNlcnAiDXBhbmNoYXNheWFyIHMqAggAMhQQLhivARjHARimAxioAxiABBiOBTIFEAAYgAQyBRAAGIAEMgsQLhiABBioAxidAzIFEAAYgAQyBRAAGIAEMgUQABiABDIFEAAYgAQyCBAAGIAEGMsBMggQABiABBjLATIjEC4YrwEYxwEYpgMYqAMYgAQYjgUYlwUY3AQY3gQY4ATYAQNIuzhQmhhYmCVwAXgBkAEAmAGvAqAB1gSqAQUyLTEuMbgBAcgBAPgBAcICChAAGEcY1gQYsAPCAg0QABiABBiKBRhDGLADwgIcEC4YgAQYigUYQxjHARivARjIAxiwAxiOBdgBAcICGRAuGIAEGIoFGEMYxwEYrwEYyAMYsAPYAQHCAg4QABjkAhjWBBiwA9gBAsICEBAuGEMYnQMYqAMYgAQYigXCAhAQLhiABBiKBRhDGKgDGJ0DwgIWEC4YQxivARjHARimAxioAxiABBiKBcICChAAGIAEGBQYhwLCAh8QLhhDGJ0DGKgDGIAEGIoFGJcFGNwEGN4EGOAE2AED4gMEGAAgQYgGAZAGDroGBggBEAEYCLoGBggCEAEYCboGBggDEAEYFA&amp;sclient=gws-wiz-serp" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="C6" r:id="rId2" display="https://www.google.com/search?q=miranda+high+school&amp;sca_esv=593615924&amp;rlz=1C1CHBF_enAU1047AU1047&amp;sxsrf=AM9HkKmR8dFtasrVNGZkMFIxGz5Wq06ZjA%3A1703525037148&amp;ei=rbqJZczSCOCWjuMPsMy_8AM&amp;oq=miranda+high+&amp;gs_lp=Egxnd3Mtd2l6LXNlcnAiDW1pcmFuZGEgaGlnaCAqAggAMg0QABiABBgUGIcCGMkDMgUQABiABDILEAAYgAQYigUYkgMyBRAAGIAEMgUQABiABDIKEAAYgAQYFBiHAjIFEAAYgAQyBRAAGIAEMgUQABiABDIFEAAYgARI7RNQ6AZY6AZwAXgAkAEAmAH0BqABuAyqAQM2LTK4AQHIAQD4AQHCAgoQABhHGNYEGLAD4gMEGAAgQYgGAZAGCA&amp;sclient=gws-wiz-serp&amp;lqi=ChNtaXJhbmRhIGhpZ2ggc2Nob29sSN-07OW4roCACForEAAQARACGAAYARgCIhNtaXJhbmRhIGhpZ2ggc2Nob29sKggIAhAAEAEQApIBBnNjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOUGNqUnVSbVZuRUFFqgE7EAEyHhABIhpTQ3iPFiqMHHb-9vGb0lli1Rpc5Z8xE87GgDIXEAIiE21pcmFuZGEgaGlnaCBzY2hvb2w" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:T179"/>
   <sheetViews>
     <sheetView topLeftCell="D49" workbookViewId="0">
@@ -12952,23 +12898,23 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1:T1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1:T1048576" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"Initial,Potential,Customer,Support,Upsells,Reject,Not-Contacted,Ex-Customer"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>"Rahul Dutta,Sayan Basak,Anirban Chakraborty,Debashish Nath"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576" xr:uid="{00000000-0002-0000-0300-000002000000}">
       <formula1>"Technical,Non-Technical"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C36" r:id="rId1"/>
-    <hyperlink ref="C37" r:id="rId2"/>
-    <hyperlink ref="D41" r:id="rId3" display="https://www.google.com/search?sca_esv=597127733&amp;rlz=1C1CHBF_enAU1047AU1047&amp;tbs=lf:1,lf_ui:2&amp;tbm=lcl&amp;sxsrf=ACQVn0-yjBygfThguW8-plBveMrMzDiPGw:1704870884151&amp;q=engineering+colleges+in+south+calcutta&amp;rflfq=1&amp;num=10&amp;sa=X&amp;ved=2ahUKEwjQ47_7otKDAxUve2wGHY_pCzEQjGp6BAgXEAE&amp;biw=1536&amp;bih=730&amp;dpr=1.25"/>
-    <hyperlink ref="C43" r:id="rId4"/>
-    <hyperlink ref="D47" r:id="rId5" display="https://www.google.com/search?q=engineering+colleges+kolkata&amp;sca_esv=597127733&amp;rlz=1C1CHBF_enAU1047AU1047&amp;biw=1536&amp;bih=730&amp;tbm=lcl&amp;sxsrf=ACQVn09cs4SfDApVNizAZQHyNbKrHkG1kw%3A1704870889163&amp;ei=6UOeZYunCcqWseMP2bOt0A4&amp;ved=0ahUKEwjLv_H9otKDAxVKS2wGHdlZC-oQ4dUDCAk&amp;uact=5&amp;oq=engineering+colleges+kolkata&amp;gs_lp=Eg1nd3Mtd2l6LWxvY2FsIhxlbmdpbmVlcmluZyBjb2xsZWdlcyBrb2xrYXRhMgUQABiABDIGEAAYFhgeMgYQABgWGB4yCBAAGBYYHhgPMgYQABgWGB4yBhAAGBYYHjIGEAAYFhgeMgYQABgWGB4yBhAAGBYYHjIGEAAYFhgeSPErUNUEWOgmcAF4AJABAZgBqwGgAb0XqgEEMC4yM7gBA8gBAPgBAcICCxAAGIAEGIoFGIYDwgIEECMYJ8ICCxAAGIAEGIoFGJECwgIKEAAYgAQYFBiHAsICDhAAGIAEGIoFGJECGMkDiAYB&amp;sclient=gws-wiz-local"/>
-    <hyperlink ref="C49" r:id="rId6"/>
+    <hyperlink ref="C36" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="C37" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="D41" r:id="rId3" display="https://www.google.com/search?sca_esv=597127733&amp;rlz=1C1CHBF_enAU1047AU1047&amp;tbs=lf:1,lf_ui:2&amp;tbm=lcl&amp;sxsrf=ACQVn0-yjBygfThguW8-plBveMrMzDiPGw:1704870884151&amp;q=engineering+colleges+in+south+calcutta&amp;rflfq=1&amp;num=10&amp;sa=X&amp;ved=2ahUKEwjQ47_7otKDAxUve2wGHY_pCzEQjGp6BAgXEAE&amp;biw=1536&amp;bih=730&amp;dpr=1.25" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="C43" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="D47" r:id="rId5" display="https://www.google.com/search?q=engineering+colleges+kolkata&amp;sca_esv=597127733&amp;rlz=1C1CHBF_enAU1047AU1047&amp;biw=1536&amp;bih=730&amp;tbm=lcl&amp;sxsrf=ACQVn09cs4SfDApVNizAZQHyNbKrHkG1kw%3A1704870889163&amp;ei=6UOeZYunCcqWseMP2bOt0A4&amp;ved=0ahUKEwjLv_H9otKDAxVKS2wGHdlZC-oQ4dUDCAk&amp;uact=5&amp;oq=engineering+colleges+kolkata&amp;gs_lp=Eg1nd3Mtd2l6LWxvY2FsIhxlbmdpbmVlcmluZyBjb2xsZWdlcyBrb2xrYXRhMgUQABiABDIGEAAYFhgeMgYQABgWGB4yCBAAGBYYHhgPMgYQABgWGB4yBhAAGBYYHjIGEAAYFhgeMgYQABgWGB4yBhAAGBYYHjIGEAAYFhgeSPErUNUEWOgmcAF4AJABAZgBqwGgAb0XqgEEMC4yM7gBA8gBAPgBAcICCxAAGIAEGIoFGIYDwgIEECMYJ8ICCxAAGIAEGIoFGJECwgIKEAAYgAQYFBiHAsICDhAAGIAEGIoFGJECGMkDiAYB&amp;sclient=gws-wiz-local" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="C49" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
@@ -12977,7 +12923,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Offline/BusinessManagement/Marketing/AI marketing/AI Workshop Schools-Colleges.xlsx
+++ b/Offline/BusinessManagement/Marketing/AI marketing/AI Workshop Schools-Colleges.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Marketing\AI marketing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC592C92-F0F2-4034-88DE-AFAFD16052A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24940854-468C-40D3-8F3C-4B0B18429C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="506" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="506" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="8" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Rahul-Calls" sheetId="11" r:id="rId3"/>
     <sheet name="College-Details" sheetId="10" r:id="rId4"/>
     <sheet name="Notes" sheetId="9" r:id="rId5"/>
+    <sheet name="Calling-Steps" sheetId="12" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'School-Details'!$A$1:$U$124</definedName>
@@ -124,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="447">
   <si>
     <t>CBSE</t>
   </si>
@@ -1456,6 +1457,27 @@
   </si>
   <si>
     <t>Today's Date</t>
+  </si>
+  <si>
+    <t>Out of 200 schools, list 100 good schools and 100 not so good schools</t>
+  </si>
+  <si>
+    <t>Out of 200 colleges, list 100 technical colleges and 100 non-technical colleges</t>
+  </si>
+  <si>
+    <t>Make a list of atleast 200 schools and 200 colleges</t>
+  </si>
+  <si>
+    <t>Get the school board name,contact person phone no &amp; contact email id</t>
+  </si>
+  <si>
+    <t>Call the contact person for free workshop</t>
+  </si>
+  <si>
+    <t>Shoot the mail to concerned person</t>
+  </si>
+  <si>
+    <t>After 1 week, do follow up for email over phone</t>
   </si>
 </sst>
 </file>
@@ -1835,7 +1857,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1957,6 +1979,15 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1978,14 +2009,11 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2270,7 +2298,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
@@ -2295,23 +2323,23 @@
     <row r="2" spans="2:18" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.7">
       <c r="B2" s="27"/>
       <c r="C2" s="28"/>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="61" t="s">
         <v>293</v>
       </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="60"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="63"/>
       <c r="I2" s="29"/>
       <c r="K2" s="27"/>
       <c r="L2" s="28"/>
-      <c r="M2" s="61" t="s">
+      <c r="M2" s="64" t="s">
         <v>374</v>
       </c>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="63"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="65"/>
+      <c r="Q2" s="66"/>
       <c r="R2" s="29"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.3">
@@ -2540,17 +2568,17 @@
         <v>13</v>
       </c>
       <c r="F11" s="14"/>
-      <c r="G11" s="57" t="s">
+      <c r="G11" s="60" t="s">
         <v>210</v>
       </c>
-      <c r="H11" s="57"/>
+      <c r="H11" s="60"/>
       <c r="I11" s="31"/>
       <c r="K11" s="30"/>
       <c r="O11" s="14"/>
-      <c r="P11" s="57" t="s">
+      <c r="P11" s="60" t="s">
         <v>210</v>
       </c>
-      <c r="Q11" s="57"/>
+      <c r="Q11" s="60"/>
       <c r="R11" s="31"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.3">
@@ -8452,36 +8480,36 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="65" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="58" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="38">
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="57" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="65" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" s="58" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="38">
         <v>2</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="57" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="65" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" s="58" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="38">
         <v>3</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="C4" s="59" t="s">
         <v>46</v>
       </c>
     </row>
@@ -13042,4 +13070,87 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F63719A-CCC7-4313-BE81-ADB215E91107}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.77734375" style="67" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="68" t="s">
+        <v>248</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="13">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="13">
+        <v>2</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="13">
+        <v>3</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="13">
+        <v>4</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="13">
+        <v>5</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="13">
+        <v>6</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="13">
+        <v>7</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>446</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Offline/BusinessManagement/Marketing/AI marketing/AI Workshop Schools-Colleges.xlsx
+++ b/Offline/BusinessManagement/Marketing/AI marketing/AI Workshop Schools-Colleges.xlsx
@@ -8,34 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Marketing\AI marketing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24940854-468C-40D3-8F3C-4B0B18429C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB82360-5A09-43E9-B8F2-83AFA6E0491C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="506" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="506" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="8" r:id="rId1"/>
     <sheet name="School-Details" sheetId="7" r:id="rId2"/>
-    <sheet name="Rahul-Calls" sheetId="11" r:id="rId3"/>
-    <sheet name="College-Details" sheetId="10" r:id="rId4"/>
-    <sheet name="Notes" sheetId="9" r:id="rId5"/>
-    <sheet name="Calling-Steps" sheetId="12" r:id="rId6"/>
+    <sheet name="College-Details" sheetId="10" r:id="rId3"/>
+    <sheet name="Notes" sheetId="9" r:id="rId4"/>
+    <sheet name="Calling-Steps" sheetId="12" r:id="rId5"/>
+    <sheet name="Rahul-Calls" sheetId="11" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'School-Details'!$A$1:$U$124</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1988,6 +1979,12 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2007,12 +2004,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2298,57 +2289,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:R33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="3" max="3" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.53125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.53125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.86328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="2.6640625" customWidth="1"/>
-    <col min="10" max="10" width="4.109375" customWidth="1"/>
+    <col min="10" max="10" width="4.1328125" customWidth="1"/>
     <col min="12" max="12" width="22" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.86328125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:18" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="2:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:18" ht="33.75" thickBot="1" x14ac:dyDescent="1.05">
       <c r="B2" s="27"/>
       <c r="C2" s="28"/>
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="63" t="s">
         <v>293</v>
       </c>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="63"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="65"/>
       <c r="I2" s="29"/>
       <c r="K2" s="27"/>
       <c r="L2" s="28"/>
-      <c r="M2" s="64" t="s">
+      <c r="M2" s="66" t="s">
         <v>374</v>
       </c>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="66"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="68"/>
       <c r="R2" s="29"/>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B3" s="30"/>
       <c r="I3" s="31"/>
       <c r="K3" s="30"/>
       <c r="R3" s="31"/>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B4" s="30"/>
       <c r="C4" s="16" t="s">
         <v>245</v>
@@ -2380,7 +2371,7 @@
       </c>
       <c r="R4" s="31"/>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B5" s="30"/>
       <c r="C5" s="16" t="s">
         <v>246</v>
@@ -2414,7 +2405,7 @@
       </c>
       <c r="R5" s="31"/>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B6" s="30"/>
       <c r="C6" s="16" t="s">
         <v>437</v>
@@ -2447,14 +2438,14 @@
       </c>
       <c r="R6" s="31"/>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B7" s="30"/>
       <c r="C7" s="16" t="s">
         <v>439</v>
       </c>
       <c r="D7" s="53">
         <f ca="1">TODAY()</f>
-        <v>45302</v>
+        <v>45303</v>
       </c>
       <c r="F7" s="14" t="s">
         <v>268</v>
@@ -2481,7 +2472,7 @@
       </c>
       <c r="R7" s="31"/>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B8" s="30"/>
       <c r="C8" s="16" t="s">
         <v>438</v>
@@ -2512,7 +2503,7 @@
       </c>
       <c r="R8" s="31"/>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B9" s="30"/>
       <c r="F9" s="16" t="s">
         <v>244</v>
@@ -2528,7 +2519,7 @@
       </c>
       <c r="M9" s="53">
         <f ca="1">TODAY()</f>
-        <v>45302</v>
+        <v>45303</v>
       </c>
       <c r="O9" s="16" t="s">
         <v>244</v>
@@ -2539,7 +2530,7 @@
       </c>
       <c r="R9" s="31"/>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B10" s="30"/>
       <c r="C10" s="21" t="s">
         <v>247</v>
@@ -2558,7 +2549,7 @@
       </c>
       <c r="R10" s="31"/>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B11" s="30"/>
       <c r="C11" s="14" t="s">
         <v>251</v>
@@ -2568,20 +2559,20 @@
         <v>13</v>
       </c>
       <c r="F11" s="14"/>
-      <c r="G11" s="60" t="s">
+      <c r="G11" s="62" t="s">
         <v>210</v>
       </c>
-      <c r="H11" s="60"/>
+      <c r="H11" s="62"/>
       <c r="I11" s="31"/>
       <c r="K11" s="30"/>
       <c r="O11" s="14"/>
-      <c r="P11" s="60" t="s">
+      <c r="P11" s="62" t="s">
         <v>210</v>
       </c>
-      <c r="Q11" s="60"/>
+      <c r="Q11" s="62"/>
       <c r="R11" s="31"/>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B12" s="30"/>
       <c r="C12" s="14" t="s">
         <v>253</v>
@@ -2618,7 +2609,7 @@
       </c>
       <c r="R12" s="31"/>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B13" s="30"/>
       <c r="C13" s="14" t="s">
         <v>255</v>
@@ -2656,7 +2647,7 @@
       </c>
       <c r="R13" s="31"/>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B14" s="30"/>
       <c r="C14" s="14" t="s">
         <v>257</v>
@@ -2694,7 +2685,7 @@
       </c>
       <c r="R14" s="31"/>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B15" s="30"/>
       <c r="C15" s="14" t="s">
         <v>259</v>
@@ -2732,7 +2723,7 @@
       </c>
       <c r="R15" s="31"/>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B16" s="30"/>
       <c r="C16" s="14" t="s">
         <v>261</v>
@@ -2770,7 +2761,7 @@
       </c>
       <c r="R16" s="31"/>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B17" s="30"/>
       <c r="C17" s="14" t="s">
         <v>263</v>
@@ -2808,7 +2799,7 @@
       </c>
       <c r="R17" s="31"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B18" s="30"/>
       <c r="C18" s="14" t="s">
         <v>279</v>
@@ -2846,7 +2837,7 @@
       </c>
       <c r="R18" s="31"/>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B19" s="30"/>
       <c r="C19" s="16" t="s">
         <v>244</v>
@@ -2884,7 +2875,7 @@
       </c>
       <c r="R19" s="31"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B20" s="30"/>
       <c r="F20" s="22">
         <v>45505</v>
@@ -2915,7 +2906,7 @@
       </c>
       <c r="R20" s="31"/>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B21" s="32"/>
       <c r="C21" s="21" t="s">
         <v>274</v>
@@ -2952,7 +2943,7 @@
       </c>
       <c r="R21" s="31"/>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B22" s="33" t="s">
         <v>272</v>
       </c>
@@ -2985,7 +2976,7 @@
       </c>
       <c r="R22" s="31"/>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B23" s="33"/>
       <c r="C23" s="14">
         <v>4</v>
@@ -3022,7 +3013,7 @@
       </c>
       <c r="R23" s="31"/>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B24" s="33"/>
       <c r="C24" s="14" t="s">
         <v>275</v>
@@ -3062,7 +3053,7 @@
       </c>
       <c r="R24" s="31"/>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B25" s="33" t="s">
         <v>278</v>
       </c>
@@ -3106,7 +3097,7 @@
       </c>
       <c r="R25" s="31"/>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B26" s="33"/>
       <c r="C26" s="14" t="s">
         <v>277</v>
@@ -3126,7 +3117,7 @@
       </c>
       <c r="R26" s="31"/>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B27" s="33" t="s">
         <v>273</v>
       </c>
@@ -3150,7 +3141,7 @@
       </c>
       <c r="R27" s="31"/>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B28" s="33"/>
       <c r="C28" s="14">
         <v>1</v>
@@ -3170,7 +3161,7 @@
       </c>
       <c r="R28" s="31"/>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B29" s="33"/>
       <c r="C29" s="14" t="s">
         <v>276</v>
@@ -3192,7 +3183,7 @@
       </c>
       <c r="R29" s="31"/>
     </row>
-    <row r="30" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B30" s="55"/>
       <c r="C30" s="56" t="s">
         <v>244</v>
@@ -3216,7 +3207,7 @@
       </c>
       <c r="R30" s="31"/>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.45">
       <c r="K31" s="33"/>
       <c r="L31" s="14" t="s">
         <v>373</v>
@@ -3227,7 +3218,7 @@
       </c>
       <c r="R31" s="31"/>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.45">
       <c r="K32" s="33"/>
       <c r="L32" s="16" t="s">
         <v>244</v>
@@ -3238,7 +3229,7 @@
       </c>
       <c r="R32" s="31"/>
     </row>
-    <row r="33" spans="11:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="11:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="K33" s="34"/>
       <c r="L33" s="35"/>
       <c r="M33" s="35"/>
@@ -3266,33 +3257,33 @@
   <dimension ref="A1:U124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D110" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:F124"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="6.6640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="25.6640625" style="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.21875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.46484375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.19921875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.46484375" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" style="40" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="16" style="1" customWidth="1"/>
     <col min="10" max="11" width="11" style="1" customWidth="1"/>
     <col min="12" max="12" width="19.6640625" style="1" customWidth="1"/>
     <col min="13" max="13" width="13.33203125" style="1" customWidth="1"/>
     <col min="14" max="14" width="14" style="1" customWidth="1"/>
-    <col min="15" max="20" width="9.109375" style="1"/>
-    <col min="21" max="21" width="20.5546875" style="10" customWidth="1"/>
+    <col min="15" max="20" width="9.1328125" style="1"/>
+    <col min="21" max="21" width="20.53125" style="10" customWidth="1"/>
     <col min="22" max="22" width="13.6640625" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.109375" style="1"/>
+    <col min="23" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A1" s="18" t="s">
         <v>1</v>
       </c>
@@ -3357,7 +3348,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -3403,7 +3394,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -3440,7 +3431,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -3483,7 +3474,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -3520,7 +3511,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -3557,7 +3548,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -3594,7 +3585,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -3631,7 +3622,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -3671,7 +3662,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -3708,7 +3699,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -3745,7 +3736,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -3782,7 +3773,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -3819,7 +3810,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -3859,7 +3850,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -3899,7 +3890,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -3936,7 +3927,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -3976,7 +3967,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -4016,7 +4007,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="19" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -4053,7 +4044,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -4093,7 +4084,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -4134,7 +4125,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -4178,7 +4169,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -4221,7 +4212,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -4265,7 +4256,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -4306,7 +4297,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -4347,7 +4338,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -4388,7 +4379,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -4440,7 +4431,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -4477,7 +4468,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -4518,7 +4509,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -4562,7 +4553,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -4606,7 +4597,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -4650,7 +4641,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -4690,7 +4681,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="35" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -4737,7 +4728,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -4780,7 +4771,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -4824,7 +4815,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -4864,7 +4855,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -4901,7 +4892,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -4941,7 +4932,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -4985,7 +4976,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -5029,7 +5020,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -5073,7 +5064,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -5113,7 +5104,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -5153,7 +5144,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -5190,7 +5181,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="47" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -5234,7 +5225,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -5278,7 +5269,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -5322,7 +5313,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="50" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -5365,7 +5356,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -5409,7 +5400,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -5453,7 +5444,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -5497,7 +5488,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="54" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -5541,7 +5532,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="55" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -5585,7 +5576,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="56" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -5629,7 +5620,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -5673,7 +5664,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -5717,7 +5708,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -5761,7 +5752,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="60" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -5805,7 +5796,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="61" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -5849,7 +5840,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="62" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -5893,7 +5884,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="63" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -5937,7 +5928,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -5981,7 +5972,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="65" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -6025,7 +6016,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -6069,7 +6060,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -6113,7 +6104,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -6157,7 +6148,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="69" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -6201,7 +6192,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="70" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -6245,7 +6236,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="71" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -6289,7 +6280,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -6333,7 +6324,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="73" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -6377,7 +6368,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -6417,7 +6408,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -6461,7 +6452,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -6501,7 +6492,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -6538,7 +6529,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="78" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -6582,7 +6573,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="79" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -6626,7 +6617,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="80" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -6670,7 +6661,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="81" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -6714,7 +6705,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="82" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -6754,7 +6745,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="83" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -6794,7 +6785,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="84" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -6834,7 +6825,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="85" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -6878,7 +6869,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -6918,7 +6909,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -6958,7 +6949,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -7002,7 +6993,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -7046,7 +7037,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -7086,7 +7077,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="91" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -7130,7 +7121,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -7170,7 +7161,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -7210,7 +7201,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -7250,7 +7241,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -7290,7 +7281,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -7330,7 +7321,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -7367,7 +7358,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A98" s="2">
         <v>97</v>
       </c>
@@ -7404,7 +7395,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A99" s="2">
         <v>98</v>
       </c>
@@ -7441,7 +7432,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -7478,7 +7469,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A101" s="2">
         <v>100</v>
       </c>
@@ -7515,7 +7506,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="102" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A102" s="2">
         <v>101</v>
       </c>
@@ -7552,7 +7543,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A103" s="2">
         <v>102</v>
       </c>
@@ -7589,7 +7580,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A104" s="2">
         <v>103</v>
       </c>
@@ -7626,7 +7617,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A105" s="2">
         <v>104</v>
       </c>
@@ -7663,7 +7654,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A106" s="2">
         <v>105</v>
       </c>
@@ -7700,7 +7691,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="107" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A107" s="2">
         <v>106</v>
       </c>
@@ -7737,7 +7728,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A108" s="2">
         <v>107</v>
       </c>
@@ -7774,7 +7765,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="109" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A109" s="2">
         <v>108</v>
       </c>
@@ -7811,7 +7802,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A110" s="2">
         <v>109</v>
       </c>
@@ -7848,7 +7839,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A111" s="2">
         <v>110</v>
       </c>
@@ -7885,7 +7876,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A112" s="2">
         <v>111</v>
       </c>
@@ -7922,7 +7913,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A113" s="2">
         <v>112</v>
       </c>
@@ -7959,7 +7950,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A114" s="2">
         <v>113</v>
       </c>
@@ -7996,7 +7987,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A115" s="2">
         <v>114</v>
       </c>
@@ -8033,7 +8024,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A116" s="2">
         <v>115</v>
       </c>
@@ -8070,7 +8061,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A117" s="2">
         <v>116</v>
       </c>
@@ -8107,7 +8098,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A118" s="2">
         <v>117</v>
       </c>
@@ -8144,7 +8135,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A119" s="2">
         <v>118</v>
       </c>
@@ -8181,7 +8172,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="120" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A120" s="2">
         <v>119</v>
       </c>
@@ -8218,7 +8209,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A121" s="2">
         <v>120</v>
       </c>
@@ -8255,7 +8246,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A122" s="2">
         <v>121</v>
       </c>
@@ -8292,7 +8283,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="123" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:21" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A123" s="2">
         <v>122</v>
       </c>
@@ -8335,7 +8326,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="124" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:21" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A124" s="2">
         <v>123</v>
       </c>
@@ -8455,1277 +8446,32 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C111"/>
-  <sheetViews>
-    <sheetView zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="B111" sqref="B111"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.44140625" customWidth="1"/>
-    <col min="3" max="3" width="42" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="58" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="38">
-        <v>1</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="57" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="58" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="38">
-        <v>2</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="57" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="58" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="38">
-        <v>3</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="59" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="38">
-        <v>4</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="38">
-        <v>5</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="38">
-        <v>6</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="38">
-        <v>7</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="7">
-        <v>9051770999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="38">
-        <v>8</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="7">
-        <v>9903606575</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="38">
-        <v>9</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="38">
-        <v>10</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="38">
-        <v>11</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="38">
-        <v>12</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="38">
-        <v>13</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="38">
-        <v>14</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="7">
-        <v>8961111167</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="38">
-        <v>15</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="38">
-        <v>16</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="38">
-        <v>17</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="7">
-        <v>7044096127</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="38">
-        <v>18</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" s="7">
-        <v>9831274629</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="38">
-        <v>19</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="7">
-        <v>8777257554</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="38">
-        <v>20</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3322651531</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="38">
-        <v>21</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="C22" s="7">
-        <v>3324753015</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="38">
-        <v>22</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23" s="7">
-        <v>3324753765</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="38">
-        <v>23</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="C24" s="7">
-        <v>3324286903</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="38">
-        <v>24</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="C25" s="8">
-        <v>8902488077</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="38">
-        <v>25</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="C26" s="9">
-        <v>9163741069</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="38">
-        <v>26</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="C27" s="9">
-        <v>3324411691</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="38">
-        <v>27</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C28" s="7">
-        <v>3324413804</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="38">
-        <v>28</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="C29" s="7">
-        <v>9830688888</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="38">
-        <v>29</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="C30" s="7">
-        <v>9073985531</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="38">
-        <v>30</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="C31" s="7">
-        <v>3324712220</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="38">
-        <v>31</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="C32" s="7">
-        <v>3324131158</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="38">
-        <v>32</v>
-      </c>
-      <c r="B33" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="C33" s="7">
-        <v>9836242629</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="38">
-        <v>33</v>
-      </c>
-      <c r="B34" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="38">
-        <v>34</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="C35" s="7">
-        <v>9051973905</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="38">
-        <v>35</v>
-      </c>
-      <c r="B36" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="C36" s="7">
-        <v>9674850783</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="38">
-        <v>36</v>
-      </c>
-      <c r="B37" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="C37" s="7">
-        <v>9674111783</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="38">
-        <v>37</v>
-      </c>
-      <c r="B38" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="C38" s="7">
-        <v>33218260082</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="38">
-        <v>38</v>
-      </c>
-      <c r="B39" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="C39" s="7">
-        <v>3322879202</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="38">
-        <v>39</v>
-      </c>
-      <c r="B40" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="C40" s="7">
-        <v>3322841546</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="38">
-        <v>40</v>
-      </c>
-      <c r="B41" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="C41" s="7">
-        <v>3322484593</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="38">
-        <v>41</v>
-      </c>
-      <c r="B42" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="C42" s="7">
-        <v>3322297741</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="38">
-        <v>42</v>
-      </c>
-      <c r="B43" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="C43" s="7">
-        <v>3324793241</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="38">
-        <v>43</v>
-      </c>
-      <c r="B44" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="C44" s="7">
-        <v>3324344455</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="38">
-        <v>44</v>
-      </c>
-      <c r="B45" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="C45" s="7">
-        <v>3340083093</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="38">
-        <v>45</v>
-      </c>
-      <c r="B46" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="C46" s="7">
-        <v>3324618002</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="38">
-        <v>46</v>
-      </c>
-      <c r="B47" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="38">
-        <v>47</v>
-      </c>
-      <c r="B48" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="C48" s="7">
-        <v>3324569090</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="38">
-        <v>48</v>
-      </c>
-      <c r="B49" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="C49" s="7">
-        <v>3322233062</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="38">
-        <v>49</v>
-      </c>
-      <c r="B50" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="38">
-        <v>50</v>
-      </c>
-      <c r="B51" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="C51" s="7">
-        <v>3324793600</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="38">
-        <v>51</v>
-      </c>
-      <c r="B52" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="C52" s="7">
-        <v>3324866629</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="38">
-        <v>52</v>
-      </c>
-      <c r="B53" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="C53" s="7">
-        <v>3322848038</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="38">
-        <v>53</v>
-      </c>
-      <c r="B54" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="C54" s="7">
-        <v>905188888</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="38">
-        <v>54</v>
-      </c>
-      <c r="B55" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="C55" s="7">
-        <v>7596949952</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="38">
-        <v>55</v>
-      </c>
-      <c r="B56" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="C56" s="7">
-        <v>7478196910</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="38">
-        <v>56</v>
-      </c>
-      <c r="B57" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="C57" s="7">
-        <v>7044447761</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="38">
-        <v>57</v>
-      </c>
-      <c r="B58" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="C58" s="7">
-        <v>7059600647</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="38">
-        <v>58</v>
-      </c>
-      <c r="B59" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="C59" s="7">
-        <v>3340072444</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="38">
-        <v>59</v>
-      </c>
-      <c r="B60" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="C60" s="7">
-        <v>9903102957</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="38">
-        <v>60</v>
-      </c>
-      <c r="B61" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="C61" s="7">
-        <v>7605080650</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="38">
-        <v>61</v>
-      </c>
-      <c r="B62" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="C62" s="7">
-        <v>3324752135</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="38">
-        <v>62</v>
-      </c>
-      <c r="B63" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="C63" s="7">
-        <v>9674645471</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="38">
-        <v>63</v>
-      </c>
-      <c r="B64" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="C64" s="7">
-        <v>9073681886</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="38">
-        <v>64</v>
-      </c>
-      <c r="B65" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="C65" s="7">
-        <v>3324316997</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="38">
-        <v>65</v>
-      </c>
-      <c r="B66" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="C66" s="7">
-        <v>3322291779</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="38">
-        <v>66</v>
-      </c>
-      <c r="B67" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="C67" s="7">
-        <v>3323215151</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="38">
-        <v>67</v>
-      </c>
-      <c r="B68" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="C68" s="7">
-        <v>3323342404</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="38">
-        <v>68</v>
-      </c>
-      <c r="B69" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="38">
-        <v>69</v>
-      </c>
-      <c r="B70" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="38">
-        <v>70</v>
-      </c>
-      <c r="B71" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="C71" s="7">
-        <v>9606279184</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="38">
-        <v>71</v>
-      </c>
-      <c r="B72" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="C72" s="7">
-        <v>8777867589</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="38">
-        <v>72</v>
-      </c>
-      <c r="B73" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="C73" s="7">
-        <v>8017672075</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="38">
-        <v>73</v>
-      </c>
-      <c r="B74" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="C74" s="7">
-        <v>3324492810</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="38">
-        <v>74</v>
-      </c>
-      <c r="B75" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="C75" s="7">
-        <v>3324967196</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="38">
-        <v>75</v>
-      </c>
-      <c r="B76" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="C76" s="7">
-        <v>9830701347</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="38">
-        <v>76</v>
-      </c>
-      <c r="B77" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="C77" s="7">
-        <v>3324961723</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="38">
-        <v>77</v>
-      </c>
-      <c r="B78" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="C78" s="7">
-        <v>9007792852</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="38">
-        <v>78</v>
-      </c>
-      <c r="B79" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="C79" s="7">
-        <v>8902765583</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="38">
-        <v>79</v>
-      </c>
-      <c r="B80" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="C80" s="7">
-        <v>9331866252</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="38">
-        <v>80</v>
-      </c>
-      <c r="B81" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="C81" s="7">
-        <v>9903540099</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="38">
-        <v>81</v>
-      </c>
-      <c r="B82" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="C82" s="7">
-        <v>8336998663</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="38">
-        <v>82</v>
-      </c>
-      <c r="B83" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="C83" s="7">
-        <v>9339527506</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="38">
-        <v>83</v>
-      </c>
-      <c r="B84" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C84" s="7">
-        <v>9903312630</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="38">
-        <v>84</v>
-      </c>
-      <c r="B85" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="C85" s="7">
-        <v>9836747400</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="38">
-        <v>85</v>
-      </c>
-      <c r="B86" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="C86" s="7">
-        <v>8100188019</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="38">
-        <v>86</v>
-      </c>
-      <c r="B87" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="C87" s="7" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="38">
-        <v>87</v>
-      </c>
-      <c r="B88" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="C88" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="38">
-        <v>88</v>
-      </c>
-      <c r="B89" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="C89" s="7" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="38">
-        <v>89</v>
-      </c>
-      <c r="B90" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C90" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="38">
-        <v>90</v>
-      </c>
-      <c r="B91" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="C91" s="7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="38">
-        <v>91</v>
-      </c>
-      <c r="B92" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="C92" s="7" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="38">
-        <v>92</v>
-      </c>
-      <c r="B93" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="38">
-        <v>93</v>
-      </c>
-      <c r="B94" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="C94" s="7" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="38">
-        <v>94</v>
-      </c>
-      <c r="B95" s="17" t="s">
-        <v>206</v>
-      </c>
-      <c r="C95" s="7" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="38">
-        <v>95</v>
-      </c>
-      <c r="B96" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="C96" s="7" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="38">
-        <v>96</v>
-      </c>
-      <c r="B97" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="C97" s="7" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="38">
-        <v>97</v>
-      </c>
-      <c r="B98" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="C98" s="7" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="38">
-        <v>98</v>
-      </c>
-      <c r="B99" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="C99" s="7" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="38">
-        <v>99</v>
-      </c>
-      <c r="B100" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="C100" s="7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="38">
-        <v>100</v>
-      </c>
-      <c r="B101" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="C101" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="38">
-        <v>101</v>
-      </c>
-      <c r="B102" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="C102" s="7" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="38">
-        <v>102</v>
-      </c>
-      <c r="B103" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="C103" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="38">
-        <v>103</v>
-      </c>
-      <c r="B104" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="C104" s="7" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="38">
-        <v>104</v>
-      </c>
-      <c r="B105" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="C105" s="7" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="38">
-        <v>105</v>
-      </c>
-      <c r="B106" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="C106" s="7" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="38">
-        <v>106</v>
-      </c>
-      <c r="B107" s="17" t="s">
-        <v>231</v>
-      </c>
-      <c r="C107" s="7" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="38">
-        <v>107</v>
-      </c>
-      <c r="B108" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="C108" s="7" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="38">
-        <v>108</v>
-      </c>
-      <c r="B109" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="C109" s="7" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="38">
-        <v>109</v>
-      </c>
-      <c r="B110" s="17" t="s">
-        <v>435</v>
-      </c>
-      <c r="C110" s="7" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="38">
-        <v>110</v>
-      </c>
-      <c r="B111" s="17" t="s">
-        <v>436</v>
-      </c>
-      <c r="C111" s="7" t="s">
-        <v>427</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" display="https://www.google.com/search?q=panchasayar+siksha+niketan&amp;sca_esv=593615924&amp;rlz=1C1CHBF_enAU1047AU1047&amp;sxsrf=AM9HkKnlKkWvrpmDIvMzNnJR8ZC_8s6gNQ%3A1703524925488&amp;ei=PbqJZaauHY2KnesPo--TuAo&amp;gs_ssp=eJzj4tFP1zc0MqnMzTa1TDNgtFI1qDBONDAyNzRPNU1LM0xOTkuyAgqZpJmZmJgnGZgZGSWnpSV5SRUk5iVnJBYnViYWKRRnZhdnJCrkZWanliTmAQC7Qxln&amp;oq=panchasayar+s&amp;gs_lp=Egxnd3Mtd2l6LXNlcnAiDXBhbmNoYXNheWFyIHMqAggAMhQQLhivARjHARimAxioAxiABBiOBTIFEAAYgAQyBRAAGIAEMgsQLhiABBioAxidAzIFEAAYgAQyBRAAGIAEMgUQABiABDIFEAAYgAQyCBAAGIAEGMsBMggQABiABBjLATIjEC4YrwEYxwEYpgMYqAMYgAQYjgUYlwUY3AQY3gQY4ATYAQNIuzhQmhhYmCVwAXgBkAEAmAGvAqAB1gSqAQUyLTEuMbgBAcgBAPgBAcICChAAGEcY1gQYsAPCAg0QABiABBiKBRhDGLADwgIcEC4YgAQYigUYQxjHARivARjIAxiwAxiOBdgBAcICGRAuGIAEGIoFGEMYxwEYrwEYyAMYsAPYAQHCAg4QABjkAhjWBBiwA9gBAsICEBAuGEMYnQMYqAMYgAQYigXCAhAQLhiABBiKBRhDGKgDGJ0DwgIWEC4YQxivARjHARimAxioAxiABBiKBcICChAAGIAEGBQYhwLCAh8QLhhDGJ0DGKgDGIAEGIoFGJcFGNwEGN4EGOAE2AED4gMEGAAgQYgGAZAGDroGBggBEAEYCLoGBggCEAEYCboGBggDEAEYFA&amp;sclient=gws-wiz-serp" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="C6" r:id="rId2" display="https://www.google.com/search?q=miranda+high+school&amp;sca_esv=593615924&amp;rlz=1C1CHBF_enAU1047AU1047&amp;sxsrf=AM9HkKmR8dFtasrVNGZkMFIxGz5Wq06ZjA%3A1703525037148&amp;ei=rbqJZczSCOCWjuMPsMy_8AM&amp;oq=miranda+high+&amp;gs_lp=Egxnd3Mtd2l6LXNlcnAiDW1pcmFuZGEgaGlnaCAqAggAMg0QABiABBgUGIcCGMkDMgUQABiABDILEAAYgAQYigUYkgMyBRAAGIAEMgUQABiABDIKEAAYgAQYFBiHAjIFEAAYgAQyBRAAGIAEMgUQABiABDIFEAAYgARI7RNQ6AZY6AZwAXgAkAEAmAH0BqABuAyqAQM2LTK4AQHIAQD4AQHCAgoQABhHGNYEGLAD4gMEGAAgQYgGAZAGCA&amp;sclient=gws-wiz-serp&amp;lqi=ChNtaXJhbmRhIGhpZ2ggc2Nob29sSN-07OW4roCACForEAAQARACGAAYARgCIhNtaXJhbmRhIGhpZ2ggc2Nob29sKggIAhAAEAEQApIBBnNjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOUGNqUnVSbVZuRUFFqgE7EAEyHhABIhpTQ3iPFiqMHHb-9vGb0lli1Rpc5Z8xE87GgDIXEAIiE21pcmFuZGEgaGlnaCBzY2hvb2w" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:T179"/>
   <sheetViews>
-    <sheetView topLeftCell="D49" workbookViewId="0">
-      <selection activeCell="R56" sqref="R56"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.86328125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.6640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.5546875" style="40" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.53125" style="40" customWidth="1"/>
+    <col min="4" max="4" width="15.53125" style="39" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="40" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="16" style="40" customWidth="1"/>
     <col min="8" max="10" width="11" style="1" customWidth="1"/>
     <col min="11" max="11" width="19.6640625" style="40" customWidth="1"/>
     <col min="12" max="12" width="13.33203125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="18.44140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.109375" style="1"/>
-    <col min="15" max="15" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="9.109375" style="1"/>
+    <col min="13" max="13" width="18.46484375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.1328125" style="1"/>
+    <col min="15" max="15" width="8.53125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="9.1328125" style="1"/>
     <col min="20" max="20" width="19" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="57" x14ac:dyDescent="0.45">
       <c r="A1" s="18" t="s">
         <v>1</v>
       </c>
@@ -9787,7 +8533,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A2" s="38">
         <v>1</v>
       </c>
@@ -9830,7 +8576,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -9869,7 +8615,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -9908,7 +8654,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -9947,7 +8693,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" ht="57" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -9986,7 +8732,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -10025,7 +8771,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -10064,7 +8810,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -10100,7 +8846,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -10136,7 +8882,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -10173,7 +8919,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -10209,7 +8955,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -10245,7 +8991,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -10281,7 +9027,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -10317,7 +9063,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -10353,7 +9099,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -10389,7 +9135,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -10425,7 +9171,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -10461,7 +9207,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -10498,7 +9244,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -10535,7 +9281,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -10571,7 +9317,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -10608,7 +9354,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -10645,7 +9391,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -10682,7 +9428,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -10719,7 +9465,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -10755,7 +9501,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -10791,7 +9537,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -10828,7 +9574,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -10865,7 +9611,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -10902,7 +9648,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -10938,7 +9684,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -10974,7 +9720,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -11010,7 +9756,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -11046,7 +9792,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -11088,7 +9834,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -11130,7 +9876,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -11169,7 +9915,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -11208,7 +9954,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -11247,7 +9993,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -11286,7 +10032,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -11325,7 +10071,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -11367,7 +10113,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -11406,7 +10152,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -11445,7 +10191,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -11484,7 +10230,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -11523,7 +10269,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -11562,7 +10308,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" ht="57" x14ac:dyDescent="0.45">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -11604,7 +10350,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -11643,7 +10389,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20" ht="57" x14ac:dyDescent="0.45">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -11682,7 +10428,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -11721,7 +10467,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -11760,7 +10506,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -11799,7 +10545,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M55" s="10"/>
       <c r="N55" s="10"/>
       <c r="O55" s="10"/>
@@ -11808,7 +10554,7 @@
       <c r="R55" s="10"/>
       <c r="S55" s="10"/>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M56" s="10"/>
       <c r="N56" s="10"/>
       <c r="O56" s="10"/>
@@ -11817,7 +10563,7 @@
       <c r="R56" s="10"/>
       <c r="S56" s="10"/>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M57" s="10"/>
       <c r="N57" s="10"/>
       <c r="O57" s="10"/>
@@ -11826,7 +10572,7 @@
       <c r="R57" s="10"/>
       <c r="S57" s="10"/>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M58" s="10"/>
       <c r="N58" s="10"/>
       <c r="O58" s="10"/>
@@ -11835,7 +10581,7 @@
       <c r="R58" s="10"/>
       <c r="S58" s="10"/>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M59" s="10"/>
       <c r="N59" s="10"/>
       <c r="O59" s="10"/>
@@ -11844,7 +10590,7 @@
       <c r="R59" s="10"/>
       <c r="S59" s="10"/>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M60" s="10"/>
       <c r="N60" s="10"/>
       <c r="O60" s="10"/>
@@ -11853,7 +10599,7 @@
       <c r="R60" s="10"/>
       <c r="S60" s="10"/>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M61" s="10"/>
       <c r="N61" s="10"/>
       <c r="O61" s="10"/>
@@ -11862,7 +10608,7 @@
       <c r="R61" s="10"/>
       <c r="S61" s="10"/>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M62" s="10"/>
       <c r="N62" s="10"/>
       <c r="O62" s="10"/>
@@ -11871,7 +10617,7 @@
       <c r="R62" s="10"/>
       <c r="S62" s="10"/>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M63" s="10"/>
       <c r="N63" s="10"/>
       <c r="O63" s="10"/>
@@ -11880,7 +10626,7 @@
       <c r="R63" s="10"/>
       <c r="S63" s="10"/>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.45">
       <c r="M64" s="10"/>
       <c r="N64" s="10"/>
       <c r="O64" s="10"/>
@@ -11889,7 +10635,7 @@
       <c r="R64" s="10"/>
       <c r="S64" s="10"/>
     </row>
-    <row r="65" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="65" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M65" s="10"/>
       <c r="N65" s="10"/>
       <c r="O65" s="10"/>
@@ -11898,7 +10644,7 @@
       <c r="R65" s="10"/>
       <c r="S65" s="10"/>
     </row>
-    <row r="66" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="66" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M66" s="10"/>
       <c r="N66" s="10"/>
       <c r="O66" s="10"/>
@@ -11907,7 +10653,7 @@
       <c r="R66" s="10"/>
       <c r="S66" s="10"/>
     </row>
-    <row r="67" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="67" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M67" s="10"/>
       <c r="N67" s="10"/>
       <c r="O67" s="10"/>
@@ -11916,7 +10662,7 @@
       <c r="R67" s="10"/>
       <c r="S67" s="10"/>
     </row>
-    <row r="68" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="68" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M68" s="10"/>
       <c r="N68" s="10"/>
       <c r="O68" s="10"/>
@@ -11925,7 +10671,7 @@
       <c r="R68" s="10"/>
       <c r="S68" s="10"/>
     </row>
-    <row r="69" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="69" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M69" s="10"/>
       <c r="N69" s="10"/>
       <c r="O69" s="10"/>
@@ -11934,7 +10680,7 @@
       <c r="R69" s="10"/>
       <c r="S69" s="10"/>
     </row>
-    <row r="70" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="70" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M70" s="10"/>
       <c r="N70" s="10"/>
       <c r="O70" s="10"/>
@@ -11943,7 +10689,7 @@
       <c r="R70" s="10"/>
       <c r="S70" s="10"/>
     </row>
-    <row r="71" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="71" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M71" s="10"/>
       <c r="N71" s="10"/>
       <c r="O71" s="10"/>
@@ -11952,7 +10698,7 @@
       <c r="R71" s="10"/>
       <c r="S71" s="10"/>
     </row>
-    <row r="72" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="72" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M72" s="10"/>
       <c r="N72" s="10"/>
       <c r="O72" s="10"/>
@@ -11961,7 +10707,7 @@
       <c r="R72" s="10"/>
       <c r="S72" s="10"/>
     </row>
-    <row r="73" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="73" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M73" s="10"/>
       <c r="N73" s="10"/>
       <c r="O73" s="10"/>
@@ -11970,7 +10716,7 @@
       <c r="R73" s="10"/>
       <c r="S73" s="10"/>
     </row>
-    <row r="74" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="74" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M74" s="10"/>
       <c r="N74" s="10"/>
       <c r="O74" s="10"/>
@@ -11979,7 +10725,7 @@
       <c r="R74" s="10"/>
       <c r="S74" s="10"/>
     </row>
-    <row r="75" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="75" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M75" s="10"/>
       <c r="N75" s="10"/>
       <c r="O75" s="10"/>
@@ -11988,7 +10734,7 @@
       <c r="R75" s="10"/>
       <c r="S75" s="10"/>
     </row>
-    <row r="76" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="76" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M76" s="10"/>
       <c r="N76" s="10"/>
       <c r="O76" s="10"/>
@@ -11997,7 +10743,7 @@
       <c r="R76" s="10"/>
       <c r="S76" s="10"/>
     </row>
-    <row r="77" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="77" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M77" s="10"/>
       <c r="N77" s="10"/>
       <c r="O77" s="10"/>
@@ -12006,7 +10752,7 @@
       <c r="R77" s="10"/>
       <c r="S77" s="10"/>
     </row>
-    <row r="78" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="78" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M78" s="10"/>
       <c r="N78" s="10"/>
       <c r="O78" s="10"/>
@@ -12015,7 +10761,7 @@
       <c r="R78" s="10"/>
       <c r="S78" s="10"/>
     </row>
-    <row r="79" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="79" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M79" s="10"/>
       <c r="N79" s="10"/>
       <c r="O79" s="10"/>
@@ -12024,7 +10770,7 @@
       <c r="R79" s="10"/>
       <c r="S79" s="10"/>
     </row>
-    <row r="80" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="80" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M80" s="10"/>
       <c r="N80" s="10"/>
       <c r="O80" s="10"/>
@@ -12033,7 +10779,7 @@
       <c r="R80" s="10"/>
       <c r="S80" s="10"/>
     </row>
-    <row r="81" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="81" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M81" s="10"/>
       <c r="N81" s="10"/>
       <c r="O81" s="10"/>
@@ -12042,7 +10788,7 @@
       <c r="R81" s="10"/>
       <c r="S81" s="10"/>
     </row>
-    <row r="82" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="82" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M82" s="10"/>
       <c r="N82" s="10"/>
       <c r="O82" s="10"/>
@@ -12051,7 +10797,7 @@
       <c r="R82" s="10"/>
       <c r="S82" s="10"/>
     </row>
-    <row r="83" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="83" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M83" s="10"/>
       <c r="N83" s="10"/>
       <c r="O83" s="10"/>
@@ -12060,7 +10806,7 @@
       <c r="R83" s="10"/>
       <c r="S83" s="10"/>
     </row>
-    <row r="84" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="84" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M84" s="10"/>
       <c r="N84" s="10"/>
       <c r="O84" s="10"/>
@@ -12069,7 +10815,7 @@
       <c r="R84" s="10"/>
       <c r="S84" s="10"/>
     </row>
-    <row r="85" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="85" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M85" s="10"/>
       <c r="N85" s="10"/>
       <c r="O85" s="10"/>
@@ -12078,7 +10824,7 @@
       <c r="R85" s="10"/>
       <c r="S85" s="10"/>
     </row>
-    <row r="86" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="86" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M86" s="10"/>
       <c r="N86" s="10"/>
       <c r="O86" s="10"/>
@@ -12087,7 +10833,7 @@
       <c r="R86" s="10"/>
       <c r="S86" s="10"/>
     </row>
-    <row r="87" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="87" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M87" s="10"/>
       <c r="N87" s="10"/>
       <c r="O87" s="10"/>
@@ -12096,7 +10842,7 @@
       <c r="R87" s="10"/>
       <c r="S87" s="10"/>
     </row>
-    <row r="88" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="88" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M88" s="10"/>
       <c r="N88" s="10"/>
       <c r="O88" s="10"/>
@@ -12105,7 +10851,7 @@
       <c r="R88" s="10"/>
       <c r="S88" s="10"/>
     </row>
-    <row r="89" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="89" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M89" s="10"/>
       <c r="N89" s="10"/>
       <c r="O89" s="10"/>
@@ -12114,7 +10860,7 @@
       <c r="R89" s="10"/>
       <c r="S89" s="10"/>
     </row>
-    <row r="90" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="90" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M90" s="10"/>
       <c r="N90" s="10"/>
       <c r="O90" s="10"/>
@@ -12123,7 +10869,7 @@
       <c r="R90" s="10"/>
       <c r="S90" s="10"/>
     </row>
-    <row r="91" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="91" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M91" s="10"/>
       <c r="N91" s="10"/>
       <c r="O91" s="10"/>
@@ -12132,7 +10878,7 @@
       <c r="R91" s="10"/>
       <c r="S91" s="10"/>
     </row>
-    <row r="92" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="92" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M92" s="10"/>
       <c r="N92" s="10"/>
       <c r="O92" s="10"/>
@@ -12141,7 +10887,7 @@
       <c r="R92" s="10"/>
       <c r="S92" s="10"/>
     </row>
-    <row r="93" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="93" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M93" s="10"/>
       <c r="N93" s="10"/>
       <c r="O93" s="10"/>
@@ -12150,7 +10896,7 @@
       <c r="R93" s="10"/>
       <c r="S93" s="10"/>
     </row>
-    <row r="94" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="94" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M94" s="10"/>
       <c r="N94" s="10"/>
       <c r="O94" s="10"/>
@@ -12159,7 +10905,7 @@
       <c r="R94" s="10"/>
       <c r="S94" s="10"/>
     </row>
-    <row r="95" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="95" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M95" s="10"/>
       <c r="N95" s="10"/>
       <c r="O95" s="10"/>
@@ -12168,7 +10914,7 @@
       <c r="R95" s="10"/>
       <c r="S95" s="10"/>
     </row>
-    <row r="96" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="96" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M96" s="10"/>
       <c r="N96" s="10"/>
       <c r="O96" s="10"/>
@@ -12177,7 +10923,7 @@
       <c r="R96" s="10"/>
       <c r="S96" s="10"/>
     </row>
-    <row r="97" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="97" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M97" s="10"/>
       <c r="N97" s="10"/>
       <c r="O97" s="10"/>
@@ -12186,7 +10932,7 @@
       <c r="R97" s="10"/>
       <c r="S97" s="10"/>
     </row>
-    <row r="98" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="98" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M98" s="10"/>
       <c r="N98" s="10"/>
       <c r="O98" s="10"/>
@@ -12195,7 +10941,7 @@
       <c r="R98" s="10"/>
       <c r="S98" s="10"/>
     </row>
-    <row r="99" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="99" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M99" s="10"/>
       <c r="N99" s="10"/>
       <c r="O99" s="10"/>
@@ -12204,7 +10950,7 @@
       <c r="R99" s="10"/>
       <c r="S99" s="10"/>
     </row>
-    <row r="100" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="100" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M100" s="10"/>
       <c r="N100" s="10"/>
       <c r="O100" s="10"/>
@@ -12213,7 +10959,7 @@
       <c r="R100" s="10"/>
       <c r="S100" s="10"/>
     </row>
-    <row r="101" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="101" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M101" s="10"/>
       <c r="N101" s="10"/>
       <c r="O101" s="10"/>
@@ -12222,7 +10968,7 @@
       <c r="R101" s="10"/>
       <c r="S101" s="10"/>
     </row>
-    <row r="102" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="102" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M102" s="10"/>
       <c r="N102" s="10"/>
       <c r="O102" s="10"/>
@@ -12231,7 +10977,7 @@
       <c r="R102" s="10"/>
       <c r="S102" s="10"/>
     </row>
-    <row r="103" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="103" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M103" s="10"/>
       <c r="N103" s="10"/>
       <c r="O103" s="10"/>
@@ -12240,7 +10986,7 @@
       <c r="R103" s="10"/>
       <c r="S103" s="10"/>
     </row>
-    <row r="104" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="104" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M104" s="10"/>
       <c r="N104" s="10"/>
       <c r="O104" s="10"/>
@@ -12249,7 +10995,7 @@
       <c r="R104" s="10"/>
       <c r="S104" s="10"/>
     </row>
-    <row r="105" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="105" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M105" s="10"/>
       <c r="N105" s="10"/>
       <c r="O105" s="10"/>
@@ -12258,7 +11004,7 @@
       <c r="R105" s="10"/>
       <c r="S105" s="10"/>
     </row>
-    <row r="106" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="106" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M106" s="10"/>
       <c r="N106" s="10"/>
       <c r="O106" s="10"/>
@@ -12267,7 +11013,7 @@
       <c r="R106" s="10"/>
       <c r="S106" s="10"/>
     </row>
-    <row r="107" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="107" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M107" s="10"/>
       <c r="N107" s="10"/>
       <c r="O107" s="10"/>
@@ -12276,7 +11022,7 @@
       <c r="R107" s="10"/>
       <c r="S107" s="10"/>
     </row>
-    <row r="108" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="108" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M108" s="10"/>
       <c r="N108" s="10"/>
       <c r="O108" s="10"/>
@@ -12285,7 +11031,7 @@
       <c r="R108" s="10"/>
       <c r="S108" s="10"/>
     </row>
-    <row r="109" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="109" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M109" s="10"/>
       <c r="N109" s="10"/>
       <c r="O109" s="10"/>
@@ -12294,7 +11040,7 @@
       <c r="R109" s="10"/>
       <c r="S109" s="10"/>
     </row>
-    <row r="110" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="110" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M110" s="10"/>
       <c r="N110" s="10"/>
       <c r="O110" s="10"/>
@@ -12303,7 +11049,7 @@
       <c r="R110" s="10"/>
       <c r="S110" s="10"/>
     </row>
-    <row r="111" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="111" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M111" s="10"/>
       <c r="N111" s="10"/>
       <c r="O111" s="10"/>
@@ -12312,7 +11058,7 @@
       <c r="R111" s="10"/>
       <c r="S111" s="10"/>
     </row>
-    <row r="112" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="112" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M112" s="10"/>
       <c r="N112" s="10"/>
       <c r="O112" s="10"/>
@@ -12321,7 +11067,7 @@
       <c r="R112" s="10"/>
       <c r="S112" s="10"/>
     </row>
-    <row r="113" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="113" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M113" s="10"/>
       <c r="N113" s="10"/>
       <c r="O113" s="10"/>
@@ -12330,7 +11076,7 @@
       <c r="R113" s="10"/>
       <c r="S113" s="10"/>
     </row>
-    <row r="114" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="114" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M114" s="10"/>
       <c r="N114" s="10"/>
       <c r="O114" s="10"/>
@@ -12339,7 +11085,7 @@
       <c r="R114" s="10"/>
       <c r="S114" s="10"/>
     </row>
-    <row r="115" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="115" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M115" s="10"/>
       <c r="N115" s="10"/>
       <c r="O115" s="10"/>
@@ -12348,7 +11094,7 @@
       <c r="R115" s="10"/>
       <c r="S115" s="10"/>
     </row>
-    <row r="116" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="116" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M116" s="10"/>
       <c r="N116" s="10"/>
       <c r="O116" s="10"/>
@@ -12357,7 +11103,7 @@
       <c r="R116" s="10"/>
       <c r="S116" s="10"/>
     </row>
-    <row r="117" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="117" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M117" s="10"/>
       <c r="N117" s="10"/>
       <c r="O117" s="10"/>
@@ -12366,7 +11112,7 @@
       <c r="R117" s="10"/>
       <c r="S117" s="10"/>
     </row>
-    <row r="118" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="118" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M118" s="10"/>
       <c r="N118" s="10"/>
       <c r="O118" s="10"/>
@@ -12375,7 +11121,7 @@
       <c r="R118" s="10"/>
       <c r="S118" s="10"/>
     </row>
-    <row r="119" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="119" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M119" s="10"/>
       <c r="N119" s="10"/>
       <c r="O119" s="10"/>
@@ -12384,7 +11130,7 @@
       <c r="R119" s="10"/>
       <c r="S119" s="10"/>
     </row>
-    <row r="120" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="120" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M120" s="10"/>
       <c r="N120" s="10"/>
       <c r="O120" s="10"/>
@@ -12393,7 +11139,7 @@
       <c r="R120" s="10"/>
       <c r="S120" s="10"/>
     </row>
-    <row r="121" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="121" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M121" s="10"/>
       <c r="N121" s="10"/>
       <c r="O121" s="10"/>
@@ -12402,7 +11148,7 @@
       <c r="R121" s="10"/>
       <c r="S121" s="10"/>
     </row>
-    <row r="122" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="122" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M122" s="10"/>
       <c r="N122" s="10"/>
       <c r="O122" s="10"/>
@@ -12411,7 +11157,7 @@
       <c r="R122" s="10"/>
       <c r="S122" s="10"/>
     </row>
-    <row r="123" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="123" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M123" s="10"/>
       <c r="N123" s="10"/>
       <c r="O123" s="10"/>
@@ -12420,7 +11166,7 @@
       <c r="R123" s="10"/>
       <c r="S123" s="10"/>
     </row>
-    <row r="124" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="124" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M124" s="10"/>
       <c r="N124" s="10"/>
       <c r="O124" s="10"/>
@@ -12429,7 +11175,7 @@
       <c r="R124" s="10"/>
       <c r="S124" s="10"/>
     </row>
-    <row r="125" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="125" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M125" s="10"/>
       <c r="N125" s="10"/>
       <c r="O125" s="10"/>
@@ -12438,7 +11184,7 @@
       <c r="R125" s="10"/>
       <c r="S125" s="10"/>
     </row>
-    <row r="126" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="126" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M126" s="10"/>
       <c r="N126" s="10"/>
       <c r="O126" s="10"/>
@@ -12447,7 +11193,7 @@
       <c r="R126" s="10"/>
       <c r="S126" s="10"/>
     </row>
-    <row r="127" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="127" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M127" s="10"/>
       <c r="N127" s="10"/>
       <c r="O127" s="10"/>
@@ -12456,7 +11202,7 @@
       <c r="R127" s="10"/>
       <c r="S127" s="10"/>
     </row>
-    <row r="128" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="128" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M128" s="10"/>
       <c r="N128" s="10"/>
       <c r="O128" s="10"/>
@@ -12465,7 +11211,7 @@
       <c r="R128" s="10"/>
       <c r="S128" s="10"/>
     </row>
-    <row r="129" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="129" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M129" s="10"/>
       <c r="N129" s="10"/>
       <c r="O129" s="10"/>
@@ -12474,7 +11220,7 @@
       <c r="R129" s="10"/>
       <c r="S129" s="10"/>
     </row>
-    <row r="130" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="130" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M130" s="10"/>
       <c r="N130" s="10"/>
       <c r="O130" s="10"/>
@@ -12483,7 +11229,7 @@
       <c r="R130" s="10"/>
       <c r="S130" s="10"/>
     </row>
-    <row r="131" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="131" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M131" s="10"/>
       <c r="N131" s="10"/>
       <c r="O131" s="10"/>
@@ -12492,7 +11238,7 @@
       <c r="R131" s="10"/>
       <c r="S131" s="10"/>
     </row>
-    <row r="132" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="132" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M132" s="10"/>
       <c r="N132" s="10"/>
       <c r="O132" s="10"/>
@@ -12501,7 +11247,7 @@
       <c r="R132" s="10"/>
       <c r="S132" s="10"/>
     </row>
-    <row r="133" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="133" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M133" s="10"/>
       <c r="N133" s="10"/>
       <c r="O133" s="10"/>
@@ -12510,7 +11256,7 @@
       <c r="R133" s="10"/>
       <c r="S133" s="10"/>
     </row>
-    <row r="134" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="134" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M134" s="10"/>
       <c r="N134" s="10"/>
       <c r="O134" s="10"/>
@@ -12519,7 +11265,7 @@
       <c r="R134" s="10"/>
       <c r="S134" s="10"/>
     </row>
-    <row r="135" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="135" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M135" s="10"/>
       <c r="N135" s="10"/>
       <c r="O135" s="10"/>
@@ -12528,7 +11274,7 @@
       <c r="R135" s="10"/>
       <c r="S135" s="10"/>
     </row>
-    <row r="136" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="136" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M136" s="10"/>
       <c r="N136" s="10"/>
       <c r="O136" s="10"/>
@@ -12537,7 +11283,7 @@
       <c r="R136" s="10"/>
       <c r="S136" s="10"/>
     </row>
-    <row r="137" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="137" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M137" s="10"/>
       <c r="N137" s="10"/>
       <c r="O137" s="10"/>
@@ -12546,7 +11292,7 @@
       <c r="R137" s="10"/>
       <c r="S137" s="10"/>
     </row>
-    <row r="138" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="138" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M138" s="10"/>
       <c r="N138" s="10"/>
       <c r="O138" s="10"/>
@@ -12555,7 +11301,7 @@
       <c r="R138" s="10"/>
       <c r="S138" s="10"/>
     </row>
-    <row r="139" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="139" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M139" s="10"/>
       <c r="N139" s="10"/>
       <c r="O139" s="10"/>
@@ -12564,7 +11310,7 @@
       <c r="R139" s="10"/>
       <c r="S139" s="10"/>
     </row>
-    <row r="140" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="140" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M140" s="10"/>
       <c r="N140" s="10"/>
       <c r="O140" s="10"/>
@@ -12573,7 +11319,7 @@
       <c r="R140" s="10"/>
       <c r="S140" s="10"/>
     </row>
-    <row r="141" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="141" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M141" s="10"/>
       <c r="N141" s="10"/>
       <c r="O141" s="10"/>
@@ -12582,7 +11328,7 @@
       <c r="R141" s="10"/>
       <c r="S141" s="10"/>
     </row>
-    <row r="142" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="142" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M142" s="10"/>
       <c r="N142" s="10"/>
       <c r="O142" s="10"/>
@@ -12591,7 +11337,7 @@
       <c r="R142" s="10"/>
       <c r="S142" s="10"/>
     </row>
-    <row r="143" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="143" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M143" s="10"/>
       <c r="N143" s="10"/>
       <c r="O143" s="10"/>
@@ -12600,7 +11346,7 @@
       <c r="R143" s="10"/>
       <c r="S143" s="10"/>
     </row>
-    <row r="144" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="144" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M144" s="10"/>
       <c r="N144" s="10"/>
       <c r="O144" s="10"/>
@@ -12609,7 +11355,7 @@
       <c r="R144" s="10"/>
       <c r="S144" s="10"/>
     </row>
-    <row r="145" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="145" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M145" s="10"/>
       <c r="N145" s="10"/>
       <c r="O145" s="10"/>
@@ -12618,7 +11364,7 @@
       <c r="R145" s="10"/>
       <c r="S145" s="10"/>
     </row>
-    <row r="146" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="146" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M146" s="10"/>
       <c r="N146" s="10"/>
       <c r="O146" s="10"/>
@@ -12627,7 +11373,7 @@
       <c r="R146" s="10"/>
       <c r="S146" s="10"/>
     </row>
-    <row r="147" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="147" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M147" s="10"/>
       <c r="N147" s="10"/>
       <c r="O147" s="10"/>
@@ -12636,7 +11382,7 @@
       <c r="R147" s="10"/>
       <c r="S147" s="10"/>
     </row>
-    <row r="148" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="148" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M148" s="10"/>
       <c r="N148" s="10"/>
       <c r="O148" s="10"/>
@@ -12645,7 +11391,7 @@
       <c r="R148" s="10"/>
       <c r="S148" s="10"/>
     </row>
-    <row r="149" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="149" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M149" s="10"/>
       <c r="N149" s="10"/>
       <c r="O149" s="10"/>
@@ -12654,7 +11400,7 @@
       <c r="R149" s="10"/>
       <c r="S149" s="10"/>
     </row>
-    <row r="150" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="150" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M150" s="10"/>
       <c r="N150" s="10"/>
       <c r="O150" s="10"/>
@@ -12663,7 +11409,7 @@
       <c r="R150" s="10"/>
       <c r="S150" s="10"/>
     </row>
-    <row r="151" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="151" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M151" s="10"/>
       <c r="N151" s="10"/>
       <c r="O151" s="10"/>
@@ -12672,7 +11418,7 @@
       <c r="R151" s="10"/>
       <c r="S151" s="10"/>
     </row>
-    <row r="152" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="152" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M152" s="10"/>
       <c r="N152" s="10"/>
       <c r="O152" s="10"/>
@@ -12681,7 +11427,7 @@
       <c r="R152" s="10"/>
       <c r="S152" s="10"/>
     </row>
-    <row r="153" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="153" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M153" s="10"/>
       <c r="N153" s="10"/>
       <c r="O153" s="10"/>
@@ -12690,7 +11436,7 @@
       <c r="R153" s="10"/>
       <c r="S153" s="10"/>
     </row>
-    <row r="154" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="154" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M154" s="10"/>
       <c r="N154" s="10"/>
       <c r="O154" s="10"/>
@@ -12699,7 +11445,7 @@
       <c r="R154" s="10"/>
       <c r="S154" s="10"/>
     </row>
-    <row r="155" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="155" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M155" s="10"/>
       <c r="N155" s="10"/>
       <c r="O155" s="10"/>
@@ -12708,7 +11454,7 @@
       <c r="R155" s="10"/>
       <c r="S155" s="10"/>
     </row>
-    <row r="156" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="156" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M156" s="10"/>
       <c r="N156" s="10"/>
       <c r="O156" s="10"/>
@@ -12717,7 +11463,7 @@
       <c r="R156" s="10"/>
       <c r="S156" s="10"/>
     </row>
-    <row r="157" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="157" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M157" s="10"/>
       <c r="N157" s="10"/>
       <c r="O157" s="10"/>
@@ -12726,7 +11472,7 @@
       <c r="R157" s="10"/>
       <c r="S157" s="10"/>
     </row>
-    <row r="158" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="158" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M158" s="10"/>
       <c r="N158" s="10"/>
       <c r="O158" s="10"/>
@@ -12735,7 +11481,7 @@
       <c r="R158" s="10"/>
       <c r="S158" s="10"/>
     </row>
-    <row r="159" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="159" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M159" s="10"/>
       <c r="N159" s="10"/>
       <c r="O159" s="10"/>
@@ -12744,7 +11490,7 @@
       <c r="R159" s="10"/>
       <c r="S159" s="10"/>
     </row>
-    <row r="160" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="160" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M160" s="10"/>
       <c r="N160" s="10"/>
       <c r="O160" s="10"/>
@@ -12753,7 +11499,7 @@
       <c r="R160" s="10"/>
       <c r="S160" s="10"/>
     </row>
-    <row r="161" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="161" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M161" s="10"/>
       <c r="N161" s="10"/>
       <c r="O161" s="10"/>
@@ -12762,7 +11508,7 @@
       <c r="R161" s="10"/>
       <c r="S161" s="10"/>
     </row>
-    <row r="162" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="162" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M162" s="10"/>
       <c r="N162" s="10"/>
       <c r="O162" s="10"/>
@@ -12771,7 +11517,7 @@
       <c r="R162" s="10"/>
       <c r="S162" s="10"/>
     </row>
-    <row r="163" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="163" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M163" s="10"/>
       <c r="N163" s="10"/>
       <c r="O163" s="10"/>
@@ -12780,7 +11526,7 @@
       <c r="R163" s="10"/>
       <c r="S163" s="10"/>
     </row>
-    <row r="164" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="164" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M164" s="10"/>
       <c r="N164" s="10"/>
       <c r="O164" s="10"/>
@@ -12789,7 +11535,7 @@
       <c r="R164" s="10"/>
       <c r="S164" s="10"/>
     </row>
-    <row r="165" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="165" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M165" s="10"/>
       <c r="N165" s="10"/>
       <c r="O165" s="10"/>
@@ -12798,7 +11544,7 @@
       <c r="R165" s="10"/>
       <c r="S165" s="10"/>
     </row>
-    <row r="166" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="166" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M166" s="10"/>
       <c r="N166" s="10"/>
       <c r="O166" s="10"/>
@@ -12807,7 +11553,7 @@
       <c r="R166" s="10"/>
       <c r="S166" s="10"/>
     </row>
-    <row r="167" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="167" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M167" s="10"/>
       <c r="N167" s="10"/>
       <c r="O167" s="10"/>
@@ -12816,7 +11562,7 @@
       <c r="R167" s="10"/>
       <c r="S167" s="10"/>
     </row>
-    <row r="168" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="168" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M168" s="10"/>
       <c r="N168" s="10"/>
       <c r="O168" s="10"/>
@@ -12825,7 +11571,7 @@
       <c r="R168" s="10"/>
       <c r="S168" s="10"/>
     </row>
-    <row r="169" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="169" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M169" s="10"/>
       <c r="N169" s="10"/>
       <c r="O169" s="10"/>
@@ -12834,7 +11580,7 @@
       <c r="R169" s="10"/>
       <c r="S169" s="10"/>
     </row>
-    <row r="170" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="170" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M170" s="10"/>
       <c r="N170" s="10"/>
       <c r="O170" s="10"/>
@@ -12843,7 +11589,7 @@
       <c r="R170" s="10"/>
       <c r="S170" s="10"/>
     </row>
-    <row r="171" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="171" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M171" s="10"/>
       <c r="N171" s="10"/>
       <c r="O171" s="10"/>
@@ -12852,7 +11598,7 @@
       <c r="R171" s="10"/>
       <c r="S171" s="10"/>
     </row>
-    <row r="172" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="172" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M172" s="10"/>
       <c r="N172" s="10"/>
       <c r="O172" s="10"/>
@@ -12861,7 +11607,7 @@
       <c r="R172" s="10"/>
       <c r="S172" s="10"/>
     </row>
-    <row r="173" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="173" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M173" s="10"/>
       <c r="N173" s="10"/>
       <c r="O173" s="10"/>
@@ -12870,7 +11616,7 @@
       <c r="R173" s="10"/>
       <c r="S173" s="10"/>
     </row>
-    <row r="174" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="174" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M174" s="10"/>
       <c r="N174" s="10"/>
       <c r="O174" s="10"/>
@@ -12879,7 +11625,7 @@
       <c r="R174" s="10"/>
       <c r="S174" s="10"/>
     </row>
-    <row r="175" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="175" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M175" s="10"/>
       <c r="N175" s="10"/>
       <c r="O175" s="10"/>
@@ -12888,7 +11634,7 @@
       <c r="R175" s="10"/>
       <c r="S175" s="10"/>
     </row>
-    <row r="176" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="176" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M176" s="10"/>
       <c r="N176" s="10"/>
       <c r="O176" s="10"/>
@@ -12897,7 +11643,7 @@
       <c r="R176" s="10"/>
       <c r="S176" s="10"/>
     </row>
-    <row r="177" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="177" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M177" s="10"/>
       <c r="N177" s="10"/>
       <c r="O177" s="10"/>
@@ -12906,7 +11652,7 @@
       <c r="R177" s="10"/>
       <c r="S177" s="10"/>
     </row>
-    <row r="178" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="178" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M178" s="10"/>
       <c r="N178" s="10"/>
       <c r="O178" s="10"/>
@@ -12915,7 +11661,7 @@
       <c r="R178" s="10"/>
       <c r="S178" s="10"/>
     </row>
-    <row r="179" spans="13:19" x14ac:dyDescent="0.3">
+    <row r="179" spans="13:19" x14ac:dyDescent="0.45">
       <c r="M179" s="10"/>
       <c r="N179" s="10"/>
       <c r="O179" s="10"/>
@@ -12950,7 +11696,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -12958,17 +11704,17 @@
       <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.86328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B1" s="15"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="11" t="s">
         <v>248</v>
       </c>
@@ -12979,7 +11725,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="13">
         <v>1</v>
       </c>
@@ -12990,7 +11736,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="13">
         <v>2</v>
       </c>
@@ -13001,7 +11747,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="13">
         <v>3</v>
       </c>
@@ -13012,7 +11758,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="13">
         <v>4</v>
       </c>
@@ -13023,7 +11769,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="13">
         <v>5</v>
       </c>
@@ -13034,7 +11780,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="13">
         <v>6</v>
       </c>
@@ -13045,7 +11791,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="13">
         <v>7</v>
       </c>
@@ -13056,7 +11802,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="13">
         <v>8</v>
       </c>
@@ -13065,6 +11811,89 @@
       </c>
       <c r="C10" s="14" t="s">
         <v>279</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F63719A-CCC7-4313-BE81-ADB215E91107}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="4.796875" style="60" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="61" t="s">
+        <v>248</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="13">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="13">
+        <v>2</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="13">
+        <v>3</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="13">
+        <v>4</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" s="13">
+        <v>5</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" s="13">
+        <v>6</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="13">
+        <v>7</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>446</v>
       </c>
     </row>
   </sheetData>
@@ -13073,84 +11902,1246 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F63719A-CCC7-4313-BE81-ADB215E91107}">
-  <dimension ref="A1:B8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="B111" sqref="B111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" style="67" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.46484375" customWidth="1"/>
+    <col min="3" max="3" width="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
-        <v>248</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="13">
+    <row r="1" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="13">
+      <c r="B1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="13">
-        <v>3</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="13">
-        <v>4</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="13">
-        <v>5</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="13">
+      <c r="C1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="13">
+    </row>
+    <row r="2" spans="1:3" s="58" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="38">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="57" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="58" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="38">
+        <v>2</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="57" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="58" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="38">
+        <v>3</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="59" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="38">
+        <v>4</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="38">
+        <v>5</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="38">
+        <v>6</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="38">
         <v>7</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>446</v>
+      <c r="B8" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="7">
+        <v>9051770999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="38">
+        <v>8</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="7">
+        <v>9903606575</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="38">
+        <v>9</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="38">
+        <v>10</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="38">
+        <v>11</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="38">
+        <v>12</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="38">
+        <v>13</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="38">
+        <v>14</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="7">
+        <v>8961111167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="38">
+        <v>15</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="38">
+        <v>16</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="38">
+        <v>17</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="7">
+        <v>7044096127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="38">
+        <v>18</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="7">
+        <v>9831274629</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="38">
+        <v>19</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="7">
+        <v>8777257554</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="38">
+        <v>20</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="7">
+        <v>3322651531</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="38">
+        <v>21</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="7">
+        <v>3324753015</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="38">
+        <v>22</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="7">
+        <v>3324753765</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="38">
+        <v>23</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="7">
+        <v>3324286903</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="38">
+        <v>24</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="8">
+        <v>8902488077</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="38">
+        <v>25</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="9">
+        <v>9163741069</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="38">
+        <v>26</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="9">
+        <v>3324411691</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="38">
+        <v>27</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="7">
+        <v>3324413804</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="38">
+        <v>28</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="7">
+        <v>9830688888</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="38">
+        <v>29</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="7">
+        <v>9073985531</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="38">
+        <v>30</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="7">
+        <v>3324712220</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="38">
+        <v>31</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="7">
+        <v>3324131158</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="38">
+        <v>32</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" s="7">
+        <v>9836242629</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="38">
+        <v>33</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="38">
+        <v>34</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" s="7">
+        <v>9051973905</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="38">
+        <v>35</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" s="7">
+        <v>9674850783</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="38">
+        <v>36</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" s="7">
+        <v>9674111783</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" s="7">
+        <v>33218260082</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="38">
+        <v>38</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39" s="7">
+        <v>3322879202</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="38">
+        <v>39</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C40" s="7">
+        <v>3322841546</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="38">
+        <v>40</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C41" s="7">
+        <v>3322484593</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="38">
+        <v>41</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="C42" s="7">
+        <v>3322297741</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="38">
+        <v>42</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C43" s="7">
+        <v>3324793241</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="38">
+        <v>43</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C44" s="7">
+        <v>3324344455</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="38">
+        <v>44</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C45" s="7">
+        <v>3340083093</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="38">
+        <v>45</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="C46" s="7">
+        <v>3324618002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="38">
+        <v>46</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="38">
+        <v>47</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="C48" s="7">
+        <v>3324569090</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="38">
+        <v>48</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="C49" s="7">
+        <v>3322233062</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="38">
+        <v>49</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A51" s="38">
+        <v>50</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="C51" s="7">
+        <v>3324793600</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A52" s="38">
+        <v>51</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="C52" s="7">
+        <v>3324866629</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A53" s="38">
+        <v>52</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C53" s="7">
+        <v>3322848038</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A54" s="38">
+        <v>53</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C54" s="7">
+        <v>905188888</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A55" s="38">
+        <v>54</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="C55" s="7">
+        <v>7596949952</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A56" s="38">
+        <v>55</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="C56" s="7">
+        <v>7478196910</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A57" s="38">
+        <v>56</v>
+      </c>
+      <c r="B57" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="C57" s="7">
+        <v>7044447761</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A58" s="38">
+        <v>57</v>
+      </c>
+      <c r="B58" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="C58" s="7">
+        <v>7059600647</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A59" s="38">
+        <v>58</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="C59" s="7">
+        <v>3340072444</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A60" s="38">
+        <v>59</v>
+      </c>
+      <c r="B60" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="C60" s="7">
+        <v>9903102957</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A61" s="38">
+        <v>60</v>
+      </c>
+      <c r="B61" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="C61" s="7">
+        <v>7605080650</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A62" s="38">
+        <v>61</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="C62" s="7">
+        <v>3324752135</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A63" s="38">
+        <v>62</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="C63" s="7">
+        <v>9674645471</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A64" s="38">
+        <v>63</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="C64" s="7">
+        <v>9073681886</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A65" s="38">
+        <v>64</v>
+      </c>
+      <c r="B65" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="C65" s="7">
+        <v>3324316997</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A66" s="38">
+        <v>65</v>
+      </c>
+      <c r="B66" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="C66" s="7">
+        <v>3322291779</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A67" s="38">
+        <v>66</v>
+      </c>
+      <c r="B67" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="C67" s="7">
+        <v>3323215151</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A68" s="38">
+        <v>67</v>
+      </c>
+      <c r="B68" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="C68" s="7">
+        <v>3323342404</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A69" s="38">
+        <v>68</v>
+      </c>
+      <c r="B69" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A70" s="38">
+        <v>69</v>
+      </c>
+      <c r="B70" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A71" s="38">
+        <v>70</v>
+      </c>
+      <c r="B71" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="C71" s="7">
+        <v>9606279184</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A72" s="38">
+        <v>71</v>
+      </c>
+      <c r="B72" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="C72" s="7">
+        <v>8777867589</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A73" s="38">
+        <v>72</v>
+      </c>
+      <c r="B73" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C73" s="7">
+        <v>8017672075</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A74" s="38">
+        <v>73</v>
+      </c>
+      <c r="B74" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="C74" s="7">
+        <v>3324492810</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A75" s="38">
+        <v>74</v>
+      </c>
+      <c r="B75" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="C75" s="7">
+        <v>3324967196</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A76" s="38">
+        <v>75</v>
+      </c>
+      <c r="B76" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="C76" s="7">
+        <v>9830701347</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A77" s="38">
+        <v>76</v>
+      </c>
+      <c r="B77" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="C77" s="7">
+        <v>3324961723</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A78" s="38">
+        <v>77</v>
+      </c>
+      <c r="B78" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="C78" s="7">
+        <v>9007792852</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A79" s="38">
+        <v>78</v>
+      </c>
+      <c r="B79" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="C79" s="7">
+        <v>8902765583</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A80" s="38">
+        <v>79</v>
+      </c>
+      <c r="B80" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="C80" s="7">
+        <v>9331866252</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A81" s="38">
+        <v>80</v>
+      </c>
+      <c r="B81" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="C81" s="7">
+        <v>9903540099</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A82" s="38">
+        <v>81</v>
+      </c>
+      <c r="B82" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="C82" s="7">
+        <v>8336998663</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A83" s="38">
+        <v>82</v>
+      </c>
+      <c r="B83" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="C83" s="7">
+        <v>9339527506</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A84" s="38">
+        <v>83</v>
+      </c>
+      <c r="B84" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C84" s="7">
+        <v>9903312630</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A85" s="38">
+        <v>84</v>
+      </c>
+      <c r="B85" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="C85" s="7">
+        <v>9836747400</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A86" s="38">
+        <v>85</v>
+      </c>
+      <c r="B86" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="C86" s="7">
+        <v>8100188019</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A87" s="38">
+        <v>86</v>
+      </c>
+      <c r="B87" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A88" s="38">
+        <v>87</v>
+      </c>
+      <c r="B88" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A89" s="38">
+        <v>88</v>
+      </c>
+      <c r="B89" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A90" s="38">
+        <v>89</v>
+      </c>
+      <c r="B90" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A91" s="38">
+        <v>90</v>
+      </c>
+      <c r="B91" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A92" s="38">
+        <v>91</v>
+      </c>
+      <c r="B92" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A93" s="38">
+        <v>92</v>
+      </c>
+      <c r="B93" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A94" s="38">
+        <v>93</v>
+      </c>
+      <c r="B94" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A95" s="38">
+        <v>94</v>
+      </c>
+      <c r="B95" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A96" s="38">
+        <v>95</v>
+      </c>
+      <c r="B96" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A97" s="38">
+        <v>96</v>
+      </c>
+      <c r="B97" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A98" s="38">
+        <v>97</v>
+      </c>
+      <c r="B98" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A99" s="38">
+        <v>98</v>
+      </c>
+      <c r="B99" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A100" s="38">
+        <v>99</v>
+      </c>
+      <c r="B100" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A101" s="38">
+        <v>100</v>
+      </c>
+      <c r="B101" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A102" s="38">
+        <v>101</v>
+      </c>
+      <c r="B102" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A103" s="38">
+        <v>102</v>
+      </c>
+      <c r="B103" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A104" s="38">
+        <v>103</v>
+      </c>
+      <c r="B104" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A105" s="38">
+        <v>104</v>
+      </c>
+      <c r="B105" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A106" s="38">
+        <v>105</v>
+      </c>
+      <c r="B106" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A107" s="38">
+        <v>106</v>
+      </c>
+      <c r="B107" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A108" s="38">
+        <v>107</v>
+      </c>
+      <c r="B108" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A109" s="38">
+        <v>108</v>
+      </c>
+      <c r="B109" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A110" s="38">
+        <v>109</v>
+      </c>
+      <c r="B110" s="17" t="s">
+        <v>435</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A111" s="38">
+        <v>110</v>
+      </c>
+      <c r="B111" s="17" t="s">
+        <v>436</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>427</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1" display="https://www.google.com/search?q=panchasayar+siksha+niketan&amp;sca_esv=593615924&amp;rlz=1C1CHBF_enAU1047AU1047&amp;sxsrf=AM9HkKnlKkWvrpmDIvMzNnJR8ZC_8s6gNQ%3A1703524925488&amp;ei=PbqJZaauHY2KnesPo--TuAo&amp;gs_ssp=eJzj4tFP1zc0MqnMzTa1TDNgtFI1qDBONDAyNzRPNU1LM0xOTkuyAgqZpJmZmJgnGZgZGSWnpSV5SRUk5iVnJBYnViYWKRRnZhdnJCrkZWanliTmAQC7Qxln&amp;oq=panchasayar+s&amp;gs_lp=Egxnd3Mtd2l6LXNlcnAiDXBhbmNoYXNheWFyIHMqAggAMhQQLhivARjHARimAxioAxiABBiOBTIFEAAYgAQyBRAAGIAEMgsQLhiABBioAxidAzIFEAAYgAQyBRAAGIAEMgUQABiABDIFEAAYgAQyCBAAGIAEGMsBMggQABiABBjLATIjEC4YrwEYxwEYpgMYqAMYgAQYjgUYlwUY3AQY3gQY4ATYAQNIuzhQmhhYmCVwAXgBkAEAmAGvAqAB1gSqAQUyLTEuMbgBAcgBAPgBAcICChAAGEcY1gQYsAPCAg0QABiABBiKBRhDGLADwgIcEC4YgAQYigUYQxjHARivARjIAxiwAxiOBdgBAcICGRAuGIAEGIoFGEMYxwEYrwEYyAMYsAPYAQHCAg4QABjkAhjWBBiwA9gBAsICEBAuGEMYnQMYqAMYgAQYigXCAhAQLhiABBiKBRhDGKgDGJ0DwgIWEC4YQxivARjHARimAxioAxiABBiKBcICChAAGIAEGBQYhwLCAh8QLhhDGJ0DGKgDGIAEGIoFGJcFGNwEGN4EGOAE2AED4gMEGAAgQYgGAZAGDroGBggBEAEYCLoGBggCEAEYCboGBggDEAEYFA&amp;sclient=gws-wiz-serp" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="C6" r:id="rId2" display="https://www.google.com/search?q=miranda+high+school&amp;sca_esv=593615924&amp;rlz=1C1CHBF_enAU1047AU1047&amp;sxsrf=AM9HkKmR8dFtasrVNGZkMFIxGz5Wq06ZjA%3A1703525037148&amp;ei=rbqJZczSCOCWjuMPsMy_8AM&amp;oq=miranda+high+&amp;gs_lp=Egxnd3Mtd2l6LXNlcnAiDW1pcmFuZGEgaGlnaCAqAggAMg0QABiABBgUGIcCGMkDMgUQABiABDILEAAYgAQYigUYkgMyBRAAGIAEMgUQABiABDIKEAAYgAQYFBiHAjIFEAAYgAQyBRAAGIAEMgUQABiABDIFEAAYgARI7RNQ6AZY6AZwAXgAkAEAmAH0BqABuAyqAQM2LTK4AQHIAQD4AQHCAgoQABhHGNYEGLAD4gMEGAAgQYgGAZAGCA&amp;sclient=gws-wiz-serp&amp;lqi=ChNtaXJhbmRhIGhpZ2ggc2Nob29sSN-07OW4roCACForEAAQARACGAAYARgCIhNtaXJhbmRhIGhpZ2ggc2Nob29sKggIAhAAEAEQApIBBnNjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOUGNqUnVSbVZuRUFFqgE7EAEyHhABIhpTQ3iPFiqMHHb-9vGb0lli1Rpc5Z8xE87GgDIXEAIiE21pcmFuZGEgaGlnaCBzY2hvb2w" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Offline/BusinessManagement/Marketing/AI marketing/AI Workshop Schools-Colleges.xlsx
+++ b/Offline/BusinessManagement/Marketing/AI marketing/AI Workshop Schools-Colleges.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Marketing\AI marketing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB82360-5A09-43E9-B8F2-83AFA6E0491C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7DD5A69-2F4F-47D9-8C2E-CF3DF64FAC50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="506" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="506" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="8" r:id="rId1"/>
@@ -23,10 +23,19 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'School-Details'!$A$1:$U$124</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -116,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="447">
   <si>
     <t>CBSE</t>
   </si>
@@ -2289,29 +2298,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="3" max="3" width="21.53125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.53125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="2.6640625" customWidth="1"/>
-    <col min="10" max="10" width="4.1328125" customWidth="1"/>
+    <col min="10" max="10" width="4.109375" customWidth="1"/>
     <col min="12" max="12" width="22" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="2:18" ht="33.75" thickBot="1" x14ac:dyDescent="1.05">
+    <row r="1" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:18" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.7">
       <c r="B2" s="27"/>
       <c r="C2" s="28"/>
       <c r="D2" s="63" t="s">
@@ -2333,13 +2342,13 @@
       <c r="Q2" s="68"/>
       <c r="R2" s="29"/>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B3" s="30"/>
       <c r="I3" s="31"/>
       <c r="K3" s="30"/>
       <c r="R3" s="31"/>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B4" s="30"/>
       <c r="C4" s="16" t="s">
         <v>245</v>
@@ -2371,7 +2380,7 @@
       </c>
       <c r="R4" s="31"/>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B5" s="30"/>
       <c r="C5" s="16" t="s">
         <v>246</v>
@@ -2405,7 +2414,7 @@
       </c>
       <c r="R5" s="31"/>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B6" s="30"/>
       <c r="C6" s="16" t="s">
         <v>437</v>
@@ -2438,7 +2447,7 @@
       </c>
       <c r="R6" s="31"/>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B7" s="30"/>
       <c r="C7" s="16" t="s">
         <v>439</v>
@@ -2472,7 +2481,7 @@
       </c>
       <c r="R7" s="31"/>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B8" s="30"/>
       <c r="C8" s="16" t="s">
         <v>438</v>
@@ -2503,7 +2512,7 @@
       </c>
       <c r="R8" s="31"/>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B9" s="30"/>
       <c r="F9" s="16" t="s">
         <v>244</v>
@@ -2530,7 +2539,7 @@
       </c>
       <c r="R9" s="31"/>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B10" s="30"/>
       <c r="C10" s="21" t="s">
         <v>247</v>
@@ -2549,7 +2558,7 @@
       </c>
       <c r="R10" s="31"/>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B11" s="30"/>
       <c r="C11" s="14" t="s">
         <v>251</v>
@@ -2572,7 +2581,7 @@
       <c r="Q11" s="62"/>
       <c r="R11" s="31"/>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B12" s="30"/>
       <c r="C12" s="14" t="s">
         <v>253</v>
@@ -2609,7 +2618,7 @@
       </c>
       <c r="R12" s="31"/>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B13" s="30"/>
       <c r="C13" s="14" t="s">
         <v>255</v>
@@ -2647,7 +2656,7 @@
       </c>
       <c r="R13" s="31"/>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B14" s="30"/>
       <c r="C14" s="14" t="s">
         <v>257</v>
@@ -2685,7 +2694,7 @@
       </c>
       <c r="R14" s="31"/>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B15" s="30"/>
       <c r="C15" s="14" t="s">
         <v>259</v>
@@ -2723,7 +2732,7 @@
       </c>
       <c r="R15" s="31"/>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B16" s="30"/>
       <c r="C16" s="14" t="s">
         <v>261</v>
@@ -2761,7 +2770,7 @@
       </c>
       <c r="R16" s="31"/>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B17" s="30"/>
       <c r="C17" s="14" t="s">
         <v>263</v>
@@ -2799,7 +2808,7 @@
       </c>
       <c r="R17" s="31"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B18" s="30"/>
       <c r="C18" s="14" t="s">
         <v>279</v>
@@ -2837,7 +2846,7 @@
       </c>
       <c r="R18" s="31"/>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B19" s="30"/>
       <c r="C19" s="16" t="s">
         <v>244</v>
@@ -2875,7 +2884,7 @@
       </c>
       <c r="R19" s="31"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B20" s="30"/>
       <c r="F20" s="22">
         <v>45505</v>
@@ -2906,7 +2915,7 @@
       </c>
       <c r="R20" s="31"/>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B21" s="32"/>
       <c r="C21" s="21" t="s">
         <v>274</v>
@@ -2943,7 +2952,7 @@
       </c>
       <c r="R21" s="31"/>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B22" s="33" t="s">
         <v>272</v>
       </c>
@@ -2976,7 +2985,7 @@
       </c>
       <c r="R22" s="31"/>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B23" s="33"/>
       <c r="C23" s="14">
         <v>4</v>
@@ -3013,7 +3022,7 @@
       </c>
       <c r="R23" s="31"/>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B24" s="33"/>
       <c r="C24" s="14" t="s">
         <v>275</v>
@@ -3053,7 +3062,7 @@
       </c>
       <c r="R24" s="31"/>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B25" s="33" t="s">
         <v>278</v>
       </c>
@@ -3097,7 +3106,7 @@
       </c>
       <c r="R25" s="31"/>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B26" s="33"/>
       <c r="C26" s="14" t="s">
         <v>277</v>
@@ -3117,7 +3126,7 @@
       </c>
       <c r="R26" s="31"/>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B27" s="33" t="s">
         <v>273</v>
       </c>
@@ -3141,7 +3150,7 @@
       </c>
       <c r="R27" s="31"/>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B28" s="33"/>
       <c r="C28" s="14">
         <v>1</v>
@@ -3161,7 +3170,7 @@
       </c>
       <c r="R28" s="31"/>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B29" s="33"/>
       <c r="C29" s="14" t="s">
         <v>276</v>
@@ -3183,7 +3192,7 @@
       </c>
       <c r="R29" s="31"/>
     </row>
-    <row r="30" spans="2:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="55"/>
       <c r="C30" s="56" t="s">
         <v>244</v>
@@ -3207,7 +3216,7 @@
       </c>
       <c r="R30" s="31"/>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.3">
       <c r="K31" s="33"/>
       <c r="L31" s="14" t="s">
         <v>373</v>
@@ -3218,7 +3227,7 @@
       </c>
       <c r="R31" s="31"/>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.3">
       <c r="K32" s="33"/>
       <c r="L32" s="16" t="s">
         <v>244</v>
@@ -3229,7 +3238,7 @@
       </c>
       <c r="R32" s="31"/>
     </row>
-    <row r="33" spans="11:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="11:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K33" s="34"/>
       <c r="L33" s="35"/>
       <c r="M33" s="35"/>
@@ -3256,34 +3265,34 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:U124"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="D123" sqref="D123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.6640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="25.6640625" style="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.46484375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.19921875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.46484375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.21875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" style="40" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="16" style="1" customWidth="1"/>
     <col min="10" max="11" width="11" style="1" customWidth="1"/>
     <col min="12" max="12" width="19.6640625" style="1" customWidth="1"/>
     <col min="13" max="13" width="13.33203125" style="1" customWidth="1"/>
     <col min="14" max="14" width="14" style="1" customWidth="1"/>
-    <col min="15" max="20" width="9.1328125" style="1"/>
-    <col min="21" max="21" width="20.53125" style="10" customWidth="1"/>
+    <col min="15" max="20" width="9.109375" style="1"/>
+    <col min="21" max="21" width="20.5546875" style="10" customWidth="1"/>
     <col min="22" max="22" width="13.6640625" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.1328125" style="1"/>
+    <col min="23" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>1</v>
       </c>
@@ -3348,7 +3357,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:21" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -3394,12 +3403,15 @@
         <v>251</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>43</v>
@@ -3431,7 +3443,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:21" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -3474,12 +3486,15 @@
         <v>251</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>45</v>
@@ -3511,12 +3526,15 @@
         <v>263</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>46</v>
@@ -3548,12 +3566,15 @@
         <v>263</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>47</v>
@@ -3585,7 +3606,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -3622,7 +3643,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -3662,12 +3683,15 @@
         <v>263</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="17" t="s">
         <v>16</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="F10" s="7">
         <v>9051770999</v>
@@ -3699,12 +3723,15 @@
         <v>263</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="17" t="s">
         <v>17</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="F11" s="7">
         <v>9903606575</v>
@@ -3736,12 +3763,15 @@
         <v>263</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="17" t="s">
         <v>18</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>51</v>
@@ -3773,12 +3803,15 @@
         <v>263</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="17" t="s">
         <v>19</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>52</v>
@@ -3810,7 +3843,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:21" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -3850,7 +3883,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -3890,12 +3923,15 @@
         <v>251</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="17" t="s">
         <v>20</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>57</v>
@@ -3927,7 +3963,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -3967,7 +4003,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -4007,7 +4043,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="19" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -4044,7 +4080,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -4084,12 +4120,15 @@
         <v>263</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="17" t="s">
         <v>26</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>66</v>
@@ -4125,7 +4164,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:21" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -4169,7 +4208,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -4212,12 +4251,15 @@
         <v>251</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="17" t="s">
         <v>29</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>63</v>
@@ -4256,12 +4298,15 @@
         <v>263</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="17" t="s">
         <v>30</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>68</v>
@@ -4297,12 +4342,15 @@
         <v>263</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="17" t="s">
         <v>31</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>70</v>
@@ -4338,12 +4386,15 @@
         <v>263</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="17" t="s">
         <v>32</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>71</v>
@@ -4379,7 +4430,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -4431,12 +4482,15 @@
         <v>251</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="17" t="s">
         <v>72</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="F29" s="7">
         <v>9831274629</v>
@@ -4468,12 +4522,15 @@
         <v>263</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" s="17" t="s">
         <v>34</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>73</v>
@@ -4509,7 +4566,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:21" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -4553,7 +4610,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:21" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -4597,7 +4654,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -4641,7 +4698,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -4681,7 +4738,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="35" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -4728,7 +4785,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -4771,7 +4828,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -4815,7 +4872,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -4855,12 +4912,15 @@
         <v>263</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>38</v>
       </c>
       <c r="B39" s="17" t="s">
         <v>88</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="F39" s="9">
         <v>9163741069</v>
@@ -4892,7 +4952,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -4932,7 +4992,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -4976,7 +5036,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -5020,7 +5080,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -5064,7 +5124,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -5104,7 +5164,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -5144,12 +5204,15 @@
         <v>263</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>45</v>
       </c>
       <c r="B46" s="17" t="s">
         <v>98</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="F46" s="7">
         <v>9836242629</v>
@@ -5181,7 +5244,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="47" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -5225,7 +5288,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -5269,7 +5332,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -5313,7 +5376,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -5356,7 +5419,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -5400,7 +5463,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -5444,7 +5507,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -5488,7 +5551,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="54" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -5532,7 +5595,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="55" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -5576,7 +5639,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -5620,7 +5683,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -5664,7 +5727,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -5708,7 +5771,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -5752,7 +5815,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="60" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -5796,7 +5859,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -5840,7 +5903,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="62" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -5884,7 +5947,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="63" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -5928,7 +5991,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -5972,7 +6035,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -6016,7 +6079,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -6060,7 +6123,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -6104,7 +6167,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -6148,7 +6211,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="69" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -6192,7 +6255,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="70" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -6236,7 +6299,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="71" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -6280,7 +6343,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -6324,7 +6387,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="73" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -6368,7 +6431,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -6408,7 +6471,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -6452,7 +6515,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -6492,7 +6555,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -6529,7 +6592,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="78" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -6573,7 +6636,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="79" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -6617,7 +6680,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="80" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -6661,7 +6724,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="81" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -6705,7 +6768,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="82" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -6745,7 +6808,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="83" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -6785,7 +6848,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="84" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -6825,7 +6888,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="85" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -6869,7 +6932,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -6909,7 +6972,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -6949,7 +7012,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -6993,7 +7056,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -7037,7 +7100,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -7077,7 +7140,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -7121,7 +7184,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -7161,7 +7224,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -7201,7 +7264,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -7241,7 +7304,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -7281,7 +7344,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -7321,12 +7384,15 @@
         <v>263</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>96</v>
       </c>
       <c r="B97" s="17" t="s">
         <v>188</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="F97" s="7">
         <v>9903312630</v>
@@ -7358,12 +7424,15 @@
         <v>263</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>97</v>
       </c>
       <c r="B98" s="17" t="s">
         <v>189</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="F98" s="7">
         <v>9836747400</v>
@@ -7395,12 +7464,15 @@
         <v>263</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>98</v>
       </c>
       <c r="B99" s="17" t="s">
         <v>190</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="F99" s="7">
         <v>8100188019</v>
@@ -7432,12 +7504,15 @@
         <v>263</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>99</v>
       </c>
       <c r="B100" s="17" t="s">
         <v>191</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="F100" s="7" t="s">
         <v>196</v>
@@ -7469,12 +7544,15 @@
         <v>263</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>100</v>
       </c>
       <c r="B101" s="17" t="s">
         <v>198</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="F101" s="7" t="s">
         <v>197</v>
@@ -7506,12 +7584,15 @@
         <v>263</v>
       </c>
     </row>
-    <row r="102" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>101</v>
       </c>
       <c r="B102" s="17" t="s">
         <v>199</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="F102" s="7" t="s">
         <v>200</v>
@@ -7543,12 +7624,15 @@
         <v>263</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>102</v>
       </c>
       <c r="B103" s="17" t="s">
         <v>23</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="F103" s="7" t="s">
         <v>201</v>
@@ -7580,12 +7664,15 @@
         <v>263</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>103</v>
       </c>
       <c r="B104" s="17" t="s">
         <v>192</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="F104" s="7" t="s">
         <v>202</v>
@@ -7617,12 +7704,15 @@
         <v>263</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>104</v>
       </c>
       <c r="B105" s="17" t="s">
         <v>193</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="F105" s="7" t="s">
         <v>203</v>
@@ -7654,12 +7744,15 @@
         <v>263</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>105</v>
       </c>
       <c r="B106" s="17" t="s">
         <v>194</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="F106" s="7" t="s">
         <v>204</v>
@@ -7691,12 +7784,15 @@
         <v>263</v>
       </c>
     </row>
-    <row r="107" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>106</v>
       </c>
       <c r="B107" s="17" t="s">
         <v>195</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="F107" s="7" t="s">
         <v>205</v>
@@ -7728,12 +7824,15 @@
         <v>263</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>107</v>
       </c>
       <c r="B108" s="17" t="s">
         <v>206</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="F108" s="7" t="s">
         <v>207</v>
@@ -7765,12 +7864,15 @@
         <v>263</v>
       </c>
     </row>
-    <row r="109" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>108</v>
       </c>
       <c r="B109" s="17" t="s">
         <v>208</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="F109" s="7" t="s">
         <v>209</v>
@@ -7802,12 +7904,15 @@
         <v>263</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>109</v>
       </c>
       <c r="B110" s="17" t="s">
         <v>211</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="F110" s="7" t="s">
         <v>212</v>
@@ -7839,12 +7944,15 @@
         <v>263</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>110</v>
       </c>
       <c r="B111" s="17" t="s">
         <v>213</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="F111" s="7" t="s">
         <v>214</v>
@@ -7876,12 +7984,15 @@
         <v>263</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>111</v>
       </c>
       <c r="B112" s="17" t="s">
         <v>215</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="F112" s="7" t="s">
         <v>216</v>
@@ -7913,12 +8024,15 @@
         <v>263</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>112</v>
       </c>
       <c r="B113" s="17" t="s">
         <v>217</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="F113" s="7" t="s">
         <v>218</v>
@@ -7950,12 +8064,15 @@
         <v>263</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>113</v>
       </c>
       <c r="B114" s="17" t="s">
         <v>219</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="F114" s="7" t="s">
         <v>220</v>
@@ -7987,12 +8104,15 @@
         <v>263</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>114</v>
       </c>
       <c r="B115" s="17" t="s">
         <v>221</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="F115" s="7" t="s">
         <v>222</v>
@@ -8024,12 +8144,15 @@
         <v>263</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>115</v>
       </c>
       <c r="B116" s="17" t="s">
         <v>223</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="F116" s="7" t="s">
         <v>224</v>
@@ -8061,12 +8184,15 @@
         <v>263</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>116</v>
       </c>
       <c r="B117" s="17" t="s">
         <v>225</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="F117" s="7" t="s">
         <v>226</v>
@@ -8098,12 +8224,15 @@
         <v>263</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>117</v>
       </c>
       <c r="B118" s="17" t="s">
         <v>227</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="F118" s="7" t="s">
         <v>228</v>
@@ -8135,12 +8264,15 @@
         <v>263</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>118</v>
       </c>
       <c r="B119" s="17" t="s">
         <v>230</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="F119" s="7" t="s">
         <v>229</v>
@@ -8172,12 +8304,15 @@
         <v>263</v>
       </c>
     </row>
-    <row r="120" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>119</v>
       </c>
       <c r="B120" s="17" t="s">
         <v>231</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="F120" s="7" t="s">
         <v>232</v>
@@ -8209,12 +8344,15 @@
         <v>263</v>
       </c>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>120</v>
       </c>
       <c r="B121" s="17" t="s">
         <v>233</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="F121" s="7" t="s">
         <v>234</v>
@@ -8246,12 +8384,15 @@
         <v>263</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>121</v>
       </c>
       <c r="B122" s="17" t="s">
         <v>235</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="F122" s="7" t="s">
         <v>236</v>
@@ -8283,7 +8424,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="123" spans="1:21" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>122</v>
       </c>
@@ -8326,7 +8467,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="124" spans="1:21" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>123</v>
       </c>
@@ -8449,29 +8590,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:T179"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.86328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.6640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.53125" style="40" customWidth="1"/>
-    <col min="4" max="4" width="15.53125" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.5546875" style="40" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="39" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="40" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="16" style="40" customWidth="1"/>
     <col min="8" max="10" width="11" style="1" customWidth="1"/>
     <col min="11" max="11" width="19.6640625" style="40" customWidth="1"/>
     <col min="12" max="12" width="13.33203125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="18.46484375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.1328125" style="1"/>
-    <col min="15" max="15" width="8.53125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="9.1328125" style="1"/>
+    <col min="13" max="13" width="18.44140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.109375" style="1"/>
+    <col min="15" max="15" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="9.109375" style="1"/>
     <col min="20" max="20" width="19" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="57" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>1</v>
       </c>
@@ -8533,7 +8674,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="38">
         <v>1</v>
       </c>
@@ -8576,7 +8717,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -8615,7 +8756,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -8654,7 +8795,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -8693,7 +8834,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="57" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -8732,7 +8873,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -8771,7 +8912,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -8810,7 +8951,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -8846,7 +8987,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -8882,7 +9023,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -8919,7 +9060,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -8955,7 +9096,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -8991,7 +9132,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -9027,7 +9168,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -9063,7 +9204,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -9099,7 +9240,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -9135,7 +9276,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -9171,7 +9312,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -9207,7 +9348,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -9244,7 +9385,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -9281,7 +9422,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -9317,7 +9458,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -9354,7 +9495,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -9391,7 +9532,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -9428,7 +9569,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -9465,7 +9606,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -9501,7 +9642,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -9537,7 +9678,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -9574,7 +9715,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -9611,7 +9752,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -9648,7 +9789,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -9684,7 +9825,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -9720,7 +9861,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -9756,7 +9897,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -9792,7 +9933,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -9834,7 +9975,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -9876,7 +10017,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -9915,7 +10056,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -9954,7 +10095,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -9993,7 +10134,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -10032,7 +10173,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -10071,7 +10212,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -10113,7 +10254,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -10152,7 +10293,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -10191,7 +10332,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -10230,7 +10371,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -10269,7 +10410,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -10308,7 +10449,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="57" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -10350,7 +10491,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -10389,7 +10530,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="57" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -10428,7 +10569,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -10467,7 +10608,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -10506,7 +10647,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -10545,7 +10686,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="M55" s="10"/>
       <c r="N55" s="10"/>
       <c r="O55" s="10"/>
@@ -10554,7 +10695,7 @@
       <c r="R55" s="10"/>
       <c r="S55" s="10"/>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="M56" s="10"/>
       <c r="N56" s="10"/>
       <c r="O56" s="10"/>
@@ -10563,7 +10704,7 @@
       <c r="R56" s="10"/>
       <c r="S56" s="10"/>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
       <c r="M57" s="10"/>
       <c r="N57" s="10"/>
       <c r="O57" s="10"/>
@@ -10572,7 +10713,7 @@
       <c r="R57" s="10"/>
       <c r="S57" s="10"/>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
       <c r="M58" s="10"/>
       <c r="N58" s="10"/>
       <c r="O58" s="10"/>
@@ -10581,7 +10722,7 @@
       <c r="R58" s="10"/>
       <c r="S58" s="10"/>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
       <c r="M59" s="10"/>
       <c r="N59" s="10"/>
       <c r="O59" s="10"/>
@@ -10590,7 +10731,7 @@
       <c r="R59" s="10"/>
       <c r="S59" s="10"/>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
       <c r="M60" s="10"/>
       <c r="N60" s="10"/>
       <c r="O60" s="10"/>
@@ -10599,7 +10740,7 @@
       <c r="R60" s="10"/>
       <c r="S60" s="10"/>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
       <c r="M61" s="10"/>
       <c r="N61" s="10"/>
       <c r="O61" s="10"/>
@@ -10608,7 +10749,7 @@
       <c r="R61" s="10"/>
       <c r="S61" s="10"/>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
       <c r="M62" s="10"/>
       <c r="N62" s="10"/>
       <c r="O62" s="10"/>
@@ -10617,7 +10758,7 @@
       <c r="R62" s="10"/>
       <c r="S62" s="10"/>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
       <c r="M63" s="10"/>
       <c r="N63" s="10"/>
       <c r="O63" s="10"/>
@@ -10626,7 +10767,7 @@
       <c r="R63" s="10"/>
       <c r="S63" s="10"/>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
       <c r="M64" s="10"/>
       <c r="N64" s="10"/>
       <c r="O64" s="10"/>
@@ -10635,7 +10776,7 @@
       <c r="R64" s="10"/>
       <c r="S64" s="10"/>
     </row>
-    <row r="65" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="65" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M65" s="10"/>
       <c r="N65" s="10"/>
       <c r="O65" s="10"/>
@@ -10644,7 +10785,7 @@
       <c r="R65" s="10"/>
       <c r="S65" s="10"/>
     </row>
-    <row r="66" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="66" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M66" s="10"/>
       <c r="N66" s="10"/>
       <c r="O66" s="10"/>
@@ -10653,7 +10794,7 @@
       <c r="R66" s="10"/>
       <c r="S66" s="10"/>
     </row>
-    <row r="67" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="67" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M67" s="10"/>
       <c r="N67" s="10"/>
       <c r="O67" s="10"/>
@@ -10662,7 +10803,7 @@
       <c r="R67" s="10"/>
       <c r="S67" s="10"/>
     </row>
-    <row r="68" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="68" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M68" s="10"/>
       <c r="N68" s="10"/>
       <c r="O68" s="10"/>
@@ -10671,7 +10812,7 @@
       <c r="R68" s="10"/>
       <c r="S68" s="10"/>
     </row>
-    <row r="69" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="69" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M69" s="10"/>
       <c r="N69" s="10"/>
       <c r="O69" s="10"/>
@@ -10680,7 +10821,7 @@
       <c r="R69" s="10"/>
       <c r="S69" s="10"/>
     </row>
-    <row r="70" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="70" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M70" s="10"/>
       <c r="N70" s="10"/>
       <c r="O70" s="10"/>
@@ -10689,7 +10830,7 @@
       <c r="R70" s="10"/>
       <c r="S70" s="10"/>
     </row>
-    <row r="71" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="71" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M71" s="10"/>
       <c r="N71" s="10"/>
       <c r="O71" s="10"/>
@@ -10698,7 +10839,7 @@
       <c r="R71" s="10"/>
       <c r="S71" s="10"/>
     </row>
-    <row r="72" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="72" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M72" s="10"/>
       <c r="N72" s="10"/>
       <c r="O72" s="10"/>
@@ -10707,7 +10848,7 @@
       <c r="R72" s="10"/>
       <c r="S72" s="10"/>
     </row>
-    <row r="73" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="73" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M73" s="10"/>
       <c r="N73" s="10"/>
       <c r="O73" s="10"/>
@@ -10716,7 +10857,7 @@
       <c r="R73" s="10"/>
       <c r="S73" s="10"/>
     </row>
-    <row r="74" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="74" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M74" s="10"/>
       <c r="N74" s="10"/>
       <c r="O74" s="10"/>
@@ -10725,7 +10866,7 @@
       <c r="R74" s="10"/>
       <c r="S74" s="10"/>
     </row>
-    <row r="75" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="75" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M75" s="10"/>
       <c r="N75" s="10"/>
       <c r="O75" s="10"/>
@@ -10734,7 +10875,7 @@
       <c r="R75" s="10"/>
       <c r="S75" s="10"/>
     </row>
-    <row r="76" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="76" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M76" s="10"/>
       <c r="N76" s="10"/>
       <c r="O76" s="10"/>
@@ -10743,7 +10884,7 @@
       <c r="R76" s="10"/>
       <c r="S76" s="10"/>
     </row>
-    <row r="77" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="77" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M77" s="10"/>
       <c r="N77" s="10"/>
       <c r="O77" s="10"/>
@@ -10752,7 +10893,7 @@
       <c r="R77" s="10"/>
       <c r="S77" s="10"/>
     </row>
-    <row r="78" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="78" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M78" s="10"/>
       <c r="N78" s="10"/>
       <c r="O78" s="10"/>
@@ -10761,7 +10902,7 @@
       <c r="R78" s="10"/>
       <c r="S78" s="10"/>
     </row>
-    <row r="79" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="79" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M79" s="10"/>
       <c r="N79" s="10"/>
       <c r="O79" s="10"/>
@@ -10770,7 +10911,7 @@
       <c r="R79" s="10"/>
       <c r="S79" s="10"/>
     </row>
-    <row r="80" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="80" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M80" s="10"/>
       <c r="N80" s="10"/>
       <c r="O80" s="10"/>
@@ -10779,7 +10920,7 @@
       <c r="R80" s="10"/>
       <c r="S80" s="10"/>
     </row>
-    <row r="81" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="81" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M81" s="10"/>
       <c r="N81" s="10"/>
       <c r="O81" s="10"/>
@@ -10788,7 +10929,7 @@
       <c r="R81" s="10"/>
       <c r="S81" s="10"/>
     </row>
-    <row r="82" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="82" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M82" s="10"/>
       <c r="N82" s="10"/>
       <c r="O82" s="10"/>
@@ -10797,7 +10938,7 @@
       <c r="R82" s="10"/>
       <c r="S82" s="10"/>
     </row>
-    <row r="83" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="83" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M83" s="10"/>
       <c r="N83" s="10"/>
       <c r="O83" s="10"/>
@@ -10806,7 +10947,7 @@
       <c r="R83" s="10"/>
       <c r="S83" s="10"/>
     </row>
-    <row r="84" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="84" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M84" s="10"/>
       <c r="N84" s="10"/>
       <c r="O84" s="10"/>
@@ -10815,7 +10956,7 @@
       <c r="R84" s="10"/>
       <c r="S84" s="10"/>
     </row>
-    <row r="85" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="85" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M85" s="10"/>
       <c r="N85" s="10"/>
       <c r="O85" s="10"/>
@@ -10824,7 +10965,7 @@
       <c r="R85" s="10"/>
       <c r="S85" s="10"/>
     </row>
-    <row r="86" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="86" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M86" s="10"/>
       <c r="N86" s="10"/>
       <c r="O86" s="10"/>
@@ -10833,7 +10974,7 @@
       <c r="R86" s="10"/>
       <c r="S86" s="10"/>
     </row>
-    <row r="87" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="87" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M87" s="10"/>
       <c r="N87" s="10"/>
       <c r="O87" s="10"/>
@@ -10842,7 +10983,7 @@
       <c r="R87" s="10"/>
       <c r="S87" s="10"/>
     </row>
-    <row r="88" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="88" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M88" s="10"/>
       <c r="N88" s="10"/>
       <c r="O88" s="10"/>
@@ -10851,7 +10992,7 @@
       <c r="R88" s="10"/>
       <c r="S88" s="10"/>
     </row>
-    <row r="89" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="89" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M89" s="10"/>
       <c r="N89" s="10"/>
       <c r="O89" s="10"/>
@@ -10860,7 +11001,7 @@
       <c r="R89" s="10"/>
       <c r="S89" s="10"/>
     </row>
-    <row r="90" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="90" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M90" s="10"/>
       <c r="N90" s="10"/>
       <c r="O90" s="10"/>
@@ -10869,7 +11010,7 @@
       <c r="R90" s="10"/>
       <c r="S90" s="10"/>
     </row>
-    <row r="91" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="91" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M91" s="10"/>
       <c r="N91" s="10"/>
       <c r="O91" s="10"/>
@@ -10878,7 +11019,7 @@
       <c r="R91" s="10"/>
       <c r="S91" s="10"/>
     </row>
-    <row r="92" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="92" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M92" s="10"/>
       <c r="N92" s="10"/>
       <c r="O92" s="10"/>
@@ -10887,7 +11028,7 @@
       <c r="R92" s="10"/>
       <c r="S92" s="10"/>
     </row>
-    <row r="93" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="93" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M93" s="10"/>
       <c r="N93" s="10"/>
       <c r="O93" s="10"/>
@@ -10896,7 +11037,7 @@
       <c r="R93" s="10"/>
       <c r="S93" s="10"/>
     </row>
-    <row r="94" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="94" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M94" s="10"/>
       <c r="N94" s="10"/>
       <c r="O94" s="10"/>
@@ -10905,7 +11046,7 @@
       <c r="R94" s="10"/>
       <c r="S94" s="10"/>
     </row>
-    <row r="95" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="95" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M95" s="10"/>
       <c r="N95" s="10"/>
       <c r="O95" s="10"/>
@@ -10914,7 +11055,7 @@
       <c r="R95" s="10"/>
       <c r="S95" s="10"/>
     </row>
-    <row r="96" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="96" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M96" s="10"/>
       <c r="N96" s="10"/>
       <c r="O96" s="10"/>
@@ -10923,7 +11064,7 @@
       <c r="R96" s="10"/>
       <c r="S96" s="10"/>
     </row>
-    <row r="97" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="97" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M97" s="10"/>
       <c r="N97" s="10"/>
       <c r="O97" s="10"/>
@@ -10932,7 +11073,7 @@
       <c r="R97" s="10"/>
       <c r="S97" s="10"/>
     </row>
-    <row r="98" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="98" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M98" s="10"/>
       <c r="N98" s="10"/>
       <c r="O98" s="10"/>
@@ -10941,7 +11082,7 @@
       <c r="R98" s="10"/>
       <c r="S98" s="10"/>
     </row>
-    <row r="99" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="99" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M99" s="10"/>
       <c r="N99" s="10"/>
       <c r="O99" s="10"/>
@@ -10950,7 +11091,7 @@
       <c r="R99" s="10"/>
       <c r="S99" s="10"/>
     </row>
-    <row r="100" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="100" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M100" s="10"/>
       <c r="N100" s="10"/>
       <c r="O100" s="10"/>
@@ -10959,7 +11100,7 @@
       <c r="R100" s="10"/>
       <c r="S100" s="10"/>
     </row>
-    <row r="101" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="101" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M101" s="10"/>
       <c r="N101" s="10"/>
       <c r="O101" s="10"/>
@@ -10968,7 +11109,7 @@
       <c r="R101" s="10"/>
       <c r="S101" s="10"/>
     </row>
-    <row r="102" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="102" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M102" s="10"/>
       <c r="N102" s="10"/>
       <c r="O102" s="10"/>
@@ -10977,7 +11118,7 @@
       <c r="R102" s="10"/>
       <c r="S102" s="10"/>
     </row>
-    <row r="103" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="103" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M103" s="10"/>
       <c r="N103" s="10"/>
       <c r="O103" s="10"/>
@@ -10986,7 +11127,7 @@
       <c r="R103" s="10"/>
       <c r="S103" s="10"/>
     </row>
-    <row r="104" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="104" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M104" s="10"/>
       <c r="N104" s="10"/>
       <c r="O104" s="10"/>
@@ -10995,7 +11136,7 @@
       <c r="R104" s="10"/>
       <c r="S104" s="10"/>
     </row>
-    <row r="105" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="105" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M105" s="10"/>
       <c r="N105" s="10"/>
       <c r="O105" s="10"/>
@@ -11004,7 +11145,7 @@
       <c r="R105" s="10"/>
       <c r="S105" s="10"/>
     </row>
-    <row r="106" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="106" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M106" s="10"/>
       <c r="N106" s="10"/>
       <c r="O106" s="10"/>
@@ -11013,7 +11154,7 @@
       <c r="R106" s="10"/>
       <c r="S106" s="10"/>
     </row>
-    <row r="107" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="107" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M107" s="10"/>
       <c r="N107" s="10"/>
       <c r="O107" s="10"/>
@@ -11022,7 +11163,7 @@
       <c r="R107" s="10"/>
       <c r="S107" s="10"/>
     </row>
-    <row r="108" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="108" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M108" s="10"/>
       <c r="N108" s="10"/>
       <c r="O108" s="10"/>
@@ -11031,7 +11172,7 @@
       <c r="R108" s="10"/>
       <c r="S108" s="10"/>
     </row>
-    <row r="109" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="109" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M109" s="10"/>
       <c r="N109" s="10"/>
       <c r="O109" s="10"/>
@@ -11040,7 +11181,7 @@
       <c r="R109" s="10"/>
       <c r="S109" s="10"/>
     </row>
-    <row r="110" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="110" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M110" s="10"/>
       <c r="N110" s="10"/>
       <c r="O110" s="10"/>
@@ -11049,7 +11190,7 @@
       <c r="R110" s="10"/>
       <c r="S110" s="10"/>
     </row>
-    <row r="111" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="111" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M111" s="10"/>
       <c r="N111" s="10"/>
       <c r="O111" s="10"/>
@@ -11058,7 +11199,7 @@
       <c r="R111" s="10"/>
       <c r="S111" s="10"/>
     </row>
-    <row r="112" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="112" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M112" s="10"/>
       <c r="N112" s="10"/>
       <c r="O112" s="10"/>
@@ -11067,7 +11208,7 @@
       <c r="R112" s="10"/>
       <c r="S112" s="10"/>
     </row>
-    <row r="113" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="113" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M113" s="10"/>
       <c r="N113" s="10"/>
       <c r="O113" s="10"/>
@@ -11076,7 +11217,7 @@
       <c r="R113" s="10"/>
       <c r="S113" s="10"/>
     </row>
-    <row r="114" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="114" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M114" s="10"/>
       <c r="N114" s="10"/>
       <c r="O114" s="10"/>
@@ -11085,7 +11226,7 @@
       <c r="R114" s="10"/>
       <c r="S114" s="10"/>
     </row>
-    <row r="115" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="115" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M115" s="10"/>
       <c r="N115" s="10"/>
       <c r="O115" s="10"/>
@@ -11094,7 +11235,7 @@
       <c r="R115" s="10"/>
       <c r="S115" s="10"/>
     </row>
-    <row r="116" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="116" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M116" s="10"/>
       <c r="N116" s="10"/>
       <c r="O116" s="10"/>
@@ -11103,7 +11244,7 @@
       <c r="R116" s="10"/>
       <c r="S116" s="10"/>
     </row>
-    <row r="117" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="117" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M117" s="10"/>
       <c r="N117" s="10"/>
       <c r="O117" s="10"/>
@@ -11112,7 +11253,7 @@
       <c r="R117" s="10"/>
       <c r="S117" s="10"/>
     </row>
-    <row r="118" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="118" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M118" s="10"/>
       <c r="N118" s="10"/>
       <c r="O118" s="10"/>
@@ -11121,7 +11262,7 @@
       <c r="R118" s="10"/>
       <c r="S118" s="10"/>
     </row>
-    <row r="119" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="119" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M119" s="10"/>
       <c r="N119" s="10"/>
       <c r="O119" s="10"/>
@@ -11130,7 +11271,7 @@
       <c r="R119" s="10"/>
       <c r="S119" s="10"/>
     </row>
-    <row r="120" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="120" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M120" s="10"/>
       <c r="N120" s="10"/>
       <c r="O120" s="10"/>
@@ -11139,7 +11280,7 @@
       <c r="R120" s="10"/>
       <c r="S120" s="10"/>
     </row>
-    <row r="121" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="121" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M121" s="10"/>
       <c r="N121" s="10"/>
       <c r="O121" s="10"/>
@@ -11148,7 +11289,7 @@
       <c r="R121" s="10"/>
       <c r="S121" s="10"/>
     </row>
-    <row r="122" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="122" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M122" s="10"/>
       <c r="N122" s="10"/>
       <c r="O122" s="10"/>
@@ -11157,7 +11298,7 @@
       <c r="R122" s="10"/>
       <c r="S122" s="10"/>
     </row>
-    <row r="123" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="123" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M123" s="10"/>
       <c r="N123" s="10"/>
       <c r="O123" s="10"/>
@@ -11166,7 +11307,7 @@
       <c r="R123" s="10"/>
       <c r="S123" s="10"/>
     </row>
-    <row r="124" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="124" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M124" s="10"/>
       <c r="N124" s="10"/>
       <c r="O124" s="10"/>
@@ -11175,7 +11316,7 @@
       <c r="R124" s="10"/>
       <c r="S124" s="10"/>
     </row>
-    <row r="125" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="125" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M125" s="10"/>
       <c r="N125" s="10"/>
       <c r="O125" s="10"/>
@@ -11184,7 +11325,7 @@
       <c r="R125" s="10"/>
       <c r="S125" s="10"/>
     </row>
-    <row r="126" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="126" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M126" s="10"/>
       <c r="N126" s="10"/>
       <c r="O126" s="10"/>
@@ -11193,7 +11334,7 @@
       <c r="R126" s="10"/>
       <c r="S126" s="10"/>
     </row>
-    <row r="127" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="127" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M127" s="10"/>
       <c r="N127" s="10"/>
       <c r="O127" s="10"/>
@@ -11202,7 +11343,7 @@
       <c r="R127" s="10"/>
       <c r="S127" s="10"/>
     </row>
-    <row r="128" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="128" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M128" s="10"/>
       <c r="N128" s="10"/>
       <c r="O128" s="10"/>
@@ -11211,7 +11352,7 @@
       <c r="R128" s="10"/>
       <c r="S128" s="10"/>
     </row>
-    <row r="129" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="129" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M129" s="10"/>
       <c r="N129" s="10"/>
       <c r="O129" s="10"/>
@@ -11220,7 +11361,7 @@
       <c r="R129" s="10"/>
       <c r="S129" s="10"/>
     </row>
-    <row r="130" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="130" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M130" s="10"/>
       <c r="N130" s="10"/>
       <c r="O130" s="10"/>
@@ -11229,7 +11370,7 @@
       <c r="R130" s="10"/>
       <c r="S130" s="10"/>
     </row>
-    <row r="131" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="131" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M131" s="10"/>
       <c r="N131" s="10"/>
       <c r="O131" s="10"/>
@@ -11238,7 +11379,7 @@
       <c r="R131" s="10"/>
       <c r="S131" s="10"/>
     </row>
-    <row r="132" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="132" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M132" s="10"/>
       <c r="N132" s="10"/>
       <c r="O132" s="10"/>
@@ -11247,7 +11388,7 @@
       <c r="R132" s="10"/>
       <c r="S132" s="10"/>
     </row>
-    <row r="133" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="133" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M133" s="10"/>
       <c r="N133" s="10"/>
       <c r="O133" s="10"/>
@@ -11256,7 +11397,7 @@
       <c r="R133" s="10"/>
       <c r="S133" s="10"/>
     </row>
-    <row r="134" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="134" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M134" s="10"/>
       <c r="N134" s="10"/>
       <c r="O134" s="10"/>
@@ -11265,7 +11406,7 @@
       <c r="R134" s="10"/>
       <c r="S134" s="10"/>
     </row>
-    <row r="135" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="135" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M135" s="10"/>
       <c r="N135" s="10"/>
       <c r="O135" s="10"/>
@@ -11274,7 +11415,7 @@
       <c r="R135" s="10"/>
       <c r="S135" s="10"/>
     </row>
-    <row r="136" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="136" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M136" s="10"/>
       <c r="N136" s="10"/>
       <c r="O136" s="10"/>
@@ -11283,7 +11424,7 @@
       <c r="R136" s="10"/>
       <c r="S136" s="10"/>
     </row>
-    <row r="137" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="137" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M137" s="10"/>
       <c r="N137" s="10"/>
       <c r="O137" s="10"/>
@@ -11292,7 +11433,7 @@
       <c r="R137" s="10"/>
       <c r="S137" s="10"/>
     </row>
-    <row r="138" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="138" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M138" s="10"/>
       <c r="N138" s="10"/>
       <c r="O138" s="10"/>
@@ -11301,7 +11442,7 @@
       <c r="R138" s="10"/>
       <c r="S138" s="10"/>
     </row>
-    <row r="139" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="139" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M139" s="10"/>
       <c r="N139" s="10"/>
       <c r="O139" s="10"/>
@@ -11310,7 +11451,7 @@
       <c r="R139" s="10"/>
       <c r="S139" s="10"/>
     </row>
-    <row r="140" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="140" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M140" s="10"/>
       <c r="N140" s="10"/>
       <c r="O140" s="10"/>
@@ -11319,7 +11460,7 @@
       <c r="R140" s="10"/>
       <c r="S140" s="10"/>
     </row>
-    <row r="141" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="141" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M141" s="10"/>
       <c r="N141" s="10"/>
       <c r="O141" s="10"/>
@@ -11328,7 +11469,7 @@
       <c r="R141" s="10"/>
       <c r="S141" s="10"/>
     </row>
-    <row r="142" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="142" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M142" s="10"/>
       <c r="N142" s="10"/>
       <c r="O142" s="10"/>
@@ -11337,7 +11478,7 @@
       <c r="R142" s="10"/>
       <c r="S142" s="10"/>
     </row>
-    <row r="143" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="143" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M143" s="10"/>
       <c r="N143" s="10"/>
       <c r="O143" s="10"/>
@@ -11346,7 +11487,7 @@
       <c r="R143" s="10"/>
       <c r="S143" s="10"/>
     </row>
-    <row r="144" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="144" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M144" s="10"/>
       <c r="N144" s="10"/>
       <c r="O144" s="10"/>
@@ -11355,7 +11496,7 @@
       <c r="R144" s="10"/>
       <c r="S144" s="10"/>
     </row>
-    <row r="145" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="145" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M145" s="10"/>
       <c r="N145" s="10"/>
       <c r="O145" s="10"/>
@@ -11364,7 +11505,7 @@
       <c r="R145" s="10"/>
       <c r="S145" s="10"/>
     </row>
-    <row r="146" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="146" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M146" s="10"/>
       <c r="N146" s="10"/>
       <c r="O146" s="10"/>
@@ -11373,7 +11514,7 @@
       <c r="R146" s="10"/>
       <c r="S146" s="10"/>
     </row>
-    <row r="147" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="147" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M147" s="10"/>
       <c r="N147" s="10"/>
       <c r="O147" s="10"/>
@@ -11382,7 +11523,7 @@
       <c r="R147" s="10"/>
       <c r="S147" s="10"/>
     </row>
-    <row r="148" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="148" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M148" s="10"/>
       <c r="N148" s="10"/>
       <c r="O148" s="10"/>
@@ -11391,7 +11532,7 @@
       <c r="R148" s="10"/>
       <c r="S148" s="10"/>
     </row>
-    <row r="149" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="149" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M149" s="10"/>
       <c r="N149" s="10"/>
       <c r="O149" s="10"/>
@@ -11400,7 +11541,7 @@
       <c r="R149" s="10"/>
       <c r="S149" s="10"/>
     </row>
-    <row r="150" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="150" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M150" s="10"/>
       <c r="N150" s="10"/>
       <c r="O150" s="10"/>
@@ -11409,7 +11550,7 @@
       <c r="R150" s="10"/>
       <c r="S150" s="10"/>
     </row>
-    <row r="151" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="151" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M151" s="10"/>
       <c r="N151" s="10"/>
       <c r="O151" s="10"/>
@@ -11418,7 +11559,7 @@
       <c r="R151" s="10"/>
       <c r="S151" s="10"/>
     </row>
-    <row r="152" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="152" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M152" s="10"/>
       <c r="N152" s="10"/>
       <c r="O152" s="10"/>
@@ -11427,7 +11568,7 @@
       <c r="R152" s="10"/>
       <c r="S152" s="10"/>
     </row>
-    <row r="153" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="153" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M153" s="10"/>
       <c r="N153" s="10"/>
       <c r="O153" s="10"/>
@@ -11436,7 +11577,7 @@
       <c r="R153" s="10"/>
       <c r="S153" s="10"/>
     </row>
-    <row r="154" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="154" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M154" s="10"/>
       <c r="N154" s="10"/>
       <c r="O154" s="10"/>
@@ -11445,7 +11586,7 @@
       <c r="R154" s="10"/>
       <c r="S154" s="10"/>
     </row>
-    <row r="155" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="155" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M155" s="10"/>
       <c r="N155" s="10"/>
       <c r="O155" s="10"/>
@@ -11454,7 +11595,7 @@
       <c r="R155" s="10"/>
       <c r="S155" s="10"/>
     </row>
-    <row r="156" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="156" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M156" s="10"/>
       <c r="N156" s="10"/>
       <c r="O156" s="10"/>
@@ -11463,7 +11604,7 @@
       <c r="R156" s="10"/>
       <c r="S156" s="10"/>
     </row>
-    <row r="157" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="157" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M157" s="10"/>
       <c r="N157" s="10"/>
       <c r="O157" s="10"/>
@@ -11472,7 +11613,7 @@
       <c r="R157" s="10"/>
       <c r="S157" s="10"/>
     </row>
-    <row r="158" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="158" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M158" s="10"/>
       <c r="N158" s="10"/>
       <c r="O158" s="10"/>
@@ -11481,7 +11622,7 @@
       <c r="R158" s="10"/>
       <c r="S158" s="10"/>
     </row>
-    <row r="159" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="159" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M159" s="10"/>
       <c r="N159" s="10"/>
       <c r="O159" s="10"/>
@@ -11490,7 +11631,7 @@
       <c r="R159" s="10"/>
       <c r="S159" s="10"/>
     </row>
-    <row r="160" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="160" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M160" s="10"/>
       <c r="N160" s="10"/>
       <c r="O160" s="10"/>
@@ -11499,7 +11640,7 @@
       <c r="R160" s="10"/>
       <c r="S160" s="10"/>
     </row>
-    <row r="161" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="161" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M161" s="10"/>
       <c r="N161" s="10"/>
       <c r="O161" s="10"/>
@@ -11508,7 +11649,7 @@
       <c r="R161" s="10"/>
       <c r="S161" s="10"/>
     </row>
-    <row r="162" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="162" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M162" s="10"/>
       <c r="N162" s="10"/>
       <c r="O162" s="10"/>
@@ -11517,7 +11658,7 @@
       <c r="R162" s="10"/>
       <c r="S162" s="10"/>
     </row>
-    <row r="163" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="163" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M163" s="10"/>
       <c r="N163" s="10"/>
       <c r="O163" s="10"/>
@@ -11526,7 +11667,7 @@
       <c r="R163" s="10"/>
       <c r="S163" s="10"/>
     </row>
-    <row r="164" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="164" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M164" s="10"/>
       <c r="N164" s="10"/>
       <c r="O164" s="10"/>
@@ -11535,7 +11676,7 @@
       <c r="R164" s="10"/>
       <c r="S164" s="10"/>
     </row>
-    <row r="165" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="165" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M165" s="10"/>
       <c r="N165" s="10"/>
       <c r="O165" s="10"/>
@@ -11544,7 +11685,7 @@
       <c r="R165" s="10"/>
       <c r="S165" s="10"/>
     </row>
-    <row r="166" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="166" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M166" s="10"/>
       <c r="N166" s="10"/>
       <c r="O166" s="10"/>
@@ -11553,7 +11694,7 @@
       <c r="R166" s="10"/>
       <c r="S166" s="10"/>
     </row>
-    <row r="167" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="167" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M167" s="10"/>
       <c r="N167" s="10"/>
       <c r="O167" s="10"/>
@@ -11562,7 +11703,7 @@
       <c r="R167" s="10"/>
       <c r="S167" s="10"/>
     </row>
-    <row r="168" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="168" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M168" s="10"/>
       <c r="N168" s="10"/>
       <c r="O168" s="10"/>
@@ -11571,7 +11712,7 @@
       <c r="R168" s="10"/>
       <c r="S168" s="10"/>
     </row>
-    <row r="169" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="169" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M169" s="10"/>
       <c r="N169" s="10"/>
       <c r="O169" s="10"/>
@@ -11580,7 +11721,7 @@
       <c r="R169" s="10"/>
       <c r="S169" s="10"/>
     </row>
-    <row r="170" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="170" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M170" s="10"/>
       <c r="N170" s="10"/>
       <c r="O170" s="10"/>
@@ -11589,7 +11730,7 @@
       <c r="R170" s="10"/>
       <c r="S170" s="10"/>
     </row>
-    <row r="171" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="171" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M171" s="10"/>
       <c r="N171" s="10"/>
       <c r="O171" s="10"/>
@@ -11598,7 +11739,7 @@
       <c r="R171" s="10"/>
       <c r="S171" s="10"/>
     </row>
-    <row r="172" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="172" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M172" s="10"/>
       <c r="N172" s="10"/>
       <c r="O172" s="10"/>
@@ -11607,7 +11748,7 @@
       <c r="R172" s="10"/>
       <c r="S172" s="10"/>
     </row>
-    <row r="173" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="173" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M173" s="10"/>
       <c r="N173" s="10"/>
       <c r="O173" s="10"/>
@@ -11616,7 +11757,7 @@
       <c r="R173" s="10"/>
       <c r="S173" s="10"/>
     </row>
-    <row r="174" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="174" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M174" s="10"/>
       <c r="N174" s="10"/>
       <c r="O174" s="10"/>
@@ -11625,7 +11766,7 @@
       <c r="R174" s="10"/>
       <c r="S174" s="10"/>
     </row>
-    <row r="175" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="175" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M175" s="10"/>
       <c r="N175" s="10"/>
       <c r="O175" s="10"/>
@@ -11634,7 +11775,7 @@
       <c r="R175" s="10"/>
       <c r="S175" s="10"/>
     </row>
-    <row r="176" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="176" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M176" s="10"/>
       <c r="N176" s="10"/>
       <c r="O176" s="10"/>
@@ -11643,7 +11784,7 @@
       <c r="R176" s="10"/>
       <c r="S176" s="10"/>
     </row>
-    <row r="177" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="177" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M177" s="10"/>
       <c r="N177" s="10"/>
       <c r="O177" s="10"/>
@@ -11652,7 +11793,7 @@
       <c r="R177" s="10"/>
       <c r="S177" s="10"/>
     </row>
-    <row r="178" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="178" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M178" s="10"/>
       <c r="N178" s="10"/>
       <c r="O178" s="10"/>
@@ -11661,7 +11802,7 @@
       <c r="R178" s="10"/>
       <c r="S178" s="10"/>
     </row>
-    <row r="179" spans="13:19" x14ac:dyDescent="0.45">
+    <row r="179" spans="13:19" x14ac:dyDescent="0.3">
       <c r="M179" s="10"/>
       <c r="N179" s="10"/>
       <c r="O179" s="10"/>
@@ -11704,17 +11845,17 @@
       <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.86328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" s="15"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>248</v>
       </c>
@@ -11725,7 +11866,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="13">
         <v>1</v>
       </c>
@@ -11736,7 +11877,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="13">
         <v>2</v>
       </c>
@@ -11747,7 +11888,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="13">
         <v>3</v>
       </c>
@@ -11758,7 +11899,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="13">
         <v>4</v>
       </c>
@@ -11769,7 +11910,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="13">
         <v>5</v>
       </c>
@@ -11780,7 +11921,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="13">
         <v>6</v>
       </c>
@@ -11791,7 +11932,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="13">
         <v>7</v>
       </c>
@@ -11802,7 +11943,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="13">
         <v>8</v>
       </c>
@@ -11826,13 +11967,13 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.796875" style="60" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.77734375" style="60" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="65" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="61" t="s">
         <v>248</v>
       </c>
@@ -11840,7 +11981,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -11848,7 +11989,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -11856,7 +11997,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -11864,7 +12005,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -11872,7 +12013,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -11880,7 +12021,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -11888,7 +12029,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="13">
         <v>7</v>
       </c>
@@ -11909,14 +12050,14 @@
       <selection activeCell="B111" sqref="B111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.46484375" customWidth="1"/>
+    <col min="2" max="2" width="52.44140625" customWidth="1"/>
     <col min="3" max="3" width="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>1</v>
       </c>
@@ -11927,7 +12068,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="58" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" s="58" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="38">
         <v>1</v>
       </c>
@@ -11938,7 +12079,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="58" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" s="58" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="38">
         <v>2</v>
       </c>
@@ -11949,7 +12090,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="58" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" s="58" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="38">
         <v>3</v>
       </c>
@@ -11960,7 +12101,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="38">
         <v>4</v>
       </c>
@@ -11971,7 +12112,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="38">
         <v>5</v>
       </c>
@@ -11982,7 +12123,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="38">
         <v>6</v>
       </c>
@@ -11993,7 +12134,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="38">
         <v>7</v>
       </c>
@@ -12004,7 +12145,7 @@
         <v>9051770999</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="38">
         <v>8</v>
       </c>
@@ -12015,7 +12156,7 @@
         <v>9903606575</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="38">
         <v>9</v>
       </c>
@@ -12026,7 +12167,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="38">
         <v>10</v>
       </c>
@@ -12037,7 +12178,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="38">
         <v>11</v>
       </c>
@@ -12048,7 +12189,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="38">
         <v>12</v>
       </c>
@@ -12059,7 +12200,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="38">
         <v>13</v>
       </c>
@@ -12070,7 +12211,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="38">
         <v>14</v>
       </c>
@@ -12081,7 +12222,7 @@
         <v>8961111167</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="38">
         <v>15</v>
       </c>
@@ -12092,7 +12233,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="38">
         <v>16</v>
       </c>
@@ -12103,7 +12244,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="38">
         <v>17</v>
       </c>
@@ -12114,7 +12255,7 @@
         <v>7044096127</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="38">
         <v>18</v>
       </c>
@@ -12125,7 +12266,7 @@
         <v>9831274629</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="38">
         <v>19</v>
       </c>
@@ -12136,7 +12277,7 @@
         <v>8777257554</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="38">
         <v>20</v>
       </c>
@@ -12147,7 +12288,7 @@
         <v>3322651531</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="38">
         <v>21</v>
       </c>
@@ -12158,7 +12299,7 @@
         <v>3324753015</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="38">
         <v>22</v>
       </c>
@@ -12169,7 +12310,7 @@
         <v>3324753765</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="38">
         <v>23</v>
       </c>
@@ -12180,7 +12321,7 @@
         <v>3324286903</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="38">
         <v>24</v>
       </c>
@@ -12191,7 +12332,7 @@
         <v>8902488077</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="38">
         <v>25</v>
       </c>
@@ -12202,7 +12343,7 @@
         <v>9163741069</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="38">
         <v>26</v>
       </c>
@@ -12213,7 +12354,7 @@
         <v>3324411691</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="38">
         <v>27</v>
       </c>
@@ -12224,7 +12365,7 @@
         <v>3324413804</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="38">
         <v>28</v>
       </c>
@@ -12235,7 +12376,7 @@
         <v>9830688888</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="38">
         <v>29</v>
       </c>
@@ -12246,7 +12387,7 @@
         <v>9073985531</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="38">
         <v>30</v>
       </c>
@@ -12257,7 +12398,7 @@
         <v>3324712220</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="38">
         <v>31</v>
       </c>
@@ -12268,7 +12409,7 @@
         <v>3324131158</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="38">
         <v>32</v>
       </c>
@@ -12279,7 +12420,7 @@
         <v>9836242629</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="38">
         <v>33</v>
       </c>
@@ -12290,7 +12431,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="38">
         <v>34</v>
       </c>
@@ -12301,7 +12442,7 @@
         <v>9051973905</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="38">
         <v>35</v>
       </c>
@@ -12312,7 +12453,7 @@
         <v>9674850783</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="38">
         <v>36</v>
       </c>
@@ -12323,7 +12464,7 @@
         <v>9674111783</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="38">
         <v>37</v>
       </c>
@@ -12334,7 +12475,7 @@
         <v>33218260082</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="38">
         <v>38</v>
       </c>
@@ -12345,7 +12486,7 @@
         <v>3322879202</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="38">
         <v>39</v>
       </c>
@@ -12356,7 +12497,7 @@
         <v>3322841546</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="38">
         <v>40</v>
       </c>
@@ -12367,7 +12508,7 @@
         <v>3322484593</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="38">
         <v>41</v>
       </c>
@@ -12378,7 +12519,7 @@
         <v>3322297741</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="38">
         <v>42</v>
       </c>
@@ -12389,7 +12530,7 @@
         <v>3324793241</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="38">
         <v>43</v>
       </c>
@@ -12400,7 +12541,7 @@
         <v>3324344455</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="38">
         <v>44</v>
       </c>
@@ -12411,7 +12552,7 @@
         <v>3340083093</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="38">
         <v>45</v>
       </c>
@@ -12422,7 +12563,7 @@
         <v>3324618002</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="38">
         <v>46</v>
       </c>
@@ -12433,7 +12574,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="38">
         <v>47</v>
       </c>
@@ -12444,7 +12585,7 @@
         <v>3324569090</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="38">
         <v>48</v>
       </c>
@@ -12455,7 +12596,7 @@
         <v>3322233062</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="38">
         <v>49</v>
       </c>
@@ -12466,7 +12607,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="38">
         <v>50</v>
       </c>
@@ -12477,7 +12618,7 @@
         <v>3324793600</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="38">
         <v>51</v>
       </c>
@@ -12488,7 +12629,7 @@
         <v>3324866629</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="38">
         <v>52</v>
       </c>
@@ -12499,7 +12640,7 @@
         <v>3322848038</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="38">
         <v>53</v>
       </c>
@@ -12510,7 +12651,7 @@
         <v>905188888</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="38">
         <v>54</v>
       </c>
@@ -12521,7 +12662,7 @@
         <v>7596949952</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="38">
         <v>55</v>
       </c>
@@ -12532,7 +12673,7 @@
         <v>7478196910</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="38">
         <v>56</v>
       </c>
@@ -12543,7 +12684,7 @@
         <v>7044447761</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="38">
         <v>57</v>
       </c>
@@ -12554,7 +12695,7 @@
         <v>7059600647</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="38">
         <v>58</v>
       </c>
@@ -12565,7 +12706,7 @@
         <v>3340072444</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="38">
         <v>59</v>
       </c>
@@ -12576,7 +12717,7 @@
         <v>9903102957</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="38">
         <v>60</v>
       </c>
@@ -12587,7 +12728,7 @@
         <v>7605080650</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="38">
         <v>61</v>
       </c>
@@ -12598,7 +12739,7 @@
         <v>3324752135</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="38">
         <v>62</v>
       </c>
@@ -12609,7 +12750,7 @@
         <v>9674645471</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="38">
         <v>63</v>
       </c>
@@ -12620,7 +12761,7 @@
         <v>9073681886</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="38">
         <v>64</v>
       </c>
@@ -12631,7 +12772,7 @@
         <v>3324316997</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="38">
         <v>65</v>
       </c>
@@ -12642,7 +12783,7 @@
         <v>3322291779</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="38">
         <v>66</v>
       </c>
@@ -12653,7 +12794,7 @@
         <v>3323215151</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="38">
         <v>67</v>
       </c>
@@ -12664,7 +12805,7 @@
         <v>3323342404</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="38">
         <v>68</v>
       </c>
@@ -12675,7 +12816,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="38">
         <v>69</v>
       </c>
@@ -12686,7 +12827,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="38">
         <v>70</v>
       </c>
@@ -12697,7 +12838,7 @@
         <v>9606279184</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="38">
         <v>71</v>
       </c>
@@ -12708,7 +12849,7 @@
         <v>8777867589</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="38">
         <v>72</v>
       </c>
@@ -12719,7 +12860,7 @@
         <v>8017672075</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="38">
         <v>73</v>
       </c>
@@ -12730,7 +12871,7 @@
         <v>3324492810</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="38">
         <v>74</v>
       </c>
@@ -12741,7 +12882,7 @@
         <v>3324967196</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="38">
         <v>75</v>
       </c>
@@ -12752,7 +12893,7 @@
         <v>9830701347</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="38">
         <v>76</v>
       </c>
@@ -12763,7 +12904,7 @@
         <v>3324961723</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="38">
         <v>77</v>
       </c>
@@ -12774,7 +12915,7 @@
         <v>9007792852</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="38">
         <v>78</v>
       </c>
@@ -12785,7 +12926,7 @@
         <v>8902765583</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="38">
         <v>79</v>
       </c>
@@ -12796,7 +12937,7 @@
         <v>9331866252</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="38">
         <v>80</v>
       </c>
@@ -12807,7 +12948,7 @@
         <v>9903540099</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="38">
         <v>81</v>
       </c>
@@ -12818,7 +12959,7 @@
         <v>8336998663</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="38">
         <v>82</v>
       </c>
@@ -12829,7 +12970,7 @@
         <v>9339527506</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="38">
         <v>83</v>
       </c>
@@ -12840,7 +12981,7 @@
         <v>9903312630</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="38">
         <v>84</v>
       </c>
@@ -12851,7 +12992,7 @@
         <v>9836747400</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="38">
         <v>85</v>
       </c>
@@ -12862,7 +13003,7 @@
         <v>8100188019</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="38">
         <v>86</v>
       </c>
@@ -12873,7 +13014,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="38">
         <v>87</v>
       </c>
@@ -12884,7 +13025,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="38">
         <v>88</v>
       </c>
@@ -12895,7 +13036,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="38">
         <v>89</v>
       </c>
@@ -12906,7 +13047,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="38">
         <v>90</v>
       </c>
@@ -12917,7 +13058,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="38">
         <v>91</v>
       </c>
@@ -12928,7 +13069,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="38">
         <v>92</v>
       </c>
@@ -12939,7 +13080,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="38">
         <v>93</v>
       </c>
@@ -12950,7 +13091,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="38">
         <v>94</v>
       </c>
@@ -12961,7 +13102,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="38">
         <v>95</v>
       </c>
@@ -12972,7 +13113,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="38">
         <v>96</v>
       </c>
@@ -12983,7 +13124,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="38">
         <v>97</v>
       </c>
@@ -12994,7 +13135,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="38">
         <v>98</v>
       </c>
@@ -13005,7 +13146,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="38">
         <v>99</v>
       </c>
@@ -13016,7 +13157,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="38">
         <v>100</v>
       </c>
@@ -13027,7 +13168,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="38">
         <v>101</v>
       </c>
@@ -13038,7 +13179,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="38">
         <v>102</v>
       </c>
@@ -13049,7 +13190,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="38">
         <v>103</v>
       </c>
@@ -13060,7 +13201,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="38">
         <v>104</v>
       </c>
@@ -13071,7 +13212,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="38">
         <v>105</v>
       </c>
@@ -13082,7 +13223,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="38">
         <v>106</v>
       </c>
@@ -13093,7 +13234,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="38">
         <v>107</v>
       </c>
@@ -13104,7 +13245,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="38">
         <v>108</v>
       </c>
@@ -13115,7 +13256,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="38">
         <v>109</v>
       </c>
@@ -13126,7 +13267,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="38">
         <v>110</v>
       </c>

--- a/Offline/BusinessManagement/Marketing/AI marketing/AI Workshop Schools-Colleges.xlsx
+++ b/Offline/BusinessManagement/Marketing/AI marketing/AI Workshop Schools-Colleges.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Marketing\AI marketing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7DD5A69-2F4F-47D9-8C2E-CF3DF64FAC50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4FCCBF-E9F5-4CCF-BB1D-F19F8E5E9248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="506" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="453">
   <si>
     <t>CBSE</t>
   </si>
@@ -1478,6 +1478,24 @@
   </si>
   <si>
     <t>After 1 week, do follow up for email over phone</t>
+  </si>
+  <si>
+    <t>LJD DIAMOND HARBOUR</t>
+  </si>
+  <si>
+    <t>9830028261</t>
+  </si>
+  <si>
+    <t>DIAMOND HARBOUR</t>
+  </si>
+  <si>
+    <t>Oakwood School</t>
+  </si>
+  <si>
+    <t>9330312096</t>
+  </si>
+  <si>
+    <t>KAMALGAZI</t>
   </si>
 </sst>
 </file>
@@ -2355,7 +2373,7 @@
       </c>
       <c r="D4" s="16">
         <f>MAX('School-Details'!A:A)</f>
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F4" s="21" t="s">
         <v>265</v>
@@ -2488,7 +2506,7 @@
       </c>
       <c r="D8" s="54">
         <f ca="1">ROUND(D11/(D7-D6+1),0)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F8" s="14" t="s">
         <v>283</v>
@@ -2565,7 +2583,7 @@
       </c>
       <c r="D11" s="14">
         <f>COUNTIF('School-Details'!U:U,C11)</f>
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="F11" s="14"/>
       <c r="G11" s="62" t="s">
@@ -2777,7 +2795,7 @@
       </c>
       <c r="D17" s="14">
         <f>COUNTIF('School-Details'!U:U,C17)</f>
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="F17" s="22">
         <v>45413</v>
@@ -2853,7 +2871,7 @@
       </c>
       <c r="D19" s="16">
         <f>SUM(D11:D18)</f>
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F19" s="22">
         <v>45474</v>
@@ -2992,7 +3010,7 @@
       </c>
       <c r="D23" s="14">
         <f>COUNTIF('School-Details'!T:T,C23)</f>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F23" s="22">
         <v>45597</v>
@@ -3029,7 +3047,7 @@
       </c>
       <c r="D24" s="14">
         <f>SUM(D22:D23)</f>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F24" s="22">
         <v>45627</v>
@@ -3199,7 +3217,7 @@
       </c>
       <c r="D30" s="56">
         <f>D24+D26+D29</f>
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E30" s="35"/>
       <c r="F30" s="35"/>
@@ -3263,13 +3281,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:U124"/>
+  <dimension ref="A1:U126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D123" sqref="D123"/>
+      <selection pane="bottomRight" activeCell="F127" sqref="F127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3440,7 +3458,7 @@
         <v>3</v>
       </c>
       <c r="U3" s="10" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -3523,7 +3541,7 @@
         <v>4</v>
       </c>
       <c r="U5" s="10" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3640,7 +3658,7 @@
         <v>3</v>
       </c>
       <c r="U8" s="10" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
@@ -3680,7 +3698,7 @@
         <v>4</v>
       </c>
       <c r="U9" s="10" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
@@ -3760,7 +3778,7 @@
         <v>4</v>
       </c>
       <c r="U11" s="10" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
@@ -3840,7 +3858,7 @@
         <v>5</v>
       </c>
       <c r="U13" s="10" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="72" hidden="1" x14ac:dyDescent="0.3">
@@ -3960,7 +3978,7 @@
         <v>5</v>
       </c>
       <c r="U16" s="10" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
@@ -4117,7 +4135,7 @@
         <v>3</v>
       </c>
       <c r="U20" s="10" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.3">
@@ -4339,7 +4357,7 @@
         <v>4</v>
       </c>
       <c r="U25" s="10" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
@@ -4383,7 +4401,7 @@
         <v>4</v>
       </c>
       <c r="U26" s="10" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.3">
@@ -4427,7 +4445,7 @@
         <v>4</v>
       </c>
       <c r="U27" s="10" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
@@ -4519,7 +4537,7 @@
         <v>4</v>
       </c>
       <c r="U29" s="10" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
@@ -4563,7 +4581,7 @@
         <v>3</v>
       </c>
       <c r="U30" s="10" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -4695,7 +4713,7 @@
         <v>3</v>
       </c>
       <c r="U33" s="10" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.3">
@@ -4735,7 +4753,7 @@
         <v>4</v>
       </c>
       <c r="U34" s="10" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
     </row>
     <row r="35" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -4869,7 +4887,7 @@
         <v>4</v>
       </c>
       <c r="U37" s="10" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
@@ -4949,7 +4967,7 @@
         <v>4</v>
       </c>
       <c r="U39" s="10" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.3">
@@ -5033,7 +5051,7 @@
         <v>4</v>
       </c>
       <c r="U41" s="10" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.3">
@@ -6156,7 +6174,7 @@
         <v>4</v>
       </c>
       <c r="S67" s="10">
-        <f t="shared" ref="S67:S124" si="2">SUM(N67:R67)</f>
+        <f t="shared" ref="S67:S125" si="2">SUM(N67:R67)</f>
         <v>22</v>
       </c>
       <c r="T67" s="10">
@@ -6204,7 +6222,7 @@
         <v>20</v>
       </c>
       <c r="T68" s="10">
-        <f t="shared" ref="T68:T124" si="3">ROUND(S68/5,0)</f>
+        <f t="shared" ref="T68:T125" si="3">ROUND(S68/5,0)</f>
         <v>4</v>
       </c>
       <c r="U68" s="10" t="s">
@@ -8508,6 +8526,66 @@
       </c>
       <c r="U124" s="10" t="s">
         <v>263</v>
+      </c>
+    </row>
+    <row r="125" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A125" s="2">
+        <v>124</v>
+      </c>
+      <c r="B125" s="17" t="s">
+        <v>447</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F125" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="G125" s="40" t="s">
+        <v>449</v>
+      </c>
+      <c r="N125" s="1">
+        <v>1</v>
+      </c>
+      <c r="O125" s="1">
+        <v>4</v>
+      </c>
+      <c r="P125" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q125" s="1">
+        <v>4</v>
+      </c>
+      <c r="R125" s="1">
+        <v>4</v>
+      </c>
+      <c r="S125" s="1">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="T125" s="1">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="U125" s="10" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A126" s="2">
+        <v>125</v>
+      </c>
+      <c r="B126" s="17" t="s">
+        <v>450</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F126" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="G126" s="40" t="s">
+        <v>452</v>
       </c>
     </row>
   </sheetData>

--- a/Offline/BusinessManagement/Marketing/AI marketing/AI Workshop Schools-Colleges.xlsx
+++ b/Offline/BusinessManagement/Marketing/AI marketing/AI Workshop Schools-Colleges.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Marketing\AI marketing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4FCCBF-E9F5-4CCF-BB1D-F19F8E5E9248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9152DADE-15E6-468B-86F6-0E6909B87A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="506" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="506" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="8" r:id="rId1"/>
@@ -96,7 +96,7 @@
     <author>del</author>
   </authors>
   <commentList>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="454">
   <si>
     <t>CBSE</t>
   </si>
@@ -1496,6 +1496,9 @@
   </si>
   <si>
     <t>KAMALGAZI</t>
+  </si>
+  <si>
+    <t>Department</t>
   </si>
 </sst>
 </file>
@@ -2316,8 +2319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:R33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2387,8 +2390,8 @@
         <v>366</v>
       </c>
       <c r="M4" s="16">
-        <f>COUNTIF('College-Details'!J:J,L4)</f>
-        <v>0</v>
+        <f>COUNTIF('College-Details'!K:K,L4)</f>
+        <v>53</v>
       </c>
       <c r="O4" s="21" t="s">
         <v>265</v>
@@ -2420,14 +2423,14 @@
         <v>367</v>
       </c>
       <c r="M5" s="16">
-        <f>COUNTIF('College-Details'!J:J,L5)</f>
+        <f>COUNTIF('College-Details'!K:K,L5)</f>
         <v>0</v>
       </c>
       <c r="O5" s="14" t="s">
         <v>210</v>
       </c>
       <c r="P5" s="14">
-        <f>COUNTIF('College-Details'!L:L,O5)</f>
+        <f>COUNTIF('College-Details'!M:M,O5)</f>
         <v>0</v>
       </c>
       <c r="R5" s="31"/>
@@ -2460,7 +2463,7 @@
         <v>267</v>
       </c>
       <c r="P6" s="14">
-        <f>COUNTIF('College-Details'!L:L,O6)</f>
+        <f>COUNTIF('College-Details'!M:M,O6)</f>
         <v>0</v>
       </c>
       <c r="R6" s="31"/>
@@ -2487,14 +2490,14 @@
         <v>369</v>
       </c>
       <c r="M7" s="16">
-        <f>SUM('College-Details'!I:I)/M6</f>
+        <f>SUM('College-Details'!J:J)/M6</f>
         <v>0</v>
       </c>
       <c r="O7" s="14" t="s">
         <v>268</v>
       </c>
       <c r="P7" s="14">
-        <f>COUNTIF('College-Details'!L:L,O7)</f>
+        <f>COUNTIF('College-Details'!M:M,O7)</f>
         <v>0</v>
       </c>
       <c r="R7" s="31"/>
@@ -2506,7 +2509,7 @@
       </c>
       <c r="D8" s="54">
         <f ca="1">ROUND(D11/(D7-D6+1),0)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F8" s="14" t="s">
         <v>283</v>
@@ -2525,7 +2528,7 @@
         <v>283</v>
       </c>
       <c r="P8" s="14">
-        <f>COUNTIF('College-Details'!L:L,O8)</f>
+        <f>COUNTIF('College-Details'!M:M,O8)</f>
         <v>0</v>
       </c>
       <c r="R8" s="31"/>
@@ -2583,7 +2586,7 @@
       </c>
       <c r="D11" s="14">
         <f>COUNTIF('School-Details'!U:U,C11)</f>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F11" s="14"/>
       <c r="G11" s="62" t="s">
@@ -2660,7 +2663,7 @@
         <v>251</v>
       </c>
       <c r="M13" s="14">
-        <f>COUNTIF('College-Details'!T:T,L13)</f>
+        <f>COUNTIF('College-Details'!U:U,L13)</f>
         <v>0</v>
       </c>
       <c r="O13" s="22">
@@ -2698,7 +2701,7 @@
         <v>253</v>
       </c>
       <c r="M14" s="14">
-        <f>COUNTIF('College-Details'!T:T,L14)</f>
+        <f>COUNTIF('College-Details'!U:U,L14)</f>
         <v>0</v>
       </c>
       <c r="O14" s="22">
@@ -2736,7 +2739,7 @@
         <v>255</v>
       </c>
       <c r="M15" s="14">
-        <f>COUNTIF('College-Details'!T:T,L15)</f>
+        <f>COUNTIF('College-Details'!U:U,L15)</f>
         <v>0</v>
       </c>
       <c r="O15" s="22">
@@ -2774,7 +2777,7 @@
         <v>257</v>
       </c>
       <c r="M16" s="14">
-        <f>COUNTIF('College-Details'!T:T,L16)</f>
+        <f>COUNTIF('College-Details'!U:U,L16)</f>
         <v>0</v>
       </c>
       <c r="O16" s="22">
@@ -2795,7 +2798,7 @@
       </c>
       <c r="D17" s="14">
         <f>COUNTIF('School-Details'!U:U,C17)</f>
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F17" s="22">
         <v>45413</v>
@@ -2812,7 +2815,7 @@
         <v>259</v>
       </c>
       <c r="M17" s="14">
-        <f>COUNTIF('College-Details'!T:T,L17)</f>
+        <f>COUNTIF('College-Details'!U:U,L17)</f>
         <v>0</v>
       </c>
       <c r="O17" s="22">
@@ -2850,7 +2853,7 @@
         <v>261</v>
       </c>
       <c r="M18" s="14">
-        <f>COUNTIF('College-Details'!T:T,L18)</f>
+        <f>COUNTIF('College-Details'!U:U,L18)</f>
         <v>0</v>
       </c>
       <c r="O18" s="22">
@@ -2871,7 +2874,7 @@
       </c>
       <c r="D19" s="16">
         <f>SUM(D11:D18)</f>
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F19" s="22">
         <v>45474</v>
@@ -2888,7 +2891,7 @@
         <v>263</v>
       </c>
       <c r="M19" s="14">
-        <f>COUNTIF('College-Details'!T:T,L19)</f>
+        <f>COUNTIF('College-Details'!U:U,L19)</f>
         <v>53</v>
       </c>
       <c r="O19" s="22">
@@ -2919,7 +2922,7 @@
         <v>279</v>
       </c>
       <c r="M20" s="14">
-        <f>COUNTIF('College-Details'!T:T,L20)</f>
+        <f>COUNTIF('College-Details'!U:U,L20)</f>
         <v>0</v>
       </c>
       <c r="O20" s="22">
@@ -3010,7 +3013,7 @@
       </c>
       <c r="D23" s="14">
         <f>COUNTIF('School-Details'!T:T,C23)</f>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F23" s="22">
         <v>45597</v>
@@ -3047,7 +3050,7 @@
       </c>
       <c r="D24" s="14">
         <f>SUM(D22:D23)</f>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F24" s="22">
         <v>45627</v>
@@ -3066,7 +3069,7 @@
         <v>5</v>
       </c>
       <c r="M24" s="14">
-        <f>COUNTIF('College-Details'!S:S,L24)</f>
+        <f>COUNTIF('College-Details'!T:T,L24)</f>
         <v>0</v>
       </c>
       <c r="O24" s="22">
@@ -3108,7 +3111,7 @@
         <v>4</v>
       </c>
       <c r="M25" s="14">
-        <f>COUNTIF('College-Details'!S:S,L25)</f>
+        <f>COUNTIF('College-Details'!T:T,L25)</f>
         <v>0</v>
       </c>
       <c r="O25" s="16" t="s">
@@ -3163,7 +3166,7 @@
         <v>3</v>
       </c>
       <c r="M27" s="14">
-        <f>COUNTIF('College-Details'!S:S,L27)</f>
+        <f>COUNTIF('College-Details'!T:T,L27)</f>
         <v>0</v>
       </c>
       <c r="R27" s="31"/>
@@ -3205,7 +3208,7 @@
         <v>2</v>
       </c>
       <c r="M29" s="14">
-        <f>COUNTIF('College-Details'!S:S,L29)</f>
+        <f>COUNTIF('College-Details'!T:T,L29)</f>
         <v>0</v>
       </c>
       <c r="R29" s="31"/>
@@ -3217,7 +3220,7 @@
       </c>
       <c r="D30" s="56">
         <f>D24+D26+D29</f>
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E30" s="35"/>
       <c r="F30" s="35"/>
@@ -3229,7 +3232,7 @@
         <v>1</v>
       </c>
       <c r="M30" s="14">
-        <f>COUNTIF('College-Details'!S:S,L30)</f>
+        <f>COUNTIF('College-Details'!T:T,L30)</f>
         <v>0</v>
       </c>
       <c r="R30" s="31"/>
@@ -3283,11 +3286,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:U126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D33" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="I114" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F127" sqref="F127"/>
+      <selection pane="bottomRight" activeCell="U126" sqref="U126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6174,7 +6177,7 @@
         <v>4</v>
       </c>
       <c r="S67" s="10">
-        <f t="shared" ref="S67:S125" si="2">SUM(N67:R67)</f>
+        <f t="shared" ref="S67:S126" si="2">SUM(N67:R67)</f>
         <v>22</v>
       </c>
       <c r="T67" s="10">
@@ -6222,7 +6225,7 @@
         <v>20</v>
       </c>
       <c r="T68" s="10">
-        <f t="shared" ref="T68:T125" si="3">ROUND(S68/5,0)</f>
+        <f t="shared" ref="T68:T126" si="3">ROUND(S68/5,0)</f>
         <v>4</v>
       </c>
       <c r="U68" s="10" t="s">
@@ -8525,7 +8528,7 @@
         <v>4</v>
       </c>
       <c r="U124" s="10" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
     </row>
     <row r="125" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
@@ -8586,6 +8589,32 @@
       </c>
       <c r="G126" s="40" t="s">
         <v>452</v>
+      </c>
+      <c r="N126" s="1">
+        <v>4</v>
+      </c>
+      <c r="O126" s="1">
+        <v>4</v>
+      </c>
+      <c r="P126" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q126" s="1">
+        <v>3</v>
+      </c>
+      <c r="R126" s="1">
+        <v>4</v>
+      </c>
+      <c r="S126" s="1">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="T126" s="1">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="U126" s="10" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -8666,10 +8695,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:T179"/>
+  <dimension ref="A1:U179"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8679,18 +8708,18 @@
     <col min="3" max="3" width="32.5546875" style="40" customWidth="1"/>
     <col min="4" max="4" width="15.5546875" style="39" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="16" style="40" customWidth="1"/>
-    <col min="8" max="10" width="11" style="1" customWidth="1"/>
-    <col min="11" max="11" width="19.6640625" style="40" customWidth="1"/>
-    <col min="12" max="12" width="13.33203125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="18.44140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.109375" style="1"/>
-    <col min="15" max="15" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="9.109375" style="1"/>
-    <col min="20" max="20" width="19" style="1" customWidth="1"/>
+    <col min="6" max="8" width="16" style="40" customWidth="1"/>
+    <col min="9" max="11" width="11" style="1" customWidth="1"/>
+    <col min="12" max="12" width="19.6640625" style="40" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="18.44140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.109375" style="1"/>
+    <col min="16" max="16" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="9.109375" style="1"/>
+    <col min="21" max="21" width="19" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>1</v>
       </c>
@@ -8707,52 +8736,55 @@
         <v>4</v>
       </c>
       <c r="F1" s="18" t="s">
+        <v>453</v>
+      </c>
+      <c r="G1" s="18" t="s">
         <v>295</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="H1" s="18" t="s">
         <v>282</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="I1" s="18" t="s">
         <v>243</v>
       </c>
-      <c r="I1" s="18" t="s">
-        <v>5</v>
-      </c>
       <c r="J1" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="18" t="s">
         <v>296</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="L1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="M1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="N1" s="18" t="s">
         <v>237</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="O1" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="P1" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="Q1" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="R1" s="20" t="s">
         <v>241</v>
       </c>
-      <c r="R1" s="20" t="s">
+      <c r="S1" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="S1" s="25" t="s">
+      <c r="T1" s="25" t="s">
         <v>242</v>
       </c>
-      <c r="T1" s="20" t="s">
+      <c r="U1" s="20" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="38">
         <v>1</v>
       </c>
@@ -8765,13 +8797,12 @@
       <c r="E2" s="40" t="s">
         <v>299</v>
       </c>
-      <c r="H2" s="10"/>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10">
-        <v>0</v>
-      </c>
+      <c r="K2" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="M2" s="10"/>
       <c r="N2" s="10">
         <v>0</v>
       </c>
@@ -8788,14 +8819,17 @@
         <v>0</v>
       </c>
       <c r="S2" s="10">
-        <f>ROUND(R2/5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="T2" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="T2" s="10">
+        <f>ROUND(S2/5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U2" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -8808,8 +8842,8 @@
       <c r="E3" s="40" t="s">
         <v>302</v>
       </c>
-      <c r="M3" s="10">
-        <v>0</v>
+      <c r="K3" s="10" t="s">
+        <v>366</v>
       </c>
       <c r="N3" s="10">
         <v>0</v>
@@ -8827,14 +8861,17 @@
         <v>0</v>
       </c>
       <c r="S3" s="10">
-        <f t="shared" ref="S3:S35" si="0">ROUND(R3/5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="T3" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="T3" s="10">
+        <f t="shared" ref="T3:T35" si="0">ROUND(S3/5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U3" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -8847,8 +8884,8 @@
       <c r="E4" s="40" t="s">
         <v>305</v>
       </c>
-      <c r="M4" s="10">
-        <v>0</v>
+      <c r="K4" s="10" t="s">
+        <v>366</v>
       </c>
       <c r="N4" s="10">
         <v>0</v>
@@ -8866,14 +8903,17 @@
         <v>0</v>
       </c>
       <c r="S4" s="10">
+        <v>0</v>
+      </c>
+      <c r="T4" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T4" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="U4" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -8886,8 +8926,8 @@
       <c r="E5" s="40" t="s">
         <v>302</v>
       </c>
-      <c r="M5" s="10">
-        <v>0</v>
+      <c r="K5" s="10" t="s">
+        <v>366</v>
       </c>
       <c r="N5" s="10">
         <v>0</v>
@@ -8905,14 +8945,17 @@
         <v>0</v>
       </c>
       <c r="S5" s="10">
+        <v>0</v>
+      </c>
+      <c r="T5" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T5" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="U5" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -8925,8 +8968,8 @@
       <c r="E6" s="40" t="s">
         <v>310</v>
       </c>
-      <c r="M6" s="10">
-        <v>0</v>
+      <c r="K6" s="10" t="s">
+        <v>366</v>
       </c>
       <c r="N6" s="10">
         <v>0</v>
@@ -8944,14 +8987,17 @@
         <v>0</v>
       </c>
       <c r="S6" s="10">
+        <v>0</v>
+      </c>
+      <c r="T6" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T6" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="U6" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -8964,8 +9010,8 @@
       <c r="E7" s="40" t="s">
         <v>313</v>
       </c>
-      <c r="M7" s="10">
-        <v>0</v>
+      <c r="K7" s="10" t="s">
+        <v>366</v>
       </c>
       <c r="N7" s="10">
         <v>0</v>
@@ -8983,14 +9029,17 @@
         <v>0</v>
       </c>
       <c r="S7" s="10">
+        <v>0</v>
+      </c>
+      <c r="T7" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T7" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="U7" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -9000,12 +9049,12 @@
       <c r="D8" s="42" t="s">
         <v>315</v>
       </c>
-      <c r="K8" s="40" t="s">
+      <c r="K8" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="L8" s="40" t="s">
         <v>316</v>
       </c>
-      <c r="M8" s="10">
-        <v>0</v>
-      </c>
       <c r="N8" s="10">
         <v>0</v>
       </c>
@@ -9022,14 +9071,17 @@
         <v>0</v>
       </c>
       <c r="S8" s="10">
+        <v>0</v>
+      </c>
+      <c r="T8" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T8" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U8" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -9039,8 +9091,8 @@
       <c r="D9" s="39">
         <v>9903250730</v>
       </c>
-      <c r="M9" s="10">
-        <v>0</v>
+      <c r="K9" s="10" t="s">
+        <v>366</v>
       </c>
       <c r="N9" s="10">
         <v>0</v>
@@ -9058,14 +9110,17 @@
         <v>0</v>
       </c>
       <c r="S9" s="10">
+        <v>0</v>
+      </c>
+      <c r="T9" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T9" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U9" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -9075,8 +9130,8 @@
       <c r="D10" s="39" t="s">
         <v>319</v>
       </c>
-      <c r="M10" s="10">
-        <v>0</v>
+      <c r="K10" s="10" t="s">
+        <v>366</v>
       </c>
       <c r="N10" s="10">
         <v>0</v>
@@ -9094,14 +9149,17 @@
         <v>0</v>
       </c>
       <c r="S10" s="10">
+        <v>0</v>
+      </c>
+      <c r="T10" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T10" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="U10" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -9112,8 +9170,8 @@
       <c r="D11" s="39" t="s">
         <v>321</v>
       </c>
-      <c r="M11" s="10">
-        <v>0</v>
+      <c r="K11" s="10" t="s">
+        <v>366</v>
       </c>
       <c r="N11" s="10">
         <v>0</v>
@@ -9131,14 +9189,17 @@
         <v>0</v>
       </c>
       <c r="S11" s="10">
+        <v>0</v>
+      </c>
+      <c r="T11" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T11" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U11" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -9148,8 +9209,8 @@
       <c r="D12" s="39">
         <v>9635253261</v>
       </c>
-      <c r="M12" s="10">
-        <v>0</v>
+      <c r="K12" s="10" t="s">
+        <v>366</v>
       </c>
       <c r="N12" s="10">
         <v>0</v>
@@ -9167,14 +9228,17 @@
         <v>0</v>
       </c>
       <c r="S12" s="10">
+        <v>0</v>
+      </c>
+      <c r="T12" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T12" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U12" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -9184,8 +9248,8 @@
       <c r="D13" s="39">
         <v>8017700500</v>
       </c>
-      <c r="M13" s="10">
-        <v>0</v>
+      <c r="K13" s="10" t="s">
+        <v>366</v>
       </c>
       <c r="N13" s="10">
         <v>0</v>
@@ -9203,14 +9267,17 @@
         <v>0</v>
       </c>
       <c r="S13" s="10">
+        <v>0</v>
+      </c>
+      <c r="T13" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T13" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U13" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -9220,8 +9287,8 @@
       <c r="D14" s="39">
         <v>8420123333</v>
       </c>
-      <c r="M14" s="10">
-        <v>0</v>
+      <c r="K14" s="10" t="s">
+        <v>366</v>
       </c>
       <c r="N14" s="10">
         <v>0</v>
@@ -9239,14 +9306,17 @@
         <v>0</v>
       </c>
       <c r="S14" s="10">
+        <v>0</v>
+      </c>
+      <c r="T14" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T14" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U14" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -9256,8 +9326,8 @@
       <c r="D15" s="39" t="s">
         <v>326</v>
       </c>
-      <c r="M15" s="10">
-        <v>0</v>
+      <c r="K15" s="10" t="s">
+        <v>366</v>
       </c>
       <c r="N15" s="10">
         <v>0</v>
@@ -9275,14 +9345,17 @@
         <v>0</v>
       </c>
       <c r="S15" s="10">
+        <v>0</v>
+      </c>
+      <c r="T15" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T15" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U15" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -9292,8 +9365,8 @@
       <c r="D16" s="39" t="s">
         <v>328</v>
       </c>
-      <c r="M16" s="10">
-        <v>0</v>
+      <c r="K16" s="10" t="s">
+        <v>366</v>
       </c>
       <c r="N16" s="10">
         <v>0</v>
@@ -9311,14 +9384,17 @@
         <v>0</v>
       </c>
       <c r="S16" s="10">
+        <v>0</v>
+      </c>
+      <c r="T16" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T16" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U16" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -9328,8 +9404,8 @@
       <c r="D17" s="39" t="s">
         <v>330</v>
       </c>
-      <c r="M17" s="10">
-        <v>0</v>
+      <c r="K17" s="10" t="s">
+        <v>366</v>
       </c>
       <c r="N17" s="10">
         <v>0</v>
@@ -9347,14 +9423,17 @@
         <v>0</v>
       </c>
       <c r="S17" s="10">
+        <v>0</v>
+      </c>
+      <c r="T17" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T17" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U17" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -9364,8 +9443,8 @@
       <c r="D18" s="39" t="s">
         <v>332</v>
       </c>
-      <c r="M18" s="10">
-        <v>0</v>
+      <c r="K18" s="10" t="s">
+        <v>366</v>
       </c>
       <c r="N18" s="10">
         <v>0</v>
@@ -9383,14 +9462,17 @@
         <v>0</v>
       </c>
       <c r="S18" s="10">
+        <v>0</v>
+      </c>
+      <c r="T18" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T18" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U18" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -9400,8 +9482,8 @@
       <c r="D19" s="39" t="s">
         <v>334</v>
       </c>
-      <c r="M19" s="10">
-        <v>0</v>
+      <c r="K19" s="10" t="s">
+        <v>366</v>
       </c>
       <c r="N19" s="10">
         <v>0</v>
@@ -9419,14 +9501,17 @@
         <v>0</v>
       </c>
       <c r="S19" s="10">
+        <v>0</v>
+      </c>
+      <c r="T19" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T19" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U19" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -9437,8 +9522,8 @@
       <c r="D20" s="43" t="s">
         <v>336</v>
       </c>
-      <c r="M20" s="10">
-        <v>0</v>
+      <c r="K20" s="10" t="s">
+        <v>366</v>
       </c>
       <c r="N20" s="10">
         <v>0</v>
@@ -9456,14 +9541,17 @@
         <v>0</v>
       </c>
       <c r="S20" s="10">
+        <v>0</v>
+      </c>
+      <c r="T20" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T20" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U20" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -9474,8 +9562,8 @@
       <c r="D21" s="39" t="s">
         <v>338</v>
       </c>
-      <c r="M21" s="10">
-        <v>0</v>
+      <c r="K21" s="10" t="s">
+        <v>366</v>
       </c>
       <c r="N21" s="10">
         <v>0</v>
@@ -9493,14 +9581,17 @@
         <v>0</v>
       </c>
       <c r="S21" s="10">
+        <v>0</v>
+      </c>
+      <c r="T21" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T21" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U21" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -9510,8 +9601,8 @@
       <c r="D22" s="39" t="s">
         <v>340</v>
       </c>
-      <c r="M22" s="10">
-        <v>0</v>
+      <c r="K22" s="10" t="s">
+        <v>366</v>
       </c>
       <c r="N22" s="10">
         <v>0</v>
@@ -9529,14 +9620,17 @@
         <v>0</v>
       </c>
       <c r="S22" s="10">
+        <v>0</v>
+      </c>
+      <c r="T22" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T22" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U22" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -9547,8 +9641,8 @@
       <c r="D23" s="39" t="s">
         <v>342</v>
       </c>
-      <c r="M23" s="10">
-        <v>0</v>
+      <c r="K23" s="10" t="s">
+        <v>366</v>
       </c>
       <c r="N23" s="10">
         <v>0</v>
@@ -9566,14 +9660,17 @@
         <v>0</v>
       </c>
       <c r="S23" s="10">
+        <v>0</v>
+      </c>
+      <c r="T23" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T23" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U23" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -9584,8 +9681,8 @@
       <c r="D24" s="39" t="s">
         <v>344</v>
       </c>
-      <c r="M24" s="10">
-        <v>0</v>
+      <c r="K24" s="10" t="s">
+        <v>366</v>
       </c>
       <c r="N24" s="10">
         <v>0</v>
@@ -9603,14 +9700,17 @@
         <v>0</v>
       </c>
       <c r="S24" s="10">
+        <v>0</v>
+      </c>
+      <c r="T24" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T24" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U24" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -9621,8 +9721,8 @@
       <c r="D25" s="39" t="s">
         <v>346</v>
       </c>
-      <c r="M25" s="10">
-        <v>0</v>
+      <c r="K25" s="10" t="s">
+        <v>366</v>
       </c>
       <c r="N25" s="10">
         <v>0</v>
@@ -9640,14 +9740,17 @@
         <v>0</v>
       </c>
       <c r="S25" s="10">
+        <v>0</v>
+      </c>
+      <c r="T25" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T25" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U25" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -9658,8 +9761,8 @@
       <c r="D26" s="39" t="s">
         <v>348</v>
       </c>
-      <c r="M26" s="10">
-        <v>0</v>
+      <c r="K26" s="10" t="s">
+        <v>366</v>
       </c>
       <c r="N26" s="10">
         <v>0</v>
@@ -9677,14 +9780,17 @@
         <v>0</v>
       </c>
       <c r="S26" s="10">
+        <v>0</v>
+      </c>
+      <c r="T26" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T26" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U26" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -9694,8 +9800,8 @@
       <c r="D27" s="39" t="s">
         <v>350</v>
       </c>
-      <c r="M27" s="10">
-        <v>0</v>
+      <c r="K27" s="10" t="s">
+        <v>366</v>
       </c>
       <c r="N27" s="10">
         <v>0</v>
@@ -9713,14 +9819,17 @@
         <v>0</v>
       </c>
       <c r="S27" s="10">
+        <v>0</v>
+      </c>
+      <c r="T27" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T27" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U27" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -9730,8 +9839,8 @@
       <c r="D28" s="39" t="s">
         <v>352</v>
       </c>
-      <c r="M28" s="10">
-        <v>0</v>
+      <c r="K28" s="10" t="s">
+        <v>366</v>
       </c>
       <c r="N28" s="10">
         <v>0</v>
@@ -9749,14 +9858,17 @@
         <v>0</v>
       </c>
       <c r="S28" s="10">
+        <v>0</v>
+      </c>
+      <c r="T28" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T28" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U28" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -9767,8 +9879,8 @@
       <c r="D29" s="39" t="s">
         <v>354</v>
       </c>
-      <c r="M29" s="10">
-        <v>0</v>
+      <c r="K29" s="10" t="s">
+        <v>366</v>
       </c>
       <c r="N29" s="10">
         <v>0</v>
@@ -9786,14 +9898,17 @@
         <v>0</v>
       </c>
       <c r="S29" s="10">
+        <v>0</v>
+      </c>
+      <c r="T29" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T29" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U29" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -9804,8 +9919,8 @@
       <c r="D30" s="39" t="s">
         <v>356</v>
       </c>
-      <c r="M30" s="10">
-        <v>0</v>
+      <c r="K30" s="10" t="s">
+        <v>366</v>
       </c>
       <c r="N30" s="10">
         <v>0</v>
@@ -9823,14 +9938,17 @@
         <v>0</v>
       </c>
       <c r="S30" s="10">
+        <v>0</v>
+      </c>
+      <c r="T30" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T30" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U30" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -9841,8 +9959,8 @@
       <c r="D31" s="39" t="s">
         <v>358</v>
       </c>
-      <c r="M31" s="10">
-        <v>0</v>
+      <c r="K31" s="10" t="s">
+        <v>366</v>
       </c>
       <c r="N31" s="10">
         <v>0</v>
@@ -9860,14 +9978,17 @@
         <v>0</v>
       </c>
       <c r="S31" s="10">
+        <v>0</v>
+      </c>
+      <c r="T31" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T31" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U31" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -9877,8 +9998,8 @@
       <c r="D32" s="39" t="s">
         <v>360</v>
       </c>
-      <c r="M32" s="10">
-        <v>0</v>
+      <c r="K32" s="10" t="s">
+        <v>366</v>
       </c>
       <c r="N32" s="10">
         <v>0</v>
@@ -9896,14 +10017,17 @@
         <v>0</v>
       </c>
       <c r="S32" s="10">
+        <v>0</v>
+      </c>
+      <c r="T32" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T32" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U32" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -9913,8 +10037,8 @@
       <c r="D33" s="39" t="s">
         <v>362</v>
       </c>
-      <c r="M33" s="10">
-        <v>0</v>
+      <c r="K33" s="10" t="s">
+        <v>366</v>
       </c>
       <c r="N33" s="10">
         <v>0</v>
@@ -9932,14 +10056,17 @@
         <v>0</v>
       </c>
       <c r="S33" s="10">
+        <v>0</v>
+      </c>
+      <c r="T33" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T33" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U33" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -9949,8 +10076,8 @@
       <c r="D34" s="39" t="s">
         <v>364</v>
       </c>
-      <c r="M34" s="10">
-        <v>0</v>
+      <c r="K34" s="10" t="s">
+        <v>366</v>
       </c>
       <c r="N34" s="10">
         <v>0</v>
@@ -9968,14 +10095,17 @@
         <v>0</v>
       </c>
       <c r="S34" s="10">
+        <v>0</v>
+      </c>
+      <c r="T34" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T34" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U34" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -9985,8 +10115,8 @@
       <c r="D35" s="43" t="s">
         <v>365</v>
       </c>
-      <c r="M35" s="10">
-        <v>0</v>
+      <c r="K35" s="10" t="s">
+        <v>366</v>
       </c>
       <c r="N35" s="10">
         <v>0</v>
@@ -10004,14 +10134,17 @@
         <v>0</v>
       </c>
       <c r="S35" s="10">
+        <v>0</v>
+      </c>
+      <c r="T35" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T35" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="U35" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -10027,8 +10160,8 @@
       <c r="E36" s="40" t="s">
         <v>379</v>
       </c>
-      <c r="M36" s="10">
-        <v>0</v>
+      <c r="K36" s="10" t="s">
+        <v>366</v>
       </c>
       <c r="N36" s="10">
         <v>0</v>
@@ -10046,14 +10179,17 @@
         <v>0</v>
       </c>
       <c r="S36" s="10">
-        <f t="shared" ref="S36:S54" si="1">ROUND(R36/5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="T36" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="T36" s="10">
+        <f t="shared" ref="T36:T54" si="1">ROUND(S36/5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U36" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -10069,8 +10205,8 @@
       <c r="E37" s="40" t="s">
         <v>383</v>
       </c>
-      <c r="M37" s="10">
-        <v>0</v>
+      <c r="K37" s="10" t="s">
+        <v>366</v>
       </c>
       <c r="N37" s="10">
         <v>0</v>
@@ -10088,14 +10224,17 @@
         <v>0</v>
       </c>
       <c r="S37" s="10">
+        <v>0</v>
+      </c>
+      <c r="T37" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T37" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="U37" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -10108,8 +10247,8 @@
       <c r="E38" s="40" t="s">
         <v>387</v>
       </c>
-      <c r="M38" s="10">
-        <v>0</v>
+      <c r="K38" s="10" t="s">
+        <v>366</v>
       </c>
       <c r="N38" s="10">
         <v>0</v>
@@ -10127,14 +10266,17 @@
         <v>0</v>
       </c>
       <c r="S38" s="10">
+        <v>0</v>
+      </c>
+      <c r="T38" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T38" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="U38" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -10147,8 +10289,8 @@
       <c r="E39" s="40" t="s">
         <v>389</v>
       </c>
-      <c r="M39" s="10">
-        <v>0</v>
+      <c r="K39" s="10" t="s">
+        <v>366</v>
       </c>
       <c r="N39" s="10">
         <v>0</v>
@@ -10166,14 +10308,17 @@
         <v>0</v>
       </c>
       <c r="S39" s="10">
+        <v>0</v>
+      </c>
+      <c r="T39" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T39" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="U39" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -10186,8 +10331,8 @@
       <c r="E40" s="40" t="s">
         <v>391</v>
       </c>
-      <c r="M40" s="10">
-        <v>0</v>
+      <c r="K40" s="10" t="s">
+        <v>366</v>
       </c>
       <c r="N40" s="10">
         <v>0</v>
@@ -10205,14 +10350,17 @@
         <v>0</v>
       </c>
       <c r="S40" s="10">
+        <v>0</v>
+      </c>
+      <c r="T40" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T40" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U40" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -10225,8 +10373,8 @@
       <c r="E41" s="40" t="s">
         <v>395</v>
       </c>
-      <c r="M41" s="10">
-        <v>0</v>
+      <c r="K41" s="10" t="s">
+        <v>366</v>
       </c>
       <c r="N41" s="10">
         <v>0</v>
@@ -10244,14 +10392,17 @@
         <v>0</v>
       </c>
       <c r="S41" s="10">
+        <v>0</v>
+      </c>
+      <c r="T41" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T41" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="U41" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -10264,8 +10415,8 @@
       <c r="E42" s="40" t="s">
         <v>398</v>
       </c>
-      <c r="M42" s="10">
-        <v>0</v>
+      <c r="K42" s="10" t="s">
+        <v>366</v>
       </c>
       <c r="N42" s="10">
         <v>0</v>
@@ -10283,14 +10434,17 @@
         <v>0</v>
       </c>
       <c r="S42" s="10">
+        <v>0</v>
+      </c>
+      <c r="T42" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T42" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="U42" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -10306,8 +10460,8 @@
       <c r="E43" s="40" t="s">
         <v>402</v>
       </c>
-      <c r="M43" s="10">
-        <v>0</v>
+      <c r="K43" s="10" t="s">
+        <v>366</v>
       </c>
       <c r="N43" s="10">
         <v>0</v>
@@ -10325,14 +10479,17 @@
         <v>0</v>
       </c>
       <c r="S43" s="10">
+        <v>0</v>
+      </c>
+      <c r="T43" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T43" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="U43" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -10345,8 +10502,8 @@
       <c r="E44" s="40" t="s">
         <v>405</v>
       </c>
-      <c r="M44" s="10">
-        <v>0</v>
+      <c r="K44" s="10" t="s">
+        <v>366</v>
       </c>
       <c r="N44" s="10">
         <v>0</v>
@@ -10364,14 +10521,17 @@
         <v>0</v>
       </c>
       <c r="S44" s="10">
+        <v>0</v>
+      </c>
+      <c r="T44" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T44" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U44" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -10384,8 +10544,8 @@
       <c r="E45" s="40" t="s">
         <v>407</v>
       </c>
-      <c r="M45" s="10">
-        <v>0</v>
+      <c r="K45" s="10" t="s">
+        <v>366</v>
       </c>
       <c r="N45" s="10">
         <v>0</v>
@@ -10403,14 +10563,17 @@
         <v>0</v>
       </c>
       <c r="S45" s="10">
+        <v>0</v>
+      </c>
+      <c r="T45" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T45" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="U45" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -10423,8 +10586,8 @@
       <c r="E46" s="40" t="s">
         <v>411</v>
       </c>
-      <c r="M46" s="10">
-        <v>0</v>
+      <c r="K46" s="10" t="s">
+        <v>366</v>
       </c>
       <c r="N46" s="10">
         <v>0</v>
@@ -10442,14 +10605,17 @@
         <v>0</v>
       </c>
       <c r="S46" s="10">
+        <v>0</v>
+      </c>
+      <c r="T46" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T46" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="U46" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -10462,8 +10628,8 @@
       <c r="E47" s="40" t="s">
         <v>414</v>
       </c>
-      <c r="M47" s="10">
-        <v>0</v>
+      <c r="K47" s="10" t="s">
+        <v>366</v>
       </c>
       <c r="N47" s="10">
         <v>0</v>
@@ -10481,14 +10647,17 @@
         <v>0</v>
       </c>
       <c r="S47" s="10">
+        <v>0</v>
+      </c>
+      <c r="T47" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T47" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="U47" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -10501,8 +10670,8 @@
       <c r="E48" s="40" t="s">
         <v>407</v>
       </c>
-      <c r="M48" s="10">
-        <v>0</v>
+      <c r="K48" s="10" t="s">
+        <v>366</v>
       </c>
       <c r="N48" s="10">
         <v>0</v>
@@ -10520,14 +10689,17 @@
         <v>0</v>
       </c>
       <c r="S48" s="10">
+        <v>0</v>
+      </c>
+      <c r="T48" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T48" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="U48" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -10543,8 +10715,8 @@
       <c r="E49" s="40" t="s">
         <v>422</v>
       </c>
-      <c r="M49" s="10">
-        <v>0</v>
+      <c r="K49" s="10" t="s">
+        <v>366</v>
       </c>
       <c r="N49" s="10">
         <v>0</v>
@@ -10562,14 +10734,17 @@
         <v>0</v>
       </c>
       <c r="S49" s="10">
+        <v>0</v>
+      </c>
+      <c r="T49" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T49" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="U49" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -10582,8 +10757,8 @@
       <c r="E50" s="40" t="s">
         <v>407</v>
       </c>
-      <c r="M50" s="10">
-        <v>0</v>
+      <c r="K50" s="10" t="s">
+        <v>366</v>
       </c>
       <c r="N50" s="10">
         <v>0</v>
@@ -10601,14 +10776,17 @@
         <v>0</v>
       </c>
       <c r="S50" s="10">
+        <v>0</v>
+      </c>
+      <c r="T50" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T50" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="U50" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -10621,8 +10799,8 @@
       <c r="E51" s="40" t="s">
         <v>424</v>
       </c>
-      <c r="M51" s="10">
-        <v>0</v>
+      <c r="K51" s="10" t="s">
+        <v>366</v>
       </c>
       <c r="N51" s="10">
         <v>0</v>
@@ -10640,14 +10818,17 @@
         <v>0</v>
       </c>
       <c r="S51" s="10">
+        <v>0</v>
+      </c>
+      <c r="T51" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T51" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="U51" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -10660,8 +10841,8 @@
       <c r="E52" s="40" t="s">
         <v>430</v>
       </c>
-      <c r="M52" s="10">
-        <v>0</v>
+      <c r="K52" s="10" t="s">
+        <v>366</v>
       </c>
       <c r="N52" s="10">
         <v>0</v>
@@ -10679,14 +10860,17 @@
         <v>0</v>
       </c>
       <c r="S52" s="10">
+        <v>0</v>
+      </c>
+      <c r="T52" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T52" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="U52" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -10699,8 +10883,8 @@
       <c r="E53" s="40" t="s">
         <v>424</v>
       </c>
-      <c r="M53" s="10">
-        <v>0</v>
+      <c r="K53" s="10" t="s">
+        <v>366</v>
       </c>
       <c r="N53" s="10">
         <v>0</v>
@@ -10718,14 +10902,17 @@
         <v>0</v>
       </c>
       <c r="S53" s="10">
+        <v>0</v>
+      </c>
+      <c r="T53" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T53" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="U53" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -10738,8 +10925,8 @@
       <c r="E54" s="40" t="s">
         <v>414</v>
       </c>
-      <c r="M54" s="10">
-        <v>0</v>
+      <c r="K54" s="10" t="s">
+        <v>366</v>
       </c>
       <c r="N54" s="10">
         <v>0</v>
@@ -10757,1147 +10944,1150 @@
         <v>0</v>
       </c>
       <c r="S54" s="10">
+        <v>0</v>
+      </c>
+      <c r="T54" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T54" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="M55" s="10"/>
+      <c r="U54" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
       <c r="N55" s="10"/>
       <c r="O55" s="10"/>
       <c r="P55" s="10"/>
       <c r="Q55" s="10"/>
       <c r="R55" s="10"/>
       <c r="S55" s="10"/>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="M56" s="10"/>
+      <c r="T55" s="10"/>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
       <c r="N56" s="10"/>
       <c r="O56" s="10"/>
       <c r="P56" s="10"/>
       <c r="Q56" s="10"/>
       <c r="R56" s="10"/>
       <c r="S56" s="10"/>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="M57" s="10"/>
+      <c r="T56" s="10"/>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
       <c r="N57" s="10"/>
       <c r="O57" s="10"/>
       <c r="P57" s="10"/>
       <c r="Q57" s="10"/>
       <c r="R57" s="10"/>
       <c r="S57" s="10"/>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="M58" s="10"/>
+      <c r="T57" s="10"/>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
       <c r="N58" s="10"/>
       <c r="O58" s="10"/>
       <c r="P58" s="10"/>
       <c r="Q58" s="10"/>
       <c r="R58" s="10"/>
       <c r="S58" s="10"/>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="M59" s="10"/>
+      <c r="T58" s="10"/>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
       <c r="N59" s="10"/>
       <c r="O59" s="10"/>
       <c r="P59" s="10"/>
       <c r="Q59" s="10"/>
       <c r="R59" s="10"/>
       <c r="S59" s="10"/>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="M60" s="10"/>
+      <c r="T59" s="10"/>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
       <c r="N60" s="10"/>
       <c r="O60" s="10"/>
       <c r="P60" s="10"/>
       <c r="Q60" s="10"/>
       <c r="R60" s="10"/>
       <c r="S60" s="10"/>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="M61" s="10"/>
+      <c r="T60" s="10"/>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
       <c r="N61" s="10"/>
       <c r="O61" s="10"/>
       <c r="P61" s="10"/>
       <c r="Q61" s="10"/>
       <c r="R61" s="10"/>
       <c r="S61" s="10"/>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="M62" s="10"/>
+      <c r="T61" s="10"/>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
       <c r="N62" s="10"/>
       <c r="O62" s="10"/>
       <c r="P62" s="10"/>
       <c r="Q62" s="10"/>
       <c r="R62" s="10"/>
       <c r="S62" s="10"/>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="M63" s="10"/>
+      <c r="T62" s="10"/>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
       <c r="N63" s="10"/>
       <c r="O63" s="10"/>
       <c r="P63" s="10"/>
       <c r="Q63" s="10"/>
       <c r="R63" s="10"/>
       <c r="S63" s="10"/>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="M64" s="10"/>
+      <c r="T63" s="10"/>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
       <c r="N64" s="10"/>
       <c r="O64" s="10"/>
       <c r="P64" s="10"/>
       <c r="Q64" s="10"/>
       <c r="R64" s="10"/>
       <c r="S64" s="10"/>
-    </row>
-    <row r="65" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M65" s="10"/>
+      <c r="T64" s="10"/>
+    </row>
+    <row r="65" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N65" s="10"/>
       <c r="O65" s="10"/>
       <c r="P65" s="10"/>
       <c r="Q65" s="10"/>
       <c r="R65" s="10"/>
       <c r="S65" s="10"/>
-    </row>
-    <row r="66" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M66" s="10"/>
+      <c r="T65" s="10"/>
+    </row>
+    <row r="66" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N66" s="10"/>
       <c r="O66" s="10"/>
       <c r="P66" s="10"/>
       <c r="Q66" s="10"/>
       <c r="R66" s="10"/>
       <c r="S66" s="10"/>
-    </row>
-    <row r="67" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M67" s="10"/>
+      <c r="T66" s="10"/>
+    </row>
+    <row r="67" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N67" s="10"/>
       <c r="O67" s="10"/>
       <c r="P67" s="10"/>
       <c r="Q67" s="10"/>
       <c r="R67" s="10"/>
       <c r="S67" s="10"/>
-    </row>
-    <row r="68" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M68" s="10"/>
+      <c r="T67" s="10"/>
+    </row>
+    <row r="68" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N68" s="10"/>
       <c r="O68" s="10"/>
       <c r="P68" s="10"/>
       <c r="Q68" s="10"/>
       <c r="R68" s="10"/>
       <c r="S68" s="10"/>
-    </row>
-    <row r="69" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M69" s="10"/>
+      <c r="T68" s="10"/>
+    </row>
+    <row r="69" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N69" s="10"/>
       <c r="O69" s="10"/>
       <c r="P69" s="10"/>
       <c r="Q69" s="10"/>
       <c r="R69" s="10"/>
       <c r="S69" s="10"/>
-    </row>
-    <row r="70" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M70" s="10"/>
+      <c r="T69" s="10"/>
+    </row>
+    <row r="70" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N70" s="10"/>
       <c r="O70" s="10"/>
       <c r="P70" s="10"/>
       <c r="Q70" s="10"/>
       <c r="R70" s="10"/>
       <c r="S70" s="10"/>
-    </row>
-    <row r="71" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M71" s="10"/>
+      <c r="T70" s="10"/>
+    </row>
+    <row r="71" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N71" s="10"/>
       <c r="O71" s="10"/>
       <c r="P71" s="10"/>
       <c r="Q71" s="10"/>
       <c r="R71" s="10"/>
       <c r="S71" s="10"/>
-    </row>
-    <row r="72" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M72" s="10"/>
+      <c r="T71" s="10"/>
+    </row>
+    <row r="72" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N72" s="10"/>
       <c r="O72" s="10"/>
       <c r="P72" s="10"/>
       <c r="Q72" s="10"/>
       <c r="R72" s="10"/>
       <c r="S72" s="10"/>
-    </row>
-    <row r="73" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M73" s="10"/>
+      <c r="T72" s="10"/>
+    </row>
+    <row r="73" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N73" s="10"/>
       <c r="O73" s="10"/>
       <c r="P73" s="10"/>
       <c r="Q73" s="10"/>
       <c r="R73" s="10"/>
       <c r="S73" s="10"/>
-    </row>
-    <row r="74" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M74" s="10"/>
+      <c r="T73" s="10"/>
+    </row>
+    <row r="74" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N74" s="10"/>
       <c r="O74" s="10"/>
       <c r="P74" s="10"/>
       <c r="Q74" s="10"/>
       <c r="R74" s="10"/>
       <c r="S74" s="10"/>
-    </row>
-    <row r="75" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M75" s="10"/>
+      <c r="T74" s="10"/>
+    </row>
+    <row r="75" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N75" s="10"/>
       <c r="O75" s="10"/>
       <c r="P75" s="10"/>
       <c r="Q75" s="10"/>
       <c r="R75" s="10"/>
       <c r="S75" s="10"/>
-    </row>
-    <row r="76" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M76" s="10"/>
+      <c r="T75" s="10"/>
+    </row>
+    <row r="76" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N76" s="10"/>
       <c r="O76" s="10"/>
       <c r="P76" s="10"/>
       <c r="Q76" s="10"/>
       <c r="R76" s="10"/>
       <c r="S76" s="10"/>
-    </row>
-    <row r="77" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M77" s="10"/>
+      <c r="T76" s="10"/>
+    </row>
+    <row r="77" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N77" s="10"/>
       <c r="O77" s="10"/>
       <c r="P77" s="10"/>
       <c r="Q77" s="10"/>
       <c r="R77" s="10"/>
       <c r="S77" s="10"/>
-    </row>
-    <row r="78" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M78" s="10"/>
+      <c r="T77" s="10"/>
+    </row>
+    <row r="78" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N78" s="10"/>
       <c r="O78" s="10"/>
       <c r="P78" s="10"/>
       <c r="Q78" s="10"/>
       <c r="R78" s="10"/>
       <c r="S78" s="10"/>
-    </row>
-    <row r="79" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M79" s="10"/>
+      <c r="T78" s="10"/>
+    </row>
+    <row r="79" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N79" s="10"/>
       <c r="O79" s="10"/>
       <c r="P79" s="10"/>
       <c r="Q79" s="10"/>
       <c r="R79" s="10"/>
       <c r="S79" s="10"/>
-    </row>
-    <row r="80" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M80" s="10"/>
+      <c r="T79" s="10"/>
+    </row>
+    <row r="80" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N80" s="10"/>
       <c r="O80" s="10"/>
       <c r="P80" s="10"/>
       <c r="Q80" s="10"/>
       <c r="R80" s="10"/>
       <c r="S80" s="10"/>
-    </row>
-    <row r="81" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M81" s="10"/>
+      <c r="T80" s="10"/>
+    </row>
+    <row r="81" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N81" s="10"/>
       <c r="O81" s="10"/>
       <c r="P81" s="10"/>
       <c r="Q81" s="10"/>
       <c r="R81" s="10"/>
       <c r="S81" s="10"/>
-    </row>
-    <row r="82" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M82" s="10"/>
+      <c r="T81" s="10"/>
+    </row>
+    <row r="82" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N82" s="10"/>
       <c r="O82" s="10"/>
       <c r="P82" s="10"/>
       <c r="Q82" s="10"/>
       <c r="R82" s="10"/>
       <c r="S82" s="10"/>
-    </row>
-    <row r="83" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M83" s="10"/>
+      <c r="T82" s="10"/>
+    </row>
+    <row r="83" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N83" s="10"/>
       <c r="O83" s="10"/>
       <c r="P83" s="10"/>
       <c r="Q83" s="10"/>
       <c r="R83" s="10"/>
       <c r="S83" s="10"/>
-    </row>
-    <row r="84" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M84" s="10"/>
+      <c r="T83" s="10"/>
+    </row>
+    <row r="84" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N84" s="10"/>
       <c r="O84" s="10"/>
       <c r="P84" s="10"/>
       <c r="Q84" s="10"/>
       <c r="R84" s="10"/>
       <c r="S84" s="10"/>
-    </row>
-    <row r="85" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M85" s="10"/>
+      <c r="T84" s="10"/>
+    </row>
+    <row r="85" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N85" s="10"/>
       <c r="O85" s="10"/>
       <c r="P85" s="10"/>
       <c r="Q85" s="10"/>
       <c r="R85" s="10"/>
       <c r="S85" s="10"/>
-    </row>
-    <row r="86" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M86" s="10"/>
+      <c r="T85" s="10"/>
+    </row>
+    <row r="86" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N86" s="10"/>
       <c r="O86" s="10"/>
       <c r="P86" s="10"/>
       <c r="Q86" s="10"/>
       <c r="R86" s="10"/>
       <c r="S86" s="10"/>
-    </row>
-    <row r="87" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M87" s="10"/>
+      <c r="T86" s="10"/>
+    </row>
+    <row r="87" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N87" s="10"/>
       <c r="O87" s="10"/>
       <c r="P87" s="10"/>
       <c r="Q87" s="10"/>
       <c r="R87" s="10"/>
       <c r="S87" s="10"/>
-    </row>
-    <row r="88" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M88" s="10"/>
+      <c r="T87" s="10"/>
+    </row>
+    <row r="88" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N88" s="10"/>
       <c r="O88" s="10"/>
       <c r="P88" s="10"/>
       <c r="Q88" s="10"/>
       <c r="R88" s="10"/>
       <c r="S88" s="10"/>
-    </row>
-    <row r="89" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M89" s="10"/>
+      <c r="T88" s="10"/>
+    </row>
+    <row r="89" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N89" s="10"/>
       <c r="O89" s="10"/>
       <c r="P89" s="10"/>
       <c r="Q89" s="10"/>
       <c r="R89" s="10"/>
       <c r="S89" s="10"/>
-    </row>
-    <row r="90" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M90" s="10"/>
+      <c r="T89" s="10"/>
+    </row>
+    <row r="90" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N90" s="10"/>
       <c r="O90" s="10"/>
       <c r="P90" s="10"/>
       <c r="Q90" s="10"/>
       <c r="R90" s="10"/>
       <c r="S90" s="10"/>
-    </row>
-    <row r="91" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M91" s="10"/>
+      <c r="T90" s="10"/>
+    </row>
+    <row r="91" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N91" s="10"/>
       <c r="O91" s="10"/>
       <c r="P91" s="10"/>
       <c r="Q91" s="10"/>
       <c r="R91" s="10"/>
       <c r="S91" s="10"/>
-    </row>
-    <row r="92" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M92" s="10"/>
+      <c r="T91" s="10"/>
+    </row>
+    <row r="92" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N92" s="10"/>
       <c r="O92" s="10"/>
       <c r="P92" s="10"/>
       <c r="Q92" s="10"/>
       <c r="R92" s="10"/>
       <c r="S92" s="10"/>
-    </row>
-    <row r="93" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M93" s="10"/>
+      <c r="T92" s="10"/>
+    </row>
+    <row r="93" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N93" s="10"/>
       <c r="O93" s="10"/>
       <c r="P93" s="10"/>
       <c r="Q93" s="10"/>
       <c r="R93" s="10"/>
       <c r="S93" s="10"/>
-    </row>
-    <row r="94" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M94" s="10"/>
+      <c r="T93" s="10"/>
+    </row>
+    <row r="94" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N94" s="10"/>
       <c r="O94" s="10"/>
       <c r="P94" s="10"/>
       <c r="Q94" s="10"/>
       <c r="R94" s="10"/>
       <c r="S94" s="10"/>
-    </row>
-    <row r="95" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M95" s="10"/>
+      <c r="T94" s="10"/>
+    </row>
+    <row r="95" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N95" s="10"/>
       <c r="O95" s="10"/>
       <c r="P95" s="10"/>
       <c r="Q95" s="10"/>
       <c r="R95" s="10"/>
       <c r="S95" s="10"/>
-    </row>
-    <row r="96" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M96" s="10"/>
+      <c r="T95" s="10"/>
+    </row>
+    <row r="96" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N96" s="10"/>
       <c r="O96" s="10"/>
       <c r="P96" s="10"/>
       <c r="Q96" s="10"/>
       <c r="R96" s="10"/>
       <c r="S96" s="10"/>
-    </row>
-    <row r="97" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M97" s="10"/>
+      <c r="T96" s="10"/>
+    </row>
+    <row r="97" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N97" s="10"/>
       <c r="O97" s="10"/>
       <c r="P97" s="10"/>
       <c r="Q97" s="10"/>
       <c r="R97" s="10"/>
       <c r="S97" s="10"/>
-    </row>
-    <row r="98" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M98" s="10"/>
+      <c r="T97" s="10"/>
+    </row>
+    <row r="98" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N98" s="10"/>
       <c r="O98" s="10"/>
       <c r="P98" s="10"/>
       <c r="Q98" s="10"/>
       <c r="R98" s="10"/>
       <c r="S98" s="10"/>
-    </row>
-    <row r="99" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M99" s="10"/>
+      <c r="T98" s="10"/>
+    </row>
+    <row r="99" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N99" s="10"/>
       <c r="O99" s="10"/>
       <c r="P99" s="10"/>
       <c r="Q99" s="10"/>
       <c r="R99" s="10"/>
       <c r="S99" s="10"/>
-    </row>
-    <row r="100" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M100" s="10"/>
+      <c r="T99" s="10"/>
+    </row>
+    <row r="100" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N100" s="10"/>
       <c r="O100" s="10"/>
       <c r="P100" s="10"/>
       <c r="Q100" s="10"/>
       <c r="R100" s="10"/>
       <c r="S100" s="10"/>
-    </row>
-    <row r="101" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M101" s="10"/>
+      <c r="T100" s="10"/>
+    </row>
+    <row r="101" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N101" s="10"/>
       <c r="O101" s="10"/>
       <c r="P101" s="10"/>
       <c r="Q101" s="10"/>
       <c r="R101" s="10"/>
       <c r="S101" s="10"/>
-    </row>
-    <row r="102" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M102" s="10"/>
+      <c r="T101" s="10"/>
+    </row>
+    <row r="102" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N102" s="10"/>
       <c r="O102" s="10"/>
       <c r="P102" s="10"/>
       <c r="Q102" s="10"/>
       <c r="R102" s="10"/>
       <c r="S102" s="10"/>
-    </row>
-    <row r="103" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M103" s="10"/>
+      <c r="T102" s="10"/>
+    </row>
+    <row r="103" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N103" s="10"/>
       <c r="O103" s="10"/>
       <c r="P103" s="10"/>
       <c r="Q103" s="10"/>
       <c r="R103" s="10"/>
       <c r="S103" s="10"/>
-    </row>
-    <row r="104" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M104" s="10"/>
+      <c r="T103" s="10"/>
+    </row>
+    <row r="104" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N104" s="10"/>
       <c r="O104" s="10"/>
       <c r="P104" s="10"/>
       <c r="Q104" s="10"/>
       <c r="R104" s="10"/>
       <c r="S104" s="10"/>
-    </row>
-    <row r="105" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M105" s="10"/>
+      <c r="T104" s="10"/>
+    </row>
+    <row r="105" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N105" s="10"/>
       <c r="O105" s="10"/>
       <c r="P105" s="10"/>
       <c r="Q105" s="10"/>
       <c r="R105" s="10"/>
       <c r="S105" s="10"/>
-    </row>
-    <row r="106" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M106" s="10"/>
+      <c r="T105" s="10"/>
+    </row>
+    <row r="106" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N106" s="10"/>
       <c r="O106" s="10"/>
       <c r="P106" s="10"/>
       <c r="Q106" s="10"/>
       <c r="R106" s="10"/>
       <c r="S106" s="10"/>
-    </row>
-    <row r="107" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M107" s="10"/>
+      <c r="T106" s="10"/>
+    </row>
+    <row r="107" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N107" s="10"/>
       <c r="O107" s="10"/>
       <c r="P107" s="10"/>
       <c r="Q107" s="10"/>
       <c r="R107" s="10"/>
       <c r="S107" s="10"/>
-    </row>
-    <row r="108" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M108" s="10"/>
+      <c r="T107" s="10"/>
+    </row>
+    <row r="108" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N108" s="10"/>
       <c r="O108" s="10"/>
       <c r="P108" s="10"/>
       <c r="Q108" s="10"/>
       <c r="R108" s="10"/>
       <c r="S108" s="10"/>
-    </row>
-    <row r="109" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M109" s="10"/>
+      <c r="T108" s="10"/>
+    </row>
+    <row r="109" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N109" s="10"/>
       <c r="O109" s="10"/>
       <c r="P109" s="10"/>
       <c r="Q109" s="10"/>
       <c r="R109" s="10"/>
       <c r="S109" s="10"/>
-    </row>
-    <row r="110" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M110" s="10"/>
+      <c r="T109" s="10"/>
+    </row>
+    <row r="110" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N110" s="10"/>
       <c r="O110" s="10"/>
       <c r="P110" s="10"/>
       <c r="Q110" s="10"/>
       <c r="R110" s="10"/>
       <c r="S110" s="10"/>
-    </row>
-    <row r="111" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M111" s="10"/>
+      <c r="T110" s="10"/>
+    </row>
+    <row r="111" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N111" s="10"/>
       <c r="O111" s="10"/>
       <c r="P111" s="10"/>
       <c r="Q111" s="10"/>
       <c r="R111" s="10"/>
       <c r="S111" s="10"/>
-    </row>
-    <row r="112" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M112" s="10"/>
+      <c r="T111" s="10"/>
+    </row>
+    <row r="112" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N112" s="10"/>
       <c r="O112" s="10"/>
       <c r="P112" s="10"/>
       <c r="Q112" s="10"/>
       <c r="R112" s="10"/>
       <c r="S112" s="10"/>
-    </row>
-    <row r="113" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M113" s="10"/>
+      <c r="T112" s="10"/>
+    </row>
+    <row r="113" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N113" s="10"/>
       <c r="O113" s="10"/>
       <c r="P113" s="10"/>
       <c r="Q113" s="10"/>
       <c r="R113" s="10"/>
       <c r="S113" s="10"/>
-    </row>
-    <row r="114" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M114" s="10"/>
+      <c r="T113" s="10"/>
+    </row>
+    <row r="114" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N114" s="10"/>
       <c r="O114" s="10"/>
       <c r="P114" s="10"/>
       <c r="Q114" s="10"/>
       <c r="R114" s="10"/>
       <c r="S114" s="10"/>
-    </row>
-    <row r="115" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M115" s="10"/>
+      <c r="T114" s="10"/>
+    </row>
+    <row r="115" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N115" s="10"/>
       <c r="O115" s="10"/>
       <c r="P115" s="10"/>
       <c r="Q115" s="10"/>
       <c r="R115" s="10"/>
       <c r="S115" s="10"/>
-    </row>
-    <row r="116" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M116" s="10"/>
+      <c r="T115" s="10"/>
+    </row>
+    <row r="116" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N116" s="10"/>
       <c r="O116" s="10"/>
       <c r="P116" s="10"/>
       <c r="Q116" s="10"/>
       <c r="R116" s="10"/>
       <c r="S116" s="10"/>
-    </row>
-    <row r="117" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M117" s="10"/>
+      <c r="T116" s="10"/>
+    </row>
+    <row r="117" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N117" s="10"/>
       <c r="O117" s="10"/>
       <c r="P117" s="10"/>
       <c r="Q117" s="10"/>
       <c r="R117" s="10"/>
       <c r="S117" s="10"/>
-    </row>
-    <row r="118" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M118" s="10"/>
+      <c r="T117" s="10"/>
+    </row>
+    <row r="118" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N118" s="10"/>
       <c r="O118" s="10"/>
       <c r="P118" s="10"/>
       <c r="Q118" s="10"/>
       <c r="R118" s="10"/>
       <c r="S118" s="10"/>
-    </row>
-    <row r="119" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M119" s="10"/>
+      <c r="T118" s="10"/>
+    </row>
+    <row r="119" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N119" s="10"/>
       <c r="O119" s="10"/>
       <c r="P119" s="10"/>
       <c r="Q119" s="10"/>
       <c r="R119" s="10"/>
       <c r="S119" s="10"/>
-    </row>
-    <row r="120" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M120" s="10"/>
+      <c r="T119" s="10"/>
+    </row>
+    <row r="120" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N120" s="10"/>
       <c r="O120" s="10"/>
       <c r="P120" s="10"/>
       <c r="Q120" s="10"/>
       <c r="R120" s="10"/>
       <c r="S120" s="10"/>
-    </row>
-    <row r="121" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M121" s="10"/>
+      <c r="T120" s="10"/>
+    </row>
+    <row r="121" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N121" s="10"/>
       <c r="O121" s="10"/>
       <c r="P121" s="10"/>
       <c r="Q121" s="10"/>
       <c r="R121" s="10"/>
       <c r="S121" s="10"/>
-    </row>
-    <row r="122" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M122" s="10"/>
+      <c r="T121" s="10"/>
+    </row>
+    <row r="122" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N122" s="10"/>
       <c r="O122" s="10"/>
       <c r="P122" s="10"/>
       <c r="Q122" s="10"/>
       <c r="R122" s="10"/>
       <c r="S122" s="10"/>
-    </row>
-    <row r="123" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M123" s="10"/>
+      <c r="T122" s="10"/>
+    </row>
+    <row r="123" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N123" s="10"/>
       <c r="O123" s="10"/>
       <c r="P123" s="10"/>
       <c r="Q123" s="10"/>
       <c r="R123" s="10"/>
       <c r="S123" s="10"/>
-    </row>
-    <row r="124" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M124" s="10"/>
+      <c r="T123" s="10"/>
+    </row>
+    <row r="124" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N124" s="10"/>
       <c r="O124" s="10"/>
       <c r="P124" s="10"/>
       <c r="Q124" s="10"/>
       <c r="R124" s="10"/>
       <c r="S124" s="10"/>
-    </row>
-    <row r="125" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M125" s="10"/>
+      <c r="T124" s="10"/>
+    </row>
+    <row r="125" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N125" s="10"/>
       <c r="O125" s="10"/>
       <c r="P125" s="10"/>
       <c r="Q125" s="10"/>
       <c r="R125" s="10"/>
       <c r="S125" s="10"/>
-    </row>
-    <row r="126" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M126" s="10"/>
+      <c r="T125" s="10"/>
+    </row>
+    <row r="126" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N126" s="10"/>
       <c r="O126" s="10"/>
       <c r="P126" s="10"/>
       <c r="Q126" s="10"/>
       <c r="R126" s="10"/>
       <c r="S126" s="10"/>
-    </row>
-    <row r="127" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M127" s="10"/>
+      <c r="T126" s="10"/>
+    </row>
+    <row r="127" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N127" s="10"/>
       <c r="O127" s="10"/>
       <c r="P127" s="10"/>
       <c r="Q127" s="10"/>
       <c r="R127" s="10"/>
       <c r="S127" s="10"/>
-    </row>
-    <row r="128" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M128" s="10"/>
+      <c r="T127" s="10"/>
+    </row>
+    <row r="128" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N128" s="10"/>
       <c r="O128" s="10"/>
       <c r="P128" s="10"/>
       <c r="Q128" s="10"/>
       <c r="R128" s="10"/>
       <c r="S128" s="10"/>
-    </row>
-    <row r="129" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M129" s="10"/>
+      <c r="T128" s="10"/>
+    </row>
+    <row r="129" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N129" s="10"/>
       <c r="O129" s="10"/>
       <c r="P129" s="10"/>
       <c r="Q129" s="10"/>
       <c r="R129" s="10"/>
       <c r="S129" s="10"/>
-    </row>
-    <row r="130" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M130" s="10"/>
+      <c r="T129" s="10"/>
+    </row>
+    <row r="130" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N130" s="10"/>
       <c r="O130" s="10"/>
       <c r="P130" s="10"/>
       <c r="Q130" s="10"/>
       <c r="R130" s="10"/>
       <c r="S130" s="10"/>
-    </row>
-    <row r="131" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M131" s="10"/>
+      <c r="T130" s="10"/>
+    </row>
+    <row r="131" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N131" s="10"/>
       <c r="O131" s="10"/>
       <c r="P131" s="10"/>
       <c r="Q131" s="10"/>
       <c r="R131" s="10"/>
       <c r="S131" s="10"/>
-    </row>
-    <row r="132" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M132" s="10"/>
+      <c r="T131" s="10"/>
+    </row>
+    <row r="132" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N132" s="10"/>
       <c r="O132" s="10"/>
       <c r="P132" s="10"/>
       <c r="Q132" s="10"/>
       <c r="R132" s="10"/>
       <c r="S132" s="10"/>
-    </row>
-    <row r="133" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M133" s="10"/>
+      <c r="T132" s="10"/>
+    </row>
+    <row r="133" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N133" s="10"/>
       <c r="O133" s="10"/>
       <c r="P133" s="10"/>
       <c r="Q133" s="10"/>
       <c r="R133" s="10"/>
       <c r="S133" s="10"/>
-    </row>
-    <row r="134" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M134" s="10"/>
+      <c r="T133" s="10"/>
+    </row>
+    <row r="134" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N134" s="10"/>
       <c r="O134" s="10"/>
       <c r="P134" s="10"/>
       <c r="Q134" s="10"/>
       <c r="R134" s="10"/>
       <c r="S134" s="10"/>
-    </row>
-    <row r="135" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M135" s="10"/>
+      <c r="T134" s="10"/>
+    </row>
+    <row r="135" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N135" s="10"/>
       <c r="O135" s="10"/>
       <c r="P135" s="10"/>
       <c r="Q135" s="10"/>
       <c r="R135" s="10"/>
       <c r="S135" s="10"/>
-    </row>
-    <row r="136" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M136" s="10"/>
+      <c r="T135" s="10"/>
+    </row>
+    <row r="136" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N136" s="10"/>
       <c r="O136" s="10"/>
       <c r="P136" s="10"/>
       <c r="Q136" s="10"/>
       <c r="R136" s="10"/>
       <c r="S136" s="10"/>
-    </row>
-    <row r="137" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M137" s="10"/>
+      <c r="T136" s="10"/>
+    </row>
+    <row r="137" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N137" s="10"/>
       <c r="O137" s="10"/>
       <c r="P137" s="10"/>
       <c r="Q137" s="10"/>
       <c r="R137" s="10"/>
       <c r="S137" s="10"/>
-    </row>
-    <row r="138" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M138" s="10"/>
+      <c r="T137" s="10"/>
+    </row>
+    <row r="138" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N138" s="10"/>
       <c r="O138" s="10"/>
       <c r="P138" s="10"/>
       <c r="Q138" s="10"/>
       <c r="R138" s="10"/>
       <c r="S138" s="10"/>
-    </row>
-    <row r="139" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M139" s="10"/>
+      <c r="T138" s="10"/>
+    </row>
+    <row r="139" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N139" s="10"/>
       <c r="O139" s="10"/>
       <c r="P139" s="10"/>
       <c r="Q139" s="10"/>
       <c r="R139" s="10"/>
       <c r="S139" s="10"/>
-    </row>
-    <row r="140" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M140" s="10"/>
+      <c r="T139" s="10"/>
+    </row>
+    <row r="140" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N140" s="10"/>
       <c r="O140" s="10"/>
       <c r="P140" s="10"/>
       <c r="Q140" s="10"/>
       <c r="R140" s="10"/>
       <c r="S140" s="10"/>
-    </row>
-    <row r="141" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M141" s="10"/>
+      <c r="T140" s="10"/>
+    </row>
+    <row r="141" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N141" s="10"/>
       <c r="O141" s="10"/>
       <c r="P141" s="10"/>
       <c r="Q141" s="10"/>
       <c r="R141" s="10"/>
       <c r="S141" s="10"/>
-    </row>
-    <row r="142" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M142" s="10"/>
+      <c r="T141" s="10"/>
+    </row>
+    <row r="142" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N142" s="10"/>
       <c r="O142" s="10"/>
       <c r="P142" s="10"/>
       <c r="Q142" s="10"/>
       <c r="R142" s="10"/>
       <c r="S142" s="10"/>
-    </row>
-    <row r="143" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M143" s="10"/>
+      <c r="T142" s="10"/>
+    </row>
+    <row r="143" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N143" s="10"/>
       <c r="O143" s="10"/>
       <c r="P143" s="10"/>
       <c r="Q143" s="10"/>
       <c r="R143" s="10"/>
       <c r="S143" s="10"/>
-    </row>
-    <row r="144" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M144" s="10"/>
+      <c r="T143" s="10"/>
+    </row>
+    <row r="144" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N144" s="10"/>
       <c r="O144" s="10"/>
       <c r="P144" s="10"/>
       <c r="Q144" s="10"/>
       <c r="R144" s="10"/>
       <c r="S144" s="10"/>
-    </row>
-    <row r="145" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M145" s="10"/>
+      <c r="T144" s="10"/>
+    </row>
+    <row r="145" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N145" s="10"/>
       <c r="O145" s="10"/>
       <c r="P145" s="10"/>
       <c r="Q145" s="10"/>
       <c r="R145" s="10"/>
       <c r="S145" s="10"/>
-    </row>
-    <row r="146" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M146" s="10"/>
+      <c r="T145" s="10"/>
+    </row>
+    <row r="146" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N146" s="10"/>
       <c r="O146" s="10"/>
       <c r="P146" s="10"/>
       <c r="Q146" s="10"/>
       <c r="R146" s="10"/>
       <c r="S146" s="10"/>
-    </row>
-    <row r="147" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M147" s="10"/>
+      <c r="T146" s="10"/>
+    </row>
+    <row r="147" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N147" s="10"/>
       <c r="O147" s="10"/>
       <c r="P147" s="10"/>
       <c r="Q147" s="10"/>
       <c r="R147" s="10"/>
       <c r="S147" s="10"/>
-    </row>
-    <row r="148" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M148" s="10"/>
+      <c r="T147" s="10"/>
+    </row>
+    <row r="148" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N148" s="10"/>
       <c r="O148" s="10"/>
       <c r="P148" s="10"/>
       <c r="Q148" s="10"/>
       <c r="R148" s="10"/>
       <c r="S148" s="10"/>
-    </row>
-    <row r="149" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M149" s="10"/>
+      <c r="T148" s="10"/>
+    </row>
+    <row r="149" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N149" s="10"/>
       <c r="O149" s="10"/>
       <c r="P149" s="10"/>
       <c r="Q149" s="10"/>
       <c r="R149" s="10"/>
       <c r="S149" s="10"/>
-    </row>
-    <row r="150" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M150" s="10"/>
+      <c r="T149" s="10"/>
+    </row>
+    <row r="150" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N150" s="10"/>
       <c r="O150" s="10"/>
       <c r="P150" s="10"/>
       <c r="Q150" s="10"/>
       <c r="R150" s="10"/>
       <c r="S150" s="10"/>
-    </row>
-    <row r="151" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M151" s="10"/>
+      <c r="T150" s="10"/>
+    </row>
+    <row r="151" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N151" s="10"/>
       <c r="O151" s="10"/>
       <c r="P151" s="10"/>
       <c r="Q151" s="10"/>
       <c r="R151" s="10"/>
       <c r="S151" s="10"/>
-    </row>
-    <row r="152" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M152" s="10"/>
+      <c r="T151" s="10"/>
+    </row>
+    <row r="152" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N152" s="10"/>
       <c r="O152" s="10"/>
       <c r="P152" s="10"/>
       <c r="Q152" s="10"/>
       <c r="R152" s="10"/>
       <c r="S152" s="10"/>
-    </row>
-    <row r="153" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M153" s="10"/>
+      <c r="T152" s="10"/>
+    </row>
+    <row r="153" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N153" s="10"/>
       <c r="O153" s="10"/>
       <c r="P153" s="10"/>
       <c r="Q153" s="10"/>
       <c r="R153" s="10"/>
       <c r="S153" s="10"/>
-    </row>
-    <row r="154" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M154" s="10"/>
+      <c r="T153" s="10"/>
+    </row>
+    <row r="154" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N154" s="10"/>
       <c r="O154" s="10"/>
       <c r="P154" s="10"/>
       <c r="Q154" s="10"/>
       <c r="R154" s="10"/>
       <c r="S154" s="10"/>
-    </row>
-    <row r="155" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M155" s="10"/>
+      <c r="T154" s="10"/>
+    </row>
+    <row r="155" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N155" s="10"/>
       <c r="O155" s="10"/>
       <c r="P155" s="10"/>
       <c r="Q155" s="10"/>
       <c r="R155" s="10"/>
       <c r="S155" s="10"/>
-    </row>
-    <row r="156" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M156" s="10"/>
+      <c r="T155" s="10"/>
+    </row>
+    <row r="156" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N156" s="10"/>
       <c r="O156" s="10"/>
       <c r="P156" s="10"/>
       <c r="Q156" s="10"/>
       <c r="R156" s="10"/>
       <c r="S156" s="10"/>
-    </row>
-    <row r="157" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M157" s="10"/>
+      <c r="T156" s="10"/>
+    </row>
+    <row r="157" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N157" s="10"/>
       <c r="O157" s="10"/>
       <c r="P157" s="10"/>
       <c r="Q157" s="10"/>
       <c r="R157" s="10"/>
       <c r="S157" s="10"/>
-    </row>
-    <row r="158" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M158" s="10"/>
+      <c r="T157" s="10"/>
+    </row>
+    <row r="158" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N158" s="10"/>
       <c r="O158" s="10"/>
       <c r="P158" s="10"/>
       <c r="Q158" s="10"/>
       <c r="R158" s="10"/>
       <c r="S158" s="10"/>
-    </row>
-    <row r="159" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M159" s="10"/>
+      <c r="T158" s="10"/>
+    </row>
+    <row r="159" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N159" s="10"/>
       <c r="O159" s="10"/>
       <c r="P159" s="10"/>
       <c r="Q159" s="10"/>
       <c r="R159" s="10"/>
       <c r="S159" s="10"/>
-    </row>
-    <row r="160" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M160" s="10"/>
+      <c r="T159" s="10"/>
+    </row>
+    <row r="160" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N160" s="10"/>
       <c r="O160" s="10"/>
       <c r="P160" s="10"/>
       <c r="Q160" s="10"/>
       <c r="R160" s="10"/>
       <c r="S160" s="10"/>
-    </row>
-    <row r="161" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M161" s="10"/>
+      <c r="T160" s="10"/>
+    </row>
+    <row r="161" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N161" s="10"/>
       <c r="O161" s="10"/>
       <c r="P161" s="10"/>
       <c r="Q161" s="10"/>
       <c r="R161" s="10"/>
       <c r="S161" s="10"/>
-    </row>
-    <row r="162" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M162" s="10"/>
+      <c r="T161" s="10"/>
+    </row>
+    <row r="162" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N162" s="10"/>
       <c r="O162" s="10"/>
       <c r="P162" s="10"/>
       <c r="Q162" s="10"/>
       <c r="R162" s="10"/>
       <c r="S162" s="10"/>
-    </row>
-    <row r="163" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M163" s="10"/>
+      <c r="T162" s="10"/>
+    </row>
+    <row r="163" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N163" s="10"/>
       <c r="O163" s="10"/>
       <c r="P163" s="10"/>
       <c r="Q163" s="10"/>
       <c r="R163" s="10"/>
       <c r="S163" s="10"/>
-    </row>
-    <row r="164" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M164" s="10"/>
+      <c r="T163" s="10"/>
+    </row>
+    <row r="164" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N164" s="10"/>
       <c r="O164" s="10"/>
       <c r="P164" s="10"/>
       <c r="Q164" s="10"/>
       <c r="R164" s="10"/>
       <c r="S164" s="10"/>
-    </row>
-    <row r="165" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M165" s="10"/>
+      <c r="T164" s="10"/>
+    </row>
+    <row r="165" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N165" s="10"/>
       <c r="O165" s="10"/>
       <c r="P165" s="10"/>
       <c r="Q165" s="10"/>
       <c r="R165" s="10"/>
       <c r="S165" s="10"/>
-    </row>
-    <row r="166" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M166" s="10"/>
+      <c r="T165" s="10"/>
+    </row>
+    <row r="166" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N166" s="10"/>
       <c r="O166" s="10"/>
       <c r="P166" s="10"/>
       <c r="Q166" s="10"/>
       <c r="R166" s="10"/>
       <c r="S166" s="10"/>
-    </row>
-    <row r="167" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M167" s="10"/>
+      <c r="T166" s="10"/>
+    </row>
+    <row r="167" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N167" s="10"/>
       <c r="O167" s="10"/>
       <c r="P167" s="10"/>
       <c r="Q167" s="10"/>
       <c r="R167" s="10"/>
       <c r="S167" s="10"/>
-    </row>
-    <row r="168" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M168" s="10"/>
+      <c r="T167" s="10"/>
+    </row>
+    <row r="168" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N168" s="10"/>
       <c r="O168" s="10"/>
       <c r="P168" s="10"/>
       <c r="Q168" s="10"/>
       <c r="R168" s="10"/>
       <c r="S168" s="10"/>
-    </row>
-    <row r="169" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M169" s="10"/>
+      <c r="T168" s="10"/>
+    </row>
+    <row r="169" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N169" s="10"/>
       <c r="O169" s="10"/>
       <c r="P169" s="10"/>
       <c r="Q169" s="10"/>
       <c r="R169" s="10"/>
       <c r="S169" s="10"/>
-    </row>
-    <row r="170" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M170" s="10"/>
+      <c r="T169" s="10"/>
+    </row>
+    <row r="170" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N170" s="10"/>
       <c r="O170" s="10"/>
       <c r="P170" s="10"/>
       <c r="Q170" s="10"/>
       <c r="R170" s="10"/>
       <c r="S170" s="10"/>
-    </row>
-    <row r="171" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M171" s="10"/>
+      <c r="T170" s="10"/>
+    </row>
+    <row r="171" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N171" s="10"/>
       <c r="O171" s="10"/>
       <c r="P171" s="10"/>
       <c r="Q171" s="10"/>
       <c r="R171" s="10"/>
       <c r="S171" s="10"/>
-    </row>
-    <row r="172" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M172" s="10"/>
+      <c r="T171" s="10"/>
+    </row>
+    <row r="172" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N172" s="10"/>
       <c r="O172" s="10"/>
       <c r="P172" s="10"/>
       <c r="Q172" s="10"/>
       <c r="R172" s="10"/>
       <c r="S172" s="10"/>
-    </row>
-    <row r="173" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M173" s="10"/>
+      <c r="T172" s="10"/>
+    </row>
+    <row r="173" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N173" s="10"/>
       <c r="O173" s="10"/>
       <c r="P173" s="10"/>
       <c r="Q173" s="10"/>
       <c r="R173" s="10"/>
       <c r="S173" s="10"/>
-    </row>
-    <row r="174" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M174" s="10"/>
+      <c r="T173" s="10"/>
+    </row>
+    <row r="174" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N174" s="10"/>
       <c r="O174" s="10"/>
       <c r="P174" s="10"/>
       <c r="Q174" s="10"/>
       <c r="R174" s="10"/>
       <c r="S174" s="10"/>
-    </row>
-    <row r="175" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M175" s="10"/>
+      <c r="T174" s="10"/>
+    </row>
+    <row r="175" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N175" s="10"/>
       <c r="O175" s="10"/>
       <c r="P175" s="10"/>
       <c r="Q175" s="10"/>
       <c r="R175" s="10"/>
       <c r="S175" s="10"/>
-    </row>
-    <row r="176" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M176" s="10"/>
+      <c r="T175" s="10"/>
+    </row>
+    <row r="176" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N176" s="10"/>
       <c r="O176" s="10"/>
       <c r="P176" s="10"/>
       <c r="Q176" s="10"/>
       <c r="R176" s="10"/>
       <c r="S176" s="10"/>
-    </row>
-    <row r="177" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M177" s="10"/>
+      <c r="T176" s="10"/>
+    </row>
+    <row r="177" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N177" s="10"/>
       <c r="O177" s="10"/>
       <c r="P177" s="10"/>
       <c r="Q177" s="10"/>
       <c r="R177" s="10"/>
       <c r="S177" s="10"/>
-    </row>
-    <row r="178" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M178" s="10"/>
+      <c r="T177" s="10"/>
+    </row>
+    <row r="178" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N178" s="10"/>
       <c r="O178" s="10"/>
       <c r="P178" s="10"/>
       <c r="Q178" s="10"/>
       <c r="R178" s="10"/>
       <c r="S178" s="10"/>
-    </row>
-    <row r="179" spans="13:19" x14ac:dyDescent="0.3">
-      <c r="M179" s="10"/>
+      <c r="T178" s="10"/>
+    </row>
+    <row r="179" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N179" s="10"/>
       <c r="O179" s="10"/>
       <c r="P179" s="10"/>
       <c r="Q179" s="10"/>
       <c r="R179" s="10"/>
       <c r="S179" s="10"/>
+      <c r="T179" s="10"/>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1:T1048576" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U1:U1048576" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"Initial,Potential,Customer,Support,Upsells,Reject,Not-Contacted,Ex-Customer"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576" xr:uid="{00000000-0002-0000-0300-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>"Rahul Dutta,Sayan Basak,Anirban Chakraborty,Debashish Nath"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576" xr:uid="{00000000-0002-0000-0300-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K1048576" xr:uid="{00000000-0002-0000-0300-000002000000}">
       <formula1>"Technical,Non-Technical"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Offline/BusinessManagement/Marketing/AI marketing/AI Workshop Schools-Colleges.xlsx
+++ b/Offline/BusinessManagement/Marketing/AI marketing/AI Workshop Schools-Colleges.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Marketing\AI marketing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9152DADE-15E6-468B-86F6-0E6909B87A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A969643-5FBA-44F6-AE74-4D87ABA3BFF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="506" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="506" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="8" r:id="rId1"/>
@@ -2319,7 +2319,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M2" sqref="M2:Q2"/>
     </sheetView>
   </sheetViews>
@@ -8697,29 +8697,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:U179"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.88671875" style="38" customWidth="1"/>
     <col min="3" max="3" width="32.5546875" style="40" customWidth="1"/>
     <col min="4" max="4" width="15.5546875" style="39" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="40" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="16" style="40" customWidth="1"/>
-    <col min="9" max="11" width="11" style="1" customWidth="1"/>
+    <col min="9" max="10" width="11" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.6640625" style="40" customWidth="1"/>
     <col min="13" max="13" width="13.33203125" style="1" customWidth="1"/>
     <col min="14" max="14" width="18.44140625" style="1" customWidth="1"/>
     <col min="15" max="15" width="9.109375" style="1"/>
-    <col min="16" max="16" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="20" width="9.109375" style="1"/>
-    <col min="21" max="21" width="19" style="1" customWidth="1"/>
+    <col min="21" max="21" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>1</v>
       </c>

--- a/Offline/BusinessManagement/Marketing/AI marketing/AI Workshop Schools-Colleges.xlsx
+++ b/Offline/BusinessManagement/Marketing/AI marketing/AI Workshop Schools-Colleges.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Marketing\AI marketing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A969643-5FBA-44F6-AE74-4D87ABA3BFF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47DEF765-53A1-4A71-A00C-A39B64B4811D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="506" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="506" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="8" r:id="rId1"/>
@@ -2475,7 +2475,7 @@
       </c>
       <c r="D7" s="53">
         <f ca="1">TODAY()</f>
-        <v>45303</v>
+        <v>45306</v>
       </c>
       <c r="F7" s="14" t="s">
         <v>268</v>
@@ -2509,7 +2509,7 @@
       </c>
       <c r="D8" s="54">
         <f ca="1">ROUND(D11/(D7-D6+1),0)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F8" s="14" t="s">
         <v>283</v>
@@ -2549,7 +2549,7 @@
       </c>
       <c r="M9" s="53">
         <f ca="1">TODAY()</f>
-        <v>45303</v>
+        <v>45306</v>
       </c>
       <c r="O9" s="16" t="s">
         <v>244</v>
@@ -3286,8 +3286,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:U126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="I114" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="U126" sqref="U126"/>
@@ -3378,7 +3378,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -8697,7 +8697,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:U179"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -10319,7 +10319,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -10574,7 +10574,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="46" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -10700,7 +10700,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -10745,7 +10745,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="50" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -10829,7 +10829,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="52" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -10913,7 +10913,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="54" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>53</v>
       </c>

--- a/Offline/BusinessManagement/Marketing/AI marketing/AI Workshop Schools-Colleges.xlsx
+++ b/Offline/BusinessManagement/Marketing/AI marketing/AI Workshop Schools-Colleges.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Marketing\AI marketing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A969643-5FBA-44F6-AE74-4D87ABA3BFF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766F8ED7-9C84-4698-B2DF-7408A3192036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="506" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="506" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="8" r:id="rId1"/>
@@ -23,19 +23,10 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'School-Details'!$A$1:$U$124</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -2320,28 +2311,28 @@
   <dimension ref="B1:R33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:Q2"/>
+      <selection activeCell="C13" sqref="C13:D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="3" max="3" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.53125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.53125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.86328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="2.6640625" customWidth="1"/>
-    <col min="10" max="10" width="4.109375" customWidth="1"/>
+    <col min="10" max="10" width="4.1328125" customWidth="1"/>
     <col min="12" max="12" width="22" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.86328125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:18" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="2:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:18" ht="33.75" thickBot="1" x14ac:dyDescent="1.05">
       <c r="B2" s="27"/>
       <c r="C2" s="28"/>
       <c r="D2" s="63" t="s">
@@ -2363,13 +2354,13 @@
       <c r="Q2" s="68"/>
       <c r="R2" s="29"/>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B3" s="30"/>
       <c r="I3" s="31"/>
       <c r="K3" s="30"/>
       <c r="R3" s="31"/>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B4" s="30"/>
       <c r="C4" s="16" t="s">
         <v>245</v>
@@ -2401,7 +2392,7 @@
       </c>
       <c r="R4" s="31"/>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B5" s="30"/>
       <c r="C5" s="16" t="s">
         <v>246</v>
@@ -2435,7 +2426,7 @@
       </c>
       <c r="R5" s="31"/>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B6" s="30"/>
       <c r="C6" s="16" t="s">
         <v>437</v>
@@ -2468,14 +2459,14 @@
       </c>
       <c r="R6" s="31"/>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B7" s="30"/>
       <c r="C7" s="16" t="s">
         <v>439</v>
       </c>
       <c r="D7" s="53">
         <f ca="1">TODAY()</f>
-        <v>45303</v>
+        <v>45306</v>
       </c>
       <c r="F7" s="14" t="s">
         <v>268</v>
@@ -2502,14 +2493,14 @@
       </c>
       <c r="R7" s="31"/>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B8" s="30"/>
       <c r="C8" s="16" t="s">
         <v>438</v>
       </c>
       <c r="D8" s="54">
         <f ca="1">ROUND(D11/(D7-D6+1),0)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F8" s="14" t="s">
         <v>283</v>
@@ -2533,7 +2524,7 @@
       </c>
       <c r="R8" s="31"/>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B9" s="30"/>
       <c r="F9" s="16" t="s">
         <v>244</v>
@@ -2549,7 +2540,7 @@
       </c>
       <c r="M9" s="53">
         <f ca="1">TODAY()</f>
-        <v>45303</v>
+        <v>45306</v>
       </c>
       <c r="O9" s="16" t="s">
         <v>244</v>
@@ -2560,7 +2551,7 @@
       </c>
       <c r="R9" s="31"/>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B10" s="30"/>
       <c r="C10" s="21" t="s">
         <v>247</v>
@@ -2579,7 +2570,7 @@
       </c>
       <c r="R10" s="31"/>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B11" s="30"/>
       <c r="C11" s="14" t="s">
         <v>251</v>
@@ -2602,7 +2593,7 @@
       <c r="Q11" s="62"/>
       <c r="R11" s="31"/>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B12" s="30"/>
       <c r="C12" s="14" t="s">
         <v>253</v>
@@ -2639,7 +2630,7 @@
       </c>
       <c r="R12" s="31"/>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B13" s="30"/>
       <c r="C13" s="14" t="s">
         <v>255</v>
@@ -2677,7 +2668,7 @@
       </c>
       <c r="R13" s="31"/>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B14" s="30"/>
       <c r="C14" s="14" t="s">
         <v>257</v>
@@ -2715,7 +2706,7 @@
       </c>
       <c r="R14" s="31"/>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B15" s="30"/>
       <c r="C15" s="14" t="s">
         <v>259</v>
@@ -2753,7 +2744,7 @@
       </c>
       <c r="R15" s="31"/>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B16" s="30"/>
       <c r="C16" s="14" t="s">
         <v>261</v>
@@ -2791,7 +2782,7 @@
       </c>
       <c r="R16" s="31"/>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B17" s="30"/>
       <c r="C17" s="14" t="s">
         <v>263</v>
@@ -2829,7 +2820,7 @@
       </c>
       <c r="R17" s="31"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B18" s="30"/>
       <c r="C18" s="14" t="s">
         <v>279</v>
@@ -2867,7 +2858,7 @@
       </c>
       <c r="R18" s="31"/>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B19" s="30"/>
       <c r="C19" s="16" t="s">
         <v>244</v>
@@ -2905,7 +2896,7 @@
       </c>
       <c r="R19" s="31"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B20" s="30"/>
       <c r="F20" s="22">
         <v>45505</v>
@@ -2936,7 +2927,7 @@
       </c>
       <c r="R20" s="31"/>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B21" s="32"/>
       <c r="C21" s="21" t="s">
         <v>274</v>
@@ -2973,7 +2964,7 @@
       </c>
       <c r="R21" s="31"/>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B22" s="33" t="s">
         <v>272</v>
       </c>
@@ -3006,7 +2997,7 @@
       </c>
       <c r="R22" s="31"/>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B23" s="33"/>
       <c r="C23" s="14">
         <v>4</v>
@@ -3043,7 +3034,7 @@
       </c>
       <c r="R23" s="31"/>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B24" s="33"/>
       <c r="C24" s="14" t="s">
         <v>275</v>
@@ -3083,7 +3074,7 @@
       </c>
       <c r="R24" s="31"/>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B25" s="33" t="s">
         <v>278</v>
       </c>
@@ -3127,7 +3118,7 @@
       </c>
       <c r="R25" s="31"/>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B26" s="33"/>
       <c r="C26" s="14" t="s">
         <v>277</v>
@@ -3147,7 +3138,7 @@
       </c>
       <c r="R26" s="31"/>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B27" s="33" t="s">
         <v>273</v>
       </c>
@@ -3171,7 +3162,7 @@
       </c>
       <c r="R27" s="31"/>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B28" s="33"/>
       <c r="C28" s="14">
         <v>1</v>
@@ -3191,7 +3182,7 @@
       </c>
       <c r="R28" s="31"/>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B29" s="33"/>
       <c r="C29" s="14" t="s">
         <v>276</v>
@@ -3213,7 +3204,7 @@
       </c>
       <c r="R29" s="31"/>
     </row>
-    <row r="30" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B30" s="55"/>
       <c r="C30" s="56" t="s">
         <v>244</v>
@@ -3237,7 +3228,7 @@
       </c>
       <c r="R30" s="31"/>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.45">
       <c r="K31" s="33"/>
       <c r="L31" s="14" t="s">
         <v>373</v>
@@ -3248,7 +3239,7 @@
       </c>
       <c r="R31" s="31"/>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.45">
       <c r="K32" s="33"/>
       <c r="L32" s="16" t="s">
         <v>244</v>
@@ -3259,7 +3250,7 @@
       </c>
       <c r="R32" s="31"/>
     </row>
-    <row r="33" spans="11:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="11:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="K33" s="34"/>
       <c r="L33" s="35"/>
       <c r="M33" s="35"/>
@@ -3286,34 +3277,34 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:U126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="I114" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U126" sqref="U126"/>
+      <selection pane="bottomRight" activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="6.6640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="25.6640625" style="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.21875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.46484375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.19921875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.46484375" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" style="40" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="16" style="1" customWidth="1"/>
     <col min="10" max="11" width="11" style="1" customWidth="1"/>
     <col min="12" max="12" width="19.6640625" style="1" customWidth="1"/>
     <col min="13" max="13" width="13.33203125" style="1" customWidth="1"/>
     <col min="14" max="14" width="14" style="1" customWidth="1"/>
-    <col min="15" max="20" width="9.109375" style="1"/>
-    <col min="21" max="21" width="20.5546875" style="10" customWidth="1"/>
+    <col min="15" max="20" width="9.1328125" style="1"/>
+    <col min="21" max="21" width="20.53125" style="10" customWidth="1"/>
     <col min="22" max="22" width="13.6640625" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.109375" style="1"/>
+    <col min="23" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A1" s="18" t="s">
         <v>1</v>
       </c>
@@ -3378,7 +3369,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -3424,7 +3415,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -3464,7 +3455,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -3507,7 +3498,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -3547,7 +3538,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -3587,7 +3578,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -3627,7 +3618,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -3664,7 +3655,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -3704,7 +3695,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -3744,7 +3735,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -3784,7 +3775,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -3824,7 +3815,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -3864,7 +3855,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -3904,7 +3895,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -3944,7 +3935,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -3984,7 +3975,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -4024,7 +4015,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -4064,7 +4055,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="19" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -4101,7 +4092,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -4141,7 +4132,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -4185,7 +4176,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -4229,7 +4220,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -4272,7 +4263,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -4319,7 +4310,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -4363,7 +4354,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -4407,7 +4398,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -4451,7 +4442,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -4503,7 +4494,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -4543,7 +4534,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -4587,7 +4578,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -4631,7 +4622,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -4675,7 +4666,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -4719,7 +4710,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -4759,7 +4750,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="35" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -4806,7 +4797,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -4849,7 +4840,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -4893,7 +4884,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -4933,7 +4924,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -4973,7 +4964,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -5013,7 +5004,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -5057,7 +5048,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -5101,7 +5092,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -5145,7 +5136,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -5185,7 +5176,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -5225,7 +5216,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -5265,7 +5256,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="47" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -5309,7 +5300,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -5353,7 +5344,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -5397,7 +5388,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="50" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -5440,7 +5431,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -5484,7 +5475,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -5528,7 +5519,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -5572,7 +5563,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="54" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -5616,7 +5607,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="55" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -5660,7 +5651,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="56" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -5704,7 +5695,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -5748,7 +5739,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -5792,7 +5783,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -5836,7 +5827,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="60" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -5880,7 +5871,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="61" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -5924,7 +5915,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="62" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -5968,7 +5959,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="63" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -6012,7 +6003,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -6056,7 +6047,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="65" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -6100,7 +6091,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -6144,7 +6135,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -6188,7 +6179,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -6232,7 +6223,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="69" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -6276,7 +6267,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="70" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -6320,7 +6311,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="71" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -6364,7 +6355,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -6408,7 +6399,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="73" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -6452,7 +6443,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -6492,7 +6483,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -6536,7 +6527,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -6576,7 +6567,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -6613,7 +6604,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="78" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -6657,7 +6648,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="79" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -6701,7 +6692,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="80" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -6745,7 +6736,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="81" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -6789,7 +6780,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="82" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -6829,7 +6820,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="83" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -6869,7 +6860,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="84" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -6909,7 +6900,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="85" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -6953,7 +6944,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -6993,7 +6984,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -7033,7 +7024,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -7077,7 +7068,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -7121,7 +7112,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -7161,7 +7152,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="91" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -7205,7 +7196,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -7245,7 +7236,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -7285,7 +7276,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -7325,7 +7316,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -7365,7 +7356,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -7405,7 +7396,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -7445,7 +7436,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A98" s="2">
         <v>97</v>
       </c>
@@ -7485,7 +7476,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A99" s="2">
         <v>98</v>
       </c>
@@ -7525,7 +7516,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -7565,7 +7556,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A101" s="2">
         <v>100</v>
       </c>
@@ -7605,7 +7596,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="102" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A102" s="2">
         <v>101</v>
       </c>
@@ -7645,7 +7636,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A103" s="2">
         <v>102</v>
       </c>
@@ -7685,7 +7676,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A104" s="2">
         <v>103</v>
       </c>
@@ -7725,7 +7716,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A105" s="2">
         <v>104</v>
       </c>
@@ -7765,7 +7756,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A106" s="2">
         <v>105</v>
       </c>
@@ -7805,7 +7796,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="107" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A107" s="2">
         <v>106</v>
       </c>
@@ -7845,7 +7836,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A108" s="2">
         <v>107</v>
       </c>
@@ -7885,7 +7876,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="109" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A109" s="2">
         <v>108</v>
       </c>
@@ -7925,7 +7916,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A110" s="2">
         <v>109</v>
       </c>
@@ -7965,7 +7956,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A111" s="2">
         <v>110</v>
       </c>
@@ -8005,7 +7996,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A112" s="2">
         <v>111</v>
       </c>
@@ -8045,7 +8036,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A113" s="2">
         <v>112</v>
       </c>
@@ -8085,7 +8076,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A114" s="2">
         <v>113</v>
       </c>
@@ -8125,7 +8116,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A115" s="2">
         <v>114</v>
       </c>
@@ -8165,7 +8156,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A116" s="2">
         <v>115</v>
       </c>
@@ -8205,7 +8196,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A117" s="2">
         <v>116</v>
       </c>
@@ -8245,7 +8236,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A118" s="2">
         <v>117</v>
       </c>
@@ -8285,7 +8276,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A119" s="2">
         <v>118</v>
       </c>
@@ -8325,7 +8316,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="120" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A120" s="2">
         <v>119</v>
       </c>
@@ -8365,7 +8356,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A121" s="2">
         <v>120</v>
       </c>
@@ -8405,7 +8396,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A122" s="2">
         <v>121</v>
       </c>
@@ -8445,7 +8436,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="123" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:21" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A123" s="2">
         <v>122</v>
       </c>
@@ -8488,7 +8479,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="124" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:21" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A124" s="2">
         <v>123</v>
       </c>
@@ -8531,7 +8522,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="125" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A125" s="2">
         <v>124</v>
       </c>
@@ -8574,7 +8565,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A126" s="2">
         <v>125</v>
       </c>
@@ -8697,30 +8688,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:U179"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.88671875" style="38" customWidth="1"/>
-    <col min="3" max="3" width="32.5546875" style="40" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="39" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.86328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.86328125" style="38" customWidth="1"/>
+    <col min="3" max="3" width="32.53125" style="40" customWidth="1"/>
+    <col min="4" max="4" width="15.53125" style="39" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="40" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="16" style="40" customWidth="1"/>
     <col min="9" max="10" width="11" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.6640625" style="40" customWidth="1"/>
     <col min="13" max="13" width="13.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="18.44140625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9.109375" style="1"/>
-    <col min="16" max="16" width="16.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="9.109375" style="1"/>
+    <col min="14" max="14" width="18.46484375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.1328125" style="1"/>
+    <col min="16" max="16" width="16.53125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="9.1328125" style="1"/>
     <col min="21" max="21" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="30.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="18" t="s">
         <v>1</v>
       </c>
@@ -8785,7 +8776,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A2" s="38">
         <v>1</v>
       </c>
@@ -8830,7 +8821,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -8872,7 +8863,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -8914,7 +8905,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -8956,7 +8947,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="57" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -8998,7 +8989,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -9040,7 +9031,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -9082,7 +9073,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -9121,7 +9112,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -9160,7 +9151,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -9200,7 +9191,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -9239,7 +9230,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -9278,7 +9269,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -9317,7 +9308,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -9356,7 +9347,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -9395,7 +9386,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -9434,7 +9425,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -9473,7 +9464,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -9512,7 +9503,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -9552,7 +9543,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -9592,7 +9583,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -9631,7 +9622,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -9671,7 +9662,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -9711,7 +9702,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -9751,7 +9742,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -9791,7 +9782,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -9830,7 +9821,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -9869,7 +9860,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -9909,7 +9900,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -9949,7 +9940,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -9989,7 +9980,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -10028,7 +10019,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -10067,7 +10058,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -10106,7 +10097,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -10145,7 +10136,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -10190,7 +10181,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -10235,7 +10226,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -10277,7 +10268,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -10319,7 +10310,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -10361,7 +10352,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -10403,7 +10394,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="42" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -10445,7 +10436,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -10490,7 +10481,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -10532,7 +10523,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -10574,7 +10565,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="46" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -10616,7 +10607,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="47" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -10658,7 +10649,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="48" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -10700,7 +10691,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:21" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -10745,7 +10736,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="50" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -10787,7 +10778,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="51" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:21" ht="57" x14ac:dyDescent="0.45">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -10829,7 +10820,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="52" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -10871,7 +10862,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="53" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -10913,7 +10904,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="54" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -10955,7 +10946,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.45">
       <c r="N55" s="10"/>
       <c r="O55" s="10"/>
       <c r="P55" s="10"/>
@@ -10964,7 +10955,7 @@
       <c r="S55" s="10"/>
       <c r="T55" s="10"/>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.45">
       <c r="N56" s="10"/>
       <c r="O56" s="10"/>
       <c r="P56" s="10"/>
@@ -10973,7 +10964,7 @@
       <c r="S56" s="10"/>
       <c r="T56" s="10"/>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.45">
       <c r="N57" s="10"/>
       <c r="O57" s="10"/>
       <c r="P57" s="10"/>
@@ -10982,7 +10973,7 @@
       <c r="S57" s="10"/>
       <c r="T57" s="10"/>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.45">
       <c r="N58" s="10"/>
       <c r="O58" s="10"/>
       <c r="P58" s="10"/>
@@ -10991,7 +10982,7 @@
       <c r="S58" s="10"/>
       <c r="T58" s="10"/>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.45">
       <c r="N59" s="10"/>
       <c r="O59" s="10"/>
       <c r="P59" s="10"/>
@@ -11000,7 +10991,7 @@
       <c r="S59" s="10"/>
       <c r="T59" s="10"/>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.45">
       <c r="N60" s="10"/>
       <c r="O60" s="10"/>
       <c r="P60" s="10"/>
@@ -11009,7 +11000,7 @@
       <c r="S60" s="10"/>
       <c r="T60" s="10"/>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.45">
       <c r="N61" s="10"/>
       <c r="O61" s="10"/>
       <c r="P61" s="10"/>
@@ -11018,7 +11009,7 @@
       <c r="S61" s="10"/>
       <c r="T61" s="10"/>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.45">
       <c r="N62" s="10"/>
       <c r="O62" s="10"/>
       <c r="P62" s="10"/>
@@ -11027,7 +11018,7 @@
       <c r="S62" s="10"/>
       <c r="T62" s="10"/>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.45">
       <c r="N63" s="10"/>
       <c r="O63" s="10"/>
       <c r="P63" s="10"/>
@@ -11036,7 +11027,7 @@
       <c r="S63" s="10"/>
       <c r="T63" s="10"/>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.45">
       <c r="N64" s="10"/>
       <c r="O64" s="10"/>
       <c r="P64" s="10"/>
@@ -11045,7 +11036,7 @@
       <c r="S64" s="10"/>
       <c r="T64" s="10"/>
     </row>
-    <row r="65" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="65" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N65" s="10"/>
       <c r="O65" s="10"/>
       <c r="P65" s="10"/>
@@ -11054,7 +11045,7 @@
       <c r="S65" s="10"/>
       <c r="T65" s="10"/>
     </row>
-    <row r="66" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="66" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N66" s="10"/>
       <c r="O66" s="10"/>
       <c r="P66" s="10"/>
@@ -11063,7 +11054,7 @@
       <c r="S66" s="10"/>
       <c r="T66" s="10"/>
     </row>
-    <row r="67" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="67" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N67" s="10"/>
       <c r="O67" s="10"/>
       <c r="P67" s="10"/>
@@ -11072,7 +11063,7 @@
       <c r="S67" s="10"/>
       <c r="T67" s="10"/>
     </row>
-    <row r="68" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="68" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N68" s="10"/>
       <c r="O68" s="10"/>
       <c r="P68" s="10"/>
@@ -11081,7 +11072,7 @@
       <c r="S68" s="10"/>
       <c r="T68" s="10"/>
     </row>
-    <row r="69" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="69" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N69" s="10"/>
       <c r="O69" s="10"/>
       <c r="P69" s="10"/>
@@ -11090,7 +11081,7 @@
       <c r="S69" s="10"/>
       <c r="T69" s="10"/>
     </row>
-    <row r="70" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="70" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N70" s="10"/>
       <c r="O70" s="10"/>
       <c r="P70" s="10"/>
@@ -11099,7 +11090,7 @@
       <c r="S70" s="10"/>
       <c r="T70" s="10"/>
     </row>
-    <row r="71" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="71" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N71" s="10"/>
       <c r="O71" s="10"/>
       <c r="P71" s="10"/>
@@ -11108,7 +11099,7 @@
       <c r="S71" s="10"/>
       <c r="T71" s="10"/>
     </row>
-    <row r="72" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="72" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N72" s="10"/>
       <c r="O72" s="10"/>
       <c r="P72" s="10"/>
@@ -11117,7 +11108,7 @@
       <c r="S72" s="10"/>
       <c r="T72" s="10"/>
     </row>
-    <row r="73" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="73" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N73" s="10"/>
       <c r="O73" s="10"/>
       <c r="P73" s="10"/>
@@ -11126,7 +11117,7 @@
       <c r="S73" s="10"/>
       <c r="T73" s="10"/>
     </row>
-    <row r="74" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="74" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N74" s="10"/>
       <c r="O74" s="10"/>
       <c r="P74" s="10"/>
@@ -11135,7 +11126,7 @@
       <c r="S74" s="10"/>
       <c r="T74" s="10"/>
     </row>
-    <row r="75" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="75" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N75" s="10"/>
       <c r="O75" s="10"/>
       <c r="P75" s="10"/>
@@ -11144,7 +11135,7 @@
       <c r="S75" s="10"/>
       <c r="T75" s="10"/>
     </row>
-    <row r="76" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="76" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N76" s="10"/>
       <c r="O76" s="10"/>
       <c r="P76" s="10"/>
@@ -11153,7 +11144,7 @@
       <c r="S76" s="10"/>
       <c r="T76" s="10"/>
     </row>
-    <row r="77" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="77" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N77" s="10"/>
       <c r="O77" s="10"/>
       <c r="P77" s="10"/>
@@ -11162,7 +11153,7 @@
       <c r="S77" s="10"/>
       <c r="T77" s="10"/>
     </row>
-    <row r="78" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="78" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N78" s="10"/>
       <c r="O78" s="10"/>
       <c r="P78" s="10"/>
@@ -11171,7 +11162,7 @@
       <c r="S78" s="10"/>
       <c r="T78" s="10"/>
     </row>
-    <row r="79" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="79" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N79" s="10"/>
       <c r="O79" s="10"/>
       <c r="P79" s="10"/>
@@ -11180,7 +11171,7 @@
       <c r="S79" s="10"/>
       <c r="T79" s="10"/>
     </row>
-    <row r="80" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="80" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N80" s="10"/>
       <c r="O80" s="10"/>
       <c r="P80" s="10"/>
@@ -11189,7 +11180,7 @@
       <c r="S80" s="10"/>
       <c r="T80" s="10"/>
     </row>
-    <row r="81" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="81" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N81" s="10"/>
       <c r="O81" s="10"/>
       <c r="P81" s="10"/>
@@ -11198,7 +11189,7 @@
       <c r="S81" s="10"/>
       <c r="T81" s="10"/>
     </row>
-    <row r="82" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="82" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N82" s="10"/>
       <c r="O82" s="10"/>
       <c r="P82" s="10"/>
@@ -11207,7 +11198,7 @@
       <c r="S82" s="10"/>
       <c r="T82" s="10"/>
     </row>
-    <row r="83" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="83" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N83" s="10"/>
       <c r="O83" s="10"/>
       <c r="P83" s="10"/>
@@ -11216,7 +11207,7 @@
       <c r="S83" s="10"/>
       <c r="T83" s="10"/>
     </row>
-    <row r="84" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="84" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N84" s="10"/>
       <c r="O84" s="10"/>
       <c r="P84" s="10"/>
@@ -11225,7 +11216,7 @@
       <c r="S84" s="10"/>
       <c r="T84" s="10"/>
     </row>
-    <row r="85" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="85" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N85" s="10"/>
       <c r="O85" s="10"/>
       <c r="P85" s="10"/>
@@ -11234,7 +11225,7 @@
       <c r="S85" s="10"/>
       <c r="T85" s="10"/>
     </row>
-    <row r="86" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="86" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N86" s="10"/>
       <c r="O86" s="10"/>
       <c r="P86" s="10"/>
@@ -11243,7 +11234,7 @@
       <c r="S86" s="10"/>
       <c r="T86" s="10"/>
     </row>
-    <row r="87" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="87" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N87" s="10"/>
       <c r="O87" s="10"/>
       <c r="P87" s="10"/>
@@ -11252,7 +11243,7 @@
       <c r="S87" s="10"/>
       <c r="T87" s="10"/>
     </row>
-    <row r="88" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="88" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N88" s="10"/>
       <c r="O88" s="10"/>
       <c r="P88" s="10"/>
@@ -11261,7 +11252,7 @@
       <c r="S88" s="10"/>
       <c r="T88" s="10"/>
     </row>
-    <row r="89" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="89" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N89" s="10"/>
       <c r="O89" s="10"/>
       <c r="P89" s="10"/>
@@ -11270,7 +11261,7 @@
       <c r="S89" s="10"/>
       <c r="T89" s="10"/>
     </row>
-    <row r="90" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="90" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N90" s="10"/>
       <c r="O90" s="10"/>
       <c r="P90" s="10"/>
@@ -11279,7 +11270,7 @@
       <c r="S90" s="10"/>
       <c r="T90" s="10"/>
     </row>
-    <row r="91" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="91" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N91" s="10"/>
       <c r="O91" s="10"/>
       <c r="P91" s="10"/>
@@ -11288,7 +11279,7 @@
       <c r="S91" s="10"/>
       <c r="T91" s="10"/>
     </row>
-    <row r="92" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="92" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N92" s="10"/>
       <c r="O92" s="10"/>
       <c r="P92" s="10"/>
@@ -11297,7 +11288,7 @@
       <c r="S92" s="10"/>
       <c r="T92" s="10"/>
     </row>
-    <row r="93" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="93" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N93" s="10"/>
       <c r="O93" s="10"/>
       <c r="P93" s="10"/>
@@ -11306,7 +11297,7 @@
       <c r="S93" s="10"/>
       <c r="T93" s="10"/>
     </row>
-    <row r="94" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="94" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N94" s="10"/>
       <c r="O94" s="10"/>
       <c r="P94" s="10"/>
@@ -11315,7 +11306,7 @@
       <c r="S94" s="10"/>
       <c r="T94" s="10"/>
     </row>
-    <row r="95" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="95" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N95" s="10"/>
       <c r="O95" s="10"/>
       <c r="P95" s="10"/>
@@ -11324,7 +11315,7 @@
       <c r="S95" s="10"/>
       <c r="T95" s="10"/>
     </row>
-    <row r="96" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="96" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N96" s="10"/>
       <c r="O96" s="10"/>
       <c r="P96" s="10"/>
@@ -11333,7 +11324,7 @@
       <c r="S96" s="10"/>
       <c r="T96" s="10"/>
     </row>
-    <row r="97" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="97" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N97" s="10"/>
       <c r="O97" s="10"/>
       <c r="P97" s="10"/>
@@ -11342,7 +11333,7 @@
       <c r="S97" s="10"/>
       <c r="T97" s="10"/>
     </row>
-    <row r="98" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="98" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N98" s="10"/>
       <c r="O98" s="10"/>
       <c r="P98" s="10"/>
@@ -11351,7 +11342,7 @@
       <c r="S98" s="10"/>
       <c r="T98" s="10"/>
     </row>
-    <row r="99" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="99" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N99" s="10"/>
       <c r="O99" s="10"/>
       <c r="P99" s="10"/>
@@ -11360,7 +11351,7 @@
       <c r="S99" s="10"/>
       <c r="T99" s="10"/>
     </row>
-    <row r="100" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="100" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N100" s="10"/>
       <c r="O100" s="10"/>
       <c r="P100" s="10"/>
@@ -11369,7 +11360,7 @@
       <c r="S100" s="10"/>
       <c r="T100" s="10"/>
     </row>
-    <row r="101" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="101" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N101" s="10"/>
       <c r="O101" s="10"/>
       <c r="P101" s="10"/>
@@ -11378,7 +11369,7 @@
       <c r="S101" s="10"/>
       <c r="T101" s="10"/>
     </row>
-    <row r="102" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="102" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N102" s="10"/>
       <c r="O102" s="10"/>
       <c r="P102" s="10"/>
@@ -11387,7 +11378,7 @@
       <c r="S102" s="10"/>
       <c r="T102" s="10"/>
     </row>
-    <row r="103" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="103" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N103" s="10"/>
       <c r="O103" s="10"/>
       <c r="P103" s="10"/>
@@ -11396,7 +11387,7 @@
       <c r="S103" s="10"/>
       <c r="T103" s="10"/>
     </row>
-    <row r="104" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="104" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N104" s="10"/>
       <c r="O104" s="10"/>
       <c r="P104" s="10"/>
@@ -11405,7 +11396,7 @@
       <c r="S104" s="10"/>
       <c r="T104" s="10"/>
     </row>
-    <row r="105" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="105" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N105" s="10"/>
       <c r="O105" s="10"/>
       <c r="P105" s="10"/>
@@ -11414,7 +11405,7 @@
       <c r="S105" s="10"/>
       <c r="T105" s="10"/>
     </row>
-    <row r="106" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="106" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N106" s="10"/>
       <c r="O106" s="10"/>
       <c r="P106" s="10"/>
@@ -11423,7 +11414,7 @@
       <c r="S106" s="10"/>
       <c r="T106" s="10"/>
     </row>
-    <row r="107" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="107" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N107" s="10"/>
       <c r="O107" s="10"/>
       <c r="P107" s="10"/>
@@ -11432,7 +11423,7 @@
       <c r="S107" s="10"/>
       <c r="T107" s="10"/>
     </row>
-    <row r="108" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="108" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N108" s="10"/>
       <c r="O108" s="10"/>
       <c r="P108" s="10"/>
@@ -11441,7 +11432,7 @@
       <c r="S108" s="10"/>
       <c r="T108" s="10"/>
     </row>
-    <row r="109" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="109" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N109" s="10"/>
       <c r="O109" s="10"/>
       <c r="P109" s="10"/>
@@ -11450,7 +11441,7 @@
       <c r="S109" s="10"/>
       <c r="T109" s="10"/>
     </row>
-    <row r="110" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="110" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N110" s="10"/>
       <c r="O110" s="10"/>
       <c r="P110" s="10"/>
@@ -11459,7 +11450,7 @@
       <c r="S110" s="10"/>
       <c r="T110" s="10"/>
     </row>
-    <row r="111" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="111" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N111" s="10"/>
       <c r="O111" s="10"/>
       <c r="P111" s="10"/>
@@ -11468,7 +11459,7 @@
       <c r="S111" s="10"/>
       <c r="T111" s="10"/>
     </row>
-    <row r="112" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="112" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N112" s="10"/>
       <c r="O112" s="10"/>
       <c r="P112" s="10"/>
@@ -11477,7 +11468,7 @@
       <c r="S112" s="10"/>
       <c r="T112" s="10"/>
     </row>
-    <row r="113" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="113" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N113" s="10"/>
       <c r="O113" s="10"/>
       <c r="P113" s="10"/>
@@ -11486,7 +11477,7 @@
       <c r="S113" s="10"/>
       <c r="T113" s="10"/>
     </row>
-    <row r="114" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="114" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N114" s="10"/>
       <c r="O114" s="10"/>
       <c r="P114" s="10"/>
@@ -11495,7 +11486,7 @@
       <c r="S114" s="10"/>
       <c r="T114" s="10"/>
     </row>
-    <row r="115" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="115" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N115" s="10"/>
       <c r="O115" s="10"/>
       <c r="P115" s="10"/>
@@ -11504,7 +11495,7 @@
       <c r="S115" s="10"/>
       <c r="T115" s="10"/>
     </row>
-    <row r="116" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="116" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N116" s="10"/>
       <c r="O116" s="10"/>
       <c r="P116" s="10"/>
@@ -11513,7 +11504,7 @@
       <c r="S116" s="10"/>
       <c r="T116" s="10"/>
     </row>
-    <row r="117" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="117" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N117" s="10"/>
       <c r="O117" s="10"/>
       <c r="P117" s="10"/>
@@ -11522,7 +11513,7 @@
       <c r="S117" s="10"/>
       <c r="T117" s="10"/>
     </row>
-    <row r="118" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="118" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N118" s="10"/>
       <c r="O118" s="10"/>
       <c r="P118" s="10"/>
@@ -11531,7 +11522,7 @@
       <c r="S118" s="10"/>
       <c r="T118" s="10"/>
     </row>
-    <row r="119" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="119" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N119" s="10"/>
       <c r="O119" s="10"/>
       <c r="P119" s="10"/>
@@ -11540,7 +11531,7 @@
       <c r="S119" s="10"/>
       <c r="T119" s="10"/>
     </row>
-    <row r="120" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="120" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N120" s="10"/>
       <c r="O120" s="10"/>
       <c r="P120" s="10"/>
@@ -11549,7 +11540,7 @@
       <c r="S120" s="10"/>
       <c r="T120" s="10"/>
     </row>
-    <row r="121" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="121" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N121" s="10"/>
       <c r="O121" s="10"/>
       <c r="P121" s="10"/>
@@ -11558,7 +11549,7 @@
       <c r="S121" s="10"/>
       <c r="T121" s="10"/>
     </row>
-    <row r="122" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="122" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N122" s="10"/>
       <c r="O122" s="10"/>
       <c r="P122" s="10"/>
@@ -11567,7 +11558,7 @@
       <c r="S122" s="10"/>
       <c r="T122" s="10"/>
     </row>
-    <row r="123" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="123" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N123" s="10"/>
       <c r="O123" s="10"/>
       <c r="P123" s="10"/>
@@ -11576,7 +11567,7 @@
       <c r="S123" s="10"/>
       <c r="T123" s="10"/>
     </row>
-    <row r="124" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="124" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N124" s="10"/>
       <c r="O124" s="10"/>
       <c r="P124" s="10"/>
@@ -11585,7 +11576,7 @@
       <c r="S124" s="10"/>
       <c r="T124" s="10"/>
     </row>
-    <row r="125" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="125" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N125" s="10"/>
       <c r="O125" s="10"/>
       <c r="P125" s="10"/>
@@ -11594,7 +11585,7 @@
       <c r="S125" s="10"/>
       <c r="T125" s="10"/>
     </row>
-    <row r="126" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="126" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N126" s="10"/>
       <c r="O126" s="10"/>
       <c r="P126" s="10"/>
@@ -11603,7 +11594,7 @@
       <c r="S126" s="10"/>
       <c r="T126" s="10"/>
     </row>
-    <row r="127" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="127" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N127" s="10"/>
       <c r="O127" s="10"/>
       <c r="P127" s="10"/>
@@ -11612,7 +11603,7 @@
       <c r="S127" s="10"/>
       <c r="T127" s="10"/>
     </row>
-    <row r="128" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="128" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N128" s="10"/>
       <c r="O128" s="10"/>
       <c r="P128" s="10"/>
@@ -11621,7 +11612,7 @@
       <c r="S128" s="10"/>
       <c r="T128" s="10"/>
     </row>
-    <row r="129" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="129" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N129" s="10"/>
       <c r="O129" s="10"/>
       <c r="P129" s="10"/>
@@ -11630,7 +11621,7 @@
       <c r="S129" s="10"/>
       <c r="T129" s="10"/>
     </row>
-    <row r="130" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="130" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N130" s="10"/>
       <c r="O130" s="10"/>
       <c r="P130" s="10"/>
@@ -11639,7 +11630,7 @@
       <c r="S130" s="10"/>
       <c r="T130" s="10"/>
     </row>
-    <row r="131" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="131" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N131" s="10"/>
       <c r="O131" s="10"/>
       <c r="P131" s="10"/>
@@ -11648,7 +11639,7 @@
       <c r="S131" s="10"/>
       <c r="T131" s="10"/>
     </row>
-    <row r="132" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="132" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N132" s="10"/>
       <c r="O132" s="10"/>
       <c r="P132" s="10"/>
@@ -11657,7 +11648,7 @@
       <c r="S132" s="10"/>
       <c r="T132" s="10"/>
     </row>
-    <row r="133" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="133" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N133" s="10"/>
       <c r="O133" s="10"/>
       <c r="P133" s="10"/>
@@ -11666,7 +11657,7 @@
       <c r="S133" s="10"/>
       <c r="T133" s="10"/>
     </row>
-    <row r="134" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="134" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N134" s="10"/>
       <c r="O134" s="10"/>
       <c r="P134" s="10"/>
@@ -11675,7 +11666,7 @@
       <c r="S134" s="10"/>
       <c r="T134" s="10"/>
     </row>
-    <row r="135" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="135" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N135" s="10"/>
       <c r="O135" s="10"/>
       <c r="P135" s="10"/>
@@ -11684,7 +11675,7 @@
       <c r="S135" s="10"/>
       <c r="T135" s="10"/>
     </row>
-    <row r="136" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="136" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N136" s="10"/>
       <c r="O136" s="10"/>
       <c r="P136" s="10"/>
@@ -11693,7 +11684,7 @@
       <c r="S136" s="10"/>
       <c r="T136" s="10"/>
     </row>
-    <row r="137" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="137" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N137" s="10"/>
       <c r="O137" s="10"/>
       <c r="P137" s="10"/>
@@ -11702,7 +11693,7 @@
       <c r="S137" s="10"/>
       <c r="T137" s="10"/>
     </row>
-    <row r="138" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="138" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N138" s="10"/>
       <c r="O138" s="10"/>
       <c r="P138" s="10"/>
@@ -11711,7 +11702,7 @@
       <c r="S138" s="10"/>
       <c r="T138" s="10"/>
     </row>
-    <row r="139" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="139" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N139" s="10"/>
       <c r="O139" s="10"/>
       <c r="P139" s="10"/>
@@ -11720,7 +11711,7 @@
       <c r="S139" s="10"/>
       <c r="T139" s="10"/>
     </row>
-    <row r="140" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="140" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N140" s="10"/>
       <c r="O140" s="10"/>
       <c r="P140" s="10"/>
@@ -11729,7 +11720,7 @@
       <c r="S140" s="10"/>
       <c r="T140" s="10"/>
     </row>
-    <row r="141" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="141" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N141" s="10"/>
       <c r="O141" s="10"/>
       <c r="P141" s="10"/>
@@ -11738,7 +11729,7 @@
       <c r="S141" s="10"/>
       <c r="T141" s="10"/>
     </row>
-    <row r="142" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="142" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N142" s="10"/>
       <c r="O142" s="10"/>
       <c r="P142" s="10"/>
@@ -11747,7 +11738,7 @@
       <c r="S142" s="10"/>
       <c r="T142" s="10"/>
     </row>
-    <row r="143" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="143" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N143" s="10"/>
       <c r="O143" s="10"/>
       <c r="P143" s="10"/>
@@ -11756,7 +11747,7 @@
       <c r="S143" s="10"/>
       <c r="T143" s="10"/>
     </row>
-    <row r="144" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="144" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N144" s="10"/>
       <c r="O144" s="10"/>
       <c r="P144" s="10"/>
@@ -11765,7 +11756,7 @@
       <c r="S144" s="10"/>
       <c r="T144" s="10"/>
     </row>
-    <row r="145" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="145" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N145" s="10"/>
       <c r="O145" s="10"/>
       <c r="P145" s="10"/>
@@ -11774,7 +11765,7 @@
       <c r="S145" s="10"/>
       <c r="T145" s="10"/>
     </row>
-    <row r="146" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="146" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N146" s="10"/>
       <c r="O146" s="10"/>
       <c r="P146" s="10"/>
@@ -11783,7 +11774,7 @@
       <c r="S146" s="10"/>
       <c r="T146" s="10"/>
     </row>
-    <row r="147" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="147" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N147" s="10"/>
       <c r="O147" s="10"/>
       <c r="P147" s="10"/>
@@ -11792,7 +11783,7 @@
       <c r="S147" s="10"/>
       <c r="T147" s="10"/>
     </row>
-    <row r="148" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="148" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N148" s="10"/>
       <c r="O148" s="10"/>
       <c r="P148" s="10"/>
@@ -11801,7 +11792,7 @@
       <c r="S148" s="10"/>
       <c r="T148" s="10"/>
     </row>
-    <row r="149" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="149" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N149" s="10"/>
       <c r="O149" s="10"/>
       <c r="P149" s="10"/>
@@ -11810,7 +11801,7 @@
       <c r="S149" s="10"/>
       <c r="T149" s="10"/>
     </row>
-    <row r="150" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="150" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N150" s="10"/>
       <c r="O150" s="10"/>
       <c r="P150" s="10"/>
@@ -11819,7 +11810,7 @@
       <c r="S150" s="10"/>
       <c r="T150" s="10"/>
     </row>
-    <row r="151" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="151" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N151" s="10"/>
       <c r="O151" s="10"/>
       <c r="P151" s="10"/>
@@ -11828,7 +11819,7 @@
       <c r="S151" s="10"/>
       <c r="T151" s="10"/>
     </row>
-    <row r="152" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="152" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N152" s="10"/>
       <c r="O152" s="10"/>
       <c r="P152" s="10"/>
@@ -11837,7 +11828,7 @@
       <c r="S152" s="10"/>
       <c r="T152" s="10"/>
     </row>
-    <row r="153" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="153" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N153" s="10"/>
       <c r="O153" s="10"/>
       <c r="P153" s="10"/>
@@ -11846,7 +11837,7 @@
       <c r="S153" s="10"/>
       <c r="T153" s="10"/>
     </row>
-    <row r="154" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="154" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N154" s="10"/>
       <c r="O154" s="10"/>
       <c r="P154" s="10"/>
@@ -11855,7 +11846,7 @@
       <c r="S154" s="10"/>
       <c r="T154" s="10"/>
     </row>
-    <row r="155" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="155" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N155" s="10"/>
       <c r="O155" s="10"/>
       <c r="P155" s="10"/>
@@ -11864,7 +11855,7 @@
       <c r="S155" s="10"/>
       <c r="T155" s="10"/>
     </row>
-    <row r="156" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="156" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N156" s="10"/>
       <c r="O156" s="10"/>
       <c r="P156" s="10"/>
@@ -11873,7 +11864,7 @@
       <c r="S156" s="10"/>
       <c r="T156" s="10"/>
     </row>
-    <row r="157" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="157" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N157" s="10"/>
       <c r="O157" s="10"/>
       <c r="P157" s="10"/>
@@ -11882,7 +11873,7 @@
       <c r="S157" s="10"/>
       <c r="T157" s="10"/>
     </row>
-    <row r="158" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="158" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N158" s="10"/>
       <c r="O158" s="10"/>
       <c r="P158" s="10"/>
@@ -11891,7 +11882,7 @@
       <c r="S158" s="10"/>
       <c r="T158" s="10"/>
     </row>
-    <row r="159" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="159" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N159" s="10"/>
       <c r="O159" s="10"/>
       <c r="P159" s="10"/>
@@ -11900,7 +11891,7 @@
       <c r="S159" s="10"/>
       <c r="T159" s="10"/>
     </row>
-    <row r="160" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="160" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N160" s="10"/>
       <c r="O160" s="10"/>
       <c r="P160" s="10"/>
@@ -11909,7 +11900,7 @@
       <c r="S160" s="10"/>
       <c r="T160" s="10"/>
     </row>
-    <row r="161" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="161" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N161" s="10"/>
       <c r="O161" s="10"/>
       <c r="P161" s="10"/>
@@ -11918,7 +11909,7 @@
       <c r="S161" s="10"/>
       <c r="T161" s="10"/>
     </row>
-    <row r="162" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="162" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N162" s="10"/>
       <c r="O162" s="10"/>
       <c r="P162" s="10"/>
@@ -11927,7 +11918,7 @@
       <c r="S162" s="10"/>
       <c r="T162" s="10"/>
     </row>
-    <row r="163" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="163" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N163" s="10"/>
       <c r="O163" s="10"/>
       <c r="P163" s="10"/>
@@ -11936,7 +11927,7 @@
       <c r="S163" s="10"/>
       <c r="T163" s="10"/>
     </row>
-    <row r="164" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="164" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N164" s="10"/>
       <c r="O164" s="10"/>
       <c r="P164" s="10"/>
@@ -11945,7 +11936,7 @@
       <c r="S164" s="10"/>
       <c r="T164" s="10"/>
     </row>
-    <row r="165" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="165" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N165" s="10"/>
       <c r="O165" s="10"/>
       <c r="P165" s="10"/>
@@ -11954,7 +11945,7 @@
       <c r="S165" s="10"/>
       <c r="T165" s="10"/>
     </row>
-    <row r="166" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="166" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N166" s="10"/>
       <c r="O166" s="10"/>
       <c r="P166" s="10"/>
@@ -11963,7 +11954,7 @@
       <c r="S166" s="10"/>
       <c r="T166" s="10"/>
     </row>
-    <row r="167" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="167" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N167" s="10"/>
       <c r="O167" s="10"/>
       <c r="P167" s="10"/>
@@ -11972,7 +11963,7 @@
       <c r="S167" s="10"/>
       <c r="T167" s="10"/>
     </row>
-    <row r="168" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="168" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N168" s="10"/>
       <c r="O168" s="10"/>
       <c r="P168" s="10"/>
@@ -11981,7 +11972,7 @@
       <c r="S168" s="10"/>
       <c r="T168" s="10"/>
     </row>
-    <row r="169" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="169" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N169" s="10"/>
       <c r="O169" s="10"/>
       <c r="P169" s="10"/>
@@ -11990,7 +11981,7 @@
       <c r="S169" s="10"/>
       <c r="T169" s="10"/>
     </row>
-    <row r="170" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="170" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N170" s="10"/>
       <c r="O170" s="10"/>
       <c r="P170" s="10"/>
@@ -11999,7 +11990,7 @@
       <c r="S170" s="10"/>
       <c r="T170" s="10"/>
     </row>
-    <row r="171" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="171" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N171" s="10"/>
       <c r="O171" s="10"/>
       <c r="P171" s="10"/>
@@ -12008,7 +11999,7 @@
       <c r="S171" s="10"/>
       <c r="T171" s="10"/>
     </row>
-    <row r="172" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="172" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N172" s="10"/>
       <c r="O172" s="10"/>
       <c r="P172" s="10"/>
@@ -12017,7 +12008,7 @@
       <c r="S172" s="10"/>
       <c r="T172" s="10"/>
     </row>
-    <row r="173" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="173" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N173" s="10"/>
       <c r="O173" s="10"/>
       <c r="P173" s="10"/>
@@ -12026,7 +12017,7 @@
       <c r="S173" s="10"/>
       <c r="T173" s="10"/>
     </row>
-    <row r="174" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="174" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N174" s="10"/>
       <c r="O174" s="10"/>
       <c r="P174" s="10"/>
@@ -12035,7 +12026,7 @@
       <c r="S174" s="10"/>
       <c r="T174" s="10"/>
     </row>
-    <row r="175" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="175" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N175" s="10"/>
       <c r="O175" s="10"/>
       <c r="P175" s="10"/>
@@ -12044,7 +12035,7 @@
       <c r="S175" s="10"/>
       <c r="T175" s="10"/>
     </row>
-    <row r="176" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="176" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N176" s="10"/>
       <c r="O176" s="10"/>
       <c r="P176" s="10"/>
@@ -12053,7 +12044,7 @@
       <c r="S176" s="10"/>
       <c r="T176" s="10"/>
     </row>
-    <row r="177" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="177" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N177" s="10"/>
       <c r="O177" s="10"/>
       <c r="P177" s="10"/>
@@ -12062,7 +12053,7 @@
       <c r="S177" s="10"/>
       <c r="T177" s="10"/>
     </row>
-    <row r="178" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="178" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N178" s="10"/>
       <c r="O178" s="10"/>
       <c r="P178" s="10"/>
@@ -12071,7 +12062,7 @@
       <c r="S178" s="10"/>
       <c r="T178" s="10"/>
     </row>
-    <row r="179" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="179" spans="14:20" x14ac:dyDescent="0.45">
       <c r="N179" s="10"/>
       <c r="O179" s="10"/>
       <c r="P179" s="10"/>
@@ -12114,17 +12105,17 @@
       <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.86328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B1" s="15"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="11" t="s">
         <v>248</v>
       </c>
@@ -12135,7 +12126,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="13">
         <v>1</v>
       </c>
@@ -12146,7 +12137,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="13">
         <v>2</v>
       </c>
@@ -12157,7 +12148,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="13">
         <v>3</v>
       </c>
@@ -12168,7 +12159,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="13">
         <v>4</v>
       </c>
@@ -12179,7 +12170,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="13">
         <v>5</v>
       </c>
@@ -12190,7 +12181,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="13">
         <v>6</v>
       </c>
@@ -12201,7 +12192,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="13">
         <v>7</v>
       </c>
@@ -12212,7 +12203,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="13">
         <v>8</v>
       </c>
@@ -12236,13 +12227,13 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" style="60" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.796875" style="60" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="65" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="61" t="s">
         <v>248</v>
       </c>
@@ -12250,7 +12241,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -12258,7 +12249,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -12266,7 +12257,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -12274,7 +12265,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -12282,7 +12273,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -12290,7 +12281,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -12298,7 +12289,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="13">
         <v>7</v>
       </c>
@@ -12319,14 +12310,14 @@
       <selection activeCell="B111" sqref="B111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.44140625" customWidth="1"/>
+    <col min="2" max="2" width="52.46484375" customWidth="1"/>
     <col min="3" max="3" width="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="18" t="s">
         <v>1</v>
       </c>
@@ -12337,7 +12328,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="58" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="58" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="38">
         <v>1</v>
       </c>
@@ -12348,7 +12339,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="58" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" s="58" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="38">
         <v>2</v>
       </c>
@@ -12359,7 +12350,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="58" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" s="58" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="38">
         <v>3</v>
       </c>
@@ -12370,7 +12361,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="38">
         <v>4</v>
       </c>
@@ -12381,7 +12372,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="38">
         <v>5</v>
       </c>
@@ -12392,7 +12383,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="38">
         <v>6</v>
       </c>
@@ -12403,7 +12394,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="38">
         <v>7</v>
       </c>
@@ -12414,7 +12405,7 @@
         <v>9051770999</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="38">
         <v>8</v>
       </c>
@@ -12425,7 +12416,7 @@
         <v>9903606575</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="38">
         <v>9</v>
       </c>
@@ -12436,7 +12427,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="38">
         <v>10</v>
       </c>
@@ -12447,7 +12438,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="38">
         <v>11</v>
       </c>
@@ -12458,7 +12449,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="38">
         <v>12</v>
       </c>
@@ -12469,7 +12460,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="38">
         <v>13</v>
       </c>
@@ -12480,7 +12471,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="38">
         <v>14</v>
       </c>
@@ -12491,7 +12482,7 @@
         <v>8961111167</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="38">
         <v>15</v>
       </c>
@@ -12502,7 +12493,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="38">
         <v>16</v>
       </c>
@@ -12513,7 +12504,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="38">
         <v>17</v>
       </c>
@@ -12524,7 +12515,7 @@
         <v>7044096127</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="38">
         <v>18</v>
       </c>
@@ -12535,7 +12526,7 @@
         <v>9831274629</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="38">
         <v>19</v>
       </c>
@@ -12546,7 +12537,7 @@
         <v>8777257554</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="38">
         <v>20</v>
       </c>
@@ -12557,7 +12548,7 @@
         <v>3322651531</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="38">
         <v>21</v>
       </c>
@@ -12568,7 +12559,7 @@
         <v>3324753015</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="38">
         <v>22</v>
       </c>
@@ -12579,7 +12570,7 @@
         <v>3324753765</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="38">
         <v>23</v>
       </c>
@@ -12590,7 +12581,7 @@
         <v>3324286903</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="38">
         <v>24</v>
       </c>
@@ -12601,7 +12592,7 @@
         <v>8902488077</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="38">
         <v>25</v>
       </c>
@@ -12612,7 +12603,7 @@
         <v>9163741069</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="38">
         <v>26</v>
       </c>
@@ -12623,7 +12614,7 @@
         <v>3324411691</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="38">
         <v>27</v>
       </c>
@@ -12634,7 +12625,7 @@
         <v>3324413804</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="38">
         <v>28</v>
       </c>
@@ -12645,7 +12636,7 @@
         <v>9830688888</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="38">
         <v>29</v>
       </c>
@@ -12656,7 +12647,7 @@
         <v>9073985531</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="38">
         <v>30</v>
       </c>
@@ -12667,7 +12658,7 @@
         <v>3324712220</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="38">
         <v>31</v>
       </c>
@@ -12678,7 +12669,7 @@
         <v>3324131158</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="38">
         <v>32</v>
       </c>
@@ -12689,7 +12680,7 @@
         <v>9836242629</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="38">
         <v>33</v>
       </c>
@@ -12700,7 +12691,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="38">
         <v>34</v>
       </c>
@@ -12711,7 +12702,7 @@
         <v>9051973905</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="38">
         <v>35</v>
       </c>
@@ -12722,7 +12713,7 @@
         <v>9674850783</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="38">
         <v>36</v>
       </c>
@@ -12733,7 +12724,7 @@
         <v>9674111783</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="38">
         <v>37</v>
       </c>
@@ -12744,7 +12735,7 @@
         <v>33218260082</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="38">
         <v>38</v>
       </c>
@@ -12755,7 +12746,7 @@
         <v>3322879202</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="38">
         <v>39</v>
       </c>
@@ -12766,7 +12757,7 @@
         <v>3322841546</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="38">
         <v>40</v>
       </c>
@@ -12777,7 +12768,7 @@
         <v>3322484593</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="38">
         <v>41</v>
       </c>
@@ -12788,7 +12779,7 @@
         <v>3322297741</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="38">
         <v>42</v>
       </c>
@@ -12799,7 +12790,7 @@
         <v>3324793241</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="38">
         <v>43</v>
       </c>
@@ -12810,7 +12801,7 @@
         <v>3324344455</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="38">
         <v>44</v>
       </c>
@@ -12821,7 +12812,7 @@
         <v>3340083093</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="38">
         <v>45</v>
       </c>
@@ -12832,7 +12823,7 @@
         <v>3324618002</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="38">
         <v>46</v>
       </c>
@@ -12843,7 +12834,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="38">
         <v>47</v>
       </c>
@@ -12854,7 +12845,7 @@
         <v>3324569090</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="38">
         <v>48</v>
       </c>
@@ -12865,7 +12856,7 @@
         <v>3322233062</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="38">
         <v>49</v>
       </c>
@@ -12876,7 +12867,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="38">
         <v>50</v>
       </c>
@@ -12887,7 +12878,7 @@
         <v>3324793600</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="38">
         <v>51</v>
       </c>
@@ -12898,7 +12889,7 @@
         <v>3324866629</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="38">
         <v>52</v>
       </c>
@@ -12909,7 +12900,7 @@
         <v>3322848038</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="38">
         <v>53</v>
       </c>
@@ -12920,7 +12911,7 @@
         <v>905188888</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="38">
         <v>54</v>
       </c>
@@ -12931,7 +12922,7 @@
         <v>7596949952</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="38">
         <v>55</v>
       </c>
@@ -12942,7 +12933,7 @@
         <v>7478196910</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="38">
         <v>56</v>
       </c>
@@ -12953,7 +12944,7 @@
         <v>7044447761</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="38">
         <v>57</v>
       </c>
@@ -12964,7 +12955,7 @@
         <v>7059600647</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="38">
         <v>58</v>
       </c>
@@ -12975,7 +12966,7 @@
         <v>3340072444</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="38">
         <v>59</v>
       </c>
@@ -12986,7 +12977,7 @@
         <v>9903102957</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="38">
         <v>60</v>
       </c>
@@ -12997,7 +12988,7 @@
         <v>7605080650</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62" s="38">
         <v>61</v>
       </c>
@@ -13008,7 +12999,7 @@
         <v>3324752135</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="38">
         <v>62</v>
       </c>
@@ -13019,7 +13010,7 @@
         <v>9674645471</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" s="38">
         <v>63</v>
       </c>
@@ -13030,7 +13021,7 @@
         <v>9073681886</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A65" s="38">
         <v>64</v>
       </c>
@@ -13041,7 +13032,7 @@
         <v>3324316997</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66" s="38">
         <v>65</v>
       </c>
@@ -13052,7 +13043,7 @@
         <v>3322291779</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" s="38">
         <v>66</v>
       </c>
@@ -13063,7 +13054,7 @@
         <v>3323215151</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="38">
         <v>67</v>
       </c>
@@ -13074,7 +13065,7 @@
         <v>3323342404</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69" s="38">
         <v>68</v>
       </c>
@@ -13085,7 +13076,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" s="38">
         <v>69</v>
       </c>
@@ -13096,7 +13087,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A71" s="38">
         <v>70</v>
       </c>
@@ -13107,7 +13098,7 @@
         <v>9606279184</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="38">
         <v>71</v>
       </c>
@@ -13118,7 +13109,7 @@
         <v>8777867589</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A73" s="38">
         <v>72</v>
       </c>
@@ -13129,7 +13120,7 @@
         <v>8017672075</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A74" s="38">
         <v>73</v>
       </c>
@@ -13140,7 +13131,7 @@
         <v>3324492810</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A75" s="38">
         <v>74</v>
       </c>
@@ -13151,7 +13142,7 @@
         <v>3324967196</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A76" s="38">
         <v>75</v>
       </c>
@@ -13162,7 +13153,7 @@
         <v>9830701347</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A77" s="38">
         <v>76</v>
       </c>
@@ -13173,7 +13164,7 @@
         <v>3324961723</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A78" s="38">
         <v>77</v>
       </c>
@@ -13184,7 +13175,7 @@
         <v>9007792852</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A79" s="38">
         <v>78</v>
       </c>
@@ -13195,7 +13186,7 @@
         <v>8902765583</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A80" s="38">
         <v>79</v>
       </c>
@@ -13206,7 +13197,7 @@
         <v>9331866252</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A81" s="38">
         <v>80</v>
       </c>
@@ -13217,7 +13208,7 @@
         <v>9903540099</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A82" s="38">
         <v>81</v>
       </c>
@@ -13228,7 +13219,7 @@
         <v>8336998663</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A83" s="38">
         <v>82</v>
       </c>
@@ -13239,7 +13230,7 @@
         <v>9339527506</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A84" s="38">
         <v>83</v>
       </c>
@@ -13250,7 +13241,7 @@
         <v>9903312630</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A85" s="38">
         <v>84</v>
       </c>
@@ -13261,7 +13252,7 @@
         <v>9836747400</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A86" s="38">
         <v>85</v>
       </c>
@@ -13272,7 +13263,7 @@
         <v>8100188019</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A87" s="38">
         <v>86</v>
       </c>
@@ -13283,7 +13274,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A88" s="38">
         <v>87</v>
       </c>
@@ -13294,7 +13285,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A89" s="38">
         <v>88</v>
       </c>
@@ -13305,7 +13296,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A90" s="38">
         <v>89</v>
       </c>
@@ -13316,7 +13307,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A91" s="38">
         <v>90</v>
       </c>
@@ -13327,7 +13318,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A92" s="38">
         <v>91</v>
       </c>
@@ -13338,7 +13329,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A93" s="38">
         <v>92</v>
       </c>
@@ -13349,7 +13340,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A94" s="38">
         <v>93</v>
       </c>
@@ -13360,7 +13351,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A95" s="38">
         <v>94</v>
       </c>
@@ -13371,7 +13362,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A96" s="38">
         <v>95</v>
       </c>
@@ -13382,7 +13373,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A97" s="38">
         <v>96</v>
       </c>
@@ -13393,7 +13384,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A98" s="38">
         <v>97</v>
       </c>
@@ -13404,7 +13395,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A99" s="38">
         <v>98</v>
       </c>
@@ -13415,7 +13406,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A100" s="38">
         <v>99</v>
       </c>
@@ -13426,7 +13417,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A101" s="38">
         <v>100</v>
       </c>
@@ -13437,7 +13428,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A102" s="38">
         <v>101</v>
       </c>
@@ -13448,7 +13439,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A103" s="38">
         <v>102</v>
       </c>
@@ -13459,7 +13450,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A104" s="38">
         <v>103</v>
       </c>
@@ -13470,7 +13461,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A105" s="38">
         <v>104</v>
       </c>
@@ -13481,7 +13472,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A106" s="38">
         <v>105</v>
       </c>
@@ -13492,7 +13483,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A107" s="38">
         <v>106</v>
       </c>
@@ -13503,7 +13494,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A108" s="38">
         <v>107</v>
       </c>
@@ -13514,7 +13505,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A109" s="38">
         <v>108</v>
       </c>
@@ -13525,7 +13516,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A110" s="38">
         <v>109</v>
       </c>
@@ -13536,7 +13527,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A111" s="38">
         <v>110</v>
       </c>

--- a/Offline/BusinessManagement/Marketing/AI marketing/AI Workshop Schools-Colleges.xlsx
+++ b/Offline/BusinessManagement/Marketing/AI marketing/AI Workshop Schools-Colleges.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Marketing\AI marketing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47DEF765-53A1-4A71-A00C-A39B64B4811D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C3D120-9BD7-471E-97C9-E0A1732F57EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="506" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <sheet name="Rahul-Calls" sheetId="11" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'School-Details'!$A$1:$U$124</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'School-Details'!$A$1:$V$124</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -72,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L28" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="M28" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="489">
   <si>
     <t>CBSE</t>
   </si>
@@ -1499,13 +1499,118 @@
   </si>
   <si>
     <t>Department</t>
+  </si>
+  <si>
+    <t>Workshop Date</t>
+  </si>
+  <si>
+    <t>www.bdmi.org</t>
+  </si>
+  <si>
+    <t>mvm_kolkata@yahoo.c.in</t>
+  </si>
+  <si>
+    <t>holyhome@cal2.vsnl.net.in</t>
+  </si>
+  <si>
+    <t>www.ja-net/holyhome.com</t>
+  </si>
+  <si>
+    <t>fcs@teamfuture.in</t>
+  </si>
+  <si>
+    <t>Panchasayar Siksha Niketan</t>
+  </si>
+  <si>
+    <t>info.siksha@panchasayarssn.in</t>
+  </si>
+  <si>
+    <t>welland.gouldsmith.sch.patuli@gmail.com</t>
+  </si>
+  <si>
+    <t>www.wgskolkata.com</t>
+  </si>
+  <si>
+    <t>garia.futurecampusschool.in</t>
+  </si>
+  <si>
+    <t>panchasayarssn.in</t>
+  </si>
+  <si>
+    <t>mirandaschoolgaria@gmail.com</t>
+  </si>
+  <si>
+    <t>www.mirandahighschool.com</t>
+  </si>
+  <si>
+    <t>office.gdb@ashokhall.org</t>
+  </si>
+  <si>
+    <t>https://ashokhall.org/GDBIRLA/index.php</t>
+  </si>
+  <si>
+    <t>Narayana Newtown</t>
+  </si>
+  <si>
+    <t>wbnt.etechno@narayanagroup.com</t>
+  </si>
+  <si>
+    <t>Newtown</t>
+  </si>
+  <si>
+    <t>Principal</t>
+  </si>
+  <si>
+    <t>8695640606</t>
+  </si>
+  <si>
+    <t>https://uatmukundapur.birlahighschool.com/contact-us</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bhsmukundapur@birlahighschool</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/South_Point_School</t>
+  </si>
+  <si>
+    <t>spes@southpoint.org.in</t>
+  </si>
+  <si>
+    <t>principal@ivws.org</t>
+  </si>
+  <si>
+    <t>https://www.ivws.org/</t>
+  </si>
+  <si>
+    <t>info@dpskolkata.com</t>
+  </si>
+  <si>
+    <t>https://www.dpskolkata.com/</t>
+  </si>
+  <si>
+    <t>admin@theheritageschool.org</t>
+  </si>
+  <si>
+    <t>www.theheritageschool.org</t>
+  </si>
+  <si>
+    <t>rmmhs.45@gmail.com</t>
+  </si>
+  <si>
+    <t> www.rammohanmissionschool.in</t>
+  </si>
+  <si>
+    <t>tffs@saioc.org</t>
+  </si>
+  <si>
+    <t>https://sriaurobindoschools.org/tffs/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1615,6 +1720,24 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF0099FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF422E59"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1878,7 +2001,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2015,6 +2138,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2344,23 +2470,23 @@
     <row r="2" spans="2:18" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.7">
       <c r="B2" s="27"/>
       <c r="C2" s="28"/>
-      <c r="D2" s="63" t="s">
+      <c r="D2" s="66" t="s">
         <v>293</v>
       </c>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="65"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="68"/>
       <c r="I2" s="29"/>
       <c r="K2" s="27"/>
       <c r="L2" s="28"/>
-      <c r="M2" s="66" t="s">
+      <c r="M2" s="69" t="s">
         <v>374</v>
       </c>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="68"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="71"/>
       <c r="R2" s="29"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.3">
@@ -2414,7 +2540,7 @@
         <v>210</v>
       </c>
       <c r="G5" s="14">
-        <f>COUNTIF('School-Details'!M:M,F5)</f>
+        <f>COUNTIF('School-Details'!N:N,F5)</f>
         <v>0</v>
       </c>
       <c r="I5" s="31"/>
@@ -2447,7 +2573,7 @@
         <v>267</v>
       </c>
       <c r="G6" s="14">
-        <f>COUNTIF('School-Details'!M:M,F6)</f>
+        <f>COUNTIF('School-Details'!N:N,F6)</f>
         <v>1</v>
       </c>
       <c r="I6" s="31"/>
@@ -2481,7 +2607,7 @@
         <v>268</v>
       </c>
       <c r="G7" s="14">
-        <f>COUNTIF('School-Details'!M:M,F7)</f>
+        <f>COUNTIF('School-Details'!N:N,F7)</f>
         <v>0</v>
       </c>
       <c r="I7" s="31"/>
@@ -2515,7 +2641,7 @@
         <v>283</v>
       </c>
       <c r="G8" s="14">
-        <f>COUNTIF('School-Details'!M:M,F8)</f>
+        <f>COUNTIF('School-Details'!N:N,F8)</f>
         <v>0</v>
       </c>
       <c r="I8" s="31"/>
@@ -2585,21 +2711,21 @@
         <v>251</v>
       </c>
       <c r="D11" s="14">
-        <f>COUNTIF('School-Details'!U:U,C11)</f>
+        <f>COUNTIF('School-Details'!V:V,C11)</f>
         <v>34</v>
       </c>
       <c r="F11" s="14"/>
-      <c r="G11" s="62" t="s">
+      <c r="G11" s="65" t="s">
         <v>210</v>
       </c>
-      <c r="H11" s="62"/>
+      <c r="H11" s="65"/>
       <c r="I11" s="31"/>
       <c r="K11" s="30"/>
       <c r="O11" s="14"/>
-      <c r="P11" s="62" t="s">
+      <c r="P11" s="65" t="s">
         <v>210</v>
       </c>
-      <c r="Q11" s="62"/>
+      <c r="Q11" s="65"/>
       <c r="R11" s="31"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.3">
@@ -2608,7 +2734,7 @@
         <v>253</v>
       </c>
       <c r="D12" s="14">
-        <f>COUNTIF('School-Details'!U:U,C12)</f>
+        <f>COUNTIF('School-Details'!V:V,C12)</f>
         <v>0</v>
       </c>
       <c r="F12" s="21" t="s">
@@ -2645,7 +2771,7 @@
         <v>255</v>
       </c>
       <c r="D13" s="14">
-        <f>COUNTIF('School-Details'!U:U,C13)</f>
+        <f>COUNTIF('School-Details'!V:V,C13)</f>
         <v>0</v>
       </c>
       <c r="F13" s="22">
@@ -2683,7 +2809,7 @@
         <v>257</v>
       </c>
       <c r="D14" s="14">
-        <f>COUNTIF('School-Details'!U:U,C14)</f>
+        <f>COUNTIF('School-Details'!V:V,C14)</f>
         <v>0</v>
       </c>
       <c r="F14" s="22">
@@ -2721,7 +2847,7 @@
         <v>259</v>
       </c>
       <c r="D15" s="14">
-        <f>COUNTIF('School-Details'!U:U,C15)</f>
+        <f>COUNTIF('School-Details'!V:V,C15)</f>
         <v>0</v>
       </c>
       <c r="F15" s="22">
@@ -2759,7 +2885,7 @@
         <v>261</v>
       </c>
       <c r="D16" s="14">
-        <f>COUNTIF('School-Details'!U:U,C16)</f>
+        <f>COUNTIF('School-Details'!V:V,C16)</f>
         <v>0</v>
       </c>
       <c r="F16" s="22">
@@ -2797,7 +2923,7 @@
         <v>263</v>
       </c>
       <c r="D17" s="14">
-        <f>COUNTIF('School-Details'!U:U,C17)</f>
+        <f>COUNTIF('School-Details'!V:V,C17)</f>
         <v>91</v>
       </c>
       <c r="F17" s="22">
@@ -2835,7 +2961,7 @@
         <v>279</v>
       </c>
       <c r="D18" s="14">
-        <f>COUNTIF('School-Details'!U:U,C18)</f>
+        <f>COUNTIF('School-Details'!V:V,C18)</f>
         <v>0</v>
       </c>
       <c r="F18" s="22">
@@ -2981,7 +3107,7 @@
         <v>5</v>
       </c>
       <c r="D22" s="14">
-        <f>COUNTIF('School-Details'!T:T,C22)</f>
+        <f>COUNTIF('School-Details'!U:U,C22)</f>
         <v>10</v>
       </c>
       <c r="F22" s="22">
@@ -3012,7 +3138,7 @@
         <v>4</v>
       </c>
       <c r="D23" s="14">
-        <f>COUNTIF('School-Details'!T:T,C23)</f>
+        <f>COUNTIF('School-Details'!U:U,C23)</f>
         <v>55</v>
       </c>
       <c r="F23" s="22">
@@ -3091,7 +3217,7 @@
         <v>3</v>
       </c>
       <c r="D25" s="14">
-        <f>COUNTIF('School-Details'!T:T,C25)</f>
+        <f>COUNTIF('School-Details'!U:U,C25)</f>
         <v>50</v>
       </c>
       <c r="F25" s="16" t="s">
@@ -3155,7 +3281,7 @@
         <v>2</v>
       </c>
       <c r="D27" s="14">
-        <f>COUNTIF('School-Details'!T:T,C27)</f>
+        <f>COUNTIF('School-Details'!U:U,C27)</f>
         <v>10</v>
       </c>
       <c r="I27" s="31"/>
@@ -3177,7 +3303,7 @@
         <v>1</v>
       </c>
       <c r="D28" s="14">
-        <f>COUNTIF('School-Details'!T:T,C28)</f>
+        <f>COUNTIF('School-Details'!U:U,C28)</f>
         <v>0</v>
       </c>
       <c r="I28" s="31"/>
@@ -3283,14 +3409,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:U126"/>
+  <dimension ref="A1:V126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U126" sqref="U126"/>
+      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3303,17 +3428,17 @@
     <col min="6" max="6" width="15.44140625" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" style="40" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="16" style="1" customWidth="1"/>
-    <col min="10" max="11" width="11" style="1" customWidth="1"/>
-    <col min="12" max="12" width="19.6640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="13.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="14" style="1" customWidth="1"/>
-    <col min="15" max="20" width="9.109375" style="1"/>
-    <col min="21" max="21" width="20.5546875" style="10" customWidth="1"/>
-    <col min="22" max="22" width="13.6640625" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.109375" style="1"/>
+    <col min="10" max="12" width="11" style="1" customWidth="1"/>
+    <col min="13" max="13" width="19.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13.33203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="14" style="1" customWidth="1"/>
+    <col min="16" max="21" width="9.109375" style="1"/>
+    <col min="22" max="22" width="20.5546875" style="10" customWidth="1"/>
+    <col min="23" max="23" width="13.6640625" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>1</v>
       </c>
@@ -3348,37 +3473,40 @@
         <v>5</v>
       </c>
       <c r="L1" s="18" t="s">
+        <v>454</v>
+      </c>
+      <c r="M1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="N1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="O1" s="18" t="s">
         <v>237</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="P1" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="Q1" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="R1" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="R1" s="20" t="s">
+      <c r="S1" s="20" t="s">
         <v>241</v>
       </c>
-      <c r="S1" s="20" t="s">
+      <c r="T1" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="T1" s="25" t="s">
+      <c r="U1" s="25" t="s">
         <v>242</v>
       </c>
-      <c r="U1" s="20" t="s">
+      <c r="V1" s="20" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -3391,40 +3519,43 @@
       <c r="D2" s="3" t="s">
         <v>284</v>
       </c>
+      <c r="E2" s="3" t="s">
+        <v>455</v>
+      </c>
       <c r="F2" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N2" s="10">
-        <v>5</v>
-      </c>
       <c r="O2" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P2" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q2" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R2" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S2" s="10">
-        <f>SUM(N2:R2)</f>
+        <v>3</v>
+      </c>
+      <c r="T2" s="10">
+        <f>SUM(O2:S2)</f>
         <v>20</v>
       </c>
-      <c r="T2" s="10">
-        <f>ROUND(S2/5,0)</f>
-        <v>4</v>
-      </c>
-      <c r="U2" s="10" t="s">
+      <c r="U2" s="10">
+        <f>ROUND(T2/5,0)</f>
+        <v>4</v>
+      </c>
+      <c r="V2" s="10" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -3434,14 +3565,14 @@
       <c r="C3" s="1" t="s">
         <v>77</v>
       </c>
+      <c r="D3" s="3" t="s">
+        <v>456</v>
+      </c>
       <c r="F3" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="N3" s="10">
-        <v>5</v>
-      </c>
       <c r="O3" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P3" s="10">
         <v>3</v>
@@ -3450,21 +3581,24 @@
         <v>3</v>
       </c>
       <c r="R3" s="10">
+        <v>3</v>
+      </c>
+      <c r="S3" s="10">
         <v>2</v>
       </c>
-      <c r="S3" s="10">
-        <f t="shared" ref="S3:S66" si="0">SUM(N3:R3)</f>
+      <c r="T3" s="10">
+        <f t="shared" ref="T3:T66" si="0">SUM(O3:S3)</f>
         <v>16</v>
       </c>
-      <c r="T3" s="10">
-        <f>ROUND(S3/5,0)</f>
-        <v>3</v>
-      </c>
-      <c r="U3" s="10" t="s">
+      <c r="U3" s="10">
+        <f>ROUND(T3/5,0)</f>
+        <v>3</v>
+      </c>
+      <c r="V3" s="10" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -3474,20 +3608,23 @@
       <c r="C4" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="D4" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>458</v>
+      </c>
       <c r="F4" s="7" t="s">
         <v>44</v>
       </c>
       <c r="G4" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="N4" s="10">
-        <v>5</v>
-      </c>
       <c r="O4" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P4" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q4" s="10">
         <v>2</v>
@@ -3496,18 +3633,21 @@
         <v>2</v>
       </c>
       <c r="S4" s="10">
+        <v>2</v>
+      </c>
+      <c r="T4" s="10">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="T4" s="10">
-        <f t="shared" ref="T4:T67" si="1">ROUND(S4/5,0)</f>
-        <v>3</v>
-      </c>
-      <c r="U4" s="10" t="s">
+      <c r="U4" s="10">
+        <f t="shared" ref="U4:U67" si="1">ROUND(T4/5,0)</f>
+        <v>3</v>
+      </c>
+      <c r="V4" s="10" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -3517,37 +3657,43 @@
       <c r="C5" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="D5" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>464</v>
+      </c>
       <c r="F5" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="N5" s="10">
-        <v>5</v>
-      </c>
       <c r="O5" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P5" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q5" s="10">
         <v>4</v>
       </c>
       <c r="R5" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S5" s="10">
+        <v>3</v>
+      </c>
+      <c r="T5" s="10">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="T5" s="10">
+      <c r="U5" s="10">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="U5" s="10" t="s">
+      <c r="V5" s="10" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -3557,14 +3703,17 @@
       <c r="C6" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="D6" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>463</v>
+      </c>
       <c r="F6" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="N6" s="10">
-        <v>5</v>
-      </c>
       <c r="O6" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P6" s="10">
         <v>3</v>
@@ -3573,38 +3722,44 @@
         <v>3</v>
       </c>
       <c r="R6" s="10">
+        <v>3</v>
+      </c>
+      <c r="S6" s="10">
         <v>2</v>
       </c>
-      <c r="S6" s="10">
+      <c r="T6" s="10">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="T6" s="10">
+      <c r="U6" s="10">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="U6" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V6" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>13</v>
+        <v>460</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="D7" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>465</v>
+      </c>
       <c r="F7" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="N7" s="10">
-        <v>5</v>
-      </c>
       <c r="O7" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P7" s="10">
         <v>3</v>
@@ -3613,58 +3768,67 @@
         <v>3</v>
       </c>
       <c r="R7" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S7" s="10">
+        <v>4</v>
+      </c>
+      <c r="T7" s="10">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="T7" s="10">
+      <c r="U7" s="10">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="U7" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V7" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="17" t="s">
         <v>14</v>
       </c>
+      <c r="D8" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>467</v>
+      </c>
       <c r="F8" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="N8" s="10">
-        <v>5</v>
-      </c>
       <c r="O8" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P8" s="10">
         <v>2</v>
       </c>
       <c r="Q8" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R8" s="10">
+        <v>3</v>
+      </c>
+      <c r="S8" s="10">
         <v>2</v>
       </c>
-      <c r="S8" s="10">
+      <c r="T8" s="10">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="T8" s="10">
+      <c r="U8" s="10">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="U8" s="10" t="s">
+      <c r="V8" s="10" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -3674,57 +3838,69 @@
       <c r="C9" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="D9" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>469</v>
+      </c>
       <c r="F9" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="N9" s="10">
-        <v>4</v>
-      </c>
       <c r="O9" s="10">
         <v>4</v>
       </c>
       <c r="P9" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q9" s="10">
         <v>5</v>
       </c>
       <c r="R9" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S9" s="10">
+        <v>3</v>
+      </c>
+      <c r="T9" s="10">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="T9" s="10">
+      <c r="U9" s="10">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="U9" s="10" t="s">
+      <c r="V9" s="10" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>16</v>
+        <v>470</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F10" s="7">
-        <v>9051770999</v>
-      </c>
-      <c r="N10" s="10">
-        <v>3</v>
+      <c r="D10" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="G10" s="40" t="s">
+        <v>472</v>
+      </c>
+      <c r="H10" s="62" t="s">
+        <v>473</v>
       </c>
       <c r="O10" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P10" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q10" s="10">
         <v>5</v>
@@ -3733,18 +3909,21 @@
         <v>5</v>
       </c>
       <c r="S10" s="10">
+        <v>5</v>
+      </c>
+      <c r="T10" s="10">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="T10" s="10">
+      <c r="U10" s="10">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="U10" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V10" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -3754,17 +3933,20 @@
       <c r="C11" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="D11" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>475</v>
+      </c>
       <c r="F11" s="7">
         <v>9903606575</v>
       </c>
-      <c r="N11" s="10">
-        <v>4</v>
-      </c>
       <c r="O11" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P11" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q11" s="10">
         <v>4</v>
@@ -3773,18 +3955,21 @@
         <v>4</v>
       </c>
       <c r="S11" s="10">
+        <v>4</v>
+      </c>
+      <c r="T11" s="10">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="T11" s="10">
+      <c r="U11" s="10">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="U11" s="10" t="s">
+      <c r="V11" s="10" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -3794,14 +3979,17 @@
       <c r="C12" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="D12" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>477</v>
+      </c>
       <c r="F12" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="N12" s="10">
-        <v>4</v>
-      </c>
       <c r="O12" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P12" s="10">
         <v>5</v>
@@ -3810,21 +3998,24 @@
         <v>5</v>
       </c>
       <c r="R12" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S12" s="10">
+        <v>4</v>
+      </c>
+      <c r="T12" s="10">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="T12" s="10">
+      <c r="U12" s="10">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="U12" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="V12" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -3834,14 +4025,20 @@
       <c r="C13" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="D13" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>480</v>
+      </c>
       <c r="F13" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="N13" s="10">
-        <v>4</v>
+      <c r="H13" s="1" t="s">
+        <v>473</v>
       </c>
       <c r="O13" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P13" s="10">
         <v>5</v>
@@ -3850,78 +4047,87 @@
         <v>5</v>
       </c>
       <c r="R13" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S13" s="10">
+        <v>4</v>
+      </c>
+      <c r="T13" s="10">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="T13" s="10">
+      <c r="U13" s="10">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="U13" s="10" t="s">
+      <c r="V13" s="10" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>55</v>
       </c>
+      <c r="D14" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>482</v>
+      </c>
       <c r="F14" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="M14" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N14" s="10">
-        <v>3</v>
-      </c>
       <c r="O14" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P14" s="10">
         <v>5</v>
       </c>
       <c r="Q14" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R14" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S14" s="10">
+        <v>3</v>
+      </c>
+      <c r="T14" s="10">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="T14" s="10">
+      <c r="U14" s="10">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="U14" s="10" t="s">
+      <c r="V14" s="10" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="17" t="s">
         <v>53</v>
       </c>
+      <c r="D15" s="3" t="s">
+        <v>481</v>
+      </c>
       <c r="F15" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="M15" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N15" s="10">
-        <v>3</v>
-      </c>
       <c r="O15" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P15" s="10">
         <v>5</v>
@@ -3930,21 +4136,24 @@
         <v>5</v>
       </c>
       <c r="R15" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S15" s="10">
+        <v>4</v>
+      </c>
+      <c r="T15" s="10">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="T15" s="10">
+      <c r="U15" s="10">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="U15" s="10" t="s">
+      <c r="V15" s="10" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -3954,14 +4163,17 @@
       <c r="C16" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="D16" s="63" t="s">
+        <v>483</v>
+      </c>
+      <c r="E16" s="63" t="s">
+        <v>484</v>
+      </c>
       <c r="F16" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="N16" s="10">
-        <v>4</v>
-      </c>
       <c r="O16" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P16" s="10">
         <v>5</v>
@@ -3973,98 +4185,113 @@
         <v>5</v>
       </c>
       <c r="S16" s="10">
+        <v>5</v>
+      </c>
+      <c r="T16" s="10">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="T16" s="10">
+      <c r="U16" s="10">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="U16" s="10" t="s">
+      <c r="V16" s="10" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="17" t="s">
         <v>21</v>
       </c>
+      <c r="D17" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="E17" s="64" t="s">
+        <v>486</v>
+      </c>
       <c r="F17" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="M17" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="N17" s="10">
-        <v>3</v>
-      </c>
       <c r="O17" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P17" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q17" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R17" s="10">
+        <v>4</v>
+      </c>
+      <c r="S17" s="10">
         <v>3.5</v>
       </c>
-      <c r="S17" s="10">
+      <c r="T17" s="10">
         <f t="shared" si="0"/>
         <v>17.5</v>
       </c>
-      <c r="T17" s="10">
+      <c r="U17" s="10">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="U17" s="10" t="s">
+      <c r="V17" s="10" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="17" t="s">
         <v>22</v>
       </c>
+      <c r="D18" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>488</v>
+      </c>
       <c r="F18" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="M18" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="N18" s="10">
-        <v>4</v>
-      </c>
       <c r="O18" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P18" s="10">
         <v>5</v>
       </c>
       <c r="Q18" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R18" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S18" s="10">
+        <v>5</v>
+      </c>
+      <c r="T18" s="10">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="T18" s="10">
+      <c r="U18" s="10">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="U18" s="10" t="s">
+      <c r="V18" s="10" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="19" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -4074,34 +4301,34 @@
       <c r="F19" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="N19" s="10">
-        <v>4</v>
-      </c>
       <c r="O19" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P19" s="10">
         <v>3</v>
       </c>
       <c r="Q19" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R19" s="10">
+        <v>4</v>
+      </c>
+      <c r="S19" s="10">
         <v>2.5</v>
       </c>
-      <c r="S19" s="10">
+      <c r="T19" s="10">
         <f t="shared" si="0"/>
         <v>16.5</v>
       </c>
-      <c r="T19" s="10">
+      <c r="U19" s="10">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="U19" s="10" t="s">
+      <c r="V19" s="10" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -4114,14 +4341,11 @@
       <c r="F20" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="N20" s="10">
-        <v>4</v>
-      </c>
       <c r="O20" s="10">
         <v>4</v>
       </c>
       <c r="P20" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q20" s="10">
         <v>3</v>
@@ -4130,18 +4354,21 @@
         <v>3</v>
       </c>
       <c r="S20" s="10">
+        <v>3</v>
+      </c>
+      <c r="T20" s="10">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="T20" s="10">
+      <c r="U20" s="10">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="U20" s="10" t="s">
+      <c r="V20" s="10" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -4158,34 +4385,34 @@
       <c r="F21" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="N21" s="10">
-        <v>3</v>
-      </c>
       <c r="O21" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P21" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q21" s="10">
         <v>3</v>
       </c>
       <c r="R21" s="10">
+        <v>3</v>
+      </c>
+      <c r="S21" s="10">
         <v>2.5</v>
       </c>
-      <c r="S21" s="10">
+      <c r="T21" s="10">
         <f t="shared" si="0"/>
         <v>15.5</v>
       </c>
-      <c r="T21" s="10">
+      <c r="U21" s="10">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="U21" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="V21" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -4199,37 +4426,37 @@
       <c r="F22" s="7">
         <v>8240520804</v>
       </c>
-      <c r="L22" s="1" t="s">
+      <c r="M22" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N22" s="10">
-        <v>3</v>
-      </c>
       <c r="O22" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P22" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q22" s="10">
         <v>5</v>
       </c>
       <c r="R22" s="10">
+        <v>5</v>
+      </c>
+      <c r="S22" s="10">
         <v>4.5</v>
       </c>
-      <c r="S22" s="10">
+      <c r="T22" s="10">
         <f t="shared" si="0"/>
         <v>21.5</v>
       </c>
-      <c r="T22" s="10">
+      <c r="U22" s="10">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="U22" s="10" t="s">
+      <c r="V22" s="10" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -4242,12 +4469,9 @@
       <c r="F23" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="L23" s="1" t="s">
+      <c r="M23" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="N23" s="10">
-        <v>4</v>
-      </c>
       <c r="O23" s="10">
         <v>4</v>
       </c>
@@ -4255,24 +4479,27 @@
         <v>4</v>
       </c>
       <c r="Q23" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R23" s="10">
+        <v>3</v>
+      </c>
+      <c r="S23" s="10">
         <v>2.5</v>
       </c>
-      <c r="S23" s="10">
+      <c r="T23" s="10">
         <f t="shared" si="0"/>
         <v>17.5</v>
       </c>
-      <c r="T23" s="10">
+      <c r="U23" s="10">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="U23" s="10" t="s">
+      <c r="V23" s="10" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -4289,37 +4516,37 @@
       <c r="F24" s="7">
         <v>8961111167</v>
       </c>
-      <c r="L24" s="1" t="s">
+      <c r="M24" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="N24" s="10">
-        <v>3</v>
-      </c>
       <c r="O24" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P24" s="10">
         <v>5</v>
       </c>
       <c r="Q24" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R24" s="10">
+        <v>4</v>
+      </c>
+      <c r="S24" s="10">
         <v>3.5</v>
       </c>
-      <c r="S24" s="10">
+      <c r="T24" s="10">
         <f t="shared" si="0"/>
         <v>20.5</v>
       </c>
-      <c r="T24" s="10">
+      <c r="U24" s="10">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="U24" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="V24" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -4336,34 +4563,34 @@
       <c r="F25" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="N25" s="10">
-        <v>4</v>
-      </c>
       <c r="O25" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P25" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q25" s="10">
         <v>4</v>
       </c>
       <c r="R25" s="10">
+        <v>4</v>
+      </c>
+      <c r="S25" s="10">
         <v>2.5</v>
       </c>
-      <c r="S25" s="10">
+      <c r="T25" s="10">
         <f t="shared" si="0"/>
         <v>17.5</v>
       </c>
-      <c r="T25" s="10">
+      <c r="U25" s="10">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="U25" s="10" t="s">
+      <c r="V25" s="10" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -4380,11 +4607,8 @@
       <c r="F26" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="N26" s="10">
-        <v>3</v>
-      </c>
       <c r="O26" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P26" s="10">
         <v>5</v>
@@ -4393,21 +4617,24 @@
         <v>5</v>
       </c>
       <c r="R26" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S26" s="10">
+        <v>4</v>
+      </c>
+      <c r="T26" s="10">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="T26" s="10">
+      <c r="U26" s="10">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="U26" s="10" t="s">
+      <c r="V26" s="10" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -4424,11 +4651,8 @@
       <c r="F27" s="7">
         <v>7044096127</v>
       </c>
-      <c r="N27" s="10">
-        <v>3</v>
-      </c>
       <c r="O27" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P27" s="10">
         <v>4</v>
@@ -4440,18 +4664,21 @@
         <v>4</v>
       </c>
       <c r="S27" s="10">
+        <v>4</v>
+      </c>
+      <c r="T27" s="10">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="T27" s="10">
+      <c r="U27" s="10">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="U27" s="10" t="s">
+      <c r="V27" s="10" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -4473,12 +4700,9 @@
       <c r="K28" s="1">
         <v>1</v>
       </c>
-      <c r="M28" s="1" t="s">
+      <c r="N28" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="N28" s="10">
-        <v>3</v>
-      </c>
       <c r="O28" s="10">
         <v>3</v>
       </c>
@@ -4489,21 +4713,24 @@
         <v>3</v>
       </c>
       <c r="R28" s="10">
+        <v>3</v>
+      </c>
+      <c r="S28" s="10">
         <v>2.5</v>
       </c>
-      <c r="S28" s="10">
+      <c r="T28" s="10">
         <f t="shared" si="0"/>
         <v>14.5</v>
       </c>
-      <c r="T28" s="10">
+      <c r="U28" s="10">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="U28" s="10" t="s">
+      <c r="V28" s="10" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -4516,14 +4743,11 @@
       <c r="F29" s="7">
         <v>9831274629</v>
       </c>
-      <c r="N29" s="10">
-        <v>4</v>
-      </c>
       <c r="O29" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P29" s="10">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Q29" s="10">
         <v>3.5</v>
@@ -4532,18 +4756,21 @@
         <v>3.5</v>
       </c>
       <c r="S29" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="T29" s="10">
         <f t="shared" si="0"/>
         <v>17.5</v>
       </c>
-      <c r="T29" s="10">
+      <c r="U29" s="10">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="U29" s="10" t="s">
+      <c r="V29" s="10" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -4560,34 +4787,34 @@
       <c r="F30" s="7">
         <v>8777257554</v>
       </c>
-      <c r="N30" s="10">
-        <v>4</v>
-      </c>
       <c r="O30" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P30" s="10">
+        <v>3</v>
+      </c>
+      <c r="Q30" s="10">
         <v>3.5</v>
-      </c>
-      <c r="Q30" s="10">
-        <v>2.5</v>
       </c>
       <c r="R30" s="10">
         <v>2.5</v>
       </c>
       <c r="S30" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="T30" s="10">
         <f t="shared" si="0"/>
         <v>15.5</v>
       </c>
-      <c r="T30" s="10">
+      <c r="U30" s="10">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="U30" s="10" t="s">
+      <c r="V30" s="10" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -4601,37 +4828,37 @@
       <c r="F31" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="L31" s="1" t="s">
+      <c r="M31" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N31" s="10">
+      <c r="O31" s="10">
         <v>2.5</v>
-      </c>
-      <c r="O31" s="10">
-        <v>4.5</v>
       </c>
       <c r="P31" s="10">
         <v>4.5</v>
       </c>
       <c r="Q31" s="10">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="R31" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S31" s="10">
+        <v>3</v>
+      </c>
+      <c r="T31" s="10">
         <f t="shared" si="0"/>
         <v>18.5</v>
       </c>
-      <c r="T31" s="10">
+      <c r="U31" s="10">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="U31" s="10" t="s">
+      <c r="V31" s="10" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -4645,14 +4872,11 @@
       <c r="F32" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="L32" s="1" t="s">
+      <c r="M32" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N32" s="10">
-        <v>3</v>
-      </c>
       <c r="O32" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P32" s="10">
         <v>5</v>
@@ -4661,21 +4885,24 @@
         <v>5</v>
       </c>
       <c r="R32" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S32" s="10">
+        <v>4</v>
+      </c>
+      <c r="T32" s="10">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="T32" s="10">
+      <c r="U32" s="10">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="U32" s="10" t="s">
+      <c r="V32" s="10" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -4692,12 +4919,9 @@
       <c r="F33" s="7">
         <v>3322651531</v>
       </c>
-      <c r="N33" s="10">
+      <c r="O33" s="10">
         <v>2</v>
       </c>
-      <c r="O33" s="10">
-        <v>4</v>
-      </c>
       <c r="P33" s="10">
         <v>4</v>
       </c>
@@ -4705,21 +4929,24 @@
         <v>4</v>
       </c>
       <c r="R33" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S33" s="10">
+        <v>3</v>
+      </c>
+      <c r="T33" s="10">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="T33" s="10">
+      <c r="U33" s="10">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="U33" s="10" t="s">
+      <c r="V33" s="10" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -4732,34 +4959,34 @@
       <c r="F34" s="7">
         <v>3324753015</v>
       </c>
-      <c r="N34" s="10">
-        <v>3</v>
-      </c>
       <c r="O34" s="10">
         <v>3</v>
       </c>
       <c r="P34" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q34" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R34" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S34" s="10">
+        <v>3</v>
+      </c>
+      <c r="T34" s="10">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="T34" s="10">
+      <c r="U34" s="10">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="U34" s="10" t="s">
+      <c r="V34" s="10" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="35" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -4776,37 +5003,37 @@
       <c r="F35" s="7">
         <v>3340196666</v>
       </c>
-      <c r="L35" s="1" t="s">
+      <c r="M35" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="N35" s="10">
-        <v>3</v>
-      </c>
       <c r="O35" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P35" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q35" s="10">
         <v>5</v>
       </c>
       <c r="R35" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S35" s="10">
+        <v>4</v>
+      </c>
+      <c r="T35" s="10">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="T35" s="10">
+      <c r="U35" s="10">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="U35" s="10" t="s">
+      <c r="V35" s="10" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -4822,9 +5049,6 @@
       <c r="F36" s="7">
         <v>3324753765</v>
       </c>
-      <c r="N36" s="10">
-        <v>3</v>
-      </c>
       <c r="O36" s="10">
         <v>3</v>
       </c>
@@ -4832,24 +5056,27 @@
         <v>3</v>
       </c>
       <c r="Q36" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R36" s="10">
+        <v>5</v>
+      </c>
+      <c r="S36" s="10">
         <v>2</v>
       </c>
-      <c r="S36" s="10">
+      <c r="T36" s="10">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="T36" s="10">
+      <c r="U36" s="10">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="U36" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="V36" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -4866,34 +5093,34 @@
       <c r="F37" s="7">
         <v>3324286903</v>
       </c>
-      <c r="N37" s="10">
-        <v>4</v>
-      </c>
       <c r="O37" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P37" s="10">
         <v>3</v>
       </c>
       <c r="Q37" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R37" s="10">
         <v>4</v>
       </c>
       <c r="S37" s="10">
+        <v>4</v>
+      </c>
+      <c r="T37" s="10">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="T37" s="10">
+      <c r="U37" s="10">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="U37" s="10" t="s">
+      <c r="V37" s="10" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -4906,34 +5133,34 @@
       <c r="F38" s="8">
         <v>8902488077</v>
       </c>
-      <c r="N38" s="10">
+      <c r="O38" s="10">
         <v>2</v>
       </c>
-      <c r="O38" s="10">
-        <v>4</v>
-      </c>
       <c r="P38" s="10">
         <v>4</v>
       </c>
       <c r="Q38" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R38" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S38" s="10">
+        <v>3</v>
+      </c>
+      <c r="T38" s="10">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="T38" s="10">
+      <c r="U38" s="10">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="U38" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V38" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -4946,11 +5173,8 @@
       <c r="F39" s="9">
         <v>9163741069</v>
       </c>
-      <c r="N39" s="10">
-        <v>3</v>
-      </c>
       <c r="O39" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P39" s="10">
         <v>4</v>
@@ -4959,21 +5183,24 @@
         <v>4</v>
       </c>
       <c r="R39" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S39" s="10">
+        <v>3</v>
+      </c>
+      <c r="T39" s="10">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="T39" s="10">
+      <c r="U39" s="10">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="U39" s="10" t="s">
+      <c r="V39" s="10" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -4986,12 +5213,9 @@
       <c r="F40" s="9">
         <v>3324411691</v>
       </c>
-      <c r="N40" s="10">
+      <c r="O40" s="10">
         <v>2</v>
       </c>
-      <c r="O40" s="10">
-        <v>3</v>
-      </c>
       <c r="P40" s="10">
         <v>3</v>
       </c>
@@ -5002,18 +5226,21 @@
         <v>3</v>
       </c>
       <c r="S40" s="10">
+        <v>3</v>
+      </c>
+      <c r="T40" s="10">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="T40" s="10">
+      <c r="U40" s="10">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="U40" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="V40" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -5030,34 +5257,34 @@
       <c r="F41" s="7">
         <v>3324413804</v>
       </c>
-      <c r="N41" s="10">
-        <v>4</v>
-      </c>
       <c r="O41" s="10">
         <v>4</v>
       </c>
       <c r="P41" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q41" s="10">
         <v>5</v>
       </c>
       <c r="R41" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S41" s="10">
+        <v>3</v>
+      </c>
+      <c r="T41" s="10">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="T41" s="10">
+      <c r="U41" s="10">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="U41" s="10" t="s">
+      <c r="V41" s="10" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -5074,12 +5301,9 @@
       <c r="F42" s="7">
         <v>9830688888</v>
       </c>
-      <c r="N42" s="10">
+      <c r="O42" s="10">
         <v>2</v>
       </c>
-      <c r="O42" s="10">
-        <v>5</v>
-      </c>
       <c r="P42" s="10">
         <v>5</v>
       </c>
@@ -5090,18 +5314,21 @@
         <v>5</v>
       </c>
       <c r="S42" s="10">
+        <v>5</v>
+      </c>
+      <c r="T42" s="10">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="T42" s="10">
+      <c r="U42" s="10">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="U42" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V42" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -5118,11 +5345,8 @@
       <c r="F43" s="7">
         <v>9073985531</v>
       </c>
-      <c r="N43" s="10">
-        <v>3</v>
-      </c>
       <c r="O43" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P43" s="10">
         <v>5</v>
@@ -5134,18 +5358,21 @@
         <v>5</v>
       </c>
       <c r="S43" s="10">
+        <v>5</v>
+      </c>
+      <c r="T43" s="10">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="T43" s="10">
+      <c r="U43" s="10">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="U43" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V43" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -5158,14 +5385,11 @@
       <c r="F44" s="7">
         <v>3324712220</v>
       </c>
-      <c r="N44" s="10">
-        <v>4</v>
-      </c>
       <c r="O44" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P44" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q44" s="10">
         <v>4</v>
@@ -5174,18 +5398,21 @@
         <v>4</v>
       </c>
       <c r="S44" s="10">
+        <v>4</v>
+      </c>
+      <c r="T44" s="10">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="T44" s="10">
+      <c r="U44" s="10">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="U44" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V44" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -5198,9 +5425,6 @@
       <c r="F45" s="7">
         <v>3324131158</v>
       </c>
-      <c r="N45" s="10">
-        <v>3</v>
-      </c>
       <c r="O45" s="10">
         <v>3</v>
       </c>
@@ -5211,21 +5435,24 @@
         <v>3</v>
       </c>
       <c r="R45" s="10">
+        <v>3</v>
+      </c>
+      <c r="S45" s="10">
         <v>2</v>
       </c>
-      <c r="S45" s="10">
+      <c r="T45" s="10">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="T45" s="10">
+      <c r="U45" s="10">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="U45" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V45" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -5238,11 +5465,8 @@
       <c r="F46" s="7">
         <v>9836242629</v>
       </c>
-      <c r="N46" s="10">
-        <v>4</v>
-      </c>
       <c r="O46" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P46" s="10">
         <v>3</v>
@@ -5251,21 +5475,24 @@
         <v>3</v>
       </c>
       <c r="R46" s="10">
+        <v>3</v>
+      </c>
+      <c r="S46" s="10">
         <v>2</v>
       </c>
-      <c r="S46" s="10">
+      <c r="T46" s="10">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="T46" s="10">
+      <c r="U46" s="10">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="U46" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="V46" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -5282,11 +5509,8 @@
       <c r="F47" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="N47" s="10">
-        <v>3</v>
-      </c>
       <c r="O47" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P47" s="10">
         <v>4</v>
@@ -5298,18 +5522,21 @@
         <v>4</v>
       </c>
       <c r="S47" s="10">
+        <v>4</v>
+      </c>
+      <c r="T47" s="10">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="T47" s="10">
+      <c r="U47" s="10">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="U47" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V47" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -5326,34 +5553,34 @@
       <c r="F48" s="7">
         <v>9051973905</v>
       </c>
-      <c r="N48" s="10">
+      <c r="O48" s="10">
         <v>2</v>
       </c>
-      <c r="O48" s="10">
-        <v>4</v>
-      </c>
       <c r="P48" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q48" s="10">
         <v>5</v>
       </c>
       <c r="R48" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S48" s="10">
+        <v>4</v>
+      </c>
+      <c r="T48" s="10">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="T48" s="10">
+      <c r="U48" s="10">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="U48" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="V48" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -5370,34 +5597,34 @@
       <c r="F49" s="7">
         <v>9674850783</v>
       </c>
-      <c r="N49" s="10">
+      <c r="O49" s="10">
         <v>2</v>
       </c>
-      <c r="O49" s="10">
-        <v>3</v>
-      </c>
       <c r="P49" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q49" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R49" s="10">
         <v>3</v>
       </c>
       <c r="S49" s="10">
+        <v>3</v>
+      </c>
+      <c r="T49" s="10">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="T49" s="10">
+      <c r="U49" s="10">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="U49" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="V49" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -5413,34 +5640,34 @@
       <c r="F50" s="7">
         <v>9674111783</v>
       </c>
-      <c r="N50" s="10">
-        <v>4</v>
-      </c>
       <c r="O50" s="10">
+        <v>4</v>
+      </c>
+      <c r="P50" s="10">
         <v>2</v>
       </c>
-      <c r="P50" s="10">
-        <v>3</v>
-      </c>
       <c r="Q50" s="10">
         <v>3</v>
       </c>
       <c r="R50" s="10">
+        <v>3</v>
+      </c>
+      <c r="S50" s="10">
         <v>1</v>
       </c>
-      <c r="S50" s="10">
+      <c r="T50" s="10">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="T50" s="10">
+      <c r="U50" s="10">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="U50" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V50" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -5457,34 +5684,34 @@
       <c r="F51" s="7">
         <v>33218260082</v>
       </c>
-      <c r="N51" s="10">
+      <c r="O51" s="10">
         <v>2</v>
       </c>
-      <c r="O51" s="10">
-        <v>4</v>
-      </c>
       <c r="P51" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q51" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R51" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S51" s="10">
+        <v>3</v>
+      </c>
+      <c r="T51" s="10">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="T51" s="10">
+      <c r="U51" s="10">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="U51" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V51" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -5501,11 +5728,8 @@
       <c r="F52" s="7">
         <v>3322879202</v>
       </c>
-      <c r="N52" s="10">
-        <v>3</v>
-      </c>
       <c r="O52" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P52" s="10">
         <v>5</v>
@@ -5514,21 +5738,24 @@
         <v>5</v>
       </c>
       <c r="R52" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S52" s="10">
+        <v>4</v>
+      </c>
+      <c r="T52" s="10">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="T52" s="10">
+      <c r="U52" s="10">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="U52" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V52" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -5545,11 +5772,8 @@
       <c r="F53" s="7">
         <v>3322841546</v>
       </c>
-      <c r="N53" s="10">
-        <v>3</v>
-      </c>
       <c r="O53" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P53" s="10">
         <v>5</v>
@@ -5561,18 +5785,21 @@
         <v>5</v>
       </c>
       <c r="S53" s="10">
+        <v>5</v>
+      </c>
+      <c r="T53" s="10">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="T53" s="10">
+      <c r="U53" s="10">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="U53" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="V53" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -5589,11 +5816,8 @@
       <c r="F54" s="7">
         <v>3322484593</v>
       </c>
-      <c r="N54" s="10">
-        <v>3</v>
-      </c>
       <c r="O54" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P54" s="10">
         <v>4</v>
@@ -5605,18 +5829,21 @@
         <v>4</v>
       </c>
       <c r="S54" s="10">
+        <v>4</v>
+      </c>
+      <c r="T54" s="10">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="T54" s="10">
+      <c r="U54" s="10">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="U54" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="V54" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -5633,11 +5860,8 @@
       <c r="F55" s="7">
         <v>3322297741</v>
       </c>
-      <c r="N55" s="10">
-        <v>3</v>
-      </c>
       <c r="O55" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P55" s="10">
         <v>4</v>
@@ -5646,21 +5870,24 @@
         <v>4</v>
       </c>
       <c r="R55" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S55" s="10">
+        <v>3</v>
+      </c>
+      <c r="T55" s="10">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="T55" s="10">
+      <c r="U55" s="10">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="U55" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="56" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="V55" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -5677,34 +5904,34 @@
       <c r="F56" s="7">
         <v>3324793241</v>
       </c>
-      <c r="N56" s="10">
+      <c r="O56" s="10">
         <v>2</v>
       </c>
-      <c r="O56" s="10">
-        <v>3</v>
-      </c>
       <c r="P56" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q56" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R56" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S56" s="10">
+        <v>4</v>
+      </c>
+      <c r="T56" s="10">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="T56" s="10">
+      <c r="U56" s="10">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="U56" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V56" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -5721,9 +5948,6 @@
       <c r="F57" s="7">
         <v>3324344455</v>
       </c>
-      <c r="N57" s="10">
-        <v>3</v>
-      </c>
       <c r="O57" s="10">
         <v>3</v>
       </c>
@@ -5734,21 +5958,24 @@
         <v>3</v>
       </c>
       <c r="R57" s="10">
+        <v>3</v>
+      </c>
+      <c r="S57" s="10">
         <v>2</v>
       </c>
-      <c r="S57" s="10">
+      <c r="T57" s="10">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="T57" s="10">
+      <c r="U57" s="10">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="U57" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V57" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -5765,9 +5992,6 @@
       <c r="F58" s="7">
         <v>3340083093</v>
       </c>
-      <c r="N58" s="10">
-        <v>3</v>
-      </c>
       <c r="O58" s="10">
         <v>3</v>
       </c>
@@ -5775,24 +5999,27 @@
         <v>3</v>
       </c>
       <c r="Q58" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R58" s="10">
         <v>2</v>
       </c>
       <c r="S58" s="10">
+        <v>2</v>
+      </c>
+      <c r="T58" s="10">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="T58" s="10">
+      <c r="U58" s="10">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="U58" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V58" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -5809,34 +6036,34 @@
       <c r="F59" s="7">
         <v>3324618002</v>
       </c>
-      <c r="N59" s="10">
+      <c r="O59" s="10">
         <v>2</v>
       </c>
-      <c r="O59" s="10">
-        <v>3</v>
-      </c>
       <c r="P59" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q59" s="10">
         <v>4</v>
       </c>
       <c r="R59" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S59" s="10">
+        <v>3</v>
+      </c>
+      <c r="T59" s="10">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="T59" s="10">
+      <c r="U59" s="10">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="U59" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="60" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="V59" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -5853,34 +6080,34 @@
       <c r="F60" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="N60" s="10">
+      <c r="O60" s="10">
         <v>2</v>
       </c>
-      <c r="O60" s="10">
-        <v>3</v>
-      </c>
       <c r="P60" s="10">
         <v>3</v>
       </c>
       <c r="Q60" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R60" s="10">
         <v>4</v>
       </c>
       <c r="S60" s="10">
+        <v>4</v>
+      </c>
+      <c r="T60" s="10">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="T60" s="10">
+      <c r="U60" s="10">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="U60" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="61" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="V60" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -5897,11 +6124,8 @@
       <c r="F61" s="7">
         <v>3324569090</v>
       </c>
-      <c r="N61" s="10">
-        <v>4</v>
-      </c>
       <c r="O61" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P61" s="10">
         <v>5</v>
@@ -5913,18 +6137,21 @@
         <v>5</v>
       </c>
       <c r="S61" s="10">
+        <v>5</v>
+      </c>
+      <c r="T61" s="10">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="T61" s="10">
+      <c r="U61" s="10">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="U61" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="62" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="V61" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -5941,9 +6168,6 @@
       <c r="F62" s="7">
         <v>3322233062</v>
       </c>
-      <c r="N62" s="10">
-        <v>4</v>
-      </c>
       <c r="O62" s="10">
         <v>4</v>
       </c>
@@ -5957,18 +6181,21 @@
         <v>4</v>
       </c>
       <c r="S62" s="10">
+        <v>4</v>
+      </c>
+      <c r="T62" s="10">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="T62" s="10">
+      <c r="U62" s="10">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="U62" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="63" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="V62" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -5985,34 +6212,34 @@
       <c r="F63" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="N63" s="10">
-        <v>3</v>
-      </c>
       <c r="O63" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P63" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q63" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R63" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S63" s="10">
+        <v>3</v>
+      </c>
+      <c r="T63" s="10">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="T63" s="10">
+      <c r="U63" s="10">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="U63" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V63" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -6029,11 +6256,8 @@
       <c r="F64" s="7">
         <v>3324793600</v>
       </c>
-      <c r="N64" s="10">
-        <v>4</v>
-      </c>
       <c r="O64" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P64" s="10">
         <v>5</v>
@@ -6045,18 +6269,21 @@
         <v>5</v>
       </c>
       <c r="S64" s="10">
+        <v>5</v>
+      </c>
+      <c r="T64" s="10">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="T64" s="10">
+      <c r="U64" s="10">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="U64" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="65" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="V64" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -6073,9 +6300,6 @@
       <c r="F65" s="7">
         <v>3324866629</v>
       </c>
-      <c r="N65" s="10">
-        <v>3</v>
-      </c>
       <c r="O65" s="10">
         <v>3</v>
       </c>
@@ -6083,24 +6307,27 @@
         <v>3</v>
       </c>
       <c r="Q65" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R65" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S65" s="10">
+        <v>3</v>
+      </c>
+      <c r="T65" s="10">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="T65" s="10">
+      <c r="U65" s="10">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="U65" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V65" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -6117,34 +6344,34 @@
       <c r="F66" s="7">
         <v>3322848038</v>
       </c>
-      <c r="N66" s="10">
-        <v>3</v>
-      </c>
       <c r="O66" s="10">
         <v>3</v>
       </c>
       <c r="P66" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q66" s="10">
         <v>4</v>
       </c>
       <c r="R66" s="10">
+        <v>4</v>
+      </c>
+      <c r="S66" s="10">
         <v>2</v>
       </c>
-      <c r="S66" s="10">
+      <c r="T66" s="10">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="T66" s="10">
+      <c r="U66" s="10">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="U66" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V66" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -6161,11 +6388,8 @@
       <c r="F67" s="7">
         <v>905188888</v>
       </c>
-      <c r="N67" s="10">
-        <v>3</v>
-      </c>
       <c r="O67" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P67" s="10">
         <v>5</v>
@@ -6174,21 +6398,24 @@
         <v>5</v>
       </c>
       <c r="R67" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S67" s="10">
-        <f t="shared" ref="S67:S126" si="2">SUM(N67:R67)</f>
+        <v>4</v>
+      </c>
+      <c r="T67" s="10">
+        <f t="shared" ref="T67:T126" si="2">SUM(O67:S67)</f>
         <v>22</v>
       </c>
-      <c r="T67" s="10">
+      <c r="U67" s="10">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="U67" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V67" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -6205,34 +6432,34 @@
       <c r="F68" s="7">
         <v>7596949952</v>
       </c>
-      <c r="N68" s="10">
+      <c r="O68" s="10">
         <v>2</v>
       </c>
-      <c r="O68" s="10">
-        <v>5</v>
-      </c>
       <c r="P68" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q68" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R68" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S68" s="10">
+        <v>4</v>
+      </c>
+      <c r="T68" s="10">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="T68" s="10">
-        <f t="shared" ref="T68:T126" si="3">ROUND(S68/5,0)</f>
-        <v>4</v>
-      </c>
-      <c r="U68" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="69" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="U68" s="10">
+        <f t="shared" ref="U68:U126" si="3">ROUND(T68/5,0)</f>
+        <v>4</v>
+      </c>
+      <c r="V68" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -6249,34 +6476,34 @@
       <c r="F69" s="7">
         <v>7478196910</v>
       </c>
-      <c r="N69" s="10">
+      <c r="O69" s="10">
         <v>2</v>
       </c>
-      <c r="O69" s="10">
-        <v>4</v>
-      </c>
       <c r="P69" s="10">
         <v>4</v>
       </c>
       <c r="Q69" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R69" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S69" s="10">
+        <v>4</v>
+      </c>
+      <c r="T69" s="10">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="T69" s="10">
+      <c r="U69" s="10">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="U69" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="70" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="V69" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -6293,34 +6520,34 @@
       <c r="F70" s="7">
         <v>7044447761</v>
       </c>
-      <c r="N70" s="10">
-        <v>4</v>
-      </c>
       <c r="O70" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P70" s="10">
         <v>3</v>
       </c>
       <c r="Q70" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R70" s="10">
+        <v>4</v>
+      </c>
+      <c r="S70" s="10">
         <v>2</v>
       </c>
-      <c r="S70" s="10">
+      <c r="T70" s="10">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="T70" s="10">
+      <c r="U70" s="10">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="U70" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="71" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="V70" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -6337,9 +6564,6 @@
       <c r="F71" s="7">
         <v>7059600647</v>
       </c>
-      <c r="N71" s="10">
-        <v>3</v>
-      </c>
       <c r="O71" s="10">
         <v>3</v>
       </c>
@@ -6347,24 +6571,27 @@
         <v>3</v>
       </c>
       <c r="Q71" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R71" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S71" s="10">
+        <v>3</v>
+      </c>
+      <c r="T71" s="10">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="T71" s="10">
+      <c r="U71" s="10">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="U71" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V71" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -6381,9 +6608,6 @@
       <c r="F72" s="7">
         <v>3340072444</v>
       </c>
-      <c r="N72" s="10">
-        <v>5</v>
-      </c>
       <c r="O72" s="10">
         <v>5</v>
       </c>
@@ -6391,24 +6615,27 @@
         <v>5</v>
       </c>
       <c r="Q72" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R72" s="10">
         <v>4</v>
       </c>
       <c r="S72" s="10">
+        <v>4</v>
+      </c>
+      <c r="T72" s="10">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="T72" s="10">
+      <c r="U72" s="10">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="U72" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="73" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="V72" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -6425,34 +6652,34 @@
       <c r="F73" s="7">
         <v>9903102957</v>
       </c>
-      <c r="N73" s="10">
-        <v>4</v>
-      </c>
       <c r="O73" s="10">
         <v>4</v>
       </c>
       <c r="P73" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q73" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R73" s="10">
         <v>3</v>
       </c>
       <c r="S73" s="10">
+        <v>3</v>
+      </c>
+      <c r="T73" s="10">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="T73" s="10">
+      <c r="U73" s="10">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="U73" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V73" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -6465,11 +6692,8 @@
       <c r="F74" s="7">
         <v>7605080650</v>
       </c>
-      <c r="N74" s="10">
-        <v>3</v>
-      </c>
       <c r="O74" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P74" s="10">
         <v>4</v>
@@ -6478,21 +6702,24 @@
         <v>4</v>
       </c>
       <c r="R74" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S74" s="10">
+        <v>3</v>
+      </c>
+      <c r="T74" s="10">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="T74" s="10">
+      <c r="U74" s="10">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="U74" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V74" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -6509,34 +6736,34 @@
       <c r="F75" s="7">
         <v>3324752135</v>
       </c>
-      <c r="N75" s="10">
-        <v>3</v>
-      </c>
       <c r="O75" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P75" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q75" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R75" s="10">
+        <v>4</v>
+      </c>
+      <c r="S75" s="10">
         <v>2</v>
       </c>
-      <c r="S75" s="10">
+      <c r="T75" s="10">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="T75" s="10">
+      <c r="U75" s="10">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="U75" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V75" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -6549,34 +6776,34 @@
       <c r="F76" s="7">
         <v>9674645471</v>
       </c>
-      <c r="N76" s="10">
-        <v>4</v>
-      </c>
       <c r="O76" s="10">
         <v>4</v>
       </c>
       <c r="P76" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q76" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R76" s="10">
         <v>4</v>
       </c>
       <c r="S76" s="10">
+        <v>4</v>
+      </c>
+      <c r="T76" s="10">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="T76" s="10">
+      <c r="U76" s="10">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="U76" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V76" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -6586,34 +6813,34 @@
       <c r="F77" s="7">
         <v>9073681886</v>
       </c>
-      <c r="N77" s="10">
-        <v>4</v>
-      </c>
       <c r="O77" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P77" s="10">
         <v>3</v>
       </c>
       <c r="Q77" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R77" s="10">
+        <v>4</v>
+      </c>
+      <c r="S77" s="10">
         <v>2</v>
       </c>
-      <c r="S77" s="10">
+      <c r="T77" s="10">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="T77" s="10">
+      <c r="U77" s="10">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="U77" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="78" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V77" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -6630,34 +6857,34 @@
       <c r="F78" s="7">
         <v>3324316997</v>
       </c>
-      <c r="N78" s="10">
-        <v>3</v>
-      </c>
       <c r="O78" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P78" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q78" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R78" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S78" s="10">
+        <v>5</v>
+      </c>
+      <c r="T78" s="10">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="T78" s="10">
+      <c r="U78" s="10">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="U78" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="79" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V78" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -6674,34 +6901,34 @@
       <c r="F79" s="7">
         <v>3322291779</v>
       </c>
-      <c r="N79" s="10">
-        <v>3</v>
-      </c>
       <c r="O79" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P79" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q79" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R79" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S79" s="10">
+        <v>5</v>
+      </c>
+      <c r="T79" s="10">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="T79" s="10">
+      <c r="U79" s="10">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="U79" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="80" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V79" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -6718,34 +6945,34 @@
       <c r="F80" s="7">
         <v>3323215151</v>
       </c>
-      <c r="N80" s="10">
+      <c r="O80" s="10">
         <v>2</v>
       </c>
-      <c r="O80" s="10">
-        <v>4</v>
-      </c>
       <c r="P80" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q80" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R80" s="10">
         <v>4</v>
       </c>
       <c r="S80" s="10">
+        <v>4</v>
+      </c>
+      <c r="T80" s="10">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="T80" s="10">
+      <c r="U80" s="10">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="U80" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="81" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="V80" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -6762,12 +6989,9 @@
       <c r="F81" s="7">
         <v>3323342404</v>
       </c>
-      <c r="N81" s="10">
+      <c r="O81" s="10">
         <v>2</v>
       </c>
-      <c r="O81" s="10">
-        <v>4</v>
-      </c>
       <c r="P81" s="10">
         <v>4</v>
       </c>
@@ -6775,21 +6999,24 @@
         <v>4</v>
       </c>
       <c r="R81" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S81" s="10">
+        <v>3</v>
+      </c>
+      <c r="T81" s="10">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="T81" s="10">
+      <c r="U81" s="10">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="U81" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="82" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="V81" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -6802,34 +7029,34 @@
       <c r="F82" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="N82" s="10">
-        <v>4</v>
-      </c>
       <c r="O82" s="10">
         <v>4</v>
       </c>
       <c r="P82" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q82" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R82" s="10">
         <v>2</v>
       </c>
       <c r="S82" s="10">
+        <v>2</v>
+      </c>
+      <c r="T82" s="10">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="T82" s="10">
+      <c r="U82" s="10">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="U82" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="83" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="V82" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -6842,9 +7069,6 @@
       <c r="F83" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="N83" s="10">
-        <v>3</v>
-      </c>
       <c r="O83" s="10">
         <v>3</v>
       </c>
@@ -6852,24 +7076,27 @@
         <v>3</v>
       </c>
       <c r="Q83" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R83" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S83" s="10">
+        <v>3</v>
+      </c>
+      <c r="T83" s="10">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="T83" s="10">
+      <c r="U83" s="10">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="U83" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="84" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V83" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -6882,34 +7109,34 @@
       <c r="F84" s="7">
         <v>9606279184</v>
       </c>
-      <c r="N84" s="10">
-        <v>3</v>
-      </c>
       <c r="O84" s="10">
         <v>3</v>
       </c>
       <c r="P84" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q84" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R84" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S84" s="10">
+        <v>4</v>
+      </c>
+      <c r="T84" s="10">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="T84" s="10">
+      <c r="U84" s="10">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="U84" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="85" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V84" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -6926,12 +7153,9 @@
       <c r="F85" s="7">
         <v>8777867589</v>
       </c>
-      <c r="N85" s="10">
+      <c r="O85" s="10">
         <v>2</v>
       </c>
-      <c r="O85" s="10">
-        <v>5</v>
-      </c>
       <c r="P85" s="10">
         <v>5</v>
       </c>
@@ -6942,18 +7166,21 @@
         <v>5</v>
       </c>
       <c r="S85" s="10">
+        <v>5</v>
+      </c>
+      <c r="T85" s="10">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="T85" s="10">
+      <c r="U85" s="10">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="U85" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V85" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -6966,12 +7193,9 @@
       <c r="F86" s="7">
         <v>8017672075</v>
       </c>
-      <c r="N86" s="10">
+      <c r="O86" s="10">
         <v>2</v>
       </c>
-      <c r="O86" s="10">
-        <v>5</v>
-      </c>
       <c r="P86" s="10">
         <v>5</v>
       </c>
@@ -6982,18 +7206,21 @@
         <v>5</v>
       </c>
       <c r="S86" s="10">
+        <v>5</v>
+      </c>
+      <c r="T86" s="10">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="T86" s="10">
+      <c r="U86" s="10">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="U86" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V86" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -7006,12 +7233,9 @@
       <c r="F87" s="7">
         <v>3324492810</v>
       </c>
-      <c r="N87" s="10">
+      <c r="O87" s="10">
         <v>2</v>
       </c>
-      <c r="O87" s="10">
-        <v>3</v>
-      </c>
       <c r="P87" s="10">
         <v>3</v>
       </c>
@@ -7022,18 +7246,21 @@
         <v>3</v>
       </c>
       <c r="S87" s="10">
+        <v>3</v>
+      </c>
+      <c r="T87" s="10">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="T87" s="10">
+      <c r="U87" s="10">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="U87" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V87" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -7050,34 +7277,34 @@
       <c r="F88" s="7">
         <v>3324967196</v>
       </c>
-      <c r="N88" s="10">
+      <c r="O88" s="10">
         <v>2</v>
       </c>
-      <c r="O88" s="10">
-        <v>4</v>
-      </c>
       <c r="P88" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q88" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R88" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S88" s="10">
+        <v>3</v>
+      </c>
+      <c r="T88" s="10">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="T88" s="10">
+      <c r="U88" s="10">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="U88" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V88" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -7094,34 +7321,34 @@
       <c r="F89" s="7">
         <v>9830701347</v>
       </c>
-      <c r="N89" s="10">
-        <v>3</v>
-      </c>
       <c r="O89" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P89" s="10">
         <v>4</v>
       </c>
       <c r="Q89" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R89" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S89" s="10">
+        <v>4</v>
+      </c>
+      <c r="T89" s="10">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="T89" s="10">
+      <c r="U89" s="10">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="U89" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V89" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -7134,34 +7361,34 @@
       <c r="F90" s="7">
         <v>3324961723</v>
       </c>
-      <c r="N90" s="10">
-        <v>4</v>
-      </c>
       <c r="O90" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P90" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q90" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R90" s="10">
+        <v>4</v>
+      </c>
+      <c r="S90" s="10">
         <v>1</v>
       </c>
-      <c r="S90" s="10">
+      <c r="T90" s="10">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="T90" s="10">
+      <c r="U90" s="10">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="U90" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="91" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="V90" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -7178,14 +7405,11 @@
       <c r="F91" s="7">
         <v>9007792852</v>
       </c>
-      <c r="N91" s="10">
-        <v>4</v>
-      </c>
       <c r="O91" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P91" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q91" s="10">
         <v>4</v>
@@ -7194,18 +7418,21 @@
         <v>4</v>
       </c>
       <c r="S91" s="10">
+        <v>4</v>
+      </c>
+      <c r="T91" s="10">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="T91" s="10">
+      <c r="U91" s="10">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="U91" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V91" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -7218,12 +7445,9 @@
       <c r="F92" s="7">
         <v>8902765583</v>
       </c>
-      <c r="N92" s="10">
+      <c r="O92" s="10">
         <v>1</v>
       </c>
-      <c r="O92" s="10">
-        <v>4</v>
-      </c>
       <c r="P92" s="10">
         <v>4</v>
       </c>
@@ -7234,18 +7458,21 @@
         <v>4</v>
       </c>
       <c r="S92" s="10">
+        <v>4</v>
+      </c>
+      <c r="T92" s="10">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="T92" s="10">
+      <c r="U92" s="10">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="U92" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V92" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -7258,9 +7485,6 @@
       <c r="F93" s="7">
         <v>9331866252</v>
       </c>
-      <c r="N93" s="10">
-        <v>4</v>
-      </c>
       <c r="O93" s="10">
         <v>4</v>
       </c>
@@ -7274,18 +7498,21 @@
         <v>4</v>
       </c>
       <c r="S93" s="10">
+        <v>4</v>
+      </c>
+      <c r="T93" s="10">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="T93" s="10">
+      <c r="U93" s="10">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="U93" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V93" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -7298,34 +7525,34 @@
       <c r="F94" s="7">
         <v>9903540099</v>
       </c>
-      <c r="N94" s="10">
+      <c r="O94" s="10">
         <v>1</v>
       </c>
-      <c r="O94" s="10">
-        <v>3</v>
-      </c>
       <c r="P94" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q94" s="10">
         <v>4</v>
       </c>
       <c r="R94" s="10">
+        <v>4</v>
+      </c>
+      <c r="S94" s="10">
         <v>2</v>
       </c>
-      <c r="S94" s="10">
+      <c r="T94" s="10">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="T94" s="10">
+      <c r="U94" s="10">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="U94" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V94" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -7338,12 +7565,9 @@
       <c r="F95" s="7">
         <v>8336998663</v>
       </c>
-      <c r="N95" s="10">
+      <c r="O95" s="10">
         <v>1</v>
       </c>
-      <c r="O95" s="10">
-        <v>4</v>
-      </c>
       <c r="P95" s="10">
         <v>4</v>
       </c>
@@ -7351,21 +7575,24 @@
         <v>4</v>
       </c>
       <c r="R95" s="10">
+        <v>4</v>
+      </c>
+      <c r="S95" s="10">
         <v>2</v>
       </c>
-      <c r="S95" s="10">
+      <c r="T95" s="10">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="T95" s="10">
+      <c r="U95" s="10">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="U95" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V95" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -7378,34 +7605,34 @@
       <c r="F96" s="7">
         <v>9339527506</v>
       </c>
-      <c r="N96" s="10">
+      <c r="O96" s="10">
         <v>1</v>
       </c>
-      <c r="O96" s="10">
-        <v>4</v>
-      </c>
       <c r="P96" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q96" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R96" s="10">
+        <v>4</v>
+      </c>
+      <c r="S96" s="10">
         <v>1</v>
       </c>
-      <c r="S96" s="10">
+      <c r="T96" s="10">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="T96" s="10">
+      <c r="U96" s="10">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="U96" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V96" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -7418,34 +7645,34 @@
       <c r="F97" s="7">
         <v>9903312630</v>
       </c>
-      <c r="N97" s="10">
-        <v>5</v>
-      </c>
       <c r="O97" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P97" s="10">
         <v>3</v>
       </c>
       <c r="Q97" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R97" s="10">
         <v>1</v>
       </c>
       <c r="S97" s="10">
+        <v>1</v>
+      </c>
+      <c r="T97" s="10">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="T97" s="10">
+      <c r="U97" s="10">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="U97" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V97" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>97</v>
       </c>
@@ -7458,34 +7685,34 @@
       <c r="F98" s="7">
         <v>9836747400</v>
       </c>
-      <c r="N98" s="10">
-        <v>5</v>
-      </c>
       <c r="O98" s="10">
+        <v>5</v>
+      </c>
+      <c r="P98" s="10">
         <v>2</v>
       </c>
-      <c r="P98" s="10">
-        <v>4</v>
-      </c>
       <c r="Q98" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R98" s="10">
+        <v>3</v>
+      </c>
+      <c r="S98" s="10">
         <v>1</v>
       </c>
-      <c r="S98" s="10">
+      <c r="T98" s="10">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="T98" s="10">
+      <c r="U98" s="10">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="U98" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V98" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>98</v>
       </c>
@@ -7498,34 +7725,34 @@
       <c r="F99" s="7">
         <v>8100188019</v>
       </c>
-      <c r="N99" s="10">
-        <v>4</v>
-      </c>
       <c r="O99" s="10">
+        <v>4</v>
+      </c>
+      <c r="P99" s="10">
         <v>2</v>
       </c>
-      <c r="P99" s="10">
-        <v>3</v>
-      </c>
       <c r="Q99" s="10">
+        <v>3</v>
+      </c>
+      <c r="R99" s="10">
         <v>2</v>
       </c>
-      <c r="R99" s="10">
+      <c r="S99" s="10">
         <v>1</v>
       </c>
-      <c r="S99" s="10">
+      <c r="T99" s="10">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="T99" s="10">
+      <c r="U99" s="10">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="U99" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V99" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -7538,11 +7765,8 @@
       <c r="F100" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="N100" s="10">
-        <v>4</v>
-      </c>
       <c r="O100" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P100" s="10">
         <v>2</v>
@@ -7551,21 +7775,24 @@
         <v>2</v>
       </c>
       <c r="R100" s="10">
+        <v>2</v>
+      </c>
+      <c r="S100" s="10">
         <v>1</v>
       </c>
-      <c r="S100" s="10">
+      <c r="T100" s="10">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="T100" s="10">
+      <c r="U100" s="10">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="U100" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V100" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>100</v>
       </c>
@@ -7578,9 +7805,6 @@
       <c r="F101" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="N101" s="10">
-        <v>4</v>
-      </c>
       <c r="O101" s="10">
         <v>4</v>
       </c>
@@ -7588,24 +7812,27 @@
         <v>4</v>
       </c>
       <c r="Q101" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R101" s="10">
+        <v>3</v>
+      </c>
+      <c r="S101" s="10">
         <v>2</v>
       </c>
-      <c r="S101" s="10">
+      <c r="T101" s="10">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="T101" s="10">
+      <c r="U101" s="10">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="U101" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="102" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="V101" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="102" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>101</v>
       </c>
@@ -7618,34 +7845,34 @@
       <c r="F102" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="N102" s="10">
-        <v>4</v>
-      </c>
       <c r="O102" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P102" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q102" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R102" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S102" s="10">
+        <v>3</v>
+      </c>
+      <c r="T102" s="10">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="T102" s="10">
+      <c r="U102" s="10">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="U102" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V102" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="103" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>102</v>
       </c>
@@ -7658,34 +7885,34 @@
       <c r="F103" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="N103" s="10">
-        <v>4</v>
-      </c>
       <c r="O103" s="10">
+        <v>4</v>
+      </c>
+      <c r="P103" s="10">
         <v>2</v>
       </c>
-      <c r="P103" s="10">
-        <v>4</v>
-      </c>
       <c r="Q103" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R103" s="10">
+        <v>3</v>
+      </c>
+      <c r="S103" s="10">
         <v>1</v>
       </c>
-      <c r="S103" s="10">
+      <c r="T103" s="10">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="T103" s="10">
+      <c r="U103" s="10">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="U103" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V103" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="104" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>103</v>
       </c>
@@ -7698,34 +7925,34 @@
       <c r="F104" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="N104" s="10">
-        <v>5</v>
-      </c>
       <c r="O104" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P104" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q104" s="10">
         <v>5</v>
       </c>
       <c r="R104" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S104" s="10">
+        <v>4</v>
+      </c>
+      <c r="T104" s="10">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="T104" s="10">
+      <c r="U104" s="10">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="U104" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V104" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="105" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>104</v>
       </c>
@@ -7738,12 +7965,9 @@
       <c r="F105" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="N105" s="10">
+      <c r="O105" s="10">
         <v>1</v>
       </c>
-      <c r="O105" s="10">
-        <v>5</v>
-      </c>
       <c r="P105" s="10">
         <v>5</v>
       </c>
@@ -7754,18 +7978,21 @@
         <v>5</v>
       </c>
       <c r="S105" s="10">
+        <v>5</v>
+      </c>
+      <c r="T105" s="10">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="T105" s="10">
+      <c r="U105" s="10">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="U105" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V105" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="106" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>105</v>
       </c>
@@ -7778,34 +8005,34 @@
       <c r="F106" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="N106" s="10">
-        <v>4</v>
-      </c>
       <c r="O106" s="10">
+        <v>4</v>
+      </c>
+      <c r="P106" s="10">
         <v>2</v>
       </c>
-      <c r="P106" s="10">
-        <v>4</v>
-      </c>
       <c r="Q106" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R106" s="10">
+        <v>3</v>
+      </c>
+      <c r="S106" s="10">
         <v>1</v>
       </c>
-      <c r="S106" s="10">
+      <c r="T106" s="10">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="T106" s="10">
+      <c r="U106" s="10">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="U106" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="107" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="V106" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="107" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>106</v>
       </c>
@@ -7818,9 +8045,6 @@
       <c r="F107" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="N107" s="10">
-        <v>3</v>
-      </c>
       <c r="O107" s="10">
         <v>3</v>
       </c>
@@ -7828,24 +8052,27 @@
         <v>3</v>
       </c>
       <c r="Q107" s="10">
+        <v>3</v>
+      </c>
+      <c r="R107" s="10">
         <v>2</v>
       </c>
-      <c r="R107" s="10">
+      <c r="S107" s="10">
         <v>1</v>
       </c>
-      <c r="S107" s="10">
+      <c r="T107" s="10">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="T107" s="10">
+      <c r="U107" s="10">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="U107" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V107" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="108" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>107</v>
       </c>
@@ -7858,34 +8085,34 @@
       <c r="F108" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="N108" s="10">
-        <v>4</v>
-      </c>
       <c r="O108" s="10">
+        <v>4</v>
+      </c>
+      <c r="P108" s="10">
         <v>2</v>
       </c>
-      <c r="P108" s="10">
-        <v>4</v>
-      </c>
       <c r="Q108" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R108" s="10">
+        <v>3</v>
+      </c>
+      <c r="S108" s="10">
         <v>1</v>
       </c>
-      <c r="S108" s="10">
+      <c r="T108" s="10">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="T108" s="10">
+      <c r="U108" s="10">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="U108" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="109" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="V108" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="109" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>108</v>
       </c>
@@ -7898,11 +8125,8 @@
       <c r="F109" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="N109" s="10">
-        <v>4</v>
-      </c>
       <c r="O109" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P109" s="10">
         <v>5</v>
@@ -7914,18 +8138,21 @@
         <v>5</v>
       </c>
       <c r="S109" s="10">
+        <v>5</v>
+      </c>
+      <c r="T109" s="10">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="T109" s="10">
+      <c r="U109" s="10">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="U109" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V109" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="110" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>109</v>
       </c>
@@ -7938,9 +8165,6 @@
       <c r="F110" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="N110" s="10">
-        <v>3</v>
-      </c>
       <c r="O110" s="10">
         <v>3</v>
       </c>
@@ -7954,18 +8178,21 @@
         <v>3</v>
       </c>
       <c r="S110" s="10">
+        <v>3</v>
+      </c>
+      <c r="T110" s="10">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="T110" s="10">
+      <c r="U110" s="10">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="U110" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V110" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="111" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>110</v>
       </c>
@@ -7978,34 +8205,34 @@
       <c r="F111" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="N111" s="10">
+      <c r="O111" s="10">
         <v>1</v>
       </c>
-      <c r="O111" s="10">
+      <c r="P111" s="10">
         <v>2</v>
       </c>
-      <c r="P111" s="10">
-        <v>4</v>
-      </c>
       <c r="Q111" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R111" s="10">
+        <v>3</v>
+      </c>
+      <c r="S111" s="10">
         <v>1</v>
       </c>
-      <c r="S111" s="10">
+      <c r="T111" s="10">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="T111" s="10">
+      <c r="U111" s="10">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="U111" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V111" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="112" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>111</v>
       </c>
@@ -8018,34 +8245,34 @@
       <c r="F112" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="N112" s="10">
+      <c r="O112" s="10">
         <v>1</v>
       </c>
-      <c r="O112" s="10">
+      <c r="P112" s="10">
         <v>2</v>
       </c>
-      <c r="P112" s="10">
-        <v>4</v>
-      </c>
       <c r="Q112" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R112" s="10">
+        <v>3</v>
+      </c>
+      <c r="S112" s="10">
         <v>1</v>
       </c>
-      <c r="S112" s="10">
+      <c r="T112" s="10">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="T112" s="10">
+      <c r="U112" s="10">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="U112" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V112" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="113" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>112</v>
       </c>
@@ -8058,34 +8285,34 @@
       <c r="F113" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="N113" s="10">
-        <v>2</v>
-      </c>
       <c r="O113" s="10">
         <v>2</v>
       </c>
       <c r="P113" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q113" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R113" s="10">
+        <v>4</v>
+      </c>
+      <c r="S113" s="10">
         <v>1</v>
       </c>
-      <c r="S113" s="10">
+      <c r="T113" s="10">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="T113" s="10">
+      <c r="U113" s="10">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="U113" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V113" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="114" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>113</v>
       </c>
@@ -8098,34 +8325,34 @@
       <c r="F114" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="N114" s="10">
+      <c r="O114" s="10">
         <v>2</v>
       </c>
-      <c r="O114" s="10">
-        <v>3</v>
-      </c>
       <c r="P114" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q114" s="10">
+        <v>4</v>
+      </c>
+      <c r="R114" s="10">
         <v>2</v>
       </c>
-      <c r="R114" s="10">
+      <c r="S114" s="10">
         <v>1</v>
       </c>
-      <c r="S114" s="10">
+      <c r="T114" s="10">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="T114" s="10">
+      <c r="U114" s="10">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="U114" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V114" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="115" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>114</v>
       </c>
@@ -8138,34 +8365,34 @@
       <c r="F115" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="N115" s="10">
-        <v>4</v>
-      </c>
       <c r="O115" s="10">
+        <v>4</v>
+      </c>
+      <c r="P115" s="10">
         <v>2</v>
       </c>
-      <c r="P115" s="10">
-        <v>4</v>
-      </c>
       <c r="Q115" s="10">
+        <v>4</v>
+      </c>
+      <c r="R115" s="10">
         <v>1</v>
       </c>
-      <c r="R115" s="10">
-        <v>4</v>
-      </c>
       <c r="S115" s="10">
+        <v>4</v>
+      </c>
+      <c r="T115" s="10">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="T115" s="10">
+      <c r="U115" s="10">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="U115" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V115" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="116" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>115</v>
       </c>
@@ -8178,34 +8405,34 @@
       <c r="F116" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="N116" s="10">
+      <c r="O116" s="10">
         <v>1</v>
       </c>
-      <c r="O116" s="10">
+      <c r="P116" s="10">
         <v>2</v>
       </c>
-      <c r="P116" s="10">
-        <v>3</v>
-      </c>
       <c r="Q116" s="10">
         <v>3</v>
       </c>
       <c r="R116" s="10">
+        <v>3</v>
+      </c>
+      <c r="S116" s="10">
         <v>1</v>
       </c>
-      <c r="S116" s="10">
+      <c r="T116" s="10">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="T116" s="10">
+      <c r="U116" s="10">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="U116" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V116" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="117" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>116</v>
       </c>
@@ -8218,34 +8445,34 @@
       <c r="F117" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="N117" s="10">
+      <c r="O117" s="10">
         <v>1</v>
       </c>
-      <c r="O117" s="10">
-        <v>3</v>
-      </c>
       <c r="P117" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q117" s="10">
         <v>4</v>
       </c>
       <c r="R117" s="10">
+        <v>4</v>
+      </c>
+      <c r="S117" s="10">
         <v>1</v>
       </c>
-      <c r="S117" s="10">
+      <c r="T117" s="10">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="T117" s="10">
+      <c r="U117" s="10">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="U117" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V117" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="118" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>117</v>
       </c>
@@ -8258,34 +8485,34 @@
       <c r="F118" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="N118" s="10">
+      <c r="O118" s="10">
         <v>1</v>
       </c>
-      <c r="O118" s="10">
-        <v>3</v>
-      </c>
       <c r="P118" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q118" s="10">
         <v>4</v>
       </c>
       <c r="R118" s="10">
+        <v>4</v>
+      </c>
+      <c r="S118" s="10">
         <v>1</v>
       </c>
-      <c r="S118" s="10">
+      <c r="T118" s="10">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="T118" s="10">
+      <c r="U118" s="10">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="U118" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V118" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="119" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>118</v>
       </c>
@@ -8298,11 +8525,8 @@
       <c r="F119" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="N119" s="10">
-        <v>3</v>
-      </c>
       <c r="O119" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P119" s="10">
         <v>4</v>
@@ -8311,21 +8535,24 @@
         <v>4</v>
       </c>
       <c r="R119" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S119" s="10">
+        <v>3</v>
+      </c>
+      <c r="T119" s="10">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="T119" s="10">
+      <c r="U119" s="10">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="U119" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="120" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="V119" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="120" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>119</v>
       </c>
@@ -8338,12 +8565,9 @@
       <c r="F120" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="N120" s="10">
+      <c r="O120" s="10">
         <v>1</v>
       </c>
-      <c r="O120" s="10">
-        <v>4</v>
-      </c>
       <c r="P120" s="10">
         <v>4</v>
       </c>
@@ -8351,21 +8575,24 @@
         <v>4</v>
       </c>
       <c r="R120" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S120" s="10">
+        <v>3</v>
+      </c>
+      <c r="T120" s="10">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="T120" s="10">
+      <c r="U120" s="10">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="U120" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V120" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="121" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>120</v>
       </c>
@@ -8378,11 +8605,8 @@
       <c r="F121" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="N121" s="10">
-        <v>3</v>
-      </c>
       <c r="O121" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P121" s="10">
         <v>2</v>
@@ -8391,21 +8615,24 @@
         <v>2</v>
       </c>
       <c r="R121" s="10">
+        <v>2</v>
+      </c>
+      <c r="S121" s="10">
         <v>1</v>
       </c>
-      <c r="S121" s="10">
+      <c r="T121" s="10">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="T121" s="10">
+      <c r="U121" s="10">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="U121" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V121" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="122" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>121</v>
       </c>
@@ -8418,34 +8645,34 @@
       <c r="F122" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="N122" s="10">
+      <c r="O122" s="10">
         <v>1</v>
       </c>
-      <c r="O122" s="10">
-        <v>3</v>
-      </c>
       <c r="P122" s="10">
         <v>3</v>
       </c>
       <c r="Q122" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R122" s="10">
         <v>2</v>
       </c>
       <c r="S122" s="10">
+        <v>2</v>
+      </c>
+      <c r="T122" s="10">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="T122" s="10">
+      <c r="U122" s="10">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="U122" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="123" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="V122" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="123" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>122</v>
       </c>
@@ -8461,14 +8688,11 @@
       <c r="G123" s="40" t="s">
         <v>310</v>
       </c>
-      <c r="N123" s="1">
+      <c r="O123" s="1">
         <v>2</v>
       </c>
-      <c r="O123" s="1">
-        <v>5</v>
-      </c>
       <c r="P123" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q123" s="1">
         <v>4</v>
@@ -8476,19 +8700,22 @@
       <c r="R123" s="1">
         <v>4</v>
       </c>
-      <c r="S123" s="10">
+      <c r="S123" s="1">
+        <v>4</v>
+      </c>
+      <c r="T123" s="10">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="T123" s="10">
+      <c r="U123" s="10">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="U123" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="124" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="V123" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="124" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>123</v>
       </c>
@@ -8504,14 +8731,11 @@
       <c r="G124" s="40" t="s">
         <v>424</v>
       </c>
-      <c r="N124" s="1">
+      <c r="O124" s="1">
         <v>2</v>
       </c>
-      <c r="O124" s="1">
-        <v>5</v>
-      </c>
       <c r="P124" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q124" s="1">
         <v>4</v>
@@ -8519,19 +8743,22 @@
       <c r="R124" s="1">
         <v>4</v>
       </c>
-      <c r="S124" s="10">
+      <c r="S124" s="1">
+        <v>4</v>
+      </c>
+      <c r="T124" s="10">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="T124" s="10">
+      <c r="U124" s="10">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="U124" s="10" t="s">
+      <c r="V124" s="10" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="125" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>124</v>
       </c>
@@ -8547,34 +8774,34 @@
       <c r="G125" s="40" t="s">
         <v>449</v>
       </c>
-      <c r="N125" s="1">
+      <c r="O125" s="1">
         <v>1</v>
       </c>
-      <c r="O125" s="1">
-        <v>4</v>
-      </c>
       <c r="P125" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q125" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R125" s="1">
         <v>4</v>
       </c>
       <c r="S125" s="1">
+        <v>4</v>
+      </c>
+      <c r="T125" s="1">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="T125" s="1">
+      <c r="U125" s="1">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="U125" s="10" t="s">
+      <c r="V125" s="10" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>125</v>
       </c>
@@ -8590,46 +8817,40 @@
       <c r="G126" s="40" t="s">
         <v>452</v>
       </c>
-      <c r="N126" s="1">
-        <v>4</v>
-      </c>
       <c r="O126" s="1">
         <v>4</v>
       </c>
       <c r="P126" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q126" s="1">
         <v>3</v>
       </c>
       <c r="R126" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S126" s="1">
+        <v>4</v>
+      </c>
+      <c r="T126" s="1">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="T126" s="1">
+      <c r="U126" s="1">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="U126" s="10" t="s">
+      <c r="V126" s="10" t="s">
         <v>251</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U124" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <filterColumn colId="20">
-      <filters>
-        <filter val="Not-Contacted"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:V124" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U1:U1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
-      <formula1>"Initial,Potential,Customer,Support,Upsells,Reject,Not-Contacted,Ex-Customer"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
+      <formula1>"Initial,Potential,Customer,Workshp Fixed,Reject,Not-Contacted,Ex-Customer"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:N1048576" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Rahul Dutta,Sayan Basak,Anirban Chakraborty,Debashish Nath"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8686,10 +8907,31 @@
     <hyperlink ref="D91" r:id="rId50" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
     <hyperlink ref="D2" r:id="rId51" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
     <hyperlink ref="D28" r:id="rId52" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
+    <hyperlink ref="E2" r:id="rId53" xr:uid="{024382CD-C2D0-4CF4-9611-E3A9B63AF3C8}"/>
+    <hyperlink ref="D3" r:id="rId54" xr:uid="{AD5BAB00-5A5D-4509-A18B-7832AC70F85F}"/>
+    <hyperlink ref="D4" r:id="rId55" xr:uid="{C684E6EC-0342-45E9-8615-ADCC82F5BAC7}"/>
+    <hyperlink ref="E4" r:id="rId56" xr:uid="{A9F5302F-3CA5-4D1B-AD4C-BBF39B734157}"/>
+    <hyperlink ref="D5" r:id="rId57" xr:uid="{27A2E9DF-ACC8-450A-97D7-9E1FD2B6E00D}"/>
+    <hyperlink ref="D7" r:id="rId58" xr:uid="{F2FBA790-998D-4607-99F6-569BC2B7B041}"/>
+    <hyperlink ref="D6" r:id="rId59" xr:uid="{D3ED5C58-A7AC-4AAA-80F0-866EBFFCC3F3}"/>
+    <hyperlink ref="E6" r:id="rId60" xr:uid="{25B9F971-9E71-43AB-BC6A-6543CC45234F}"/>
+    <hyperlink ref="D8" r:id="rId61" xr:uid="{4406DDF6-8C3B-4BC1-BAEA-30E8C0D8232D}"/>
+    <hyperlink ref="E8" r:id="rId62" xr:uid="{203C5FE1-8AD7-4C98-9B8A-A60E7CCD2A0F}"/>
+    <hyperlink ref="D9" r:id="rId63" xr:uid="{5C5E183D-3C12-444A-B3A1-887FE586A19E}"/>
+    <hyperlink ref="D10" r:id="rId64" xr:uid="{B8773B40-4D90-408F-9C66-C6E4EF4CA8F1}"/>
+    <hyperlink ref="D12" r:id="rId65" xr:uid="{A366327E-C721-4F35-A19F-C5163454F1E9}"/>
+    <hyperlink ref="D13" r:id="rId66" xr:uid="{809972FF-5199-4544-9C8D-90123898A1DA}"/>
+    <hyperlink ref="E13" r:id="rId67" xr:uid="{69EF0149-BD66-4854-8629-480B30F37896}"/>
+    <hyperlink ref="D14" r:id="rId68" xr:uid="{0876D16D-1D47-4E8E-A563-B1E0EDBDF610}"/>
+    <hyperlink ref="E14" r:id="rId69" xr:uid="{9B98FA2B-5F26-4FC3-A16C-B5A435172DBE}"/>
+    <hyperlink ref="D15" r:id="rId70" xr:uid="{5C3C9193-C38B-468F-B8F0-4244654949FD}"/>
+    <hyperlink ref="D17" r:id="rId71" xr:uid="{4B58FE9C-FCB3-4E9C-864B-84CFD88CF409}"/>
+    <hyperlink ref="D18" r:id="rId72" xr:uid="{8D0F79EA-9E76-42A8-B6DE-38DCF086D2BD}"/>
+    <hyperlink ref="E18" r:id="rId73" xr:uid="{294A50A6-666F-49B6-B8C5-CC133E5CC526}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId53"/>
-  <legacyDrawing r:id="rId54"/>
+  <pageSetup orientation="portrait" r:id="rId74"/>
+  <legacyDrawing r:id="rId75"/>
 </worksheet>
 </file>
 

--- a/Offline/BusinessManagement/Marketing/AI marketing/AI Workshop Schools-Colleges.xlsx
+++ b/Offline/BusinessManagement/Marketing/AI marketing/AI Workshop Schools-Colleges.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Marketing\AI marketing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C3D120-9BD7-471E-97C9-E0A1732F57EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F47CDD-DE6C-444A-A24A-8BAABF6F1B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="506" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="506" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="8" r:id="rId1"/>
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="507">
   <si>
     <t>CBSE</t>
   </si>
@@ -1604,13 +1604,67 @@
   </si>
   <si>
     <t>https://sriaurobindoschools.org/tffs/</t>
+  </si>
+  <si>
+    <t>nivaananda@yahoo.com</t>
+  </si>
+  <si>
+    <t>depaulschooljayanpur@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.silverpointschool.org/#</t>
+  </si>
+  <si>
+    <t>info@npskolkata.com</t>
+  </si>
+  <si>
+    <t>mhmscal@gmail.com</t>
+  </si>
+  <si>
+    <t>hlpsbhs@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">info@gardenhighschool.org </t>
+  </si>
+  <si>
+    <t>admission@sishowrah.com</t>
+  </si>
+  <si>
+    <t>nalanda_vidyapith@rediffmail.com</t>
+  </si>
+  <si>
+    <t>ssmacademy.org@gmail.com</t>
+  </si>
+  <si>
+    <t>akshar1998@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enquiries@theoxfordacademy.org </t>
+  </si>
+  <si>
+    <t>ariff.mohsin64@gmail.com</t>
+  </si>
+  <si>
+    <t>http://www.alpsconvert.in</t>
+  </si>
+  <si>
+    <t>http://www.shreebharati.com/033%2024913227%20(head%20mistress)</t>
+  </si>
+  <si>
+    <t>http://srichaitanyatechnoschooln.in/#</t>
+  </si>
+  <si>
+    <t>Sri Chaitanyo Techno New Town</t>
+  </si>
+  <si>
+    <t>033-25535566</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1736,6 +1790,18 @@
     <font>
       <sz val="10"/>
       <color rgb="FF422E59"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF575757"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF404040"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -2001,7 +2067,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2141,6 +2207,9 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2470,23 +2539,23 @@
     <row r="2" spans="2:18" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.7">
       <c r="B2" s="27"/>
       <c r="C2" s="28"/>
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="69" t="s">
         <v>293</v>
       </c>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="68"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="71"/>
       <c r="I2" s="29"/>
       <c r="K2" s="27"/>
       <c r="L2" s="28"/>
-      <c r="M2" s="69" t="s">
+      <c r="M2" s="72" t="s">
         <v>374</v>
       </c>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="71"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="74"/>
       <c r="R2" s="29"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.3">
@@ -2556,7 +2625,7 @@
         <v>210</v>
       </c>
       <c r="P5" s="14">
-        <f>COUNTIF('College-Details'!M:M,O5)</f>
+        <f>COUNTIF('College-Details'!N:N,O5)</f>
         <v>0</v>
       </c>
       <c r="R5" s="31"/>
@@ -2589,7 +2658,7 @@
         <v>267</v>
       </c>
       <c r="P6" s="14">
-        <f>COUNTIF('College-Details'!M:M,O6)</f>
+        <f>COUNTIF('College-Details'!N:N,O6)</f>
         <v>0</v>
       </c>
       <c r="R6" s="31"/>
@@ -2623,7 +2692,7 @@
         <v>268</v>
       </c>
       <c r="P7" s="14">
-        <f>COUNTIF('College-Details'!M:M,O7)</f>
+        <f>COUNTIF('College-Details'!N:N,O7)</f>
         <v>0</v>
       </c>
       <c r="R7" s="31"/>
@@ -2654,7 +2723,7 @@
         <v>283</v>
       </c>
       <c r="P8" s="14">
-        <f>COUNTIF('College-Details'!M:M,O8)</f>
+        <f>COUNTIF('College-Details'!N:N,O8)</f>
         <v>0</v>
       </c>
       <c r="R8" s="31"/>
@@ -2715,17 +2784,17 @@
         <v>34</v>
       </c>
       <c r="F11" s="14"/>
-      <c r="G11" s="65" t="s">
+      <c r="G11" s="68" t="s">
         <v>210</v>
       </c>
-      <c r="H11" s="65"/>
+      <c r="H11" s="68"/>
       <c r="I11" s="31"/>
       <c r="K11" s="30"/>
       <c r="O11" s="14"/>
-      <c r="P11" s="65" t="s">
+      <c r="P11" s="68" t="s">
         <v>210</v>
       </c>
-      <c r="Q11" s="65"/>
+      <c r="Q11" s="68"/>
       <c r="R11" s="31"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.3">
@@ -2789,7 +2858,7 @@
         <v>251</v>
       </c>
       <c r="M13" s="14">
-        <f>COUNTIF('College-Details'!U:U,L13)</f>
+        <f>COUNTIF('College-Details'!V:V,L13)</f>
         <v>0</v>
       </c>
       <c r="O13" s="22">
@@ -2827,7 +2896,7 @@
         <v>253</v>
       </c>
       <c r="M14" s="14">
-        <f>COUNTIF('College-Details'!U:U,L14)</f>
+        <f>COUNTIF('College-Details'!V:V,L14)</f>
         <v>0</v>
       </c>
       <c r="O14" s="22">
@@ -2865,7 +2934,7 @@
         <v>255</v>
       </c>
       <c r="M15" s="14">
-        <f>COUNTIF('College-Details'!U:U,L15)</f>
+        <f>COUNTIF('College-Details'!V:V,L15)</f>
         <v>0</v>
       </c>
       <c r="O15" s="22">
@@ -2903,7 +2972,7 @@
         <v>257</v>
       </c>
       <c r="M16" s="14">
-        <f>COUNTIF('College-Details'!U:U,L16)</f>
+        <f>COUNTIF('College-Details'!V:V,L16)</f>
         <v>0</v>
       </c>
       <c r="O16" s="22">
@@ -2941,7 +3010,7 @@
         <v>259</v>
       </c>
       <c r="M17" s="14">
-        <f>COUNTIF('College-Details'!U:U,L17)</f>
+        <f>COUNTIF('College-Details'!V:V,L17)</f>
         <v>0</v>
       </c>
       <c r="O17" s="22">
@@ -2979,7 +3048,7 @@
         <v>261</v>
       </c>
       <c r="M18" s="14">
-        <f>COUNTIF('College-Details'!U:U,L18)</f>
+        <f>COUNTIF('College-Details'!V:V,L18)</f>
         <v>0</v>
       </c>
       <c r="O18" s="22">
@@ -3017,7 +3086,7 @@
         <v>263</v>
       </c>
       <c r="M19" s="14">
-        <f>COUNTIF('College-Details'!U:U,L19)</f>
+        <f>COUNTIF('College-Details'!V:V,L19)</f>
         <v>53</v>
       </c>
       <c r="O19" s="22">
@@ -3048,7 +3117,7 @@
         <v>279</v>
       </c>
       <c r="M20" s="14">
-        <f>COUNTIF('College-Details'!U:U,L20)</f>
+        <f>COUNTIF('College-Details'!V:V,L20)</f>
         <v>0</v>
       </c>
       <c r="O20" s="22">
@@ -3195,7 +3264,7 @@
         <v>5</v>
       </c>
       <c r="M24" s="14">
-        <f>COUNTIF('College-Details'!T:T,L24)</f>
+        <f>COUNTIF('College-Details'!U:U,L24)</f>
         <v>0</v>
       </c>
       <c r="O24" s="22">
@@ -3237,7 +3306,7 @@
         <v>4</v>
       </c>
       <c r="M25" s="14">
-        <f>COUNTIF('College-Details'!T:T,L25)</f>
+        <f>COUNTIF('College-Details'!U:U,L25)</f>
         <v>0</v>
       </c>
       <c r="O25" s="16" t="s">
@@ -3292,7 +3361,7 @@
         <v>3</v>
       </c>
       <c r="M27" s="14">
-        <f>COUNTIF('College-Details'!T:T,L27)</f>
+        <f>COUNTIF('College-Details'!U:U,L27)</f>
         <v>0</v>
       </c>
       <c r="R27" s="31"/>
@@ -3334,7 +3403,7 @@
         <v>2</v>
       </c>
       <c r="M29" s="14">
-        <f>COUNTIF('College-Details'!T:T,L29)</f>
+        <f>COUNTIF('College-Details'!U:U,L29)</f>
         <v>0</v>
       </c>
       <c r="R29" s="31"/>
@@ -3358,7 +3427,7 @@
         <v>1</v>
       </c>
       <c r="M30" s="14">
-        <f>COUNTIF('College-Details'!T:T,L30)</f>
+        <f>COUNTIF('College-Details'!U:U,L30)</f>
         <v>0</v>
       </c>
       <c r="R30" s="31"/>
@@ -3411,11 +3480,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D23" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="K8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomRight" activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4291,12 +4360,15 @@
         <v>251</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="17" t="s">
         <v>23</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>489</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>60</v>
@@ -4338,6 +4410,7 @@
       <c r="C20" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="D20" s="3"/>
       <c r="F20" s="7" t="s">
         <v>61</v>
       </c>
@@ -5120,7 +5193,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -5129,6 +5202,9 @@
       </c>
       <c r="C38" s="1" t="s">
         <v>77</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>490</v>
       </c>
       <c r="F38" s="8">
         <v>8902488077</v>
@@ -5170,6 +5246,9 @@
       <c r="C39" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="D39" s="65" t="s">
+        <v>492</v>
+      </c>
       <c r="F39" s="9">
         <v>9163741069</v>
       </c>
@@ -5200,7 +5279,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -5209,6 +5288,9 @@
       </c>
       <c r="C40" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>491</v>
       </c>
       <c r="F40" s="9">
         <v>3324411691</v>
@@ -5382,6 +5464,9 @@
       <c r="C44" s="1" t="s">
         <v>77</v>
       </c>
+      <c r="D44" s="66" t="s">
+        <v>493</v>
+      </c>
       <c r="F44" s="7">
         <v>3324712220</v>
       </c>
@@ -5422,6 +5507,9 @@
       <c r="C45" s="1" t="s">
         <v>77</v>
       </c>
+      <c r="D45" s="3" t="s">
+        <v>494</v>
+      </c>
       <c r="F45" s="7">
         <v>3324131158</v>
       </c>
@@ -7026,6 +7114,9 @@
       <c r="C82" s="1" t="s">
         <v>77</v>
       </c>
+      <c r="D82" s="3" t="s">
+        <v>495</v>
+      </c>
       <c r="F82" s="7" t="s">
         <v>168</v>
       </c>
@@ -7066,6 +7157,9 @@
       <c r="C83" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="D83" s="3" t="s">
+        <v>496</v>
+      </c>
       <c r="F83" s="7" t="s">
         <v>170</v>
       </c>
@@ -7106,6 +7200,9 @@
       <c r="C84" s="1" t="s">
         <v>77</v>
       </c>
+      <c r="D84" s="3" t="s">
+        <v>497</v>
+      </c>
       <c r="F84" s="7">
         <v>9606279184</v>
       </c>
@@ -7180,7 +7277,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -7189,6 +7286,9 @@
       </c>
       <c r="C86" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>498</v>
       </c>
       <c r="F86" s="7">
         <v>8017672075</v>
@@ -7230,6 +7330,9 @@
       <c r="C87" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="D87" s="3" t="s">
+        <v>499</v>
+      </c>
       <c r="F87" s="7">
         <v>3324492810</v>
       </c>
@@ -7348,7 +7451,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -7357,6 +7460,9 @@
       </c>
       <c r="C90" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>500</v>
       </c>
       <c r="F90" s="7">
         <v>3324961723</v>
@@ -7442,6 +7548,12 @@
       <c r="C92" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="D92" s="67" t="s">
+        <v>501</v>
+      </c>
+      <c r="E92" s="67" t="s">
+        <v>502</v>
+      </c>
       <c r="F92" s="7">
         <v>8902765583</v>
       </c>
@@ -7472,7 +7584,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -7481,6 +7593,9 @@
       </c>
       <c r="C93" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>503</v>
       </c>
       <c r="F93" s="7">
         <v>9331866252</v>
@@ -7512,18 +7627,21 @@
         <v>263</v>
       </c>
     </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>93</v>
       </c>
       <c r="B94" s="17" t="s">
-        <v>185</v>
+        <v>505</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F94" s="7">
-        <v>9903540099</v>
+      <c r="D94" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="F94" s="7" t="s">
+        <v>506</v>
       </c>
       <c r="O94" s="10">
         <v>1</v>
@@ -8928,19 +9046,30 @@
     <hyperlink ref="D17" r:id="rId71" xr:uid="{4B58FE9C-FCB3-4E9C-864B-84CFD88CF409}"/>
     <hyperlink ref="D18" r:id="rId72" xr:uid="{8D0F79EA-9E76-42A8-B6DE-38DCF086D2BD}"/>
     <hyperlink ref="E18" r:id="rId73" xr:uid="{294A50A6-666F-49B6-B8C5-CC133E5CC526}"/>
+    <hyperlink ref="D19" r:id="rId74" xr:uid="{3411E3DE-249B-43C6-861A-C24AA2D10629}"/>
+    <hyperlink ref="D38" r:id="rId75" xr:uid="{51D43514-0760-4B71-B43C-B4E18F6C03BD}"/>
+    <hyperlink ref="D40" r:id="rId76" xr:uid="{C53F92AF-72F3-42FA-96A3-44E82E52EE23}"/>
+    <hyperlink ref="D44" r:id="rId77" xr:uid="{D96EB2AF-EDA4-447F-85B9-36AE533C9CAB}"/>
+    <hyperlink ref="D45" r:id="rId78" xr:uid="{63E956BC-EB66-4FDE-BA79-2F74BB9DCB55}"/>
+    <hyperlink ref="D82" r:id="rId79" xr:uid="{5F4352DE-F44C-4573-AB0F-C62280AED2C7}"/>
+    <hyperlink ref="D83" r:id="rId80" xr:uid="{C2649A64-240A-4675-8D35-CA592B0D7D2F}"/>
+    <hyperlink ref="D84" r:id="rId81" xr:uid="{7346E54C-CDF3-486C-B28D-387D21A1BCBE}"/>
+    <hyperlink ref="D86" r:id="rId82" xr:uid="{B4F97ACF-EA33-47B5-90D6-7BC872FE370E}"/>
+    <hyperlink ref="D87" r:id="rId83" xr:uid="{86E652CD-E20A-4FFB-AE0F-8142DCB6C066}"/>
+    <hyperlink ref="D90" r:id="rId84" xr:uid="{A0ED5720-7123-4A54-A72C-0783F12FFE50}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId74"/>
-  <legacyDrawing r:id="rId75"/>
+  <pageSetup orientation="portrait" r:id="rId85"/>
+  <legacyDrawing r:id="rId86"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:U179"/>
+  <dimension ref="A1:V179"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8953,16 +9082,17 @@
     <col min="6" max="8" width="16" style="40" customWidth="1"/>
     <col min="9" max="10" width="11" style="1" customWidth="1"/>
     <col min="11" max="11" width="11.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.6640625" style="40" customWidth="1"/>
-    <col min="13" max="13" width="13.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="18.44140625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9.109375" style="1"/>
-    <col min="16" max="16" width="16.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="9.109375" style="1"/>
-    <col min="21" max="21" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.77734375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="19.6640625" style="40" customWidth="1"/>
+    <col min="14" max="14" width="13.33203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="18.44140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="9.109375" style="1"/>
+    <col min="17" max="17" width="16.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="9.109375" style="1"/>
+    <col min="22" max="22" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>1</v>
       </c>
@@ -8997,37 +9127,40 @@
         <v>296</v>
       </c>
       <c r="L1" s="18" t="s">
+        <v>454</v>
+      </c>
+      <c r="M1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="N1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="O1" s="18" t="s">
         <v>237</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="P1" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="Q1" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="R1" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="R1" s="20" t="s">
+      <c r="S1" s="20" t="s">
         <v>241</v>
       </c>
-      <c r="S1" s="20" t="s">
+      <c r="T1" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="T1" s="25" t="s">
+      <c r="U1" s="25" t="s">
         <v>242</v>
       </c>
-      <c r="U1" s="20" t="s">
+      <c r="V1" s="20" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="38">
         <v>1</v>
       </c>
@@ -9045,10 +9178,8 @@
       <c r="K2" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10">
-        <v>0</v>
-      </c>
+      <c r="L2" s="10"/>
+      <c r="N2" s="10"/>
       <c r="O2" s="10">
         <v>0</v>
       </c>
@@ -9065,14 +9196,17 @@
         <v>0</v>
       </c>
       <c r="T2" s="10">
-        <f>ROUND(S2/5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U2" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="U2" s="10">
+        <f>ROUND(T2/5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V2" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -9088,9 +9222,7 @@
       <c r="K3" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="N3" s="10">
-        <v>0</v>
-      </c>
+      <c r="L3" s="10"/>
       <c r="O3" s="10">
         <v>0</v>
       </c>
@@ -9107,14 +9239,17 @@
         <v>0</v>
       </c>
       <c r="T3" s="10">
-        <f t="shared" ref="T3:T35" si="0">ROUND(S3/5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U3" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="U3" s="10">
+        <f t="shared" ref="U3:U35" si="0">ROUND(T3/5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V3" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -9130,9 +9265,7 @@
       <c r="K4" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="N4" s="10">
-        <v>0</v>
-      </c>
+      <c r="L4" s="10"/>
       <c r="O4" s="10">
         <v>0</v>
       </c>
@@ -9149,14 +9282,17 @@
         <v>0</v>
       </c>
       <c r="T4" s="10">
+        <v>0</v>
+      </c>
+      <c r="U4" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U4" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="V4" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -9172,9 +9308,7 @@
       <c r="K5" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="N5" s="10">
-        <v>0</v>
-      </c>
+      <c r="L5" s="10"/>
       <c r="O5" s="10">
         <v>0</v>
       </c>
@@ -9191,14 +9325,17 @@
         <v>0</v>
       </c>
       <c r="T5" s="10">
+        <v>0</v>
+      </c>
+      <c r="U5" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U5" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="V5" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -9214,9 +9351,7 @@
       <c r="K6" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="N6" s="10">
-        <v>0</v>
-      </c>
+      <c r="L6" s="10"/>
       <c r="O6" s="10">
         <v>0</v>
       </c>
@@ -9233,14 +9368,17 @@
         <v>0</v>
       </c>
       <c r="T6" s="10">
+        <v>0</v>
+      </c>
+      <c r="U6" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U6" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="V6" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -9256,9 +9394,7 @@
       <c r="K7" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="N7" s="10">
-        <v>0</v>
-      </c>
+      <c r="L7" s="10"/>
       <c r="O7" s="10">
         <v>0</v>
       </c>
@@ -9275,14 +9411,17 @@
         <v>0</v>
       </c>
       <c r="T7" s="10">
+        <v>0</v>
+      </c>
+      <c r="U7" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U7" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="V7" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -9295,12 +9434,10 @@
       <c r="K8" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="L8" s="40" t="s">
+      <c r="L8" s="10"/>
+      <c r="M8" s="40" t="s">
         <v>316</v>
       </c>
-      <c r="N8" s="10">
-        <v>0</v>
-      </c>
       <c r="O8" s="10">
         <v>0</v>
       </c>
@@ -9317,14 +9454,17 @@
         <v>0</v>
       </c>
       <c r="T8" s="10">
+        <v>0</v>
+      </c>
+      <c r="U8" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U8" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V8" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -9337,9 +9477,7 @@
       <c r="K9" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="N9" s="10">
-        <v>0</v>
-      </c>
+      <c r="L9" s="10"/>
       <c r="O9" s="10">
         <v>0</v>
       </c>
@@ -9356,14 +9494,17 @@
         <v>0</v>
       </c>
       <c r="T9" s="10">
+        <v>0</v>
+      </c>
+      <c r="U9" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U9" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V9" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -9376,9 +9517,7 @@
       <c r="K10" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="N10" s="10">
-        <v>0</v>
-      </c>
+      <c r="L10" s="10"/>
       <c r="O10" s="10">
         <v>0</v>
       </c>
@@ -9395,14 +9534,17 @@
         <v>0</v>
       </c>
       <c r="T10" s="10">
+        <v>0</v>
+      </c>
+      <c r="U10" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U10" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="V10" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -9416,9 +9558,7 @@
       <c r="K11" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="N11" s="10">
-        <v>0</v>
-      </c>
+      <c r="L11" s="10"/>
       <c r="O11" s="10">
         <v>0</v>
       </c>
@@ -9435,14 +9575,17 @@
         <v>0</v>
       </c>
       <c r="T11" s="10">
+        <v>0</v>
+      </c>
+      <c r="U11" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U11" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V11" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -9455,9 +9598,7 @@
       <c r="K12" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="N12" s="10">
-        <v>0</v>
-      </c>
+      <c r="L12" s="10"/>
       <c r="O12" s="10">
         <v>0</v>
       </c>
@@ -9474,14 +9615,17 @@
         <v>0</v>
       </c>
       <c r="T12" s="10">
+        <v>0</v>
+      </c>
+      <c r="U12" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U12" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V12" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -9494,9 +9638,7 @@
       <c r="K13" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="N13" s="10">
-        <v>0</v>
-      </c>
+      <c r="L13" s="10"/>
       <c r="O13" s="10">
         <v>0</v>
       </c>
@@ -9513,14 +9655,17 @@
         <v>0</v>
       </c>
       <c r="T13" s="10">
+        <v>0</v>
+      </c>
+      <c r="U13" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U13" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V13" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -9533,9 +9678,7 @@
       <c r="K14" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="N14" s="10">
-        <v>0</v>
-      </c>
+      <c r="L14" s="10"/>
       <c r="O14" s="10">
         <v>0</v>
       </c>
@@ -9552,14 +9695,17 @@
         <v>0</v>
       </c>
       <c r="T14" s="10">
+        <v>0</v>
+      </c>
+      <c r="U14" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U14" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V14" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -9572,9 +9718,7 @@
       <c r="K15" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="N15" s="10">
-        <v>0</v>
-      </c>
+      <c r="L15" s="10"/>
       <c r="O15" s="10">
         <v>0</v>
       </c>
@@ -9591,14 +9735,17 @@
         <v>0</v>
       </c>
       <c r="T15" s="10">
+        <v>0</v>
+      </c>
+      <c r="U15" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U15" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V15" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -9611,9 +9758,7 @@
       <c r="K16" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="N16" s="10">
-        <v>0</v>
-      </c>
+      <c r="L16" s="10"/>
       <c r="O16" s="10">
         <v>0</v>
       </c>
@@ -9630,14 +9775,17 @@
         <v>0</v>
       </c>
       <c r="T16" s="10">
+        <v>0</v>
+      </c>
+      <c r="U16" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U16" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V16" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -9650,9 +9798,7 @@
       <c r="K17" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="N17" s="10">
-        <v>0</v>
-      </c>
+      <c r="L17" s="10"/>
       <c r="O17" s="10">
         <v>0</v>
       </c>
@@ -9669,14 +9815,17 @@
         <v>0</v>
       </c>
       <c r="T17" s="10">
+        <v>0</v>
+      </c>
+      <c r="U17" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U17" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V17" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -9689,9 +9838,7 @@
       <c r="K18" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="N18" s="10">
-        <v>0</v>
-      </c>
+      <c r="L18" s="10"/>
       <c r="O18" s="10">
         <v>0</v>
       </c>
@@ -9708,14 +9855,17 @@
         <v>0</v>
       </c>
       <c r="T18" s="10">
+        <v>0</v>
+      </c>
+      <c r="U18" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U18" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V18" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -9728,9 +9878,7 @@
       <c r="K19" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="N19" s="10">
-        <v>0</v>
-      </c>
+      <c r="L19" s="10"/>
       <c r="O19" s="10">
         <v>0</v>
       </c>
@@ -9747,14 +9895,17 @@
         <v>0</v>
       </c>
       <c r="T19" s="10">
+        <v>0</v>
+      </c>
+      <c r="U19" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U19" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V19" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -9768,9 +9919,7 @@
       <c r="K20" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="N20" s="10">
-        <v>0</v>
-      </c>
+      <c r="L20" s="10"/>
       <c r="O20" s="10">
         <v>0</v>
       </c>
@@ -9787,14 +9936,17 @@
         <v>0</v>
       </c>
       <c r="T20" s="10">
+        <v>0</v>
+      </c>
+      <c r="U20" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U20" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V20" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -9808,9 +9960,7 @@
       <c r="K21" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="N21" s="10">
-        <v>0</v>
-      </c>
+      <c r="L21" s="10"/>
       <c r="O21" s="10">
         <v>0</v>
       </c>
@@ -9827,14 +9977,17 @@
         <v>0</v>
       </c>
       <c r="T21" s="10">
+        <v>0</v>
+      </c>
+      <c r="U21" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U21" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V21" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -9847,9 +10000,7 @@
       <c r="K22" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="N22" s="10">
-        <v>0</v>
-      </c>
+      <c r="L22" s="10"/>
       <c r="O22" s="10">
         <v>0</v>
       </c>
@@ -9866,14 +10017,17 @@
         <v>0</v>
       </c>
       <c r="T22" s="10">
+        <v>0</v>
+      </c>
+      <c r="U22" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U22" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V22" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -9887,9 +10041,7 @@
       <c r="K23" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="N23" s="10">
-        <v>0</v>
-      </c>
+      <c r="L23" s="10"/>
       <c r="O23" s="10">
         <v>0</v>
       </c>
@@ -9906,14 +10058,17 @@
         <v>0</v>
       </c>
       <c r="T23" s="10">
+        <v>0</v>
+      </c>
+      <c r="U23" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U23" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V23" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -9927,9 +10082,7 @@
       <c r="K24" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="N24" s="10">
-        <v>0</v>
-      </c>
+      <c r="L24" s="10"/>
       <c r="O24" s="10">
         <v>0</v>
       </c>
@@ -9946,14 +10099,17 @@
         <v>0</v>
       </c>
       <c r="T24" s="10">
+        <v>0</v>
+      </c>
+      <c r="U24" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U24" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V24" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -9967,9 +10123,7 @@
       <c r="K25" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="N25" s="10">
-        <v>0</v>
-      </c>
+      <c r="L25" s="10"/>
       <c r="O25" s="10">
         <v>0</v>
       </c>
@@ -9986,14 +10140,17 @@
         <v>0</v>
       </c>
       <c r="T25" s="10">
+        <v>0</v>
+      </c>
+      <c r="U25" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U25" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V25" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -10007,9 +10164,7 @@
       <c r="K26" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="N26" s="10">
-        <v>0</v>
-      </c>
+      <c r="L26" s="10"/>
       <c r="O26" s="10">
         <v>0</v>
       </c>
@@ -10026,14 +10181,17 @@
         <v>0</v>
       </c>
       <c r="T26" s="10">
+        <v>0</v>
+      </c>
+      <c r="U26" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U26" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V26" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -10046,9 +10204,7 @@
       <c r="K27" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="N27" s="10">
-        <v>0</v>
-      </c>
+      <c r="L27" s="10"/>
       <c r="O27" s="10">
         <v>0</v>
       </c>
@@ -10065,14 +10221,17 @@
         <v>0</v>
       </c>
       <c r="T27" s="10">
+        <v>0</v>
+      </c>
+      <c r="U27" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U27" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V27" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -10085,9 +10244,7 @@
       <c r="K28" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="N28" s="10">
-        <v>0</v>
-      </c>
+      <c r="L28" s="10"/>
       <c r="O28" s="10">
         <v>0</v>
       </c>
@@ -10104,14 +10261,17 @@
         <v>0</v>
       </c>
       <c r="T28" s="10">
+        <v>0</v>
+      </c>
+      <c r="U28" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U28" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V28" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -10125,9 +10285,7 @@
       <c r="K29" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="N29" s="10">
-        <v>0</v>
-      </c>
+      <c r="L29" s="10"/>
       <c r="O29" s="10">
         <v>0</v>
       </c>
@@ -10144,14 +10302,17 @@
         <v>0</v>
       </c>
       <c r="T29" s="10">
+        <v>0</v>
+      </c>
+      <c r="U29" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U29" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V29" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -10165,9 +10326,7 @@
       <c r="K30" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="N30" s="10">
-        <v>0</v>
-      </c>
+      <c r="L30" s="10"/>
       <c r="O30" s="10">
         <v>0</v>
       </c>
@@ -10184,14 +10343,17 @@
         <v>0</v>
       </c>
       <c r="T30" s="10">
+        <v>0</v>
+      </c>
+      <c r="U30" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U30" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V30" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -10205,9 +10367,7 @@
       <c r="K31" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="N31" s="10">
-        <v>0</v>
-      </c>
+      <c r="L31" s="10"/>
       <c r="O31" s="10">
         <v>0</v>
       </c>
@@ -10224,14 +10384,17 @@
         <v>0</v>
       </c>
       <c r="T31" s="10">
+        <v>0</v>
+      </c>
+      <c r="U31" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U31" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V31" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -10244,9 +10407,7 @@
       <c r="K32" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="N32" s="10">
-        <v>0</v>
-      </c>
+      <c r="L32" s="10"/>
       <c r="O32" s="10">
         <v>0</v>
       </c>
@@ -10263,14 +10424,17 @@
         <v>0</v>
       </c>
       <c r="T32" s="10">
+        <v>0</v>
+      </c>
+      <c r="U32" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U32" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V32" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -10283,9 +10447,7 @@
       <c r="K33" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="N33" s="10">
-        <v>0</v>
-      </c>
+      <c r="L33" s="10"/>
       <c r="O33" s="10">
         <v>0</v>
       </c>
@@ -10302,14 +10464,17 @@
         <v>0</v>
       </c>
       <c r="T33" s="10">
+        <v>0</v>
+      </c>
+      <c r="U33" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U33" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V33" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -10322,9 +10487,7 @@
       <c r="K34" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="N34" s="10">
-        <v>0</v>
-      </c>
+      <c r="L34" s="10"/>
       <c r="O34" s="10">
         <v>0</v>
       </c>
@@ -10341,14 +10504,17 @@
         <v>0</v>
       </c>
       <c r="T34" s="10">
+        <v>0</v>
+      </c>
+      <c r="U34" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U34" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V34" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -10361,9 +10527,7 @@
       <c r="K35" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="N35" s="10">
-        <v>0</v>
-      </c>
+      <c r="L35" s="10"/>
       <c r="O35" s="10">
         <v>0</v>
       </c>
@@ -10380,14 +10544,17 @@
         <v>0</v>
       </c>
       <c r="T35" s="10">
+        <v>0</v>
+      </c>
+      <c r="U35" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U35" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="V35" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -10406,9 +10573,7 @@
       <c r="K36" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="N36" s="10">
-        <v>0</v>
-      </c>
+      <c r="L36" s="10"/>
       <c r="O36" s="10">
         <v>0</v>
       </c>
@@ -10425,14 +10590,17 @@
         <v>0</v>
       </c>
       <c r="T36" s="10">
-        <f t="shared" ref="T36:T54" si="1">ROUND(S36/5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U36" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="U36" s="10">
+        <f t="shared" ref="U36:U54" si="1">ROUND(T36/5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V36" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -10451,9 +10619,7 @@
       <c r="K37" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="N37" s="10">
-        <v>0</v>
-      </c>
+      <c r="L37" s="10"/>
       <c r="O37" s="10">
         <v>0</v>
       </c>
@@ -10470,14 +10636,17 @@
         <v>0</v>
       </c>
       <c r="T37" s="10">
+        <v>0</v>
+      </c>
+      <c r="U37" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U37" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="V37" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -10493,9 +10662,7 @@
       <c r="K38" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="N38" s="10">
-        <v>0</v>
-      </c>
+      <c r="L38" s="10"/>
       <c r="O38" s="10">
         <v>0</v>
       </c>
@@ -10512,14 +10679,17 @@
         <v>0</v>
       </c>
       <c r="T38" s="10">
+        <v>0</v>
+      </c>
+      <c r="U38" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U38" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="V38" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -10535,9 +10705,7 @@
       <c r="K39" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="N39" s="10">
-        <v>0</v>
-      </c>
+      <c r="L39" s="10"/>
       <c r="O39" s="10">
         <v>0</v>
       </c>
@@ -10554,14 +10722,17 @@
         <v>0</v>
       </c>
       <c r="T39" s="10">
+        <v>0</v>
+      </c>
+      <c r="U39" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U39" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="V39" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -10577,9 +10748,7 @@
       <c r="K40" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="N40" s="10">
-        <v>0</v>
-      </c>
+      <c r="L40" s="10"/>
       <c r="O40" s="10">
         <v>0</v>
       </c>
@@ -10596,14 +10765,17 @@
         <v>0</v>
       </c>
       <c r="T40" s="10">
+        <v>0</v>
+      </c>
+      <c r="U40" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U40" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V40" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -10619,9 +10791,7 @@
       <c r="K41" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="N41" s="10">
-        <v>0</v>
-      </c>
+      <c r="L41" s="10"/>
       <c r="O41" s="10">
         <v>0</v>
       </c>
@@ -10638,14 +10808,17 @@
         <v>0</v>
       </c>
       <c r="T41" s="10">
+        <v>0</v>
+      </c>
+      <c r="U41" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U41" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="V41" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -10661,9 +10834,7 @@
       <c r="K42" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="N42" s="10">
-        <v>0</v>
-      </c>
+      <c r="L42" s="10"/>
       <c r="O42" s="10">
         <v>0</v>
       </c>
@@ -10680,14 +10851,17 @@
         <v>0</v>
       </c>
       <c r="T42" s="10">
+        <v>0</v>
+      </c>
+      <c r="U42" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U42" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="V42" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -10706,9 +10880,7 @@
       <c r="K43" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="N43" s="10">
-        <v>0</v>
-      </c>
+      <c r="L43" s="10"/>
       <c r="O43" s="10">
         <v>0</v>
       </c>
@@ -10725,14 +10897,17 @@
         <v>0</v>
       </c>
       <c r="T43" s="10">
+        <v>0</v>
+      </c>
+      <c r="U43" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U43" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="V43" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -10748,9 +10923,7 @@
       <c r="K44" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="N44" s="10">
-        <v>0</v>
-      </c>
+      <c r="L44" s="10"/>
       <c r="O44" s="10">
         <v>0</v>
       </c>
@@ -10767,14 +10940,17 @@
         <v>0</v>
       </c>
       <c r="T44" s="10">
+        <v>0</v>
+      </c>
+      <c r="U44" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U44" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V44" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -10790,9 +10966,7 @@
       <c r="K45" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="N45" s="10">
-        <v>0</v>
-      </c>
+      <c r="L45" s="10"/>
       <c r="O45" s="10">
         <v>0</v>
       </c>
@@ -10809,14 +10983,17 @@
         <v>0</v>
       </c>
       <c r="T45" s="10">
+        <v>0</v>
+      </c>
+      <c r="U45" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U45" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V45" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -10832,9 +11009,7 @@
       <c r="K46" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="N46" s="10">
-        <v>0</v>
-      </c>
+      <c r="L46" s="10"/>
       <c r="O46" s="10">
         <v>0</v>
       </c>
@@ -10851,14 +11026,17 @@
         <v>0</v>
       </c>
       <c r="T46" s="10">
+        <v>0</v>
+      </c>
+      <c r="U46" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U46" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="V46" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -10874,9 +11052,7 @@
       <c r="K47" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="N47" s="10">
-        <v>0</v>
-      </c>
+      <c r="L47" s="10"/>
       <c r="O47" s="10">
         <v>0</v>
       </c>
@@ -10893,14 +11069,17 @@
         <v>0</v>
       </c>
       <c r="T47" s="10">
+        <v>0</v>
+      </c>
+      <c r="U47" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U47" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="V47" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -10916,9 +11095,7 @@
       <c r="K48" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="N48" s="10">
-        <v>0</v>
-      </c>
+      <c r="L48" s="10"/>
       <c r="O48" s="10">
         <v>0</v>
       </c>
@@ -10935,14 +11112,17 @@
         <v>0</v>
       </c>
       <c r="T48" s="10">
+        <v>0</v>
+      </c>
+      <c r="U48" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U48" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="V48" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -10961,9 +11141,7 @@
       <c r="K49" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="N49" s="10">
-        <v>0</v>
-      </c>
+      <c r="L49" s="10"/>
       <c r="O49" s="10">
         <v>0</v>
       </c>
@@ -10980,14 +11158,17 @@
         <v>0</v>
       </c>
       <c r="T49" s="10">
+        <v>0</v>
+      </c>
+      <c r="U49" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U49" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V49" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -11003,9 +11184,7 @@
       <c r="K50" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="N50" s="10">
-        <v>0</v>
-      </c>
+      <c r="L50" s="10"/>
       <c r="O50" s="10">
         <v>0</v>
       </c>
@@ -11022,14 +11201,17 @@
         <v>0</v>
       </c>
       <c r="T50" s="10">
+        <v>0</v>
+      </c>
+      <c r="U50" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U50" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="V50" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -11045,9 +11227,7 @@
       <c r="K51" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="N51" s="10">
-        <v>0</v>
-      </c>
+      <c r="L51" s="10"/>
       <c r="O51" s="10">
         <v>0</v>
       </c>
@@ -11064,14 +11244,17 @@
         <v>0</v>
       </c>
       <c r="T51" s="10">
+        <v>0</v>
+      </c>
+      <c r="U51" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U51" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="V51" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -11087,9 +11270,7 @@
       <c r="K52" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="N52" s="10">
-        <v>0</v>
-      </c>
+      <c r="L52" s="10"/>
       <c r="O52" s="10">
         <v>0</v>
       </c>
@@ -11106,14 +11287,17 @@
         <v>0</v>
       </c>
       <c r="T52" s="10">
+        <v>0</v>
+      </c>
+      <c r="U52" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U52" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="V52" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -11129,9 +11313,7 @@
       <c r="K53" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="N53" s="10">
-        <v>0</v>
-      </c>
+      <c r="L53" s="10"/>
       <c r="O53" s="10">
         <v>0</v>
       </c>
@@ -11148,14 +11330,17 @@
         <v>0</v>
       </c>
       <c r="T53" s="10">
+        <v>0</v>
+      </c>
+      <c r="U53" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U53" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V53" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -11171,9 +11356,7 @@
       <c r="K54" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="N54" s="10">
-        <v>0</v>
-      </c>
+      <c r="L54" s="10"/>
       <c r="O54" s="10">
         <v>0</v>
       </c>
@@ -11190,1144 +11373,1147 @@
         <v>0</v>
       </c>
       <c r="T54" s="10">
+        <v>0</v>
+      </c>
+      <c r="U54" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U54" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="N55" s="10"/>
+      <c r="V54" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
       <c r="O55" s="10"/>
       <c r="P55" s="10"/>
       <c r="Q55" s="10"/>
       <c r="R55" s="10"/>
       <c r="S55" s="10"/>
       <c r="T55" s="10"/>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="N56" s="10"/>
+      <c r="U55" s="10"/>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
       <c r="O56" s="10"/>
       <c r="P56" s="10"/>
       <c r="Q56" s="10"/>
       <c r="R56" s="10"/>
       <c r="S56" s="10"/>
       <c r="T56" s="10"/>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="N57" s="10"/>
+      <c r="U56" s="10"/>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
       <c r="O57" s="10"/>
       <c r="P57" s="10"/>
       <c r="Q57" s="10"/>
       <c r="R57" s="10"/>
       <c r="S57" s="10"/>
       <c r="T57" s="10"/>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="N58" s="10"/>
+      <c r="U57" s="10"/>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
       <c r="O58" s="10"/>
       <c r="P58" s="10"/>
       <c r="Q58" s="10"/>
       <c r="R58" s="10"/>
       <c r="S58" s="10"/>
       <c r="T58" s="10"/>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="N59" s="10"/>
+      <c r="U58" s="10"/>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
       <c r="O59" s="10"/>
       <c r="P59" s="10"/>
       <c r="Q59" s="10"/>
       <c r="R59" s="10"/>
       <c r="S59" s="10"/>
       <c r="T59" s="10"/>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="N60" s="10"/>
+      <c r="U59" s="10"/>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
       <c r="O60" s="10"/>
       <c r="P60" s="10"/>
       <c r="Q60" s="10"/>
       <c r="R60" s="10"/>
       <c r="S60" s="10"/>
       <c r="T60" s="10"/>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="N61" s="10"/>
+      <c r="U60" s="10"/>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
       <c r="O61" s="10"/>
       <c r="P61" s="10"/>
       <c r="Q61" s="10"/>
       <c r="R61" s="10"/>
       <c r="S61" s="10"/>
       <c r="T61" s="10"/>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="N62" s="10"/>
+      <c r="U61" s="10"/>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
       <c r="O62" s="10"/>
       <c r="P62" s="10"/>
       <c r="Q62" s="10"/>
       <c r="R62" s="10"/>
       <c r="S62" s="10"/>
       <c r="T62" s="10"/>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="N63" s="10"/>
+      <c r="U62" s="10"/>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
       <c r="O63" s="10"/>
       <c r="P63" s="10"/>
       <c r="Q63" s="10"/>
       <c r="R63" s="10"/>
       <c r="S63" s="10"/>
       <c r="T63" s="10"/>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="N64" s="10"/>
+      <c r="U63" s="10"/>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
       <c r="O64" s="10"/>
       <c r="P64" s="10"/>
       <c r="Q64" s="10"/>
       <c r="R64" s="10"/>
       <c r="S64" s="10"/>
       <c r="T64" s="10"/>
-    </row>
-    <row r="65" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N65" s="10"/>
+      <c r="U64" s="10"/>
+    </row>
+    <row r="65" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O65" s="10"/>
       <c r="P65" s="10"/>
       <c r="Q65" s="10"/>
       <c r="R65" s="10"/>
       <c r="S65" s="10"/>
       <c r="T65" s="10"/>
-    </row>
-    <row r="66" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N66" s="10"/>
+      <c r="U65" s="10"/>
+    </row>
+    <row r="66" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O66" s="10"/>
       <c r="P66" s="10"/>
       <c r="Q66" s="10"/>
       <c r="R66" s="10"/>
       <c r="S66" s="10"/>
       <c r="T66" s="10"/>
-    </row>
-    <row r="67" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N67" s="10"/>
+      <c r="U66" s="10"/>
+    </row>
+    <row r="67" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O67" s="10"/>
       <c r="P67" s="10"/>
       <c r="Q67" s="10"/>
       <c r="R67" s="10"/>
       <c r="S67" s="10"/>
       <c r="T67" s="10"/>
-    </row>
-    <row r="68" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N68" s="10"/>
+      <c r="U67" s="10"/>
+    </row>
+    <row r="68" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O68" s="10"/>
       <c r="P68" s="10"/>
       <c r="Q68" s="10"/>
       <c r="R68" s="10"/>
       <c r="S68" s="10"/>
       <c r="T68" s="10"/>
-    </row>
-    <row r="69" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N69" s="10"/>
+      <c r="U68" s="10"/>
+    </row>
+    <row r="69" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O69" s="10"/>
       <c r="P69" s="10"/>
       <c r="Q69" s="10"/>
       <c r="R69" s="10"/>
       <c r="S69" s="10"/>
       <c r="T69" s="10"/>
-    </row>
-    <row r="70" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N70" s="10"/>
+      <c r="U69" s="10"/>
+    </row>
+    <row r="70" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O70" s="10"/>
       <c r="P70" s="10"/>
       <c r="Q70" s="10"/>
       <c r="R70" s="10"/>
       <c r="S70" s="10"/>
       <c r="T70" s="10"/>
-    </row>
-    <row r="71" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N71" s="10"/>
+      <c r="U70" s="10"/>
+    </row>
+    <row r="71" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O71" s="10"/>
       <c r="P71" s="10"/>
       <c r="Q71" s="10"/>
       <c r="R71" s="10"/>
       <c r="S71" s="10"/>
       <c r="T71" s="10"/>
-    </row>
-    <row r="72" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N72" s="10"/>
+      <c r="U71" s="10"/>
+    </row>
+    <row r="72" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O72" s="10"/>
       <c r="P72" s="10"/>
       <c r="Q72" s="10"/>
       <c r="R72" s="10"/>
       <c r="S72" s="10"/>
       <c r="T72" s="10"/>
-    </row>
-    <row r="73" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N73" s="10"/>
+      <c r="U72" s="10"/>
+    </row>
+    <row r="73" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O73" s="10"/>
       <c r="P73" s="10"/>
       <c r="Q73" s="10"/>
       <c r="R73" s="10"/>
       <c r="S73" s="10"/>
       <c r="T73" s="10"/>
-    </row>
-    <row r="74" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N74" s="10"/>
+      <c r="U73" s="10"/>
+    </row>
+    <row r="74" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O74" s="10"/>
       <c r="P74" s="10"/>
       <c r="Q74" s="10"/>
       <c r="R74" s="10"/>
       <c r="S74" s="10"/>
       <c r="T74" s="10"/>
-    </row>
-    <row r="75" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N75" s="10"/>
+      <c r="U74" s="10"/>
+    </row>
+    <row r="75" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O75" s="10"/>
       <c r="P75" s="10"/>
       <c r="Q75" s="10"/>
       <c r="R75" s="10"/>
       <c r="S75" s="10"/>
       <c r="T75" s="10"/>
-    </row>
-    <row r="76" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N76" s="10"/>
+      <c r="U75" s="10"/>
+    </row>
+    <row r="76" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O76" s="10"/>
       <c r="P76" s="10"/>
       <c r="Q76" s="10"/>
       <c r="R76" s="10"/>
       <c r="S76" s="10"/>
       <c r="T76" s="10"/>
-    </row>
-    <row r="77" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N77" s="10"/>
+      <c r="U76" s="10"/>
+    </row>
+    <row r="77" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O77" s="10"/>
       <c r="P77" s="10"/>
       <c r="Q77" s="10"/>
       <c r="R77" s="10"/>
       <c r="S77" s="10"/>
       <c r="T77" s="10"/>
-    </row>
-    <row r="78" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N78" s="10"/>
+      <c r="U77" s="10"/>
+    </row>
+    <row r="78" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O78" s="10"/>
       <c r="P78" s="10"/>
       <c r="Q78" s="10"/>
       <c r="R78" s="10"/>
       <c r="S78" s="10"/>
       <c r="T78" s="10"/>
-    </row>
-    <row r="79" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N79" s="10"/>
+      <c r="U78" s="10"/>
+    </row>
+    <row r="79" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O79" s="10"/>
       <c r="P79" s="10"/>
       <c r="Q79" s="10"/>
       <c r="R79" s="10"/>
       <c r="S79" s="10"/>
       <c r="T79" s="10"/>
-    </row>
-    <row r="80" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N80" s="10"/>
+      <c r="U79" s="10"/>
+    </row>
+    <row r="80" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O80" s="10"/>
       <c r="P80" s="10"/>
       <c r="Q80" s="10"/>
       <c r="R80" s="10"/>
       <c r="S80" s="10"/>
       <c r="T80" s="10"/>
-    </row>
-    <row r="81" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N81" s="10"/>
+      <c r="U80" s="10"/>
+    </row>
+    <row r="81" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O81" s="10"/>
       <c r="P81" s="10"/>
       <c r="Q81" s="10"/>
       <c r="R81" s="10"/>
       <c r="S81" s="10"/>
       <c r="T81" s="10"/>
-    </row>
-    <row r="82" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N82" s="10"/>
+      <c r="U81" s="10"/>
+    </row>
+    <row r="82" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O82" s="10"/>
       <c r="P82" s="10"/>
       <c r="Q82" s="10"/>
       <c r="R82" s="10"/>
       <c r="S82" s="10"/>
       <c r="T82" s="10"/>
-    </row>
-    <row r="83" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N83" s="10"/>
+      <c r="U82" s="10"/>
+    </row>
+    <row r="83" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O83" s="10"/>
       <c r="P83" s="10"/>
       <c r="Q83" s="10"/>
       <c r="R83" s="10"/>
       <c r="S83" s="10"/>
       <c r="T83" s="10"/>
-    </row>
-    <row r="84" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N84" s="10"/>
+      <c r="U83" s="10"/>
+    </row>
+    <row r="84" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O84" s="10"/>
       <c r="P84" s="10"/>
       <c r="Q84" s="10"/>
       <c r="R84" s="10"/>
       <c r="S84" s="10"/>
       <c r="T84" s="10"/>
-    </row>
-    <row r="85" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N85" s="10"/>
+      <c r="U84" s="10"/>
+    </row>
+    <row r="85" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O85" s="10"/>
       <c r="P85" s="10"/>
       <c r="Q85" s="10"/>
       <c r="R85" s="10"/>
       <c r="S85" s="10"/>
       <c r="T85" s="10"/>
-    </row>
-    <row r="86" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N86" s="10"/>
+      <c r="U85" s="10"/>
+    </row>
+    <row r="86" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O86" s="10"/>
       <c r="P86" s="10"/>
       <c r="Q86" s="10"/>
       <c r="R86" s="10"/>
       <c r="S86" s="10"/>
       <c r="T86" s="10"/>
-    </row>
-    <row r="87" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N87" s="10"/>
+      <c r="U86" s="10"/>
+    </row>
+    <row r="87" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O87" s="10"/>
       <c r="P87" s="10"/>
       <c r="Q87" s="10"/>
       <c r="R87" s="10"/>
       <c r="S87" s="10"/>
       <c r="T87" s="10"/>
-    </row>
-    <row r="88" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N88" s="10"/>
+      <c r="U87" s="10"/>
+    </row>
+    <row r="88" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O88" s="10"/>
       <c r="P88" s="10"/>
       <c r="Q88" s="10"/>
       <c r="R88" s="10"/>
       <c r="S88" s="10"/>
       <c r="T88" s="10"/>
-    </row>
-    <row r="89" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N89" s="10"/>
+      <c r="U88" s="10"/>
+    </row>
+    <row r="89" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O89" s="10"/>
       <c r="P89" s="10"/>
       <c r="Q89" s="10"/>
       <c r="R89" s="10"/>
       <c r="S89" s="10"/>
       <c r="T89" s="10"/>
-    </row>
-    <row r="90" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N90" s="10"/>
+      <c r="U89" s="10"/>
+    </row>
+    <row r="90" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O90" s="10"/>
       <c r="P90" s="10"/>
       <c r="Q90" s="10"/>
       <c r="R90" s="10"/>
       <c r="S90" s="10"/>
       <c r="T90" s="10"/>
-    </row>
-    <row r="91" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N91" s="10"/>
+      <c r="U90" s="10"/>
+    </row>
+    <row r="91" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O91" s="10"/>
       <c r="P91" s="10"/>
       <c r="Q91" s="10"/>
       <c r="R91" s="10"/>
       <c r="S91" s="10"/>
       <c r="T91" s="10"/>
-    </row>
-    <row r="92" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N92" s="10"/>
+      <c r="U91" s="10"/>
+    </row>
+    <row r="92" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O92" s="10"/>
       <c r="P92" s="10"/>
       <c r="Q92" s="10"/>
       <c r="R92" s="10"/>
       <c r="S92" s="10"/>
       <c r="T92" s="10"/>
-    </row>
-    <row r="93" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N93" s="10"/>
+      <c r="U92" s="10"/>
+    </row>
+    <row r="93" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O93" s="10"/>
       <c r="P93" s="10"/>
       <c r="Q93" s="10"/>
       <c r="R93" s="10"/>
       <c r="S93" s="10"/>
       <c r="T93" s="10"/>
-    </row>
-    <row r="94" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N94" s="10"/>
+      <c r="U93" s="10"/>
+    </row>
+    <row r="94" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O94" s="10"/>
       <c r="P94" s="10"/>
       <c r="Q94" s="10"/>
       <c r="R94" s="10"/>
       <c r="S94" s="10"/>
       <c r="T94" s="10"/>
-    </row>
-    <row r="95" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N95" s="10"/>
+      <c r="U94" s="10"/>
+    </row>
+    <row r="95" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O95" s="10"/>
       <c r="P95" s="10"/>
       <c r="Q95" s="10"/>
       <c r="R95" s="10"/>
       <c r="S95" s="10"/>
       <c r="T95" s="10"/>
-    </row>
-    <row r="96" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N96" s="10"/>
+      <c r="U95" s="10"/>
+    </row>
+    <row r="96" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O96" s="10"/>
       <c r="P96" s="10"/>
       <c r="Q96" s="10"/>
       <c r="R96" s="10"/>
       <c r="S96" s="10"/>
       <c r="T96" s="10"/>
-    </row>
-    <row r="97" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N97" s="10"/>
+      <c r="U96" s="10"/>
+    </row>
+    <row r="97" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O97" s="10"/>
       <c r="P97" s="10"/>
       <c r="Q97" s="10"/>
       <c r="R97" s="10"/>
       <c r="S97" s="10"/>
       <c r="T97" s="10"/>
-    </row>
-    <row r="98" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N98" s="10"/>
+      <c r="U97" s="10"/>
+    </row>
+    <row r="98" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O98" s="10"/>
       <c r="P98" s="10"/>
       <c r="Q98" s="10"/>
       <c r="R98" s="10"/>
       <c r="S98" s="10"/>
       <c r="T98" s="10"/>
-    </row>
-    <row r="99" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N99" s="10"/>
+      <c r="U98" s="10"/>
+    </row>
+    <row r="99" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O99" s="10"/>
       <c r="P99" s="10"/>
       <c r="Q99" s="10"/>
       <c r="R99" s="10"/>
       <c r="S99" s="10"/>
       <c r="T99" s="10"/>
-    </row>
-    <row r="100" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N100" s="10"/>
+      <c r="U99" s="10"/>
+    </row>
+    <row r="100" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O100" s="10"/>
       <c r="P100" s="10"/>
       <c r="Q100" s="10"/>
       <c r="R100" s="10"/>
       <c r="S100" s="10"/>
       <c r="T100" s="10"/>
-    </row>
-    <row r="101" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N101" s="10"/>
+      <c r="U100" s="10"/>
+    </row>
+    <row r="101" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O101" s="10"/>
       <c r="P101" s="10"/>
       <c r="Q101" s="10"/>
       <c r="R101" s="10"/>
       <c r="S101" s="10"/>
       <c r="T101" s="10"/>
-    </row>
-    <row r="102" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N102" s="10"/>
+      <c r="U101" s="10"/>
+    </row>
+    <row r="102" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O102" s="10"/>
       <c r="P102" s="10"/>
       <c r="Q102" s="10"/>
       <c r="R102" s="10"/>
       <c r="S102" s="10"/>
       <c r="T102" s="10"/>
-    </row>
-    <row r="103" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N103" s="10"/>
+      <c r="U102" s="10"/>
+    </row>
+    <row r="103" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O103" s="10"/>
       <c r="P103" s="10"/>
       <c r="Q103" s="10"/>
       <c r="R103" s="10"/>
       <c r="S103" s="10"/>
       <c r="T103" s="10"/>
-    </row>
-    <row r="104" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N104" s="10"/>
+      <c r="U103" s="10"/>
+    </row>
+    <row r="104" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O104" s="10"/>
       <c r="P104" s="10"/>
       <c r="Q104" s="10"/>
       <c r="R104" s="10"/>
       <c r="S104" s="10"/>
       <c r="T104" s="10"/>
-    </row>
-    <row r="105" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N105" s="10"/>
+      <c r="U104" s="10"/>
+    </row>
+    <row r="105" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O105" s="10"/>
       <c r="P105" s="10"/>
       <c r="Q105" s="10"/>
       <c r="R105" s="10"/>
       <c r="S105" s="10"/>
       <c r="T105" s="10"/>
-    </row>
-    <row r="106" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N106" s="10"/>
+      <c r="U105" s="10"/>
+    </row>
+    <row r="106" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O106" s="10"/>
       <c r="P106" s="10"/>
       <c r="Q106" s="10"/>
       <c r="R106" s="10"/>
       <c r="S106" s="10"/>
       <c r="T106" s="10"/>
-    </row>
-    <row r="107" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N107" s="10"/>
+      <c r="U106" s="10"/>
+    </row>
+    <row r="107" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O107" s="10"/>
       <c r="P107" s="10"/>
       <c r="Q107" s="10"/>
       <c r="R107" s="10"/>
       <c r="S107" s="10"/>
       <c r="T107" s="10"/>
-    </row>
-    <row r="108" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N108" s="10"/>
+      <c r="U107" s="10"/>
+    </row>
+    <row r="108" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O108" s="10"/>
       <c r="P108" s="10"/>
       <c r="Q108" s="10"/>
       <c r="R108" s="10"/>
       <c r="S108" s="10"/>
       <c r="T108" s="10"/>
-    </row>
-    <row r="109" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N109" s="10"/>
+      <c r="U108" s="10"/>
+    </row>
+    <row r="109" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O109" s="10"/>
       <c r="P109" s="10"/>
       <c r="Q109" s="10"/>
       <c r="R109" s="10"/>
       <c r="S109" s="10"/>
       <c r="T109" s="10"/>
-    </row>
-    <row r="110" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N110" s="10"/>
+      <c r="U109" s="10"/>
+    </row>
+    <row r="110" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O110" s="10"/>
       <c r="P110" s="10"/>
       <c r="Q110" s="10"/>
       <c r="R110" s="10"/>
       <c r="S110" s="10"/>
       <c r="T110" s="10"/>
-    </row>
-    <row r="111" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N111" s="10"/>
+      <c r="U110" s="10"/>
+    </row>
+    <row r="111" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O111" s="10"/>
       <c r="P111" s="10"/>
       <c r="Q111" s="10"/>
       <c r="R111" s="10"/>
       <c r="S111" s="10"/>
       <c r="T111" s="10"/>
-    </row>
-    <row r="112" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N112" s="10"/>
+      <c r="U111" s="10"/>
+    </row>
+    <row r="112" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O112" s="10"/>
       <c r="P112" s="10"/>
       <c r="Q112" s="10"/>
       <c r="R112" s="10"/>
       <c r="S112" s="10"/>
       <c r="T112" s="10"/>
-    </row>
-    <row r="113" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N113" s="10"/>
+      <c r="U112" s="10"/>
+    </row>
+    <row r="113" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O113" s="10"/>
       <c r="P113" s="10"/>
       <c r="Q113" s="10"/>
       <c r="R113" s="10"/>
       <c r="S113" s="10"/>
       <c r="T113" s="10"/>
-    </row>
-    <row r="114" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N114" s="10"/>
+      <c r="U113" s="10"/>
+    </row>
+    <row r="114" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O114" s="10"/>
       <c r="P114" s="10"/>
       <c r="Q114" s="10"/>
       <c r="R114" s="10"/>
       <c r="S114" s="10"/>
       <c r="T114" s="10"/>
-    </row>
-    <row r="115" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N115" s="10"/>
+      <c r="U114" s="10"/>
+    </row>
+    <row r="115" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O115" s="10"/>
       <c r="P115" s="10"/>
       <c r="Q115" s="10"/>
       <c r="R115" s="10"/>
       <c r="S115" s="10"/>
       <c r="T115" s="10"/>
-    </row>
-    <row r="116" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N116" s="10"/>
+      <c r="U115" s="10"/>
+    </row>
+    <row r="116" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O116" s="10"/>
       <c r="P116" s="10"/>
       <c r="Q116" s="10"/>
       <c r="R116" s="10"/>
       <c r="S116" s="10"/>
       <c r="T116" s="10"/>
-    </row>
-    <row r="117" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N117" s="10"/>
+      <c r="U116" s="10"/>
+    </row>
+    <row r="117" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O117" s="10"/>
       <c r="P117" s="10"/>
       <c r="Q117" s="10"/>
       <c r="R117" s="10"/>
       <c r="S117" s="10"/>
       <c r="T117" s="10"/>
-    </row>
-    <row r="118" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N118" s="10"/>
+      <c r="U117" s="10"/>
+    </row>
+    <row r="118" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O118" s="10"/>
       <c r="P118" s="10"/>
       <c r="Q118" s="10"/>
       <c r="R118" s="10"/>
       <c r="S118" s="10"/>
       <c r="T118" s="10"/>
-    </row>
-    <row r="119" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N119" s="10"/>
+      <c r="U118" s="10"/>
+    </row>
+    <row r="119" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O119" s="10"/>
       <c r="P119" s="10"/>
       <c r="Q119" s="10"/>
       <c r="R119" s="10"/>
       <c r="S119" s="10"/>
       <c r="T119" s="10"/>
-    </row>
-    <row r="120" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N120" s="10"/>
+      <c r="U119" s="10"/>
+    </row>
+    <row r="120" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O120" s="10"/>
       <c r="P120" s="10"/>
       <c r="Q120" s="10"/>
       <c r="R120" s="10"/>
       <c r="S120" s="10"/>
       <c r="T120" s="10"/>
-    </row>
-    <row r="121" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N121" s="10"/>
+      <c r="U120" s="10"/>
+    </row>
+    <row r="121" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O121" s="10"/>
       <c r="P121" s="10"/>
       <c r="Q121" s="10"/>
       <c r="R121" s="10"/>
       <c r="S121" s="10"/>
       <c r="T121" s="10"/>
-    </row>
-    <row r="122" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N122" s="10"/>
+      <c r="U121" s="10"/>
+    </row>
+    <row r="122" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O122" s="10"/>
       <c r="P122" s="10"/>
       <c r="Q122" s="10"/>
       <c r="R122" s="10"/>
       <c r="S122" s="10"/>
       <c r="T122" s="10"/>
-    </row>
-    <row r="123" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N123" s="10"/>
+      <c r="U122" s="10"/>
+    </row>
+    <row r="123" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O123" s="10"/>
       <c r="P123" s="10"/>
       <c r="Q123" s="10"/>
       <c r="R123" s="10"/>
       <c r="S123" s="10"/>
       <c r="T123" s="10"/>
-    </row>
-    <row r="124" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N124" s="10"/>
+      <c r="U123" s="10"/>
+    </row>
+    <row r="124" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O124" s="10"/>
       <c r="P124" s="10"/>
       <c r="Q124" s="10"/>
       <c r="R124" s="10"/>
       <c r="S124" s="10"/>
       <c r="T124" s="10"/>
-    </row>
-    <row r="125" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N125" s="10"/>
+      <c r="U124" s="10"/>
+    </row>
+    <row r="125" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O125" s="10"/>
       <c r="P125" s="10"/>
       <c r="Q125" s="10"/>
       <c r="R125" s="10"/>
       <c r="S125" s="10"/>
       <c r="T125" s="10"/>
-    </row>
-    <row r="126" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N126" s="10"/>
+      <c r="U125" s="10"/>
+    </row>
+    <row r="126" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O126" s="10"/>
       <c r="P126" s="10"/>
       <c r="Q126" s="10"/>
       <c r="R126" s="10"/>
       <c r="S126" s="10"/>
       <c r="T126" s="10"/>
-    </row>
-    <row r="127" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N127" s="10"/>
+      <c r="U126" s="10"/>
+    </row>
+    <row r="127" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O127" s="10"/>
       <c r="P127" s="10"/>
       <c r="Q127" s="10"/>
       <c r="R127" s="10"/>
       <c r="S127" s="10"/>
       <c r="T127" s="10"/>
-    </row>
-    <row r="128" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N128" s="10"/>
+      <c r="U127" s="10"/>
+    </row>
+    <row r="128" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O128" s="10"/>
       <c r="P128" s="10"/>
       <c r="Q128" s="10"/>
       <c r="R128" s="10"/>
       <c r="S128" s="10"/>
       <c r="T128" s="10"/>
-    </row>
-    <row r="129" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N129" s="10"/>
+      <c r="U128" s="10"/>
+    </row>
+    <row r="129" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O129" s="10"/>
       <c r="P129" s="10"/>
       <c r="Q129" s="10"/>
       <c r="R129" s="10"/>
       <c r="S129" s="10"/>
       <c r="T129" s="10"/>
-    </row>
-    <row r="130" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N130" s="10"/>
+      <c r="U129" s="10"/>
+    </row>
+    <row r="130" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O130" s="10"/>
       <c r="P130" s="10"/>
       <c r="Q130" s="10"/>
       <c r="R130" s="10"/>
       <c r="S130" s="10"/>
       <c r="T130" s="10"/>
-    </row>
-    <row r="131" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N131" s="10"/>
+      <c r="U130" s="10"/>
+    </row>
+    <row r="131" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O131" s="10"/>
       <c r="P131" s="10"/>
       <c r="Q131" s="10"/>
       <c r="R131" s="10"/>
       <c r="S131" s="10"/>
       <c r="T131" s="10"/>
-    </row>
-    <row r="132" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N132" s="10"/>
+      <c r="U131" s="10"/>
+    </row>
+    <row r="132" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O132" s="10"/>
       <c r="P132" s="10"/>
       <c r="Q132" s="10"/>
       <c r="R132" s="10"/>
       <c r="S132" s="10"/>
       <c r="T132" s="10"/>
-    </row>
-    <row r="133" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N133" s="10"/>
+      <c r="U132" s="10"/>
+    </row>
+    <row r="133" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O133" s="10"/>
       <c r="P133" s="10"/>
       <c r="Q133" s="10"/>
       <c r="R133" s="10"/>
       <c r="S133" s="10"/>
       <c r="T133" s="10"/>
-    </row>
-    <row r="134" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N134" s="10"/>
+      <c r="U133" s="10"/>
+    </row>
+    <row r="134" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O134" s="10"/>
       <c r="P134" s="10"/>
       <c r="Q134" s="10"/>
       <c r="R134" s="10"/>
       <c r="S134" s="10"/>
       <c r="T134" s="10"/>
-    </row>
-    <row r="135" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N135" s="10"/>
+      <c r="U134" s="10"/>
+    </row>
+    <row r="135" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O135" s="10"/>
       <c r="P135" s="10"/>
       <c r="Q135" s="10"/>
       <c r="R135" s="10"/>
       <c r="S135" s="10"/>
       <c r="T135" s="10"/>
-    </row>
-    <row r="136" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N136" s="10"/>
+      <c r="U135" s="10"/>
+    </row>
+    <row r="136" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O136" s="10"/>
       <c r="P136" s="10"/>
       <c r="Q136" s="10"/>
       <c r="R136" s="10"/>
       <c r="S136" s="10"/>
       <c r="T136" s="10"/>
-    </row>
-    <row r="137" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N137" s="10"/>
+      <c r="U136" s="10"/>
+    </row>
+    <row r="137" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O137" s="10"/>
       <c r="P137" s="10"/>
       <c r="Q137" s="10"/>
       <c r="R137" s="10"/>
       <c r="S137" s="10"/>
       <c r="T137" s="10"/>
-    </row>
-    <row r="138" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N138" s="10"/>
+      <c r="U137" s="10"/>
+    </row>
+    <row r="138" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O138" s="10"/>
       <c r="P138" s="10"/>
       <c r="Q138" s="10"/>
       <c r="R138" s="10"/>
       <c r="S138" s="10"/>
       <c r="T138" s="10"/>
-    </row>
-    <row r="139" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N139" s="10"/>
+      <c r="U138" s="10"/>
+    </row>
+    <row r="139" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O139" s="10"/>
       <c r="P139" s="10"/>
       <c r="Q139" s="10"/>
       <c r="R139" s="10"/>
       <c r="S139" s="10"/>
       <c r="T139" s="10"/>
-    </row>
-    <row r="140" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N140" s="10"/>
+      <c r="U139" s="10"/>
+    </row>
+    <row r="140" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O140" s="10"/>
       <c r="P140" s="10"/>
       <c r="Q140" s="10"/>
       <c r="R140" s="10"/>
       <c r="S140" s="10"/>
       <c r="T140" s="10"/>
-    </row>
-    <row r="141" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N141" s="10"/>
+      <c r="U140" s="10"/>
+    </row>
+    <row r="141" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O141" s="10"/>
       <c r="P141" s="10"/>
       <c r="Q141" s="10"/>
       <c r="R141" s="10"/>
       <c r="S141" s="10"/>
       <c r="T141" s="10"/>
-    </row>
-    <row r="142" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N142" s="10"/>
+      <c r="U141" s="10"/>
+    </row>
+    <row r="142" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O142" s="10"/>
       <c r="P142" s="10"/>
       <c r="Q142" s="10"/>
       <c r="R142" s="10"/>
       <c r="S142" s="10"/>
       <c r="T142" s="10"/>
-    </row>
-    <row r="143" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N143" s="10"/>
+      <c r="U142" s="10"/>
+    </row>
+    <row r="143" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O143" s="10"/>
       <c r="P143" s="10"/>
       <c r="Q143" s="10"/>
       <c r="R143" s="10"/>
       <c r="S143" s="10"/>
       <c r="T143" s="10"/>
-    </row>
-    <row r="144" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N144" s="10"/>
+      <c r="U143" s="10"/>
+    </row>
+    <row r="144" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O144" s="10"/>
       <c r="P144" s="10"/>
       <c r="Q144" s="10"/>
       <c r="R144" s="10"/>
       <c r="S144" s="10"/>
       <c r="T144" s="10"/>
-    </row>
-    <row r="145" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N145" s="10"/>
+      <c r="U144" s="10"/>
+    </row>
+    <row r="145" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O145" s="10"/>
       <c r="P145" s="10"/>
       <c r="Q145" s="10"/>
       <c r="R145" s="10"/>
       <c r="S145" s="10"/>
       <c r="T145" s="10"/>
-    </row>
-    <row r="146" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N146" s="10"/>
+      <c r="U145" s="10"/>
+    </row>
+    <row r="146" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O146" s="10"/>
       <c r="P146" s="10"/>
       <c r="Q146" s="10"/>
       <c r="R146" s="10"/>
       <c r="S146" s="10"/>
       <c r="T146" s="10"/>
-    </row>
-    <row r="147" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N147" s="10"/>
+      <c r="U146" s="10"/>
+    </row>
+    <row r="147" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O147" s="10"/>
       <c r="P147" s="10"/>
       <c r="Q147" s="10"/>
       <c r="R147" s="10"/>
       <c r="S147" s="10"/>
       <c r="T147" s="10"/>
-    </row>
-    <row r="148" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N148" s="10"/>
+      <c r="U147" s="10"/>
+    </row>
+    <row r="148" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O148" s="10"/>
       <c r="P148" s="10"/>
       <c r="Q148" s="10"/>
       <c r="R148" s="10"/>
       <c r="S148" s="10"/>
       <c r="T148" s="10"/>
-    </row>
-    <row r="149" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N149" s="10"/>
+      <c r="U148" s="10"/>
+    </row>
+    <row r="149" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O149" s="10"/>
       <c r="P149" s="10"/>
       <c r="Q149" s="10"/>
       <c r="R149" s="10"/>
       <c r="S149" s="10"/>
       <c r="T149" s="10"/>
-    </row>
-    <row r="150" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N150" s="10"/>
+      <c r="U149" s="10"/>
+    </row>
+    <row r="150" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O150" s="10"/>
       <c r="P150" s="10"/>
       <c r="Q150" s="10"/>
       <c r="R150" s="10"/>
       <c r="S150" s="10"/>
       <c r="T150" s="10"/>
-    </row>
-    <row r="151" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N151" s="10"/>
+      <c r="U150" s="10"/>
+    </row>
+    <row r="151" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O151" s="10"/>
       <c r="P151" s="10"/>
       <c r="Q151" s="10"/>
       <c r="R151" s="10"/>
       <c r="S151" s="10"/>
       <c r="T151" s="10"/>
-    </row>
-    <row r="152" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N152" s="10"/>
+      <c r="U151" s="10"/>
+    </row>
+    <row r="152" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O152" s="10"/>
       <c r="P152" s="10"/>
       <c r="Q152" s="10"/>
       <c r="R152" s="10"/>
       <c r="S152" s="10"/>
       <c r="T152" s="10"/>
-    </row>
-    <row r="153" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N153" s="10"/>
+      <c r="U152" s="10"/>
+    </row>
+    <row r="153" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O153" s="10"/>
       <c r="P153" s="10"/>
       <c r="Q153" s="10"/>
       <c r="R153" s="10"/>
       <c r="S153" s="10"/>
       <c r="T153" s="10"/>
-    </row>
-    <row r="154" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N154" s="10"/>
+      <c r="U153" s="10"/>
+    </row>
+    <row r="154" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O154" s="10"/>
       <c r="P154" s="10"/>
       <c r="Q154" s="10"/>
       <c r="R154" s="10"/>
       <c r="S154" s="10"/>
       <c r="T154" s="10"/>
-    </row>
-    <row r="155" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N155" s="10"/>
+      <c r="U154" s="10"/>
+    </row>
+    <row r="155" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O155" s="10"/>
       <c r="P155" s="10"/>
       <c r="Q155" s="10"/>
       <c r="R155" s="10"/>
       <c r="S155" s="10"/>
       <c r="T155" s="10"/>
-    </row>
-    <row r="156" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N156" s="10"/>
+      <c r="U155" s="10"/>
+    </row>
+    <row r="156" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O156" s="10"/>
       <c r="P156" s="10"/>
       <c r="Q156" s="10"/>
       <c r="R156" s="10"/>
       <c r="S156" s="10"/>
       <c r="T156" s="10"/>
-    </row>
-    <row r="157" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N157" s="10"/>
+      <c r="U156" s="10"/>
+    </row>
+    <row r="157" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O157" s="10"/>
       <c r="P157" s="10"/>
       <c r="Q157" s="10"/>
       <c r="R157" s="10"/>
       <c r="S157" s="10"/>
       <c r="T157" s="10"/>
-    </row>
-    <row r="158" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N158" s="10"/>
+      <c r="U157" s="10"/>
+    </row>
+    <row r="158" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O158" s="10"/>
       <c r="P158" s="10"/>
       <c r="Q158" s="10"/>
       <c r="R158" s="10"/>
       <c r="S158" s="10"/>
       <c r="T158" s="10"/>
-    </row>
-    <row r="159" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N159" s="10"/>
+      <c r="U158" s="10"/>
+    </row>
+    <row r="159" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O159" s="10"/>
       <c r="P159" s="10"/>
       <c r="Q159" s="10"/>
       <c r="R159" s="10"/>
       <c r="S159" s="10"/>
       <c r="T159" s="10"/>
-    </row>
-    <row r="160" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N160" s="10"/>
+      <c r="U159" s="10"/>
+    </row>
+    <row r="160" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O160" s="10"/>
       <c r="P160" s="10"/>
       <c r="Q160" s="10"/>
       <c r="R160" s="10"/>
       <c r="S160" s="10"/>
       <c r="T160" s="10"/>
-    </row>
-    <row r="161" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N161" s="10"/>
+      <c r="U160" s="10"/>
+    </row>
+    <row r="161" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O161" s="10"/>
       <c r="P161" s="10"/>
       <c r="Q161" s="10"/>
       <c r="R161" s="10"/>
       <c r="S161" s="10"/>
       <c r="T161" s="10"/>
-    </row>
-    <row r="162" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N162" s="10"/>
+      <c r="U161" s="10"/>
+    </row>
+    <row r="162" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O162" s="10"/>
       <c r="P162" s="10"/>
       <c r="Q162" s="10"/>
       <c r="R162" s="10"/>
       <c r="S162" s="10"/>
       <c r="T162" s="10"/>
-    </row>
-    <row r="163" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N163" s="10"/>
+      <c r="U162" s="10"/>
+    </row>
+    <row r="163" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O163" s="10"/>
       <c r="P163" s="10"/>
       <c r="Q163" s="10"/>
       <c r="R163" s="10"/>
       <c r="S163" s="10"/>
       <c r="T163" s="10"/>
-    </row>
-    <row r="164" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N164" s="10"/>
+      <c r="U163" s="10"/>
+    </row>
+    <row r="164" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O164" s="10"/>
       <c r="P164" s="10"/>
       <c r="Q164" s="10"/>
       <c r="R164" s="10"/>
       <c r="S164" s="10"/>
       <c r="T164" s="10"/>
-    </row>
-    <row r="165" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N165" s="10"/>
+      <c r="U164" s="10"/>
+    </row>
+    <row r="165" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O165" s="10"/>
       <c r="P165" s="10"/>
       <c r="Q165" s="10"/>
       <c r="R165" s="10"/>
       <c r="S165" s="10"/>
       <c r="T165" s="10"/>
-    </row>
-    <row r="166" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N166" s="10"/>
+      <c r="U165" s="10"/>
+    </row>
+    <row r="166" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O166" s="10"/>
       <c r="P166" s="10"/>
       <c r="Q166" s="10"/>
       <c r="R166" s="10"/>
       <c r="S166" s="10"/>
       <c r="T166" s="10"/>
-    </row>
-    <row r="167" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N167" s="10"/>
+      <c r="U166" s="10"/>
+    </row>
+    <row r="167" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O167" s="10"/>
       <c r="P167" s="10"/>
       <c r="Q167" s="10"/>
       <c r="R167" s="10"/>
       <c r="S167" s="10"/>
       <c r="T167" s="10"/>
-    </row>
-    <row r="168" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N168" s="10"/>
+      <c r="U167" s="10"/>
+    </row>
+    <row r="168" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O168" s="10"/>
       <c r="P168" s="10"/>
       <c r="Q168" s="10"/>
       <c r="R168" s="10"/>
       <c r="S168" s="10"/>
       <c r="T168" s="10"/>
-    </row>
-    <row r="169" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N169" s="10"/>
+      <c r="U168" s="10"/>
+    </row>
+    <row r="169" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O169" s="10"/>
       <c r="P169" s="10"/>
       <c r="Q169" s="10"/>
       <c r="R169" s="10"/>
       <c r="S169" s="10"/>
       <c r="T169" s="10"/>
-    </row>
-    <row r="170" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N170" s="10"/>
+      <c r="U169" s="10"/>
+    </row>
+    <row r="170" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O170" s="10"/>
       <c r="P170" s="10"/>
       <c r="Q170" s="10"/>
       <c r="R170" s="10"/>
       <c r="S170" s="10"/>
       <c r="T170" s="10"/>
-    </row>
-    <row r="171" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N171" s="10"/>
+      <c r="U170" s="10"/>
+    </row>
+    <row r="171" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O171" s="10"/>
       <c r="P171" s="10"/>
       <c r="Q171" s="10"/>
       <c r="R171" s="10"/>
       <c r="S171" s="10"/>
       <c r="T171" s="10"/>
-    </row>
-    <row r="172" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N172" s="10"/>
+      <c r="U171" s="10"/>
+    </row>
+    <row r="172" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O172" s="10"/>
       <c r="P172" s="10"/>
       <c r="Q172" s="10"/>
       <c r="R172" s="10"/>
       <c r="S172" s="10"/>
       <c r="T172" s="10"/>
-    </row>
-    <row r="173" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N173" s="10"/>
+      <c r="U172" s="10"/>
+    </row>
+    <row r="173" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O173" s="10"/>
       <c r="P173" s="10"/>
       <c r="Q173" s="10"/>
       <c r="R173" s="10"/>
       <c r="S173" s="10"/>
       <c r="T173" s="10"/>
-    </row>
-    <row r="174" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N174" s="10"/>
+      <c r="U173" s="10"/>
+    </row>
+    <row r="174" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O174" s="10"/>
       <c r="P174" s="10"/>
       <c r="Q174" s="10"/>
       <c r="R174" s="10"/>
       <c r="S174" s="10"/>
       <c r="T174" s="10"/>
-    </row>
-    <row r="175" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N175" s="10"/>
+      <c r="U174" s="10"/>
+    </row>
+    <row r="175" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O175" s="10"/>
       <c r="P175" s="10"/>
       <c r="Q175" s="10"/>
       <c r="R175" s="10"/>
       <c r="S175" s="10"/>
       <c r="T175" s="10"/>
-    </row>
-    <row r="176" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N176" s="10"/>
+      <c r="U175" s="10"/>
+    </row>
+    <row r="176" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O176" s="10"/>
       <c r="P176" s="10"/>
       <c r="Q176" s="10"/>
       <c r="R176" s="10"/>
       <c r="S176" s="10"/>
       <c r="T176" s="10"/>
-    </row>
-    <row r="177" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N177" s="10"/>
+      <c r="U176" s="10"/>
+    </row>
+    <row r="177" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O177" s="10"/>
       <c r="P177" s="10"/>
       <c r="Q177" s="10"/>
       <c r="R177" s="10"/>
       <c r="S177" s="10"/>
       <c r="T177" s="10"/>
-    </row>
-    <row r="178" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N178" s="10"/>
+      <c r="U177" s="10"/>
+    </row>
+    <row r="178" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O178" s="10"/>
       <c r="P178" s="10"/>
       <c r="Q178" s="10"/>
       <c r="R178" s="10"/>
       <c r="S178" s="10"/>
       <c r="T178" s="10"/>
-    </row>
-    <row r="179" spans="14:20" x14ac:dyDescent="0.3">
-      <c r="N179" s="10"/>
+      <c r="U178" s="10"/>
+    </row>
+    <row r="179" spans="15:21" x14ac:dyDescent="0.3">
       <c r="O179" s="10"/>
       <c r="P179" s="10"/>
       <c r="Q179" s="10"/>
       <c r="R179" s="10"/>
       <c r="S179" s="10"/>
       <c r="T179" s="10"/>
+      <c r="U179" s="10"/>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U1:U1048576" xr:uid="{00000000-0002-0000-0300-000000000000}">
-      <formula1>"Initial,Potential,Customer,Support,Upsells,Reject,Not-Contacted,Ex-Customer"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576" xr:uid="{00000000-0002-0000-0300-000000000000}">
+      <formula1>"Initial,Potential,Customer,Workshop Fixed,Reject,Not-Contacted,Ex-Customer"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576" xr:uid="{00000000-0002-0000-0300-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:N1048576" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>"Rahul Dutta,Sayan Basak,Anirban Chakraborty,Debashish Nath"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K1048576" xr:uid="{00000000-0002-0000-0300-000002000000}">

--- a/Offline/BusinessManagement/Marketing/AI marketing/AI Workshop Schools-Colleges.xlsx
+++ b/Offline/BusinessManagement/Marketing/AI marketing/AI Workshop Schools-Colleges.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Marketing\AI marketing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F47CDD-DE6C-444A-A24A-8BAABF6F1B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92FDC802-9D60-4F54-AB36-F9E0B7913E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="506" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="506" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="8" r:id="rId1"/>
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="572">
   <si>
     <t>CBSE</t>
   </si>
@@ -1480,9 +1480,6 @@
     <t>After 1 week, do follow up for email over phone</t>
   </si>
   <si>
-    <t>LJD DIAMOND HARBOUR</t>
-  </si>
-  <si>
     <t>9830028261</t>
   </si>
   <si>
@@ -1658,13 +1655,222 @@
   </si>
   <si>
     <t>033-25535566</t>
+  </si>
+  <si>
+    <t>LJD DIAMOND Falta</t>
+  </si>
+  <si>
+    <t>Narayana Fulbari</t>
+  </si>
+  <si>
+    <t>8695640623</t>
+  </si>
+  <si>
+    <t>Fulbari</t>
+  </si>
+  <si>
+    <t>wbfulbari.etechno@narayanagroup.com</t>
+  </si>
+  <si>
+    <t>Narayana Mahestala</t>
+  </si>
+  <si>
+    <t>wbmaheshtala.etechno@narayanagroup.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8902597339</t>
+  </si>
+  <si>
+    <t>Mahestala</t>
+  </si>
+  <si>
+    <t>Naryana Andul</t>
+  </si>
+  <si>
+    <t>8695640600</t>
+  </si>
+  <si>
+    <t>wbandul.etechno@narayanagroup.com</t>
+  </si>
+  <si>
+    <t>Narayana Barasat</t>
+  </si>
+  <si>
+    <t> 8777867589</t>
+  </si>
+  <si>
+    <t>Andul</t>
+  </si>
+  <si>
+    <t>Barasat</t>
+  </si>
+  <si>
+    <t>wbbarasat.etechno@narayanagroup.com</t>
+  </si>
+  <si>
+    <t>Narayana Bally</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> 6292291044</t>
+    </r>
+  </si>
+  <si>
+    <t>Bally</t>
+  </si>
+  <si>
+    <t>Narayana Rishra</t>
+  </si>
+  <si>
+    <t>info@narayanagroup.com</t>
+  </si>
+  <si>
+    <t>8695640618</t>
+  </si>
+  <si>
+    <t>wbrishra.etechno@narayanagroup.com</t>
+  </si>
+  <si>
+    <t>Rishra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nrayana Haldia </t>
+  </si>
+  <si>
+    <t>9547708626</t>
+  </si>
+  <si>
+    <t>principal.haldia@narayanagroup.com</t>
+  </si>
+  <si>
+    <t>HALDIA</t>
+  </si>
+  <si>
+    <t>Narayana Park Circus</t>
+  </si>
+  <si>
+    <t>6292272641</t>
+  </si>
+  <si>
+    <t>posibabua@narayanagroup.com</t>
+  </si>
+  <si>
+    <t>Park Circus</t>
+  </si>
+  <si>
+    <t>nhowrah@narayanagroup.com</t>
+  </si>
+  <si>
+    <t>Nrayana Howrah</t>
+  </si>
+  <si>
+    <t>Nrayana Sonarpur</t>
+  </si>
+  <si>
+    <t>9051770999</t>
+  </si>
+  <si>
+    <t>wbsonarpur.etechno@narayanagroup.com</t>
+  </si>
+  <si>
+    <t>Snarpur</t>
+  </si>
+  <si>
+    <t>Nrayana Bardhaman</t>
+  </si>
+  <si>
+    <t>8695640598</t>
+  </si>
+  <si>
+    <t>wbburdwan.etechno@narayanagroup.com</t>
+  </si>
+  <si>
+    <t>Bardhaman</t>
+  </si>
+  <si>
+    <t>Nrayana Kalyanai Town</t>
+  </si>
+  <si>
+    <t>wbkalyanitown.etechno@narayanagroup.com</t>
+  </si>
+  <si>
+    <t>7036884346</t>
+  </si>
+  <si>
+    <t>Kalyani Town</t>
+  </si>
+  <si>
+    <t>Narayana Andal</t>
+  </si>
+  <si>
+    <t>wbandal.etechno@narayanagroup.com</t>
+  </si>
+  <si>
+    <t> 8695640590</t>
+  </si>
+  <si>
+    <t>Andal</t>
+  </si>
+  <si>
+    <t>Narayana Contai</t>
+  </si>
+  <si>
+    <t>18001023344</t>
+  </si>
+  <si>
+    <t>PURBA MIDNAPORE</t>
+  </si>
+  <si>
+    <t>Narayana Kalyani Express</t>
+  </si>
+  <si>
+    <t>wbkalexp.etechno@narayanagroup.com</t>
+  </si>
+  <si>
+    <t> 8695640608</t>
+  </si>
+  <si>
+    <t>Narayana Krishnanagar</t>
+  </si>
+  <si>
+    <t>7980369679</t>
+  </si>
+  <si>
+    <t>Krishnanagar</t>
+  </si>
+  <si>
+    <t>Narayana Durgapur</t>
+  </si>
+  <si>
+    <t>wbdurgapur.etechno@narayanagroup.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9007792662</t>
+  </si>
+  <si>
+    <t>Durgapur</t>
+  </si>
+  <si>
+    <t>Narayana Asansol</t>
+  </si>
+  <si>
+    <t>wbasansol.etechno@narayanagroup.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1802,6 +2008,18 @@
     <font>
       <sz val="10"/>
       <color rgb="FF404040"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -2067,7 +2285,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2231,6 +2449,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2571,7 +2790,7 @@
       </c>
       <c r="D4" s="16">
         <f>MAX('School-Details'!A:A)</f>
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="F4" s="21" t="s">
         <v>265</v>
@@ -2670,7 +2889,7 @@
       </c>
       <c r="D7" s="53">
         <f ca="1">TODAY()</f>
-        <v>45306</v>
+        <v>45307</v>
       </c>
       <c r="F7" s="14" t="s">
         <v>268</v>
@@ -2744,7 +2963,7 @@
       </c>
       <c r="M9" s="53">
         <f ca="1">TODAY()</f>
-        <v>45306</v>
+        <v>45307</v>
       </c>
       <c r="O9" s="16" t="s">
         <v>244</v>
@@ -3478,13 +3697,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:V126"/>
+  <dimension ref="A1:V144"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="K8" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D137" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V8" sqref="V8"/>
+      <selection pane="bottomRight" activeCell="F144" sqref="F144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3542,7 +3761,7 @@
         <v>5</v>
       </c>
       <c r="L1" s="18" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="M1" s="18" t="s">
         <v>7</v>
@@ -3589,7 +3808,7 @@
         <v>284</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>42</v>
@@ -3635,7 +3854,7 @@
         <v>77</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>43</v>
@@ -3678,10 +3897,10 @@
         <v>25</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>457</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>458</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>44</v>
@@ -3727,10 +3946,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>45</v>
@@ -3773,10 +3992,10 @@
         <v>25</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>462</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>463</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>46</v>
@@ -3813,16 +4032,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>47</v>
@@ -3862,10 +4081,10 @@
         <v>14</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>466</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>467</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>48</v>
@@ -3908,10 +4127,10 @@
         <v>49</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>468</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>469</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>50</v>
@@ -3948,22 +4167,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="17" t="s">
+        <v>469</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="F10" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="G10" s="40" t="s">
         <v>471</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="G10" s="40" t="s">
+      <c r="H10" s="62" t="s">
         <v>472</v>
-      </c>
-      <c r="H10" s="62" t="s">
-        <v>473</v>
       </c>
       <c r="O10" s="10">
         <v>3</v>
@@ -4003,10 +4222,10 @@
         <v>0</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F11" s="7">
         <v>9903606575</v>
@@ -4049,10 +4268,10 @@
         <v>0</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>51</v>
@@ -4095,16 +4314,16 @@
         <v>0</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>479</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>480</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>52</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="O13" s="10">
         <v>4</v>
@@ -4141,10 +4360,10 @@
         <v>55</v>
       </c>
       <c r="D14" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>481</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>482</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>56</v>
@@ -4187,7 +4406,7 @@
         <v>53</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>54</v>
@@ -4233,10 +4452,10 @@
         <v>25</v>
       </c>
       <c r="D16" s="63" t="s">
+        <v>482</v>
+      </c>
+      <c r="E16" s="63" t="s">
         <v>483</v>
-      </c>
-      <c r="E16" s="63" t="s">
-        <v>484</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>57</v>
@@ -4276,10 +4495,10 @@
         <v>21</v>
       </c>
       <c r="D17" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="E17" s="64" t="s">
         <v>485</v>
-      </c>
-      <c r="E17" s="64" t="s">
-        <v>486</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>58</v>
@@ -4322,10 +4541,10 @@
         <v>22</v>
       </c>
       <c r="D18" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>487</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>488</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>59</v>
@@ -4368,7 +4587,7 @@
         <v>23</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>60</v>
@@ -5204,7 +5423,7 @@
         <v>77</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F38" s="8">
         <v>8902488077</v>
@@ -5247,7 +5466,7 @@
         <v>25</v>
       </c>
       <c r="D39" s="65" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F39" s="9">
         <v>9163741069</v>
@@ -5290,7 +5509,7 @@
         <v>0</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F40" s="9">
         <v>3324411691</v>
@@ -5465,7 +5684,7 @@
         <v>77</v>
       </c>
       <c r="D44" s="66" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F44" s="7">
         <v>3324712220</v>
@@ -5508,7 +5727,7 @@
         <v>77</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F45" s="7">
         <v>3324131158</v>
@@ -7115,7 +7334,7 @@
         <v>77</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F82" s="7" t="s">
         <v>168</v>
@@ -7158,7 +7377,7 @@
         <v>0</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F83" s="7" t="s">
         <v>170</v>
@@ -7201,7 +7420,7 @@
         <v>77</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F84" s="7">
         <v>9606279184</v>
@@ -7288,7 +7507,7 @@
         <v>0</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F86" s="7">
         <v>8017672075</v>
@@ -7331,7 +7550,7 @@
         <v>0</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F87" s="7">
         <v>3324492810</v>
@@ -7462,7 +7681,7 @@
         <v>0</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F90" s="7">
         <v>3324961723</v>
@@ -7549,10 +7768,10 @@
         <v>83</v>
       </c>
       <c r="D92" s="67" t="s">
+        <v>500</v>
+      </c>
+      <c r="E92" s="67" t="s">
         <v>501</v>
-      </c>
-      <c r="E92" s="67" t="s">
-        <v>502</v>
       </c>
       <c r="F92" s="7">
         <v>8902765583</v>
@@ -7595,7 +7814,7 @@
         <v>0</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F93" s="7">
         <v>9331866252</v>
@@ -7632,16 +7851,16 @@
         <v>93</v>
       </c>
       <c r="B94" s="17" t="s">
+        <v>504</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="F94" s="7" t="s">
         <v>505</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="F94" s="7" t="s">
-        <v>506</v>
       </c>
       <c r="O94" s="10">
         <v>1</v>
@@ -8881,16 +9100,16 @@
         <v>124</v>
       </c>
       <c r="B125" s="17" t="s">
+        <v>506</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F125" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="C125" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F125" s="7" t="s">
+      <c r="G125" s="40" t="s">
         <v>448</v>
-      </c>
-      <c r="G125" s="40" t="s">
-        <v>449</v>
       </c>
       <c r="O125" s="1">
         <v>1</v>
@@ -8924,16 +9143,16 @@
         <v>125</v>
       </c>
       <c r="B126" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F126" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="C126" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F126" s="7" t="s">
+      <c r="G126" s="40" t="s">
         <v>451</v>
-      </c>
-      <c r="G126" s="40" t="s">
-        <v>452</v>
       </c>
       <c r="O126" s="1">
         <v>4</v>
@@ -8960,6 +9179,411 @@
       </c>
       <c r="V126" s="10" t="s">
         <v>251</v>
+      </c>
+    </row>
+    <row r="127" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A127" s="2">
+        <v>126</v>
+      </c>
+      <c r="B127" s="17" t="s">
+        <v>507</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="F127" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="G127" s="40" t="s">
+        <v>509</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="128" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A128" s="2">
+        <v>127</v>
+      </c>
+      <c r="B128" s="17" t="s">
+        <v>511</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="F128" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="G128" s="40" t="s">
+        <v>514</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A129" s="2">
+        <v>128</v>
+      </c>
+      <c r="B129" s="17" t="s">
+        <v>515</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="F129" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="G129" s="40" t="s">
+        <v>520</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A130" s="2">
+        <v>129</v>
+      </c>
+      <c r="B130" s="17" t="s">
+        <v>518</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="F130" s="62" t="s">
+        <v>519</v>
+      </c>
+      <c r="G130" s="40" t="s">
+        <v>521</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A131" s="2">
+        <v>130</v>
+      </c>
+      <c r="B131" s="17" t="s">
+        <v>523</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="F131" s="75" t="s">
+        <v>524</v>
+      </c>
+      <c r="G131" s="40" t="s">
+        <v>525</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A132" s="2">
+        <v>131</v>
+      </c>
+      <c r="B132" s="17" t="s">
+        <v>526</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="F132" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="G132" s="40" t="s">
+        <v>530</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A133" s="2">
+        <v>132</v>
+      </c>
+      <c r="B133" s="17" t="s">
+        <v>531</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="F133" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="G133" s="40" t="s">
+        <v>534</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A134" s="2">
+        <v>133</v>
+      </c>
+      <c r="B134" s="17" t="s">
+        <v>535</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="F134" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="G134" s="40" t="s">
+        <v>538</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A135" s="2">
+        <v>134</v>
+      </c>
+      <c r="B135" s="17" t="s">
+        <v>540</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="F135" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="G135" s="40" t="s">
+        <v>405</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A136" s="2">
+        <v>135</v>
+      </c>
+      <c r="B136" s="17" t="s">
+        <v>541</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="F136" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="G136" s="40" t="s">
+        <v>544</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A137" s="2">
+        <v>136</v>
+      </c>
+      <c r="B137" s="17" t="s">
+        <v>545</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="F137" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="G137" s="40" t="s">
+        <v>548</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A138" s="2">
+        <v>137</v>
+      </c>
+      <c r="B138" s="17" t="s">
+        <v>549</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="F138" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="G138" s="40" t="s">
+        <v>552</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A139" s="2">
+        <v>138</v>
+      </c>
+      <c r="B139" s="17" t="s">
+        <v>553</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="F139" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="G139" s="40" t="s">
+        <v>556</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A140" s="2">
+        <v>139</v>
+      </c>
+      <c r="B140" s="17" t="s">
+        <v>557</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="F140" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="G140" s="40" t="s">
+        <v>559</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A141" s="2">
+        <v>140</v>
+      </c>
+      <c r="B141" s="17" t="s">
+        <v>560</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="F141" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="G141" s="40" t="s">
+        <v>552</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A142" s="2">
+        <v>141</v>
+      </c>
+      <c r="B142" s="17" t="s">
+        <v>563</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="F142" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="G142" s="40" t="s">
+        <v>565</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A143" s="2">
+        <v>142</v>
+      </c>
+      <c r="B143" s="17" t="s">
+        <v>566</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="F143" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="G143" s="40" t="s">
+        <v>569</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A144" s="2">
+        <v>143</v>
+      </c>
+      <c r="B144" s="17" t="s">
+        <v>570</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>571</v>
       </c>
     </row>
   </sheetData>
@@ -9057,10 +9681,28 @@
     <hyperlink ref="D86" r:id="rId82" xr:uid="{B4F97ACF-EA33-47B5-90D6-7BC872FE370E}"/>
     <hyperlink ref="D87" r:id="rId83" xr:uid="{86E652CD-E20A-4FFB-AE0F-8142DCB6C066}"/>
     <hyperlink ref="D90" r:id="rId84" xr:uid="{A0ED5720-7123-4A54-A72C-0783F12FFE50}"/>
+    <hyperlink ref="D127" r:id="rId85" xr:uid="{1587E10B-BC06-4F44-AD24-8834CA5B9BF4}"/>
+    <hyperlink ref="D128" r:id="rId86" xr:uid="{924312C2-1D9F-404A-946D-B6C4FBFFD0E6}"/>
+    <hyperlink ref="D129" r:id="rId87" xr:uid="{B2B28782-731C-4886-A853-A103F61EDEEC}"/>
+    <hyperlink ref="D130" r:id="rId88" xr:uid="{B8394CBD-C8F4-4241-8079-F46EADC53967}"/>
+    <hyperlink ref="D131" r:id="rId89" xr:uid="{E6F7BF4C-0D0C-4D1C-B044-B08D32575AA1}"/>
+    <hyperlink ref="D132" r:id="rId90" xr:uid="{78C792D2-9681-4522-8983-0F5F88DFC0E4}"/>
+    <hyperlink ref="D133" r:id="rId91" xr:uid="{C07762B4-7A15-4635-8015-13B25C9D299C}"/>
+    <hyperlink ref="D134" r:id="rId92" xr:uid="{863E6639-B5B9-4647-A1E6-94110C9F79F1}"/>
+    <hyperlink ref="D135" r:id="rId93" xr:uid="{B8D0FA9F-7520-448C-8228-AF1D2D672E30}"/>
+    <hyperlink ref="D136" r:id="rId94" xr:uid="{15BF0115-5140-4A74-94CA-FF6DFB167105}"/>
+    <hyperlink ref="D137" r:id="rId95" xr:uid="{817406E7-6477-41C4-81E9-D35BAC04EDD4}"/>
+    <hyperlink ref="D138" r:id="rId96" xr:uid="{1DAEAB1E-1D62-42DE-B492-E275F0F17298}"/>
+    <hyperlink ref="D139" r:id="rId97" xr:uid="{F5746097-F3D9-48A4-B7AE-FAC6113173A5}"/>
+    <hyperlink ref="D140" r:id="rId98" xr:uid="{78C126E2-8284-4C9D-967F-2768338BD66C}"/>
+    <hyperlink ref="D141" r:id="rId99" xr:uid="{8BF0F312-41ED-493A-A585-FC4295FF2385}"/>
+    <hyperlink ref="D142" r:id="rId100" xr:uid="{DECDBD92-C6E4-4C12-BB2C-14A047691575}"/>
+    <hyperlink ref="D143" r:id="rId101" xr:uid="{2760D183-462B-44C9-8920-0777B9D56653}"/>
+    <hyperlink ref="D144" r:id="rId102" xr:uid="{09D49BE0-9DE7-4F5B-865F-CD45FBAE28C9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId85"/>
-  <legacyDrawing r:id="rId86"/>
+  <pageSetup orientation="portrait" r:id="rId103"/>
+  <legacyDrawing r:id="rId104"/>
 </worksheet>
 </file>
 
@@ -9068,7 +9710,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:V179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
@@ -9109,7 +9751,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G1" s="18" t="s">
         <v>295</v>
@@ -9127,7 +9769,7 @@
         <v>296</v>
       </c>
       <c r="L1" s="18" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="M1" s="18" t="s">
         <v>7</v>

--- a/Offline/BusinessManagement/Marketing/AI marketing/AI Workshop Schools-Colleges.xlsx
+++ b/Offline/BusinessManagement/Marketing/AI marketing/AI Workshop Schools-Colleges.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Marketing\AI marketing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92FDC802-9D60-4F54-AB36-F9E0B7913E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADDD071A-49FF-49FC-80E8-7C515B386D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="506" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="506" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="8" r:id="rId1"/>
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="573">
   <si>
     <t>CBSE</t>
   </si>
@@ -1864,6 +1864,9 @@
   </si>
   <si>
     <t>wbasansol.etechno@narayanagroup.com</t>
+  </si>
+  <si>
+    <t>Workshop Fixed</t>
   </si>
 </sst>
 </file>
@@ -2050,7 +2053,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -2163,36 +2166,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -2405,8 +2378,6 @@
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2428,7 +2399,14 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2443,13 +2421,8 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2733,8 +2706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:R33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:Q2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2758,27 +2731,33 @@
     <row r="2" spans="2:18" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.7">
       <c r="B2" s="27"/>
       <c r="C2" s="28"/>
-      <c r="D2" s="69" t="s">
+      <c r="D2" s="68" t="s">
         <v>293</v>
       </c>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="71"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="70"/>
       <c r="I2" s="29"/>
       <c r="K2" s="27"/>
       <c r="L2" s="28"/>
-      <c r="M2" s="72" t="s">
+      <c r="M2" s="71" t="s">
         <v>374</v>
       </c>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="74"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="73"/>
       <c r="R2" s="29"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B3" s="30"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
       <c r="I3" s="31"/>
       <c r="K3" s="30"/>
       <c r="R3" s="31"/>
@@ -2792,12 +2771,14 @@
         <f>MAX('School-Details'!A:A)</f>
         <v>143</v>
       </c>
+      <c r="E4" s="74"/>
       <c r="F4" s="21" t="s">
         <v>265</v>
       </c>
       <c r="G4" s="21" t="s">
         <v>266</v>
       </c>
+      <c r="H4" s="74"/>
       <c r="I4" s="31"/>
       <c r="K4" s="30"/>
       <c r="L4" s="16" t="s">
@@ -2824,6 +2805,7 @@
         <f>ROUND(SUM('School-Details'!K:K)/D4,2)</f>
         <v>0.01</v>
       </c>
+      <c r="E5" s="74"/>
       <c r="F5" s="14" t="s">
         <v>210</v>
       </c>
@@ -2831,6 +2813,7 @@
         <f>COUNTIF('School-Details'!N:N,F5)</f>
         <v>0</v>
       </c>
+      <c r="H5" s="74"/>
       <c r="I5" s="31"/>
       <c r="K5" s="30"/>
       <c r="L5" s="16" t="s">
@@ -2857,6 +2840,7 @@
       <c r="D6" s="53">
         <v>45299</v>
       </c>
+      <c r="E6" s="74"/>
       <c r="F6" s="14" t="s">
         <v>267</v>
       </c>
@@ -2864,6 +2848,7 @@
         <f>COUNTIF('School-Details'!N:N,F6)</f>
         <v>1</v>
       </c>
+      <c r="H6" s="74"/>
       <c r="I6" s="31"/>
       <c r="K6" s="30"/>
       <c r="L6" s="16" t="s">
@@ -2891,6 +2876,7 @@
         <f ca="1">TODAY()</f>
         <v>45307</v>
       </c>
+      <c r="E7" s="74"/>
       <c r="F7" s="14" t="s">
         <v>268</v>
       </c>
@@ -2898,6 +2884,7 @@
         <f>COUNTIF('School-Details'!N:N,F7)</f>
         <v>0</v>
       </c>
+      <c r="H7" s="74"/>
       <c r="I7" s="31"/>
       <c r="K7" s="30"/>
       <c r="L7" s="16" t="s">
@@ -2925,6 +2912,7 @@
         <f ca="1">ROUND(D11/(D7-D6+1),0)</f>
         <v>4</v>
       </c>
+      <c r="E8" s="74"/>
       <c r="F8" s="14" t="s">
         <v>283</v>
       </c>
@@ -2932,6 +2920,7 @@
         <f>COUNTIF('School-Details'!N:N,F8)</f>
         <v>0</v>
       </c>
+      <c r="H8" s="74"/>
       <c r="I8" s="31"/>
       <c r="K8" s="30"/>
       <c r="L8" s="16" t="s">
@@ -2949,6 +2938,9 @@
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B9" s="30"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
       <c r="F9" s="16" t="s">
         <v>244</v>
       </c>
@@ -2956,6 +2948,7 @@
         <f>SUM(G5:G8)</f>
         <v>1</v>
       </c>
+      <c r="H9" s="74"/>
       <c r="I9" s="31"/>
       <c r="K9" s="30"/>
       <c r="L9" s="16" t="s">
@@ -2982,6 +2975,10 @@
       <c r="D10" s="21" t="s">
         <v>264</v>
       </c>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
       <c r="I10" s="31"/>
       <c r="K10" s="30"/>
       <c r="L10" s="16" t="s">
@@ -3002,18 +2999,19 @@
         <f>COUNTIF('School-Details'!V:V,C11)</f>
         <v>34</v>
       </c>
+      <c r="E11" s="74"/>
       <c r="F11" s="14"/>
-      <c r="G11" s="68" t="s">
+      <c r="G11" s="67" t="s">
         <v>210</v>
       </c>
-      <c r="H11" s="68"/>
+      <c r="H11" s="67"/>
       <c r="I11" s="31"/>
       <c r="K11" s="30"/>
       <c r="O11" s="14"/>
-      <c r="P11" s="68" t="s">
+      <c r="P11" s="67" t="s">
         <v>210</v>
       </c>
-      <c r="Q11" s="68"/>
+      <c r="Q11" s="67"/>
       <c r="R11" s="31"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.3">
@@ -3025,6 +3023,7 @@
         <f>COUNTIF('School-Details'!V:V,C12)</f>
         <v>0</v>
       </c>
+      <c r="E12" s="74"/>
       <c r="F12" s="21" t="s">
         <v>269</v>
       </c>
@@ -3062,6 +3061,7 @@
         <f>COUNTIF('School-Details'!V:V,C13)</f>
         <v>0</v>
       </c>
+      <c r="E13" s="74"/>
       <c r="F13" s="22">
         <v>45292</v>
       </c>
@@ -3094,12 +3094,13 @@
     <row r="14" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B14" s="30"/>
       <c r="C14" s="14" t="s">
-        <v>257</v>
+        <v>572</v>
       </c>
       <c r="D14" s="14">
         <f>COUNTIF('School-Details'!V:V,C14)</f>
         <v>0</v>
       </c>
+      <c r="E14" s="74"/>
       <c r="F14" s="22">
         <v>45323</v>
       </c>
@@ -3132,12 +3133,13 @@
     <row r="15" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B15" s="30"/>
       <c r="C15" s="14" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D15" s="14">
         <f>COUNTIF('School-Details'!V:V,C15)</f>
         <v>0</v>
       </c>
+      <c r="E15" s="74"/>
       <c r="F15" s="22">
         <v>45352</v>
       </c>
@@ -3170,12 +3172,13 @@
     <row r="16" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B16" s="30"/>
       <c r="C16" s="14" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D16" s="14">
         <f>COUNTIF('School-Details'!V:V,C16)</f>
-        <v>0</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="E16" s="74"/>
       <c r="F16" s="22">
         <v>45383</v>
       </c>
@@ -3188,7 +3191,7 @@
       <c r="I16" s="31"/>
       <c r="K16" s="30"/>
       <c r="L16" s="14" t="s">
-        <v>257</v>
+        <v>572</v>
       </c>
       <c r="M16" s="14">
         <f>COUNTIF('College-Details'!V:V,L16)</f>
@@ -3208,12 +3211,13 @@
     <row r="17" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B17" s="30"/>
       <c r="C17" s="14" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="D17" s="14">
         <f>COUNTIF('School-Details'!V:V,C17)</f>
-        <v>91</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E17" s="74"/>
       <c r="F17" s="22">
         <v>45413</v>
       </c>
@@ -3226,7 +3230,7 @@
       <c r="I17" s="31"/>
       <c r="K17" s="30"/>
       <c r="L17" s="14" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M17" s="14">
         <f>COUNTIF('College-Details'!V:V,L17)</f>
@@ -3245,13 +3249,14 @@
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B18" s="30"/>
-      <c r="C18" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="D18" s="14">
-        <f>COUNTIF('School-Details'!V:V,C18)</f>
-        <v>0</v>
-      </c>
+      <c r="C18" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="D18" s="16">
+        <f>SUM(D11:D17)</f>
+        <v>125</v>
+      </c>
+      <c r="E18" s="74"/>
       <c r="F18" s="22">
         <v>45444</v>
       </c>
@@ -3264,11 +3269,11 @@
       <c r="I18" s="31"/>
       <c r="K18" s="30"/>
       <c r="L18" s="14" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M18" s="14">
         <f>COUNTIF('College-Details'!V:V,L18)</f>
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="O18" s="22">
         <v>45444</v>
@@ -3283,13 +3288,9 @@
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B19" s="30"/>
-      <c r="C19" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="D19" s="16">
-        <f>SUM(D11:D18)</f>
-        <v>125</v>
-      </c>
+      <c r="C19" s="74"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
       <c r="F19" s="22">
         <v>45474</v>
       </c>
@@ -3302,11 +3303,11 @@
       <c r="I19" s="31"/>
       <c r="K19" s="30"/>
       <c r="L19" s="14" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="M19" s="14">
         <f>COUNTIF('College-Details'!V:V,L19)</f>
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="O19" s="22">
         <v>45474</v>
@@ -3320,7 +3321,14 @@
       <c r="R19" s="31"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B20" s="30"/>
+      <c r="B20" s="75"/>
+      <c r="C20" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="E20" s="74"/>
       <c r="F20" s="22">
         <v>45505</v>
       </c>
@@ -3332,12 +3340,12 @@
       </c>
       <c r="I20" s="31"/>
       <c r="K20" s="30"/>
-      <c r="L20" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="M20" s="14">
-        <f>COUNTIF('College-Details'!V:V,L20)</f>
-        <v>0</v>
+      <c r="L20" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="M20" s="16">
+        <f>SUM(M13:M19)</f>
+        <v>53</v>
       </c>
       <c r="O20" s="22">
         <v>45505</v>
@@ -3351,13 +3359,17 @@
       <c r="R20" s="31"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B21" s="32"/>
-      <c r="C21" s="21" t="s">
-        <v>274</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>264</v>
-      </c>
+      <c r="B21" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="C21" s="14">
+        <v>5</v>
+      </c>
+      <c r="D21" s="14">
+        <f>COUNTIF('School-Details'!U:U,C21)</f>
+        <v>10</v>
+      </c>
+      <c r="E21" s="74"/>
       <c r="F21" s="22">
         <v>45536</v>
       </c>
@@ -3369,13 +3381,6 @@
       </c>
       <c r="I21" s="31"/>
       <c r="K21" s="30"/>
-      <c r="L21" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="M21" s="16">
-        <f>SUM(M13:M20)</f>
-        <v>53</v>
-      </c>
       <c r="O21" s="22">
         <v>45536</v>
       </c>
@@ -3388,16 +3393,15 @@
       <c r="R21" s="31"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B22" s="33" t="s">
-        <v>272</v>
-      </c>
+      <c r="B22" s="14"/>
       <c r="C22" s="14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" s="14">
         <f>COUNTIF('School-Details'!U:U,C22)</f>
-        <v>10</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="E22" s="74"/>
       <c r="F22" s="22">
         <v>45566</v>
       </c>
@@ -3421,14 +3425,15 @@
       <c r="R22" s="31"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B23" s="33"/>
-      <c r="C23" s="14">
-        <v>4</v>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14" t="s">
+        <v>275</v>
       </c>
       <c r="D23" s="14">
-        <f>COUNTIF('School-Details'!U:U,C23)</f>
-        <v>55</v>
-      </c>
+        <f>SUM(D21:D22)</f>
+        <v>65</v>
+      </c>
+      <c r="E23" s="74"/>
       <c r="F23" s="22">
         <v>45597</v>
       </c>
@@ -3458,14 +3463,17 @@
       <c r="R23" s="31"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B24" s="33"/>
-      <c r="C24" s="14" t="s">
-        <v>275</v>
+      <c r="B24" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="C24" s="14">
+        <v>3</v>
       </c>
       <c r="D24" s="14">
-        <f>SUM(D22:D23)</f>
-        <v>65</v>
-      </c>
+        <f>COUNTIF('School-Details'!U:U,C24)</f>
+        <v>50</v>
+      </c>
+      <c r="E24" s="74"/>
       <c r="F24" s="22">
         <v>45627</v>
       </c>
@@ -3498,16 +3506,15 @@
       <c r="R24" s="31"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B25" s="33" t="s">
-        <v>278</v>
-      </c>
-      <c r="C25" s="14">
-        <v>3</v>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14" t="s">
+        <v>277</v>
       </c>
       <c r="D25" s="14">
-        <f>COUNTIF('School-Details'!U:U,C25)</f>
+        <f>SUM(D24)</f>
         <v>50</v>
       </c>
+      <c r="E25" s="74"/>
       <c r="F25" s="16" t="s">
         <v>244</v>
       </c>
@@ -3542,14 +3549,20 @@
       <c r="R25" s="31"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B26" s="33"/>
-      <c r="C26" s="14" t="s">
-        <v>277</v>
+      <c r="B26" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="C26" s="14">
+        <v>2</v>
       </c>
       <c r="D26" s="14">
-        <f>SUM(D25)</f>
-        <v>50</v>
-      </c>
+        <f>COUNTIF('School-Details'!U:U,C26)</f>
+        <v>10</v>
+      </c>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
       <c r="I26" s="31"/>
       <c r="K26" s="33"/>
       <c r="L26" s="14" t="s">
@@ -3562,16 +3575,18 @@
       <c r="R26" s="31"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B27" s="33" t="s">
-        <v>273</v>
-      </c>
+      <c r="B27" s="14"/>
       <c r="C27" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27" s="14">
         <f>COUNTIF('School-Details'!U:U,C27)</f>
-        <v>10</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E27" s="74"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="74"/>
       <c r="I27" s="31"/>
       <c r="K27" s="33" t="s">
         <v>278</v>
@@ -3586,14 +3601,18 @@
       <c r="R27" s="31"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B28" s="33"/>
-      <c r="C28" s="14">
-        <v>1</v>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14" t="s">
+        <v>276</v>
       </c>
       <c r="D28" s="14">
-        <f>COUNTIF('School-Details'!U:U,C28)</f>
-        <v>0</v>
-      </c>
+        <f>SUM(D26:D27)</f>
+        <v>10</v>
+      </c>
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="74"/>
       <c r="I28" s="31"/>
       <c r="K28" s="33"/>
       <c r="L28" s="14" t="s">
@@ -3606,14 +3625,18 @@
       <c r="R28" s="31"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B29" s="33"/>
-      <c r="C29" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="D29" s="14">
-        <f>SUM(D27:D28)</f>
-        <v>10</v>
-      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="D29" s="16">
+        <f>D23+D25+D28</f>
+        <v>125</v>
+      </c>
+      <c r="E29" s="74"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="74"/>
+      <c r="H29" s="74"/>
       <c r="I29" s="31"/>
       <c r="K29" s="33" t="s">
         <v>273</v>
@@ -3628,14 +3651,9 @@
       <c r="R29" s="31"/>
     </row>
     <row r="30" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="55"/>
-      <c r="C30" s="56" t="s">
-        <v>244</v>
-      </c>
-      <c r="D30" s="56">
-        <f>D24+D26+D29</f>
-        <v>125</v>
-      </c>
+      <c r="B30" s="34"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
       <c r="E30" s="35"/>
       <c r="F30" s="35"/>
       <c r="G30" s="35"/>
@@ -3699,11 +3717,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D137" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="N120" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F144" sqref="F144"/>
+      <selection pane="bottomRight" activeCell="V120" sqref="V120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4181,7 +4199,7 @@
       <c r="G10" s="40" t="s">
         <v>471</v>
       </c>
-      <c r="H10" s="62" t="s">
+      <c r="H10" s="60" t="s">
         <v>472</v>
       </c>
       <c r="O10" s="10">
@@ -4451,10 +4469,10 @@
       <c r="C16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="63" t="s">
+      <c r="D16" s="61" t="s">
         <v>482</v>
       </c>
-      <c r="E16" s="63" t="s">
+      <c r="E16" s="61" t="s">
         <v>483</v>
       </c>
       <c r="F16" s="7" t="s">
@@ -4497,7 +4515,7 @@
       <c r="D17" s="6" t="s">
         <v>484</v>
       </c>
-      <c r="E17" s="64" t="s">
+      <c r="E17" s="62" t="s">
         <v>485</v>
       </c>
       <c r="F17" s="7" t="s">
@@ -5465,7 +5483,7 @@
       <c r="C39" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D39" s="65" t="s">
+      <c r="D39" s="63" t="s">
         <v>491</v>
       </c>
       <c r="F39" s="9">
@@ -5683,7 +5701,7 @@
       <c r="C44" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D44" s="66" t="s">
+      <c r="D44" s="64" t="s">
         <v>492</v>
       </c>
       <c r="F44" s="7">
@@ -7767,10 +7785,10 @@
       <c r="C92" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D92" s="67" t="s">
+      <c r="D92" s="65" t="s">
         <v>500</v>
       </c>
-      <c r="E92" s="67" t="s">
+      <c r="E92" s="65" t="s">
         <v>501</v>
       </c>
       <c r="F92" s="7">
@@ -9263,7 +9281,7 @@
       <c r="D130" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="F130" s="62" t="s">
+      <c r="F130" s="60" t="s">
         <v>519</v>
       </c>
       <c r="G130" s="40" t="s">
@@ -9286,7 +9304,7 @@
       <c r="D131" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="F131" s="75" t="s">
+      <c r="F131" s="66" t="s">
         <v>524</v>
       </c>
       <c r="G131" s="40" t="s">
@@ -13308,12 +13326,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" style="60" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.77734375" style="58" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="65" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="59" t="s">
         <v>248</v>
       </c>
       <c r="B1" s="21" t="s">
@@ -13407,36 +13425,36 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="58" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="56" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="38">
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="55" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="58" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" s="56" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="38">
         <v>2</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="55" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="58" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" s="56" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="38">
         <v>3</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="57" t="s">
         <v>46</v>
       </c>
     </row>

--- a/Offline/BusinessManagement/Marketing/AI marketing/AI Workshop Schools-Colleges.xlsx
+++ b/Offline/BusinessManagement/Marketing/AI marketing/AI Workshop Schools-Colleges.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Marketing\AI marketing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADDD071A-49FF-49FC-80E8-7C515B386D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86AABF82-F0ED-41FE-B264-A98AECDA8C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="506" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="506" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="8" r:id="rId1"/>
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="613">
   <si>
     <t>CBSE</t>
   </si>
@@ -1868,12 +1868,132 @@
   <si>
     <t>Workshop Fixed</t>
   </si>
+  <si>
+    <t>8695640592</t>
+  </si>
+  <si>
+    <t>Asansol</t>
+  </si>
+  <si>
+    <t>wbsiliguri.etechno@narayanagroup.com</t>
+  </si>
+  <si>
+    <t>8695640602</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Narayana Siliguri</t>
+  </si>
+  <si>
+    <t>Siliguri</t>
+  </si>
+  <si>
+    <t>Narayana Uttar Dinajpur</t>
+  </si>
+  <si>
+    <t>info@narayanagroup.coinfo@narayanagroup.com</t>
+  </si>
+  <si>
+    <t> 8697054585</t>
+  </si>
+  <si>
+    <t>Uttar Dinajpur</t>
+  </si>
+  <si>
+    <t> 6292322801</t>
+  </si>
+  <si>
+    <t>Narayana Raghunathpur</t>
+  </si>
+  <si>
+    <t>Purulia</t>
+  </si>
+  <si>
+    <t>St. Paul's Mission School</t>
+  </si>
+  <si>
+    <t> spmsscottlane@yahoo.co.in</t>
+  </si>
+  <si>
+    <t>Scot Lane Kolkata</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Office</t>
+  </si>
+  <si>
+    <t>Loreto Day School Bowbazar</t>
+  </si>
+  <si>
+    <t>03322120134</t>
+  </si>
+  <si>
+    <t>Bowbazar</t>
+  </si>
+  <si>
+    <t>Office</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contactloretobowbazar@gmail.com </t>
+  </si>
+  <si>
+    <t>lingliangschool@yahoo.co.in</t>
+  </si>
+  <si>
+    <t>Ling Liang School</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Hide Lne</t>
+  </si>
+  <si>
+    <t>Calcutta Girl's School</t>
+  </si>
+  <si>
+    <t>https://www.cghs1856.org/</t>
+  </si>
+  <si>
+    <t> 91 33 2215 1540</t>
+  </si>
+  <si>
+    <t>Princep Street</t>
+  </si>
+  <si>
+    <t>https://www.rnsmhs.org/</t>
+  </si>
+  <si>
+    <t>Shri Ram Narayan Sihgh Memorial Rajdanga</t>
+  </si>
+  <si>
+    <t>2442-6438/39</t>
+  </si>
+  <si>
+    <t>Kasba</t>
+  </si>
+  <si>
+    <t>Shri Ram Narayan Sihgh Memorial Narayan Roy Sarani</t>
+  </si>
+  <si>
+    <t>2241-1034</t>
+  </si>
+  <si>
+    <t>Narayan Roy Sarani</t>
+  </si>
+  <si>
+    <t>Loreto Day School Dharmatala</t>
+  </si>
+  <si>
+    <t>contact@loretodharamtala.in</t>
+  </si>
+  <si>
+    <t>Dharmatala</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2023,6 +2143,30 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF222222"/>
+      <name val="Montserratlight"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF363636"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -2258,7 +2402,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2400,6 +2544,7 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2421,8 +2566,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2706,11 +2853,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="3.33203125" customWidth="1"/>
     <col min="3" max="3" width="21.5546875" bestFit="1" customWidth="1"/>
@@ -2727,58 +2874,50 @@
     <col min="17" max="17" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:18" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="2:18" ht="15" thickBot="1"/>
+    <row r="2" spans="2:18" ht="34.200000000000003" thickBot="1">
       <c r="B2" s="27"/>
       <c r="C2" s="28"/>
-      <c r="D2" s="68" t="s">
+      <c r="D2" s="69" t="s">
         <v>293</v>
       </c>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="71"/>
       <c r="I2" s="29"/>
       <c r="K2" s="27"/>
       <c r="L2" s="28"/>
-      <c r="M2" s="71" t="s">
+      <c r="M2" s="72" t="s">
         <v>374</v>
       </c>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="74"/>
       <c r="R2" s="29"/>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:18">
       <c r="B3" s="30"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
       <c r="I3" s="31"/>
       <c r="K3" s="30"/>
       <c r="R3" s="31"/>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:18">
       <c r="B4" s="30"/>
       <c r="C4" s="16" t="s">
         <v>245</v>
       </c>
       <c r="D4" s="16">
         <f>MAX('School-Details'!A:A)</f>
-        <v>143</v>
-      </c>
-      <c r="E4" s="74"/>
+        <v>153</v>
+      </c>
       <c r="F4" s="21" t="s">
         <v>265</v>
       </c>
       <c r="G4" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="H4" s="74"/>
       <c r="I4" s="31"/>
       <c r="K4" s="30"/>
       <c r="L4" s="16" t="s">
@@ -2796,7 +2935,7 @@
       </c>
       <c r="R4" s="31"/>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:18">
       <c r="B5" s="30"/>
       <c r="C5" s="16" t="s">
         <v>246</v>
@@ -2805,7 +2944,6 @@
         <f>ROUND(SUM('School-Details'!K:K)/D4,2)</f>
         <v>0.01</v>
       </c>
-      <c r="E5" s="74"/>
       <c r="F5" s="14" t="s">
         <v>210</v>
       </c>
@@ -2813,7 +2951,6 @@
         <f>COUNTIF('School-Details'!N:N,F5)</f>
         <v>0</v>
       </c>
-      <c r="H5" s="74"/>
       <c r="I5" s="31"/>
       <c r="K5" s="30"/>
       <c r="L5" s="16" t="s">
@@ -2832,7 +2969,7 @@
       </c>
       <c r="R5" s="31"/>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:18">
       <c r="B6" s="30"/>
       <c r="C6" s="16" t="s">
         <v>437</v>
@@ -2840,7 +2977,6 @@
       <c r="D6" s="53">
         <v>45299</v>
       </c>
-      <c r="E6" s="74"/>
       <c r="F6" s="14" t="s">
         <v>267</v>
       </c>
@@ -2848,7 +2984,6 @@
         <f>COUNTIF('School-Details'!N:N,F6)</f>
         <v>1</v>
       </c>
-      <c r="H6" s="74"/>
       <c r="I6" s="31"/>
       <c r="K6" s="30"/>
       <c r="L6" s="16" t="s">
@@ -2867,7 +3002,7 @@
       </c>
       <c r="R6" s="31"/>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:18">
       <c r="B7" s="30"/>
       <c r="C7" s="16" t="s">
         <v>439</v>
@@ -2876,7 +3011,6 @@
         <f ca="1">TODAY()</f>
         <v>45307</v>
       </c>
-      <c r="E7" s="74"/>
       <c r="F7" s="14" t="s">
         <v>268</v>
       </c>
@@ -2884,7 +3018,6 @@
         <f>COUNTIF('School-Details'!N:N,F7)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="74"/>
       <c r="I7" s="31"/>
       <c r="K7" s="30"/>
       <c r="L7" s="16" t="s">
@@ -2903,7 +3036,7 @@
       </c>
       <c r="R7" s="31"/>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:18">
       <c r="B8" s="30"/>
       <c r="C8" s="16" t="s">
         <v>438</v>
@@ -2912,7 +3045,6 @@
         <f ca="1">ROUND(D11/(D7-D6+1),0)</f>
         <v>4</v>
       </c>
-      <c r="E8" s="74"/>
       <c r="F8" s="14" t="s">
         <v>283</v>
       </c>
@@ -2920,7 +3052,6 @@
         <f>COUNTIF('School-Details'!N:N,F8)</f>
         <v>0</v>
       </c>
-      <c r="H8" s="74"/>
       <c r="I8" s="31"/>
       <c r="K8" s="30"/>
       <c r="L8" s="16" t="s">
@@ -2936,11 +3067,8 @@
       </c>
       <c r="R8" s="31"/>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:18">
       <c r="B9" s="30"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
       <c r="F9" s="16" t="s">
         <v>244</v>
       </c>
@@ -2948,7 +3076,6 @@
         <f>SUM(G5:G8)</f>
         <v>1</v>
       </c>
-      <c r="H9" s="74"/>
       <c r="I9" s="31"/>
       <c r="K9" s="30"/>
       <c r="L9" s="16" t="s">
@@ -2967,7 +3094,7 @@
       </c>
       <c r="R9" s="31"/>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:18">
       <c r="B10" s="30"/>
       <c r="C10" s="21" t="s">
         <v>247</v>
@@ -2975,10 +3102,6 @@
       <c r="D10" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
       <c r="I10" s="31"/>
       <c r="K10" s="30"/>
       <c r="L10" s="16" t="s">
@@ -2990,7 +3113,7 @@
       </c>
       <c r="R10" s="31"/>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:18">
       <c r="B11" s="30"/>
       <c r="C11" s="14" t="s">
         <v>251</v>
@@ -2999,22 +3122,21 @@
         <f>COUNTIF('School-Details'!V:V,C11)</f>
         <v>34</v>
       </c>
-      <c r="E11" s="74"/>
       <c r="F11" s="14"/>
-      <c r="G11" s="67" t="s">
+      <c r="G11" s="68" t="s">
         <v>210</v>
       </c>
-      <c r="H11" s="67"/>
+      <c r="H11" s="68"/>
       <c r="I11" s="31"/>
       <c r="K11" s="30"/>
       <c r="O11" s="14"/>
-      <c r="P11" s="67" t="s">
+      <c r="P11" s="68" t="s">
         <v>210</v>
       </c>
-      <c r="Q11" s="67"/>
+      <c r="Q11" s="68"/>
       <c r="R11" s="31"/>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:18">
       <c r="B12" s="30"/>
       <c r="C12" s="14" t="s">
         <v>253</v>
@@ -3023,7 +3145,6 @@
         <f>COUNTIF('School-Details'!V:V,C12)</f>
         <v>0</v>
       </c>
-      <c r="E12" s="74"/>
       <c r="F12" s="21" t="s">
         <v>269</v>
       </c>
@@ -3052,7 +3173,7 @@
       </c>
       <c r="R12" s="31"/>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:18">
       <c r="B13" s="30"/>
       <c r="C13" s="14" t="s">
         <v>255</v>
@@ -3061,7 +3182,6 @@
         <f>COUNTIF('School-Details'!V:V,C13)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="74"/>
       <c r="F13" s="22">
         <v>45292</v>
       </c>
@@ -3091,7 +3211,7 @@
       </c>
       <c r="R13" s="31"/>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:18">
       <c r="B14" s="30"/>
       <c r="C14" s="14" t="s">
         <v>572</v>
@@ -3100,7 +3220,6 @@
         <f>COUNTIF('School-Details'!V:V,C14)</f>
         <v>0</v>
       </c>
-      <c r="E14" s="74"/>
       <c r="F14" s="22">
         <v>45323</v>
       </c>
@@ -3130,7 +3249,7 @@
       </c>
       <c r="R14" s="31"/>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:18">
       <c r="B15" s="30"/>
       <c r="C15" s="14" t="s">
         <v>261</v>
@@ -3139,7 +3258,6 @@
         <f>COUNTIF('School-Details'!V:V,C15)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="74"/>
       <c r="F15" s="22">
         <v>45352</v>
       </c>
@@ -3169,7 +3287,7 @@
       </c>
       <c r="R15" s="31"/>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:18">
       <c r="B16" s="30"/>
       <c r="C16" s="14" t="s">
         <v>263</v>
@@ -3178,7 +3296,6 @@
         <f>COUNTIF('School-Details'!V:V,C16)</f>
         <v>91</v>
       </c>
-      <c r="E16" s="74"/>
       <c r="F16" s="22">
         <v>45383</v>
       </c>
@@ -3208,7 +3325,7 @@
       </c>
       <c r="R16" s="31"/>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:18">
       <c r="B17" s="30"/>
       <c r="C17" s="14" t="s">
         <v>279</v>
@@ -3217,7 +3334,6 @@
         <f>COUNTIF('School-Details'!V:V,C17)</f>
         <v>0</v>
       </c>
-      <c r="E17" s="74"/>
       <c r="F17" s="22">
         <v>45413</v>
       </c>
@@ -3247,7 +3363,7 @@
       </c>
       <c r="R17" s="31"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:18">
       <c r="B18" s="30"/>
       <c r="C18" s="16" t="s">
         <v>244</v>
@@ -3256,7 +3372,6 @@
         <f>SUM(D11:D17)</f>
         <v>125</v>
       </c>
-      <c r="E18" s="74"/>
       <c r="F18" s="22">
         <v>45444</v>
       </c>
@@ -3286,11 +3401,8 @@
       </c>
       <c r="R18" s="31"/>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:18">
       <c r="B19" s="30"/>
-      <c r="C19" s="74"/>
-      <c r="D19" s="74"/>
-      <c r="E19" s="74"/>
       <c r="F19" s="22">
         <v>45474</v>
       </c>
@@ -3320,15 +3432,14 @@
       </c>
       <c r="R19" s="31"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B20" s="75"/>
+    <row r="20" spans="2:18">
+      <c r="B20" s="67"/>
       <c r="C20" s="21" t="s">
         <v>274</v>
       </c>
       <c r="D20" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="E20" s="74"/>
       <c r="F20" s="22">
         <v>45505</v>
       </c>
@@ -3358,7 +3469,7 @@
       </c>
       <c r="R20" s="31"/>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:18">
       <c r="B21" s="14" t="s">
         <v>272</v>
       </c>
@@ -3369,7 +3480,6 @@
         <f>COUNTIF('School-Details'!U:U,C21)</f>
         <v>10</v>
       </c>
-      <c r="E21" s="74"/>
       <c r="F21" s="22">
         <v>45536</v>
       </c>
@@ -3392,7 +3502,7 @@
       </c>
       <c r="R21" s="31"/>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:18">
       <c r="B22" s="14"/>
       <c r="C22" s="14">
         <v>4</v>
@@ -3401,7 +3511,6 @@
         <f>COUNTIF('School-Details'!U:U,C22)</f>
         <v>55</v>
       </c>
-      <c r="E22" s="74"/>
       <c r="F22" s="22">
         <v>45566</v>
       </c>
@@ -3424,7 +3533,7 @@
       </c>
       <c r="R22" s="31"/>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:18">
       <c r="B23" s="14"/>
       <c r="C23" s="14" t="s">
         <v>275</v>
@@ -3433,7 +3542,6 @@
         <f>SUM(D21:D22)</f>
         <v>65</v>
       </c>
-      <c r="E23" s="74"/>
       <c r="F23" s="22">
         <v>45597</v>
       </c>
@@ -3462,7 +3570,7 @@
       </c>
       <c r="R23" s="31"/>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:18">
       <c r="B24" s="14" t="s">
         <v>278</v>
       </c>
@@ -3473,7 +3581,6 @@
         <f>COUNTIF('School-Details'!U:U,C24)</f>
         <v>50</v>
       </c>
-      <c r="E24" s="74"/>
       <c r="F24" s="22">
         <v>45627</v>
       </c>
@@ -3505,7 +3612,7 @@
       </c>
       <c r="R24" s="31"/>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:18">
       <c r="B25" s="14"/>
       <c r="C25" s="14" t="s">
         <v>277</v>
@@ -3514,7 +3621,6 @@
         <f>SUM(D24)</f>
         <v>50</v>
       </c>
-      <c r="E25" s="74"/>
       <c r="F25" s="16" t="s">
         <v>244</v>
       </c>
@@ -3548,7 +3654,7 @@
       </c>
       <c r="R25" s="31"/>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:18">
       <c r="B26" s="14" t="s">
         <v>273</v>
       </c>
@@ -3559,10 +3665,6 @@
         <f>COUNTIF('School-Details'!U:U,C26)</f>
         <v>10</v>
       </c>
-      <c r="E26" s="74"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="74"/>
       <c r="I26" s="31"/>
       <c r="K26" s="33"/>
       <c r="L26" s="14" t="s">
@@ -3574,7 +3676,7 @@
       </c>
       <c r="R26" s="31"/>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:18">
       <c r="B27" s="14"/>
       <c r="C27" s="14">
         <v>1</v>
@@ -3583,10 +3685,6 @@
         <f>COUNTIF('School-Details'!U:U,C27)</f>
         <v>0</v>
       </c>
-      <c r="E27" s="74"/>
-      <c r="F27" s="74"/>
-      <c r="G27" s="74"/>
-      <c r="H27" s="74"/>
       <c r="I27" s="31"/>
       <c r="K27" s="33" t="s">
         <v>278</v>
@@ -3600,7 +3698,7 @@
       </c>
       <c r="R27" s="31"/>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:18">
       <c r="B28" s="14"/>
       <c r="C28" s="14" t="s">
         <v>276</v>
@@ -3609,10 +3707,6 @@
         <f>SUM(D26:D27)</f>
         <v>10</v>
       </c>
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="74"/>
-      <c r="H28" s="74"/>
       <c r="I28" s="31"/>
       <c r="K28" s="33"/>
       <c r="L28" s="14" t="s">
@@ -3624,7 +3718,7 @@
       </c>
       <c r="R28" s="31"/>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:18">
       <c r="B29" s="14"/>
       <c r="C29" s="16" t="s">
         <v>244</v>
@@ -3633,10 +3727,6 @@
         <f>D23+D25+D28</f>
         <v>125</v>
       </c>
-      <c r="E29" s="74"/>
-      <c r="F29" s="74"/>
-      <c r="G29" s="74"/>
-      <c r="H29" s="74"/>
       <c r="I29" s="31"/>
       <c r="K29" s="33" t="s">
         <v>273</v>
@@ -3650,7 +3740,7 @@
       </c>
       <c r="R29" s="31"/>
     </row>
-    <row r="30" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:18" ht="15" thickBot="1">
       <c r="B30" s="34"/>
       <c r="C30" s="35"/>
       <c r="D30" s="35"/>
@@ -3669,7 +3759,7 @@
       </c>
       <c r="R30" s="31"/>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:18">
       <c r="K31" s="33"/>
       <c r="L31" s="14" t="s">
         <v>373</v>
@@ -3680,7 +3770,7 @@
       </c>
       <c r="R31" s="31"/>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:18">
       <c r="K32" s="33"/>
       <c r="L32" s="16" t="s">
         <v>244</v>
@@ -3691,7 +3781,7 @@
       </c>
       <c r="R32" s="31"/>
     </row>
-    <row r="33" spans="11:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="11:18" ht="15" thickBot="1">
       <c r="K33" s="34"/>
       <c r="L33" s="35"/>
       <c r="M33" s="35"/>
@@ -3715,16 +3805,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:V144"/>
+  <dimension ref="A1:V154"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="N120" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D149" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V120" sqref="V120"/>
+      <selection pane="bottomRight" activeCell="G154" sqref="G154"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="6.6640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="25.6640625" style="17" bestFit="1" customWidth="1"/>
@@ -3744,7 +3834,7 @@
     <col min="24" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="57.6">
       <c r="A1" s="18" t="s">
         <v>1</v>
       </c>
@@ -3812,7 +3902,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="25.2" customHeight="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -3861,7 +3951,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="28.8">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -3904,7 +3994,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="28.8">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -3953,7 +4043,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" ht="43.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -3999,7 +4089,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" ht="14.4" customHeight="1">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -4045,7 +4135,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" ht="28.8">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -4091,7 +4181,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" ht="28.8">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -4134,7 +4224,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" ht="43.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -4180,7 +4270,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" ht="28.8">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -4229,7 +4319,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" ht="43.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -4275,7 +4365,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" ht="43.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -4321,7 +4411,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" ht="28.8">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -4370,7 +4460,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="72" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" ht="72">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -4416,7 +4506,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" ht="43.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -4459,7 +4549,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" ht="28.8">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -4505,7 +4595,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" ht="43.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -4551,7 +4641,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" ht="43.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -4597,7 +4687,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" ht="28.8">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -4637,7 +4727,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" ht="28.8">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -4678,7 +4768,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -4722,7 +4812,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" ht="28.8">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -4766,7 +4856,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" ht="43.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -4809,7 +4899,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" ht="28.8">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -4856,7 +4946,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" ht="28.8">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -4900,7 +4990,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" ht="28.8">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -4944,7 +5034,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -4988,7 +5078,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" ht="43.2">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -5040,7 +5130,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -5080,7 +5170,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" ht="28.8">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -5124,7 +5214,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" ht="28.8">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -5168,7 +5258,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" ht="28.8">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -5212,7 +5302,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:22" ht="28.8">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -5256,7 +5346,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:22">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -5296,7 +5386,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:22">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -5343,7 +5433,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:22">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -5386,7 +5476,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:22" ht="28.8">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -5430,7 +5520,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:22" ht="28.8">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -5473,7 +5563,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:22">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -5516,7 +5606,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:22" ht="28.8">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -5559,7 +5649,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:22" ht="28.8">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -5603,7 +5693,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:22">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -5647,7 +5737,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:22">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -5691,7 +5781,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:22">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -5734,7 +5824,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:22">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -5777,7 +5867,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:22">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -5817,7 +5907,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:22" ht="28.8">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -5861,7 +5951,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:22">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -5905,7 +5995,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="49" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:22" ht="28.8">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -5949,7 +6039,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="50" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:22" ht="28.8">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -5992,7 +6082,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:22">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -6036,7 +6126,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:22">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -6080,7 +6170,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:22">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -6124,7 +6214,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="54" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:22" ht="28.8">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -6168,7 +6258,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="55" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:22" ht="28.8">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -6212,7 +6302,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="56" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:22" ht="28.8">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -6256,7 +6346,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:22">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -6300,7 +6390,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:22">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -6344,7 +6434,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:22">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -6388,7 +6478,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="60" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:22" ht="28.8">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -6432,7 +6522,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="61" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:22" ht="28.8">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -6476,7 +6566,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="62" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:22" ht="28.8">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -6520,7 +6610,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="63" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:22" ht="28.8">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -6564,7 +6654,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:22">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -6608,7 +6698,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="65" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:22" ht="28.8">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -6652,7 +6742,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:22">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -6696,7 +6786,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:22">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -6740,7 +6830,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:22">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -6784,7 +6874,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="69" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:22" ht="28.8">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -6828,7 +6918,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="70" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:22" ht="28.8">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -6872,7 +6962,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="71" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:22" ht="28.8">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -6916,7 +7006,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:22">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -6960,7 +7050,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="73" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:22" ht="28.8">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -7004,7 +7094,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:22">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -7044,7 +7134,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:22">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -7088,7 +7178,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:22">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -7128,7 +7218,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:22">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -7165,7 +7255,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="78" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:22" ht="14.4" customHeight="1">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -7209,7 +7299,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="79" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:22" ht="14.4" customHeight="1">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -7253,7 +7343,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="80" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:22" ht="14.4" customHeight="1">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -7297,7 +7387,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="81" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:22" ht="28.8">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -7341,7 +7431,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="82" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:22" ht="28.8">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -7384,7 +7474,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="83" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:22" ht="28.8">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -7427,7 +7517,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="84" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:22" ht="14.4" customHeight="1">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -7470,7 +7560,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="85" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:22" ht="14.4" customHeight="1">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -7514,7 +7604,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="86" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:22" ht="28.8">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -7557,7 +7647,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:22">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -7600,7 +7690,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:22">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -7644,7 +7734,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:22">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -7688,7 +7778,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="90" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:22" ht="28.8">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -7731,7 +7821,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="91" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:22" ht="28.8">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -7775,7 +7865,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:22">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -7821,7 +7911,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="93" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:22" ht="57.6">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -7864,7 +7954,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="94" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:22" ht="28.8">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -7907,7 +7997,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:22">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -7947,7 +8037,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:22">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -7987,7 +8077,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:22">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -8027,7 +8117,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:22">
       <c r="A98" s="2">
         <v>97</v>
       </c>
@@ -8067,7 +8157,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:22">
       <c r="A99" s="2">
         <v>98</v>
       </c>
@@ -8107,7 +8197,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:22">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -8147,7 +8237,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:22">
       <c r="A101" s="2">
         <v>100</v>
       </c>
@@ -8187,7 +8277,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="102" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:22" ht="28.8">
       <c r="A102" s="2">
         <v>101</v>
       </c>
@@ -8227,7 +8317,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:22">
       <c r="A103" s="2">
         <v>102</v>
       </c>
@@ -8267,7 +8357,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:22">
       <c r="A104" s="2">
         <v>103</v>
       </c>
@@ -8307,7 +8397,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="105" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:22">
       <c r="A105" s="2">
         <v>104</v>
       </c>
@@ -8347,7 +8437,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:22">
       <c r="A106" s="2">
         <v>105</v>
       </c>
@@ -8387,7 +8477,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="107" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:22" ht="28.8">
       <c r="A107" s="2">
         <v>106</v>
       </c>
@@ -8427,7 +8517,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:22">
       <c r="A108" s="2">
         <v>107</v>
       </c>
@@ -8467,7 +8557,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="109" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:22" ht="28.8">
       <c r="A109" s="2">
         <v>108</v>
       </c>
@@ -8507,7 +8597,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="110" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:22">
       <c r="A110" s="2">
         <v>109</v>
       </c>
@@ -8547,7 +8637,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="111" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:22">
       <c r="A111" s="2">
         <v>110</v>
       </c>
@@ -8587,7 +8677,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="112" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:22">
       <c r="A112" s="2">
         <v>111</v>
       </c>
@@ -8627,7 +8717,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="113" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:22">
       <c r="A113" s="2">
         <v>112</v>
       </c>
@@ -8667,7 +8757,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="114" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:22">
       <c r="A114" s="2">
         <v>113</v>
       </c>
@@ -8707,7 +8797,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="115" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:22">
       <c r="A115" s="2">
         <v>114</v>
       </c>
@@ -8747,7 +8837,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="116" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:22">
       <c r="A116" s="2">
         <v>115</v>
       </c>
@@ -8787,7 +8877,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="117" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:22">
       <c r="A117" s="2">
         <v>116</v>
       </c>
@@ -8827,7 +8917,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="118" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:22">
       <c r="A118" s="2">
         <v>117</v>
       </c>
@@ -8867,7 +8957,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="119" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:22">
       <c r="A119" s="2">
         <v>118</v>
       </c>
@@ -8907,7 +8997,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="120" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:22" ht="28.8">
       <c r="A120" s="2">
         <v>119</v>
       </c>
@@ -8947,7 +9037,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="121" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:22">
       <c r="A121" s="2">
         <v>120</v>
       </c>
@@ -8987,7 +9077,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="122" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:22">
       <c r="A122" s="2">
         <v>121</v>
       </c>
@@ -9027,7 +9117,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="123" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:22" ht="43.2">
       <c r="A123" s="2">
         <v>122</v>
       </c>
@@ -9070,7 +9160,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="124" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:22" ht="43.2">
       <c r="A124" s="2">
         <v>123</v>
       </c>
@@ -9113,7 +9203,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="125" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:22" ht="28.8">
       <c r="A125" s="2">
         <v>124</v>
       </c>
@@ -9156,7 +9246,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="126" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:22">
       <c r="A126" s="2">
         <v>125</v>
       </c>
@@ -9199,7 +9289,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="127" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:22" ht="28.8">
       <c r="A127" s="2">
         <v>126</v>
       </c>
@@ -9222,7 +9312,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="128" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:22" ht="28.8">
       <c r="A128" s="2">
         <v>127</v>
       </c>
@@ -9245,7 +9335,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8">
       <c r="A129" s="2">
         <v>128</v>
       </c>
@@ -9268,7 +9358,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" ht="28.8">
       <c r="A130" s="2">
         <v>129</v>
       </c>
@@ -9291,7 +9381,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" ht="28.8">
       <c r="A131" s="2">
         <v>130</v>
       </c>
@@ -9314,7 +9404,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" ht="28.8">
       <c r="A132" s="2">
         <v>131</v>
       </c>
@@ -9337,7 +9427,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" ht="28.8">
       <c r="A133" s="2">
         <v>132</v>
       </c>
@@ -9360,7 +9450,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" ht="28.8">
       <c r="A134" s="2">
         <v>133</v>
       </c>
@@ -9383,7 +9473,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" ht="28.8">
       <c r="A135" s="2">
         <v>134</v>
       </c>
@@ -9406,7 +9496,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" ht="28.8">
       <c r="A136" s="2">
         <v>135</v>
       </c>
@@ -9429,7 +9519,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" ht="28.8">
       <c r="A137" s="2">
         <v>136</v>
       </c>
@@ -9452,7 +9542,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" ht="28.8">
       <c r="A138" s="2">
         <v>137</v>
       </c>
@@ -9475,7 +9565,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" ht="28.8">
       <c r="A139" s="2">
         <v>138</v>
       </c>
@@ -9498,7 +9588,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" ht="28.8">
       <c r="A140" s="2">
         <v>139</v>
       </c>
@@ -9521,7 +9611,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" ht="28.8">
       <c r="A141" s="2">
         <v>140</v>
       </c>
@@ -9544,7 +9634,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" ht="28.8">
       <c r="A142" s="2">
         <v>141</v>
       </c>
@@ -9567,7 +9657,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" ht="28.8">
       <c r="A143" s="2">
         <v>142</v>
       </c>
@@ -9590,7 +9680,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" ht="28.8">
       <c r="A144" s="2">
         <v>143</v>
       </c>
@@ -9602,6 +9692,230 @@
       </c>
       <c r="D144" s="3" t="s">
         <v>571</v>
+      </c>
+      <c r="F144" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="G144" s="40" t="s">
+        <v>574</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="28.8">
+      <c r="A145" s="2">
+        <v>144</v>
+      </c>
+      <c r="B145" s="17" t="s">
+        <v>577</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="F145" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="G145" s="40" t="s">
+        <v>578</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="43.2">
+      <c r="A146" s="2">
+        <v>145</v>
+      </c>
+      <c r="B146" s="17" t="s">
+        <v>579</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="F146" s="60" t="s">
+        <v>581</v>
+      </c>
+      <c r="G146" s="40" t="s">
+        <v>582</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="28.8">
+      <c r="A147" s="2">
+        <v>146</v>
+      </c>
+      <c r="B147" s="17" t="s">
+        <v>584</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="F147" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="G147" s="40" t="s">
+        <v>585</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="A148" s="2">
+        <v>147</v>
+      </c>
+      <c r="B148" s="17" t="s">
+        <v>586</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D148" s="75" t="s">
+        <v>587</v>
+      </c>
+      <c r="F148" s="75">
+        <v>8232016670</v>
+      </c>
+      <c r="G148" s="40" t="s">
+        <v>588</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="28.8">
+      <c r="A149" s="2">
+        <v>148</v>
+      </c>
+      <c r="B149" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="F149" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="G149" s="40" t="s">
+        <v>592</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="28.8">
+      <c r="A150" s="2">
+        <v>149</v>
+      </c>
+      <c r="B150" s="17" t="s">
+        <v>596</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="F150" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="G150" s="40" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="28.8">
+      <c r="A151" s="2">
+        <v>150</v>
+      </c>
+      <c r="B151" s="17" t="s">
+        <v>599</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="F151" s="76" t="s">
+        <v>601</v>
+      </c>
+      <c r="G151" s="40" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="28.8">
+      <c r="A152" s="2">
+        <v>151</v>
+      </c>
+      <c r="B152" s="17" t="s">
+        <v>604</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="F152" s="77" t="s">
+        <v>605</v>
+      </c>
+      <c r="G152" s="40" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="43.2">
+      <c r="A153" s="2">
+        <v>152</v>
+      </c>
+      <c r="B153" s="17" t="s">
+        <v>607</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="F153" s="77" t="s">
+        <v>608</v>
+      </c>
+      <c r="G153" s="40" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="28.8">
+      <c r="A154" s="2">
+        <v>153</v>
+      </c>
+      <c r="B154" s="17" t="s">
+        <v>610</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="F154" s="78">
+        <v>3322127923</v>
+      </c>
+      <c r="G154" s="40" t="s">
+        <v>612</v>
       </c>
     </row>
   </sheetData>
@@ -9717,10 +10031,18 @@
     <hyperlink ref="D142" r:id="rId100" xr:uid="{DECDBD92-C6E4-4C12-BB2C-14A047691575}"/>
     <hyperlink ref="D143" r:id="rId101" xr:uid="{2760D183-462B-44C9-8920-0777B9D56653}"/>
     <hyperlink ref="D144" r:id="rId102" xr:uid="{09D49BE0-9DE7-4F5B-865F-CD45FBAE28C9}"/>
+    <hyperlink ref="D145" r:id="rId103" xr:uid="{91976120-2DAB-4C08-BFEB-0F9E9D160456}"/>
+    <hyperlink ref="D146" r:id="rId104" xr:uid="{9383DBFF-6316-48D8-93AA-36923AFEF2F1}"/>
+    <hyperlink ref="D147" r:id="rId105" xr:uid="{1D7A0B4B-A3F9-4976-BCF0-3898414DB70B}"/>
+    <hyperlink ref="D149" r:id="rId106" xr:uid="{468BCAB6-75B8-424B-BCE8-71208A4A0041}"/>
+    <hyperlink ref="D150" r:id="rId107" xr:uid="{63613039-776D-46E3-875D-7789EFCD710D}"/>
+    <hyperlink ref="D152" r:id="rId108" xr:uid="{CEA61495-BA53-4323-B5B5-B0D343A466C2}"/>
+    <hyperlink ref="D153" r:id="rId109" xr:uid="{D91721D0-C634-4E17-A660-2768F624CC55}"/>
+    <hyperlink ref="D154" r:id="rId110" xr:uid="{395E5009-2A51-4B0F-AA35-D308881D70A5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId103"/>
-  <legacyDrawing r:id="rId104"/>
+  <pageSetup orientation="portrait" r:id="rId111"/>
+  <legacyDrawing r:id="rId112"/>
 </worksheet>
 </file>
 
@@ -9732,7 +10054,7 @@
       <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="4.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.88671875" style="38" customWidth="1"/>
@@ -9752,7 +10074,7 @@
     <col min="22" max="22" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="30.6" customHeight="1">
       <c r="A1" s="18" t="s">
         <v>1</v>
       </c>
@@ -9820,7 +10142,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="43.2">
       <c r="A2" s="38">
         <v>1</v>
       </c>
@@ -9866,7 +10188,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="28.8">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -9909,7 +10231,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="43.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -9952,7 +10274,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" ht="28.8">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -9995,7 +10317,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" ht="57.6">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -10038,7 +10360,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" ht="43.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -10081,7 +10403,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" ht="28.8">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -10124,7 +10446,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -10164,7 +10486,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -10204,7 +10526,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" ht="28.8">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -10245,7 +10567,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -10285,7 +10607,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -10325,7 +10647,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -10365,7 +10687,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -10405,7 +10727,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -10445,7 +10767,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -10485,7 +10807,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -10525,7 +10847,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -10565,7 +10887,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -10606,7 +10928,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -10647,7 +10969,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -10687,7 +11009,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -10728,7 +11050,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -10769,7 +11091,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -10810,7 +11132,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -10851,7 +11173,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -10891,7 +11213,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -10931,7 +11253,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -10972,7 +11294,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -11013,7 +11335,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -11054,7 +11376,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -11094,7 +11416,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:22">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -11134,7 +11456,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:22">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -11174,7 +11496,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:22">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -11214,7 +11536,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:22" ht="28.8">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -11260,7 +11582,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:22" ht="28.8">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -11306,7 +11628,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:22" ht="28.8">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -11349,7 +11671,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:22" ht="28.8">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -11392,7 +11714,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:22" ht="28.8">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -11435,7 +11757,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:22">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -11478,7 +11800,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:22" ht="28.8">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -11521,7 +11843,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:22" ht="43.2">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -11567,7 +11889,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:22" ht="28.8">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -11610,7 +11932,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:22">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -11653,7 +11975,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:22">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -11696,7 +12018,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:22" ht="43.2">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -11739,7 +12061,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="48" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:22" ht="28.8">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -11782,7 +12104,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="49" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:22" ht="43.2">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -11828,7 +12150,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:22">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -11871,7 +12193,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="51" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:22" ht="57.6">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -11914,7 +12236,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="52" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:22" ht="28.8">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -11957,7 +12279,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="53" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:22" ht="28.8">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -12000,7 +12322,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:22">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -12043,7 +12365,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:22">
       <c r="O55" s="10"/>
       <c r="P55" s="10"/>
       <c r="Q55" s="10"/>
@@ -12052,7 +12374,7 @@
       <c r="T55" s="10"/>
       <c r="U55" s="10"/>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:22">
       <c r="O56" s="10"/>
       <c r="P56" s="10"/>
       <c r="Q56" s="10"/>
@@ -12061,7 +12383,7 @@
       <c r="T56" s="10"/>
       <c r="U56" s="10"/>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:22">
       <c r="O57" s="10"/>
       <c r="P57" s="10"/>
       <c r="Q57" s="10"/>
@@ -12070,7 +12392,7 @@
       <c r="T57" s="10"/>
       <c r="U57" s="10"/>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:22">
       <c r="O58" s="10"/>
       <c r="P58" s="10"/>
       <c r="Q58" s="10"/>
@@ -12079,7 +12401,7 @@
       <c r="T58" s="10"/>
       <c r="U58" s="10"/>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:22">
       <c r="O59" s="10"/>
       <c r="P59" s="10"/>
       <c r="Q59" s="10"/>
@@ -12088,7 +12410,7 @@
       <c r="T59" s="10"/>
       <c r="U59" s="10"/>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:22">
       <c r="O60" s="10"/>
       <c r="P60" s="10"/>
       <c r="Q60" s="10"/>
@@ -12097,7 +12419,7 @@
       <c r="T60" s="10"/>
       <c r="U60" s="10"/>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:22">
       <c r="O61" s="10"/>
       <c r="P61" s="10"/>
       <c r="Q61" s="10"/>
@@ -12106,7 +12428,7 @@
       <c r="T61" s="10"/>
       <c r="U61" s="10"/>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:22">
       <c r="O62" s="10"/>
       <c r="P62" s="10"/>
       <c r="Q62" s="10"/>
@@ -12115,7 +12437,7 @@
       <c r="T62" s="10"/>
       <c r="U62" s="10"/>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:22">
       <c r="O63" s="10"/>
       <c r="P63" s="10"/>
       <c r="Q63" s="10"/>
@@ -12124,7 +12446,7 @@
       <c r="T63" s="10"/>
       <c r="U63" s="10"/>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:22">
       <c r="O64" s="10"/>
       <c r="P64" s="10"/>
       <c r="Q64" s="10"/>
@@ -12133,7 +12455,7 @@
       <c r="T64" s="10"/>
       <c r="U64" s="10"/>
     </row>
-    <row r="65" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="65" spans="15:21">
       <c r="O65" s="10"/>
       <c r="P65" s="10"/>
       <c r="Q65" s="10"/>
@@ -12142,7 +12464,7 @@
       <c r="T65" s="10"/>
       <c r="U65" s="10"/>
     </row>
-    <row r="66" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="66" spans="15:21">
       <c r="O66" s="10"/>
       <c r="P66" s="10"/>
       <c r="Q66" s="10"/>
@@ -12151,7 +12473,7 @@
       <c r="T66" s="10"/>
       <c r="U66" s="10"/>
     </row>
-    <row r="67" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="67" spans="15:21">
       <c r="O67" s="10"/>
       <c r="P67" s="10"/>
       <c r="Q67" s="10"/>
@@ -12160,7 +12482,7 @@
       <c r="T67" s="10"/>
       <c r="U67" s="10"/>
     </row>
-    <row r="68" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="68" spans="15:21">
       <c r="O68" s="10"/>
       <c r="P68" s="10"/>
       <c r="Q68" s="10"/>
@@ -12169,7 +12491,7 @@
       <c r="T68" s="10"/>
       <c r="U68" s="10"/>
     </row>
-    <row r="69" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="69" spans="15:21">
       <c r="O69" s="10"/>
       <c r="P69" s="10"/>
       <c r="Q69" s="10"/>
@@ -12178,7 +12500,7 @@
       <c r="T69" s="10"/>
       <c r="U69" s="10"/>
     </row>
-    <row r="70" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="70" spans="15:21">
       <c r="O70" s="10"/>
       <c r="P70" s="10"/>
       <c r="Q70" s="10"/>
@@ -12187,7 +12509,7 @@
       <c r="T70" s="10"/>
       <c r="U70" s="10"/>
     </row>
-    <row r="71" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="71" spans="15:21">
       <c r="O71" s="10"/>
       <c r="P71" s="10"/>
       <c r="Q71" s="10"/>
@@ -12196,7 +12518,7 @@
       <c r="T71" s="10"/>
       <c r="U71" s="10"/>
     </row>
-    <row r="72" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="72" spans="15:21">
       <c r="O72" s="10"/>
       <c r="P72" s="10"/>
       <c r="Q72" s="10"/>
@@ -12205,7 +12527,7 @@
       <c r="T72" s="10"/>
       <c r="U72" s="10"/>
     </row>
-    <row r="73" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="73" spans="15:21">
       <c r="O73" s="10"/>
       <c r="P73" s="10"/>
       <c r="Q73" s="10"/>
@@ -12214,7 +12536,7 @@
       <c r="T73" s="10"/>
       <c r="U73" s="10"/>
     </row>
-    <row r="74" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="74" spans="15:21">
       <c r="O74" s="10"/>
       <c r="P74" s="10"/>
       <c r="Q74" s="10"/>
@@ -12223,7 +12545,7 @@
       <c r="T74" s="10"/>
       <c r="U74" s="10"/>
     </row>
-    <row r="75" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="75" spans="15:21">
       <c r="O75" s="10"/>
       <c r="P75" s="10"/>
       <c r="Q75" s="10"/>
@@ -12232,7 +12554,7 @@
       <c r="T75" s="10"/>
       <c r="U75" s="10"/>
     </row>
-    <row r="76" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="76" spans="15:21">
       <c r="O76" s="10"/>
       <c r="P76" s="10"/>
       <c r="Q76" s="10"/>
@@ -12241,7 +12563,7 @@
       <c r="T76" s="10"/>
       <c r="U76" s="10"/>
     </row>
-    <row r="77" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="77" spans="15:21">
       <c r="O77" s="10"/>
       <c r="P77" s="10"/>
       <c r="Q77" s="10"/>
@@ -12250,7 +12572,7 @@
       <c r="T77" s="10"/>
       <c r="U77" s="10"/>
     </row>
-    <row r="78" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="78" spans="15:21">
       <c r="O78" s="10"/>
       <c r="P78" s="10"/>
       <c r="Q78" s="10"/>
@@ -12259,7 +12581,7 @@
       <c r="T78" s="10"/>
       <c r="U78" s="10"/>
     </row>
-    <row r="79" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="79" spans="15:21">
       <c r="O79" s="10"/>
       <c r="P79" s="10"/>
       <c r="Q79" s="10"/>
@@ -12268,7 +12590,7 @@
       <c r="T79" s="10"/>
       <c r="U79" s="10"/>
     </row>
-    <row r="80" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="80" spans="15:21">
       <c r="O80" s="10"/>
       <c r="P80" s="10"/>
       <c r="Q80" s="10"/>
@@ -12277,7 +12599,7 @@
       <c r="T80" s="10"/>
       <c r="U80" s="10"/>
     </row>
-    <row r="81" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="81" spans="15:21">
       <c r="O81" s="10"/>
       <c r="P81" s="10"/>
       <c r="Q81" s="10"/>
@@ -12286,7 +12608,7 @@
       <c r="T81" s="10"/>
       <c r="U81" s="10"/>
     </row>
-    <row r="82" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="82" spans="15:21">
       <c r="O82" s="10"/>
       <c r="P82" s="10"/>
       <c r="Q82" s="10"/>
@@ -12295,7 +12617,7 @@
       <c r="T82" s="10"/>
       <c r="U82" s="10"/>
     </row>
-    <row r="83" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="83" spans="15:21">
       <c r="O83" s="10"/>
       <c r="P83" s="10"/>
       <c r="Q83" s="10"/>
@@ -12304,7 +12626,7 @@
       <c r="T83" s="10"/>
       <c r="U83" s="10"/>
     </row>
-    <row r="84" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="84" spans="15:21">
       <c r="O84" s="10"/>
       <c r="P84" s="10"/>
       <c r="Q84" s="10"/>
@@ -12313,7 +12635,7 @@
       <c r="T84" s="10"/>
       <c r="U84" s="10"/>
     </row>
-    <row r="85" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="85" spans="15:21">
       <c r="O85" s="10"/>
       <c r="P85" s="10"/>
       <c r="Q85" s="10"/>
@@ -12322,7 +12644,7 @@
       <c r="T85" s="10"/>
       <c r="U85" s="10"/>
     </row>
-    <row r="86" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="86" spans="15:21">
       <c r="O86" s="10"/>
       <c r="P86" s="10"/>
       <c r="Q86" s="10"/>
@@ -12331,7 +12653,7 @@
       <c r="T86" s="10"/>
       <c r="U86" s="10"/>
     </row>
-    <row r="87" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="87" spans="15:21">
       <c r="O87" s="10"/>
       <c r="P87" s="10"/>
       <c r="Q87" s="10"/>
@@ -12340,7 +12662,7 @@
       <c r="T87" s="10"/>
       <c r="U87" s="10"/>
     </row>
-    <row r="88" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="88" spans="15:21">
       <c r="O88" s="10"/>
       <c r="P88" s="10"/>
       <c r="Q88" s="10"/>
@@ -12349,7 +12671,7 @@
       <c r="T88" s="10"/>
       <c r="U88" s="10"/>
     </row>
-    <row r="89" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="89" spans="15:21">
       <c r="O89" s="10"/>
       <c r="P89" s="10"/>
       <c r="Q89" s="10"/>
@@ -12358,7 +12680,7 @@
       <c r="T89" s="10"/>
       <c r="U89" s="10"/>
     </row>
-    <row r="90" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="90" spans="15:21">
       <c r="O90" s="10"/>
       <c r="P90" s="10"/>
       <c r="Q90" s="10"/>
@@ -12367,7 +12689,7 @@
       <c r="T90" s="10"/>
       <c r="U90" s="10"/>
     </row>
-    <row r="91" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="91" spans="15:21">
       <c r="O91" s="10"/>
       <c r="P91" s="10"/>
       <c r="Q91" s="10"/>
@@ -12376,7 +12698,7 @@
       <c r="T91" s="10"/>
       <c r="U91" s="10"/>
     </row>
-    <row r="92" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="92" spans="15:21">
       <c r="O92" s="10"/>
       <c r="P92" s="10"/>
       <c r="Q92" s="10"/>
@@ -12385,7 +12707,7 @@
       <c r="T92" s="10"/>
       <c r="U92" s="10"/>
     </row>
-    <row r="93" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="93" spans="15:21">
       <c r="O93" s="10"/>
       <c r="P93" s="10"/>
       <c r="Q93" s="10"/>
@@ -12394,7 +12716,7 @@
       <c r="T93" s="10"/>
       <c r="U93" s="10"/>
     </row>
-    <row r="94" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="94" spans="15:21">
       <c r="O94" s="10"/>
       <c r="P94" s="10"/>
       <c r="Q94" s="10"/>
@@ -12403,7 +12725,7 @@
       <c r="T94" s="10"/>
       <c r="U94" s="10"/>
     </row>
-    <row r="95" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="95" spans="15:21">
       <c r="O95" s="10"/>
       <c r="P95" s="10"/>
       <c r="Q95" s="10"/>
@@ -12412,7 +12734,7 @@
       <c r="T95" s="10"/>
       <c r="U95" s="10"/>
     </row>
-    <row r="96" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="96" spans="15:21">
       <c r="O96" s="10"/>
       <c r="P96" s="10"/>
       <c r="Q96" s="10"/>
@@ -12421,7 +12743,7 @@
       <c r="T96" s="10"/>
       <c r="U96" s="10"/>
     </row>
-    <row r="97" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="97" spans="15:21">
       <c r="O97" s="10"/>
       <c r="P97" s="10"/>
       <c r="Q97" s="10"/>
@@ -12430,7 +12752,7 @@
       <c r="T97" s="10"/>
       <c r="U97" s="10"/>
     </row>
-    <row r="98" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="98" spans="15:21">
       <c r="O98" s="10"/>
       <c r="P98" s="10"/>
       <c r="Q98" s="10"/>
@@ -12439,7 +12761,7 @@
       <c r="T98" s="10"/>
       <c r="U98" s="10"/>
     </row>
-    <row r="99" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="99" spans="15:21">
       <c r="O99" s="10"/>
       <c r="P99" s="10"/>
       <c r="Q99" s="10"/>
@@ -12448,7 +12770,7 @@
       <c r="T99" s="10"/>
       <c r="U99" s="10"/>
     </row>
-    <row r="100" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="100" spans="15:21">
       <c r="O100" s="10"/>
       <c r="P100" s="10"/>
       <c r="Q100" s="10"/>
@@ -12457,7 +12779,7 @@
       <c r="T100" s="10"/>
       <c r="U100" s="10"/>
     </row>
-    <row r="101" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="101" spans="15:21">
       <c r="O101" s="10"/>
       <c r="P101" s="10"/>
       <c r="Q101" s="10"/>
@@ -12466,7 +12788,7 @@
       <c r="T101" s="10"/>
       <c r="U101" s="10"/>
     </row>
-    <row r="102" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="102" spans="15:21">
       <c r="O102" s="10"/>
       <c r="P102" s="10"/>
       <c r="Q102" s="10"/>
@@ -12475,7 +12797,7 @@
       <c r="T102" s="10"/>
       <c r="U102" s="10"/>
     </row>
-    <row r="103" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="103" spans="15:21">
       <c r="O103" s="10"/>
       <c r="P103" s="10"/>
       <c r="Q103" s="10"/>
@@ -12484,7 +12806,7 @@
       <c r="T103" s="10"/>
       <c r="U103" s="10"/>
     </row>
-    <row r="104" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="104" spans="15:21">
       <c r="O104" s="10"/>
       <c r="P104" s="10"/>
       <c r="Q104" s="10"/>
@@ -12493,7 +12815,7 @@
       <c r="T104" s="10"/>
       <c r="U104" s="10"/>
     </row>
-    <row r="105" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="105" spans="15:21">
       <c r="O105" s="10"/>
       <c r="P105" s="10"/>
       <c r="Q105" s="10"/>
@@ -12502,7 +12824,7 @@
       <c r="T105" s="10"/>
       <c r="U105" s="10"/>
     </row>
-    <row r="106" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="106" spans="15:21">
       <c r="O106" s="10"/>
       <c r="P106" s="10"/>
       <c r="Q106" s="10"/>
@@ -12511,7 +12833,7 @@
       <c r="T106" s="10"/>
       <c r="U106" s="10"/>
     </row>
-    <row r="107" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="107" spans="15:21">
       <c r="O107" s="10"/>
       <c r="P107" s="10"/>
       <c r="Q107" s="10"/>
@@ -12520,7 +12842,7 @@
       <c r="T107" s="10"/>
       <c r="U107" s="10"/>
     </row>
-    <row r="108" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="108" spans="15:21">
       <c r="O108" s="10"/>
       <c r="P108" s="10"/>
       <c r="Q108" s="10"/>
@@ -12529,7 +12851,7 @@
       <c r="T108" s="10"/>
       <c r="U108" s="10"/>
     </row>
-    <row r="109" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="109" spans="15:21">
       <c r="O109" s="10"/>
       <c r="P109" s="10"/>
       <c r="Q109" s="10"/>
@@ -12538,7 +12860,7 @@
       <c r="T109" s="10"/>
       <c r="U109" s="10"/>
     </row>
-    <row r="110" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="110" spans="15:21">
       <c r="O110" s="10"/>
       <c r="P110" s="10"/>
       <c r="Q110" s="10"/>
@@ -12547,7 +12869,7 @@
       <c r="T110" s="10"/>
       <c r="U110" s="10"/>
     </row>
-    <row r="111" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="111" spans="15:21">
       <c r="O111" s="10"/>
       <c r="P111" s="10"/>
       <c r="Q111" s="10"/>
@@ -12556,7 +12878,7 @@
       <c r="T111" s="10"/>
       <c r="U111" s="10"/>
     </row>
-    <row r="112" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="112" spans="15:21">
       <c r="O112" s="10"/>
       <c r="P112" s="10"/>
       <c r="Q112" s="10"/>
@@ -12565,7 +12887,7 @@
       <c r="T112" s="10"/>
       <c r="U112" s="10"/>
     </row>
-    <row r="113" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="113" spans="15:21">
       <c r="O113" s="10"/>
       <c r="P113" s="10"/>
       <c r="Q113" s="10"/>
@@ -12574,7 +12896,7 @@
       <c r="T113" s="10"/>
       <c r="U113" s="10"/>
     </row>
-    <row r="114" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="114" spans="15:21">
       <c r="O114" s="10"/>
       <c r="P114" s="10"/>
       <c r="Q114" s="10"/>
@@ -12583,7 +12905,7 @@
       <c r="T114" s="10"/>
       <c r="U114" s="10"/>
     </row>
-    <row r="115" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="115" spans="15:21">
       <c r="O115" s="10"/>
       <c r="P115" s="10"/>
       <c r="Q115" s="10"/>
@@ -12592,7 +12914,7 @@
       <c r="T115" s="10"/>
       <c r="U115" s="10"/>
     </row>
-    <row r="116" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="116" spans="15:21">
       <c r="O116" s="10"/>
       <c r="P116" s="10"/>
       <c r="Q116" s="10"/>
@@ -12601,7 +12923,7 @@
       <c r="T116" s="10"/>
       <c r="U116" s="10"/>
     </row>
-    <row r="117" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="117" spans="15:21">
       <c r="O117" s="10"/>
       <c r="P117" s="10"/>
       <c r="Q117" s="10"/>
@@ -12610,7 +12932,7 @@
       <c r="T117" s="10"/>
       <c r="U117" s="10"/>
     </row>
-    <row r="118" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="118" spans="15:21">
       <c r="O118" s="10"/>
       <c r="P118" s="10"/>
       <c r="Q118" s="10"/>
@@ -12619,7 +12941,7 @@
       <c r="T118" s="10"/>
       <c r="U118" s="10"/>
     </row>
-    <row r="119" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="119" spans="15:21">
       <c r="O119" s="10"/>
       <c r="P119" s="10"/>
       <c r="Q119" s="10"/>
@@ -12628,7 +12950,7 @@
       <c r="T119" s="10"/>
       <c r="U119" s="10"/>
     </row>
-    <row r="120" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="120" spans="15:21">
       <c r="O120" s="10"/>
       <c r="P120" s="10"/>
       <c r="Q120" s="10"/>
@@ -12637,7 +12959,7 @@
       <c r="T120" s="10"/>
       <c r="U120" s="10"/>
     </row>
-    <row r="121" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="121" spans="15:21">
       <c r="O121" s="10"/>
       <c r="P121" s="10"/>
       <c r="Q121" s="10"/>
@@ -12646,7 +12968,7 @@
       <c r="T121" s="10"/>
       <c r="U121" s="10"/>
     </row>
-    <row r="122" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="122" spans="15:21">
       <c r="O122" s="10"/>
       <c r="P122" s="10"/>
       <c r="Q122" s="10"/>
@@ -12655,7 +12977,7 @@
       <c r="T122" s="10"/>
       <c r="U122" s="10"/>
     </row>
-    <row r="123" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="123" spans="15:21">
       <c r="O123" s="10"/>
       <c r="P123" s="10"/>
       <c r="Q123" s="10"/>
@@ -12664,7 +12986,7 @@
       <c r="T123" s="10"/>
       <c r="U123" s="10"/>
     </row>
-    <row r="124" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="124" spans="15:21">
       <c r="O124" s="10"/>
       <c r="P124" s="10"/>
       <c r="Q124" s="10"/>
@@ -12673,7 +12995,7 @@
       <c r="T124" s="10"/>
       <c r="U124" s="10"/>
     </row>
-    <row r="125" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="125" spans="15:21">
       <c r="O125" s="10"/>
       <c r="P125" s="10"/>
       <c r="Q125" s="10"/>
@@ -12682,7 +13004,7 @@
       <c r="T125" s="10"/>
       <c r="U125" s="10"/>
     </row>
-    <row r="126" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="126" spans="15:21">
       <c r="O126" s="10"/>
       <c r="P126" s="10"/>
       <c r="Q126" s="10"/>
@@ -12691,7 +13013,7 @@
       <c r="T126" s="10"/>
       <c r="U126" s="10"/>
     </row>
-    <row r="127" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="127" spans="15:21">
       <c r="O127" s="10"/>
       <c r="P127" s="10"/>
       <c r="Q127" s="10"/>
@@ -12700,7 +13022,7 @@
       <c r="T127" s="10"/>
       <c r="U127" s="10"/>
     </row>
-    <row r="128" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="128" spans="15:21">
       <c r="O128" s="10"/>
       <c r="P128" s="10"/>
       <c r="Q128" s="10"/>
@@ -12709,7 +13031,7 @@
       <c r="T128" s="10"/>
       <c r="U128" s="10"/>
     </row>
-    <row r="129" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="129" spans="15:21">
       <c r="O129" s="10"/>
       <c r="P129" s="10"/>
       <c r="Q129" s="10"/>
@@ -12718,7 +13040,7 @@
       <c r="T129" s="10"/>
       <c r="U129" s="10"/>
     </row>
-    <row r="130" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="130" spans="15:21">
       <c r="O130" s="10"/>
       <c r="P130" s="10"/>
       <c r="Q130" s="10"/>
@@ -12727,7 +13049,7 @@
       <c r="T130" s="10"/>
       <c r="U130" s="10"/>
     </row>
-    <row r="131" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="131" spans="15:21">
       <c r="O131" s="10"/>
       <c r="P131" s="10"/>
       <c r="Q131" s="10"/>
@@ -12736,7 +13058,7 @@
       <c r="T131" s="10"/>
       <c r="U131" s="10"/>
     </row>
-    <row r="132" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="132" spans="15:21">
       <c r="O132" s="10"/>
       <c r="P132" s="10"/>
       <c r="Q132" s="10"/>
@@ -12745,7 +13067,7 @@
       <c r="T132" s="10"/>
       <c r="U132" s="10"/>
     </row>
-    <row r="133" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="133" spans="15:21">
       <c r="O133" s="10"/>
       <c r="P133" s="10"/>
       <c r="Q133" s="10"/>
@@ -12754,7 +13076,7 @@
       <c r="T133" s="10"/>
       <c r="U133" s="10"/>
     </row>
-    <row r="134" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="134" spans="15:21">
       <c r="O134" s="10"/>
       <c r="P134" s="10"/>
       <c r="Q134" s="10"/>
@@ -12763,7 +13085,7 @@
       <c r="T134" s="10"/>
       <c r="U134" s="10"/>
     </row>
-    <row r="135" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="135" spans="15:21">
       <c r="O135" s="10"/>
       <c r="P135" s="10"/>
       <c r="Q135" s="10"/>
@@ -12772,7 +13094,7 @@
       <c r="T135" s="10"/>
       <c r="U135" s="10"/>
     </row>
-    <row r="136" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="136" spans="15:21">
       <c r="O136" s="10"/>
       <c r="P136" s="10"/>
       <c r="Q136" s="10"/>
@@ -12781,7 +13103,7 @@
       <c r="T136" s="10"/>
       <c r="U136" s="10"/>
     </row>
-    <row r="137" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="137" spans="15:21">
       <c r="O137" s="10"/>
       <c r="P137" s="10"/>
       <c r="Q137" s="10"/>
@@ -12790,7 +13112,7 @@
       <c r="T137" s="10"/>
       <c r="U137" s="10"/>
     </row>
-    <row r="138" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="138" spans="15:21">
       <c r="O138" s="10"/>
       <c r="P138" s="10"/>
       <c r="Q138" s="10"/>
@@ -12799,7 +13121,7 @@
       <c r="T138" s="10"/>
       <c r="U138" s="10"/>
     </row>
-    <row r="139" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="139" spans="15:21">
       <c r="O139" s="10"/>
       <c r="P139" s="10"/>
       <c r="Q139" s="10"/>
@@ -12808,7 +13130,7 @@
       <c r="T139" s="10"/>
       <c r="U139" s="10"/>
     </row>
-    <row r="140" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="140" spans="15:21">
       <c r="O140" s="10"/>
       <c r="P140" s="10"/>
       <c r="Q140" s="10"/>
@@ -12817,7 +13139,7 @@
       <c r="T140" s="10"/>
       <c r="U140" s="10"/>
     </row>
-    <row r="141" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="141" spans="15:21">
       <c r="O141" s="10"/>
       <c r="P141" s="10"/>
       <c r="Q141" s="10"/>
@@ -12826,7 +13148,7 @@
       <c r="T141" s="10"/>
       <c r="U141" s="10"/>
     </row>
-    <row r="142" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="142" spans="15:21">
       <c r="O142" s="10"/>
       <c r="P142" s="10"/>
       <c r="Q142" s="10"/>
@@ -12835,7 +13157,7 @@
       <c r="T142" s="10"/>
       <c r="U142" s="10"/>
     </row>
-    <row r="143" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="143" spans="15:21">
       <c r="O143" s="10"/>
       <c r="P143" s="10"/>
       <c r="Q143" s="10"/>
@@ -12844,7 +13166,7 @@
       <c r="T143" s="10"/>
       <c r="U143" s="10"/>
     </row>
-    <row r="144" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="144" spans="15:21">
       <c r="O144" s="10"/>
       <c r="P144" s="10"/>
       <c r="Q144" s="10"/>
@@ -12853,7 +13175,7 @@
       <c r="T144" s="10"/>
       <c r="U144" s="10"/>
     </row>
-    <row r="145" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="145" spans="15:21">
       <c r="O145" s="10"/>
       <c r="P145" s="10"/>
       <c r="Q145" s="10"/>
@@ -12862,7 +13184,7 @@
       <c r="T145" s="10"/>
       <c r="U145" s="10"/>
     </row>
-    <row r="146" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="146" spans="15:21">
       <c r="O146" s="10"/>
       <c r="P146" s="10"/>
       <c r="Q146" s="10"/>
@@ -12871,7 +13193,7 @@
       <c r="T146" s="10"/>
       <c r="U146" s="10"/>
     </row>
-    <row r="147" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="147" spans="15:21">
       <c r="O147" s="10"/>
       <c r="P147" s="10"/>
       <c r="Q147" s="10"/>
@@ -12880,7 +13202,7 @@
       <c r="T147" s="10"/>
       <c r="U147" s="10"/>
     </row>
-    <row r="148" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="148" spans="15:21">
       <c r="O148" s="10"/>
       <c r="P148" s="10"/>
       <c r="Q148" s="10"/>
@@ -12889,7 +13211,7 @@
       <c r="T148" s="10"/>
       <c r="U148" s="10"/>
     </row>
-    <row r="149" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="149" spans="15:21">
       <c r="O149" s="10"/>
       <c r="P149" s="10"/>
       <c r="Q149" s="10"/>
@@ -12898,7 +13220,7 @@
       <c r="T149" s="10"/>
       <c r="U149" s="10"/>
     </row>
-    <row r="150" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="150" spans="15:21">
       <c r="O150" s="10"/>
       <c r="P150" s="10"/>
       <c r="Q150" s="10"/>
@@ -12907,7 +13229,7 @@
       <c r="T150" s="10"/>
       <c r="U150" s="10"/>
     </row>
-    <row r="151" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="151" spans="15:21">
       <c r="O151" s="10"/>
       <c r="P151" s="10"/>
       <c r="Q151" s="10"/>
@@ -12916,7 +13238,7 @@
       <c r="T151" s="10"/>
       <c r="U151" s="10"/>
     </row>
-    <row r="152" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="152" spans="15:21">
       <c r="O152" s="10"/>
       <c r="P152" s="10"/>
       <c r="Q152" s="10"/>
@@ -12925,7 +13247,7 @@
       <c r="T152" s="10"/>
       <c r="U152" s="10"/>
     </row>
-    <row r="153" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="153" spans="15:21">
       <c r="O153" s="10"/>
       <c r="P153" s="10"/>
       <c r="Q153" s="10"/>
@@ -12934,7 +13256,7 @@
       <c r="T153" s="10"/>
       <c r="U153" s="10"/>
     </row>
-    <row r="154" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="154" spans="15:21">
       <c r="O154" s="10"/>
       <c r="P154" s="10"/>
       <c r="Q154" s="10"/>
@@ -12943,7 +13265,7 @@
       <c r="T154" s="10"/>
       <c r="U154" s="10"/>
     </row>
-    <row r="155" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="155" spans="15:21">
       <c r="O155" s="10"/>
       <c r="P155" s="10"/>
       <c r="Q155" s="10"/>
@@ -12952,7 +13274,7 @@
       <c r="T155" s="10"/>
       <c r="U155" s="10"/>
     </row>
-    <row r="156" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="156" spans="15:21">
       <c r="O156" s="10"/>
       <c r="P156" s="10"/>
       <c r="Q156" s="10"/>
@@ -12961,7 +13283,7 @@
       <c r="T156" s="10"/>
       <c r="U156" s="10"/>
     </row>
-    <row r="157" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="157" spans="15:21">
       <c r="O157" s="10"/>
       <c r="P157" s="10"/>
       <c r="Q157" s="10"/>
@@ -12970,7 +13292,7 @@
       <c r="T157" s="10"/>
       <c r="U157" s="10"/>
     </row>
-    <row r="158" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="158" spans="15:21">
       <c r="O158" s="10"/>
       <c r="P158" s="10"/>
       <c r="Q158" s="10"/>
@@ -12979,7 +13301,7 @@
       <c r="T158" s="10"/>
       <c r="U158" s="10"/>
     </row>
-    <row r="159" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="159" spans="15:21">
       <c r="O159" s="10"/>
       <c r="P159" s="10"/>
       <c r="Q159" s="10"/>
@@ -12988,7 +13310,7 @@
       <c r="T159" s="10"/>
       <c r="U159" s="10"/>
     </row>
-    <row r="160" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="160" spans="15:21">
       <c r="O160" s="10"/>
       <c r="P160" s="10"/>
       <c r="Q160" s="10"/>
@@ -12997,7 +13319,7 @@
       <c r="T160" s="10"/>
       <c r="U160" s="10"/>
     </row>
-    <row r="161" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="161" spans="15:21">
       <c r="O161" s="10"/>
       <c r="P161" s="10"/>
       <c r="Q161" s="10"/>
@@ -13006,7 +13328,7 @@
       <c r="T161" s="10"/>
       <c r="U161" s="10"/>
     </row>
-    <row r="162" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="162" spans="15:21">
       <c r="O162" s="10"/>
       <c r="P162" s="10"/>
       <c r="Q162" s="10"/>
@@ -13015,7 +13337,7 @@
       <c r="T162" s="10"/>
       <c r="U162" s="10"/>
     </row>
-    <row r="163" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="163" spans="15:21">
       <c r="O163" s="10"/>
       <c r="P163" s="10"/>
       <c r="Q163" s="10"/>
@@ -13024,7 +13346,7 @@
       <c r="T163" s="10"/>
       <c r="U163" s="10"/>
     </row>
-    <row r="164" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="164" spans="15:21">
       <c r="O164" s="10"/>
       <c r="P164" s="10"/>
       <c r="Q164" s="10"/>
@@ -13033,7 +13355,7 @@
       <c r="T164" s="10"/>
       <c r="U164" s="10"/>
     </row>
-    <row r="165" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="165" spans="15:21">
       <c r="O165" s="10"/>
       <c r="P165" s="10"/>
       <c r="Q165" s="10"/>
@@ -13042,7 +13364,7 @@
       <c r="T165" s="10"/>
       <c r="U165" s="10"/>
     </row>
-    <row r="166" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="166" spans="15:21">
       <c r="O166" s="10"/>
       <c r="P166" s="10"/>
       <c r="Q166" s="10"/>
@@ -13051,7 +13373,7 @@
       <c r="T166" s="10"/>
       <c r="U166" s="10"/>
     </row>
-    <row r="167" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="167" spans="15:21">
       <c r="O167" s="10"/>
       <c r="P167" s="10"/>
       <c r="Q167" s="10"/>
@@ -13060,7 +13382,7 @@
       <c r="T167" s="10"/>
       <c r="U167" s="10"/>
     </row>
-    <row r="168" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="168" spans="15:21">
       <c r="O168" s="10"/>
       <c r="P168" s="10"/>
       <c r="Q168" s="10"/>
@@ -13069,7 +13391,7 @@
       <c r="T168" s="10"/>
       <c r="U168" s="10"/>
     </row>
-    <row r="169" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="169" spans="15:21">
       <c r="O169" s="10"/>
       <c r="P169" s="10"/>
       <c r="Q169" s="10"/>
@@ -13078,7 +13400,7 @@
       <c r="T169" s="10"/>
       <c r="U169" s="10"/>
     </row>
-    <row r="170" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="170" spans="15:21">
       <c r="O170" s="10"/>
       <c r="P170" s="10"/>
       <c r="Q170" s="10"/>
@@ -13087,7 +13409,7 @@
       <c r="T170" s="10"/>
       <c r="U170" s="10"/>
     </row>
-    <row r="171" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="171" spans="15:21">
       <c r="O171" s="10"/>
       <c r="P171" s="10"/>
       <c r="Q171" s="10"/>
@@ -13096,7 +13418,7 @@
       <c r="T171" s="10"/>
       <c r="U171" s="10"/>
     </row>
-    <row r="172" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="172" spans="15:21">
       <c r="O172" s="10"/>
       <c r="P172" s="10"/>
       <c r="Q172" s="10"/>
@@ -13105,7 +13427,7 @@
       <c r="T172" s="10"/>
       <c r="U172" s="10"/>
     </row>
-    <row r="173" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="173" spans="15:21">
       <c r="O173" s="10"/>
       <c r="P173" s="10"/>
       <c r="Q173" s="10"/>
@@ -13114,7 +13436,7 @@
       <c r="T173" s="10"/>
       <c r="U173" s="10"/>
     </row>
-    <row r="174" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="174" spans="15:21">
       <c r="O174" s="10"/>
       <c r="P174" s="10"/>
       <c r="Q174" s="10"/>
@@ -13123,7 +13445,7 @@
       <c r="T174" s="10"/>
       <c r="U174" s="10"/>
     </row>
-    <row r="175" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="175" spans="15:21">
       <c r="O175" s="10"/>
       <c r="P175" s="10"/>
       <c r="Q175" s="10"/>
@@ -13132,7 +13454,7 @@
       <c r="T175" s="10"/>
       <c r="U175" s="10"/>
     </row>
-    <row r="176" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="176" spans="15:21">
       <c r="O176" s="10"/>
       <c r="P176" s="10"/>
       <c r="Q176" s="10"/>
@@ -13141,7 +13463,7 @@
       <c r="T176" s="10"/>
       <c r="U176" s="10"/>
     </row>
-    <row r="177" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="177" spans="15:21">
       <c r="O177" s="10"/>
       <c r="P177" s="10"/>
       <c r="Q177" s="10"/>
@@ -13150,7 +13472,7 @@
       <c r="T177" s="10"/>
       <c r="U177" s="10"/>
     </row>
-    <row r="178" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="178" spans="15:21">
       <c r="O178" s="10"/>
       <c r="P178" s="10"/>
       <c r="Q178" s="10"/>
@@ -13159,7 +13481,7 @@
       <c r="T178" s="10"/>
       <c r="U178" s="10"/>
     </row>
-    <row r="179" spans="15:21" x14ac:dyDescent="0.3">
+    <row r="179" spans="15:21">
       <c r="O179" s="10"/>
       <c r="P179" s="10"/>
       <c r="Q179" s="10"/>
@@ -13202,17 +13524,17 @@
       <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="4.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="B1" s="15"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="11" t="s">
         <v>248</v>
       </c>
@@ -13223,7 +13545,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="13">
         <v>1</v>
       </c>
@@ -13234,7 +13556,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="13">
         <v>2</v>
       </c>
@@ -13245,7 +13567,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="13">
         <v>3</v>
       </c>
@@ -13256,7 +13578,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" s="13">
         <v>4</v>
       </c>
@@ -13267,7 +13589,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" s="13">
         <v>5</v>
       </c>
@@ -13278,7 +13600,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" s="13">
         <v>6</v>
       </c>
@@ -13289,7 +13611,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" s="13">
         <v>7</v>
       </c>
@@ -13300,7 +13622,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" s="13">
         <v>8</v>
       </c>
@@ -13324,13 +13646,13 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="4.77734375" style="58" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="65" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="59" t="s">
         <v>248</v>
       </c>
@@ -13338,7 +13660,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -13346,7 +13668,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -13354,7 +13676,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -13362,7 +13684,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -13370,7 +13692,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -13378,7 +13700,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -13386,7 +13708,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2">
       <c r="A8" s="13">
         <v>7</v>
       </c>
@@ -13407,14 +13729,14 @@
       <selection activeCell="B111" sqref="B111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="52.44140625" customWidth="1"/>
     <col min="3" max="3" width="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="14.4" customHeight="1">
       <c r="A1" s="18" t="s">
         <v>1</v>
       </c>
@@ -13425,7 +13747,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="56" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="56" customFormat="1" ht="14.4" customHeight="1">
       <c r="A2" s="38">
         <v>1</v>
       </c>
@@ -13436,7 +13758,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="56" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" s="56" customFormat="1" ht="14.4" customHeight="1">
       <c r="A3" s="38">
         <v>2</v>
       </c>
@@ -13447,7 +13769,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="56" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" s="56" customFormat="1" ht="14.4" customHeight="1">
       <c r="A4" s="38">
         <v>3</v>
       </c>
@@ -13458,7 +13780,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="14.4" customHeight="1">
       <c r="A5" s="38">
         <v>4</v>
       </c>
@@ -13469,7 +13791,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="14.4" customHeight="1">
       <c r="A6" s="38">
         <v>5</v>
       </c>
@@ -13480,7 +13802,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="14.4" customHeight="1">
       <c r="A7" s="38">
         <v>6</v>
       </c>
@@ -13491,7 +13813,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="14.4" customHeight="1">
       <c r="A8" s="38">
         <v>7</v>
       </c>
@@ -13502,7 +13824,7 @@
         <v>9051770999</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="14.4" customHeight="1">
       <c r="A9" s="38">
         <v>8</v>
       </c>
@@ -13513,7 +13835,7 @@
         <v>9903606575</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="14.4" customHeight="1">
       <c r="A10" s="38">
         <v>9</v>
       </c>
@@ -13524,7 +13846,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="14.4" customHeight="1">
       <c r="A11" s="38">
         <v>10</v>
       </c>
@@ -13535,7 +13857,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="14.4" customHeight="1">
       <c r="A12" s="38">
         <v>11</v>
       </c>
@@ -13546,7 +13868,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="14.4" customHeight="1">
       <c r="A13" s="38">
         <v>12</v>
       </c>
@@ -13557,7 +13879,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="14.4" customHeight="1">
       <c r="A14" s="38">
         <v>13</v>
       </c>
@@ -13568,7 +13890,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="14.4" customHeight="1">
       <c r="A15" s="38">
         <v>14</v>
       </c>
@@ -13579,7 +13901,7 @@
         <v>8961111167</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="14.4" customHeight="1">
       <c r="A16" s="38">
         <v>15</v>
       </c>
@@ -13590,7 +13912,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="14.4" customHeight="1">
       <c r="A17" s="38">
         <v>16</v>
       </c>
@@ -13601,7 +13923,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="14.4" customHeight="1">
       <c r="A18" s="38">
         <v>17</v>
       </c>
@@ -13612,7 +13934,7 @@
         <v>7044096127</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="14.4" customHeight="1">
       <c r="A19" s="38">
         <v>18</v>
       </c>
@@ -13623,7 +13945,7 @@
         <v>9831274629</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="14.4" customHeight="1">
       <c r="A20" s="38">
         <v>19</v>
       </c>
@@ -13634,7 +13956,7 @@
         <v>8777257554</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="14.4" customHeight="1">
       <c r="A21" s="38">
         <v>20</v>
       </c>
@@ -13645,7 +13967,7 @@
         <v>3322651531</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="14.4" customHeight="1">
       <c r="A22" s="38">
         <v>21</v>
       </c>
@@ -13656,7 +13978,7 @@
         <v>3324753015</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="14.4" customHeight="1">
       <c r="A23" s="38">
         <v>22</v>
       </c>
@@ -13667,7 +13989,7 @@
         <v>3324753765</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="14.4" customHeight="1">
       <c r="A24" s="38">
         <v>23</v>
       </c>
@@ -13678,7 +14000,7 @@
         <v>3324286903</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="14.4" customHeight="1">
       <c r="A25" s="38">
         <v>24</v>
       </c>
@@ -13689,7 +14011,7 @@
         <v>8902488077</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="14.4" customHeight="1">
       <c r="A26" s="38">
         <v>25</v>
       </c>
@@ -13700,7 +14022,7 @@
         <v>9163741069</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="14.4" customHeight="1">
       <c r="A27" s="38">
         <v>26</v>
       </c>
@@ -13711,7 +14033,7 @@
         <v>3324411691</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="14.4" customHeight="1">
       <c r="A28" s="38">
         <v>27</v>
       </c>
@@ -13722,7 +14044,7 @@
         <v>3324413804</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="14.4" customHeight="1">
       <c r="A29" s="38">
         <v>28</v>
       </c>
@@ -13733,7 +14055,7 @@
         <v>9830688888</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="14.4" customHeight="1">
       <c r="A30" s="38">
         <v>29</v>
       </c>
@@ -13744,7 +14066,7 @@
         <v>9073985531</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="14.4" customHeight="1">
       <c r="A31" s="38">
         <v>30</v>
       </c>
@@ -13755,7 +14077,7 @@
         <v>3324712220</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="14.4" customHeight="1">
       <c r="A32" s="38">
         <v>31</v>
       </c>
@@ -13766,7 +14088,7 @@
         <v>3324131158</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="14.4" customHeight="1">
       <c r="A33" s="38">
         <v>32</v>
       </c>
@@ -13777,7 +14099,7 @@
         <v>9836242629</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="14.4" customHeight="1">
       <c r="A34" s="38">
         <v>33</v>
       </c>
@@ -13788,7 +14110,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="14.4" customHeight="1">
       <c r="A35" s="38">
         <v>34</v>
       </c>
@@ -13799,7 +14121,7 @@
         <v>9051973905</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="14.4" customHeight="1">
       <c r="A36" s="38">
         <v>35</v>
       </c>
@@ -13810,7 +14132,7 @@
         <v>9674850783</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="14.4" customHeight="1">
       <c r="A37" s="38">
         <v>36</v>
       </c>
@@ -13821,7 +14143,7 @@
         <v>9674111783</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="14.4" customHeight="1">
       <c r="A38" s="38">
         <v>37</v>
       </c>
@@ -13832,7 +14154,7 @@
         <v>33218260082</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" ht="14.4" customHeight="1">
       <c r="A39" s="38">
         <v>38</v>
       </c>
@@ -13843,7 +14165,7 @@
         <v>3322879202</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="14.4" customHeight="1">
       <c r="A40" s="38">
         <v>39</v>
       </c>
@@ -13854,7 +14176,7 @@
         <v>3322841546</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" ht="14.4" customHeight="1">
       <c r="A41" s="38">
         <v>40</v>
       </c>
@@ -13865,7 +14187,7 @@
         <v>3322484593</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="14.4" customHeight="1">
       <c r="A42" s="38">
         <v>41</v>
       </c>
@@ -13876,7 +14198,7 @@
         <v>3322297741</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="14.4" customHeight="1">
       <c r="A43" s="38">
         <v>42</v>
       </c>
@@ -13887,7 +14209,7 @@
         <v>3324793241</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="14.4" customHeight="1">
       <c r="A44" s="38">
         <v>43</v>
       </c>
@@ -13898,7 +14220,7 @@
         <v>3324344455</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" ht="14.4" customHeight="1">
       <c r="A45" s="38">
         <v>44</v>
       </c>
@@ -13909,7 +14231,7 @@
         <v>3340083093</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" ht="14.4" customHeight="1">
       <c r="A46" s="38">
         <v>45</v>
       </c>
@@ -13920,7 +14242,7 @@
         <v>3324618002</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" ht="14.4" customHeight="1">
       <c r="A47" s="38">
         <v>46</v>
       </c>
@@ -13931,7 +14253,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" ht="14.4" customHeight="1">
       <c r="A48" s="38">
         <v>47</v>
       </c>
@@ -13942,7 +14264,7 @@
         <v>3324569090</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" ht="14.4" customHeight="1">
       <c r="A49" s="38">
         <v>48</v>
       </c>
@@ -13953,7 +14275,7 @@
         <v>3322233062</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" ht="14.4" customHeight="1">
       <c r="A50" s="38">
         <v>49</v>
       </c>
@@ -13964,7 +14286,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" ht="14.4" customHeight="1">
       <c r="A51" s="38">
         <v>50</v>
       </c>
@@ -13975,7 +14297,7 @@
         <v>3324793600</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" ht="14.4" customHeight="1">
       <c r="A52" s="38">
         <v>51</v>
       </c>
@@ -13986,7 +14308,7 @@
         <v>3324866629</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" ht="14.4" customHeight="1">
       <c r="A53" s="38">
         <v>52</v>
       </c>
@@ -13997,7 +14319,7 @@
         <v>3322848038</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" ht="14.4" customHeight="1">
       <c r="A54" s="38">
         <v>53</v>
       </c>
@@ -14008,7 +14330,7 @@
         <v>905188888</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" ht="14.4" customHeight="1">
       <c r="A55" s="38">
         <v>54</v>
       </c>
@@ -14019,7 +14341,7 @@
         <v>7596949952</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" ht="14.4" customHeight="1">
       <c r="A56" s="38">
         <v>55</v>
       </c>
@@ -14030,7 +14352,7 @@
         <v>7478196910</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" ht="14.4" customHeight="1">
       <c r="A57" s="38">
         <v>56</v>
       </c>
@@ -14041,7 +14363,7 @@
         <v>7044447761</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" ht="14.4" customHeight="1">
       <c r="A58" s="38">
         <v>57</v>
       </c>
@@ -14052,7 +14374,7 @@
         <v>7059600647</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" ht="14.4" customHeight="1">
       <c r="A59" s="38">
         <v>58</v>
       </c>
@@ -14063,7 +14385,7 @@
         <v>3340072444</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" ht="14.4" customHeight="1">
       <c r="A60" s="38">
         <v>59</v>
       </c>
@@ -14074,7 +14396,7 @@
         <v>9903102957</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" ht="14.4" customHeight="1">
       <c r="A61" s="38">
         <v>60</v>
       </c>
@@ -14085,7 +14407,7 @@
         <v>7605080650</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" ht="14.4" customHeight="1">
       <c r="A62" s="38">
         <v>61</v>
       </c>
@@ -14096,7 +14418,7 @@
         <v>3324752135</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" ht="14.4" customHeight="1">
       <c r="A63" s="38">
         <v>62</v>
       </c>
@@ -14107,7 +14429,7 @@
         <v>9674645471</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" ht="14.4" customHeight="1">
       <c r="A64" s="38">
         <v>63</v>
       </c>
@@ -14118,7 +14440,7 @@
         <v>9073681886</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" ht="14.4" customHeight="1">
       <c r="A65" s="38">
         <v>64</v>
       </c>
@@ -14129,7 +14451,7 @@
         <v>3324316997</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" ht="14.4" customHeight="1">
       <c r="A66" s="38">
         <v>65</v>
       </c>
@@ -14140,7 +14462,7 @@
         <v>3322291779</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" ht="14.4" customHeight="1">
       <c r="A67" s="38">
         <v>66</v>
       </c>
@@ -14151,7 +14473,7 @@
         <v>3323215151</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" ht="14.4" customHeight="1">
       <c r="A68" s="38">
         <v>67</v>
       </c>
@@ -14162,7 +14484,7 @@
         <v>3323342404</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" ht="14.4" customHeight="1">
       <c r="A69" s="38">
         <v>68</v>
       </c>
@@ -14173,7 +14495,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" ht="14.4" customHeight="1">
       <c r="A70" s="38">
         <v>69</v>
       </c>
@@ -14184,7 +14506,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" ht="14.4" customHeight="1">
       <c r="A71" s="38">
         <v>70</v>
       </c>
@@ -14195,7 +14517,7 @@
         <v>9606279184</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" ht="14.4" customHeight="1">
       <c r="A72" s="38">
         <v>71</v>
       </c>
@@ -14206,7 +14528,7 @@
         <v>8777867589</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" ht="14.4" customHeight="1">
       <c r="A73" s="38">
         <v>72</v>
       </c>
@@ -14217,7 +14539,7 @@
         <v>8017672075</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" ht="14.4" customHeight="1">
       <c r="A74" s="38">
         <v>73</v>
       </c>
@@ -14228,7 +14550,7 @@
         <v>3324492810</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" ht="14.4" customHeight="1">
       <c r="A75" s="38">
         <v>74</v>
       </c>
@@ -14239,7 +14561,7 @@
         <v>3324967196</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" ht="14.4" customHeight="1">
       <c r="A76" s="38">
         <v>75</v>
       </c>
@@ -14250,7 +14572,7 @@
         <v>9830701347</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" ht="14.4" customHeight="1">
       <c r="A77" s="38">
         <v>76</v>
       </c>
@@ -14261,7 +14583,7 @@
         <v>3324961723</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" ht="14.4" customHeight="1">
       <c r="A78" s="38">
         <v>77</v>
       </c>
@@ -14272,7 +14594,7 @@
         <v>9007792852</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" ht="14.4" customHeight="1">
       <c r="A79" s="38">
         <v>78</v>
       </c>
@@ -14283,7 +14605,7 @@
         <v>8902765583</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" ht="14.4" customHeight="1">
       <c r="A80" s="38">
         <v>79</v>
       </c>
@@ -14294,7 +14616,7 @@
         <v>9331866252</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" ht="14.4" customHeight="1">
       <c r="A81" s="38">
         <v>80</v>
       </c>
@@ -14305,7 +14627,7 @@
         <v>9903540099</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" ht="14.4" customHeight="1">
       <c r="A82" s="38">
         <v>81</v>
       </c>
@@ -14316,7 +14638,7 @@
         <v>8336998663</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" ht="14.4" customHeight="1">
       <c r="A83" s="38">
         <v>82</v>
       </c>
@@ -14327,7 +14649,7 @@
         <v>9339527506</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" ht="14.4" customHeight="1">
       <c r="A84" s="38">
         <v>83</v>
       </c>
@@ -14338,7 +14660,7 @@
         <v>9903312630</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" ht="14.4" customHeight="1">
       <c r="A85" s="38">
         <v>84</v>
       </c>
@@ -14349,7 +14671,7 @@
         <v>9836747400</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" ht="14.4" customHeight="1">
       <c r="A86" s="38">
         <v>85</v>
       </c>
@@ -14360,7 +14682,7 @@
         <v>8100188019</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" ht="14.4" customHeight="1">
       <c r="A87" s="38">
         <v>86</v>
       </c>
@@ -14371,7 +14693,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" ht="14.4" customHeight="1">
       <c r="A88" s="38">
         <v>87</v>
       </c>
@@ -14382,7 +14704,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" ht="14.4" customHeight="1">
       <c r="A89" s="38">
         <v>88</v>
       </c>
@@ -14393,7 +14715,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" ht="14.4" customHeight="1">
       <c r="A90" s="38">
         <v>89</v>
       </c>
@@ -14404,7 +14726,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" ht="14.4" customHeight="1">
       <c r="A91" s="38">
         <v>90</v>
       </c>
@@ -14415,7 +14737,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" ht="14.4" customHeight="1">
       <c r="A92" s="38">
         <v>91</v>
       </c>
@@ -14426,7 +14748,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" ht="14.4" customHeight="1">
       <c r="A93" s="38">
         <v>92</v>
       </c>
@@ -14437,7 +14759,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" ht="14.4" customHeight="1">
       <c r="A94" s="38">
         <v>93</v>
       </c>
@@ -14448,7 +14770,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" ht="14.4" customHeight="1">
       <c r="A95" s="38">
         <v>94</v>
       </c>
@@ -14459,7 +14781,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" ht="14.4" customHeight="1">
       <c r="A96" s="38">
         <v>95</v>
       </c>
@@ -14470,7 +14792,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" ht="14.4" customHeight="1">
       <c r="A97" s="38">
         <v>96</v>
       </c>
@@ -14481,7 +14803,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" ht="14.4" customHeight="1">
       <c r="A98" s="38">
         <v>97</v>
       </c>
@@ -14492,7 +14814,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" ht="14.4" customHeight="1">
       <c r="A99" s="38">
         <v>98</v>
       </c>
@@ -14503,7 +14825,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" ht="14.4" customHeight="1">
       <c r="A100" s="38">
         <v>99</v>
       </c>
@@ -14514,7 +14836,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" ht="14.4" customHeight="1">
       <c r="A101" s="38">
         <v>100</v>
       </c>
@@ -14525,7 +14847,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" ht="14.4" customHeight="1">
       <c r="A102" s="38">
         <v>101</v>
       </c>
@@ -14536,7 +14858,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" ht="14.4" customHeight="1">
       <c r="A103" s="38">
         <v>102</v>
       </c>
@@ -14547,7 +14869,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" ht="14.4" customHeight="1">
       <c r="A104" s="38">
         <v>103</v>
       </c>
@@ -14558,7 +14880,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" ht="14.4" customHeight="1">
       <c r="A105" s="38">
         <v>104</v>
       </c>
@@ -14569,7 +14891,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" ht="14.4" customHeight="1">
       <c r="A106" s="38">
         <v>105</v>
       </c>
@@ -14580,7 +14902,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" ht="14.4" customHeight="1">
       <c r="A107" s="38">
         <v>106</v>
       </c>
@@ -14591,7 +14913,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" ht="14.4" customHeight="1">
       <c r="A108" s="38">
         <v>107</v>
       </c>
@@ -14602,7 +14924,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" ht="14.4" customHeight="1">
       <c r="A109" s="38">
         <v>108</v>
       </c>
@@ -14613,7 +14935,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" ht="14.4" customHeight="1">
       <c r="A110" s="38">
         <v>109</v>
       </c>
@@ -14624,7 +14946,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" ht="14.4" customHeight="1">
       <c r="A111" s="38">
         <v>110</v>
       </c>

--- a/Offline/BusinessManagement/Marketing/AI marketing/AI Workshop Schools-Colleges.xlsx
+++ b/Offline/BusinessManagement/Marketing/AI marketing/AI Workshop Schools-Colleges.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Marketing\AI marketing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86AABF82-F0ED-41FE-B264-A98AECDA8C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88764DD3-9353-4528-8239-3B4045C3BC91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="506" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="666">
   <si>
     <t>CBSE</t>
   </si>
@@ -1988,12 +1988,172 @@
   <si>
     <t>Dharmatala</t>
   </si>
+  <si>
+    <t>Nop[any High School</t>
+  </si>
+  <si>
+    <t>info@nopanyhigh.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4603-5857 </t>
+  </si>
+  <si>
+    <t>Girish Park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St. Mary </t>
+  </si>
+  <si>
+    <t>https://stmaryssch.in/smscal09@gmail.com</t>
+  </si>
+  <si>
+    <t>22298451</t>
+  </si>
+  <si>
+    <t>Park English School</t>
+  </si>
+  <si>
+    <t xml:space="preserve">info@theparkenglishschool.com
+</t>
+  </si>
+  <si>
+    <t>033 2229 5426</t>
+  </si>
+  <si>
+    <t>Loreto Day Eliott Road</t>
+  </si>
+  <si>
+    <t>leroffice22@gmail.com </t>
+  </si>
+  <si>
+    <t>033-2229-4256</t>
+  </si>
+  <si>
+    <t>St Augustine's Day School</t>
+  </si>
+  <si>
+    <t>office.kol@stads.in</t>
+  </si>
+  <si>
+    <t>8336076103</t>
+  </si>
+  <si>
+    <t>Harrow Hall</t>
+  </si>
+  <si>
+    <t>harrowhallkolkata@gmail.com</t>
+  </si>
+  <si>
+    <t>0353-32579273</t>
+  </si>
+  <si>
+    <t>Salt Lake Point School</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> saltlake.point.school@dadooindia.com</t>
+  </si>
+  <si>
+    <t>Agrasain Boys School</t>
+  </si>
+  <si>
+    <t>absceo@rediffmail.com.</t>
+  </si>
+  <si>
+    <t>2655 4544 /4547</t>
+  </si>
+  <si>
+    <t>Our Lady Queen's of The Mission</t>
+  </si>
+  <si>
+    <t>ladyqueen_pc@yahoo.co.in</t>
+  </si>
+  <si>
+    <t>33 22908196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our Lady Queen's of The Mission Salt Lake </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> olqmssaltlake@gmail.com</t>
+  </si>
+  <si>
+    <t>033 2359 8969</t>
+  </si>
+  <si>
+    <t>Modern High School for Girls</t>
+  </si>
+  <si>
+    <t>@mhsforgirls.edu.in</t>
+  </si>
+  <si>
+    <t>3322875326</t>
+  </si>
+  <si>
+    <t>St . Sebastians</t>
+  </si>
+  <si>
+    <t>mpr@stsebastiansc.org.</t>
+  </si>
+  <si>
+    <t>93307 45747</t>
+  </si>
+  <si>
+    <t>Mhadevi Birla Sishu Bvihar</t>
+  </si>
+  <si>
+    <t>office.mbsv@ashokhall.org</t>
+  </si>
+  <si>
+    <t>074398 04806</t>
+  </si>
+  <si>
+    <t>Purwanchal Vidya mandir</t>
+  </si>
+  <si>
+    <t>Purwanchal_vm@rediffmail.com</t>
+  </si>
+  <si>
+    <t>033 2355 7581</t>
+  </si>
+  <si>
+    <t>WWA Cossipore English</t>
+  </si>
+  <si>
+    <t>isawwaces@gmail.com</t>
+  </si>
+  <si>
+    <t>94331 29908</t>
+  </si>
+  <si>
+    <t>Marias Day School</t>
+  </si>
+  <si>
+    <t>9830027754</t>
+  </si>
+  <si>
+    <t>amitavadatta@marias.co.in</t>
+  </si>
+  <si>
+    <t>Chairman</t>
+  </si>
+  <si>
+    <t>Saifee Golden Jubilee</t>
+  </si>
+  <si>
+    <t>contact@sgjskolkata.com</t>
+  </si>
+  <si>
+    <t>2229 8684</t>
+  </si>
+  <si>
+    <t>Sacred Heart Church School  Bowbazar</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2167,6 +2327,36 @@
     <font>
       <sz val="11"/>
       <color rgb="FF363636"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF4D5156"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF212529"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF70757A"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -2402,7 +2592,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2545,6 +2735,10 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2566,10 +2760,13 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2878,23 +3075,23 @@
     <row r="2" spans="2:18" ht="34.200000000000003" thickBot="1">
       <c r="B2" s="27"/>
       <c r="C2" s="28"/>
-      <c r="D2" s="69" t="s">
+      <c r="D2" s="73" t="s">
         <v>293</v>
       </c>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="71"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="75"/>
       <c r="I2" s="29"/>
       <c r="K2" s="27"/>
       <c r="L2" s="28"/>
-      <c r="M2" s="72" t="s">
+      <c r="M2" s="76" t="s">
         <v>374</v>
       </c>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="74"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="78"/>
       <c r="R2" s="29"/>
     </row>
     <row r="3" spans="2:18">
@@ -2910,7 +3107,7 @@
       </c>
       <c r="D4" s="16">
         <f>MAX('School-Details'!A:A)</f>
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="F4" s="21" t="s">
         <v>265</v>
@@ -3123,17 +3320,17 @@
         <v>34</v>
       </c>
       <c r="F11" s="14"/>
-      <c r="G11" s="68" t="s">
+      <c r="G11" s="72" t="s">
         <v>210</v>
       </c>
-      <c r="H11" s="68"/>
+      <c r="H11" s="72"/>
       <c r="I11" s="31"/>
       <c r="K11" s="30"/>
       <c r="O11" s="14"/>
-      <c r="P11" s="68" t="s">
+      <c r="P11" s="72" t="s">
         <v>210</v>
       </c>
-      <c r="Q11" s="68"/>
+      <c r="Q11" s="72"/>
       <c r="R11" s="31"/>
     </row>
     <row r="12" spans="2:18">
@@ -3805,13 +4002,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:V154"/>
+  <dimension ref="A1:V172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D149" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D166" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G154" sqref="G154"/>
+      <selection pane="bottomRight" activeCell="D172" sqref="D172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -9782,10 +9979,10 @@
       <c r="C148" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D148" s="75" t="s">
+      <c r="D148" s="68" t="s">
         <v>587</v>
       </c>
-      <c r="F148" s="75">
+      <c r="F148" s="68">
         <v>8232016670</v>
       </c>
       <c r="G148" s="40" t="s">
@@ -9848,10 +10045,10 @@
       <c r="C151" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E151" s="1" t="s">
+      <c r="E151" s="3" t="s">
         <v>600</v>
       </c>
-      <c r="F151" s="76" t="s">
+      <c r="F151" s="69" t="s">
         <v>601</v>
       </c>
       <c r="G151" s="40" t="s">
@@ -9871,7 +10068,7 @@
       <c r="D152" s="3" t="s">
         <v>603</v>
       </c>
-      <c r="F152" s="77" t="s">
+      <c r="F152" s="70" t="s">
         <v>605</v>
       </c>
       <c r="G152" s="40" t="s">
@@ -9891,7 +10088,7 @@
       <c r="D153" s="3" t="s">
         <v>603</v>
       </c>
-      <c r="F153" s="77" t="s">
+      <c r="F153" s="70" t="s">
         <v>608</v>
       </c>
       <c r="G153" s="40" t="s">
@@ -9911,11 +10108,323 @@
       <c r="D154" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="F154" s="78">
+      <c r="F154" s="71">
         <v>3322127923</v>
       </c>
       <c r="G154" s="40" t="s">
         <v>612</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="A155" s="2">
+        <v>154</v>
+      </c>
+      <c r="B155" s="17" t="s">
+        <v>613</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D155" s="79" t="s">
+        <v>614</v>
+      </c>
+      <c r="F155" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="G155" s="40" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="28.8">
+      <c r="A156" s="2">
+        <v>155</v>
+      </c>
+      <c r="B156" s="17" t="s">
+        <v>617</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="F156" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="G156" s="40" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="43.2">
+      <c r="A157" s="2">
+        <v>156</v>
+      </c>
+      <c r="B157" s="17" t="s">
+        <v>620</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="F157" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="G157" s="40" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="A158" s="2">
+        <v>157</v>
+      </c>
+      <c r="B158" s="17" t="s">
+        <v>623</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D158" s="80" t="s">
+        <v>624</v>
+      </c>
+      <c r="F158" s="80" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="A159" s="2">
+        <v>158</v>
+      </c>
+      <c r="B159" s="17" t="s">
+        <v>626</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="F159" s="7" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="28.8">
+      <c r="A160" s="2">
+        <v>159</v>
+      </c>
+      <c r="B160" s="17" t="s">
+        <v>629</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="F160" s="7" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" ht="34.200000000000003">
+      <c r="A161" s="2">
+        <v>160</v>
+      </c>
+      <c r="B161" s="17" t="s">
+        <v>632</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D161" s="81" t="s">
+        <v>633</v>
+      </c>
+      <c r="F161" s="82">
+        <v>9830387755</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="A162" s="2">
+        <v>161</v>
+      </c>
+      <c r="B162" s="17" t="s">
+        <v>634</v>
+      </c>
+      <c r="D162" s="80" t="s">
+        <v>635</v>
+      </c>
+      <c r="F162" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="G162" s="40" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" ht="28.8">
+      <c r="A163" s="2">
+        <v>162</v>
+      </c>
+      <c r="B163" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D163" s="6" t="s">
+        <v>638</v>
+      </c>
+      <c r="F163" s="69" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" ht="43.2">
+      <c r="A164" s="2">
+        <v>163</v>
+      </c>
+      <c r="B164" s="17" t="s">
+        <v>640</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="F164" s="83" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165" s="2">
+        <v>164</v>
+      </c>
+      <c r="B165" s="17" t="s">
+        <v>643</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D165" s="80" t="s">
+        <v>644</v>
+      </c>
+      <c r="F165" s="7" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166" s="2">
+        <v>165</v>
+      </c>
+      <c r="B166" s="17" t="s">
+        <v>646</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="F166" s="7" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="28.8">
+      <c r="A167" s="2">
+        <v>166</v>
+      </c>
+      <c r="B167" s="17" t="s">
+        <v>649</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="F167" s="83" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" ht="28.8">
+      <c r="A168" s="2">
+        <v>167</v>
+      </c>
+      <c r="B168" s="17" t="s">
+        <v>652</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="F168" s="7" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="A169" s="2">
+        <v>168</v>
+      </c>
+      <c r="B169" s="17" t="s">
+        <v>655</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="F169" s="83" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="28.8">
+      <c r="A170" s="2">
+        <v>169</v>
+      </c>
+      <c r="B170" s="17" t="s">
+        <v>658</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="F170" s="7" t="s">
+        <v>659</v>
+      </c>
+      <c r="H170" s="1" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" ht="28.8">
+      <c r="A171" s="2">
+        <v>170</v>
+      </c>
+      <c r="B171" s="17" t="s">
+        <v>662</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="F171" s="7" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" ht="28.8">
+      <c r="A172" s="2">
+        <v>171</v>
+      </c>
+      <c r="B172" s="17" t="s">
+        <v>665</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -10039,10 +10548,22 @@
     <hyperlink ref="D152" r:id="rId108" xr:uid="{CEA61495-BA53-4323-B5B5-B0D343A466C2}"/>
     <hyperlink ref="D153" r:id="rId109" xr:uid="{D91721D0-C634-4E17-A660-2768F624CC55}"/>
     <hyperlink ref="D154" r:id="rId110" xr:uid="{395E5009-2A51-4B0F-AA35-D308881D70A5}"/>
+    <hyperlink ref="E151" r:id="rId111" xr:uid="{EB8BDEA9-8D7C-4512-9609-22C399A1E5E1}"/>
+    <hyperlink ref="D156" r:id="rId112" xr:uid="{4672CCF0-EAA0-48BC-99B6-F99FF904EBEA}"/>
+    <hyperlink ref="D157" r:id="rId113" xr:uid="{3DF7E791-A8D2-4F43-87DE-2D15335C8536}"/>
+    <hyperlink ref="D159" r:id="rId114" xr:uid="{6BD13231-CD72-47D2-B1EC-707621590AD6}"/>
+    <hyperlink ref="D160" r:id="rId115" xr:uid="{4726956E-A447-4C65-B7DE-AB76C67A34EF}"/>
+    <hyperlink ref="D163" r:id="rId116" xr:uid="{36C0E7B9-B6C5-4E44-8A90-DF4470EE8192}"/>
+    <hyperlink ref="D166" r:id="rId117" xr:uid="{867B4564-D66C-4433-B106-ADFC2ADC1B69}"/>
+    <hyperlink ref="D167" r:id="rId118" xr:uid="{3B08B30E-41DE-4128-9C85-17D250250609}"/>
+    <hyperlink ref="D168" r:id="rId119" xr:uid="{658084B3-C571-45A7-B8FA-58F70F1E2AD6}"/>
+    <hyperlink ref="D169" r:id="rId120" xr:uid="{85B4AB4C-E75C-4874-A099-809203BD2ADF}"/>
+    <hyperlink ref="D170" r:id="rId121" xr:uid="{523FCCC4-AC6B-4BF2-AD11-778F606CADDC}"/>
+    <hyperlink ref="D171" r:id="rId122" xr:uid="{55FF22FB-ACC6-4F17-AAEB-B8C419A69203}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId111"/>
-  <legacyDrawing r:id="rId112"/>
+  <pageSetup orientation="portrait" r:id="rId123"/>
+  <legacyDrawing r:id="rId124"/>
 </worksheet>
 </file>
 

--- a/Offline/BusinessManagement/Marketing/AI marketing/AI Workshop Schools-Colleges.xlsx
+++ b/Offline/BusinessManagement/Marketing/AI marketing/AI Workshop Schools-Colleges.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Marketing\AI marketing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88764DD3-9353-4528-8239-3B4045C3BC91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="506" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="506" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="8" r:id="rId1"/>
@@ -23,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'School-Details'!$A$1:$V$124</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,13 +41,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>del</author>
     <author>User</author>
   </authors>
   <commentList>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -72,7 +71,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M28" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="M28" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -91,12 +90,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>del</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -125,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="734">
   <si>
     <t>CBSE</t>
   </si>
@@ -2148,12 +2147,218 @@
   <si>
     <t>Sacred Heart Church School  Bowbazar</t>
   </si>
+  <si>
+    <t>9007111899</t>
+  </si>
+  <si>
+    <t>St. George High School</t>
+  </si>
+  <si>
+    <t>9339980745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St George Day </t>
+  </si>
+  <si>
+    <t>9339146821</t>
+  </si>
+  <si>
+    <t>Info@Dwpskolkata.In</t>
+  </si>
+  <si>
+    <t>9007175757</t>
+  </si>
+  <si>
+    <t>Delhi World PUBLIC school Narendrapur</t>
+  </si>
+  <si>
+    <t>Delhi World PUBLIC school Barasat</t>
+  </si>
+  <si>
+    <t>info@dwpsbarasat.com</t>
+  </si>
+  <si>
+    <t>8585858012</t>
+  </si>
+  <si>
+    <t>Oxford House Ballygunj</t>
+  </si>
+  <si>
+    <t>oxfordhousepurbachal@gmail.com</t>
+  </si>
+  <si>
+    <t>tel:9038724147</t>
+  </si>
+  <si>
+    <t>Ruby Park Public School</t>
+  </si>
+  <si>
+    <t>info@rubypark.com</t>
+  </si>
+  <si>
+    <t>8687600600</t>
+  </si>
+  <si>
+    <t>BBIT School</t>
+  </si>
+  <si>
+    <t>principalschool@bbit.edu.in</t>
+  </si>
+  <si>
+    <t>8420116666 / 8420123333</t>
+  </si>
+  <si>
+    <t>Shri Sikshayatan School</t>
+  </si>
+  <si>
+    <t>principal@shrishikshayatanschool.com</t>
+  </si>
+  <si>
+    <t> 33 22826350</t>
+  </si>
+  <si>
+    <t>Camellia Public Schools</t>
+  </si>
+  <si>
+    <t>cps.madhyamgram@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+9007030126 </t>
+  </si>
+  <si>
+    <t>The Wisdom Tree Global School</t>
+  </si>
+  <si>
+    <t>ADMISSIONS@TWTGSKOLKATA.ORG</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8240042106</t>
+  </si>
+  <si>
+    <t>Rahara</t>
+  </si>
+  <si>
+    <t>Delhi Public Secondary School</t>
+  </si>
+  <si>
+    <t>dpssbarasat@gmail.com</t>
+  </si>
+  <si>
+    <t>83340 37777</t>
+  </si>
+  <si>
+    <t>infodps2014@gmail.com</t>
+  </si>
+  <si>
+    <t>Dayananad Public School, Chinarpark</t>
+  </si>
+  <si>
+    <t>Dayananad Public School, Barasat</t>
+  </si>
+  <si>
+    <t>Gokhale Memorial School</t>
+  </si>
+  <si>
+    <t>gokhale_memorial@yahoo.in</t>
+  </si>
+  <si>
+    <t>2223-3062</t>
+  </si>
+  <si>
+    <t>Kendriya Vidyalaya Ballygunj</t>
+  </si>
+  <si>
+    <t>principalballygunge@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9830047462 </t>
+  </si>
+  <si>
+    <t>Kendriya Vidyalaya Fort Williams</t>
+  </si>
+  <si>
+    <t>kvfortwilliamkolkata@gmail.com</t>
+  </si>
+  <si>
+    <t>033-22485117</t>
+  </si>
+  <si>
+    <t>The Newtown School</t>
+  </si>
+  <si>
+    <t>http://ntskolkata.org/</t>
+  </si>
+  <si>
+    <t>8584036704
+8584036709</t>
+  </si>
+  <si>
+    <t>Kendriya Vidyalaya Jessore Road</t>
+  </si>
+  <si>
+    <t>kvofdumdum1986@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 33 – 2559 2500</t>
+  </si>
+  <si>
+    <t>Kendriya Vidyalaya Salt Lake</t>
+  </si>
+  <si>
+    <t>principalsaltlake@gmail.com</t>
+  </si>
+  <si>
+    <t>033-23371242</t>
+  </si>
+  <si>
+    <t>Indira Gandhi Memorial High School</t>
+  </si>
+  <si>
+    <t>https://dumdum.igmhs.org/#</t>
+  </si>
+  <si>
+    <t>9903780222</t>
+  </si>
+  <si>
+    <t>Sushila Birla Girl's School</t>
+  </si>
+  <si>
+    <t>principal@sbgskolkata.ac.in</t>
+  </si>
+  <si>
+    <t>33 2287 9006</t>
+  </si>
+  <si>
+    <t>Ashoka Hall's Girl Higher Secondary School</t>
+  </si>
+  <si>
+    <t>office.ahghss@ashokhall.org</t>
+  </si>
+  <si>
+    <t>Bhavan's Gangabaux</t>
+  </si>
+  <si>
+    <t>033 23351249</t>
+  </si>
+  <si>
+    <t>communicate@bhavansgkvidyamandir.edu.in</t>
+  </si>
+  <si>
+    <t>Abhinava Bharati</t>
+  </si>
+  <si>
+    <t>https://abhinavbharati.co.in/#</t>
+  </si>
+  <si>
+    <t>22823516 / 5215</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="32">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="38">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2357,6 +2562,42 @@
     <font>
       <sz val="8"/>
       <color rgb="FF70757A"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Oswald"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4F4A4A"/>
+      <name val="Texgyreadventorbold"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF5F6368"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF3E3D3D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -2592,7 +2833,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2739,6 +2980,13 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2760,13 +3008,15 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3047,10 +3297,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
@@ -3075,23 +3325,23 @@
     <row r="2" spans="2:18" ht="34.200000000000003" thickBot="1">
       <c r="B2" s="27"/>
       <c r="C2" s="28"/>
-      <c r="D2" s="73" t="s">
+      <c r="D2" s="78" t="s">
         <v>293</v>
       </c>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="75"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="80"/>
       <c r="I2" s="29"/>
       <c r="K2" s="27"/>
       <c r="L2" s="28"/>
-      <c r="M2" s="76" t="s">
+      <c r="M2" s="81" t="s">
         <v>374</v>
       </c>
-      <c r="N2" s="77"/>
-      <c r="O2" s="77"/>
-      <c r="P2" s="77"/>
-      <c r="Q2" s="78"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="83"/>
       <c r="R2" s="29"/>
     </row>
     <row r="3" spans="2:18">
@@ -3107,7 +3357,7 @@
       </c>
       <c r="D4" s="16">
         <f>MAX('School-Details'!A:A)</f>
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="F4" s="21" t="s">
         <v>265</v>
@@ -3320,17 +3570,17 @@
         <v>34</v>
       </c>
       <c r="F11" s="14"/>
-      <c r="G11" s="72" t="s">
+      <c r="G11" s="77" t="s">
         <v>210</v>
       </c>
-      <c r="H11" s="72"/>
+      <c r="H11" s="77"/>
       <c r="I11" s="31"/>
       <c r="K11" s="30"/>
       <c r="O11" s="14"/>
-      <c r="P11" s="72" t="s">
+      <c r="P11" s="77" t="s">
         <v>210</v>
       </c>
-      <c r="Q11" s="72"/>
+      <c r="Q11" s="77"/>
       <c r="R11" s="31"/>
     </row>
     <row r="12" spans="2:18">
@@ -3491,7 +3741,7 @@
       </c>
       <c r="D16" s="14">
         <f>COUNTIF('School-Details'!V:V,C16)</f>
-        <v>91</v>
+        <v>162</v>
       </c>
       <c r="F16" s="22">
         <v>45383</v>
@@ -3567,7 +3817,7 @@
       </c>
       <c r="D18" s="16">
         <f>SUM(D11:D17)</f>
-        <v>125</v>
+        <v>196</v>
       </c>
       <c r="F18" s="22">
         <v>45444</v>
@@ -3706,7 +3956,7 @@
       </c>
       <c r="D22" s="14">
         <f>COUNTIF('School-Details'!U:U,C22)</f>
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="F22" s="22">
         <v>45566</v>
@@ -3737,7 +3987,7 @@
       </c>
       <c r="D23" s="14">
         <f>SUM(D21:D22)</f>
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="F23" s="22">
         <v>45597</v>
@@ -3776,7 +4026,7 @@
       </c>
       <c r="D24" s="14">
         <f>COUNTIF('School-Details'!U:U,C24)</f>
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F24" s="22">
         <v>45627</v>
@@ -3816,7 +4066,7 @@
       </c>
       <c r="D25" s="14">
         <f>SUM(D24)</f>
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F25" s="16" t="s">
         <v>244</v>
@@ -3922,7 +4172,7 @@
       </c>
       <c r="D29" s="16">
         <f>D23+D25+D28</f>
-        <v>125</v>
+        <v>195</v>
       </c>
       <c r="I29" s="31"/>
       <c r="K29" s="33" t="s">
@@ -4001,14 +4251,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:V172"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D166" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="J182" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D172" sqref="D172"/>
+      <selection pane="bottomRight" activeCell="T197" sqref="T197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -7016,7 +7266,7 @@
         <v>4</v>
       </c>
       <c r="T67" s="10">
-        <f t="shared" ref="T67:T126" si="2">SUM(O67:S67)</f>
+        <f t="shared" ref="T67:T130" si="2">SUM(O67:S67)</f>
         <v>22</v>
       </c>
       <c r="U67" s="10">
@@ -7064,7 +7314,7 @@
         <v>20</v>
       </c>
       <c r="U68" s="10">
-        <f t="shared" ref="U68:U126" si="3">ROUND(T68/5,0)</f>
+        <f t="shared" ref="U68:U131" si="3">ROUND(T68/5,0)</f>
         <v>4</v>
       </c>
       <c r="V68" s="10" t="s">
@@ -9508,6 +9758,32 @@
       <c r="H127" s="1" t="s">
         <v>472</v>
       </c>
+      <c r="O127" s="1">
+        <v>1</v>
+      </c>
+      <c r="P127" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q127" s="1">
+        <v>4</v>
+      </c>
+      <c r="R127" s="1">
+        <v>4</v>
+      </c>
+      <c r="S127" s="1">
+        <v>4</v>
+      </c>
+      <c r="T127" s="1">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="U127" s="1">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="V127" s="10" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="128" spans="1:22" ht="28.8">
       <c r="A128" s="2">
@@ -9531,8 +9807,34 @@
       <c r="H128" s="1" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="129" spans="1:8">
+      <c r="O128" s="1">
+        <v>3</v>
+      </c>
+      <c r="P128" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q128" s="1">
+        <v>4</v>
+      </c>
+      <c r="R128" s="1">
+        <v>4</v>
+      </c>
+      <c r="S128" s="1">
+        <v>4</v>
+      </c>
+      <c r="T128" s="1">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="U128" s="1">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="V128" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="129" spans="1:22">
       <c r="A129" s="2">
         <v>128</v>
       </c>
@@ -9554,8 +9856,34 @@
       <c r="H129" s="1" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" ht="28.8">
+      <c r="O129" s="1">
+        <v>2</v>
+      </c>
+      <c r="P129" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q129" s="1">
+        <v>4</v>
+      </c>
+      <c r="R129" s="1">
+        <v>4</v>
+      </c>
+      <c r="S129" s="1">
+        <v>4</v>
+      </c>
+      <c r="T129" s="1">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="U129" s="1">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="V129" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="130" spans="1:22" ht="28.8">
       <c r="A130" s="2">
         <v>129</v>
       </c>
@@ -9577,8 +9905,34 @@
       <c r="H130" s="1" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" ht="28.8">
+      <c r="O130" s="1">
+        <v>2</v>
+      </c>
+      <c r="P130" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q130" s="1">
+        <v>4</v>
+      </c>
+      <c r="R130" s="1">
+        <v>4</v>
+      </c>
+      <c r="S130" s="1">
+        <v>4</v>
+      </c>
+      <c r="T130" s="1">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="U130" s="1">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="V130" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="131" spans="1:22" ht="28.8">
       <c r="A131" s="2">
         <v>130</v>
       </c>
@@ -9600,8 +9954,34 @@
       <c r="H131" s="1" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" ht="28.8">
+      <c r="O131" s="1">
+        <v>1</v>
+      </c>
+      <c r="P131" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q131" s="1">
+        <v>4</v>
+      </c>
+      <c r="R131" s="1">
+        <v>4</v>
+      </c>
+      <c r="S131" s="1">
+        <v>4</v>
+      </c>
+      <c r="T131" s="1">
+        <f t="shared" ref="T131:T194" si="4">SUM(O131:S131)</f>
+        <v>17</v>
+      </c>
+      <c r="U131" s="1">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="V131" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="132" spans="1:22" ht="28.8">
       <c r="A132" s="2">
         <v>131</v>
       </c>
@@ -9623,8 +10003,34 @@
       <c r="H132" s="1" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" ht="28.8">
+      <c r="O132" s="1">
+        <v>1</v>
+      </c>
+      <c r="P132" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q132" s="1">
+        <v>4</v>
+      </c>
+      <c r="R132" s="1">
+        <v>4</v>
+      </c>
+      <c r="S132" s="1">
+        <v>4</v>
+      </c>
+      <c r="T132" s="1">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="U132" s="1">
+        <f t="shared" ref="U132:U195" si="5">ROUND(T132/5,0)</f>
+        <v>3</v>
+      </c>
+      <c r="V132" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="133" spans="1:22" ht="28.8">
       <c r="A133" s="2">
         <v>132</v>
       </c>
@@ -9646,8 +10052,34 @@
       <c r="H133" s="1" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" ht="28.8">
+      <c r="O133" s="1">
+        <v>1</v>
+      </c>
+      <c r="P133" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q133" s="1">
+        <v>5</v>
+      </c>
+      <c r="R133" s="1">
+        <v>4</v>
+      </c>
+      <c r="S133" s="1">
+        <v>4</v>
+      </c>
+      <c r="T133" s="1">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="U133" s="1">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="V133" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="134" spans="1:22" ht="28.8">
       <c r="A134" s="2">
         <v>133</v>
       </c>
@@ -9669,8 +10101,34 @@
       <c r="H134" s="1" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" ht="28.8">
+      <c r="O134" s="1">
+        <v>3</v>
+      </c>
+      <c r="P134" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q134" s="1">
+        <v>5</v>
+      </c>
+      <c r="R134" s="1">
+        <v>5</v>
+      </c>
+      <c r="S134" s="1">
+        <v>5</v>
+      </c>
+      <c r="T134" s="1">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="U134" s="1">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="V134" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="135" spans="1:22" ht="28.8">
       <c r="A135" s="2">
         <v>134</v>
       </c>
@@ -9692,8 +10150,34 @@
       <c r="H135" s="1" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" ht="28.8">
+      <c r="O135" s="1">
+        <v>2</v>
+      </c>
+      <c r="P135" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q135" s="1">
+        <v>4</v>
+      </c>
+      <c r="R135" s="1">
+        <v>4</v>
+      </c>
+      <c r="S135" s="1">
+        <v>4</v>
+      </c>
+      <c r="T135" s="1">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="U135" s="1">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="V135" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="136" spans="1:22" ht="28.8">
       <c r="A136" s="2">
         <v>135</v>
       </c>
@@ -9715,8 +10199,34 @@
       <c r="H136" s="1" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" ht="28.8">
+      <c r="O136" s="1">
+        <v>5</v>
+      </c>
+      <c r="P136" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q136" s="1">
+        <v>5</v>
+      </c>
+      <c r="R136" s="1">
+        <v>4</v>
+      </c>
+      <c r="S136" s="1">
+        <v>4</v>
+      </c>
+      <c r="T136" s="1">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="U136" s="1">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="V136" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="137" spans="1:22" ht="28.8">
       <c r="A137" s="2">
         <v>136</v>
       </c>
@@ -9738,8 +10248,34 @@
       <c r="H137" s="1" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" ht="28.8">
+      <c r="O137" s="1">
+        <v>1</v>
+      </c>
+      <c r="P137" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q137" s="1">
+        <v>4</v>
+      </c>
+      <c r="R137" s="1">
+        <v>4</v>
+      </c>
+      <c r="S137" s="1">
+        <v>4</v>
+      </c>
+      <c r="T137" s="1">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="U137" s="1">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="V137" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="138" spans="1:22" ht="28.8">
       <c r="A138" s="2">
         <v>137</v>
       </c>
@@ -9761,8 +10297,34 @@
       <c r="H138" s="1" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" ht="28.8">
+      <c r="O138" s="1">
+        <v>1</v>
+      </c>
+      <c r="P138" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q138" s="1">
+        <v>4</v>
+      </c>
+      <c r="R138" s="1">
+        <v>4</v>
+      </c>
+      <c r="S138" s="1">
+        <v>4</v>
+      </c>
+      <c r="T138" s="1">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="U138" s="1">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="V138" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="139" spans="1:22" ht="28.8">
       <c r="A139" s="2">
         <v>138</v>
       </c>
@@ -9784,8 +10346,34 @@
       <c r="H139" s="1" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" ht="28.8">
+      <c r="O139" s="1">
+        <v>1</v>
+      </c>
+      <c r="P139" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q139" s="1">
+        <v>4</v>
+      </c>
+      <c r="R139" s="1">
+        <v>4</v>
+      </c>
+      <c r="S139" s="1">
+        <v>5</v>
+      </c>
+      <c r="T139" s="1">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="U139" s="1">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="V139" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="140" spans="1:22" ht="28.8">
       <c r="A140" s="2">
         <v>139</v>
       </c>
@@ -9807,8 +10395,34 @@
       <c r="H140" s="1" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" ht="28.8">
+      <c r="O140" s="1">
+        <v>1</v>
+      </c>
+      <c r="P140" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q140" s="1">
+        <v>4</v>
+      </c>
+      <c r="R140" s="1">
+        <v>5</v>
+      </c>
+      <c r="S140" s="1">
+        <v>4</v>
+      </c>
+      <c r="T140" s="1">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="U140" s="1">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="V140" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="141" spans="1:22" ht="28.8">
       <c r="A141" s="2">
         <v>140</v>
       </c>
@@ -9830,8 +10444,34 @@
       <c r="H141" s="1" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" ht="28.8">
+      <c r="O141" s="1">
+        <v>1</v>
+      </c>
+      <c r="P141" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q141" s="1">
+        <v>5</v>
+      </c>
+      <c r="R141" s="1">
+        <v>4</v>
+      </c>
+      <c r="S141" s="1">
+        <v>5</v>
+      </c>
+      <c r="T141" s="1">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="U141" s="1">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="V141" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="142" spans="1:22" ht="28.8">
       <c r="A142" s="2">
         <v>141</v>
       </c>
@@ -9853,8 +10493,34 @@
       <c r="H142" s="1" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" ht="28.8">
+      <c r="O142" s="1">
+        <v>1</v>
+      </c>
+      <c r="P142" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q142" s="1">
+        <v>5</v>
+      </c>
+      <c r="R142" s="1">
+        <v>4</v>
+      </c>
+      <c r="S142" s="1">
+        <v>5</v>
+      </c>
+      <c r="T142" s="1">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="U142" s="1">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="V142" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="143" spans="1:22" ht="28.8">
       <c r="A143" s="2">
         <v>142</v>
       </c>
@@ -9876,8 +10542,34 @@
       <c r="H143" s="1" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="144" spans="1:8" ht="28.8">
+      <c r="O143" s="1">
+        <v>1</v>
+      </c>
+      <c r="P143" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q143" s="1">
+        <v>5</v>
+      </c>
+      <c r="R143" s="1">
+        <v>4</v>
+      </c>
+      <c r="S143" s="1">
+        <v>5</v>
+      </c>
+      <c r="T143" s="1">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="U143" s="1">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="V143" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="144" spans="1:22" ht="28.8">
       <c r="A144" s="2">
         <v>143</v>
       </c>
@@ -9899,8 +10591,34 @@
       <c r="H144" s="1" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" ht="28.8">
+      <c r="O144" s="1">
+        <v>1</v>
+      </c>
+      <c r="P144" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q144" s="1">
+        <v>4</v>
+      </c>
+      <c r="R144" s="1">
+        <v>4</v>
+      </c>
+      <c r="S144" s="1">
+        <v>4</v>
+      </c>
+      <c r="T144" s="1">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="U144" s="1">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="V144" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="145" spans="1:22" ht="28.8">
       <c r="A145" s="2">
         <v>144</v>
       </c>
@@ -9922,8 +10640,34 @@
       <c r="H145" s="1" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" ht="43.2">
+      <c r="O145" s="1">
+        <v>1</v>
+      </c>
+      <c r="P145" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q145" s="1">
+        <v>5</v>
+      </c>
+      <c r="R145" s="1">
+        <v>5</v>
+      </c>
+      <c r="S145" s="1">
+        <v>5</v>
+      </c>
+      <c r="T145" s="1">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="U145" s="1">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="V145" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="146" spans="1:22" ht="43.2">
       <c r="A146" s="2">
         <v>145</v>
       </c>
@@ -9945,8 +10689,34 @@
       <c r="H146" s="1" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" ht="28.8">
+      <c r="O146" s="1">
+        <v>1</v>
+      </c>
+      <c r="P146" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q146" s="1">
+        <v>4</v>
+      </c>
+      <c r="R146" s="1">
+        <v>5</v>
+      </c>
+      <c r="S146" s="1">
+        <v>5</v>
+      </c>
+      <c r="T146" s="1">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="U146" s="1">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="V146" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="147" spans="1:22" ht="28.8">
       <c r="A147" s="2">
         <v>146</v>
       </c>
@@ -9968,8 +10738,34 @@
       <c r="H147" s="1" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="148" spans="1:8">
+      <c r="O147" s="1">
+        <v>1</v>
+      </c>
+      <c r="P147" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q147" s="1">
+        <v>3</v>
+      </c>
+      <c r="R147" s="1">
+        <v>3</v>
+      </c>
+      <c r="S147" s="1">
+        <v>3</v>
+      </c>
+      <c r="T147" s="1">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="U147" s="1">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="V147" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="148" spans="1:22">
       <c r="A148" s="2">
         <v>147</v>
       </c>
@@ -9991,8 +10787,34 @@
       <c r="H148" s="1" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" ht="28.8">
+      <c r="O148" s="1">
+        <v>3</v>
+      </c>
+      <c r="P148" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q148" s="1">
+        <v>3</v>
+      </c>
+      <c r="R148" s="1">
+        <v>4</v>
+      </c>
+      <c r="S148" s="1">
+        <v>3</v>
+      </c>
+      <c r="T148" s="1">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="U148" s="1">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="V148" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="149" spans="1:22" ht="28.8">
       <c r="A149" s="2">
         <v>148</v>
       </c>
@@ -10014,8 +10836,34 @@
       <c r="H149" s="1" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" ht="28.8">
+      <c r="O149" s="1">
+        <v>3</v>
+      </c>
+      <c r="P149" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q149" s="1">
+        <v>4</v>
+      </c>
+      <c r="R149" s="1">
+        <v>4</v>
+      </c>
+      <c r="S149" s="1">
+        <v>4</v>
+      </c>
+      <c r="T149" s="1">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="U149" s="1">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="V149" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="150" spans="1:22" ht="28.8">
       <c r="A150" s="2">
         <v>149</v>
       </c>
@@ -10034,8 +10882,34 @@
       <c r="G150" s="40" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" ht="28.8">
+      <c r="O150" s="1">
+        <v>3</v>
+      </c>
+      <c r="P150" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q150" s="1">
+        <v>5</v>
+      </c>
+      <c r="R150" s="1">
+        <v>3</v>
+      </c>
+      <c r="S150" s="1">
+        <v>2</v>
+      </c>
+      <c r="T150" s="1">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="U150" s="1">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="V150" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="151" spans="1:22" ht="28.8">
       <c r="A151" s="2">
         <v>150</v>
       </c>
@@ -10054,8 +10928,34 @@
       <c r="G151" s="40" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="152" spans="1:8" ht="28.8">
+      <c r="O151" s="1">
+        <v>4</v>
+      </c>
+      <c r="P151" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q151" s="1">
+        <v>4</v>
+      </c>
+      <c r="R151" s="1">
+        <v>4</v>
+      </c>
+      <c r="S151" s="1">
+        <v>2</v>
+      </c>
+      <c r="T151" s="1">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="U151" s="1">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="V151" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="152" spans="1:22" ht="28.8">
       <c r="A152" s="2">
         <v>151</v>
       </c>
@@ -10074,8 +10974,34 @@
       <c r="G152" s="40" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" ht="43.2">
+      <c r="O152" s="1">
+        <v>4</v>
+      </c>
+      <c r="P152" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q152" s="1">
+        <v>3</v>
+      </c>
+      <c r="R152" s="1">
+        <v>4</v>
+      </c>
+      <c r="S152" s="1">
+        <v>2</v>
+      </c>
+      <c r="T152" s="1">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="U152" s="1">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="V152" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="153" spans="1:22" ht="14.4" customHeight="1">
       <c r="A153" s="2">
         <v>152</v>
       </c>
@@ -10094,8 +11020,34 @@
       <c r="G153" s="40" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="154" spans="1:8" ht="28.8">
+      <c r="O153" s="1">
+        <v>4</v>
+      </c>
+      <c r="P153" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q153" s="1">
+        <v>3</v>
+      </c>
+      <c r="R153" s="1">
+        <v>3</v>
+      </c>
+      <c r="S153" s="1">
+        <v>1</v>
+      </c>
+      <c r="T153" s="1">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="U153" s="1">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="V153" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="154" spans="1:22" ht="28.8">
       <c r="A154" s="2">
         <v>153</v>
       </c>
@@ -10114,8 +11066,34 @@
       <c r="G154" s="40" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="155" spans="1:8">
+      <c r="O154" s="1">
+        <v>3</v>
+      </c>
+      <c r="P154" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q154" s="1">
+        <v>4</v>
+      </c>
+      <c r="R154" s="1">
+        <v>4</v>
+      </c>
+      <c r="S154" s="1">
+        <v>2</v>
+      </c>
+      <c r="T154" s="1">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="U154" s="1">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="V154" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="155" spans="1:22">
       <c r="A155" s="2">
         <v>154</v>
       </c>
@@ -10125,7 +11103,7 @@
       <c r="C155" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D155" s="79" t="s">
+      <c r="D155" s="72" t="s">
         <v>614</v>
       </c>
       <c r="F155" s="7" t="s">
@@ -10134,8 +11112,34 @@
       <c r="G155" s="40" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" ht="28.8">
+      <c r="O155" s="1">
+        <v>3</v>
+      </c>
+      <c r="P155" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q155" s="1">
+        <v>4</v>
+      </c>
+      <c r="R155" s="1">
+        <v>4</v>
+      </c>
+      <c r="S155" s="1">
+        <v>4</v>
+      </c>
+      <c r="T155" s="1">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="U155" s="1">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="V155" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="156" spans="1:22" ht="28.8">
       <c r="A156" s="2">
         <v>155</v>
       </c>
@@ -10154,8 +11158,34 @@
       <c r="G156" s="40" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="157" spans="1:8" ht="43.2">
+      <c r="O156" s="1">
+        <v>3</v>
+      </c>
+      <c r="P156" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q156" s="1">
+        <v>3</v>
+      </c>
+      <c r="R156" s="1">
+        <v>4</v>
+      </c>
+      <c r="S156" s="1">
+        <v>2</v>
+      </c>
+      <c r="T156" s="1">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="U156" s="1">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="V156" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="157" spans="1:22" ht="43.2">
       <c r="A157" s="2">
         <v>156</v>
       </c>
@@ -10174,8 +11204,34 @@
       <c r="G157" s="40" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="158" spans="1:8">
+      <c r="O157" s="1">
+        <v>3</v>
+      </c>
+      <c r="P157" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q157" s="1">
+        <v>4</v>
+      </c>
+      <c r="R157" s="1">
+        <v>4</v>
+      </c>
+      <c r="S157" s="1">
+        <v>2</v>
+      </c>
+      <c r="T157" s="1">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="U157" s="1">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="V157" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="158" spans="1:22">
       <c r="A158" s="2">
         <v>157</v>
       </c>
@@ -10185,14 +11241,40 @@
       <c r="C158" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D158" s="80" t="s">
+      <c r="D158" s="73" t="s">
         <v>624</v>
       </c>
-      <c r="F158" s="80" t="s">
+      <c r="F158" s="73" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="159" spans="1:8">
+      <c r="O158" s="1">
+        <v>3</v>
+      </c>
+      <c r="P158" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q158" s="1">
+        <v>3</v>
+      </c>
+      <c r="R158" s="1">
+        <v>3</v>
+      </c>
+      <c r="S158" s="1">
+        <v>1</v>
+      </c>
+      <c r="T158" s="1">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="U158" s="1">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="V158" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="159" spans="1:22">
       <c r="A159" s="2">
         <v>158</v>
       </c>
@@ -10208,8 +11290,34 @@
       <c r="F159" s="7" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" ht="28.8">
+      <c r="O159" s="1">
+        <v>3</v>
+      </c>
+      <c r="P159" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q159" s="1">
+        <v>5</v>
+      </c>
+      <c r="R159" s="1">
+        <v>4</v>
+      </c>
+      <c r="S159" s="1">
+        <v>3</v>
+      </c>
+      <c r="T159" s="1">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="U159" s="1">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="V159" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="160" spans="1:22" ht="28.8">
       <c r="A160" s="2">
         <v>159</v>
       </c>
@@ -10225,8 +11333,34 @@
       <c r="F160" s="7" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="161" spans="1:8" ht="34.200000000000003">
+      <c r="O160" s="1">
+        <v>3</v>
+      </c>
+      <c r="P160" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q160" s="1">
+        <v>4</v>
+      </c>
+      <c r="R160" s="1">
+        <v>4</v>
+      </c>
+      <c r="S160" s="1">
+        <v>4</v>
+      </c>
+      <c r="T160" s="1">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="U160" s="1">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="V160" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="161" spans="1:22" ht="34.200000000000003">
       <c r="A161" s="2">
         <v>160</v>
       </c>
@@ -10236,21 +11370,47 @@
       <c r="C161" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D161" s="81" t="s">
+      <c r="D161" s="74" t="s">
         <v>633</v>
       </c>
-      <c r="F161" s="82">
+      <c r="F161" s="75">
         <v>9830387755</v>
       </c>
-    </row>
-    <row r="162" spans="1:8">
+      <c r="O161" s="1">
+        <v>2</v>
+      </c>
+      <c r="P161" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q161" s="1">
+        <v>3</v>
+      </c>
+      <c r="R161" s="1">
+        <v>3</v>
+      </c>
+      <c r="S161" s="1">
+        <v>3</v>
+      </c>
+      <c r="T161" s="1">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="U161" s="1">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="V161" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="162" spans="1:22">
       <c r="A162" s="2">
         <v>161</v>
       </c>
       <c r="B162" s="17" t="s">
         <v>634</v>
       </c>
-      <c r="D162" s="80" t="s">
+      <c r="D162" s="73" t="s">
         <v>635</v>
       </c>
       <c r="F162" s="7" t="s">
@@ -10259,8 +11419,34 @@
       <c r="G162" s="40" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="163" spans="1:8" ht="28.8">
+      <c r="O162" s="1">
+        <v>1</v>
+      </c>
+      <c r="P162" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q162" s="1">
+        <v>5</v>
+      </c>
+      <c r="R162" s="1">
+        <v>4</v>
+      </c>
+      <c r="S162" s="1">
+        <v>3</v>
+      </c>
+      <c r="T162" s="1">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="U162" s="1">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="V162" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="163" spans="1:22" ht="28.8">
       <c r="A163" s="2">
         <v>162</v>
       </c>
@@ -10276,8 +11462,34 @@
       <c r="F163" s="69" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="164" spans="1:8" ht="43.2">
+      <c r="O163" s="1">
+        <v>3</v>
+      </c>
+      <c r="P163" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q163" s="1">
+        <v>4</v>
+      </c>
+      <c r="R163" s="1">
+        <v>4</v>
+      </c>
+      <c r="S163" s="1">
+        <v>4</v>
+      </c>
+      <c r="T163" s="1">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="U163" s="1">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="V163" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="164" spans="1:22" ht="43.2">
       <c r="A164" s="2">
         <v>163</v>
       </c>
@@ -10290,11 +11502,37 @@
       <c r="D164" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="F164" s="83" t="s">
+      <c r="F164" s="76" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="165" spans="1:8">
+      <c r="O164" s="1">
+        <v>2</v>
+      </c>
+      <c r="P164" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q164" s="1">
+        <v>4</v>
+      </c>
+      <c r="R164" s="1">
+        <v>4</v>
+      </c>
+      <c r="S164" s="1">
+        <v>4</v>
+      </c>
+      <c r="T164" s="1">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="U164" s="1">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="V164" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="165" spans="1:22">
       <c r="A165" s="2">
         <v>164</v>
       </c>
@@ -10304,14 +11542,40 @@
       <c r="C165" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D165" s="80" t="s">
+      <c r="D165" s="73" t="s">
         <v>644</v>
       </c>
       <c r="F165" s="7" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="166" spans="1:8">
+      <c r="O165" s="1">
+        <v>4</v>
+      </c>
+      <c r="P165" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q165" s="1">
+        <v>5</v>
+      </c>
+      <c r="R165" s="1">
+        <v>5</v>
+      </c>
+      <c r="S165" s="1">
+        <v>3</v>
+      </c>
+      <c r="T165" s="1">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="U165" s="1">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="V165" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="166" spans="1:22">
       <c r="A166" s="2">
         <v>165</v>
       </c>
@@ -10327,8 +11591,34 @@
       <c r="F166" s="7" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="167" spans="1:8" ht="28.8">
+      <c r="O166" s="1">
+        <v>4</v>
+      </c>
+      <c r="P166" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q166" s="1">
+        <v>4</v>
+      </c>
+      <c r="R166" s="1">
+        <v>4</v>
+      </c>
+      <c r="S166" s="1">
+        <v>2</v>
+      </c>
+      <c r="T166" s="1">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="U166" s="1">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="V166" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="167" spans="1:22" ht="28.8">
       <c r="A167" s="2">
         <v>166</v>
       </c>
@@ -10341,11 +11631,37 @@
       <c r="D167" s="3" t="s">
         <v>650</v>
       </c>
-      <c r="F167" s="83" t="s">
+      <c r="F167" s="76" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="168" spans="1:8" ht="28.8">
+      <c r="O167" s="1">
+        <v>4</v>
+      </c>
+      <c r="P167" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q167" s="1">
+        <v>5</v>
+      </c>
+      <c r="R167" s="1">
+        <v>4</v>
+      </c>
+      <c r="S167" s="1">
+        <v>4</v>
+      </c>
+      <c r="T167" s="1">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="U167" s="1">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="V167" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="168" spans="1:22" ht="28.8">
       <c r="A168" s="2">
         <v>167</v>
       </c>
@@ -10361,8 +11677,34 @@
       <c r="F168" s="7" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="169" spans="1:8">
+      <c r="O168" s="1">
+        <v>3</v>
+      </c>
+      <c r="P168" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q168" s="1">
+        <v>5</v>
+      </c>
+      <c r="R168" s="1">
+        <v>2</v>
+      </c>
+      <c r="S168" s="1">
+        <v>3</v>
+      </c>
+      <c r="T168" s="1">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="U168" s="1">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="V168" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="169" spans="1:22">
       <c r="A169" s="2">
         <v>168</v>
       </c>
@@ -10375,11 +11717,37 @@
       <c r="D169" s="3" t="s">
         <v>656</v>
       </c>
-      <c r="F169" s="83" t="s">
+      <c r="F169" s="76" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="170" spans="1:8" ht="28.8">
+      <c r="O169" s="1">
+        <v>2</v>
+      </c>
+      <c r="P169" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q169" s="1">
+        <v>4</v>
+      </c>
+      <c r="R169" s="1">
+        <v>5</v>
+      </c>
+      <c r="S169" s="1">
+        <v>1</v>
+      </c>
+      <c r="T169" s="1">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="U169" s="1">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="V169" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="170" spans="1:22" ht="28.8">
       <c r="A170" s="2">
         <v>169</v>
       </c>
@@ -10398,8 +11766,34 @@
       <c r="H170" s="1" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="171" spans="1:8" ht="28.8">
+      <c r="O170" s="1">
+        <v>2</v>
+      </c>
+      <c r="P170" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q170" s="1">
+        <v>3</v>
+      </c>
+      <c r="R170" s="1">
+        <v>3</v>
+      </c>
+      <c r="S170" s="1">
+        <v>2</v>
+      </c>
+      <c r="T170" s="1">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="U170" s="1">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="V170" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="171" spans="1:22" ht="28.8">
       <c r="A171" s="2">
         <v>170</v>
       </c>
@@ -10415,8 +11809,34 @@
       <c r="F171" s="7" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="172" spans="1:8" ht="28.8">
+      <c r="O171" s="1">
+        <v>3</v>
+      </c>
+      <c r="P171" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q171" s="1">
+        <v>5</v>
+      </c>
+      <c r="R171" s="1">
+        <v>5</v>
+      </c>
+      <c r="S171" s="1">
+        <v>1</v>
+      </c>
+      <c r="T171" s="1">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="U171" s="1">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="V171" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="172" spans="1:22" ht="28.8">
       <c r="A172" s="2">
         <v>171</v>
       </c>
@@ -10426,149 +11846,1253 @@
       <c r="C172" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="F172" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="O172" s="1">
+        <v>3</v>
+      </c>
+      <c r="P172" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q172" s="1">
+        <v>4</v>
+      </c>
+      <c r="R172" s="1">
+        <v>4</v>
+      </c>
+      <c r="S172" s="1">
+        <v>4</v>
+      </c>
+      <c r="T172" s="1">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="U172" s="1">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="V172" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="173" spans="1:22">
+      <c r="A173" s="2">
+        <v>172</v>
+      </c>
+      <c r="B173" s="17" t="s">
+        <v>667</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F173" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="O173" s="1">
+        <v>2</v>
+      </c>
+      <c r="P173" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q173" s="1">
+        <v>5</v>
+      </c>
+      <c r="R173" s="1">
+        <v>3</v>
+      </c>
+      <c r="S173" s="1">
+        <v>1</v>
+      </c>
+      <c r="T173" s="1">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="U173" s="1">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="V173" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="174" spans="1:22">
+      <c r="A174" s="2">
+        <v>173</v>
+      </c>
+      <c r="B174" s="17" t="s">
+        <v>669</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F174" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="O174" s="1">
+        <v>2</v>
+      </c>
+      <c r="P174" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q174" s="1">
+        <v>4</v>
+      </c>
+      <c r="R174" s="1">
+        <v>4</v>
+      </c>
+      <c r="S174" s="1">
+        <v>4</v>
+      </c>
+      <c r="T174" s="1">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="U174" s="1">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="V174" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="175" spans="1:22" ht="28.8">
+      <c r="A175" s="2">
+        <v>174</v>
+      </c>
+      <c r="B175" s="17" t="s">
+        <v>673</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="F175" s="7" t="s">
+        <v>672</v>
+      </c>
+      <c r="O175" s="1">
+        <v>5</v>
+      </c>
+      <c r="P175" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q175" s="1">
+        <v>5</v>
+      </c>
+      <c r="R175" s="1">
+        <v>4</v>
+      </c>
+      <c r="S175" s="1">
+        <v>4</v>
+      </c>
+      <c r="T175" s="1">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="U175" s="1">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="V175" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="176" spans="1:22" ht="28.8">
+      <c r="A176" s="2">
+        <v>175</v>
+      </c>
+      <c r="B176" s="17" t="s">
+        <v>674</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F176" s="7" t="s">
+        <v>676</v>
+      </c>
+      <c r="O176" s="1">
+        <v>1</v>
+      </c>
+      <c r="P176" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q176" s="1">
+        <v>5</v>
+      </c>
+      <c r="R176" s="1">
+        <v>5</v>
+      </c>
+      <c r="S176" s="1">
+        <v>3</v>
+      </c>
+      <c r="T176" s="1">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="U176" s="1">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="V176" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="177" spans="1:22" ht="28.8">
+      <c r="A177" s="2">
+        <v>176</v>
+      </c>
+      <c r="B177" s="17" t="s">
+        <v>677</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="F177" s="84" t="s">
+        <v>679</v>
+      </c>
+      <c r="O177" s="1">
+        <v>4</v>
+      </c>
+      <c r="P177" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q177" s="1">
+        <v>5</v>
+      </c>
+      <c r="R177" s="1">
+        <v>3</v>
+      </c>
+      <c r="S177" s="1">
+        <v>2</v>
+      </c>
+      <c r="T177" s="1">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="U177" s="1">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="V177" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="178" spans="1:22">
+      <c r="A178" s="2">
+        <v>177</v>
+      </c>
+      <c r="B178" s="17" t="s">
+        <v>680</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="F178" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="O178" s="1">
+        <v>3</v>
+      </c>
+      <c r="P178" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q178" s="1">
+        <v>5</v>
+      </c>
+      <c r="R178" s="1">
+        <v>4</v>
+      </c>
+      <c r="S178" s="1">
+        <v>3</v>
+      </c>
+      <c r="T178" s="1">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="U178" s="1">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="V178" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="179" spans="1:22" ht="28.8">
+      <c r="A179" s="2">
+        <v>178</v>
+      </c>
+      <c r="B179" s="17" t="s">
+        <v>683</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="F179" s="72" t="s">
+        <v>685</v>
+      </c>
+      <c r="H179" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="O179" s="1">
+        <v>2</v>
+      </c>
+      <c r="P179" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q179" s="1">
+        <v>5</v>
+      </c>
+      <c r="R179" s="1">
+        <v>5</v>
+      </c>
+      <c r="S179" s="1">
+        <v>2</v>
+      </c>
+      <c r="T179" s="1">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="U179" s="1">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="V179" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="180" spans="1:22" ht="28.8">
+      <c r="A180" s="2">
+        <v>179</v>
+      </c>
+      <c r="B180" s="17" t="s">
+        <v>686</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="F180" s="85" t="s">
+        <v>688</v>
+      </c>
+      <c r="H180" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="O180" s="1">
+        <v>4</v>
+      </c>
+      <c r="P180" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q180" s="1">
+        <v>4</v>
+      </c>
+      <c r="R180" s="1">
+        <v>5</v>
+      </c>
+      <c r="S180" s="1">
+        <v>3</v>
+      </c>
+      <c r="T180" s="1">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="U180" s="1">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="V180" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="181" spans="1:22" ht="28.8">
+      <c r="A181" s="2">
+        <v>180</v>
+      </c>
+      <c r="B181" s="17" t="s">
+        <v>689</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D181" s="6" t="s">
+        <v>690</v>
+      </c>
+      <c r="F181" s="7" t="s">
+        <v>691</v>
+      </c>
+      <c r="G181" s="40" t="s">
+        <v>383</v>
+      </c>
+      <c r="O181" s="1">
+        <v>2</v>
+      </c>
+      <c r="P181" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q181" s="1">
+        <v>5</v>
+      </c>
+      <c r="R181" s="1">
+        <v>4</v>
+      </c>
+      <c r="S181" s="1">
+        <v>3</v>
+      </c>
+      <c r="T181" s="1">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="U181" s="1">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="V181" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="182" spans="1:22" ht="28.8">
+      <c r="A182" s="2">
+        <v>181</v>
+      </c>
+      <c r="B182" s="17" t="s">
+        <v>692</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="F182" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="G182" s="40" t="s">
+        <v>695</v>
+      </c>
+      <c r="O182" s="1">
+        <v>2</v>
+      </c>
+      <c r="P182" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q182" s="1">
+        <v>5</v>
+      </c>
+      <c r="R182" s="1">
+        <v>5</v>
+      </c>
+      <c r="S182" s="1">
+        <v>3</v>
+      </c>
+      <c r="T182" s="1">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="U182" s="1">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="V182" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="183" spans="1:22" ht="28.8">
+      <c r="A183" s="2">
+        <v>182</v>
+      </c>
+      <c r="B183" s="17" t="s">
+        <v>696</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D183" s="86" t="s">
+        <v>697</v>
+      </c>
+      <c r="F183" s="86" t="s">
+        <v>698</v>
+      </c>
+      <c r="O183" s="1">
+        <v>2</v>
+      </c>
+      <c r="P183" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q183" s="1">
+        <v>4</v>
+      </c>
+      <c r="R183" s="1">
+        <v>4</v>
+      </c>
+      <c r="S183" s="1">
+        <v>3</v>
+      </c>
+      <c r="T183" s="1">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="U183" s="1">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="V183" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="184" spans="1:22">
+      <c r="A184" s="2">
+        <v>183</v>
+      </c>
+      <c r="F184" s="86">
+        <v>9836697755</v>
+      </c>
+      <c r="T184" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U184" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V184" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="185" spans="1:22" ht="28.8">
+      <c r="A185" s="2">
+        <v>184</v>
+      </c>
+      <c r="B185" s="17" t="s">
+        <v>700</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="F185" s="86">
+        <v>8617798362</v>
+      </c>
+      <c r="O185" s="1">
+        <v>2</v>
+      </c>
+      <c r="P185" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q185" s="1">
+        <v>4</v>
+      </c>
+      <c r="R185" s="1">
+        <v>5</v>
+      </c>
+      <c r="S185" s="1">
+        <v>1</v>
+      </c>
+      <c r="T185" s="1">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="U185" s="1">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="V185" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="186" spans="1:22" ht="28.8">
+      <c r="A186" s="2">
+        <v>185</v>
+      </c>
+      <c r="B186" s="17" t="s">
+        <v>701</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D186" s="6" t="s">
+        <v>699</v>
+      </c>
+      <c r="F186" s="87">
+        <v>8617798362</v>
+      </c>
+      <c r="O186" s="1">
+        <v>2</v>
+      </c>
+      <c r="P186" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q186" s="1">
+        <v>4</v>
+      </c>
+      <c r="R186" s="1">
+        <v>4</v>
+      </c>
+      <c r="S186" s="1">
+        <v>2</v>
+      </c>
+      <c r="T186" s="1">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="U186" s="1">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="V186" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="187" spans="1:22" ht="28.8">
+      <c r="A187" s="2">
+        <v>186</v>
+      </c>
+      <c r="B187" s="17" t="s">
+        <v>702</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="F187" s="7" t="s">
+        <v>704</v>
+      </c>
+      <c r="O187" s="1">
+        <v>4</v>
+      </c>
+      <c r="P187" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q187" s="1">
+        <v>4</v>
+      </c>
+      <c r="R187" s="1">
+        <v>5</v>
+      </c>
+      <c r="S187" s="1">
+        <v>2</v>
+      </c>
+      <c r="T187" s="1">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="U187" s="1">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="V187" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="188" spans="1:22" ht="28.8">
+      <c r="A188" s="2">
+        <v>187</v>
+      </c>
+      <c r="B188" s="17" t="s">
+        <v>705</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D188" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="F188" s="7" t="s">
+        <v>707</v>
+      </c>
+      <c r="O188" s="1">
+        <v>4</v>
+      </c>
+      <c r="P188" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q188" s="1">
+        <v>3</v>
+      </c>
+      <c r="R188" s="1">
+        <v>5</v>
+      </c>
+      <c r="S188" s="1">
+        <v>3</v>
+      </c>
+      <c r="T188" s="1">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="U188" s="1">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="V188" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="189" spans="1:22" ht="28.8">
+      <c r="A189" s="2">
+        <v>188</v>
+      </c>
+      <c r="B189" s="17" t="s">
+        <v>708</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="F189" s="7" t="s">
+        <v>710</v>
+      </c>
+      <c r="O189" s="1">
+        <v>4</v>
+      </c>
+      <c r="P189" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q189" s="1">
+        <v>3</v>
+      </c>
+      <c r="R189" s="1">
+        <v>5</v>
+      </c>
+      <c r="S189" s="1">
+        <v>2</v>
+      </c>
+      <c r="T189" s="1">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="U189" s="1">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="V189" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="190" spans="1:22" ht="28.8">
+      <c r="A190" s="2">
+        <v>189</v>
+      </c>
+      <c r="B190" s="17" t="s">
+        <v>711</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="F190" s="7" t="s">
+        <v>713</v>
+      </c>
+      <c r="O190" s="1">
+        <v>2</v>
+      </c>
+      <c r="P190" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q190" s="1">
+        <v>5</v>
+      </c>
+      <c r="R190" s="1">
+        <v>4</v>
+      </c>
+      <c r="S190" s="1">
+        <v>1</v>
+      </c>
+      <c r="T190" s="1">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="U190" s="1">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="V190" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="191" spans="1:22" ht="28.8">
+      <c r="A191" s="2">
+        <v>190</v>
+      </c>
+      <c r="B191" s="17" t="s">
+        <v>714</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="F191" s="7" t="s">
+        <v>716</v>
+      </c>
+      <c r="O191" s="1">
+        <v>2</v>
+      </c>
+      <c r="P191" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q191" s="1">
+        <v>3</v>
+      </c>
+      <c r="R191" s="1">
+        <v>5</v>
+      </c>
+      <c r="S191" s="1">
+        <v>1</v>
+      </c>
+      <c r="T191" s="1">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="U191" s="1">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="V191" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="192" spans="1:22" ht="28.8">
+      <c r="A192" s="2">
+        <v>191</v>
+      </c>
+      <c r="B192" s="17" t="s">
+        <v>717</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="F192" s="88" t="s">
+        <v>719</v>
+      </c>
+      <c r="O192" s="1">
+        <v>2</v>
+      </c>
+      <c r="P192" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q192" s="1">
+        <v>3</v>
+      </c>
+      <c r="R192" s="1">
+        <v>4</v>
+      </c>
+      <c r="S192" s="1">
+        <v>2</v>
+      </c>
+      <c r="T192" s="1">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="U192" s="1">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="V192" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="193" spans="1:22" ht="28.8">
+      <c r="A193" s="2">
+        <v>192</v>
+      </c>
+      <c r="B193" s="17" t="s">
+        <v>720</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="F193" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="O193" s="1">
+        <v>2</v>
+      </c>
+      <c r="P193" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q193" s="1">
+        <v>4</v>
+      </c>
+      <c r="R193" s="1">
+        <v>4</v>
+      </c>
+      <c r="S193" s="1">
+        <v>2</v>
+      </c>
+      <c r="T193" s="1">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="U193" s="1">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="V193" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="194" spans="1:22" ht="28.8">
+      <c r="A194" s="2">
+        <v>193</v>
+      </c>
+      <c r="B194" s="17" t="s">
+        <v>723</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="F194" s="89" t="s">
+        <v>725</v>
+      </c>
+      <c r="O194" s="1">
+        <v>4</v>
+      </c>
+      <c r="P194" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q194" s="1">
+        <v>4</v>
+      </c>
+      <c r="R194" s="1">
+        <v>4</v>
+      </c>
+      <c r="S194" s="1">
+        <v>3</v>
+      </c>
+      <c r="T194" s="1">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="U194" s="1">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="V194" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="195" spans="1:22" ht="28.8">
+      <c r="A195" s="2">
+        <v>194</v>
+      </c>
+      <c r="B195" s="17" t="s">
+        <v>726</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D195" s="90" t="s">
+        <v>727</v>
+      </c>
+      <c r="F195" s="90">
+        <v>7439208434</v>
+      </c>
+      <c r="O195" s="1">
+        <v>4</v>
+      </c>
+      <c r="P195" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q195" s="1">
+        <v>5</v>
+      </c>
+      <c r="R195" s="1">
+        <v>5</v>
+      </c>
+      <c r="S195" s="1">
+        <v>1</v>
+      </c>
+      <c r="T195" s="1">
+        <f t="shared" ref="T195:T197" si="6">SUM(O195:S195)</f>
+        <v>20</v>
+      </c>
+      <c r="U195" s="1">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="V195" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="196" spans="1:22" ht="28.8">
+      <c r="A196" s="2">
+        <v>195</v>
+      </c>
+      <c r="B196" s="17" t="s">
+        <v>728</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D196" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="F196" s="7" t="s">
+        <v>729</v>
+      </c>
+      <c r="O196" s="1">
+        <v>3</v>
+      </c>
+      <c r="P196" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q196" s="1">
+        <v>4</v>
+      </c>
+      <c r="R196" s="1">
+        <v>4</v>
+      </c>
+      <c r="S196" s="1">
+        <v>2</v>
+      </c>
+      <c r="T196" s="1">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="U196" s="1">
+        <f t="shared" ref="U196:U197" si="7">ROUND(T196/5,0)</f>
+        <v>3</v>
+      </c>
+      <c r="V196" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="197" spans="1:22" ht="28.8">
+      <c r="A197" s="2">
+        <v>196</v>
+      </c>
+      <c r="B197" s="17" t="s">
+        <v>731</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D197" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="F197" s="7" t="s">
+        <v>733</v>
+      </c>
+      <c r="O197" s="1">
+        <v>3</v>
+      </c>
+      <c r="P197" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q197" s="1">
+        <v>4</v>
+      </c>
+      <c r="R197" s="1">
+        <v>4</v>
+      </c>
+      <c r="S197" s="1">
+        <v>1</v>
+      </c>
+      <c r="T197" s="1">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="U197" s="1">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="V197" s="10" t="s">
+        <v>263</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V124" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:V124"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576">
       <formula1>"Initial,Potential,Customer,Workshp Fixed,Reject,Not-Contacted,Ex-Customer"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:N1048576" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:N1048576">
       <formula1>"Rahul Dutta,Sayan Basak,Anirban Chakraborty,Debashish Nath"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D31" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="D32" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="F7" r:id="rId3" display="https://www.google.com/search?q=panchasayar+siksha+niketan&amp;sca_esv=593615924&amp;rlz=1C1CHBF_enAU1047AU1047&amp;sxsrf=AM9HkKnlKkWvrpmDIvMzNnJR8ZC_8s6gNQ%3A1703524925488&amp;ei=PbqJZaauHY2KnesPo--TuAo&amp;gs_ssp=eJzj4tFP1zc0MqnMzTa1TDNgtFI1qDBONDAyNzRPNU1LM0xOTkuyAgqZpJmZmJgnGZgZGSWnpSV5SRUk5iVnJBYnViYWKRRnZhdnJCrkZWanliTmAQC7Qxln&amp;oq=panchasayar+s&amp;gs_lp=Egxnd3Mtd2l6LXNlcnAiDXBhbmNoYXNheWFyIHMqAggAMhQQLhivARjHARimAxioAxiABBiOBTIFEAAYgAQyBRAAGIAEMgsQLhiABBioAxidAzIFEAAYgAQyBRAAGIAEMgUQABiABDIFEAAYgAQyCBAAGIAEGMsBMggQABiABBjLATIjEC4YrwEYxwEYpgMYqAMYgAQYjgUYlwUY3AQY3gQY4ATYAQNIuzhQmhhYmCVwAXgBkAEAmAGvAqAB1gSqAQUyLTEuMbgBAcgBAPgBAcICChAAGEcY1gQYsAPCAg0QABiABBiKBRhDGLADwgIcEC4YgAQYigUYQxjHARivARjIAxiwAxiOBdgBAcICGRAuGIAEGIoFGEMYxwEYrwEYyAMYsAPYAQHCAg4QABjkAhjWBBiwA9gBAsICEBAuGEMYnQMYqAMYgAQYigXCAhAQLhiABBiKBRhDGKgDGJ0DwgIWEC4YQxivARjHARimAxioAxiABBiKBcICChAAGIAEGBQYhwLCAh8QLhhDGJ0DGKgDGIAEGIoFGJcFGNwEGN4EGOAE2AED4gMEGAAgQYgGAZAGDroGBggBEAEYCLoGBggCEAEYCboGBggDEAEYFA&amp;sclient=gws-wiz-serp" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="F8" r:id="rId4" display="https://www.google.com/search?q=miranda+high+school&amp;sca_esv=593615924&amp;rlz=1C1CHBF_enAU1047AU1047&amp;sxsrf=AM9HkKmR8dFtasrVNGZkMFIxGz5Wq06ZjA%3A1703525037148&amp;ei=rbqJZczSCOCWjuMPsMy_8AM&amp;oq=miranda+high+&amp;gs_lp=Egxnd3Mtd2l6LXNlcnAiDW1pcmFuZGEgaGlnaCAqAggAMg0QABiABBgUGIcCGMkDMgUQABiABDILEAAYgAQYigUYkgMyBRAAGIAEMgUQABiABDIKEAAYgAQYFBiHAjIFEAAYgAQyBRAAGIAEMgUQABiABDIFEAAYgARI7RNQ6AZY6AZwAXgAkAEAmAH0BqABuAyqAQM2LTK4AQHIAQD4AQHCAgoQABhHGNYEGLAD4gMEGAAgQYgGAZAGCA&amp;sclient=gws-wiz-serp&amp;lqi=ChNtaXJhbmRhIGhpZ2ggc2Nob29sSN-07OW4roCACForEAAQARACGAAYARgCIhNtaXJhbmRhIGhpZ2ggc2Nob29sKggIAhAAEAEQApIBBnNjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOUGNqUnVSbVZuRUFFqgE7EAEyHhABIhpTQ3iPFiqMHHb-9vGb0lli1Rpc5Z8xE87GgDIXEAIiE21pcmFuZGEgaGlnaCBzY2hvb2w" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="D22" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="D25" r:id="rId6" display="mailto:official@younghorizonsschool.com" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="D26" r:id="rId7" display="mailto:iwanttojoin@siskol.edu.in" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="D27" r:id="rId8" display="mailto:lcgvm2012@gmail.com" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="D30" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="D33" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="D35" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="D37" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="D41" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="D42" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="D43" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="D47" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="D48" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="D49" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
-    <hyperlink ref="D51" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
-    <hyperlink ref="D52" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
-    <hyperlink ref="D53" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink ref="D54" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
-    <hyperlink ref="D55" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
-    <hyperlink ref="D56" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
-    <hyperlink ref="D57" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
-    <hyperlink ref="D58" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
-    <hyperlink ref="D59" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
-    <hyperlink ref="D60" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
-    <hyperlink ref="D61" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
-    <hyperlink ref="D62" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
-    <hyperlink ref="D63" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
-    <hyperlink ref="D64" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
-    <hyperlink ref="D65" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
-    <hyperlink ref="D66" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
-    <hyperlink ref="D67" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
-    <hyperlink ref="D68" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
-    <hyperlink ref="D69" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
-    <hyperlink ref="D70" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
-    <hyperlink ref="D71" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
-    <hyperlink ref="D72" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
-    <hyperlink ref="D73" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
-    <hyperlink ref="D75" r:id="rId42" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
-    <hyperlink ref="D78" r:id="rId43" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
-    <hyperlink ref="D79" r:id="rId44" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
-    <hyperlink ref="D80" r:id="rId45" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
-    <hyperlink ref="D81" r:id="rId46" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
-    <hyperlink ref="D85" r:id="rId47" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
-    <hyperlink ref="D88" r:id="rId48" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
-    <hyperlink ref="D89" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
-    <hyperlink ref="D91" r:id="rId50" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
-    <hyperlink ref="D2" r:id="rId51" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
-    <hyperlink ref="D28" r:id="rId52" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
-    <hyperlink ref="E2" r:id="rId53" xr:uid="{024382CD-C2D0-4CF4-9611-E3A9B63AF3C8}"/>
-    <hyperlink ref="D3" r:id="rId54" xr:uid="{AD5BAB00-5A5D-4509-A18B-7832AC70F85F}"/>
-    <hyperlink ref="D4" r:id="rId55" xr:uid="{C684E6EC-0342-45E9-8615-ADCC82F5BAC7}"/>
-    <hyperlink ref="E4" r:id="rId56" xr:uid="{A9F5302F-3CA5-4D1B-AD4C-BBF39B734157}"/>
-    <hyperlink ref="D5" r:id="rId57" xr:uid="{27A2E9DF-ACC8-450A-97D7-9E1FD2B6E00D}"/>
-    <hyperlink ref="D7" r:id="rId58" xr:uid="{F2FBA790-998D-4607-99F6-569BC2B7B041}"/>
-    <hyperlink ref="D6" r:id="rId59" xr:uid="{D3ED5C58-A7AC-4AAA-80F0-866EBFFCC3F3}"/>
-    <hyperlink ref="E6" r:id="rId60" xr:uid="{25B9F971-9E71-43AB-BC6A-6543CC45234F}"/>
-    <hyperlink ref="D8" r:id="rId61" xr:uid="{4406DDF6-8C3B-4BC1-BAEA-30E8C0D8232D}"/>
-    <hyperlink ref="E8" r:id="rId62" xr:uid="{203C5FE1-8AD7-4C98-9B8A-A60E7CCD2A0F}"/>
-    <hyperlink ref="D9" r:id="rId63" xr:uid="{5C5E183D-3C12-444A-B3A1-887FE586A19E}"/>
-    <hyperlink ref="D10" r:id="rId64" xr:uid="{B8773B40-4D90-408F-9C66-C6E4EF4CA8F1}"/>
-    <hyperlink ref="D12" r:id="rId65" xr:uid="{A366327E-C721-4F35-A19F-C5163454F1E9}"/>
-    <hyperlink ref="D13" r:id="rId66" xr:uid="{809972FF-5199-4544-9C8D-90123898A1DA}"/>
-    <hyperlink ref="E13" r:id="rId67" xr:uid="{69EF0149-BD66-4854-8629-480B30F37896}"/>
-    <hyperlink ref="D14" r:id="rId68" xr:uid="{0876D16D-1D47-4E8E-A563-B1E0EDBDF610}"/>
-    <hyperlink ref="E14" r:id="rId69" xr:uid="{9B98FA2B-5F26-4FC3-A16C-B5A435172DBE}"/>
-    <hyperlink ref="D15" r:id="rId70" xr:uid="{5C3C9193-C38B-468F-B8F0-4244654949FD}"/>
-    <hyperlink ref="D17" r:id="rId71" xr:uid="{4B58FE9C-FCB3-4E9C-864B-84CFD88CF409}"/>
-    <hyperlink ref="D18" r:id="rId72" xr:uid="{8D0F79EA-9E76-42A8-B6DE-38DCF086D2BD}"/>
-    <hyperlink ref="E18" r:id="rId73" xr:uid="{294A50A6-666F-49B6-B8C5-CC133E5CC526}"/>
-    <hyperlink ref="D19" r:id="rId74" xr:uid="{3411E3DE-249B-43C6-861A-C24AA2D10629}"/>
-    <hyperlink ref="D38" r:id="rId75" xr:uid="{51D43514-0760-4B71-B43C-B4E18F6C03BD}"/>
-    <hyperlink ref="D40" r:id="rId76" xr:uid="{C53F92AF-72F3-42FA-96A3-44E82E52EE23}"/>
-    <hyperlink ref="D44" r:id="rId77" xr:uid="{D96EB2AF-EDA4-447F-85B9-36AE533C9CAB}"/>
-    <hyperlink ref="D45" r:id="rId78" xr:uid="{63E956BC-EB66-4FDE-BA79-2F74BB9DCB55}"/>
-    <hyperlink ref="D82" r:id="rId79" xr:uid="{5F4352DE-F44C-4573-AB0F-C62280AED2C7}"/>
-    <hyperlink ref="D83" r:id="rId80" xr:uid="{C2649A64-240A-4675-8D35-CA592B0D7D2F}"/>
-    <hyperlink ref="D84" r:id="rId81" xr:uid="{7346E54C-CDF3-486C-B28D-387D21A1BCBE}"/>
-    <hyperlink ref="D86" r:id="rId82" xr:uid="{B4F97ACF-EA33-47B5-90D6-7BC872FE370E}"/>
-    <hyperlink ref="D87" r:id="rId83" xr:uid="{86E652CD-E20A-4FFB-AE0F-8142DCB6C066}"/>
-    <hyperlink ref="D90" r:id="rId84" xr:uid="{A0ED5720-7123-4A54-A72C-0783F12FFE50}"/>
-    <hyperlink ref="D127" r:id="rId85" xr:uid="{1587E10B-BC06-4F44-AD24-8834CA5B9BF4}"/>
-    <hyperlink ref="D128" r:id="rId86" xr:uid="{924312C2-1D9F-404A-946D-B6C4FBFFD0E6}"/>
-    <hyperlink ref="D129" r:id="rId87" xr:uid="{B2B28782-731C-4886-A853-A103F61EDEEC}"/>
-    <hyperlink ref="D130" r:id="rId88" xr:uid="{B8394CBD-C8F4-4241-8079-F46EADC53967}"/>
-    <hyperlink ref="D131" r:id="rId89" xr:uid="{E6F7BF4C-0D0C-4D1C-B044-B08D32575AA1}"/>
-    <hyperlink ref="D132" r:id="rId90" xr:uid="{78C792D2-9681-4522-8983-0F5F88DFC0E4}"/>
-    <hyperlink ref="D133" r:id="rId91" xr:uid="{C07762B4-7A15-4635-8015-13B25C9D299C}"/>
-    <hyperlink ref="D134" r:id="rId92" xr:uid="{863E6639-B5B9-4647-A1E6-94110C9F79F1}"/>
-    <hyperlink ref="D135" r:id="rId93" xr:uid="{B8D0FA9F-7520-448C-8228-AF1D2D672E30}"/>
-    <hyperlink ref="D136" r:id="rId94" xr:uid="{15BF0115-5140-4A74-94CA-FF6DFB167105}"/>
-    <hyperlink ref="D137" r:id="rId95" xr:uid="{817406E7-6477-41C4-81E9-D35BAC04EDD4}"/>
-    <hyperlink ref="D138" r:id="rId96" xr:uid="{1DAEAB1E-1D62-42DE-B492-E275F0F17298}"/>
-    <hyperlink ref="D139" r:id="rId97" xr:uid="{F5746097-F3D9-48A4-B7AE-FAC6113173A5}"/>
-    <hyperlink ref="D140" r:id="rId98" xr:uid="{78C126E2-8284-4C9D-967F-2768338BD66C}"/>
-    <hyperlink ref="D141" r:id="rId99" xr:uid="{8BF0F312-41ED-493A-A585-FC4295FF2385}"/>
-    <hyperlink ref="D142" r:id="rId100" xr:uid="{DECDBD92-C6E4-4C12-BB2C-14A047691575}"/>
-    <hyperlink ref="D143" r:id="rId101" xr:uid="{2760D183-462B-44C9-8920-0777B9D56653}"/>
-    <hyperlink ref="D144" r:id="rId102" xr:uid="{09D49BE0-9DE7-4F5B-865F-CD45FBAE28C9}"/>
-    <hyperlink ref="D145" r:id="rId103" xr:uid="{91976120-2DAB-4C08-BFEB-0F9E9D160456}"/>
-    <hyperlink ref="D146" r:id="rId104" xr:uid="{9383DBFF-6316-48D8-93AA-36923AFEF2F1}"/>
-    <hyperlink ref="D147" r:id="rId105" xr:uid="{1D7A0B4B-A3F9-4976-BCF0-3898414DB70B}"/>
-    <hyperlink ref="D149" r:id="rId106" xr:uid="{468BCAB6-75B8-424B-BCE8-71208A4A0041}"/>
-    <hyperlink ref="D150" r:id="rId107" xr:uid="{63613039-776D-46E3-875D-7789EFCD710D}"/>
-    <hyperlink ref="D152" r:id="rId108" xr:uid="{CEA61495-BA53-4323-B5B5-B0D343A466C2}"/>
-    <hyperlink ref="D153" r:id="rId109" xr:uid="{D91721D0-C634-4E17-A660-2768F624CC55}"/>
-    <hyperlink ref="D154" r:id="rId110" xr:uid="{395E5009-2A51-4B0F-AA35-D308881D70A5}"/>
-    <hyperlink ref="E151" r:id="rId111" xr:uid="{EB8BDEA9-8D7C-4512-9609-22C399A1E5E1}"/>
-    <hyperlink ref="D156" r:id="rId112" xr:uid="{4672CCF0-EAA0-48BC-99B6-F99FF904EBEA}"/>
-    <hyperlink ref="D157" r:id="rId113" xr:uid="{3DF7E791-A8D2-4F43-87DE-2D15335C8536}"/>
-    <hyperlink ref="D159" r:id="rId114" xr:uid="{6BD13231-CD72-47D2-B1EC-707621590AD6}"/>
-    <hyperlink ref="D160" r:id="rId115" xr:uid="{4726956E-A447-4C65-B7DE-AB76C67A34EF}"/>
-    <hyperlink ref="D163" r:id="rId116" xr:uid="{36C0E7B9-B6C5-4E44-8A90-DF4470EE8192}"/>
-    <hyperlink ref="D166" r:id="rId117" xr:uid="{867B4564-D66C-4433-B106-ADFC2ADC1B69}"/>
-    <hyperlink ref="D167" r:id="rId118" xr:uid="{3B08B30E-41DE-4128-9C85-17D250250609}"/>
-    <hyperlink ref="D168" r:id="rId119" xr:uid="{658084B3-C571-45A7-B8FA-58F70F1E2AD6}"/>
-    <hyperlink ref="D169" r:id="rId120" xr:uid="{85B4AB4C-E75C-4874-A099-809203BD2ADF}"/>
-    <hyperlink ref="D170" r:id="rId121" xr:uid="{523FCCC4-AC6B-4BF2-AD11-778F606CADDC}"/>
-    <hyperlink ref="D171" r:id="rId122" xr:uid="{55FF22FB-ACC6-4F17-AAEB-B8C419A69203}"/>
+    <hyperlink ref="D31" r:id="rId1"/>
+    <hyperlink ref="D32" r:id="rId2"/>
+    <hyperlink ref="F7" r:id="rId3" display="https://www.google.com/search?q=panchasayar+siksha+niketan&amp;sca_esv=593615924&amp;rlz=1C1CHBF_enAU1047AU1047&amp;sxsrf=AM9HkKnlKkWvrpmDIvMzNnJR8ZC_8s6gNQ%3A1703524925488&amp;ei=PbqJZaauHY2KnesPo--TuAo&amp;gs_ssp=eJzj4tFP1zc0MqnMzTa1TDNgtFI1qDBONDAyNzRPNU1LM0xOTkuyAgqZpJmZmJgnGZgZGSWnpSV5SRUk5iVnJBYnViYWKRRnZhdnJCrkZWanliTmAQC7Qxln&amp;oq=panchasayar+s&amp;gs_lp=Egxnd3Mtd2l6LXNlcnAiDXBhbmNoYXNheWFyIHMqAggAMhQQLhivARjHARimAxioAxiABBiOBTIFEAAYgAQyBRAAGIAEMgsQLhiABBioAxidAzIFEAAYgAQyBRAAGIAEMgUQABiABDIFEAAYgAQyCBAAGIAEGMsBMggQABiABBjLATIjEC4YrwEYxwEYpgMYqAMYgAQYjgUYlwUY3AQY3gQY4ATYAQNIuzhQmhhYmCVwAXgBkAEAmAGvAqAB1gSqAQUyLTEuMbgBAcgBAPgBAcICChAAGEcY1gQYsAPCAg0QABiABBiKBRhDGLADwgIcEC4YgAQYigUYQxjHARivARjIAxiwAxiOBdgBAcICGRAuGIAEGIoFGEMYxwEYrwEYyAMYsAPYAQHCAg4QABjkAhjWBBiwA9gBAsICEBAuGEMYnQMYqAMYgAQYigXCAhAQLhiABBiKBRhDGKgDGJ0DwgIWEC4YQxivARjHARimAxioAxiABBiKBcICChAAGIAEGBQYhwLCAh8QLhhDGJ0DGKgDGIAEGIoFGJcFGNwEGN4EGOAE2AED4gMEGAAgQYgGAZAGDroGBggBEAEYCLoGBggCEAEYCboGBggDEAEYFA&amp;sclient=gws-wiz-serp"/>
+    <hyperlink ref="F8" r:id="rId4" display="https://www.google.com/search?q=miranda+high+school&amp;sca_esv=593615924&amp;rlz=1C1CHBF_enAU1047AU1047&amp;sxsrf=AM9HkKmR8dFtasrVNGZkMFIxGz5Wq06ZjA%3A1703525037148&amp;ei=rbqJZczSCOCWjuMPsMy_8AM&amp;oq=miranda+high+&amp;gs_lp=Egxnd3Mtd2l6LXNlcnAiDW1pcmFuZGEgaGlnaCAqAggAMg0QABiABBgUGIcCGMkDMgUQABiABDILEAAYgAQYigUYkgMyBRAAGIAEMgUQABiABDIKEAAYgAQYFBiHAjIFEAAYgAQyBRAAGIAEMgUQABiABDIFEAAYgARI7RNQ6AZY6AZwAXgAkAEAmAH0BqABuAyqAQM2LTK4AQHIAQD4AQHCAgoQABhHGNYEGLAD4gMEGAAgQYgGAZAGCA&amp;sclient=gws-wiz-serp&amp;lqi=ChNtaXJhbmRhIGhpZ2ggc2Nob29sSN-07OW4roCACForEAAQARACGAAYARgCIhNtaXJhbmRhIGhpZ2ggc2Nob29sKggIAhAAEAEQApIBBnNjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOUGNqUnVSbVZuRUFFqgE7EAEyHhABIhpTQ3iPFiqMHHb-9vGb0lli1Rpc5Z8xE87GgDIXEAIiE21pcmFuZGEgaGlnaCBzY2hvb2w"/>
+    <hyperlink ref="D22" r:id="rId5"/>
+    <hyperlink ref="D25" r:id="rId6" display="mailto:official@younghorizonsschool.com"/>
+    <hyperlink ref="D26" r:id="rId7" display="mailto:iwanttojoin@siskol.edu.in"/>
+    <hyperlink ref="D27" r:id="rId8" display="mailto:lcgvm2012@gmail.com"/>
+    <hyperlink ref="D30" r:id="rId9"/>
+    <hyperlink ref="D33" r:id="rId10"/>
+    <hyperlink ref="D35" r:id="rId11"/>
+    <hyperlink ref="D37" r:id="rId12"/>
+    <hyperlink ref="D41" r:id="rId13"/>
+    <hyperlink ref="D42" r:id="rId14"/>
+    <hyperlink ref="D43" r:id="rId15"/>
+    <hyperlink ref="D47" r:id="rId16"/>
+    <hyperlink ref="D48" r:id="rId17"/>
+    <hyperlink ref="D49" r:id="rId18"/>
+    <hyperlink ref="D51" r:id="rId19"/>
+    <hyperlink ref="D52" r:id="rId20"/>
+    <hyperlink ref="D53" r:id="rId21"/>
+    <hyperlink ref="D54" r:id="rId22"/>
+    <hyperlink ref="D55" r:id="rId23"/>
+    <hyperlink ref="D56" r:id="rId24"/>
+    <hyperlink ref="D57" r:id="rId25"/>
+    <hyperlink ref="D58" r:id="rId26"/>
+    <hyperlink ref="D59" r:id="rId27"/>
+    <hyperlink ref="D60" r:id="rId28"/>
+    <hyperlink ref="D61" r:id="rId29"/>
+    <hyperlink ref="D62" r:id="rId30"/>
+    <hyperlink ref="D63" r:id="rId31"/>
+    <hyperlink ref="D64" r:id="rId32"/>
+    <hyperlink ref="D65" r:id="rId33"/>
+    <hyperlink ref="D66" r:id="rId34"/>
+    <hyperlink ref="D67" r:id="rId35"/>
+    <hyperlink ref="D68" r:id="rId36"/>
+    <hyperlink ref="D69" r:id="rId37"/>
+    <hyperlink ref="D70" r:id="rId38"/>
+    <hyperlink ref="D71" r:id="rId39"/>
+    <hyperlink ref="D72" r:id="rId40"/>
+    <hyperlink ref="D73" r:id="rId41"/>
+    <hyperlink ref="D75" r:id="rId42"/>
+    <hyperlink ref="D78" r:id="rId43"/>
+    <hyperlink ref="D79" r:id="rId44"/>
+    <hyperlink ref="D80" r:id="rId45"/>
+    <hyperlink ref="D81" r:id="rId46"/>
+    <hyperlink ref="D85" r:id="rId47"/>
+    <hyperlink ref="D88" r:id="rId48"/>
+    <hyperlink ref="D89" r:id="rId49"/>
+    <hyperlink ref="D91" r:id="rId50"/>
+    <hyperlink ref="D2" r:id="rId51"/>
+    <hyperlink ref="D28" r:id="rId52"/>
+    <hyperlink ref="E2" r:id="rId53"/>
+    <hyperlink ref="D3" r:id="rId54"/>
+    <hyperlink ref="D4" r:id="rId55"/>
+    <hyperlink ref="E4" r:id="rId56"/>
+    <hyperlink ref="D5" r:id="rId57"/>
+    <hyperlink ref="D7" r:id="rId58"/>
+    <hyperlink ref="D6" r:id="rId59"/>
+    <hyperlink ref="E6" r:id="rId60"/>
+    <hyperlink ref="D8" r:id="rId61"/>
+    <hyperlink ref="E8" r:id="rId62"/>
+    <hyperlink ref="D9" r:id="rId63"/>
+    <hyperlink ref="D10" r:id="rId64"/>
+    <hyperlink ref="D12" r:id="rId65"/>
+    <hyperlink ref="D13" r:id="rId66"/>
+    <hyperlink ref="E13" r:id="rId67"/>
+    <hyperlink ref="D14" r:id="rId68"/>
+    <hyperlink ref="E14" r:id="rId69"/>
+    <hyperlink ref="D15" r:id="rId70"/>
+    <hyperlink ref="D17" r:id="rId71"/>
+    <hyperlink ref="D18" r:id="rId72"/>
+    <hyperlink ref="E18" r:id="rId73"/>
+    <hyperlink ref="D19" r:id="rId74"/>
+    <hyperlink ref="D38" r:id="rId75"/>
+    <hyperlink ref="D40" r:id="rId76"/>
+    <hyperlink ref="D44" r:id="rId77"/>
+    <hyperlink ref="D45" r:id="rId78"/>
+    <hyperlink ref="D82" r:id="rId79"/>
+    <hyperlink ref="D83" r:id="rId80"/>
+    <hyperlink ref="D84" r:id="rId81"/>
+    <hyperlink ref="D86" r:id="rId82"/>
+    <hyperlink ref="D87" r:id="rId83"/>
+    <hyperlink ref="D90" r:id="rId84"/>
+    <hyperlink ref="D127" r:id="rId85"/>
+    <hyperlink ref="D128" r:id="rId86"/>
+    <hyperlink ref="D129" r:id="rId87"/>
+    <hyperlink ref="D130" r:id="rId88"/>
+    <hyperlink ref="D131" r:id="rId89"/>
+    <hyperlink ref="D132" r:id="rId90"/>
+    <hyperlink ref="D133" r:id="rId91"/>
+    <hyperlink ref="D134" r:id="rId92"/>
+    <hyperlink ref="D135" r:id="rId93"/>
+    <hyperlink ref="D136" r:id="rId94"/>
+    <hyperlink ref="D137" r:id="rId95"/>
+    <hyperlink ref="D138" r:id="rId96"/>
+    <hyperlink ref="D139" r:id="rId97"/>
+    <hyperlink ref="D140" r:id="rId98"/>
+    <hyperlink ref="D141" r:id="rId99"/>
+    <hyperlink ref="D142" r:id="rId100"/>
+    <hyperlink ref="D143" r:id="rId101"/>
+    <hyperlink ref="D144" r:id="rId102"/>
+    <hyperlink ref="D145" r:id="rId103"/>
+    <hyperlink ref="D146" r:id="rId104"/>
+    <hyperlink ref="D147" r:id="rId105"/>
+    <hyperlink ref="D149" r:id="rId106"/>
+    <hyperlink ref="D150" r:id="rId107"/>
+    <hyperlink ref="D152" r:id="rId108"/>
+    <hyperlink ref="D153" r:id="rId109"/>
+    <hyperlink ref="D154" r:id="rId110"/>
+    <hyperlink ref="E151" r:id="rId111"/>
+    <hyperlink ref="D156" r:id="rId112"/>
+    <hyperlink ref="D157" r:id="rId113"/>
+    <hyperlink ref="D159" r:id="rId114"/>
+    <hyperlink ref="D160" r:id="rId115"/>
+    <hyperlink ref="D163" r:id="rId116"/>
+    <hyperlink ref="D166" r:id="rId117"/>
+    <hyperlink ref="D167" r:id="rId118"/>
+    <hyperlink ref="D168" r:id="rId119"/>
+    <hyperlink ref="D169" r:id="rId120"/>
+    <hyperlink ref="D170" r:id="rId121"/>
+    <hyperlink ref="D171" r:id="rId122"/>
+    <hyperlink ref="D175" r:id="rId123"/>
+    <hyperlink ref="D176" r:id="rId124"/>
+    <hyperlink ref="D177" r:id="rId125"/>
+    <hyperlink ref="F177" r:id="rId126"/>
+    <hyperlink ref="D178" r:id="rId127"/>
+    <hyperlink ref="D179" r:id="rId128"/>
+    <hyperlink ref="D181" r:id="rId129"/>
+    <hyperlink ref="D182" r:id="rId130"/>
+    <hyperlink ref="D185" r:id="rId131"/>
+    <hyperlink ref="D186" r:id="rId132"/>
+    <hyperlink ref="D187" r:id="rId133"/>
+    <hyperlink ref="D188" r:id="rId134"/>
+    <hyperlink ref="D189" r:id="rId135"/>
+    <hyperlink ref="D190" r:id="rId136"/>
+    <hyperlink ref="D193" r:id="rId137"/>
+    <hyperlink ref="D194" r:id="rId138"/>
+    <hyperlink ref="D196" r:id="rId139"/>
+    <hyperlink ref="D197" r:id="rId140"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId123"/>
-  <legacyDrawing r:id="rId124"/>
+  <pageSetup orientation="portrait" r:id="rId141"/>
+  <legacyDrawing r:id="rId142"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V179"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
@@ -14013,23 +16537,23 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576">
       <formula1>"Initial,Potential,Customer,Workshop Fixed,Reject,Not-Contacted,Ex-Customer"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:N1048576" xr:uid="{00000000-0002-0000-0300-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:N1048576">
       <formula1>"Rahul Dutta,Sayan Basak,Anirban Chakraborty,Debashish Nath"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K1048576" xr:uid="{00000000-0002-0000-0300-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K1048576">
       <formula1>"Technical,Non-Technical"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C36" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="C37" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="D41" r:id="rId3" display="https://www.google.com/search?sca_esv=597127733&amp;rlz=1C1CHBF_enAU1047AU1047&amp;tbs=lf:1,lf_ui:2&amp;tbm=lcl&amp;sxsrf=ACQVn0-yjBygfThguW8-plBveMrMzDiPGw:1704870884151&amp;q=engineering+colleges+in+south+calcutta&amp;rflfq=1&amp;num=10&amp;sa=X&amp;ved=2ahUKEwjQ47_7otKDAxUve2wGHY_pCzEQjGp6BAgXEAE&amp;biw=1536&amp;bih=730&amp;dpr=1.25" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
-    <hyperlink ref="C43" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
-    <hyperlink ref="D47" r:id="rId5" display="https://www.google.com/search?q=engineering+colleges+kolkata&amp;sca_esv=597127733&amp;rlz=1C1CHBF_enAU1047AU1047&amp;biw=1536&amp;bih=730&amp;tbm=lcl&amp;sxsrf=ACQVn09cs4SfDApVNizAZQHyNbKrHkG1kw%3A1704870889163&amp;ei=6UOeZYunCcqWseMP2bOt0A4&amp;ved=0ahUKEwjLv_H9otKDAxVKS2wGHdlZC-oQ4dUDCAk&amp;uact=5&amp;oq=engineering+colleges+kolkata&amp;gs_lp=Eg1nd3Mtd2l6LWxvY2FsIhxlbmdpbmVlcmluZyBjb2xsZWdlcyBrb2xrYXRhMgUQABiABDIGEAAYFhgeMgYQABgWGB4yCBAAGBYYHhgPMgYQABgWGB4yBhAAGBYYHjIGEAAYFhgeMgYQABgWGB4yBhAAGBYYHjIGEAAYFhgeSPErUNUEWOgmcAF4AJABAZgBqwGgAb0XqgEEMC4yM7gBA8gBAPgBAcICCxAAGIAEGIoFGIYDwgIEECMYJ8ICCxAAGIAEGIoFGJECwgIKEAAYgAQYFBiHAsICDhAAGIAEGIoFGJECGMkDiAYB&amp;sclient=gws-wiz-local" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
-    <hyperlink ref="C49" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="C36" r:id="rId1"/>
+    <hyperlink ref="C37" r:id="rId2"/>
+    <hyperlink ref="D41" r:id="rId3" display="https://www.google.com/search?sca_esv=597127733&amp;rlz=1C1CHBF_enAU1047AU1047&amp;tbs=lf:1,lf_ui:2&amp;tbm=lcl&amp;sxsrf=ACQVn0-yjBygfThguW8-plBveMrMzDiPGw:1704870884151&amp;q=engineering+colleges+in+south+calcutta&amp;rflfq=1&amp;num=10&amp;sa=X&amp;ved=2ahUKEwjQ47_7otKDAxUve2wGHY_pCzEQjGp6BAgXEAE&amp;biw=1536&amp;bih=730&amp;dpr=1.25"/>
+    <hyperlink ref="C43" r:id="rId4"/>
+    <hyperlink ref="D47" r:id="rId5" display="https://www.google.com/search?q=engineering+colleges+kolkata&amp;sca_esv=597127733&amp;rlz=1C1CHBF_enAU1047AU1047&amp;biw=1536&amp;bih=730&amp;tbm=lcl&amp;sxsrf=ACQVn09cs4SfDApVNizAZQHyNbKrHkG1kw%3A1704870889163&amp;ei=6UOeZYunCcqWseMP2bOt0A4&amp;ved=0ahUKEwjLv_H9otKDAxVKS2wGHdlZC-oQ4dUDCAk&amp;uact=5&amp;oq=engineering+colleges+kolkata&amp;gs_lp=Eg1nd3Mtd2l6LWxvY2FsIhxlbmdpbmVlcmluZyBjb2xsZWdlcyBrb2xrYXRhMgUQABiABDIGEAAYFhgeMgYQABgWGB4yCBAAGBYYHhgPMgYQABgWGB4yBhAAGBYYHjIGEAAYFhgeMgYQABgWGB4yBhAAGBYYHjIGEAAYFhgeSPErUNUEWOgmcAF4AJABAZgBqwGgAb0XqgEEMC4yM7gBA8gBAPgBAcICCxAAGIAEGIoFGIYDwgIEECMYJ8ICCxAAGIAEGIoFGJECwgIKEAAYgAQYFBiHAsICDhAAGIAEGIoFGJECGMkDiAYB&amp;sclient=gws-wiz-local"/>
+    <hyperlink ref="C49" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
@@ -14038,7 +16562,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14160,7 +16684,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F63719A-CCC7-4313-BE81-ADB215E91107}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14243,7 +16767,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C111"/>
   <sheetViews>
     <sheetView zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
@@ -15480,8 +18004,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" display="https://www.google.com/search?q=panchasayar+siksha+niketan&amp;sca_esv=593615924&amp;rlz=1C1CHBF_enAU1047AU1047&amp;sxsrf=AM9HkKnlKkWvrpmDIvMzNnJR8ZC_8s6gNQ%3A1703524925488&amp;ei=PbqJZaauHY2KnesPo--TuAo&amp;gs_ssp=eJzj4tFP1zc0MqnMzTa1TDNgtFI1qDBONDAyNzRPNU1LM0xOTkuyAgqZpJmZmJgnGZgZGSWnpSV5SRUk5iVnJBYnViYWKRRnZhdnJCrkZWanliTmAQC7Qxln&amp;oq=panchasayar+s&amp;gs_lp=Egxnd3Mtd2l6LXNlcnAiDXBhbmNoYXNheWFyIHMqAggAMhQQLhivARjHARimAxioAxiABBiOBTIFEAAYgAQyBRAAGIAEMgsQLhiABBioAxidAzIFEAAYgAQyBRAAGIAEMgUQABiABDIFEAAYgAQyCBAAGIAEGMsBMggQABiABBjLATIjEC4YrwEYxwEYpgMYqAMYgAQYjgUYlwUY3AQY3gQY4ATYAQNIuzhQmhhYmCVwAXgBkAEAmAGvAqAB1gSqAQUyLTEuMbgBAcgBAPgBAcICChAAGEcY1gQYsAPCAg0QABiABBiKBRhDGLADwgIcEC4YgAQYigUYQxjHARivARjIAxiwAxiOBdgBAcICGRAuGIAEGIoFGEMYxwEYrwEYyAMYsAPYAQHCAg4QABjkAhjWBBiwA9gBAsICEBAuGEMYnQMYqAMYgAQYigXCAhAQLhiABBiKBRhDGKgDGJ0DwgIWEC4YQxivARjHARimAxioAxiABBiKBcICChAAGIAEGBQYhwLCAh8QLhhDGJ0DGKgDGIAEGIoFGJcFGNwEGN4EGOAE2AED4gMEGAAgQYgGAZAGDroGBggBEAEYCLoGBggCEAEYCboGBggDEAEYFA&amp;sclient=gws-wiz-serp" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="C6" r:id="rId2" display="https://www.google.com/search?q=miranda+high+school&amp;sca_esv=593615924&amp;rlz=1C1CHBF_enAU1047AU1047&amp;sxsrf=AM9HkKmR8dFtasrVNGZkMFIxGz5Wq06ZjA%3A1703525037148&amp;ei=rbqJZczSCOCWjuMPsMy_8AM&amp;oq=miranda+high+&amp;gs_lp=Egxnd3Mtd2l6LXNlcnAiDW1pcmFuZGEgaGlnaCAqAggAMg0QABiABBgUGIcCGMkDMgUQABiABDILEAAYgAQYigUYkgMyBRAAGIAEMgUQABiABDIKEAAYgAQYFBiHAjIFEAAYgAQyBRAAGIAEMgUQABiABDIFEAAYgARI7RNQ6AZY6AZwAXgAkAEAmAH0BqABuAyqAQM2LTK4AQHIAQD4AQHCAgoQABhHGNYEGLAD4gMEGAAgQYgGAZAGCA&amp;sclient=gws-wiz-serp&amp;lqi=ChNtaXJhbmRhIGhpZ2ggc2Nob29sSN-07OW4roCACForEAAQARACGAAYARgCIhNtaXJhbmRhIGhpZ2ggc2Nob29sKggIAhAAEAEQApIBBnNjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOUGNqUnVSbVZuRUFFqgE7EAEyHhABIhpTQ3iPFiqMHHb-9vGb0lli1Rpc5Z8xE87GgDIXEAIiE21pcmFuZGEgaGlnaCBzY2hvb2w" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="C5" r:id="rId1" display="https://www.google.com/search?q=panchasayar+siksha+niketan&amp;sca_esv=593615924&amp;rlz=1C1CHBF_enAU1047AU1047&amp;sxsrf=AM9HkKnlKkWvrpmDIvMzNnJR8ZC_8s6gNQ%3A1703524925488&amp;ei=PbqJZaauHY2KnesPo--TuAo&amp;gs_ssp=eJzj4tFP1zc0MqnMzTa1TDNgtFI1qDBONDAyNzRPNU1LM0xOTkuyAgqZpJmZmJgnGZgZGSWnpSV5SRUk5iVnJBYnViYWKRRnZhdnJCrkZWanliTmAQC7Qxln&amp;oq=panchasayar+s&amp;gs_lp=Egxnd3Mtd2l6LXNlcnAiDXBhbmNoYXNheWFyIHMqAggAMhQQLhivARjHARimAxioAxiABBiOBTIFEAAYgAQyBRAAGIAEMgsQLhiABBioAxidAzIFEAAYgAQyBRAAGIAEMgUQABiABDIFEAAYgAQyCBAAGIAEGMsBMggQABiABBjLATIjEC4YrwEYxwEYpgMYqAMYgAQYjgUYlwUY3AQY3gQY4ATYAQNIuzhQmhhYmCVwAXgBkAEAmAGvAqAB1gSqAQUyLTEuMbgBAcgBAPgBAcICChAAGEcY1gQYsAPCAg0QABiABBiKBRhDGLADwgIcEC4YgAQYigUYQxjHARivARjIAxiwAxiOBdgBAcICGRAuGIAEGIoFGEMYxwEYrwEYyAMYsAPYAQHCAg4QABjkAhjWBBiwA9gBAsICEBAuGEMYnQMYqAMYgAQYigXCAhAQLhiABBiKBRhDGKgDGJ0DwgIWEC4YQxivARjHARimAxioAxiABBiKBcICChAAGIAEGBQYhwLCAh8QLhhDGJ0DGKgDGIAEGIoFGJcFGNwEGN4EGOAE2AED4gMEGAAgQYgGAZAGDroGBggBEAEYCLoGBggCEAEYCboGBggDEAEYFA&amp;sclient=gws-wiz-serp"/>
+    <hyperlink ref="C6" r:id="rId2" display="https://www.google.com/search?q=miranda+high+school&amp;sca_esv=593615924&amp;rlz=1C1CHBF_enAU1047AU1047&amp;sxsrf=AM9HkKmR8dFtasrVNGZkMFIxGz5Wq06ZjA%3A1703525037148&amp;ei=rbqJZczSCOCWjuMPsMy_8AM&amp;oq=miranda+high+&amp;gs_lp=Egxnd3Mtd2l6LXNlcnAiDW1pcmFuZGEgaGlnaCAqAggAMg0QABiABBgUGIcCGMkDMgUQABiABDILEAAYgAQYigUYkgMyBRAAGIAEMgUQABiABDIKEAAYgAQYFBiHAjIFEAAYgAQyBRAAGIAEMgUQABiABDIFEAAYgARI7RNQ6AZY6AZwAXgAkAEAmAH0BqABuAyqAQM2LTK4AQHIAQD4AQHCAgoQABhHGNYEGLAD4gMEGAAgQYgGAZAGCA&amp;sclient=gws-wiz-serp&amp;lqi=ChNtaXJhbmRhIGhpZ2ggc2Nob29sSN-07OW4roCACForEAAQARACGAAYARgCIhNtaXJhbmRhIGhpZ2ggc2Nob29sKggIAhAAEAEQApIBBnNjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOUGNqUnVSbVZuRUFFqgE7EAEyHhABIhpTQ3iPFiqMHHb-9vGb0lli1Rpc5Z8xE87GgDIXEAIiE21pcmFuZGEgaGlnaCBzY2hvb2w"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Offline/BusinessManagement/Marketing/AI marketing/AI Workshop Schools-Colleges.xlsx
+++ b/Offline/BusinessManagement/Marketing/AI marketing/AI Workshop Schools-Colleges.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Marketing\AI marketing\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBFCBE92-C6D7-45B4-87F9-E30552CE1554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="506" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="506" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="8" r:id="rId1"/>
@@ -22,7 +23,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'School-Details'!$A$1:$V$124</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,13 +42,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>del</author>
     <author>User</author>
   </authors>
   <commentList>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -71,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M28" authorId="1" shapeId="0">
+    <comment ref="M28" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -90,12 +91,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>del</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -124,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="734">
   <si>
     <t>CBSE</t>
   </si>
@@ -1708,6 +1709,633 @@
   </si>
   <si>
     <t>Narayana Bally</t>
+  </si>
+  <si>
+    <t>Bally</t>
+  </si>
+  <si>
+    <t>Narayana Rishra</t>
+  </si>
+  <si>
+    <t>info@narayanagroup.com</t>
+  </si>
+  <si>
+    <t>8695640618</t>
+  </si>
+  <si>
+    <t>wbrishra.etechno@narayanagroup.com</t>
+  </si>
+  <si>
+    <t>Rishra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nrayana Haldia </t>
+  </si>
+  <si>
+    <t>9547708626</t>
+  </si>
+  <si>
+    <t>principal.haldia@narayanagroup.com</t>
+  </si>
+  <si>
+    <t>HALDIA</t>
+  </si>
+  <si>
+    <t>Narayana Park Circus</t>
+  </si>
+  <si>
+    <t>6292272641</t>
+  </si>
+  <si>
+    <t>posibabua@narayanagroup.com</t>
+  </si>
+  <si>
+    <t>Park Circus</t>
+  </si>
+  <si>
+    <t>nhowrah@narayanagroup.com</t>
+  </si>
+  <si>
+    <t>Nrayana Howrah</t>
+  </si>
+  <si>
+    <t>Nrayana Sonarpur</t>
+  </si>
+  <si>
+    <t>9051770999</t>
+  </si>
+  <si>
+    <t>wbsonarpur.etechno@narayanagroup.com</t>
+  </si>
+  <si>
+    <t>Snarpur</t>
+  </si>
+  <si>
+    <t>Nrayana Bardhaman</t>
+  </si>
+  <si>
+    <t>8695640598</t>
+  </si>
+  <si>
+    <t>wbburdwan.etechno@narayanagroup.com</t>
+  </si>
+  <si>
+    <t>Bardhaman</t>
+  </si>
+  <si>
+    <t>Nrayana Kalyanai Town</t>
+  </si>
+  <si>
+    <t>wbkalyanitown.etechno@narayanagroup.com</t>
+  </si>
+  <si>
+    <t>7036884346</t>
+  </si>
+  <si>
+    <t>Kalyani Town</t>
+  </si>
+  <si>
+    <t>Narayana Andal</t>
+  </si>
+  <si>
+    <t>wbandal.etechno@narayanagroup.com</t>
+  </si>
+  <si>
+    <t> 8695640590</t>
+  </si>
+  <si>
+    <t>Andal</t>
+  </si>
+  <si>
+    <t>Narayana Contai</t>
+  </si>
+  <si>
+    <t>18001023344</t>
+  </si>
+  <si>
+    <t>PURBA MIDNAPORE</t>
+  </si>
+  <si>
+    <t>Narayana Kalyani Express</t>
+  </si>
+  <si>
+    <t>wbkalexp.etechno@narayanagroup.com</t>
+  </si>
+  <si>
+    <t> 8695640608</t>
+  </si>
+  <si>
+    <t>Narayana Krishnanagar</t>
+  </si>
+  <si>
+    <t>7980369679</t>
+  </si>
+  <si>
+    <t>Krishnanagar</t>
+  </si>
+  <si>
+    <t>Narayana Durgapur</t>
+  </si>
+  <si>
+    <t>wbdurgapur.etechno@narayanagroup.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9007792662</t>
+  </si>
+  <si>
+    <t>Durgapur</t>
+  </si>
+  <si>
+    <t>Narayana Asansol</t>
+  </si>
+  <si>
+    <t>wbasansol.etechno@narayanagroup.com</t>
+  </si>
+  <si>
+    <t>Workshop Fixed</t>
+  </si>
+  <si>
+    <t>8695640592</t>
+  </si>
+  <si>
+    <t>Asansol</t>
+  </si>
+  <si>
+    <t>wbsiliguri.etechno@narayanagroup.com</t>
+  </si>
+  <si>
+    <t>8695640602</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Narayana Siliguri</t>
+  </si>
+  <si>
+    <t>Siliguri</t>
+  </si>
+  <si>
+    <t>Narayana Uttar Dinajpur</t>
+  </si>
+  <si>
+    <t>info@narayanagroup.coinfo@narayanagroup.com</t>
+  </si>
+  <si>
+    <t> 8697054585</t>
+  </si>
+  <si>
+    <t>Uttar Dinajpur</t>
+  </si>
+  <si>
+    <t> 6292322801</t>
+  </si>
+  <si>
+    <t>Narayana Raghunathpur</t>
+  </si>
+  <si>
+    <t>Purulia</t>
+  </si>
+  <si>
+    <t>St. Paul's Mission School</t>
+  </si>
+  <si>
+    <t> spmsscottlane@yahoo.co.in</t>
+  </si>
+  <si>
+    <t>Scot Lane Kolkata</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Office</t>
+  </si>
+  <si>
+    <t>Loreto Day School Bowbazar</t>
+  </si>
+  <si>
+    <t>03322120134</t>
+  </si>
+  <si>
+    <t>Bowbazar</t>
+  </si>
+  <si>
+    <t>Office</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contactloretobowbazar@gmail.com </t>
+  </si>
+  <si>
+    <t>lingliangschool@yahoo.co.in</t>
+  </si>
+  <si>
+    <t>Ling Liang School</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Hide Lne</t>
+  </si>
+  <si>
+    <t>Calcutta Girl's School</t>
+  </si>
+  <si>
+    <t>https://www.cghs1856.org/</t>
+  </si>
+  <si>
+    <t> 91 33 2215 1540</t>
+  </si>
+  <si>
+    <t>Princep Street</t>
+  </si>
+  <si>
+    <t>https://www.rnsmhs.org/</t>
+  </si>
+  <si>
+    <t>Shri Ram Narayan Sihgh Memorial Rajdanga</t>
+  </si>
+  <si>
+    <t>2442-6438/39</t>
+  </si>
+  <si>
+    <t>Kasba</t>
+  </si>
+  <si>
+    <t>Shri Ram Narayan Sihgh Memorial Narayan Roy Sarani</t>
+  </si>
+  <si>
+    <t>2241-1034</t>
+  </si>
+  <si>
+    <t>Narayan Roy Sarani</t>
+  </si>
+  <si>
+    <t>Loreto Day School Dharmatala</t>
+  </si>
+  <si>
+    <t>contact@loretodharamtala.in</t>
+  </si>
+  <si>
+    <t>Dharmatala</t>
+  </si>
+  <si>
+    <t>Nop[any High School</t>
+  </si>
+  <si>
+    <t>info@nopanyhigh.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4603-5857 </t>
+  </si>
+  <si>
+    <t>Girish Park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St. Mary </t>
+  </si>
+  <si>
+    <t>https://stmaryssch.in/smscal09@gmail.com</t>
+  </si>
+  <si>
+    <t>22298451</t>
+  </si>
+  <si>
+    <t>Park English School</t>
+  </si>
+  <si>
+    <t xml:space="preserve">info@theparkenglishschool.com
+</t>
+  </si>
+  <si>
+    <t>033 2229 5426</t>
+  </si>
+  <si>
+    <t>Loreto Day Eliott Road</t>
+  </si>
+  <si>
+    <t>leroffice22@gmail.com </t>
+  </si>
+  <si>
+    <t>033-2229-4256</t>
+  </si>
+  <si>
+    <t>St Augustine's Day School</t>
+  </si>
+  <si>
+    <t>office.kol@stads.in</t>
+  </si>
+  <si>
+    <t>8336076103</t>
+  </si>
+  <si>
+    <t>Harrow Hall</t>
+  </si>
+  <si>
+    <t>harrowhallkolkata@gmail.com</t>
+  </si>
+  <si>
+    <t>0353-32579273</t>
+  </si>
+  <si>
+    <t>Salt Lake Point School</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> saltlake.point.school@dadooindia.com</t>
+  </si>
+  <si>
+    <t>Agrasain Boys School</t>
+  </si>
+  <si>
+    <t>absceo@rediffmail.com.</t>
+  </si>
+  <si>
+    <t>2655 4544 /4547</t>
+  </si>
+  <si>
+    <t>Our Lady Queen's of The Mission</t>
+  </si>
+  <si>
+    <t>ladyqueen_pc@yahoo.co.in</t>
+  </si>
+  <si>
+    <t>33 22908196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our Lady Queen's of The Mission Salt Lake </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> olqmssaltlake@gmail.com</t>
+  </si>
+  <si>
+    <t>033 2359 8969</t>
+  </si>
+  <si>
+    <t>Modern High School for Girls</t>
+  </si>
+  <si>
+    <t>@mhsforgirls.edu.in</t>
+  </si>
+  <si>
+    <t>3322875326</t>
+  </si>
+  <si>
+    <t>St . Sebastians</t>
+  </si>
+  <si>
+    <t>mpr@stsebastiansc.org.</t>
+  </si>
+  <si>
+    <t>93307 45747</t>
+  </si>
+  <si>
+    <t>Mhadevi Birla Sishu Bvihar</t>
+  </si>
+  <si>
+    <t>office.mbsv@ashokhall.org</t>
+  </si>
+  <si>
+    <t>074398 04806</t>
+  </si>
+  <si>
+    <t>Purwanchal Vidya mandir</t>
+  </si>
+  <si>
+    <t>Purwanchal_vm@rediffmail.com</t>
+  </si>
+  <si>
+    <t>033 2355 7581</t>
+  </si>
+  <si>
+    <t>WWA Cossipore English</t>
+  </si>
+  <si>
+    <t>isawwaces@gmail.com</t>
+  </si>
+  <si>
+    <t>94331 29908</t>
+  </si>
+  <si>
+    <t>Marias Day School</t>
+  </si>
+  <si>
+    <t>9830027754</t>
+  </si>
+  <si>
+    <t>amitavadatta@marias.co.in</t>
+  </si>
+  <si>
+    <t>Chairman</t>
+  </si>
+  <si>
+    <t>Saifee Golden Jubilee</t>
+  </si>
+  <si>
+    <t>contact@sgjskolkata.com</t>
+  </si>
+  <si>
+    <t>2229 8684</t>
+  </si>
+  <si>
+    <t>Sacred Heart Church School  Bowbazar</t>
+  </si>
+  <si>
+    <t>9007111899</t>
+  </si>
+  <si>
+    <t>St. George High School</t>
+  </si>
+  <si>
+    <t>9339980745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St George Day </t>
+  </si>
+  <si>
+    <t>9339146821</t>
+  </si>
+  <si>
+    <t>Info@Dwpskolkata.In</t>
+  </si>
+  <si>
+    <t>9007175757</t>
+  </si>
+  <si>
+    <t>Delhi World PUBLIC school Narendrapur</t>
+  </si>
+  <si>
+    <t>Delhi World PUBLIC school Barasat</t>
+  </si>
+  <si>
+    <t>info@dwpsbarasat.com</t>
+  </si>
+  <si>
+    <t>8585858012</t>
+  </si>
+  <si>
+    <t>Oxford House Ballygunj</t>
+  </si>
+  <si>
+    <t>oxfordhousepurbachal@gmail.com</t>
+  </si>
+  <si>
+    <t>Ruby Park Public School</t>
+  </si>
+  <si>
+    <t>info@rubypark.com</t>
+  </si>
+  <si>
+    <t>8687600600</t>
+  </si>
+  <si>
+    <t>BBIT School</t>
+  </si>
+  <si>
+    <t>principalschool@bbit.edu.in</t>
+  </si>
+  <si>
+    <t>8420116666 / 8420123333</t>
+  </si>
+  <si>
+    <t>Shri Sikshayatan School</t>
+  </si>
+  <si>
+    <t>principal@shrishikshayatanschool.com</t>
+  </si>
+  <si>
+    <t> 33 22826350</t>
+  </si>
+  <si>
+    <t>Camellia Public Schools</t>
+  </si>
+  <si>
+    <t>cps.madhyamgram@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+9007030126 </t>
+  </si>
+  <si>
+    <t>The Wisdom Tree Global School</t>
+  </si>
+  <si>
+    <t>ADMISSIONS@TWTGSKOLKATA.ORG</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8240042106</t>
+  </si>
+  <si>
+    <t>Rahara</t>
+  </si>
+  <si>
+    <t>Delhi Public Secondary School</t>
+  </si>
+  <si>
+    <t>dpssbarasat@gmail.com</t>
+  </si>
+  <si>
+    <t>83340 37777</t>
+  </si>
+  <si>
+    <t>infodps2014@gmail.com</t>
+  </si>
+  <si>
+    <t>Dayananad Public School, Chinarpark</t>
+  </si>
+  <si>
+    <t>Dayananad Public School, Barasat</t>
+  </si>
+  <si>
+    <t>Gokhale Memorial School</t>
+  </si>
+  <si>
+    <t>gokhale_memorial@yahoo.in</t>
+  </si>
+  <si>
+    <t>2223-3062</t>
+  </si>
+  <si>
+    <t>Kendriya Vidyalaya Ballygunj</t>
+  </si>
+  <si>
+    <t>principalballygunge@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9830047462 </t>
+  </si>
+  <si>
+    <t>Kendriya Vidyalaya Fort Williams</t>
+  </si>
+  <si>
+    <t>kvfortwilliamkolkata@gmail.com</t>
+  </si>
+  <si>
+    <t>033-22485117</t>
+  </si>
+  <si>
+    <t>The Newtown School</t>
+  </si>
+  <si>
+    <t>http://ntskolkata.org/</t>
+  </si>
+  <si>
+    <t>8584036704
+8584036709</t>
+  </si>
+  <si>
+    <t>Kendriya Vidyalaya Jessore Road</t>
+  </si>
+  <si>
+    <t>kvofdumdum1986@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 33 – 2559 2500</t>
+  </si>
+  <si>
+    <t>Kendriya Vidyalaya Salt Lake</t>
+  </si>
+  <si>
+    <t>principalsaltlake@gmail.com</t>
+  </si>
+  <si>
+    <t>033-23371242</t>
+  </si>
+  <si>
+    <t>Indira Gandhi Memorial High School</t>
+  </si>
+  <si>
+    <t>https://dumdum.igmhs.org/#</t>
+  </si>
+  <si>
+    <t>9903780222</t>
+  </si>
+  <si>
+    <t>Sushila Birla Girl's School</t>
+  </si>
+  <si>
+    <t>principal@sbgskolkata.ac.in</t>
+  </si>
+  <si>
+    <t>33 2287 9006</t>
+  </si>
+  <si>
+    <t>Ashoka Hall's Girl Higher Secondary School</t>
+  </si>
+  <si>
+    <t>office.ahghss@ashokhall.org</t>
+  </si>
+  <si>
+    <t>Bhavan's Gangabaux</t>
+  </si>
+  <si>
+    <t>033 23351249</t>
+  </si>
+  <si>
+    <t>communicate@bhavansgkvidyamandir.edu.in</t>
+  </si>
+  <si>
+    <t>Abhinava Bharati</t>
+  </si>
+  <si>
+    <t>https://abhinavbharati.co.in/#</t>
+  </si>
+  <si>
+    <t>22823516 / 5215</t>
   </si>
   <si>
     <r>
@@ -1715,650 +2343,24 @@
     </r>
     <r>
       <rPr>
-        <sz val="9"/>
+        <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t> 6292291044</t>
     </r>
   </si>
   <si>
-    <t>Bally</t>
-  </si>
-  <si>
-    <t>Narayana Rishra</t>
-  </si>
-  <si>
-    <t>info@narayanagroup.com</t>
-  </si>
-  <si>
-    <t>8695640618</t>
-  </si>
-  <si>
-    <t>wbrishra.etechno@narayanagroup.com</t>
-  </si>
-  <si>
-    <t>Rishra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nrayana Haldia </t>
-  </si>
-  <si>
-    <t>9547708626</t>
-  </si>
-  <si>
-    <t>principal.haldia@narayanagroup.com</t>
-  </si>
-  <si>
-    <t>HALDIA</t>
-  </si>
-  <si>
-    <t>Narayana Park Circus</t>
-  </si>
-  <si>
-    <t>6292272641</t>
-  </si>
-  <si>
-    <t>posibabua@narayanagroup.com</t>
-  </si>
-  <si>
-    <t>Park Circus</t>
-  </si>
-  <si>
-    <t>nhowrah@narayanagroup.com</t>
-  </si>
-  <si>
-    <t>Nrayana Howrah</t>
-  </si>
-  <si>
-    <t>Nrayana Sonarpur</t>
-  </si>
-  <si>
-    <t>9051770999</t>
-  </si>
-  <si>
-    <t>wbsonarpur.etechno@narayanagroup.com</t>
-  </si>
-  <si>
-    <t>Snarpur</t>
-  </si>
-  <si>
-    <t>Nrayana Bardhaman</t>
-  </si>
-  <si>
-    <t>8695640598</t>
-  </si>
-  <si>
-    <t>wbburdwan.etechno@narayanagroup.com</t>
-  </si>
-  <si>
-    <t>Bardhaman</t>
-  </si>
-  <si>
-    <t>Nrayana Kalyanai Town</t>
-  </si>
-  <si>
-    <t>wbkalyanitown.etechno@narayanagroup.com</t>
-  </si>
-  <si>
-    <t>7036884346</t>
-  </si>
-  <si>
-    <t>Kalyani Town</t>
-  </si>
-  <si>
-    <t>Narayana Andal</t>
-  </si>
-  <si>
-    <t>wbandal.etechno@narayanagroup.com</t>
-  </si>
-  <si>
-    <t> 8695640590</t>
-  </si>
-  <si>
-    <t>Andal</t>
-  </si>
-  <si>
-    <t>Narayana Contai</t>
-  </si>
-  <si>
-    <t>18001023344</t>
-  </si>
-  <si>
-    <t>PURBA MIDNAPORE</t>
-  </si>
-  <si>
-    <t>Narayana Kalyani Express</t>
-  </si>
-  <si>
-    <t>wbkalexp.etechno@narayanagroup.com</t>
-  </si>
-  <si>
-    <t> 8695640608</t>
-  </si>
-  <si>
-    <t>Narayana Krishnanagar</t>
-  </si>
-  <si>
-    <t>7980369679</t>
-  </si>
-  <si>
-    <t>Krishnanagar</t>
-  </si>
-  <si>
-    <t>Narayana Durgapur</t>
-  </si>
-  <si>
-    <t>wbdurgapur.etechno@narayanagroup.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9007792662</t>
-  </si>
-  <si>
-    <t>Durgapur</t>
-  </si>
-  <si>
-    <t>Narayana Asansol</t>
-  </si>
-  <si>
-    <t>wbasansol.etechno@narayanagroup.com</t>
-  </si>
-  <si>
-    <t>Workshop Fixed</t>
-  </si>
-  <si>
-    <t>8695640592</t>
-  </si>
-  <si>
-    <t>Asansol</t>
-  </si>
-  <si>
-    <t>wbsiliguri.etechno@narayanagroup.com</t>
-  </si>
-  <si>
-    <t>8695640602</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Narayana Siliguri</t>
-  </si>
-  <si>
-    <t>Siliguri</t>
-  </si>
-  <si>
-    <t>Narayana Uttar Dinajpur</t>
-  </si>
-  <si>
-    <t>info@narayanagroup.coinfo@narayanagroup.com</t>
-  </si>
-  <si>
-    <t> 8697054585</t>
-  </si>
-  <si>
-    <t>Uttar Dinajpur</t>
-  </si>
-  <si>
-    <t> 6292322801</t>
-  </si>
-  <si>
-    <t>Narayana Raghunathpur</t>
-  </si>
-  <si>
-    <t>Purulia</t>
-  </si>
-  <si>
-    <t>St. Paul's Mission School</t>
-  </si>
-  <si>
-    <t> spmsscottlane@yahoo.co.in</t>
-  </si>
-  <si>
-    <t>Scot Lane Kolkata</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Office</t>
-  </si>
-  <si>
-    <t>Loreto Day School Bowbazar</t>
-  </si>
-  <si>
-    <t>03322120134</t>
-  </si>
-  <si>
-    <t>Bowbazar</t>
-  </si>
-  <si>
-    <t>Office</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contactloretobowbazar@gmail.com </t>
-  </si>
-  <si>
-    <t>lingliangschool@yahoo.co.in</t>
-  </si>
-  <si>
-    <t>Ling Liang School</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>Hide Lne</t>
-  </si>
-  <si>
-    <t>Calcutta Girl's School</t>
-  </si>
-  <si>
-    <t>https://www.cghs1856.org/</t>
-  </si>
-  <si>
-    <t> 91 33 2215 1540</t>
-  </si>
-  <si>
-    <t>Princep Street</t>
-  </si>
-  <si>
-    <t>https://www.rnsmhs.org/</t>
-  </si>
-  <si>
-    <t>Shri Ram Narayan Sihgh Memorial Rajdanga</t>
-  </si>
-  <si>
-    <t>2442-6438/39</t>
-  </si>
-  <si>
-    <t>Kasba</t>
-  </si>
-  <si>
-    <t>Shri Ram Narayan Sihgh Memorial Narayan Roy Sarani</t>
-  </si>
-  <si>
-    <t>2241-1034</t>
-  </si>
-  <si>
-    <t>Narayan Roy Sarani</t>
-  </si>
-  <si>
-    <t>Loreto Day School Dharmatala</t>
-  </si>
-  <si>
-    <t>contact@loretodharamtala.in</t>
-  </si>
-  <si>
-    <t>Dharmatala</t>
-  </si>
-  <si>
-    <t>Nop[any High School</t>
-  </si>
-  <si>
-    <t>info@nopanyhigh.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4603-5857 </t>
-  </si>
-  <si>
-    <t>Girish Park</t>
-  </si>
-  <si>
-    <t xml:space="preserve">St. Mary </t>
-  </si>
-  <si>
-    <t>https://stmaryssch.in/smscal09@gmail.com</t>
-  </si>
-  <si>
-    <t>22298451</t>
-  </si>
-  <si>
-    <t>Park English School</t>
-  </si>
-  <si>
-    <t xml:space="preserve">info@theparkenglishschool.com
-</t>
-  </si>
-  <si>
-    <t>033 2229 5426</t>
-  </si>
-  <si>
-    <t>Loreto Day Eliott Road</t>
-  </si>
-  <si>
-    <t>leroffice22@gmail.com </t>
-  </si>
-  <si>
-    <t>033-2229-4256</t>
-  </si>
-  <si>
-    <t>St Augustine's Day School</t>
-  </si>
-  <si>
-    <t>office.kol@stads.in</t>
-  </si>
-  <si>
-    <t>8336076103</t>
-  </si>
-  <si>
-    <t>Harrow Hall</t>
-  </si>
-  <si>
-    <t>harrowhallkolkata@gmail.com</t>
-  </si>
-  <si>
-    <t>0353-32579273</t>
-  </si>
-  <si>
-    <t>Salt Lake Point School</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> saltlake.point.school@dadooindia.com</t>
-  </si>
-  <si>
-    <t>Agrasain Boys School</t>
-  </si>
-  <si>
-    <t>absceo@rediffmail.com.</t>
-  </si>
-  <si>
-    <t>2655 4544 /4547</t>
-  </si>
-  <si>
-    <t>Our Lady Queen's of The Mission</t>
-  </si>
-  <si>
-    <t>ladyqueen_pc@yahoo.co.in</t>
-  </si>
-  <si>
-    <t>33 22908196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Our Lady Queen's of The Mission Salt Lake </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> olqmssaltlake@gmail.com</t>
-  </si>
-  <si>
-    <t>033 2359 8969</t>
-  </si>
-  <si>
-    <t>Modern High School for Girls</t>
-  </si>
-  <si>
-    <t>@mhsforgirls.edu.in</t>
-  </si>
-  <si>
-    <t>3322875326</t>
-  </si>
-  <si>
-    <t>St . Sebastians</t>
-  </si>
-  <si>
-    <t>mpr@stsebastiansc.org.</t>
-  </si>
-  <si>
-    <t>93307 45747</t>
-  </si>
-  <si>
-    <t>Mhadevi Birla Sishu Bvihar</t>
-  </si>
-  <si>
-    <t>office.mbsv@ashokhall.org</t>
-  </si>
-  <si>
-    <t>074398 04806</t>
-  </si>
-  <si>
-    <t>Purwanchal Vidya mandir</t>
-  </si>
-  <si>
-    <t>Purwanchal_vm@rediffmail.com</t>
-  </si>
-  <si>
-    <t>033 2355 7581</t>
-  </si>
-  <si>
-    <t>WWA Cossipore English</t>
-  </si>
-  <si>
-    <t>isawwaces@gmail.com</t>
-  </si>
-  <si>
-    <t>94331 29908</t>
-  </si>
-  <si>
-    <t>Marias Day School</t>
-  </si>
-  <si>
-    <t>9830027754</t>
-  </si>
-  <si>
-    <t>amitavadatta@marias.co.in</t>
-  </si>
-  <si>
-    <t>Chairman</t>
-  </si>
-  <si>
-    <t>Saifee Golden Jubilee</t>
-  </si>
-  <si>
-    <t>contact@sgjskolkata.com</t>
-  </si>
-  <si>
-    <t>2229 8684</t>
-  </si>
-  <si>
-    <t>Sacred Heart Church School  Bowbazar</t>
-  </si>
-  <si>
-    <t>9007111899</t>
-  </si>
-  <si>
-    <t>St. George High School</t>
-  </si>
-  <si>
-    <t>9339980745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">St George Day </t>
-  </si>
-  <si>
-    <t>9339146821</t>
-  </si>
-  <si>
-    <t>Info@Dwpskolkata.In</t>
-  </si>
-  <si>
-    <t>9007175757</t>
-  </si>
-  <si>
-    <t>Delhi World PUBLIC school Narendrapur</t>
-  </si>
-  <si>
-    <t>Delhi World PUBLIC school Barasat</t>
-  </si>
-  <si>
-    <t>info@dwpsbarasat.com</t>
-  </si>
-  <si>
-    <t>8585858012</t>
-  </si>
-  <si>
-    <t>Oxford House Ballygunj</t>
-  </si>
-  <si>
-    <t>oxfordhousepurbachal@gmail.com</t>
-  </si>
-  <si>
-    <t>tel:9038724147</t>
-  </si>
-  <si>
-    <t>Ruby Park Public School</t>
-  </si>
-  <si>
-    <t>info@rubypark.com</t>
-  </si>
-  <si>
-    <t>8687600600</t>
-  </si>
-  <si>
-    <t>BBIT School</t>
-  </si>
-  <si>
-    <t>principalschool@bbit.edu.in</t>
-  </si>
-  <si>
-    <t>8420116666 / 8420123333</t>
-  </si>
-  <si>
-    <t>Shri Sikshayatan School</t>
-  </si>
-  <si>
-    <t>principal@shrishikshayatanschool.com</t>
-  </si>
-  <si>
-    <t> 33 22826350</t>
-  </si>
-  <si>
-    <t>Camellia Public Schools</t>
-  </si>
-  <si>
-    <t>cps.madhyamgram@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-9007030126 </t>
-  </si>
-  <si>
-    <t>The Wisdom Tree Global School</t>
-  </si>
-  <si>
-    <t>ADMISSIONS@TWTGSKOLKATA.ORG</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8240042106</t>
-  </si>
-  <si>
-    <t>Rahara</t>
-  </si>
-  <si>
-    <t>Delhi Public Secondary School</t>
-  </si>
-  <si>
-    <t>dpssbarasat@gmail.com</t>
-  </si>
-  <si>
-    <t>83340 37777</t>
-  </si>
-  <si>
-    <t>infodps2014@gmail.com</t>
-  </si>
-  <si>
-    <t>Dayananad Public School, Chinarpark</t>
-  </si>
-  <si>
-    <t>Dayananad Public School, Barasat</t>
-  </si>
-  <si>
-    <t>Gokhale Memorial School</t>
-  </si>
-  <si>
-    <t>gokhale_memorial@yahoo.in</t>
-  </si>
-  <si>
-    <t>2223-3062</t>
-  </si>
-  <si>
-    <t>Kendriya Vidyalaya Ballygunj</t>
-  </si>
-  <si>
-    <t>principalballygunge@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9830047462 </t>
-  </si>
-  <si>
-    <t>Kendriya Vidyalaya Fort Williams</t>
-  </si>
-  <si>
-    <t>kvfortwilliamkolkata@gmail.com</t>
-  </si>
-  <si>
-    <t>033-22485117</t>
-  </si>
-  <si>
-    <t>The Newtown School</t>
-  </si>
-  <si>
-    <t>http://ntskolkata.org/</t>
-  </si>
-  <si>
-    <t>8584036704
-8584036709</t>
-  </si>
-  <si>
-    <t>Kendriya Vidyalaya Jessore Road</t>
-  </si>
-  <si>
-    <t>kvofdumdum1986@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 33 – 2559 2500</t>
-  </si>
-  <si>
-    <t>Kendriya Vidyalaya Salt Lake</t>
-  </si>
-  <si>
-    <t>principalsaltlake@gmail.com</t>
-  </si>
-  <si>
-    <t>033-23371242</t>
-  </si>
-  <si>
-    <t>Indira Gandhi Memorial High School</t>
-  </si>
-  <si>
-    <t>https://dumdum.igmhs.org/#</t>
-  </si>
-  <si>
-    <t>9903780222</t>
-  </si>
-  <si>
-    <t>Sushila Birla Girl's School</t>
-  </si>
-  <si>
-    <t>principal@sbgskolkata.ac.in</t>
-  </si>
-  <si>
-    <t>33 2287 9006</t>
-  </si>
-  <si>
-    <t>Ashoka Hall's Girl Higher Secondary School</t>
-  </si>
-  <si>
-    <t>office.ahghss@ashokhall.org</t>
-  </si>
-  <si>
-    <t>Bhavan's Gangabaux</t>
-  </si>
-  <si>
-    <t>033 23351249</t>
-  </si>
-  <si>
-    <t>communicate@bhavansgkvidyamandir.edu.in</t>
-  </si>
-  <si>
-    <t>Abhinava Bharati</t>
-  </si>
-  <si>
-    <t>https://abhinavbharati.co.in/#</t>
-  </si>
-  <si>
-    <t>22823516 / 5215</t>
+    <t>9038724147</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="38">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2500,40 +2502,11 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <color rgb="FF333333"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF222222"/>
-      <name val="Montserratlight"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF363636"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -2554,52 +2527,87 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF70757A"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Oswald"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF4F4A4A"/>
       <name val="Texgyreadventorbold"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color rgb="FF5F6368"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color rgb="FF3E3D3D"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF363636"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4D5156"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF70757A"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4F4A4A"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF5F6368"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3E3D3D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2833,7 +2841,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2924,12 +2932,6 @@
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2974,19 +2976,15 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3008,15 +3006,63 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3297,10 +3343,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:R33"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
@@ -3325,23 +3371,23 @@
     <row r="2" spans="2:18" ht="34.200000000000003" thickBot="1">
       <c r="B2" s="27"/>
       <c r="C2" s="28"/>
-      <c r="D2" s="78" t="s">
+      <c r="D2" s="72" t="s">
         <v>293</v>
       </c>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="80"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="74"/>
       <c r="I2" s="29"/>
       <c r="K2" s="27"/>
       <c r="L2" s="28"/>
-      <c r="M2" s="81" t="s">
+      <c r="M2" s="75" t="s">
         <v>374</v>
       </c>
-      <c r="N2" s="82"/>
-      <c r="O2" s="82"/>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="83"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="76"/>
+      <c r="P2" s="76"/>
+      <c r="Q2" s="77"/>
       <c r="R2" s="29"/>
     </row>
     <row r="3" spans="2:18">
@@ -3357,7 +3403,7 @@
       </c>
       <c r="D4" s="16">
         <f>MAX('School-Details'!A:A)</f>
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F4" s="21" t="s">
         <v>265</v>
@@ -3421,7 +3467,7 @@
       <c r="C6" s="16" t="s">
         <v>437</v>
       </c>
-      <c r="D6" s="53">
+      <c r="D6" s="51">
         <v>45299</v>
       </c>
       <c r="F6" s="14" t="s">
@@ -3454,7 +3500,7 @@
       <c r="C7" s="16" t="s">
         <v>439</v>
       </c>
-      <c r="D7" s="53">
+      <c r="D7" s="51">
         <f ca="1">TODAY()</f>
         <v>45307</v>
       </c>
@@ -3488,7 +3534,7 @@
       <c r="C8" s="16" t="s">
         <v>438</v>
       </c>
-      <c r="D8" s="54">
+      <c r="D8" s="52">
         <f ca="1">ROUND(D11/(D7-D6+1),0)</f>
         <v>4</v>
       </c>
@@ -3504,7 +3550,7 @@
       <c r="L8" s="16" t="s">
         <v>437</v>
       </c>
-      <c r="M8" s="53"/>
+      <c r="M8" s="51"/>
       <c r="O8" s="14" t="s">
         <v>283</v>
       </c>
@@ -3528,7 +3574,7 @@
       <c r="L9" s="16" t="s">
         <v>439</v>
       </c>
-      <c r="M9" s="53">
+      <c r="M9" s="51">
         <f ca="1">TODAY()</f>
         <v>45307</v>
       </c>
@@ -3554,7 +3600,7 @@
       <c r="L10" s="16" t="s">
         <v>438</v>
       </c>
-      <c r="M10" s="54">
+      <c r="M10" s="52">
         <f ca="1">ROUND(M14/(M9-M8+1),0)</f>
         <v>0</v>
       </c>
@@ -3570,17 +3616,17 @@
         <v>34</v>
       </c>
       <c r="F11" s="14"/>
-      <c r="G11" s="77" t="s">
+      <c r="G11" s="71" t="s">
         <v>210</v>
       </c>
-      <c r="H11" s="77"/>
+      <c r="H11" s="71"/>
       <c r="I11" s="31"/>
       <c r="K11" s="30"/>
       <c r="O11" s="14"/>
-      <c r="P11" s="77" t="s">
+      <c r="P11" s="71" t="s">
         <v>210</v>
       </c>
-      <c r="Q11" s="77"/>
+      <c r="Q11" s="71"/>
       <c r="R11" s="31"/>
     </row>
     <row r="12" spans="2:18">
@@ -3661,7 +3707,7 @@
     <row r="14" spans="2:18">
       <c r="B14" s="30"/>
       <c r="C14" s="14" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D14" s="14">
         <f>COUNTIF('School-Details'!V:V,C14)</f>
@@ -3741,7 +3787,7 @@
       </c>
       <c r="D16" s="14">
         <f>COUNTIF('School-Details'!V:V,C16)</f>
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F16" s="22">
         <v>45383</v>
@@ -3755,7 +3801,7 @@
       <c r="I16" s="31"/>
       <c r="K16" s="30"/>
       <c r="L16" s="14" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="M16" s="14">
         <f>COUNTIF('College-Details'!V:V,L16)</f>
@@ -3817,7 +3863,7 @@
       </c>
       <c r="D18" s="16">
         <f>SUM(D11:D17)</f>
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F18" s="22">
         <v>45444</v>
@@ -3880,7 +3926,7 @@
       <c r="R19" s="31"/>
     </row>
     <row r="20" spans="2:18">
-      <c r="B20" s="67"/>
+      <c r="B20" s="64"/>
       <c r="C20" s="21" t="s">
         <v>274</v>
       </c>
@@ -4251,25 +4297,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V197"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:V196"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="J182" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T197" sqref="T197"/>
+      <selection pane="bottomRight" activeCell="G184" sqref="G184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="6.6640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="25.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.21875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="80" customWidth="1"/>
+    <col min="4" max="4" width="46.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="37" style="84" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="81" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="16" style="1" customWidth="1"/>
     <col min="10" max="12" width="11" style="1" customWidth="1"/>
     <col min="13" max="13" width="19.6640625" style="1" customWidth="1"/>
@@ -4285,7 +4331,7 @@
       <c r="A1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="18" t="s">
@@ -4300,7 +4346,7 @@
       <c r="F1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="19" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="23" t="s">
@@ -4349,14 +4395,14 @@
         <v>247</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="25.2" customHeight="1">
+    <row r="2" spans="1:22" ht="14.4" customHeight="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="80" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -4365,7 +4411,7 @@
       <c r="E2" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="84" t="s">
         <v>42</v>
       </c>
       <c r="M2" s="1" t="s">
@@ -4398,20 +4444,20 @@
         <v>251</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="28.8">
+    <row r="3" spans="1:22" ht="14.4" customHeight="1">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="80" t="s">
         <v>77</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="84" t="s">
         <v>43</v>
       </c>
       <c r="O3" s="10">
@@ -4441,14 +4487,14 @@
         <v>251</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="28.8">
+    <row r="4" spans="1:22" ht="14.4" customHeight="1">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="80" t="s">
         <v>25</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -4457,10 +4503,10 @@
       <c r="E4" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="84" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="40" t="s">
+      <c r="G4" s="81" t="s">
         <v>36</v>
       </c>
       <c r="O4" s="10">
@@ -4490,14 +4536,14 @@
         <v>251</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="43.2">
+    <row r="5" spans="1:22" ht="14.4" customHeight="1">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="80" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -4506,7 +4552,7 @@
       <c r="E5" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="84" t="s">
         <v>45</v>
       </c>
       <c r="O5" s="10">
@@ -4543,7 +4589,7 @@
       <c r="B6" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="80" t="s">
         <v>25</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -4552,7 +4598,7 @@
       <c r="E6" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="82" t="s">
         <v>46</v>
       </c>
       <c r="O6" s="10">
@@ -4582,14 +4628,14 @@
         <v>263</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="28.8">
+    <row r="7" spans="1:22" ht="14.4" customHeight="1">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>459</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="80" t="s">
         <v>83</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -4598,7 +4644,7 @@
       <c r="E7" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="83" t="s">
         <v>47</v>
       </c>
       <c r="O7" s="10">
@@ -4628,7 +4674,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="28.8">
+    <row r="8" spans="1:22" ht="14.4" customHeight="1">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -4641,7 +4687,7 @@
       <c r="E8" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="83" t="s">
         <v>48</v>
       </c>
       <c r="O8" s="10">
@@ -4671,14 +4717,14 @@
         <v>251</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="43.2">
+    <row r="9" spans="1:22" ht="14.4" customHeight="1">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="80" t="s">
         <v>49</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -4687,7 +4733,7 @@
       <c r="E9" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="84" t="s">
         <v>50</v>
       </c>
       <c r="O9" s="10">
@@ -4717,26 +4763,26 @@
         <v>251</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="28.8">
+    <row r="10" spans="1:22" ht="14.4" customHeight="1">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="17" t="s">
         <v>469</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="80" t="s">
         <v>0</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="84" t="s">
         <v>473</v>
       </c>
-      <c r="G10" s="40" t="s">
+      <c r="G10" s="81" t="s">
         <v>471</v>
       </c>
-      <c r="H10" s="60" t="s">
+      <c r="H10" s="58" t="s">
         <v>472</v>
       </c>
       <c r="O10" s="10">
@@ -4766,14 +4812,14 @@
         <v>263</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="43.2">
+    <row r="11" spans="1:22" ht="14.4" customHeight="1">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="80" t="s">
         <v>0</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -4782,7 +4828,7 @@
       <c r="E11" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="84">
         <v>9903606575</v>
       </c>
       <c r="O11" s="10">
@@ -4812,14 +4858,14 @@
         <v>251</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="43.2">
+    <row r="12" spans="1:22" ht="14.4" customHeight="1">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="80" t="s">
         <v>0</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -4828,7 +4874,7 @@
       <c r="E12" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="84" t="s">
         <v>51</v>
       </c>
       <c r="O12" s="10">
@@ -4858,14 +4904,14 @@
         <v>263</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="28.8">
+    <row r="13" spans="1:22" ht="14.4" customHeight="1">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="80" t="s">
         <v>0</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -4874,7 +4920,7 @@
       <c r="E13" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="84" t="s">
         <v>52</v>
       </c>
       <c r="H13" s="1" t="s">
@@ -4907,7 +4953,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="72">
+    <row r="14" spans="1:22" ht="14.4" customHeight="1">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -4920,7 +4966,7 @@
       <c r="E14" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="84" t="s">
         <v>56</v>
       </c>
       <c r="M14" s="1" t="s">
@@ -4953,7 +4999,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="43.2">
+    <row r="15" spans="1:22" ht="14.4" customHeight="1">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -4963,7 +5009,7 @@
       <c r="D15" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="84" t="s">
         <v>54</v>
       </c>
       <c r="M15" s="1" t="s">
@@ -4996,23 +5042,23 @@
         <v>251</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="28.8">
+    <row r="16" spans="1:22" ht="14.4" customHeight="1">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="61" t="s">
+      <c r="D16" s="59" t="s">
         <v>482</v>
       </c>
-      <c r="E16" s="61" t="s">
+      <c r="E16" s="59" t="s">
         <v>483</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="84" t="s">
         <v>57</v>
       </c>
       <c r="O16" s="10">
@@ -5042,7 +5088,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="43.2">
+    <row r="17" spans="1:22" ht="14.4" customHeight="1">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -5052,10 +5098,10 @@
       <c r="D17" s="6" t="s">
         <v>484</v>
       </c>
-      <c r="E17" s="62" t="s">
+      <c r="E17" s="60" t="s">
         <v>485</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="84" t="s">
         <v>58</v>
       </c>
       <c r="M17" s="1" t="s">
@@ -5088,7 +5134,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="43.2">
+    <row r="18" spans="1:22" ht="14.4" customHeight="1">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -5101,7 +5147,7 @@
       <c r="E18" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="84" t="s">
         <v>59</v>
       </c>
       <c r="M18" s="1" t="s">
@@ -5134,7 +5180,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="28.8">
+    <row r="19" spans="1:22" ht="14.4" customHeight="1">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -5144,7 +5190,7 @@
       <c r="D19" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="84" t="s">
         <v>60</v>
       </c>
       <c r="O19" s="10">
@@ -5174,18 +5220,18 @@
         <v>251</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="28.8">
+    <row r="20" spans="1:22" ht="14.4" customHeight="1">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="80" t="s">
         <v>25</v>
       </c>
       <c r="D20" s="3"/>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="84" t="s">
         <v>61</v>
       </c>
       <c r="O20" s="10">
@@ -5215,21 +5261,21 @@
         <v>251</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:22" ht="14.4" customHeight="1">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="80" t="s">
         <v>25</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>66</v>
       </c>
       <c r="E21" s="5"/>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="84" t="s">
         <v>61</v>
       </c>
       <c r="O21" s="10">
@@ -5259,7 +5305,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="28.8">
+    <row r="22" spans="1:22" ht="14.4" customHeight="1">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -5270,7 +5316,7 @@
         <v>65</v>
       </c>
       <c r="E22" s="3"/>
-      <c r="F22" s="7">
+      <c r="F22" s="84">
         <v>8240520804</v>
       </c>
       <c r="M22" s="1" t="s">
@@ -5303,7 +5349,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="43.2">
+    <row r="23" spans="1:22" ht="14.4" customHeight="1">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -5313,7 +5359,7 @@
       <c r="D23" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="84" t="s">
         <v>62</v>
       </c>
       <c r="M23" s="1" t="s">
@@ -5346,21 +5392,21 @@
         <v>251</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="28.8">
+    <row r="24" spans="1:22" ht="14.4" customHeight="1">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="80" t="s">
         <v>25</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>63</v>
       </c>
       <c r="E24" s="4"/>
-      <c r="F24" s="7">
+      <c r="F24" s="84">
         <v>8961111167</v>
       </c>
       <c r="M24" s="1" t="s">
@@ -5393,21 +5439,21 @@
         <v>263</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="28.8">
+    <row r="25" spans="1:22" ht="14.4" customHeight="1">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="80" t="s">
         <v>25</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>68</v>
       </c>
       <c r="E25" s="6"/>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="84" t="s">
         <v>67</v>
       </c>
       <c r="O25" s="10">
@@ -5437,21 +5483,21 @@
         <v>251</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="28.8">
+    <row r="26" spans="1:22" ht="14.4" customHeight="1">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="80" t="s">
         <v>0</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>70</v>
       </c>
       <c r="E26" s="6"/>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="84" t="s">
         <v>69</v>
       </c>
       <c r="O26" s="10">
@@ -5481,21 +5527,21 @@
         <v>251</v>
       </c>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:22" ht="14.4" customHeight="1">
       <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="80" t="s">
         <v>0</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>71</v>
       </c>
       <c r="E27" s="6"/>
-      <c r="F27" s="7">
+      <c r="F27" s="84">
         <v>7044096127</v>
       </c>
       <c r="O27" s="10">
@@ -5525,20 +5571,20 @@
         <v>251</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="43.2">
+    <row r="28" spans="1:22" ht="14.4" customHeight="1">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="80" t="s">
         <v>292</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="84" t="s">
         <v>290</v>
       </c>
       <c r="J28" s="26">
@@ -5577,17 +5623,17 @@
         <v>251</v>
       </c>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:22" ht="14.4" customHeight="1">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="84">
         <v>9831274629</v>
       </c>
       <c r="O29" s="10">
@@ -5617,21 +5663,21 @@
         <v>251</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="28.8">
+    <row r="30" spans="1:22" ht="14.4" customHeight="1">
       <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="80" t="s">
         <v>25</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>73</v>
       </c>
       <c r="E30" s="3"/>
-      <c r="F30" s="7">
+      <c r="F30" s="84">
         <v>8777257554</v>
       </c>
       <c r="O30" s="10">
@@ -5661,7 +5707,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="28.8">
+    <row r="31" spans="1:22" ht="14.4" customHeight="1">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -5672,7 +5718,7 @@
         <v>40</v>
       </c>
       <c r="E31" s="3"/>
-      <c r="F31" s="7" t="s">
+      <c r="F31" s="84" t="s">
         <v>74</v>
       </c>
       <c r="M31" s="1" t="s">
@@ -5705,7 +5751,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="28.8">
+    <row r="32" spans="1:22" ht="14.4" customHeight="1">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -5716,7 +5762,7 @@
         <v>41</v>
       </c>
       <c r="E32" s="3"/>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="84" t="s">
         <v>75</v>
       </c>
       <c r="M32" s="1" t="s">
@@ -5749,21 +5795,21 @@
         <v>251</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="28.8">
+    <row r="33" spans="1:22" ht="14.4" customHeight="1">
       <c r="A33" s="2">
         <v>32</v>
       </c>
       <c r="B33" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="80" t="s">
         <v>77</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E33" s="3"/>
-      <c r="F33" s="7">
+      <c r="F33" s="84">
         <v>3322651531</v>
       </c>
       <c r="O33" s="10">
@@ -5793,17 +5839,17 @@
         <v>251</v>
       </c>
     </row>
-    <row r="34" spans="1:22">
+    <row r="34" spans="1:22" ht="14.4" customHeight="1">
       <c r="A34" s="2">
         <v>33</v>
       </c>
       <c r="B34" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="80" t="s">
         <v>77</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F34" s="84">
         <v>3324753015</v>
       </c>
       <c r="O34" s="10">
@@ -5833,21 +5879,21 @@
         <v>251</v>
       </c>
     </row>
-    <row r="35" spans="1:22">
+    <row r="35" spans="1:22" ht="14.4" customHeight="1">
       <c r="A35" s="2">
         <v>34</v>
       </c>
       <c r="B35" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="80" t="s">
         <v>77</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>81</v>
       </c>
       <c r="E35" s="3"/>
-      <c r="F35" s="7">
+      <c r="F35" s="84">
         <v>3340196666</v>
       </c>
       <c r="M35" s="1" t="s">
@@ -5880,20 +5926,20 @@
         <v>251</v>
       </c>
     </row>
-    <row r="36" spans="1:22">
+    <row r="36" spans="1:22" ht="14.4" customHeight="1">
       <c r="A36" s="2">
         <v>35</v>
       </c>
       <c r="B36" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="80" t="s">
         <v>83</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F36" s="7">
+      <c r="F36" s="84">
         <v>3324753765</v>
       </c>
       <c r="O36" s="10">
@@ -5923,21 +5969,21 @@
         <v>263</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="28.8">
+    <row r="37" spans="1:22" ht="14.4" customHeight="1">
       <c r="A37" s="2">
         <v>36</v>
       </c>
       <c r="B37" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="80" t="s">
         <v>77</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>86</v>
       </c>
       <c r="E37" s="3"/>
-      <c r="F37" s="7">
+      <c r="F37" s="84">
         <v>3324286903</v>
       </c>
       <c r="O37" s="10">
@@ -5967,20 +6013,20 @@
         <v>251</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="28.8">
+    <row r="38" spans="1:22" ht="14.4" customHeight="1">
       <c r="A38" s="2">
         <v>37</v>
       </c>
       <c r="B38" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="80" t="s">
         <v>77</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="F38" s="8">
+      <c r="F38" s="82">
         <v>8902488077</v>
       </c>
       <c r="O38" s="10">
@@ -6010,20 +6056,20 @@
         <v>263</v>
       </c>
     </row>
-    <row r="39" spans="1:22">
+    <row r="39" spans="1:22" ht="14.4" customHeight="1">
       <c r="A39" s="2">
         <v>38</v>
       </c>
       <c r="B39" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="D39" s="63" t="s">
+      <c r="D39" s="61" t="s">
         <v>491</v>
       </c>
-      <c r="F39" s="9">
+      <c r="F39" s="83">
         <v>9163741069</v>
       </c>
       <c r="O39" s="10">
@@ -6053,20 +6099,20 @@
         <v>251</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="28.8">
+    <row r="40" spans="1:22" ht="14.4" customHeight="1">
       <c r="A40" s="2">
         <v>39</v>
       </c>
       <c r="B40" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="80" t="s">
         <v>0</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="F40" s="9">
+      <c r="F40" s="83">
         <v>3324411691</v>
       </c>
       <c r="O40" s="10">
@@ -6096,21 +6142,21 @@
         <v>263</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="28.8">
+    <row r="41" spans="1:22" ht="14.4" customHeight="1">
       <c r="A41" s="2">
         <v>40</v>
       </c>
       <c r="B41" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="80" t="s">
         <v>77</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>91</v>
       </c>
       <c r="E41" s="3"/>
-      <c r="F41" s="7">
+      <c r="F41" s="84">
         <v>3324413804</v>
       </c>
       <c r="O41" s="10">
@@ -6140,21 +6186,21 @@
         <v>251</v>
       </c>
     </row>
-    <row r="42" spans="1:22">
+    <row r="42" spans="1:22" ht="14.4" customHeight="1">
       <c r="A42" s="2">
         <v>41</v>
       </c>
       <c r="B42" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="80" t="s">
         <v>77</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>93</v>
       </c>
       <c r="E42" s="3"/>
-      <c r="F42" s="7">
+      <c r="F42" s="84">
         <v>9830688888</v>
       </c>
       <c r="O42" s="10">
@@ -6184,21 +6230,21 @@
         <v>263</v>
       </c>
     </row>
-    <row r="43" spans="1:22">
+    <row r="43" spans="1:22" ht="14.4" customHeight="1">
       <c r="A43" s="2">
         <v>42</v>
       </c>
       <c r="B43" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="80" t="s">
         <v>77</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>95</v>
       </c>
       <c r="E43" s="3"/>
-      <c r="F43" s="7">
+      <c r="F43" s="84">
         <v>9073985531</v>
       </c>
       <c r="O43" s="10">
@@ -6228,20 +6274,20 @@
         <v>263</v>
       </c>
     </row>
-    <row r="44" spans="1:22">
+    <row r="44" spans="1:22" ht="14.4" customHeight="1">
       <c r="A44" s="2">
         <v>43</v>
       </c>
       <c r="B44" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="80" t="s">
         <v>77</v>
       </c>
-      <c r="D44" s="64" t="s">
+      <c r="D44" s="62" t="s">
         <v>492</v>
       </c>
-      <c r="F44" s="7">
+      <c r="F44" s="84">
         <v>3324712220</v>
       </c>
       <c r="O44" s="10">
@@ -6271,20 +6317,20 @@
         <v>263</v>
       </c>
     </row>
-    <row r="45" spans="1:22">
+    <row r="45" spans="1:22" ht="14.4" customHeight="1">
       <c r="A45" s="2">
         <v>44</v>
       </c>
       <c r="B45" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="80" t="s">
         <v>77</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="F45" s="7">
+      <c r="F45" s="84">
         <v>3324131158</v>
       </c>
       <c r="O45" s="10">
@@ -6314,17 +6360,17 @@
         <v>263</v>
       </c>
     </row>
-    <row r="46" spans="1:22">
+    <row r="46" spans="1:22" ht="14.4" customHeight="1">
       <c r="A46" s="2">
         <v>45</v>
       </c>
       <c r="B46" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F46" s="7">
+      <c r="C46" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="F46" s="84">
         <v>9836242629</v>
       </c>
       <c r="O46" s="10">
@@ -6354,21 +6400,21 @@
         <v>263</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="28.8">
+    <row r="47" spans="1:22" ht="14.4" customHeight="1">
       <c r="A47" s="2">
         <v>46</v>
       </c>
       <c r="B47" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="80" t="s">
         <v>77</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>100</v>
       </c>
       <c r="E47" s="3"/>
-      <c r="F47" s="7" t="s">
+      <c r="F47" s="84" t="s">
         <v>101</v>
       </c>
       <c r="O47" s="10">
@@ -6398,21 +6444,21 @@
         <v>263</v>
       </c>
     </row>
-    <row r="48" spans="1:22">
+    <row r="48" spans="1:22" ht="14.4" customHeight="1">
       <c r="A48" s="2">
         <v>47</v>
       </c>
       <c r="B48" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="80" t="s">
         <v>77</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>103</v>
       </c>
       <c r="E48" s="3"/>
-      <c r="F48" s="7">
+      <c r="F48" s="84">
         <v>9051973905</v>
       </c>
       <c r="O48" s="10">
@@ -6442,21 +6488,21 @@
         <v>263</v>
       </c>
     </row>
-    <row r="49" spans="1:22" ht="28.8">
+    <row r="49" spans="1:22" ht="14.4" customHeight="1">
       <c r="A49" s="2">
         <v>48</v>
       </c>
       <c r="B49" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="80" t="s">
         <v>0</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>105</v>
       </c>
       <c r="E49" s="3"/>
-      <c r="F49" s="7">
+      <c r="F49" s="84">
         <v>9674850783</v>
       </c>
       <c r="O49" s="10">
@@ -6486,20 +6532,20 @@
         <v>263</v>
       </c>
     </row>
-    <row r="50" spans="1:22" ht="28.8">
+    <row r="50" spans="1:22" ht="14.4" customHeight="1">
       <c r="A50" s="2">
         <v>49</v>
       </c>
       <c r="B50" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="80" t="s">
         <v>0</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F50" s="7">
+      <c r="F50" s="84">
         <v>9674111783</v>
       </c>
       <c r="O50" s="10">
@@ -6529,21 +6575,21 @@
         <v>263</v>
       </c>
     </row>
-    <row r="51" spans="1:22">
+    <row r="51" spans="1:22" ht="14.4" customHeight="1">
       <c r="A51" s="2">
         <v>50</v>
       </c>
       <c r="B51" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="80" t="s">
         <v>0</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>109</v>
       </c>
       <c r="E51" s="3"/>
-      <c r="F51" s="7">
+      <c r="F51" s="84">
         <v>33218260082</v>
       </c>
       <c r="O51" s="10">
@@ -6573,21 +6619,21 @@
         <v>263</v>
       </c>
     </row>
-    <row r="52" spans="1:22">
+    <row r="52" spans="1:22" ht="14.4" customHeight="1">
       <c r="A52" s="2">
         <v>51</v>
       </c>
       <c r="B52" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="80" t="s">
         <v>77</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>111</v>
       </c>
       <c r="E52" s="3"/>
-      <c r="F52" s="7">
+      <c r="F52" s="84">
         <v>3322879202</v>
       </c>
       <c r="O52" s="10">
@@ -6617,21 +6663,21 @@
         <v>263</v>
       </c>
     </row>
-    <row r="53" spans="1:22">
+    <row r="53" spans="1:22" ht="14.4" customHeight="1">
       <c r="A53" s="2">
         <v>52</v>
       </c>
       <c r="B53" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="80" t="s">
         <v>77</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>113</v>
       </c>
       <c r="E53" s="6"/>
-      <c r="F53" s="7">
+      <c r="F53" s="84">
         <v>3322841546</v>
       </c>
       <c r="O53" s="10">
@@ -6661,21 +6707,21 @@
         <v>263</v>
       </c>
     </row>
-    <row r="54" spans="1:22" ht="28.8">
+    <row r="54" spans="1:22" ht="14.4" customHeight="1">
       <c r="A54" s="2">
         <v>53</v>
       </c>
       <c r="B54" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="80" t="s">
         <v>77</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>115</v>
       </c>
       <c r="E54" s="3"/>
-      <c r="F54" s="7">
+      <c r="F54" s="84">
         <v>3322484593</v>
       </c>
       <c r="O54" s="10">
@@ -6705,21 +6751,21 @@
         <v>263</v>
       </c>
     </row>
-    <row r="55" spans="1:22" ht="28.8">
+    <row r="55" spans="1:22" ht="14.4" customHeight="1">
       <c r="A55" s="2">
         <v>54</v>
       </c>
       <c r="B55" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="80" t="s">
         <v>77</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>117</v>
       </c>
       <c r="E55" s="3"/>
-      <c r="F55" s="7">
+      <c r="F55" s="84">
         <v>3322297741</v>
       </c>
       <c r="O55" s="10">
@@ -6749,21 +6795,21 @@
         <v>263</v>
       </c>
     </row>
-    <row r="56" spans="1:22" ht="28.8">
+    <row r="56" spans="1:22" ht="14.4" customHeight="1">
       <c r="A56" s="2">
         <v>55</v>
       </c>
       <c r="B56" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="80" t="s">
         <v>77</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>119</v>
       </c>
       <c r="E56" s="6"/>
-      <c r="F56" s="7">
+      <c r="F56" s="84">
         <v>3324793241</v>
       </c>
       <c r="O56" s="10">
@@ -6793,21 +6839,21 @@
         <v>263</v>
       </c>
     </row>
-    <row r="57" spans="1:22">
+    <row r="57" spans="1:22" ht="14.4" customHeight="1">
       <c r="A57" s="2">
         <v>56</v>
       </c>
       <c r="B57" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="80" t="s">
         <v>77</v>
       </c>
       <c r="D57" s="6" t="s">
         <v>121</v>
       </c>
       <c r="E57" s="6"/>
-      <c r="F57" s="7">
+      <c r="F57" s="84">
         <v>3324344455</v>
       </c>
       <c r="O57" s="10">
@@ -6837,21 +6883,21 @@
         <v>263</v>
       </c>
     </row>
-    <row r="58" spans="1:22">
+    <row r="58" spans="1:22" ht="14.4" customHeight="1">
       <c r="A58" s="2">
         <v>57</v>
       </c>
       <c r="B58" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="80" t="s">
         <v>77</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>121</v>
       </c>
       <c r="E58" s="6"/>
-      <c r="F58" s="7">
+      <c r="F58" s="84">
         <v>3340083093</v>
       </c>
       <c r="O58" s="10">
@@ -6881,21 +6927,21 @@
         <v>263</v>
       </c>
     </row>
-    <row r="59" spans="1:22">
+    <row r="59" spans="1:22" ht="14.4" customHeight="1">
       <c r="A59" s="2">
         <v>58</v>
       </c>
       <c r="B59" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="80" t="s">
         <v>83</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>123</v>
       </c>
       <c r="E59" s="6"/>
-      <c r="F59" s="7">
+      <c r="F59" s="84">
         <v>3324618002</v>
       </c>
       <c r="O59" s="10">
@@ -6925,21 +6971,21 @@
         <v>263</v>
       </c>
     </row>
-    <row r="60" spans="1:22" ht="28.8">
+    <row r="60" spans="1:22" ht="14.4" customHeight="1">
       <c r="A60" s="2">
         <v>59</v>
       </c>
       <c r="B60" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="80" t="s">
         <v>0</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>125</v>
       </c>
       <c r="E60" s="3"/>
-      <c r="F60" s="7" t="s">
+      <c r="F60" s="84" t="s">
         <v>126</v>
       </c>
       <c r="O60" s="10">
@@ -6969,21 +7015,21 @@
         <v>263</v>
       </c>
     </row>
-    <row r="61" spans="1:22" ht="28.8">
+    <row r="61" spans="1:22" ht="14.4" customHeight="1">
       <c r="A61" s="2">
         <v>60</v>
       </c>
       <c r="B61" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="80" t="s">
         <v>77</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>128</v>
       </c>
       <c r="E61" s="3"/>
-      <c r="F61" s="7">
+      <c r="F61" s="84">
         <v>3324569090</v>
       </c>
       <c r="O61" s="10">
@@ -7013,21 +7059,21 @@
         <v>263</v>
       </c>
     </row>
-    <row r="62" spans="1:22" ht="28.8">
+    <row r="62" spans="1:22" ht="14.4" customHeight="1">
       <c r="A62" s="2">
         <v>61</v>
       </c>
       <c r="B62" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="80" t="s">
         <v>77</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E62" s="3"/>
-      <c r="F62" s="7">
+      <c r="F62" s="84">
         <v>3322233062</v>
       </c>
       <c r="O62" s="10">
@@ -7057,21 +7103,21 @@
         <v>263</v>
       </c>
     </row>
-    <row r="63" spans="1:22" ht="28.8">
+    <row r="63" spans="1:22" ht="14.4" customHeight="1">
       <c r="A63" s="2">
         <v>62</v>
       </c>
       <c r="B63" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="80" t="s">
         <v>77</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>132</v>
       </c>
       <c r="E63" s="3"/>
-      <c r="F63" s="7" t="s">
+      <c r="F63" s="84" t="s">
         <v>133</v>
       </c>
       <c r="O63" s="10">
@@ -7101,21 +7147,21 @@
         <v>263</v>
       </c>
     </row>
-    <row r="64" spans="1:22">
+    <row r="64" spans="1:22" ht="14.4" customHeight="1">
       <c r="A64" s="2">
         <v>63</v>
       </c>
       <c r="B64" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="80" t="s">
         <v>77</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>135</v>
       </c>
       <c r="E64" s="3"/>
-      <c r="F64" s="7">
+      <c r="F64" s="84">
         <v>3324793600</v>
       </c>
       <c r="O64" s="10">
@@ -7145,21 +7191,21 @@
         <v>263</v>
       </c>
     </row>
-    <row r="65" spans="1:22" ht="28.8">
+    <row r="65" spans="1:22" ht="14.4" customHeight="1">
       <c r="A65" s="2">
         <v>64</v>
       </c>
       <c r="B65" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="80" t="s">
         <v>0</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>137</v>
       </c>
       <c r="E65" s="3"/>
-      <c r="F65" s="7">
+      <c r="F65" s="84">
         <v>3324866629</v>
       </c>
       <c r="O65" s="10">
@@ -7189,21 +7235,21 @@
         <v>263</v>
       </c>
     </row>
-    <row r="66" spans="1:22">
+    <row r="66" spans="1:22" ht="14.4" customHeight="1">
       <c r="A66" s="2">
         <v>65</v>
       </c>
       <c r="B66" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="80" t="s">
         <v>77</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>139</v>
       </c>
       <c r="E66" s="3"/>
-      <c r="F66" s="7">
+      <c r="F66" s="84">
         <v>3322848038</v>
       </c>
       <c r="O66" s="10">
@@ -7233,21 +7279,21 @@
         <v>263</v>
       </c>
     </row>
-    <row r="67" spans="1:22">
+    <row r="67" spans="1:22" ht="14.4" customHeight="1">
       <c r="A67" s="2">
         <v>66</v>
       </c>
       <c r="B67" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="80" t="s">
         <v>77</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>141</v>
       </c>
       <c r="E67" s="3"/>
-      <c r="F67" s="7">
+      <c r="F67" s="84">
         <v>905188888</v>
       </c>
       <c r="O67" s="10">
@@ -7277,21 +7323,21 @@
         <v>263</v>
       </c>
     </row>
-    <row r="68" spans="1:22">
+    <row r="68" spans="1:22" ht="14.4" customHeight="1">
       <c r="A68" s="2">
         <v>67</v>
       </c>
       <c r="B68" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="80" t="s">
         <v>77</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>143</v>
       </c>
       <c r="E68" s="3"/>
-      <c r="F68" s="7">
+      <c r="F68" s="84">
         <v>7596949952</v>
       </c>
       <c r="O68" s="10">
@@ -7321,21 +7367,21 @@
         <v>263</v>
       </c>
     </row>
-    <row r="69" spans="1:22" ht="28.8">
+    <row r="69" spans="1:22" ht="14.4" customHeight="1">
       <c r="A69" s="2">
         <v>68</v>
       </c>
       <c r="B69" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="80" t="s">
         <v>77</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>145</v>
       </c>
       <c r="E69" s="3"/>
-      <c r="F69" s="7">
+      <c r="F69" s="84">
         <v>7478196910</v>
       </c>
       <c r="O69" s="10">
@@ -7365,21 +7411,21 @@
         <v>263</v>
       </c>
     </row>
-    <row r="70" spans="1:22" ht="28.8">
+    <row r="70" spans="1:22" ht="14.4" customHeight="1">
       <c r="A70" s="2">
         <v>69</v>
       </c>
       <c r="B70" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="80" t="s">
         <v>0</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>147</v>
       </c>
       <c r="E70" s="3"/>
-      <c r="F70" s="7">
+      <c r="F70" s="84">
         <v>7044447761</v>
       </c>
       <c r="O70" s="10">
@@ -7409,21 +7455,21 @@
         <v>263</v>
       </c>
     </row>
-    <row r="71" spans="1:22" ht="28.8">
+    <row r="71" spans="1:22" ht="14.4" customHeight="1">
       <c r="A71" s="2">
         <v>70</v>
       </c>
       <c r="B71" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="80" t="s">
         <v>0</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>149</v>
       </c>
       <c r="E71" s="3"/>
-      <c r="F71" s="7">
+      <c r="F71" s="84">
         <v>7059600647</v>
       </c>
       <c r="O71" s="10">
@@ -7453,21 +7499,21 @@
         <v>263</v>
       </c>
     </row>
-    <row r="72" spans="1:22">
+    <row r="72" spans="1:22" ht="14.4" customHeight="1">
       <c r="A72" s="2">
         <v>71</v>
       </c>
       <c r="B72" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="80" t="s">
         <v>77</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>151</v>
       </c>
       <c r="E72" s="3"/>
-      <c r="F72" s="7">
+      <c r="F72" s="84">
         <v>3340072444</v>
       </c>
       <c r="O72" s="10">
@@ -7497,21 +7543,21 @@
         <v>263</v>
       </c>
     </row>
-    <row r="73" spans="1:22" ht="28.8">
+    <row r="73" spans="1:22" ht="14.4" customHeight="1">
       <c r="A73" s="2">
         <v>72</v>
       </c>
       <c r="B73" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" s="80" t="s">
         <v>77</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>153</v>
       </c>
       <c r="E73" s="3"/>
-      <c r="F73" s="7">
+      <c r="F73" s="84">
         <v>9903102957</v>
       </c>
       <c r="O73" s="10">
@@ -7541,17 +7587,17 @@
         <v>263</v>
       </c>
     </row>
-    <row r="74" spans="1:22">
+    <row r="74" spans="1:22" ht="14.4" customHeight="1">
       <c r="A74" s="2">
         <v>73</v>
       </c>
       <c r="B74" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" s="80" t="s">
         <v>77</v>
       </c>
-      <c r="F74" s="7">
+      <c r="F74" s="84">
         <v>7605080650</v>
       </c>
       <c r="O74" s="10">
@@ -7581,21 +7627,21 @@
         <v>263</v>
       </c>
     </row>
-    <row r="75" spans="1:22">
+    <row r="75" spans="1:22" ht="14.4" customHeight="1">
       <c r="A75" s="2">
         <v>74</v>
       </c>
       <c r="B75" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" s="80" t="s">
         <v>83</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>156</v>
       </c>
       <c r="E75" s="3"/>
-      <c r="F75" s="7">
+      <c r="F75" s="84">
         <v>3324752135</v>
       </c>
       <c r="O75" s="10">
@@ -7625,17 +7671,17 @@
         <v>263</v>
       </c>
     </row>
-    <row r="76" spans="1:22">
+    <row r="76" spans="1:22" ht="14.4" customHeight="1">
       <c r="A76" s="2">
         <v>75</v>
       </c>
       <c r="B76" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F76" s="7">
+      <c r="C76" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="F76" s="84">
         <v>9674645471</v>
       </c>
       <c r="O76" s="10">
@@ -7665,14 +7711,14 @@
         <v>263</v>
       </c>
     </row>
-    <row r="77" spans="1:22">
+    <row r="77" spans="1:22" ht="14.4" customHeight="1">
       <c r="A77" s="2">
         <v>76</v>
       </c>
       <c r="B77" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="F77" s="7">
+      <c r="F77" s="84">
         <v>9073681886</v>
       </c>
       <c r="O77" s="10">
@@ -7709,14 +7755,14 @@
       <c r="B78" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" s="80" t="s">
         <v>77</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>160</v>
       </c>
       <c r="E78" s="3"/>
-      <c r="F78" s="7">
+      <c r="F78" s="84">
         <v>3324316997</v>
       </c>
       <c r="O78" s="10">
@@ -7753,14 +7799,14 @@
       <c r="B79" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" s="80" t="s">
         <v>0</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>162</v>
       </c>
       <c r="E79" s="3"/>
-      <c r="F79" s="7">
+      <c r="F79" s="84">
         <v>3322291779</v>
       </c>
       <c r="O79" s="10">
@@ -7797,14 +7843,14 @@
       <c r="B80" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" s="80" t="s">
         <v>0</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>164</v>
       </c>
       <c r="E80" s="3"/>
-      <c r="F80" s="7">
+      <c r="F80" s="84">
         <v>3323215151</v>
       </c>
       <c r="O80" s="10">
@@ -7834,21 +7880,21 @@
         <v>263</v>
       </c>
     </row>
-    <row r="81" spans="1:22" ht="28.8">
+    <row r="81" spans="1:22" ht="14.4" customHeight="1">
       <c r="A81" s="2">
         <v>80</v>
       </c>
       <c r="B81" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" s="80" t="s">
         <v>0</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>166</v>
       </c>
       <c r="E81" s="3"/>
-      <c r="F81" s="7">
+      <c r="F81" s="84">
         <v>3323342404</v>
       </c>
       <c r="O81" s="10">
@@ -7878,20 +7924,20 @@
         <v>263</v>
       </c>
     </row>
-    <row r="82" spans="1:22" ht="28.8">
+    <row r="82" spans="1:22" ht="14.4" customHeight="1">
       <c r="A82" s="2">
         <v>81</v>
       </c>
       <c r="B82" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" s="80" t="s">
         <v>77</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="F82" s="7" t="s">
+      <c r="F82" s="84" t="s">
         <v>168</v>
       </c>
       <c r="O82" s="10">
@@ -7921,20 +7967,20 @@
         <v>263</v>
       </c>
     </row>
-    <row r="83" spans="1:22" ht="28.8">
+    <row r="83" spans="1:22" ht="14.4" customHeight="1">
       <c r="A83" s="2">
         <v>82</v>
       </c>
       <c r="B83" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" s="80" t="s">
         <v>0</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="F83" s="7" t="s">
+      <c r="F83" s="84" t="s">
         <v>170</v>
       </c>
       <c r="O83" s="10">
@@ -7971,13 +8017,13 @@
       <c r="B84" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" s="80" t="s">
         <v>77</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="F84" s="7">
+      <c r="F84" s="84">
         <v>9606279184</v>
       </c>
       <c r="O84" s="10">
@@ -8014,14 +8060,14 @@
       <c r="B85" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C85" s="80" t="s">
         <v>0</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>173</v>
       </c>
       <c r="E85" s="3"/>
-      <c r="F85" s="7">
+      <c r="F85" s="84">
         <v>8777867589</v>
       </c>
       <c r="O85" s="10">
@@ -8051,20 +8097,20 @@
         <v>263</v>
       </c>
     </row>
-    <row r="86" spans="1:22" ht="28.8">
+    <row r="86" spans="1:22" ht="14.4" customHeight="1">
       <c r="A86" s="2">
         <v>85</v>
       </c>
       <c r="B86" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" s="80" t="s">
         <v>0</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="F86" s="7">
+      <c r="F86" s="84">
         <v>8017672075</v>
       </c>
       <c r="O86" s="10">
@@ -8094,20 +8140,20 @@
         <v>263</v>
       </c>
     </row>
-    <row r="87" spans="1:22">
+    <row r="87" spans="1:22" ht="14.4" customHeight="1">
       <c r="A87" s="2">
         <v>86</v>
       </c>
       <c r="B87" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87" s="80" t="s">
         <v>0</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="F87" s="7">
+      <c r="F87" s="84">
         <v>3324492810</v>
       </c>
       <c r="O87" s="10">
@@ -8137,21 +8183,21 @@
         <v>263</v>
       </c>
     </row>
-    <row r="88" spans="1:22">
+    <row r="88" spans="1:22" ht="14.4" customHeight="1">
       <c r="A88" s="2">
         <v>87</v>
       </c>
       <c r="B88" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C88" s="80" t="s">
         <v>0</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>177</v>
       </c>
       <c r="E88" s="3"/>
-      <c r="F88" s="7">
+      <c r="F88" s="84">
         <v>3324967196</v>
       </c>
       <c r="O88" s="10">
@@ -8181,21 +8227,21 @@
         <v>263</v>
       </c>
     </row>
-    <row r="89" spans="1:22">
+    <row r="89" spans="1:22" ht="14.4" customHeight="1">
       <c r="A89" s="2">
         <v>88</v>
       </c>
       <c r="B89" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C89" s="80" t="s">
         <v>83</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>179</v>
       </c>
       <c r="E89" s="3"/>
-      <c r="F89" s="7">
+      <c r="F89" s="84">
         <v>9830701347</v>
       </c>
       <c r="O89" s="10">
@@ -8225,20 +8271,20 @@
         <v>263</v>
       </c>
     </row>
-    <row r="90" spans="1:22" ht="28.8">
+    <row r="90" spans="1:22" ht="14.4" customHeight="1">
       <c r="A90" s="2">
         <v>89</v>
       </c>
       <c r="B90" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C90" s="80" t="s">
         <v>0</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="F90" s="7">
+      <c r="F90" s="84">
         <v>3324961723</v>
       </c>
       <c r="O90" s="10">
@@ -8268,21 +8314,21 @@
         <v>263</v>
       </c>
     </row>
-    <row r="91" spans="1:22" ht="28.8">
+    <row r="91" spans="1:22" ht="14.4" customHeight="1">
       <c r="A91" s="2">
         <v>90</v>
       </c>
       <c r="B91" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C91" s="80" t="s">
         <v>0</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>182</v>
       </c>
       <c r="E91" s="3"/>
-      <c r="F91" s="7">
+      <c r="F91" s="84">
         <v>9007792852</v>
       </c>
       <c r="O91" s="10">
@@ -8312,23 +8358,23 @@
         <v>263</v>
       </c>
     </row>
-    <row r="92" spans="1:22">
+    <row r="92" spans="1:22" ht="14.4" customHeight="1">
       <c r="A92" s="2">
         <v>91</v>
       </c>
       <c r="B92" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C92" s="80" t="s">
         <v>83</v>
       </c>
-      <c r="D92" s="65" t="s">
+      <c r="D92" s="63" t="s">
         <v>500</v>
       </c>
-      <c r="E92" s="65" t="s">
+      <c r="E92" s="63" t="s">
         <v>501</v>
       </c>
-      <c r="F92" s="7">
+      <c r="F92" s="84">
         <v>8902765583</v>
       </c>
       <c r="O92" s="10">
@@ -8358,20 +8404,20 @@
         <v>263</v>
       </c>
     </row>
-    <row r="93" spans="1:22" ht="57.6">
+    <row r="93" spans="1:22" ht="14.4" customHeight="1">
       <c r="A93" s="2">
         <v>92</v>
       </c>
       <c r="B93" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" s="80" t="s">
         <v>0</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="F93" s="7">
+      <c r="F93" s="84">
         <v>9331866252</v>
       </c>
       <c r="O93" s="10">
@@ -8401,20 +8447,20 @@
         <v>263</v>
       </c>
     </row>
-    <row r="94" spans="1:22" ht="28.8">
+    <row r="94" spans="1:22" ht="14.4" customHeight="1">
       <c r="A94" s="2">
         <v>93</v>
       </c>
       <c r="B94" s="17" t="s">
         <v>504</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C94" s="80" t="s">
         <v>0</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="F94" s="7" t="s">
+      <c r="F94" s="84" t="s">
         <v>505</v>
       </c>
       <c r="O94" s="10">
@@ -8444,17 +8490,17 @@
         <v>263</v>
       </c>
     </row>
-    <row r="95" spans="1:22">
+    <row r="95" spans="1:22" ht="14.4" customHeight="1">
       <c r="A95" s="2">
         <v>94</v>
       </c>
       <c r="B95" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="C95" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F95" s="7">
+      <c r="C95" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="F95" s="84">
         <v>8336998663</v>
       </c>
       <c r="O95" s="10">
@@ -8484,17 +8530,17 @@
         <v>263</v>
       </c>
     </row>
-    <row r="96" spans="1:22">
+    <row r="96" spans="1:22" ht="14.4" customHeight="1">
       <c r="A96" s="2">
         <v>95</v>
       </c>
       <c r="B96" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="C96" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F96" s="7">
+      <c r="C96" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="F96" s="84">
         <v>9339527506</v>
       </c>
       <c r="O96" s="10">
@@ -8524,17 +8570,17 @@
         <v>263</v>
       </c>
     </row>
-    <row r="97" spans="1:22">
+    <row r="97" spans="1:22" ht="14.4" customHeight="1">
       <c r="A97" s="2">
         <v>96</v>
       </c>
       <c r="B97" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="C97" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F97" s="7">
+      <c r="C97" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="F97" s="84">
         <v>9903312630</v>
       </c>
       <c r="O97" s="10">
@@ -8564,17 +8610,17 @@
         <v>263</v>
       </c>
     </row>
-    <row r="98" spans="1:22">
+    <row r="98" spans="1:22" ht="14.4" customHeight="1">
       <c r="A98" s="2">
         <v>97</v>
       </c>
       <c r="B98" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="C98" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F98" s="7">
+      <c r="C98" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="F98" s="84">
         <v>9836747400</v>
       </c>
       <c r="O98" s="10">
@@ -8604,17 +8650,17 @@
         <v>263</v>
       </c>
     </row>
-    <row r="99" spans="1:22">
+    <row r="99" spans="1:22" ht="14.4" customHeight="1">
       <c r="A99" s="2">
         <v>98</v>
       </c>
       <c r="B99" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C99" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="F99" s="7">
+      <c r="F99" s="84">
         <v>8100188019</v>
       </c>
       <c r="O99" s="10">
@@ -8644,17 +8690,17 @@
         <v>263</v>
       </c>
     </row>
-    <row r="100" spans="1:22">
+    <row r="100" spans="1:22" ht="14.4" customHeight="1">
       <c r="A100" s="2">
         <v>99</v>
       </c>
       <c r="B100" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C100" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="F100" s="7" t="s">
+      <c r="F100" s="84" t="s">
         <v>196</v>
       </c>
       <c r="O100" s="10">
@@ -8684,17 +8730,17 @@
         <v>263</v>
       </c>
     </row>
-    <row r="101" spans="1:22">
+    <row r="101" spans="1:22" ht="14.4" customHeight="1">
       <c r="A101" s="2">
         <v>100</v>
       </c>
       <c r="B101" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C101" s="80" t="s">
         <v>83</v>
       </c>
-      <c r="F101" s="7" t="s">
+      <c r="F101" s="84" t="s">
         <v>197</v>
       </c>
       <c r="O101" s="10">
@@ -8724,17 +8770,17 @@
         <v>263</v>
       </c>
     </row>
-    <row r="102" spans="1:22" ht="28.8">
+    <row r="102" spans="1:22" ht="14.4" customHeight="1">
       <c r="A102" s="2">
         <v>101</v>
       </c>
       <c r="B102" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C102" s="80" t="s">
         <v>83</v>
       </c>
-      <c r="F102" s="7" t="s">
+      <c r="F102" s="84" t="s">
         <v>200</v>
       </c>
       <c r="O102" s="10">
@@ -8764,17 +8810,17 @@
         <v>263</v>
       </c>
     </row>
-    <row r="103" spans="1:22">
+    <row r="103" spans="1:22" ht="14.4" customHeight="1">
       <c r="A103" s="2">
         <v>102</v>
       </c>
       <c r="B103" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C103" s="80" t="s">
         <v>83</v>
       </c>
-      <c r="F103" s="7" t="s">
+      <c r="F103" s="84" t="s">
         <v>201</v>
       </c>
       <c r="O103" s="10">
@@ -8804,17 +8850,17 @@
         <v>263</v>
       </c>
     </row>
-    <row r="104" spans="1:22">
+    <row r="104" spans="1:22" ht="14.4" customHeight="1">
       <c r="A104" s="2">
         <v>103</v>
       </c>
       <c r="B104" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C104" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="F104" s="7" t="s">
+      <c r="F104" s="84" t="s">
         <v>202</v>
       </c>
       <c r="O104" s="10">
@@ -8844,17 +8890,17 @@
         <v>263</v>
       </c>
     </row>
-    <row r="105" spans="1:22">
+    <row r="105" spans="1:22" ht="14.4" customHeight="1">
       <c r="A105" s="2">
         <v>104</v>
       </c>
       <c r="B105" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C105" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="F105" s="7" t="s">
+      <c r="F105" s="84" t="s">
         <v>203</v>
       </c>
       <c r="O105" s="10">
@@ -8884,17 +8930,17 @@
         <v>263</v>
       </c>
     </row>
-    <row r="106" spans="1:22">
+    <row r="106" spans="1:22" ht="14.4" customHeight="1">
       <c r="A106" s="2">
         <v>105</v>
       </c>
       <c r="B106" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C106" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="F106" s="7" t="s">
+      <c r="F106" s="84" t="s">
         <v>204</v>
       </c>
       <c r="O106" s="10">
@@ -8924,17 +8970,17 @@
         <v>263</v>
       </c>
     </row>
-    <row r="107" spans="1:22" ht="28.8">
+    <row r="107" spans="1:22" ht="14.4" customHeight="1">
       <c r="A107" s="2">
         <v>106</v>
       </c>
       <c r="B107" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C107" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="F107" s="7" t="s">
+      <c r="F107" s="84" t="s">
         <v>205</v>
       </c>
       <c r="O107" s="10">
@@ -8964,17 +9010,17 @@
         <v>263</v>
       </c>
     </row>
-    <row r="108" spans="1:22">
+    <row r="108" spans="1:22" ht="14.4" customHeight="1">
       <c r="A108" s="2">
         <v>107</v>
       </c>
       <c r="B108" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C108" s="80" t="s">
         <v>83</v>
       </c>
-      <c r="F108" s="7" t="s">
+      <c r="F108" s="84" t="s">
         <v>207</v>
       </c>
       <c r="O108" s="10">
@@ -9004,17 +9050,17 @@
         <v>263</v>
       </c>
     </row>
-    <row r="109" spans="1:22" ht="28.8">
+    <row r="109" spans="1:22" ht="14.4" customHeight="1">
       <c r="A109" s="2">
         <v>108</v>
       </c>
       <c r="B109" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="C109" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F109" s="7" t="s">
+      <c r="C109" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="F109" s="84" t="s">
         <v>209</v>
       </c>
       <c r="O109" s="10">
@@ -9044,17 +9090,17 @@
         <v>263</v>
       </c>
     </row>
-    <row r="110" spans="1:22">
+    <row r="110" spans="1:22" ht="14.4" customHeight="1">
       <c r="A110" s="2">
         <v>109</v>
       </c>
       <c r="B110" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="C110" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F110" s="7" t="s">
+      <c r="C110" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="F110" s="84" t="s">
         <v>212</v>
       </c>
       <c r="O110" s="10">
@@ -9084,17 +9130,17 @@
         <v>263</v>
       </c>
     </row>
-    <row r="111" spans="1:22">
+    <row r="111" spans="1:22" ht="14.4" customHeight="1">
       <c r="A111" s="2">
         <v>110</v>
       </c>
       <c r="B111" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="C111" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="F111" s="7" t="s">
+      <c r="F111" s="84" t="s">
         <v>214</v>
       </c>
       <c r="O111" s="10">
@@ -9124,17 +9170,17 @@
         <v>263</v>
       </c>
     </row>
-    <row r="112" spans="1:22">
+    <row r="112" spans="1:22" ht="14.4" customHeight="1">
       <c r="A112" s="2">
         <v>111</v>
       </c>
       <c r="B112" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="C112" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="F112" s="7" t="s">
+      <c r="F112" s="84" t="s">
         <v>216</v>
       </c>
       <c r="O112" s="10">
@@ -9164,17 +9210,17 @@
         <v>263</v>
       </c>
     </row>
-    <row r="113" spans="1:22">
+    <row r="113" spans="1:22" ht="14.4" customHeight="1">
       <c r="A113" s="2">
         <v>112</v>
       </c>
       <c r="B113" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="C113" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F113" s="7" t="s">
+      <c r="C113" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="F113" s="84" t="s">
         <v>218</v>
       </c>
       <c r="O113" s="10">
@@ -9204,17 +9250,17 @@
         <v>263</v>
       </c>
     </row>
-    <row r="114" spans="1:22">
+    <row r="114" spans="1:22" ht="14.4" customHeight="1">
       <c r="A114" s="2">
         <v>113</v>
       </c>
       <c r="B114" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="C114" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F114" s="7" t="s">
+      <c r="C114" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="F114" s="84" t="s">
         <v>220</v>
       </c>
       <c r="O114" s="10">
@@ -9244,17 +9290,17 @@
         <v>263</v>
       </c>
     </row>
-    <row r="115" spans="1:22">
+    <row r="115" spans="1:22" ht="14.4" customHeight="1">
       <c r="A115" s="2">
         <v>114</v>
       </c>
       <c r="B115" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="C115" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F115" s="7" t="s">
+      <c r="C115" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="F115" s="84" t="s">
         <v>222</v>
       </c>
       <c r="O115" s="10">
@@ -9284,17 +9330,17 @@
         <v>263</v>
       </c>
     </row>
-    <row r="116" spans="1:22">
+    <row r="116" spans="1:22" ht="14.4" customHeight="1">
       <c r="A116" s="2">
         <v>115</v>
       </c>
       <c r="B116" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="C116" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F116" s="7" t="s">
+      <c r="C116" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="F116" s="84" t="s">
         <v>224</v>
       </c>
       <c r="O116" s="10">
@@ -9324,17 +9370,17 @@
         <v>263</v>
       </c>
     </row>
-    <row r="117" spans="1:22">
+    <row r="117" spans="1:22" ht="14.4" customHeight="1">
       <c r="A117" s="2">
         <v>116</v>
       </c>
       <c r="B117" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="C117" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="F117" s="7" t="s">
+      <c r="F117" s="84" t="s">
         <v>226</v>
       </c>
       <c r="O117" s="10">
@@ -9364,17 +9410,17 @@
         <v>263</v>
       </c>
     </row>
-    <row r="118" spans="1:22">
+    <row r="118" spans="1:22" ht="14.4" customHeight="1">
       <c r="A118" s="2">
         <v>117</v>
       </c>
       <c r="B118" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="C118" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="F118" s="7" t="s">
+      <c r="F118" s="84" t="s">
         <v>228</v>
       </c>
       <c r="O118" s="10">
@@ -9404,17 +9450,17 @@
         <v>263</v>
       </c>
     </row>
-    <row r="119" spans="1:22">
+    <row r="119" spans="1:22" ht="14.4" customHeight="1">
       <c r="A119" s="2">
         <v>118</v>
       </c>
       <c r="B119" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="C119" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="F119" s="7" t="s">
+      <c r="F119" s="84" t="s">
         <v>229</v>
       </c>
       <c r="O119" s="10">
@@ -9444,17 +9490,17 @@
         <v>263</v>
       </c>
     </row>
-    <row r="120" spans="1:22" ht="28.8">
+    <row r="120" spans="1:22" ht="14.4" customHeight="1">
       <c r="A120" s="2">
         <v>119</v>
       </c>
       <c r="B120" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="C120" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F120" s="7" t="s">
+      <c r="C120" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="F120" s="84" t="s">
         <v>232</v>
       </c>
       <c r="O120" s="10">
@@ -9484,17 +9530,17 @@
         <v>263</v>
       </c>
     </row>
-    <row r="121" spans="1:22">
+    <row r="121" spans="1:22" ht="14.4" customHeight="1">
       <c r="A121" s="2">
         <v>120</v>
       </c>
       <c r="B121" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="C121" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F121" s="7" t="s">
+      <c r="C121" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="F121" s="84" t="s">
         <v>234</v>
       </c>
       <c r="O121" s="10">
@@ -9524,17 +9570,17 @@
         <v>263</v>
       </c>
     </row>
-    <row r="122" spans="1:22">
+    <row r="122" spans="1:22" ht="14.4" customHeight="1">
       <c r="A122" s="2">
         <v>121</v>
       </c>
       <c r="B122" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="C122" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="F122" s="7" t="s">
+      <c r="F122" s="84" t="s">
         <v>236</v>
       </c>
       <c r="O122" s="10">
@@ -9564,20 +9610,20 @@
         <v>263</v>
       </c>
     </row>
-    <row r="123" spans="1:22" ht="43.2">
+    <row r="123" spans="1:22" ht="14.4" customHeight="1">
       <c r="A123" s="2">
         <v>122</v>
       </c>
       <c r="B123" s="17" t="s">
         <v>435</v>
       </c>
-      <c r="C123" s="40" t="s">
+      <c r="C123" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="F123" s="7" t="s">
+      <c r="F123" s="84" t="s">
         <v>426</v>
       </c>
-      <c r="G123" s="40" t="s">
+      <c r="G123" s="81" t="s">
         <v>310</v>
       </c>
       <c r="O123" s="1">
@@ -9607,20 +9653,20 @@
         <v>263</v>
       </c>
     </row>
-    <row r="124" spans="1:22" ht="43.2">
+    <row r="124" spans="1:22" ht="14.4" customHeight="1">
       <c r="A124" s="2">
         <v>123</v>
       </c>
       <c r="B124" s="17" t="s">
         <v>436</v>
       </c>
-      <c r="C124" s="40" t="s">
+      <c r="C124" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="F124" s="7" t="s">
+      <c r="F124" s="84" t="s">
         <v>427</v>
       </c>
-      <c r="G124" s="40" t="s">
+      <c r="G124" s="81" t="s">
         <v>424</v>
       </c>
       <c r="O124" s="1">
@@ -9650,20 +9696,20 @@
         <v>251</v>
       </c>
     </row>
-    <row r="125" spans="1:22" ht="28.8">
+    <row r="125" spans="1:22" ht="14.4" customHeight="1">
       <c r="A125" s="2">
         <v>124</v>
       </c>
       <c r="B125" s="17" t="s">
         <v>506</v>
       </c>
-      <c r="C125" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F125" s="7" t="s">
+      <c r="C125" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="F125" s="84" t="s">
         <v>447</v>
       </c>
-      <c r="G125" s="40" t="s">
+      <c r="G125" s="81" t="s">
         <v>448</v>
       </c>
       <c r="O125" s="1">
@@ -9693,20 +9739,20 @@
         <v>251</v>
       </c>
     </row>
-    <row r="126" spans="1:22">
+    <row r="126" spans="1:22" ht="14.4" customHeight="1">
       <c r="A126" s="2">
         <v>125</v>
       </c>
       <c r="B126" s="17" t="s">
         <v>449</v>
       </c>
-      <c r="C126" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F126" s="7" t="s">
+      <c r="C126" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="F126" s="84" t="s">
         <v>450</v>
       </c>
-      <c r="G126" s="40" t="s">
+      <c r="G126" s="81" t="s">
         <v>451</v>
       </c>
       <c r="O126" s="1">
@@ -9736,23 +9782,23 @@
         <v>251</v>
       </c>
     </row>
-    <row r="127" spans="1:22" ht="28.8">
+    <row r="127" spans="1:22" ht="14.4" customHeight="1">
       <c r="A127" s="2">
         <v>126</v>
       </c>
       <c r="B127" s="17" t="s">
         <v>507</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="C127" s="80" t="s">
         <v>0</v>
       </c>
       <c r="D127" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="F127" s="7" t="s">
+      <c r="F127" s="84" t="s">
         <v>508</v>
       </c>
-      <c r="G127" s="40" t="s">
+      <c r="G127" s="81" t="s">
         <v>509</v>
       </c>
       <c r="H127" s="1" t="s">
@@ -9785,23 +9831,23 @@
         <v>263</v>
       </c>
     </row>
-    <row r="128" spans="1:22" ht="28.8">
+    <row r="128" spans="1:22" ht="14.4" customHeight="1">
       <c r="A128" s="2">
         <v>127</v>
       </c>
       <c r="B128" s="17" t="s">
         <v>511</v>
       </c>
-      <c r="C128" s="1" t="s">
+      <c r="C128" s="80" t="s">
         <v>0</v>
       </c>
       <c r="D128" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="F128" s="7" t="s">
+      <c r="F128" s="84" t="s">
         <v>513</v>
       </c>
-      <c r="G128" s="40" t="s">
+      <c r="G128" s="81" t="s">
         <v>514</v>
       </c>
       <c r="H128" s="1" t="s">
@@ -9834,23 +9880,23 @@
         <v>263</v>
       </c>
     </row>
-    <row r="129" spans="1:22">
+    <row r="129" spans="1:22" ht="14.4" customHeight="1">
       <c r="A129" s="2">
         <v>128</v>
       </c>
       <c r="B129" s="17" t="s">
         <v>515</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="C129" s="80" t="s">
         <v>0</v>
       </c>
       <c r="D129" s="6" t="s">
         <v>517</v>
       </c>
-      <c r="F129" s="7" t="s">
+      <c r="F129" s="84" t="s">
         <v>516</v>
       </c>
-      <c r="G129" s="40" t="s">
+      <c r="G129" s="81" t="s">
         <v>520</v>
       </c>
       <c r="H129" s="1" t="s">
@@ -9883,23 +9929,23 @@
         <v>263</v>
       </c>
     </row>
-    <row r="130" spans="1:22" ht="28.8">
+    <row r="130" spans="1:22" ht="14.4" customHeight="1">
       <c r="A130" s="2">
         <v>129</v>
       </c>
       <c r="B130" s="17" t="s">
         <v>518</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="C130" s="80" t="s">
         <v>0</v>
       </c>
       <c r="D130" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="F130" s="60" t="s">
+      <c r="F130" s="87" t="s">
         <v>519</v>
       </c>
-      <c r="G130" s="40" t="s">
+      <c r="G130" s="81" t="s">
         <v>521</v>
       </c>
       <c r="H130" s="1" t="s">
@@ -9932,24 +9978,24 @@
         <v>263</v>
       </c>
     </row>
-    <row r="131" spans="1:22" ht="28.8">
+    <row r="131" spans="1:22" ht="14.4" customHeight="1">
       <c r="A131" s="2">
         <v>130</v>
       </c>
       <c r="B131" s="17" t="s">
         <v>523</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="C131" s="80" t="s">
         <v>0</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="F131" s="66" t="s">
+        <v>526</v>
+      </c>
+      <c r="F131" s="88" t="s">
+        <v>732</v>
+      </c>
+      <c r="G131" s="81" t="s">
         <v>524</v>
-      </c>
-      <c r="G131" s="40" t="s">
-        <v>525</v>
       </c>
       <c r="H131" s="1" t="s">
         <v>472</v>
@@ -9970,7 +10016,7 @@
         <v>4</v>
       </c>
       <c r="T131" s="1">
-        <f t="shared" ref="T131:T194" si="4">SUM(O131:S131)</f>
+        <f t="shared" ref="T131:T193" si="4">SUM(O131:S131)</f>
         <v>17</v>
       </c>
       <c r="U131" s="1">
@@ -9981,24 +10027,24 @@
         <v>263</v>
       </c>
     </row>
-    <row r="132" spans="1:22" ht="28.8">
+    <row r="132" spans="1:22" ht="14.4" customHeight="1">
       <c r="A132" s="2">
         <v>131</v>
       </c>
       <c r="B132" s="17" t="s">
-        <v>526</v>
-      </c>
-      <c r="C132" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="C132" s="80" t="s">
         <v>0</v>
       </c>
       <c r="D132" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="F132" s="84" t="s">
+        <v>527</v>
+      </c>
+      <c r="G132" s="81" t="s">
         <v>529</v>
-      </c>
-      <c r="F132" s="7" t="s">
-        <v>528</v>
-      </c>
-      <c r="G132" s="40" t="s">
-        <v>530</v>
       </c>
       <c r="H132" s="1" t="s">
         <v>472</v>
@@ -10023,31 +10069,31 @@
         <v>17</v>
       </c>
       <c r="U132" s="1">
-        <f t="shared" ref="U132:U195" si="5">ROUND(T132/5,0)</f>
+        <f t="shared" ref="U132:U194" si="5">ROUND(T132/5,0)</f>
         <v>3</v>
       </c>
       <c r="V132" s="10" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="133" spans="1:22" ht="28.8">
+    <row r="133" spans="1:22" ht="14.4" customHeight="1">
       <c r="A133" s="2">
         <v>132</v>
       </c>
       <c r="B133" s="17" t="s">
+        <v>530</v>
+      </c>
+      <c r="C133" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="F133" s="84" t="s">
         <v>531</v>
       </c>
-      <c r="C133" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D133" s="3" t="s">
+      <c r="G133" s="81" t="s">
         <v>533</v>
-      </c>
-      <c r="F133" s="7" t="s">
-        <v>532</v>
-      </c>
-      <c r="G133" s="40" t="s">
-        <v>534</v>
       </c>
       <c r="H133" s="1" t="s">
         <v>472</v>
@@ -10079,24 +10125,24 @@
         <v>263</v>
       </c>
     </row>
-    <row r="134" spans="1:22" ht="28.8">
+    <row r="134" spans="1:22" ht="14.4" customHeight="1">
       <c r="A134" s="2">
         <v>133</v>
       </c>
       <c r="B134" s="17" t="s">
+        <v>534</v>
+      </c>
+      <c r="C134" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="F134" s="84" t="s">
         <v>535</v>
       </c>
-      <c r="C134" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D134" s="3" t="s">
+      <c r="G134" s="81" t="s">
         <v>537</v>
-      </c>
-      <c r="F134" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="G134" s="40" t="s">
-        <v>538</v>
       </c>
       <c r="H134" s="1" t="s">
         <v>472</v>
@@ -10128,23 +10174,23 @@
         <v>263</v>
       </c>
     </row>
-    <row r="135" spans="1:22" ht="28.8">
+    <row r="135" spans="1:22" ht="14.4" customHeight="1">
       <c r="A135" s="2">
         <v>134</v>
       </c>
       <c r="B135" s="17" t="s">
-        <v>540</v>
-      </c>
-      <c r="C135" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="C135" s="80" t="s">
         <v>0</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="F135" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="F135" s="84" t="s">
         <v>516</v>
       </c>
-      <c r="G135" s="40" t="s">
+      <c r="G135" s="81" t="s">
         <v>405</v>
       </c>
       <c r="H135" s="1" t="s">
@@ -10177,24 +10223,24 @@
         <v>263</v>
       </c>
     </row>
-    <row r="136" spans="1:22" ht="28.8">
+    <row r="136" spans="1:22" ht="14.4" customHeight="1">
       <c r="A136" s="2">
         <v>135</v>
       </c>
       <c r="B136" s="17" t="s">
+        <v>540</v>
+      </c>
+      <c r="C136" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="F136" s="84" t="s">
         <v>541</v>
       </c>
-      <c r="C136" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D136" s="3" t="s">
+      <c r="G136" s="81" t="s">
         <v>543</v>
-      </c>
-      <c r="F136" s="7" t="s">
-        <v>542</v>
-      </c>
-      <c r="G136" s="40" t="s">
-        <v>544</v>
       </c>
       <c r="H136" s="1" t="s">
         <v>472</v>
@@ -10226,24 +10272,24 @@
         <v>263</v>
       </c>
     </row>
-    <row r="137" spans="1:22" ht="28.8">
+    <row r="137" spans="1:22" ht="14.4" customHeight="1">
       <c r="A137" s="2">
         <v>136</v>
       </c>
       <c r="B137" s="17" t="s">
+        <v>544</v>
+      </c>
+      <c r="C137" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="F137" s="84" t="s">
         <v>545</v>
       </c>
-      <c r="C137" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D137" s="3" t="s">
+      <c r="G137" s="81" t="s">
         <v>547</v>
-      </c>
-      <c r="F137" s="7" t="s">
-        <v>546</v>
-      </c>
-      <c r="G137" s="40" t="s">
-        <v>548</v>
       </c>
       <c r="H137" s="1" t="s">
         <v>472</v>
@@ -10275,24 +10321,24 @@
         <v>263</v>
       </c>
     </row>
-    <row r="138" spans="1:22" ht="28.8">
+    <row r="138" spans="1:22" ht="14.4" customHeight="1">
       <c r="A138" s="2">
         <v>137</v>
       </c>
       <c r="B138" s="17" t="s">
+        <v>548</v>
+      </c>
+      <c r="C138" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="D138" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="C138" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D138" s="3" t="s">
+      <c r="F138" s="84" t="s">
         <v>550</v>
       </c>
-      <c r="F138" s="7" t="s">
+      <c r="G138" s="81" t="s">
         <v>551</v>
-      </c>
-      <c r="G138" s="40" t="s">
-        <v>552</v>
       </c>
       <c r="H138" s="1" t="s">
         <v>472</v>
@@ -10324,24 +10370,24 @@
         <v>263</v>
       </c>
     </row>
-    <row r="139" spans="1:22" ht="28.8">
+    <row r="139" spans="1:22" ht="14.4" customHeight="1">
       <c r="A139" s="2">
         <v>138</v>
       </c>
       <c r="B139" s="17" t="s">
+        <v>552</v>
+      </c>
+      <c r="C139" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="D139" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="C139" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D139" s="3" t="s">
+      <c r="F139" s="84" t="s">
         <v>554</v>
       </c>
-      <c r="F139" s="7" t="s">
+      <c r="G139" s="81" t="s">
         <v>555</v>
-      </c>
-      <c r="G139" s="40" t="s">
-        <v>556</v>
       </c>
       <c r="H139" s="1" t="s">
         <v>472</v>
@@ -10373,24 +10419,24 @@
         <v>263</v>
       </c>
     </row>
-    <row r="140" spans="1:22" ht="28.8">
+    <row r="140" spans="1:22" ht="14.4" customHeight="1">
       <c r="A140" s="2">
         <v>139</v>
       </c>
       <c r="B140" s="17" t="s">
+        <v>556</v>
+      </c>
+      <c r="C140" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="F140" s="84" t="s">
         <v>557</v>
       </c>
-      <c r="C140" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D140" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="F140" s="7" t="s">
+      <c r="G140" s="81" t="s">
         <v>558</v>
-      </c>
-      <c r="G140" s="40" t="s">
-        <v>559</v>
       </c>
       <c r="H140" s="1" t="s">
         <v>472</v>
@@ -10422,24 +10468,24 @@
         <v>263</v>
       </c>
     </row>
-    <row r="141" spans="1:22" ht="28.8">
+    <row r="141" spans="1:22" ht="14.4" customHeight="1">
       <c r="A141" s="2">
         <v>140</v>
       </c>
       <c r="B141" s="17" t="s">
+        <v>559</v>
+      </c>
+      <c r="C141" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="D141" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="C141" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D141" s="3" t="s">
+      <c r="F141" s="84" t="s">
         <v>561</v>
       </c>
-      <c r="F141" s="7" t="s">
-        <v>562</v>
-      </c>
-      <c r="G141" s="40" t="s">
-        <v>552</v>
+      <c r="G141" s="81" t="s">
+        <v>551</v>
       </c>
       <c r="H141" s="1" t="s">
         <v>472</v>
@@ -10471,24 +10517,24 @@
         <v>263</v>
       </c>
     </row>
-    <row r="142" spans="1:22" ht="28.8">
+    <row r="142" spans="1:22" ht="14.4" customHeight="1">
       <c r="A142" s="2">
         <v>141</v>
       </c>
       <c r="B142" s="17" t="s">
+        <v>562</v>
+      </c>
+      <c r="C142" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="F142" s="84" t="s">
         <v>563</v>
       </c>
-      <c r="C142" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D142" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="F142" s="7" t="s">
+      <c r="G142" s="81" t="s">
         <v>564</v>
-      </c>
-      <c r="G142" s="40" t="s">
-        <v>565</v>
       </c>
       <c r="H142" s="1" t="s">
         <v>472</v>
@@ -10520,24 +10566,24 @@
         <v>263</v>
       </c>
     </row>
-    <row r="143" spans="1:22" ht="28.8">
+    <row r="143" spans="1:22" ht="14.4" customHeight="1">
       <c r="A143" s="2">
         <v>142</v>
       </c>
       <c r="B143" s="17" t="s">
+        <v>565</v>
+      </c>
+      <c r="C143" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="D143" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="C143" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D143" s="3" t="s">
+      <c r="F143" s="84" t="s">
         <v>567</v>
       </c>
-      <c r="F143" s="7" t="s">
+      <c r="G143" s="81" t="s">
         <v>568</v>
-      </c>
-      <c r="G143" s="40" t="s">
-        <v>569</v>
       </c>
       <c r="H143" s="1" t="s">
         <v>472</v>
@@ -10569,24 +10615,24 @@
         <v>263</v>
       </c>
     </row>
-    <row r="144" spans="1:22" ht="28.8">
+    <row r="144" spans="1:22" ht="14.4" customHeight="1">
       <c r="A144" s="2">
         <v>143</v>
       </c>
       <c r="B144" s="17" t="s">
+        <v>569</v>
+      </c>
+      <c r="C144" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="D144" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="C144" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D144" s="3" t="s">
-        <v>571</v>
-      </c>
-      <c r="F144" s="7" t="s">
+      <c r="F144" s="84" t="s">
+        <v>572</v>
+      </c>
+      <c r="G144" s="81" t="s">
         <v>573</v>
-      </c>
-      <c r="G144" s="40" t="s">
-        <v>574</v>
       </c>
       <c r="H144" s="1" t="s">
         <v>472</v>
@@ -10618,24 +10664,24 @@
         <v>263</v>
       </c>
     </row>
-    <row r="145" spans="1:22" ht="28.8">
+    <row r="145" spans="1:22" ht="14.4" customHeight="1">
       <c r="A145" s="2">
         <v>144</v>
       </c>
       <c r="B145" s="17" t="s">
+        <v>576</v>
+      </c>
+      <c r="C145" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="F145" s="84" t="s">
+        <v>575</v>
+      </c>
+      <c r="G145" s="81" t="s">
         <v>577</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D145" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="F145" s="7" t="s">
-        <v>576</v>
-      </c>
-      <c r="G145" s="40" t="s">
-        <v>578</v>
       </c>
       <c r="H145" s="1" t="s">
         <v>472</v>
@@ -10667,24 +10713,24 @@
         <v>263</v>
       </c>
     </row>
-    <row r="146" spans="1:22" ht="43.2">
+    <row r="146" spans="1:22" ht="14.4" customHeight="1">
       <c r="A146" s="2">
         <v>145</v>
       </c>
       <c r="B146" s="17" t="s">
+        <v>578</v>
+      </c>
+      <c r="C146" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="D146" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="C146" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D146" s="3" t="s">
+      <c r="F146" s="87" t="s">
         <v>580</v>
       </c>
-      <c r="F146" s="60" t="s">
+      <c r="G146" s="81" t="s">
         <v>581</v>
-      </c>
-      <c r="G146" s="40" t="s">
-        <v>582</v>
       </c>
       <c r="H146" s="1" t="s">
         <v>472</v>
@@ -10716,24 +10762,24 @@
         <v>263</v>
       </c>
     </row>
-    <row r="147" spans="1:22" ht="28.8">
+    <row r="147" spans="1:22" ht="14.4" customHeight="1">
       <c r="A147" s="2">
         <v>146</v>
       </c>
       <c r="B147" s="17" t="s">
+        <v>583</v>
+      </c>
+      <c r="C147" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="F147" s="84" t="s">
+        <v>582</v>
+      </c>
+      <c r="G147" s="81" t="s">
         <v>584</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D147" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="F147" s="7" t="s">
-        <v>583</v>
-      </c>
-      <c r="G147" s="40" t="s">
-        <v>585</v>
       </c>
       <c r="H147" s="1" t="s">
         <v>472</v>
@@ -10765,27 +10811,27 @@
         <v>263</v>
       </c>
     </row>
-    <row r="148" spans="1:22">
+    <row r="148" spans="1:22" ht="14.4" customHeight="1">
       <c r="A148" s="2">
         <v>147</v>
       </c>
       <c r="B148" s="17" t="s">
+        <v>585</v>
+      </c>
+      <c r="C148" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="D148" s="65" t="s">
         <v>586</v>
       </c>
-      <c r="C148" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D148" s="68" t="s">
+      <c r="F148" s="85">
+        <v>8232016670</v>
+      </c>
+      <c r="G148" s="81" t="s">
         <v>587</v>
       </c>
-      <c r="F148" s="68">
-        <v>8232016670</v>
-      </c>
-      <c r="G148" s="40" t="s">
+      <c r="H148" s="1" t="s">
         <v>588</v>
-      </c>
-      <c r="H148" s="1" t="s">
-        <v>589</v>
       </c>
       <c r="O148" s="1">
         <v>3</v>
@@ -10814,27 +10860,27 @@
         <v>263</v>
       </c>
     </row>
-    <row r="149" spans="1:22" ht="28.8">
+    <row r="149" spans="1:22" ht="14.4" customHeight="1">
       <c r="A149" s="2">
         <v>148</v>
       </c>
       <c r="B149" s="17" t="s">
+        <v>589</v>
+      </c>
+      <c r="C149" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="F149" s="84" t="s">
         <v>590</v>
       </c>
-      <c r="C149" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D149" s="3" t="s">
-        <v>594</v>
-      </c>
-      <c r="F149" s="7" t="s">
+      <c r="G149" s="81" t="s">
         <v>591</v>
       </c>
-      <c r="G149" s="40" t="s">
+      <c r="H149" s="1" t="s">
         <v>592</v>
-      </c>
-      <c r="H149" s="1" t="s">
-        <v>593</v>
       </c>
       <c r="O149" s="1">
         <v>3</v>
@@ -10863,24 +10909,24 @@
         <v>263</v>
       </c>
     </row>
-    <row r="150" spans="1:22" ht="28.8">
+    <row r="150" spans="1:22" ht="14.4" customHeight="1">
       <c r="A150" s="2">
         <v>149</v>
       </c>
       <c r="B150" s="17" t="s">
+        <v>595</v>
+      </c>
+      <c r="C150" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="F150" s="84" t="s">
         <v>596</v>
       </c>
-      <c r="C150" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D150" s="3" t="s">
-        <v>595</v>
-      </c>
-      <c r="F150" s="7" t="s">
+      <c r="G150" s="81" t="s">
         <v>597</v>
-      </c>
-      <c r="G150" s="40" t="s">
-        <v>598</v>
       </c>
       <c r="O150" s="1">
         <v>3</v>
@@ -10909,24 +10955,24 @@
         <v>263</v>
       </c>
     </row>
-    <row r="151" spans="1:22" ht="28.8">
+    <row r="151" spans="1:22" ht="14.4" customHeight="1">
       <c r="A151" s="2">
         <v>150</v>
       </c>
       <c r="B151" s="17" t="s">
+        <v>598</v>
+      </c>
+      <c r="C151" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="E151" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="C151" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E151" s="3" t="s">
+      <c r="F151" s="89" t="s">
         <v>600</v>
       </c>
-      <c r="F151" s="69" t="s">
+      <c r="G151" s="81" t="s">
         <v>601</v>
-      </c>
-      <c r="G151" s="40" t="s">
-        <v>602</v>
       </c>
       <c r="O151" s="1">
         <v>4</v>
@@ -10955,24 +11001,24 @@
         <v>263</v>
       </c>
     </row>
-    <row r="152" spans="1:22" ht="28.8">
+    <row r="152" spans="1:22" ht="14.4" customHeight="1">
       <c r="A152" s="2">
         <v>151</v>
       </c>
       <c r="B152" s="17" t="s">
+        <v>603</v>
+      </c>
+      <c r="C152" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="F152" s="85" t="s">
         <v>604</v>
       </c>
-      <c r="C152" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D152" s="3" t="s">
-        <v>603</v>
-      </c>
-      <c r="F152" s="70" t="s">
+      <c r="G152" s="81" t="s">
         <v>605</v>
-      </c>
-      <c r="G152" s="40" t="s">
-        <v>606</v>
       </c>
       <c r="O152" s="1">
         <v>4</v>
@@ -11006,19 +11052,19 @@
         <v>152</v>
       </c>
       <c r="B153" s="17" t="s">
+        <v>606</v>
+      </c>
+      <c r="C153" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="F153" s="85" t="s">
         <v>607</v>
       </c>
-      <c r="C153" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D153" s="3" t="s">
-        <v>603</v>
-      </c>
-      <c r="F153" s="70" t="s">
+      <c r="G153" s="81" t="s">
         <v>608</v>
-      </c>
-      <c r="G153" s="40" t="s">
-        <v>609</v>
       </c>
       <c r="O153" s="1">
         <v>4</v>
@@ -11047,24 +11093,24 @@
         <v>263</v>
       </c>
     </row>
-    <row r="154" spans="1:22" ht="28.8">
+    <row r="154" spans="1:22" ht="14.4" customHeight="1">
       <c r="A154" s="2">
         <v>153</v>
       </c>
       <c r="B154" s="17" t="s">
+        <v>609</v>
+      </c>
+      <c r="C154" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="D154" s="3" t="s">
         <v>610</v>
       </c>
-      <c r="C154" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D154" s="3" t="s">
+      <c r="F154" s="90">
+        <v>3322127923</v>
+      </c>
+      <c r="G154" s="81" t="s">
         <v>611</v>
-      </c>
-      <c r="F154" s="71">
-        <v>3322127923</v>
-      </c>
-      <c r="G154" s="40" t="s">
-        <v>612</v>
       </c>
       <c r="O154" s="1">
         <v>3</v>
@@ -11093,24 +11139,24 @@
         <v>263</v>
       </c>
     </row>
-    <row r="155" spans="1:22">
+    <row r="155" spans="1:22" ht="14.4" customHeight="1">
       <c r="A155" s="2">
         <v>154</v>
       </c>
       <c r="B155" s="17" t="s">
+        <v>612</v>
+      </c>
+      <c r="C155" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="D155" s="66" t="s">
         <v>613</v>
       </c>
-      <c r="C155" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D155" s="72" t="s">
+      <c r="F155" s="84" t="s">
         <v>614</v>
       </c>
-      <c r="F155" s="7" t="s">
+      <c r="G155" s="81" t="s">
         <v>615</v>
-      </c>
-      <c r="G155" s="40" t="s">
-        <v>616</v>
       </c>
       <c r="O155" s="1">
         <v>3</v>
@@ -11139,23 +11185,23 @@
         <v>263</v>
       </c>
     </row>
-    <row r="156" spans="1:22" ht="28.8">
+    <row r="156" spans="1:22" ht="14.4" customHeight="1">
       <c r="A156" s="2">
         <v>155</v>
       </c>
       <c r="B156" s="17" t="s">
+        <v>616</v>
+      </c>
+      <c r="C156" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="D156" s="3" t="s">
         <v>617</v>
       </c>
-      <c r="C156" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D156" s="3" t="s">
+      <c r="F156" s="84" t="s">
         <v>618</v>
       </c>
-      <c r="F156" s="7" t="s">
-        <v>619</v>
-      </c>
-      <c r="G156" s="40" t="s">
+      <c r="G156" s="81" t="s">
         <v>391</v>
       </c>
       <c r="O156" s="1">
@@ -11185,23 +11231,23 @@
         <v>263</v>
       </c>
     </row>
-    <row r="157" spans="1:22" ht="43.2">
+    <row r="157" spans="1:22" ht="14.4" customHeight="1">
       <c r="A157" s="2">
         <v>156</v>
       </c>
       <c r="B157" s="17" t="s">
+        <v>619</v>
+      </c>
+      <c r="C157" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="D157" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="C157" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D157" s="3" t="s">
+      <c r="F157" s="84" t="s">
         <v>621</v>
       </c>
-      <c r="F157" s="7" t="s">
-        <v>622</v>
-      </c>
-      <c r="G157" s="40" t="s">
+      <c r="G157" s="81" t="s">
         <v>391</v>
       </c>
       <c r="O157" s="1">
@@ -11231,21 +11277,21 @@
         <v>263</v>
       </c>
     </row>
-    <row r="158" spans="1:22">
+    <row r="158" spans="1:22" ht="14.4" customHeight="1">
       <c r="A158" s="2">
         <v>157</v>
       </c>
       <c r="B158" s="17" t="s">
+        <v>622</v>
+      </c>
+      <c r="C158" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="D158" s="67" t="s">
         <v>623</v>
       </c>
-      <c r="C158" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D158" s="73" t="s">
+      <c r="F158" s="91" t="s">
         <v>624</v>
-      </c>
-      <c r="F158" s="73" t="s">
-        <v>625</v>
       </c>
       <c r="O158" s="1">
         <v>3</v>
@@ -11274,21 +11320,21 @@
         <v>263</v>
       </c>
     </row>
-    <row r="159" spans="1:22">
+    <row r="159" spans="1:22" ht="14.4" customHeight="1">
       <c r="A159" s="2">
         <v>158</v>
       </c>
       <c r="B159" s="17" t="s">
+        <v>625</v>
+      </c>
+      <c r="C159" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="D159" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C159" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D159" s="3" t="s">
+      <c r="F159" s="84" t="s">
         <v>627</v>
-      </c>
-      <c r="F159" s="7" t="s">
-        <v>628</v>
       </c>
       <c r="O159" s="1">
         <v>3</v>
@@ -11317,21 +11363,21 @@
         <v>263</v>
       </c>
     </row>
-    <row r="160" spans="1:22" ht="28.8">
+    <row r="160" spans="1:22" ht="14.4" customHeight="1">
       <c r="A160" s="2">
         <v>159</v>
       </c>
       <c r="B160" s="17" t="s">
+        <v>628</v>
+      </c>
+      <c r="C160" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="D160" s="3" t="s">
         <v>629</v>
       </c>
-      <c r="C160" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D160" s="3" t="s">
+      <c r="F160" s="84" t="s">
         <v>630</v>
-      </c>
-      <c r="F160" s="7" t="s">
-        <v>631</v>
       </c>
       <c r="O160" s="1">
         <v>3</v>
@@ -11360,20 +11406,20 @@
         <v>263</v>
       </c>
     </row>
-    <row r="161" spans="1:22" ht="34.200000000000003">
+    <row r="161" spans="1:22" ht="14.4" customHeight="1">
       <c r="A161" s="2">
         <v>160</v>
       </c>
       <c r="B161" s="17" t="s">
+        <v>631</v>
+      </c>
+      <c r="C161" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="D161" s="68" t="s">
         <v>632</v>
       </c>
-      <c r="C161" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D161" s="74" t="s">
-        <v>633</v>
-      </c>
-      <c r="F161" s="75">
+      <c r="F161" s="87">
         <v>9830387755</v>
       </c>
       <c r="O161" s="1">
@@ -11403,20 +11449,20 @@
         <v>263</v>
       </c>
     </row>
-    <row r="162" spans="1:22">
+    <row r="162" spans="1:22" ht="14.4" customHeight="1">
       <c r="A162" s="2">
         <v>161</v>
       </c>
       <c r="B162" s="17" t="s">
+        <v>633</v>
+      </c>
+      <c r="D162" s="67" t="s">
         <v>634</v>
       </c>
-      <c r="D162" s="73" t="s">
+      <c r="F162" s="84" t="s">
         <v>635</v>
       </c>
-      <c r="F162" s="7" t="s">
-        <v>636</v>
-      </c>
-      <c r="G162" s="40" t="s">
+      <c r="G162" s="81" t="s">
         <v>411</v>
       </c>
       <c r="O162" s="1">
@@ -11446,21 +11492,21 @@
         <v>263</v>
       </c>
     </row>
-    <row r="163" spans="1:22" ht="28.8">
+    <row r="163" spans="1:22" ht="14.4" customHeight="1">
       <c r="A163" s="2">
         <v>162</v>
       </c>
       <c r="B163" s="17" t="s">
+        <v>636</v>
+      </c>
+      <c r="C163" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="D163" s="6" t="s">
         <v>637</v>
       </c>
-      <c r="C163" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D163" s="6" t="s">
+      <c r="F163" s="89" t="s">
         <v>638</v>
-      </c>
-      <c r="F163" s="69" t="s">
-        <v>639</v>
       </c>
       <c r="O163" s="1">
         <v>3</v>
@@ -11489,21 +11535,21 @@
         <v>263</v>
       </c>
     </row>
-    <row r="164" spans="1:22" ht="43.2">
+    <row r="164" spans="1:22" ht="14.4" customHeight="1">
       <c r="A164" s="2">
         <v>163</v>
       </c>
       <c r="B164" s="17" t="s">
+        <v>639</v>
+      </c>
+      <c r="C164" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="D164" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="C164" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D164" s="1" t="s">
+      <c r="F164" s="92" t="s">
         <v>641</v>
-      </c>
-      <c r="F164" s="76" t="s">
-        <v>642</v>
       </c>
       <c r="O164" s="1">
         <v>2</v>
@@ -11532,21 +11578,21 @@
         <v>263</v>
       </c>
     </row>
-    <row r="165" spans="1:22">
+    <row r="165" spans="1:22" ht="14.4" customHeight="1">
       <c r="A165" s="2">
         <v>164</v>
       </c>
       <c r="B165" s="17" t="s">
+        <v>642</v>
+      </c>
+      <c r="C165" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="D165" s="67" t="s">
         <v>643</v>
       </c>
-      <c r="C165" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D165" s="73" t="s">
+      <c r="F165" s="84" t="s">
         <v>644</v>
-      </c>
-      <c r="F165" s="7" t="s">
-        <v>645</v>
       </c>
       <c r="O165" s="1">
         <v>4</v>
@@ -11575,21 +11621,21 @@
         <v>263</v>
       </c>
     </row>
-    <row r="166" spans="1:22">
+    <row r="166" spans="1:22" ht="14.4" customHeight="1">
       <c r="A166" s="2">
         <v>165</v>
       </c>
       <c r="B166" s="17" t="s">
+        <v>645</v>
+      </c>
+      <c r="C166" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="D166" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="C166" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D166" s="3" t="s">
+      <c r="F166" s="84" t="s">
         <v>647</v>
-      </c>
-      <c r="F166" s="7" t="s">
-        <v>648</v>
       </c>
       <c r="O166" s="1">
         <v>4</v>
@@ -11618,21 +11664,21 @@
         <v>263</v>
       </c>
     </row>
-    <row r="167" spans="1:22" ht="28.8">
+    <row r="167" spans="1:22" ht="14.4" customHeight="1">
       <c r="A167" s="2">
         <v>166</v>
       </c>
       <c r="B167" s="17" t="s">
+        <v>648</v>
+      </c>
+      <c r="C167" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="D167" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="C167" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D167" s="3" t="s">
+      <c r="F167" s="92" t="s">
         <v>650</v>
-      </c>
-      <c r="F167" s="76" t="s">
-        <v>651</v>
       </c>
       <c r="O167" s="1">
         <v>4</v>
@@ -11661,21 +11707,21 @@
         <v>263</v>
       </c>
     </row>
-    <row r="168" spans="1:22" ht="28.8">
+    <row r="168" spans="1:22" ht="14.4" customHeight="1">
       <c r="A168" s="2">
         <v>167</v>
       </c>
       <c r="B168" s="17" t="s">
+        <v>651</v>
+      </c>
+      <c r="C168" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="D168" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="C168" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D168" s="3" t="s">
+      <c r="F168" s="84" t="s">
         <v>653</v>
-      </c>
-      <c r="F168" s="7" t="s">
-        <v>654</v>
       </c>
       <c r="O168" s="1">
         <v>3</v>
@@ -11704,21 +11750,21 @@
         <v>263</v>
       </c>
     </row>
-    <row r="169" spans="1:22">
+    <row r="169" spans="1:22" ht="14.4" customHeight="1">
       <c r="A169" s="2">
         <v>168</v>
       </c>
       <c r="B169" s="17" t="s">
+        <v>654</v>
+      </c>
+      <c r="C169" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="D169" s="3" t="s">
         <v>655</v>
       </c>
-      <c r="C169" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D169" s="3" t="s">
+      <c r="F169" s="92" t="s">
         <v>656</v>
-      </c>
-      <c r="F169" s="76" t="s">
-        <v>657</v>
       </c>
       <c r="O169" s="1">
         <v>2</v>
@@ -11747,24 +11793,24 @@
         <v>263</v>
       </c>
     </row>
-    <row r="170" spans="1:22" ht="28.8">
+    <row r="170" spans="1:22" ht="14.4" customHeight="1">
       <c r="A170" s="2">
         <v>169</v>
       </c>
       <c r="B170" s="17" t="s">
+        <v>657</v>
+      </c>
+      <c r="C170" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="F170" s="84" t="s">
         <v>658</v>
       </c>
-      <c r="C170" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D170" s="3" t="s">
+      <c r="H170" s="1" t="s">
         <v>660</v>
-      </c>
-      <c r="F170" s="7" t="s">
-        <v>659</v>
-      </c>
-      <c r="H170" s="1" t="s">
-        <v>661</v>
       </c>
       <c r="O170" s="1">
         <v>2</v>
@@ -11793,21 +11839,21 @@
         <v>263</v>
       </c>
     </row>
-    <row r="171" spans="1:22" ht="28.8">
+    <row r="171" spans="1:22" ht="14.4" customHeight="1">
       <c r="A171" s="2">
         <v>170</v>
       </c>
       <c r="B171" s="17" t="s">
+        <v>661</v>
+      </c>
+      <c r="C171" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="D171" s="3" t="s">
         <v>662</v>
       </c>
-      <c r="C171" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D171" s="3" t="s">
+      <c r="F171" s="84" t="s">
         <v>663</v>
-      </c>
-      <c r="F171" s="7" t="s">
-        <v>664</v>
       </c>
       <c r="O171" s="1">
         <v>3</v>
@@ -11836,18 +11882,18 @@
         <v>263</v>
       </c>
     </row>
-    <row r="172" spans="1:22" ht="28.8">
+    <row r="172" spans="1:22" ht="14.4" customHeight="1">
       <c r="A172" s="2">
         <v>171</v>
       </c>
       <c r="B172" s="17" t="s">
+        <v>664</v>
+      </c>
+      <c r="C172" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="F172" s="84" t="s">
         <v>665</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F172" s="7" t="s">
-        <v>666</v>
       </c>
       <c r="O172" s="1">
         <v>3</v>
@@ -11876,18 +11922,18 @@
         <v>263</v>
       </c>
     </row>
-    <row r="173" spans="1:22">
+    <row r="173" spans="1:22" ht="14.4" customHeight="1">
       <c r="A173" s="2">
         <v>172</v>
       </c>
       <c r="B173" s="17" t="s">
+        <v>666</v>
+      </c>
+      <c r="C173" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="F173" s="84" t="s">
         <v>667</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F173" s="7" t="s">
-        <v>668</v>
       </c>
       <c r="O173" s="1">
         <v>2</v>
@@ -11916,18 +11962,18 @@
         <v>263</v>
       </c>
     </row>
-    <row r="174" spans="1:22">
+    <row r="174" spans="1:22" ht="14.4" customHeight="1">
       <c r="A174" s="2">
         <v>173</v>
       </c>
       <c r="B174" s="17" t="s">
+        <v>668</v>
+      </c>
+      <c r="C174" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="F174" s="84" t="s">
         <v>669</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F174" s="7" t="s">
-        <v>670</v>
       </c>
       <c r="O174" s="1">
         <v>2</v>
@@ -11956,21 +12002,21 @@
         <v>263</v>
       </c>
     </row>
-    <row r="175" spans="1:22" ht="28.8">
+    <row r="175" spans="1:22" ht="14.4" customHeight="1">
       <c r="A175" s="2">
         <v>174</v>
       </c>
       <c r="B175" s="17" t="s">
-        <v>673</v>
-      </c>
-      <c r="C175" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="C175" s="80" t="s">
         <v>0</v>
       </c>
       <c r="D175" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="F175" s="84" t="s">
         <v>671</v>
-      </c>
-      <c r="F175" s="7" t="s">
-        <v>672</v>
       </c>
       <c r="O175" s="1">
         <v>5</v>
@@ -11999,21 +12045,21 @@
         <v>263</v>
       </c>
     </row>
-    <row r="176" spans="1:22" ht="28.8">
+    <row r="176" spans="1:22" ht="14.4" customHeight="1">
       <c r="A176" s="2">
         <v>175</v>
       </c>
       <c r="B176" s="17" t="s">
+        <v>673</v>
+      </c>
+      <c r="C176" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="D176" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="C176" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D176" s="3" t="s">
+      <c r="F176" s="84" t="s">
         <v>675</v>
-      </c>
-      <c r="F176" s="7" t="s">
-        <v>676</v>
       </c>
       <c r="O176" s="1">
         <v>1</v>
@@ -12042,21 +12088,21 @@
         <v>263</v>
       </c>
     </row>
-    <row r="177" spans="1:22" ht="28.8">
+    <row r="177" spans="1:22" ht="14.4" customHeight="1">
       <c r="A177" s="2">
         <v>176</v>
       </c>
       <c r="B177" s="17" t="s">
+        <v>676</v>
+      </c>
+      <c r="C177" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="D177" s="3" t="s">
         <v>677</v>
       </c>
-      <c r="C177" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D177" s="3" t="s">
-        <v>678</v>
-      </c>
-      <c r="F177" s="84" t="s">
-        <v>679</v>
+      <c r="F177" s="86" t="s">
+        <v>733</v>
       </c>
       <c r="O177" s="1">
         <v>4</v>
@@ -12085,21 +12131,21 @@
         <v>263</v>
       </c>
     </row>
-    <row r="178" spans="1:22">
+    <row r="178" spans="1:22" ht="14.4" customHeight="1">
       <c r="A178" s="2">
         <v>177</v>
       </c>
       <c r="B178" s="17" t="s">
+        <v>678</v>
+      </c>
+      <c r="C178" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="F178" s="84" t="s">
         <v>680</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D178" s="3" t="s">
-        <v>681</v>
-      </c>
-      <c r="F178" s="7" t="s">
-        <v>682</v>
       </c>
       <c r="O178" s="1">
         <v>3</v>
@@ -12128,21 +12174,21 @@
         <v>263</v>
       </c>
     </row>
-    <row r="179" spans="1:22" ht="28.8">
+    <row r="179" spans="1:22" ht="14.4" customHeight="1">
       <c r="A179" s="2">
         <v>178</v>
       </c>
       <c r="B179" s="17" t="s">
+        <v>681</v>
+      </c>
+      <c r="C179" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="F179" s="93" t="s">
         <v>683</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D179" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="F179" s="72" t="s">
-        <v>685</v>
       </c>
       <c r="H179" s="1" t="s">
         <v>472</v>
@@ -12174,21 +12220,21 @@
         <v>263</v>
       </c>
     </row>
-    <row r="180" spans="1:22" ht="28.8">
+    <row r="180" spans="1:22" ht="14.4" customHeight="1">
       <c r="A180" s="2">
         <v>179</v>
       </c>
       <c r="B180" s="17" t="s">
+        <v>684</v>
+      </c>
+      <c r="C180" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="F180" s="87" t="s">
         <v>686</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D180" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="F180" s="85" t="s">
-        <v>688</v>
       </c>
       <c r="H180" s="1" t="s">
         <v>472</v>
@@ -12220,23 +12266,23 @@
         <v>263</v>
       </c>
     </row>
-    <row r="181" spans="1:22" ht="28.8">
+    <row r="181" spans="1:22" ht="14.4" customHeight="1">
       <c r="A181" s="2">
         <v>180</v>
       </c>
       <c r="B181" s="17" t="s">
+        <v>687</v>
+      </c>
+      <c r="C181" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="D181" s="6" t="s">
+        <v>688</v>
+      </c>
+      <c r="F181" s="84" t="s">
         <v>689</v>
       </c>
-      <c r="C181" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D181" s="6" t="s">
-        <v>690</v>
-      </c>
-      <c r="F181" s="7" t="s">
-        <v>691</v>
-      </c>
-      <c r="G181" s="40" t="s">
+      <c r="G181" s="81" t="s">
         <v>383</v>
       </c>
       <c r="O181" s="1">
@@ -12266,24 +12312,24 @@
         <v>263</v>
       </c>
     </row>
-    <row r="182" spans="1:22" ht="28.8">
+    <row r="182" spans="1:22" ht="14.4" customHeight="1">
       <c r="A182" s="2">
         <v>181</v>
       </c>
       <c r="B182" s="17" t="s">
+        <v>690</v>
+      </c>
+      <c r="C182" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="F182" s="84" t="s">
         <v>692</v>
       </c>
-      <c r="C182" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D182" s="3" t="s">
+      <c r="G182" s="81" t="s">
         <v>693</v>
-      </c>
-      <c r="F182" s="7" t="s">
-        <v>694</v>
-      </c>
-      <c r="G182" s="40" t="s">
-        <v>695</v>
       </c>
       <c r="O182" s="1">
         <v>2</v>
@@ -12312,21 +12358,21 @@
         <v>263</v>
       </c>
     </row>
-    <row r="183" spans="1:22" ht="28.8">
+    <row r="183" spans="1:22" ht="14.4" customHeight="1">
       <c r="A183" s="2">
         <v>182</v>
       </c>
       <c r="B183" s="17" t="s">
+        <v>694</v>
+      </c>
+      <c r="C183" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="D183" s="69" t="s">
+        <v>695</v>
+      </c>
+      <c r="F183" s="94" t="s">
         <v>696</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D183" s="86" t="s">
-        <v>697</v>
-      </c>
-      <c r="F183" s="86" t="s">
-        <v>698</v>
       </c>
       <c r="O183" s="1">
         <v>2</v>
@@ -12355,59 +12401,83 @@
         <v>263</v>
       </c>
     </row>
-    <row r="184" spans="1:22">
+    <row r="184" spans="1:22" ht="14.4" customHeight="1">
       <c r="A184" s="2">
         <v>183</v>
       </c>
-      <c r="F184" s="86">
-        <v>9836697755</v>
+      <c r="B184" s="17" t="s">
+        <v>698</v>
+      </c>
+      <c r="C184" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="F184" s="94">
+        <v>8617798362</v>
+      </c>
+      <c r="O184" s="1">
+        <v>2</v>
+      </c>
+      <c r="P184" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q184" s="1">
+        <v>4</v>
+      </c>
+      <c r="R184" s="1">
+        <v>5</v>
+      </c>
+      <c r="S184" s="1">
+        <v>1</v>
       </c>
       <c r="T184" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="U184" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V184" s="10" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="185" spans="1:22" ht="28.8">
+    <row r="185" spans="1:22" ht="14.4" customHeight="1">
       <c r="A185" s="2">
         <v>184</v>
       </c>
       <c r="B185" s="17" t="s">
-        <v>700</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D185" s="3" t="s">
         <v>699</v>
       </c>
-      <c r="F185" s="86">
+      <c r="C185" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="D185" s="6" t="s">
+        <v>697</v>
+      </c>
+      <c r="F185" s="95">
         <v>8617798362</v>
       </c>
       <c r="O185" s="1">
         <v>2</v>
       </c>
       <c r="P185" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q185" s="1">
         <v>4</v>
       </c>
       <c r="R185" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S185" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T185" s="1">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="U185" s="1">
         <f t="shared" si="5"/>
@@ -12417,83 +12487,83 @@
         <v>263</v>
       </c>
     </row>
-    <row r="186" spans="1:22" ht="28.8">
+    <row r="186" spans="1:22" ht="14.4" customHeight="1">
       <c r="A186" s="2">
         <v>185</v>
       </c>
       <c r="B186" s="17" t="s">
+        <v>700</v>
+      </c>
+      <c r="C186" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="D186" s="3" t="s">
         <v>701</v>
       </c>
-      <c r="C186" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D186" s="6" t="s">
-        <v>699</v>
-      </c>
-      <c r="F186" s="87">
-        <v>8617798362</v>
+      <c r="F186" s="84" t="s">
+        <v>702</v>
       </c>
       <c r="O186" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P186" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q186" s="1">
         <v>4</v>
       </c>
       <c r="R186" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S186" s="1">
         <v>2</v>
       </c>
       <c r="T186" s="1">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="U186" s="1">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V186" s="10" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="187" spans="1:22" ht="28.8">
+    <row r="187" spans="1:22" ht="14.4" customHeight="1">
       <c r="A187" s="2">
         <v>186</v>
       </c>
       <c r="B187" s="17" t="s">
-        <v>702</v>
-      </c>
-      <c r="C187" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="C187" s="80" t="s">
         <v>0</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>703</v>
-      </c>
-      <c r="F187" s="7" t="s">
         <v>704</v>
       </c>
+      <c r="F187" s="84" t="s">
+        <v>705</v>
+      </c>
       <c r="O187" s="1">
         <v>4</v>
       </c>
       <c r="P187" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q187" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R187" s="1">
         <v>5</v>
       </c>
       <c r="S187" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T187" s="1">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="U187" s="1">
         <f t="shared" si="5"/>
@@ -12503,22 +12573,22 @@
         <v>263</v>
       </c>
     </row>
-    <row r="188" spans="1:22" ht="28.8">
+    <row r="188" spans="1:22" ht="14.4" customHeight="1">
       <c r="A188" s="2">
         <v>187</v>
       </c>
       <c r="B188" s="17" t="s">
-        <v>705</v>
-      </c>
-      <c r="C188" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="C188" s="80" t="s">
         <v>0</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>706</v>
-      </c>
-      <c r="F188" s="7" t="s">
         <v>707</v>
       </c>
+      <c r="F188" s="84" t="s">
+        <v>708</v>
+      </c>
       <c r="O188" s="1">
         <v>4</v>
       </c>
@@ -12532,11 +12602,11 @@
         <v>5</v>
       </c>
       <c r="S188" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T188" s="1">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="U188" s="1">
         <f t="shared" si="5"/>
@@ -12546,64 +12616,64 @@
         <v>263</v>
       </c>
     </row>
-    <row r="189" spans="1:22" ht="28.8">
+    <row r="189" spans="1:22" ht="14.4" customHeight="1">
       <c r="A189" s="2">
         <v>188</v>
       </c>
       <c r="B189" s="17" t="s">
-        <v>708</v>
-      </c>
-      <c r="C189" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="C189" s="80" t="s">
         <v>0</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>709</v>
-      </c>
-      <c r="F189" s="7" t="s">
         <v>710</v>
       </c>
+      <c r="F189" s="84" t="s">
+        <v>711</v>
+      </c>
       <c r="O189" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P189" s="1">
         <v>4</v>
       </c>
       <c r="Q189" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R189" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S189" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T189" s="1">
         <f t="shared" si="4"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="U189" s="1">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V189" s="10" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="190" spans="1:22" ht="28.8">
+    <row r="190" spans="1:22" ht="14.4" customHeight="1">
       <c r="A190" s="2">
         <v>189</v>
       </c>
       <c r="B190" s="17" t="s">
-        <v>711</v>
-      </c>
-      <c r="C190" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D190" s="3" t="s">
         <v>712</v>
       </c>
-      <c r="F190" s="7" t="s">
+      <c r="C190" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="D190" s="1" t="s">
         <v>713</v>
+      </c>
+      <c r="F190" s="84" t="s">
+        <v>714</v>
       </c>
       <c r="O190" s="1">
         <v>2</v>
@@ -12612,17 +12682,17 @@
         <v>4</v>
       </c>
       <c r="Q190" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R190" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S190" s="1">
         <v>1</v>
       </c>
       <c r="T190" s="1">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U190" s="1">
         <f t="shared" si="5"/>
@@ -12632,21 +12702,21 @@
         <v>263</v>
       </c>
     </row>
-    <row r="191" spans="1:22" ht="28.8">
+    <row r="191" spans="1:22" ht="14.4" customHeight="1">
       <c r="A191" s="2">
         <v>190</v>
       </c>
       <c r="B191" s="17" t="s">
-        <v>714</v>
-      </c>
-      <c r="C191" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="C191" s="80" t="s">
         <v>0</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="F191" s="7" t="s">
         <v>716</v>
+      </c>
+      <c r="F191" s="96" t="s">
+        <v>717</v>
       </c>
       <c r="O191" s="1">
         <v>2</v>
@@ -12658,10 +12728,10 @@
         <v>3</v>
       </c>
       <c r="R191" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S191" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T191" s="1">
         <f t="shared" si="4"/>
@@ -12675,21 +12745,21 @@
         <v>263</v>
       </c>
     </row>
-    <row r="192" spans="1:22" ht="28.8">
+    <row r="192" spans="1:22" ht="14.4" customHeight="1">
       <c r="A192" s="2">
         <v>191</v>
       </c>
       <c r="B192" s="17" t="s">
-        <v>717</v>
-      </c>
-      <c r="C192" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D192" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="F192" s="88" t="s">
+      <c r="C192" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="D192" s="3" t="s">
         <v>719</v>
+      </c>
+      <c r="F192" s="84" t="s">
+        <v>720</v>
       </c>
       <c r="O192" s="1">
         <v>2</v>
@@ -12698,7 +12768,7 @@
         <v>4</v>
       </c>
       <c r="Q192" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R192" s="1">
         <v>4</v>
@@ -12708,7 +12778,7 @@
       </c>
       <c r="T192" s="1">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="U192" s="1">
         <f t="shared" si="5"/>
@@ -12718,24 +12788,24 @@
         <v>263</v>
       </c>
     </row>
-    <row r="193" spans="1:22" ht="28.8">
+    <row r="193" spans="1:22" ht="14.4" customHeight="1">
       <c r="A193" s="2">
         <v>192</v>
       </c>
       <c r="B193" s="17" t="s">
-        <v>720</v>
-      </c>
-      <c r="C193" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="C193" s="80" t="s">
         <v>0</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>721</v>
-      </c>
-      <c r="F193" s="7" t="s">
         <v>722</v>
       </c>
+      <c r="F193" s="87" t="s">
+        <v>723</v>
+      </c>
       <c r="O193" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P193" s="1">
         <v>4</v>
@@ -12747,54 +12817,54 @@
         <v>4</v>
       </c>
       <c r="S193" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T193" s="1">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="U193" s="1">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V193" s="10" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="194" spans="1:22" ht="28.8">
+    <row r="194" spans="1:22" ht="14.4" customHeight="1">
       <c r="A194" s="2">
         <v>193</v>
       </c>
       <c r="B194" s="17" t="s">
-        <v>723</v>
-      </c>
-      <c r="C194" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D194" s="3" t="s">
         <v>724</v>
       </c>
-      <c r="F194" s="89" t="s">
+      <c r="C194" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="D194" s="70" t="s">
         <v>725</v>
       </c>
+      <c r="F194" s="87">
+        <v>7439208434</v>
+      </c>
       <c r="O194" s="1">
         <v>4</v>
       </c>
       <c r="P194" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q194" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R194" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S194" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T194" s="1">
-        <f t="shared" si="4"/>
-        <v>19</v>
+        <f t="shared" ref="T194:T196" si="6">SUM(O194:S194)</f>
+        <v>20</v>
       </c>
       <c r="U194" s="1">
         <f t="shared" si="5"/>
@@ -12804,64 +12874,64 @@
         <v>263</v>
       </c>
     </row>
-    <row r="195" spans="1:22" ht="28.8">
+    <row r="195" spans="1:22" ht="14.4" customHeight="1">
       <c r="A195" s="2">
         <v>194</v>
       </c>
       <c r="B195" s="17" t="s">
         <v>726</v>
       </c>
-      <c r="C195" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D195" s="90" t="s">
+      <c r="C195" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="F195" s="84" t="s">
         <v>727</v>
       </c>
-      <c r="F195" s="90">
-        <v>7439208434</v>
-      </c>
       <c r="O195" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P195" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q195" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R195" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S195" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T195" s="1">
-        <f t="shared" ref="T195:T197" si="6">SUM(O195:S195)</f>
-        <v>20</v>
+        <f t="shared" si="6"/>
+        <v>17</v>
       </c>
       <c r="U195" s="1">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" ref="U195:U196" si="7">ROUND(T195/5,0)</f>
+        <v>3</v>
       </c>
       <c r="V195" s="10" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="196" spans="1:22" ht="28.8">
+    <row r="196" spans="1:22" ht="14.4" customHeight="1">
       <c r="A196" s="2">
         <v>195</v>
       </c>
       <c r="B196" s="17" t="s">
-        <v>728</v>
-      </c>
-      <c r="C196" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="C196" s="80" t="s">
         <v>0</v>
       </c>
       <c r="D196" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="F196" s="7" t="s">
-        <v>729</v>
+      <c r="F196" s="84" t="s">
+        <v>731</v>
       </c>
       <c r="O196" s="1">
         <v>3</v>
@@ -12876,214 +12946,171 @@
         <v>4</v>
       </c>
       <c r="S196" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T196" s="1">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U196" s="1">
-        <f t="shared" ref="U196:U197" si="7">ROUND(T196/5,0)</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="V196" s="10" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="197" spans="1:22" ht="28.8">
-      <c r="A197" s="2">
-        <v>196</v>
-      </c>
-      <c r="B197" s="17" t="s">
-        <v>731</v>
-      </c>
-      <c r="C197" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D197" s="3" t="s">
-        <v>732</v>
-      </c>
-      <c r="F197" s="7" t="s">
-        <v>733</v>
-      </c>
-      <c r="O197" s="1">
-        <v>3</v>
-      </c>
-      <c r="P197" s="1">
-        <v>4</v>
-      </c>
-      <c r="Q197" s="1">
-        <v>4</v>
-      </c>
-      <c r="R197" s="1">
-        <v>4</v>
-      </c>
-      <c r="S197" s="1">
-        <v>1</v>
-      </c>
-      <c r="T197" s="1">
-        <f t="shared" si="6"/>
-        <v>16</v>
-      </c>
-      <c r="U197" s="1">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="V197" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:V124"/>
+  <autoFilter ref="A1:V124" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Initial,Potential,Customer,Workshp Fixed,Reject,Not-Contacted,Ex-Customer"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:N1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:N1048576" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Rahul Dutta,Sayan Basak,Anirban Chakraborty,Debashish Nath"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D31" r:id="rId1"/>
-    <hyperlink ref="D32" r:id="rId2"/>
-    <hyperlink ref="F7" r:id="rId3" display="https://www.google.com/search?q=panchasayar+siksha+niketan&amp;sca_esv=593615924&amp;rlz=1C1CHBF_enAU1047AU1047&amp;sxsrf=AM9HkKnlKkWvrpmDIvMzNnJR8ZC_8s6gNQ%3A1703524925488&amp;ei=PbqJZaauHY2KnesPo--TuAo&amp;gs_ssp=eJzj4tFP1zc0MqnMzTa1TDNgtFI1qDBONDAyNzRPNU1LM0xOTkuyAgqZpJmZmJgnGZgZGSWnpSV5SRUk5iVnJBYnViYWKRRnZhdnJCrkZWanliTmAQC7Qxln&amp;oq=panchasayar+s&amp;gs_lp=Egxnd3Mtd2l6LXNlcnAiDXBhbmNoYXNheWFyIHMqAggAMhQQLhivARjHARimAxioAxiABBiOBTIFEAAYgAQyBRAAGIAEMgsQLhiABBioAxidAzIFEAAYgAQyBRAAGIAEMgUQABiABDIFEAAYgAQyCBAAGIAEGMsBMggQABiABBjLATIjEC4YrwEYxwEYpgMYqAMYgAQYjgUYlwUY3AQY3gQY4ATYAQNIuzhQmhhYmCVwAXgBkAEAmAGvAqAB1gSqAQUyLTEuMbgBAcgBAPgBAcICChAAGEcY1gQYsAPCAg0QABiABBiKBRhDGLADwgIcEC4YgAQYigUYQxjHARivARjIAxiwAxiOBdgBAcICGRAuGIAEGIoFGEMYxwEYrwEYyAMYsAPYAQHCAg4QABjkAhjWBBiwA9gBAsICEBAuGEMYnQMYqAMYgAQYigXCAhAQLhiABBiKBRhDGKgDGJ0DwgIWEC4YQxivARjHARimAxioAxiABBiKBcICChAAGIAEGBQYhwLCAh8QLhhDGJ0DGKgDGIAEGIoFGJcFGNwEGN4EGOAE2AED4gMEGAAgQYgGAZAGDroGBggBEAEYCLoGBggCEAEYCboGBggDEAEYFA&amp;sclient=gws-wiz-serp"/>
-    <hyperlink ref="F8" r:id="rId4" display="https://www.google.com/search?q=miranda+high+school&amp;sca_esv=593615924&amp;rlz=1C1CHBF_enAU1047AU1047&amp;sxsrf=AM9HkKmR8dFtasrVNGZkMFIxGz5Wq06ZjA%3A1703525037148&amp;ei=rbqJZczSCOCWjuMPsMy_8AM&amp;oq=miranda+high+&amp;gs_lp=Egxnd3Mtd2l6LXNlcnAiDW1pcmFuZGEgaGlnaCAqAggAMg0QABiABBgUGIcCGMkDMgUQABiABDILEAAYgAQYigUYkgMyBRAAGIAEMgUQABiABDIKEAAYgAQYFBiHAjIFEAAYgAQyBRAAGIAEMgUQABiABDIFEAAYgARI7RNQ6AZY6AZwAXgAkAEAmAH0BqABuAyqAQM2LTK4AQHIAQD4AQHCAgoQABhHGNYEGLAD4gMEGAAgQYgGAZAGCA&amp;sclient=gws-wiz-serp&amp;lqi=ChNtaXJhbmRhIGhpZ2ggc2Nob29sSN-07OW4roCACForEAAQARACGAAYARgCIhNtaXJhbmRhIGhpZ2ggc2Nob29sKggIAhAAEAEQApIBBnNjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOUGNqUnVSbVZuRUFFqgE7EAEyHhABIhpTQ3iPFiqMHHb-9vGb0lli1Rpc5Z8xE87GgDIXEAIiE21pcmFuZGEgaGlnaCBzY2hvb2w"/>
-    <hyperlink ref="D22" r:id="rId5"/>
-    <hyperlink ref="D25" r:id="rId6" display="mailto:official@younghorizonsschool.com"/>
-    <hyperlink ref="D26" r:id="rId7" display="mailto:iwanttojoin@siskol.edu.in"/>
-    <hyperlink ref="D27" r:id="rId8" display="mailto:lcgvm2012@gmail.com"/>
-    <hyperlink ref="D30" r:id="rId9"/>
-    <hyperlink ref="D33" r:id="rId10"/>
-    <hyperlink ref="D35" r:id="rId11"/>
-    <hyperlink ref="D37" r:id="rId12"/>
-    <hyperlink ref="D41" r:id="rId13"/>
-    <hyperlink ref="D42" r:id="rId14"/>
-    <hyperlink ref="D43" r:id="rId15"/>
-    <hyperlink ref="D47" r:id="rId16"/>
-    <hyperlink ref="D48" r:id="rId17"/>
-    <hyperlink ref="D49" r:id="rId18"/>
-    <hyperlink ref="D51" r:id="rId19"/>
-    <hyperlink ref="D52" r:id="rId20"/>
-    <hyperlink ref="D53" r:id="rId21"/>
-    <hyperlink ref="D54" r:id="rId22"/>
-    <hyperlink ref="D55" r:id="rId23"/>
-    <hyperlink ref="D56" r:id="rId24"/>
-    <hyperlink ref="D57" r:id="rId25"/>
-    <hyperlink ref="D58" r:id="rId26"/>
-    <hyperlink ref="D59" r:id="rId27"/>
-    <hyperlink ref="D60" r:id="rId28"/>
-    <hyperlink ref="D61" r:id="rId29"/>
-    <hyperlink ref="D62" r:id="rId30"/>
-    <hyperlink ref="D63" r:id="rId31"/>
-    <hyperlink ref="D64" r:id="rId32"/>
-    <hyperlink ref="D65" r:id="rId33"/>
-    <hyperlink ref="D66" r:id="rId34"/>
-    <hyperlink ref="D67" r:id="rId35"/>
-    <hyperlink ref="D68" r:id="rId36"/>
-    <hyperlink ref="D69" r:id="rId37"/>
-    <hyperlink ref="D70" r:id="rId38"/>
-    <hyperlink ref="D71" r:id="rId39"/>
-    <hyperlink ref="D72" r:id="rId40"/>
-    <hyperlink ref="D73" r:id="rId41"/>
-    <hyperlink ref="D75" r:id="rId42"/>
-    <hyperlink ref="D78" r:id="rId43"/>
-    <hyperlink ref="D79" r:id="rId44"/>
-    <hyperlink ref="D80" r:id="rId45"/>
-    <hyperlink ref="D81" r:id="rId46"/>
-    <hyperlink ref="D85" r:id="rId47"/>
-    <hyperlink ref="D88" r:id="rId48"/>
-    <hyperlink ref="D89" r:id="rId49"/>
-    <hyperlink ref="D91" r:id="rId50"/>
-    <hyperlink ref="D2" r:id="rId51"/>
-    <hyperlink ref="D28" r:id="rId52"/>
-    <hyperlink ref="E2" r:id="rId53"/>
-    <hyperlink ref="D3" r:id="rId54"/>
-    <hyperlink ref="D4" r:id="rId55"/>
-    <hyperlink ref="E4" r:id="rId56"/>
-    <hyperlink ref="D5" r:id="rId57"/>
-    <hyperlink ref="D7" r:id="rId58"/>
-    <hyperlink ref="D6" r:id="rId59"/>
-    <hyperlink ref="E6" r:id="rId60"/>
-    <hyperlink ref="D8" r:id="rId61"/>
-    <hyperlink ref="E8" r:id="rId62"/>
-    <hyperlink ref="D9" r:id="rId63"/>
-    <hyperlink ref="D10" r:id="rId64"/>
-    <hyperlink ref="D12" r:id="rId65"/>
-    <hyperlink ref="D13" r:id="rId66"/>
-    <hyperlink ref="E13" r:id="rId67"/>
-    <hyperlink ref="D14" r:id="rId68"/>
-    <hyperlink ref="E14" r:id="rId69"/>
-    <hyperlink ref="D15" r:id="rId70"/>
-    <hyperlink ref="D17" r:id="rId71"/>
-    <hyperlink ref="D18" r:id="rId72"/>
-    <hyperlink ref="E18" r:id="rId73"/>
-    <hyperlink ref="D19" r:id="rId74"/>
-    <hyperlink ref="D38" r:id="rId75"/>
-    <hyperlink ref="D40" r:id="rId76"/>
-    <hyperlink ref="D44" r:id="rId77"/>
-    <hyperlink ref="D45" r:id="rId78"/>
-    <hyperlink ref="D82" r:id="rId79"/>
-    <hyperlink ref="D83" r:id="rId80"/>
-    <hyperlink ref="D84" r:id="rId81"/>
-    <hyperlink ref="D86" r:id="rId82"/>
-    <hyperlink ref="D87" r:id="rId83"/>
-    <hyperlink ref="D90" r:id="rId84"/>
-    <hyperlink ref="D127" r:id="rId85"/>
-    <hyperlink ref="D128" r:id="rId86"/>
-    <hyperlink ref="D129" r:id="rId87"/>
-    <hyperlink ref="D130" r:id="rId88"/>
-    <hyperlink ref="D131" r:id="rId89"/>
-    <hyperlink ref="D132" r:id="rId90"/>
-    <hyperlink ref="D133" r:id="rId91"/>
-    <hyperlink ref="D134" r:id="rId92"/>
-    <hyperlink ref="D135" r:id="rId93"/>
-    <hyperlink ref="D136" r:id="rId94"/>
-    <hyperlink ref="D137" r:id="rId95"/>
-    <hyperlink ref="D138" r:id="rId96"/>
-    <hyperlink ref="D139" r:id="rId97"/>
-    <hyperlink ref="D140" r:id="rId98"/>
-    <hyperlink ref="D141" r:id="rId99"/>
-    <hyperlink ref="D142" r:id="rId100"/>
-    <hyperlink ref="D143" r:id="rId101"/>
-    <hyperlink ref="D144" r:id="rId102"/>
-    <hyperlink ref="D145" r:id="rId103"/>
-    <hyperlink ref="D146" r:id="rId104"/>
-    <hyperlink ref="D147" r:id="rId105"/>
-    <hyperlink ref="D149" r:id="rId106"/>
-    <hyperlink ref="D150" r:id="rId107"/>
-    <hyperlink ref="D152" r:id="rId108"/>
-    <hyperlink ref="D153" r:id="rId109"/>
-    <hyperlink ref="D154" r:id="rId110"/>
-    <hyperlink ref="E151" r:id="rId111"/>
-    <hyperlink ref="D156" r:id="rId112"/>
-    <hyperlink ref="D157" r:id="rId113"/>
-    <hyperlink ref="D159" r:id="rId114"/>
-    <hyperlink ref="D160" r:id="rId115"/>
-    <hyperlink ref="D163" r:id="rId116"/>
-    <hyperlink ref="D166" r:id="rId117"/>
-    <hyperlink ref="D167" r:id="rId118"/>
-    <hyperlink ref="D168" r:id="rId119"/>
-    <hyperlink ref="D169" r:id="rId120"/>
-    <hyperlink ref="D170" r:id="rId121"/>
-    <hyperlink ref="D171" r:id="rId122"/>
-    <hyperlink ref="D175" r:id="rId123"/>
-    <hyperlink ref="D176" r:id="rId124"/>
-    <hyperlink ref="D177" r:id="rId125"/>
-    <hyperlink ref="F177" r:id="rId126"/>
-    <hyperlink ref="D178" r:id="rId127"/>
-    <hyperlink ref="D179" r:id="rId128"/>
-    <hyperlink ref="D181" r:id="rId129"/>
-    <hyperlink ref="D182" r:id="rId130"/>
-    <hyperlink ref="D185" r:id="rId131"/>
-    <hyperlink ref="D186" r:id="rId132"/>
-    <hyperlink ref="D187" r:id="rId133"/>
-    <hyperlink ref="D188" r:id="rId134"/>
-    <hyperlink ref="D189" r:id="rId135"/>
-    <hyperlink ref="D190" r:id="rId136"/>
-    <hyperlink ref="D193" r:id="rId137"/>
-    <hyperlink ref="D194" r:id="rId138"/>
-    <hyperlink ref="D196" r:id="rId139"/>
-    <hyperlink ref="D197" r:id="rId140"/>
+    <hyperlink ref="D31" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="D32" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="F7" r:id="rId3" display="https://www.google.com/search?q=panchasayar+siksha+niketan&amp;sca_esv=593615924&amp;rlz=1C1CHBF_enAU1047AU1047&amp;sxsrf=AM9HkKnlKkWvrpmDIvMzNnJR8ZC_8s6gNQ%3A1703524925488&amp;ei=PbqJZaauHY2KnesPo--TuAo&amp;gs_ssp=eJzj4tFP1zc0MqnMzTa1TDNgtFI1qDBONDAyNzRPNU1LM0xOTkuyAgqZpJmZmJgnGZgZGSWnpSV5SRUk5iVnJBYnViYWKRRnZhdnJCrkZWanliTmAQC7Qxln&amp;oq=panchasayar+s&amp;gs_lp=Egxnd3Mtd2l6LXNlcnAiDXBhbmNoYXNheWFyIHMqAggAMhQQLhivARjHARimAxioAxiABBiOBTIFEAAYgAQyBRAAGIAEMgsQLhiABBioAxidAzIFEAAYgAQyBRAAGIAEMgUQABiABDIFEAAYgAQyCBAAGIAEGMsBMggQABiABBjLATIjEC4YrwEYxwEYpgMYqAMYgAQYjgUYlwUY3AQY3gQY4ATYAQNIuzhQmhhYmCVwAXgBkAEAmAGvAqAB1gSqAQUyLTEuMbgBAcgBAPgBAcICChAAGEcY1gQYsAPCAg0QABiABBiKBRhDGLADwgIcEC4YgAQYigUYQxjHARivARjIAxiwAxiOBdgBAcICGRAuGIAEGIoFGEMYxwEYrwEYyAMYsAPYAQHCAg4QABjkAhjWBBiwA9gBAsICEBAuGEMYnQMYqAMYgAQYigXCAhAQLhiABBiKBRhDGKgDGJ0DwgIWEC4YQxivARjHARimAxioAxiABBiKBcICChAAGIAEGBQYhwLCAh8QLhhDGJ0DGKgDGIAEGIoFGJcFGNwEGN4EGOAE2AED4gMEGAAgQYgGAZAGDroGBggBEAEYCLoGBggCEAEYCboGBggDEAEYFA&amp;sclient=gws-wiz-serp" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="F8" r:id="rId4" display="https://www.google.com/search?q=miranda+high+school&amp;sca_esv=593615924&amp;rlz=1C1CHBF_enAU1047AU1047&amp;sxsrf=AM9HkKmR8dFtasrVNGZkMFIxGz5Wq06ZjA%3A1703525037148&amp;ei=rbqJZczSCOCWjuMPsMy_8AM&amp;oq=miranda+high+&amp;gs_lp=Egxnd3Mtd2l6LXNlcnAiDW1pcmFuZGEgaGlnaCAqAggAMg0QABiABBgUGIcCGMkDMgUQABiABDILEAAYgAQYigUYkgMyBRAAGIAEMgUQABiABDIKEAAYgAQYFBiHAjIFEAAYgAQyBRAAGIAEMgUQABiABDIFEAAYgARI7RNQ6AZY6AZwAXgAkAEAmAH0BqABuAyqAQM2LTK4AQHIAQD4AQHCAgoQABhHGNYEGLAD4gMEGAAgQYgGAZAGCA&amp;sclient=gws-wiz-serp&amp;lqi=ChNtaXJhbmRhIGhpZ2ggc2Nob29sSN-07OW4roCACForEAAQARACGAAYARgCIhNtaXJhbmRhIGhpZ2ggc2Nob29sKggIAhAAEAEQApIBBnNjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOUGNqUnVSbVZuRUFFqgE7EAEyHhABIhpTQ3iPFiqMHHb-9vGb0lli1Rpc5Z8xE87GgDIXEAIiE21pcmFuZGEgaGlnaCBzY2hvb2w" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="D22" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="D25" r:id="rId6" display="mailto:official@younghorizonsschool.com" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="D26" r:id="rId7" display="mailto:iwanttojoin@siskol.edu.in" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="D27" r:id="rId8" display="mailto:lcgvm2012@gmail.com" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="D30" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="D33" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="D35" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="D37" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="D41" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="D42" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="D43" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="D47" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="D48" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="D49" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="D51" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="D52" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="D53" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="D54" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="D55" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="D56" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="D57" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="D58" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="D59" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="D60" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="D61" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="D62" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="D63" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="D64" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="D65" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="D66" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="D67" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="D68" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="D69" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="D70" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
+    <hyperlink ref="D71" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
+    <hyperlink ref="D72" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
+    <hyperlink ref="D73" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
+    <hyperlink ref="D75" r:id="rId42" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
+    <hyperlink ref="D78" r:id="rId43" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
+    <hyperlink ref="D79" r:id="rId44" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
+    <hyperlink ref="D80" r:id="rId45" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
+    <hyperlink ref="D81" r:id="rId46" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
+    <hyperlink ref="D85" r:id="rId47" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
+    <hyperlink ref="D88" r:id="rId48" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
+    <hyperlink ref="D89" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
+    <hyperlink ref="D91" r:id="rId50" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
+    <hyperlink ref="D2" r:id="rId51" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
+    <hyperlink ref="D28" r:id="rId52" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
+    <hyperlink ref="E2" r:id="rId53" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
+    <hyperlink ref="D3" r:id="rId54" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
+    <hyperlink ref="D4" r:id="rId55" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
+    <hyperlink ref="E4" r:id="rId56" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
+    <hyperlink ref="D5" r:id="rId57" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
+    <hyperlink ref="D7" r:id="rId58" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
+    <hyperlink ref="D6" r:id="rId59" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
+    <hyperlink ref="E6" r:id="rId60" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
+    <hyperlink ref="D8" r:id="rId61" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
+    <hyperlink ref="E8" r:id="rId62" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
+    <hyperlink ref="D9" r:id="rId63" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
+    <hyperlink ref="D10" r:id="rId64" xr:uid="{00000000-0004-0000-0100-00003F000000}"/>
+    <hyperlink ref="D12" r:id="rId65" xr:uid="{00000000-0004-0000-0100-000040000000}"/>
+    <hyperlink ref="D13" r:id="rId66" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
+    <hyperlink ref="E13" r:id="rId67" xr:uid="{00000000-0004-0000-0100-000042000000}"/>
+    <hyperlink ref="D14" r:id="rId68" xr:uid="{00000000-0004-0000-0100-000043000000}"/>
+    <hyperlink ref="E14" r:id="rId69" xr:uid="{00000000-0004-0000-0100-000044000000}"/>
+    <hyperlink ref="D15" r:id="rId70" xr:uid="{00000000-0004-0000-0100-000045000000}"/>
+    <hyperlink ref="D17" r:id="rId71" xr:uid="{00000000-0004-0000-0100-000046000000}"/>
+    <hyperlink ref="D18" r:id="rId72" xr:uid="{00000000-0004-0000-0100-000047000000}"/>
+    <hyperlink ref="E18" r:id="rId73" xr:uid="{00000000-0004-0000-0100-000048000000}"/>
+    <hyperlink ref="D19" r:id="rId74" xr:uid="{00000000-0004-0000-0100-000049000000}"/>
+    <hyperlink ref="D38" r:id="rId75" xr:uid="{00000000-0004-0000-0100-00004A000000}"/>
+    <hyperlink ref="D40" r:id="rId76" xr:uid="{00000000-0004-0000-0100-00004B000000}"/>
+    <hyperlink ref="D44" r:id="rId77" xr:uid="{00000000-0004-0000-0100-00004C000000}"/>
+    <hyperlink ref="D45" r:id="rId78" xr:uid="{00000000-0004-0000-0100-00004D000000}"/>
+    <hyperlink ref="D82" r:id="rId79" xr:uid="{00000000-0004-0000-0100-00004E000000}"/>
+    <hyperlink ref="D83" r:id="rId80" xr:uid="{00000000-0004-0000-0100-00004F000000}"/>
+    <hyperlink ref="D84" r:id="rId81" xr:uid="{00000000-0004-0000-0100-000050000000}"/>
+    <hyperlink ref="D86" r:id="rId82" xr:uid="{00000000-0004-0000-0100-000051000000}"/>
+    <hyperlink ref="D87" r:id="rId83" xr:uid="{00000000-0004-0000-0100-000052000000}"/>
+    <hyperlink ref="D90" r:id="rId84" xr:uid="{00000000-0004-0000-0100-000053000000}"/>
+    <hyperlink ref="D127" r:id="rId85" xr:uid="{00000000-0004-0000-0100-000054000000}"/>
+    <hyperlink ref="D128" r:id="rId86" xr:uid="{00000000-0004-0000-0100-000055000000}"/>
+    <hyperlink ref="D129" r:id="rId87" xr:uid="{00000000-0004-0000-0100-000056000000}"/>
+    <hyperlink ref="D130" r:id="rId88" xr:uid="{00000000-0004-0000-0100-000057000000}"/>
+    <hyperlink ref="D131" r:id="rId89" xr:uid="{00000000-0004-0000-0100-000058000000}"/>
+    <hyperlink ref="D132" r:id="rId90" xr:uid="{00000000-0004-0000-0100-000059000000}"/>
+    <hyperlink ref="D133" r:id="rId91" xr:uid="{00000000-0004-0000-0100-00005A000000}"/>
+    <hyperlink ref="D134" r:id="rId92" xr:uid="{00000000-0004-0000-0100-00005B000000}"/>
+    <hyperlink ref="D135" r:id="rId93" xr:uid="{00000000-0004-0000-0100-00005C000000}"/>
+    <hyperlink ref="D136" r:id="rId94" xr:uid="{00000000-0004-0000-0100-00005D000000}"/>
+    <hyperlink ref="D137" r:id="rId95" xr:uid="{00000000-0004-0000-0100-00005E000000}"/>
+    <hyperlink ref="D138" r:id="rId96" xr:uid="{00000000-0004-0000-0100-00005F000000}"/>
+    <hyperlink ref="D139" r:id="rId97" xr:uid="{00000000-0004-0000-0100-000060000000}"/>
+    <hyperlink ref="D140" r:id="rId98" xr:uid="{00000000-0004-0000-0100-000061000000}"/>
+    <hyperlink ref="D141" r:id="rId99" xr:uid="{00000000-0004-0000-0100-000062000000}"/>
+    <hyperlink ref="D142" r:id="rId100" xr:uid="{00000000-0004-0000-0100-000063000000}"/>
+    <hyperlink ref="D143" r:id="rId101" xr:uid="{00000000-0004-0000-0100-000064000000}"/>
+    <hyperlink ref="D144" r:id="rId102" xr:uid="{00000000-0004-0000-0100-000065000000}"/>
+    <hyperlink ref="D145" r:id="rId103" xr:uid="{00000000-0004-0000-0100-000066000000}"/>
+    <hyperlink ref="D146" r:id="rId104" xr:uid="{00000000-0004-0000-0100-000067000000}"/>
+    <hyperlink ref="D147" r:id="rId105" xr:uid="{00000000-0004-0000-0100-000068000000}"/>
+    <hyperlink ref="D149" r:id="rId106" xr:uid="{00000000-0004-0000-0100-000069000000}"/>
+    <hyperlink ref="D150" r:id="rId107" xr:uid="{00000000-0004-0000-0100-00006A000000}"/>
+    <hyperlink ref="D152" r:id="rId108" xr:uid="{00000000-0004-0000-0100-00006B000000}"/>
+    <hyperlink ref="D153" r:id="rId109" xr:uid="{00000000-0004-0000-0100-00006C000000}"/>
+    <hyperlink ref="D154" r:id="rId110" xr:uid="{00000000-0004-0000-0100-00006D000000}"/>
+    <hyperlink ref="E151" r:id="rId111" xr:uid="{00000000-0004-0000-0100-00006E000000}"/>
+    <hyperlink ref="D156" r:id="rId112" xr:uid="{00000000-0004-0000-0100-00006F000000}"/>
+    <hyperlink ref="D157" r:id="rId113" xr:uid="{00000000-0004-0000-0100-000070000000}"/>
+    <hyperlink ref="D159" r:id="rId114" xr:uid="{00000000-0004-0000-0100-000071000000}"/>
+    <hyperlink ref="D160" r:id="rId115" xr:uid="{00000000-0004-0000-0100-000072000000}"/>
+    <hyperlink ref="D163" r:id="rId116" xr:uid="{00000000-0004-0000-0100-000073000000}"/>
+    <hyperlink ref="D166" r:id="rId117" xr:uid="{00000000-0004-0000-0100-000074000000}"/>
+    <hyperlink ref="D167" r:id="rId118" xr:uid="{00000000-0004-0000-0100-000075000000}"/>
+    <hyperlink ref="D168" r:id="rId119" xr:uid="{00000000-0004-0000-0100-000076000000}"/>
+    <hyperlink ref="D169" r:id="rId120" xr:uid="{00000000-0004-0000-0100-000077000000}"/>
+    <hyperlink ref="D170" r:id="rId121" xr:uid="{00000000-0004-0000-0100-000078000000}"/>
+    <hyperlink ref="D171" r:id="rId122" xr:uid="{00000000-0004-0000-0100-000079000000}"/>
+    <hyperlink ref="D175" r:id="rId123" xr:uid="{00000000-0004-0000-0100-00007A000000}"/>
+    <hyperlink ref="D176" r:id="rId124" xr:uid="{00000000-0004-0000-0100-00007B000000}"/>
+    <hyperlink ref="D177" r:id="rId125" xr:uid="{00000000-0004-0000-0100-00007C000000}"/>
+    <hyperlink ref="F177" r:id="rId126" display="tel:9038724147" xr:uid="{00000000-0004-0000-0100-00007D000000}"/>
+    <hyperlink ref="D178" r:id="rId127" xr:uid="{00000000-0004-0000-0100-00007E000000}"/>
+    <hyperlink ref="D179" r:id="rId128" xr:uid="{00000000-0004-0000-0100-00007F000000}"/>
+    <hyperlink ref="D181" r:id="rId129" xr:uid="{00000000-0004-0000-0100-000080000000}"/>
+    <hyperlink ref="D182" r:id="rId130" xr:uid="{00000000-0004-0000-0100-000081000000}"/>
+    <hyperlink ref="D184" r:id="rId131" xr:uid="{00000000-0004-0000-0100-000082000000}"/>
+    <hyperlink ref="D185" r:id="rId132" xr:uid="{00000000-0004-0000-0100-000083000000}"/>
+    <hyperlink ref="D186" r:id="rId133" xr:uid="{00000000-0004-0000-0100-000084000000}"/>
+    <hyperlink ref="D187" r:id="rId134" xr:uid="{00000000-0004-0000-0100-000085000000}"/>
+    <hyperlink ref="D188" r:id="rId135" xr:uid="{00000000-0004-0000-0100-000086000000}"/>
+    <hyperlink ref="D189" r:id="rId136" xr:uid="{00000000-0004-0000-0100-000087000000}"/>
+    <hyperlink ref="D192" r:id="rId137" xr:uid="{00000000-0004-0000-0100-000088000000}"/>
+    <hyperlink ref="D193" r:id="rId138" xr:uid="{00000000-0004-0000-0100-000089000000}"/>
+    <hyperlink ref="D195" r:id="rId139" xr:uid="{00000000-0004-0000-0100-00008A000000}"/>
+    <hyperlink ref="D196" r:id="rId140" xr:uid="{00000000-0004-0000-0100-00008B000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId141"/>
@@ -13092,17 +13119,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:V179"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="4.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.88671875" style="38" customWidth="1"/>
+    <col min="2" max="2" width="32.88671875" style="17" customWidth="1"/>
     <col min="3" max="3" width="32.5546875" style="40" customWidth="1"/>
     <col min="4" max="4" width="15.5546875" style="39" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="40" bestFit="1" customWidth="1"/>
@@ -13187,11 +13214,11 @@
         <v>247</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="43.2">
+    <row r="2" spans="1:22" ht="14.4" customHeight="1">
       <c r="A2" s="38">
         <v>1</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="17" t="s">
         <v>297</v>
       </c>
       <c r="D2" s="39" t="s">
@@ -13233,11 +13260,11 @@
         <v>263</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="28.8">
+    <row r="3" spans="1:22" ht="14.4" customHeight="1">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="17" t="s">
         <v>300</v>
       </c>
       <c r="D3" s="39" t="s">
@@ -13276,11 +13303,11 @@
         <v>263</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="43.2">
+    <row r="4" spans="1:22" ht="14.4" customHeight="1">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="17" t="s">
         <v>303</v>
       </c>
       <c r="D4" s="39" t="s">
@@ -13319,11 +13346,11 @@
         <v>263</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="28.8">
+    <row r="5" spans="1:22" ht="14.4" customHeight="1">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="17" t="s">
         <v>306</v>
       </c>
       <c r="D5" s="39" t="s">
@@ -13362,11 +13389,11 @@
         <v>263</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="57.6">
+    <row r="6" spans="1:22" ht="14.4" customHeight="1">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="17" t="s">
         <v>308</v>
       </c>
       <c r="D6" s="41" t="s">
@@ -13405,11 +13432,11 @@
         <v>263</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="43.2">
+    <row r="7" spans="1:22" ht="14.4" customHeight="1">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="17" t="s">
         <v>311</v>
       </c>
       <c r="D7" s="42" t="s">
@@ -13448,11 +13475,11 @@
         <v>263</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="28.8">
+    <row r="8" spans="1:22" ht="14.4" customHeight="1">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="17" t="s">
         <v>314</v>
       </c>
       <c r="D8" s="42" t="s">
@@ -13491,11 +13518,11 @@
         <v>263</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" ht="14.4" customHeight="1">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="17" t="s">
         <v>317</v>
       </c>
       <c r="D9" s="39">
@@ -13531,11 +13558,11 @@
         <v>263</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" ht="14.4" customHeight="1">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="17" t="s">
         <v>318</v>
       </c>
       <c r="D10" s="39" t="s">
@@ -13571,14 +13598,14 @@
         <v>263</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="28.8">
+    <row r="11" spans="1:22" ht="14.4" customHeight="1">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="17" t="s">
         <v>320</v>
       </c>
-      <c r="C11" s="50"/>
+      <c r="C11" s="48"/>
       <c r="D11" s="39" t="s">
         <v>321</v>
       </c>
@@ -13612,11 +13639,11 @@
         <v>263</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" ht="14.4" customHeight="1">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="17" t="s">
         <v>322</v>
       </c>
       <c r="D12" s="39">
@@ -13652,11 +13679,11 @@
         <v>263</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" ht="14.4" customHeight="1">
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="17" t="s">
         <v>323</v>
       </c>
       <c r="D13" s="39">
@@ -13692,11 +13719,11 @@
         <v>263</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" ht="14.4" customHeight="1">
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="17" t="s">
         <v>324</v>
       </c>
       <c r="D14" s="39">
@@ -13732,11 +13759,11 @@
         <v>263</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" ht="14.4" customHeight="1">
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="17" t="s">
         <v>325</v>
       </c>
       <c r="D15" s="39" t="s">
@@ -13772,11 +13799,11 @@
         <v>263</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" ht="14.4" customHeight="1">
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="17" t="s">
         <v>327</v>
       </c>
       <c r="D16" s="39" t="s">
@@ -13812,11 +13839,11 @@
         <v>263</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:22" ht="14.4" customHeight="1">
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="17" t="s">
         <v>329</v>
       </c>
       <c r="D17" s="39" t="s">
@@ -13852,11 +13879,11 @@
         <v>263</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:22" ht="14.4" customHeight="1">
       <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="17" t="s">
         <v>331</v>
       </c>
       <c r="D18" s="39" t="s">
@@ -13892,11 +13919,11 @@
         <v>263</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:22" ht="14.4" customHeight="1">
       <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="17" t="s">
         <v>333</v>
       </c>
       <c r="D19" s="39" t="s">
@@ -13932,14 +13959,14 @@
         <v>263</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:22" ht="14.4" customHeight="1">
       <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="17" t="s">
         <v>335</v>
       </c>
-      <c r="C20" s="51"/>
+      <c r="C20" s="49"/>
       <c r="D20" s="43" t="s">
         <v>336</v>
       </c>
@@ -13973,14 +14000,14 @@
         <v>263</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:22" ht="14.4" customHeight="1">
       <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="78" t="s">
         <v>337</v>
       </c>
-      <c r="C21" s="46"/>
+      <c r="C21" s="44"/>
       <c r="D21" s="39" t="s">
         <v>338</v>
       </c>
@@ -14014,11 +14041,11 @@
         <v>263</v>
       </c>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:22" ht="14.4" customHeight="1">
       <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="45" t="s">
+      <c r="B22" s="79" t="s">
         <v>339</v>
       </c>
       <c r="D22" s="39" t="s">
@@ -14054,14 +14081,14 @@
         <v>263</v>
       </c>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:22" ht="14.4" customHeight="1">
       <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="17" t="s">
         <v>341</v>
       </c>
-      <c r="C23" s="52"/>
+      <c r="C23" s="50"/>
       <c r="D23" s="39" t="s">
         <v>342</v>
       </c>
@@ -14095,14 +14122,14 @@
         <v>263</v>
       </c>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:22" ht="14.4" customHeight="1">
       <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="38" t="s">
+      <c r="B24" s="17" t="s">
         <v>343</v>
       </c>
-      <c r="C24" s="49"/>
+      <c r="C24" s="47"/>
       <c r="D24" s="39" t="s">
         <v>344</v>
       </c>
@@ -14136,14 +14163,14 @@
         <v>263</v>
       </c>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:22" ht="14.4" customHeight="1">
       <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="38" t="s">
+      <c r="B25" s="17" t="s">
         <v>345</v>
       </c>
-      <c r="C25" s="49"/>
+      <c r="C25" s="47"/>
       <c r="D25" s="39" t="s">
         <v>346</v>
       </c>
@@ -14177,14 +14204,14 @@
         <v>263</v>
       </c>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:22" ht="14.4" customHeight="1">
       <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="38" t="s">
+      <c r="B26" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="C26" s="49"/>
+      <c r="C26" s="47"/>
       <c r="D26" s="39" t="s">
         <v>348</v>
       </c>
@@ -14218,11 +14245,11 @@
         <v>263</v>
       </c>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:22" ht="14.4" customHeight="1">
       <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="38" t="s">
+      <c r="B27" s="17" t="s">
         <v>349</v>
       </c>
       <c r="D27" s="39" t="s">
@@ -14258,11 +14285,11 @@
         <v>263</v>
       </c>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:22" ht="14.4" customHeight="1">
       <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="38" t="s">
+      <c r="B28" s="17" t="s">
         <v>351</v>
       </c>
       <c r="D28" s="39" t="s">
@@ -14298,14 +14325,14 @@
         <v>263</v>
       </c>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:22" ht="14.4" customHeight="1">
       <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="38" t="s">
+      <c r="B29" s="17" t="s">
         <v>353</v>
       </c>
-      <c r="C29" s="46"/>
+      <c r="C29" s="44"/>
       <c r="D29" s="39" t="s">
         <v>354</v>
       </c>
@@ -14339,14 +14366,14 @@
         <v>263</v>
       </c>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:22" ht="14.4" customHeight="1">
       <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" s="38" t="s">
+      <c r="B30" s="17" t="s">
         <v>355</v>
       </c>
-      <c r="C30" s="46"/>
+      <c r="C30" s="44"/>
       <c r="D30" s="39" t="s">
         <v>356</v>
       </c>
@@ -14380,14 +14407,14 @@
         <v>263</v>
       </c>
     </row>
-    <row r="31" spans="1:22">
+    <row r="31" spans="1:22" ht="14.4" customHeight="1">
       <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="38" t="s">
+      <c r="B31" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="C31" s="46"/>
+      <c r="C31" s="44"/>
       <c r="D31" s="39" t="s">
         <v>358</v>
       </c>
@@ -14421,11 +14448,11 @@
         <v>263</v>
       </c>
     </row>
-    <row r="32" spans="1:22">
+    <row r="32" spans="1:22" ht="14.4" customHeight="1">
       <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" s="38" t="s">
+      <c r="B32" s="17" t="s">
         <v>359</v>
       </c>
       <c r="D32" s="39" t="s">
@@ -14461,11 +14488,11 @@
         <v>263</v>
       </c>
     </row>
-    <row r="33" spans="1:22">
+    <row r="33" spans="1:22" ht="14.4" customHeight="1">
       <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33" s="38" t="s">
+      <c r="B33" s="17" t="s">
         <v>361</v>
       </c>
       <c r="D33" s="39" t="s">
@@ -14501,11 +14528,11 @@
         <v>263</v>
       </c>
     </row>
-    <row r="34" spans="1:22">
+    <row r="34" spans="1:22" ht="14.4" customHeight="1">
       <c r="A34" s="2">
         <v>33</v>
       </c>
-      <c r="B34" s="38" t="s">
+      <c r="B34" s="17" t="s">
         <v>363</v>
       </c>
       <c r="D34" s="39" t="s">
@@ -14541,11 +14568,11 @@
         <v>263</v>
       </c>
     </row>
-    <row r="35" spans="1:22">
+    <row r="35" spans="1:22" ht="14.4" customHeight="1">
       <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B35" s="44" t="s">
+      <c r="B35" s="78" t="s">
         <v>375</v>
       </c>
       <c r="D35" s="43" t="s">
@@ -14581,14 +14608,14 @@
         <v>263</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="28.8">
+    <row r="36" spans="1:22" ht="14.4" customHeight="1">
       <c r="A36" s="2">
         <v>35</v>
       </c>
-      <c r="B36" s="38" t="s">
+      <c r="B36" s="17" t="s">
         <v>376</v>
       </c>
-      <c r="C36" s="46" t="s">
+      <c r="C36" s="44" t="s">
         <v>377</v>
       </c>
       <c r="D36" s="39" t="s">
@@ -14627,14 +14654,14 @@
         <v>263</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="28.8">
+    <row r="37" spans="1:22" ht="14.4" customHeight="1">
       <c r="A37" s="2">
         <v>36</v>
       </c>
-      <c r="B37" s="38" t="s">
+      <c r="B37" s="17" t="s">
         <v>382</v>
       </c>
-      <c r="C37" s="46" t="s">
+      <c r="C37" s="44" t="s">
         <v>381</v>
       </c>
       <c r="D37" s="39" t="s">
@@ -14673,11 +14700,11 @@
         <v>263</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="28.8">
+    <row r="38" spans="1:22" ht="14.4" customHeight="1">
       <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38" s="38" t="s">
+      <c r="B38" s="17" t="s">
         <v>385</v>
       </c>
       <c r="D38" s="39" t="s">
@@ -14716,11 +14743,11 @@
         <v>263</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="28.8">
+    <row r="39" spans="1:22" ht="14.4" customHeight="1">
       <c r="A39" s="2">
         <v>38</v>
       </c>
-      <c r="B39" s="38" t="s">
+      <c r="B39" s="17" t="s">
         <v>386</v>
       </c>
       <c r="D39" s="39" t="s">
@@ -14759,11 +14786,11 @@
         <v>263</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="28.8">
+    <row r="40" spans="1:22" ht="14.4" customHeight="1">
       <c r="A40" s="2">
         <v>39</v>
       </c>
-      <c r="B40" s="38" t="s">
+      <c r="B40" s="17" t="s">
         <v>390</v>
       </c>
       <c r="D40" s="39" t="s">
@@ -14802,14 +14829,14 @@
         <v>263</v>
       </c>
     </row>
-    <row r="41" spans="1:22">
+    <row r="41" spans="1:22" ht="14.4" customHeight="1">
       <c r="A41" s="2">
         <v>40</v>
       </c>
-      <c r="B41" s="38" t="s">
+      <c r="B41" s="17" t="s">
         <v>393</v>
       </c>
-      <c r="D41" s="47" t="s">
+      <c r="D41" s="45" t="s">
         <v>394</v>
       </c>
       <c r="E41" s="40" t="s">
@@ -14845,11 +14872,11 @@
         <v>263</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="28.8">
+    <row r="42" spans="1:22" ht="14.4" customHeight="1">
       <c r="A42" s="2">
         <v>41</v>
       </c>
-      <c r="B42" s="38" t="s">
+      <c r="B42" s="17" t="s">
         <v>396</v>
       </c>
       <c r="D42" s="39" t="s">
@@ -14888,14 +14915,14 @@
         <v>263</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="43.2">
+    <row r="43" spans="1:22" ht="14.4" customHeight="1">
       <c r="A43" s="2">
         <v>42</v>
       </c>
-      <c r="B43" s="38" t="s">
+      <c r="B43" s="17" t="s">
         <v>400</v>
       </c>
-      <c r="C43" s="48" t="s">
+      <c r="C43" s="46" t="s">
         <v>399</v>
       </c>
       <c r="D43" s="39" t="s">
@@ -14934,11 +14961,11 @@
         <v>263</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="28.8">
+    <row r="44" spans="1:22" ht="14.4" customHeight="1">
       <c r="A44" s="2">
         <v>43</v>
       </c>
-      <c r="B44" s="38" t="s">
+      <c r="B44" s="17" t="s">
         <v>404</v>
       </c>
       <c r="D44" s="39" t="s">
@@ -14977,11 +15004,11 @@
         <v>263</v>
       </c>
     </row>
-    <row r="45" spans="1:22">
+    <row r="45" spans="1:22" ht="14.4" customHeight="1">
       <c r="A45" s="2">
         <v>44</v>
       </c>
-      <c r="B45" s="38" t="s">
+      <c r="B45" s="17" t="s">
         <v>406</v>
       </c>
       <c r="D45" s="39" t="s">
@@ -15020,11 +15047,11 @@
         <v>263</v>
       </c>
     </row>
-    <row r="46" spans="1:22">
+    <row r="46" spans="1:22" ht="14.4" customHeight="1">
       <c r="A46" s="2">
         <v>45</v>
       </c>
-      <c r="B46" s="38" t="s">
+      <c r="B46" s="17" t="s">
         <v>409</v>
       </c>
       <c r="D46" s="39" t="s">
@@ -15063,14 +15090,14 @@
         <v>263</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="43.2">
+    <row r="47" spans="1:22" ht="14.4" customHeight="1">
       <c r="A47" s="2">
         <v>46</v>
       </c>
-      <c r="B47" s="38" t="s">
+      <c r="B47" s="17" t="s">
         <v>412</v>
       </c>
-      <c r="D47" s="47" t="s">
+      <c r="D47" s="45" t="s">
         <v>413</v>
       </c>
       <c r="E47" s="40" t="s">
@@ -15106,11 +15133,11 @@
         <v>263</v>
       </c>
     </row>
-    <row r="48" spans="1:22" ht="28.8">
+    <row r="48" spans="1:22" ht="14.4" customHeight="1">
       <c r="A48" s="2">
         <v>47</v>
       </c>
-      <c r="B48" s="38" t="s">
+      <c r="B48" s="17" t="s">
         <v>415</v>
       </c>
       <c r="D48" s="39" t="s">
@@ -15149,14 +15176,14 @@
         <v>263</v>
       </c>
     </row>
-    <row r="49" spans="1:22" ht="43.2">
+    <row r="49" spans="1:22" ht="14.4" customHeight="1">
       <c r="A49" s="2">
         <v>48</v>
       </c>
-      <c r="B49" s="38" t="s">
+      <c r="B49" s="17" t="s">
         <v>417</v>
       </c>
-      <c r="C49" s="48" t="s">
+      <c r="C49" s="46" t="s">
         <v>419</v>
       </c>
       <c r="D49" s="39" t="s">
@@ -15195,11 +15222,11 @@
         <v>263</v>
       </c>
     </row>
-    <row r="50" spans="1:22">
+    <row r="50" spans="1:22" ht="14.4" customHeight="1">
       <c r="A50" s="2">
         <v>49</v>
       </c>
-      <c r="B50" s="38" t="s">
+      <c r="B50" s="17" t="s">
         <v>420</v>
       </c>
       <c r="D50" s="39" t="s">
@@ -15238,11 +15265,11 @@
         <v>263</v>
       </c>
     </row>
-    <row r="51" spans="1:22" ht="57.6">
+    <row r="51" spans="1:22" ht="14.4" customHeight="1">
       <c r="A51" s="2">
         <v>50</v>
       </c>
-      <c r="B51" s="38" t="s">
+      <c r="B51" s="17" t="s">
         <v>423</v>
       </c>
       <c r="D51" s="39" t="s">
@@ -15281,11 +15308,11 @@
         <v>263</v>
       </c>
     </row>
-    <row r="52" spans="1:22" ht="28.8">
+    <row r="52" spans="1:22" ht="14.4" customHeight="1">
       <c r="A52" s="2">
         <v>51</v>
       </c>
-      <c r="B52" s="38" t="s">
+      <c r="B52" s="17" t="s">
         <v>428</v>
       </c>
       <c r="D52" s="39" t="s">
@@ -15324,11 +15351,11 @@
         <v>263</v>
       </c>
     </row>
-    <row r="53" spans="1:22" ht="28.8">
+    <row r="53" spans="1:22" ht="14.4" customHeight="1">
       <c r="A53" s="2">
         <v>52</v>
       </c>
-      <c r="B53" s="38" t="s">
+      <c r="B53" s="17" t="s">
         <v>431</v>
       </c>
       <c r="D53" s="39" t="s">
@@ -15367,11 +15394,11 @@
         <v>263</v>
       </c>
     </row>
-    <row r="54" spans="1:22">
+    <row r="54" spans="1:22" ht="14.4" customHeight="1">
       <c r="A54" s="2">
         <v>53</v>
       </c>
-      <c r="B54" s="38" t="s">
+      <c r="B54" s="17" t="s">
         <v>433</v>
       </c>
       <c r="D54" s="39" t="s">
@@ -16537,23 +16564,23 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Initial,Potential,Customer,Workshop Fixed,Reject,Not-Contacted,Ex-Customer"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:N1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:N1048576" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"Rahul Dutta,Sayan Basak,Anirban Chakraborty,Debashish Nath"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K1048576" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>"Technical,Non-Technical"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C36" r:id="rId1"/>
-    <hyperlink ref="C37" r:id="rId2"/>
-    <hyperlink ref="D41" r:id="rId3" display="https://www.google.com/search?sca_esv=597127733&amp;rlz=1C1CHBF_enAU1047AU1047&amp;tbs=lf:1,lf_ui:2&amp;tbm=lcl&amp;sxsrf=ACQVn0-yjBygfThguW8-plBveMrMzDiPGw:1704870884151&amp;q=engineering+colleges+in+south+calcutta&amp;rflfq=1&amp;num=10&amp;sa=X&amp;ved=2ahUKEwjQ47_7otKDAxUve2wGHY_pCzEQjGp6BAgXEAE&amp;biw=1536&amp;bih=730&amp;dpr=1.25"/>
-    <hyperlink ref="C43" r:id="rId4"/>
-    <hyperlink ref="D47" r:id="rId5" display="https://www.google.com/search?q=engineering+colleges+kolkata&amp;sca_esv=597127733&amp;rlz=1C1CHBF_enAU1047AU1047&amp;biw=1536&amp;bih=730&amp;tbm=lcl&amp;sxsrf=ACQVn09cs4SfDApVNizAZQHyNbKrHkG1kw%3A1704870889163&amp;ei=6UOeZYunCcqWseMP2bOt0A4&amp;ved=0ahUKEwjLv_H9otKDAxVKS2wGHdlZC-oQ4dUDCAk&amp;uact=5&amp;oq=engineering+colleges+kolkata&amp;gs_lp=Eg1nd3Mtd2l6LWxvY2FsIhxlbmdpbmVlcmluZyBjb2xsZWdlcyBrb2xrYXRhMgUQABiABDIGEAAYFhgeMgYQABgWGB4yCBAAGBYYHhgPMgYQABgWGB4yBhAAGBYYHjIGEAAYFhgeMgYQABgWGB4yBhAAGBYYHjIGEAAYFhgeSPErUNUEWOgmcAF4AJABAZgBqwGgAb0XqgEEMC4yM7gBA8gBAPgBAcICCxAAGIAEGIoFGIYDwgIEECMYJ8ICCxAAGIAEGIoFGJECwgIKEAAYgAQYFBiHAsICDhAAGIAEGIoFGJECGMkDiAYB&amp;sclient=gws-wiz-local"/>
-    <hyperlink ref="C49" r:id="rId6"/>
+    <hyperlink ref="C36" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="C37" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="D41" r:id="rId3" display="https://www.google.com/search?sca_esv=597127733&amp;rlz=1C1CHBF_enAU1047AU1047&amp;tbs=lf:1,lf_ui:2&amp;tbm=lcl&amp;sxsrf=ACQVn0-yjBygfThguW8-plBveMrMzDiPGw:1704870884151&amp;q=engineering+colleges+in+south+calcutta&amp;rflfq=1&amp;num=10&amp;sa=X&amp;ved=2ahUKEwjQ47_7otKDAxUve2wGHY_pCzEQjGp6BAgXEAE&amp;biw=1536&amp;bih=730&amp;dpr=1.25" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="C43" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="D47" r:id="rId5" display="https://www.google.com/search?q=engineering+colleges+kolkata&amp;sca_esv=597127733&amp;rlz=1C1CHBF_enAU1047AU1047&amp;biw=1536&amp;bih=730&amp;tbm=lcl&amp;sxsrf=ACQVn09cs4SfDApVNizAZQHyNbKrHkG1kw%3A1704870889163&amp;ei=6UOeZYunCcqWseMP2bOt0A4&amp;ved=0ahUKEwjLv_H9otKDAxVKS2wGHdlZC-oQ4dUDCAk&amp;uact=5&amp;oq=engineering+colleges+kolkata&amp;gs_lp=Eg1nd3Mtd2l6LWxvY2FsIhxlbmdpbmVlcmluZyBjb2xsZWdlcyBrb2xrYXRhMgUQABiABDIGEAAYFhgeMgYQABgWGB4yCBAAGBYYHhgPMgYQABgWGB4yBhAAGBYYHjIGEAAYFhgeMgYQABgWGB4yBhAAGBYYHjIGEAAYFhgeSPErUNUEWOgmcAF4AJABAZgBqwGgAb0XqgEEMC4yM7gBA8gBAPgBAcICCxAAGIAEGIoFGIYDwgIEECMYJ8ICCxAAGIAEGIoFGJECwgIKEAAYgAQYFBiHAsICDhAAGIAEGIoFGJECGMkDiAYB&amp;sclient=gws-wiz-local" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="C49" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
@@ -16562,7 +16589,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16684,7 +16711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16693,12 +16720,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" style="58" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.77734375" style="56" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="65" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="57" t="s">
         <v>248</v>
       </c>
       <c r="B1" s="21" t="s">
@@ -16767,7 +16794,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C111"/>
   <sheetViews>
     <sheetView zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
@@ -16792,36 +16819,36 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="56" customFormat="1" ht="14.4" customHeight="1">
+    <row r="2" spans="1:3" s="54" customFormat="1" ht="14.4" customHeight="1">
       <c r="A2" s="38">
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="53" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="56" customFormat="1" ht="14.4" customHeight="1">
+    <row r="3" spans="1:3" s="54" customFormat="1" ht="14.4" customHeight="1">
       <c r="A3" s="38">
         <v>2</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="53" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="56" customFormat="1" ht="14.4" customHeight="1">
+    <row r="4" spans="1:3" s="54" customFormat="1" ht="14.4" customHeight="1">
       <c r="A4" s="38">
         <v>3</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="55" t="s">
         <v>46</v>
       </c>
     </row>
@@ -18004,8 +18031,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" display="https://www.google.com/search?q=panchasayar+siksha+niketan&amp;sca_esv=593615924&amp;rlz=1C1CHBF_enAU1047AU1047&amp;sxsrf=AM9HkKnlKkWvrpmDIvMzNnJR8ZC_8s6gNQ%3A1703524925488&amp;ei=PbqJZaauHY2KnesPo--TuAo&amp;gs_ssp=eJzj4tFP1zc0MqnMzTa1TDNgtFI1qDBONDAyNzRPNU1LM0xOTkuyAgqZpJmZmJgnGZgZGSWnpSV5SRUk5iVnJBYnViYWKRRnZhdnJCrkZWanliTmAQC7Qxln&amp;oq=panchasayar+s&amp;gs_lp=Egxnd3Mtd2l6LXNlcnAiDXBhbmNoYXNheWFyIHMqAggAMhQQLhivARjHARimAxioAxiABBiOBTIFEAAYgAQyBRAAGIAEMgsQLhiABBioAxidAzIFEAAYgAQyBRAAGIAEMgUQABiABDIFEAAYgAQyCBAAGIAEGMsBMggQABiABBjLATIjEC4YrwEYxwEYpgMYqAMYgAQYjgUYlwUY3AQY3gQY4ATYAQNIuzhQmhhYmCVwAXgBkAEAmAGvAqAB1gSqAQUyLTEuMbgBAcgBAPgBAcICChAAGEcY1gQYsAPCAg0QABiABBiKBRhDGLADwgIcEC4YgAQYigUYQxjHARivARjIAxiwAxiOBdgBAcICGRAuGIAEGIoFGEMYxwEYrwEYyAMYsAPYAQHCAg4QABjkAhjWBBiwA9gBAsICEBAuGEMYnQMYqAMYgAQYigXCAhAQLhiABBiKBRhDGKgDGJ0DwgIWEC4YQxivARjHARimAxioAxiABBiKBcICChAAGIAEGBQYhwLCAh8QLhhDGJ0DGKgDGIAEGIoFGJcFGNwEGN4EGOAE2AED4gMEGAAgQYgGAZAGDroGBggBEAEYCLoGBggCEAEYCboGBggDEAEYFA&amp;sclient=gws-wiz-serp"/>
-    <hyperlink ref="C6" r:id="rId2" display="https://www.google.com/search?q=miranda+high+school&amp;sca_esv=593615924&amp;rlz=1C1CHBF_enAU1047AU1047&amp;sxsrf=AM9HkKmR8dFtasrVNGZkMFIxGz5Wq06ZjA%3A1703525037148&amp;ei=rbqJZczSCOCWjuMPsMy_8AM&amp;oq=miranda+high+&amp;gs_lp=Egxnd3Mtd2l6LXNlcnAiDW1pcmFuZGEgaGlnaCAqAggAMg0QABiABBgUGIcCGMkDMgUQABiABDILEAAYgAQYigUYkgMyBRAAGIAEMgUQABiABDIKEAAYgAQYFBiHAjIFEAAYgAQyBRAAGIAEMgUQABiABDIFEAAYgARI7RNQ6AZY6AZwAXgAkAEAmAH0BqABuAyqAQM2LTK4AQHIAQD4AQHCAgoQABhHGNYEGLAD4gMEGAAgQYgGAZAGCA&amp;sclient=gws-wiz-serp&amp;lqi=ChNtaXJhbmRhIGhpZ2ggc2Nob29sSN-07OW4roCACForEAAQARACGAAYARgCIhNtaXJhbmRhIGhpZ2ggc2Nob29sKggIAhAAEAEQApIBBnNjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOUGNqUnVSbVZuRUFFqgE7EAEyHhABIhpTQ3iPFiqMHHb-9vGb0lli1Rpc5Z8xE87GgDIXEAIiE21pcmFuZGEgaGlnaCBzY2hvb2w"/>
+    <hyperlink ref="C5" r:id="rId1" display="https://www.google.com/search?q=panchasayar+siksha+niketan&amp;sca_esv=593615924&amp;rlz=1C1CHBF_enAU1047AU1047&amp;sxsrf=AM9HkKnlKkWvrpmDIvMzNnJR8ZC_8s6gNQ%3A1703524925488&amp;ei=PbqJZaauHY2KnesPo--TuAo&amp;gs_ssp=eJzj4tFP1zc0MqnMzTa1TDNgtFI1qDBONDAyNzRPNU1LM0xOTkuyAgqZpJmZmJgnGZgZGSWnpSV5SRUk5iVnJBYnViYWKRRnZhdnJCrkZWanliTmAQC7Qxln&amp;oq=panchasayar+s&amp;gs_lp=Egxnd3Mtd2l6LXNlcnAiDXBhbmNoYXNheWFyIHMqAggAMhQQLhivARjHARimAxioAxiABBiOBTIFEAAYgAQyBRAAGIAEMgsQLhiABBioAxidAzIFEAAYgAQyBRAAGIAEMgUQABiABDIFEAAYgAQyCBAAGIAEGMsBMggQABiABBjLATIjEC4YrwEYxwEYpgMYqAMYgAQYjgUYlwUY3AQY3gQY4ATYAQNIuzhQmhhYmCVwAXgBkAEAmAGvAqAB1gSqAQUyLTEuMbgBAcgBAPgBAcICChAAGEcY1gQYsAPCAg0QABiABBiKBRhDGLADwgIcEC4YgAQYigUYQxjHARivARjIAxiwAxiOBdgBAcICGRAuGIAEGIoFGEMYxwEYrwEYyAMYsAPYAQHCAg4QABjkAhjWBBiwA9gBAsICEBAuGEMYnQMYqAMYgAQYigXCAhAQLhiABBiKBRhDGKgDGJ0DwgIWEC4YQxivARjHARimAxioAxiABBiKBcICChAAGIAEGBQYhwLCAh8QLhhDGJ0DGKgDGIAEGIoFGJcFGNwEGN4EGOAE2AED4gMEGAAgQYgGAZAGDroGBggBEAEYCLoGBggCEAEYCboGBggDEAEYFA&amp;sclient=gws-wiz-serp" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="C6" r:id="rId2" display="https://www.google.com/search?q=miranda+high+school&amp;sca_esv=593615924&amp;rlz=1C1CHBF_enAU1047AU1047&amp;sxsrf=AM9HkKmR8dFtasrVNGZkMFIxGz5Wq06ZjA%3A1703525037148&amp;ei=rbqJZczSCOCWjuMPsMy_8AM&amp;oq=miranda+high+&amp;gs_lp=Egxnd3Mtd2l6LXNlcnAiDW1pcmFuZGEgaGlnaCAqAggAMg0QABiABBgUGIcCGMkDMgUQABiABDILEAAYgAQYigUYkgMyBRAAGIAEMgUQABiABDIKEAAYgAQYFBiHAjIFEAAYgAQyBRAAGIAEMgUQABiABDIFEAAYgARI7RNQ6AZY6AZwAXgAkAEAmAH0BqABuAyqAQM2LTK4AQHIAQD4AQHCAgoQABhHGNYEGLAD4gMEGAAgQYgGAZAGCA&amp;sclient=gws-wiz-serp&amp;lqi=ChNtaXJhbmRhIGhpZ2ggc2Nob29sSN-07OW4roCACForEAAQARACGAAYARgCIhNtaXJhbmRhIGhpZ2ggc2Nob29sKggIAhAAEAEQApIBBnNjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOUGNqUnVSbVZuRUFFqgE7EAEyHhABIhpTQ3iPFiqMHHb-9vGb0lli1Rpc5Z8xE87GgDIXEAIiE21pcmFuZGEgaGlnaCBzY2hvb2w" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Offline/BusinessManagement/Marketing/AI marketing/AI Workshop Schools-Colleges.xlsx
+++ b/Offline/BusinessManagement/Marketing/AI marketing/AI Workshop Schools-Colleges.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Marketing\AI marketing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBFCBE92-C6D7-45B4-87F9-E30552CE1554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="506" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="506" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="8" r:id="rId1"/>
@@ -23,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'School-Details'!$A$1:$V$124</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,13 +41,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>del</author>
     <author>User</author>
   </authors>
   <commentList>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -72,7 +71,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M28" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="M28" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -91,12 +90,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>del</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1369,10 +1368,6 @@
     <t>Liluah</t>
   </si>
   <si>
-    <t xml:space="preserve"> Meghnad Saha Institute Of Technology
-</t>
-  </si>
-  <si>
     <t>70445 98807</t>
   </si>
   <si>
@@ -2355,12 +2350,16 @@
   <si>
     <t>9038724147</t>
   </si>
+  <si>
+    <t xml:space="preserve">Meghnad Saha Institute Of Technology
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="37">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2536,13 +2535,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
- 